--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="93">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -458,10 +458,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -469,13 +469,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -483,13 +483,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -641,7 +641,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G487" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G514" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -9771,301 +9771,625 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="4"/>
-      <c r="B388" s="5"/>
-      <c r="C388" s="6"/>
-      <c r="D388" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E388" s="6"/>
-      <c r="F388" s="6"/>
-      <c r="G388" s="7"/>
+      <c r="A388" s="12">
+        <v>45896.82693217593</v>
+      </c>
+      <c r="B388" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C388" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D388" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E388" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F388" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G388" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="389">
-      <c r="A389" s="16"/>
-      <c r="B389" s="17"/>
-      <c r="C389" s="18"/>
-      <c r="D389" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E389" s="18"/>
-      <c r="F389" s="18"/>
-      <c r="G389" s="19"/>
+      <c r="A389" s="8">
+        <v>45897.4342965625</v>
+      </c>
+      <c r="B389" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C389" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D389" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E389" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F389" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G389" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="390">
-      <c r="A390" s="4"/>
-      <c r="B390" s="5"/>
-      <c r="C390" s="6"/>
-      <c r="D390" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E390" s="6"/>
-      <c r="F390" s="6"/>
-      <c r="G390" s="7"/>
+      <c r="A390" s="12">
+        <v>45897.8981194213</v>
+      </c>
+      <c r="B390" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C390" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D390" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E390" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F390" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G390" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="391">
-      <c r="A391" s="16"/>
-      <c r="B391" s="17"/>
-      <c r="C391" s="18"/>
-      <c r="D391" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E391" s="18"/>
-      <c r="F391" s="18"/>
-      <c r="G391" s="19"/>
+      <c r="A391" s="8">
+        <v>45897.89834753472</v>
+      </c>
+      <c r="B391" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C391" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D391" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E391" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F391" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G391" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="392">
-      <c r="A392" s="4"/>
-      <c r="B392" s="5"/>
-      <c r="C392" s="6"/>
-      <c r="D392" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E392" s="6"/>
-      <c r="F392" s="6"/>
-      <c r="G392" s="7"/>
+      <c r="A392" s="12">
+        <v>45897.901761898145</v>
+      </c>
+      <c r="B392" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C392" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D392" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E392" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F392" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G392" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="393">
-      <c r="A393" s="16"/>
-      <c r="B393" s="17"/>
-      <c r="C393" s="18"/>
-      <c r="D393" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E393" s="18"/>
-      <c r="F393" s="18"/>
-      <c r="G393" s="19"/>
+      <c r="A393" s="8">
+        <v>45897.905216354164</v>
+      </c>
+      <c r="B393" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C393" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D393" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E393" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F393" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G393" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="394">
-      <c r="A394" s="4"/>
-      <c r="B394" s="5"/>
-      <c r="C394" s="6"/>
-      <c r="D394" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E394" s="6"/>
-      <c r="F394" s="6"/>
-      <c r="G394" s="7"/>
+      <c r="A394" s="12">
+        <v>45897.90637956018</v>
+      </c>
+      <c r="B394" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C394" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D394" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E394" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F394" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G394" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="395">
-      <c r="A395" s="16"/>
-      <c r="B395" s="17"/>
-      <c r="C395" s="18"/>
-      <c r="D395" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E395" s="18"/>
-      <c r="F395" s="18"/>
-      <c r="G395" s="19"/>
+      <c r="A395" s="8">
+        <v>45897.90919835649</v>
+      </c>
+      <c r="B395" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C395" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D395" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E395" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F395" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G395" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="396">
-      <c r="A396" s="4"/>
-      <c r="B396" s="5"/>
-      <c r="C396" s="6"/>
-      <c r="D396" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E396" s="6"/>
-      <c r="F396" s="6"/>
-      <c r="G396" s="7"/>
+      <c r="A396" s="12">
+        <v>45897.91482943287</v>
+      </c>
+      <c r="B396" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C396" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D396" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E396" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F396" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G396" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="397">
-      <c r="A397" s="16"/>
-      <c r="B397" s="17"/>
-      <c r="C397" s="18"/>
-      <c r="D397" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E397" s="18"/>
-      <c r="F397" s="18"/>
-      <c r="G397" s="19"/>
+      <c r="A397" s="8">
+        <v>45897.926547372685</v>
+      </c>
+      <c r="B397" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C397" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D397" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E397" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F397" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G397" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="398">
-      <c r="A398" s="4"/>
-      <c r="B398" s="5"/>
-      <c r="C398" s="6"/>
-      <c r="D398" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E398" s="6"/>
-      <c r="F398" s="6"/>
-      <c r="G398" s="7"/>
+      <c r="A398" s="12">
+        <v>45897.93368364584</v>
+      </c>
+      <c r="B398" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C398" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D398" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E398" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F398" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G398" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="399">
-      <c r="A399" s="16"/>
-      <c r="B399" s="17"/>
-      <c r="C399" s="18"/>
-      <c r="D399" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E399" s="18"/>
-      <c r="F399" s="18"/>
-      <c r="G399" s="19"/>
+      <c r="A399" s="8">
+        <v>45898.5588016088</v>
+      </c>
+      <c r="B399" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C399" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D399" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E399" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F399" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G399" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="400">
-      <c r="A400" s="4"/>
-      <c r="B400" s="5"/>
-      <c r="C400" s="6"/>
-      <c r="D400" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E400" s="6"/>
-      <c r="F400" s="6"/>
-      <c r="G400" s="7"/>
+      <c r="A400" s="12">
+        <v>45898.57760391204</v>
+      </c>
+      <c r="B400" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C400" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D400" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E400" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F400" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G400" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="401">
-      <c r="A401" s="16"/>
-      <c r="B401" s="17"/>
-      <c r="C401" s="18"/>
-      <c r="D401" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E401" s="18"/>
-      <c r="F401" s="18"/>
-      <c r="G401" s="19"/>
+      <c r="A401" s="8">
+        <v>45898.58391987269</v>
+      </c>
+      <c r="B401" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C401" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D401" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E401" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F401" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G401" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="402">
-      <c r="A402" s="4"/>
-      <c r="B402" s="5"/>
-      <c r="C402" s="6"/>
-      <c r="D402" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E402" s="6"/>
-      <c r="F402" s="6"/>
-      <c r="G402" s="7"/>
+      <c r="A402" s="12">
+        <v>45898.60859103009</v>
+      </c>
+      <c r="B402" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C402" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D402" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E402" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F402" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G402" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="403">
-      <c r="A403" s="16"/>
-      <c r="B403" s="17"/>
-      <c r="C403" s="18"/>
-      <c r="D403" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E403" s="18"/>
-      <c r="F403" s="18"/>
-      <c r="G403" s="19"/>
+      <c r="A403" s="8">
+        <v>45898.610556898144</v>
+      </c>
+      <c r="B403" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C403" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D403" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E403" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F403" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G403" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="404">
-      <c r="A404" s="4"/>
-      <c r="B404" s="5"/>
-      <c r="C404" s="6"/>
-      <c r="D404" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E404" s="6"/>
-      <c r="F404" s="6"/>
-      <c r="G404" s="7"/>
+      <c r="A404" s="12">
+        <v>45898.634029594905</v>
+      </c>
+      <c r="B404" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C404" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D404" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E404" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F404" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G404" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="405">
-      <c r="A405" s="16"/>
-      <c r="B405" s="17"/>
-      <c r="C405" s="18"/>
-      <c r="D405" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E405" s="18"/>
-      <c r="F405" s="18"/>
-      <c r="G405" s="19"/>
+      <c r="A405" s="8">
+        <v>45898.64694358796</v>
+      </c>
+      <c r="B405" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C405" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D405" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E405" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F405" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G405" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="406">
-      <c r="A406" s="4"/>
-      <c r="B406" s="5"/>
-      <c r="C406" s="6"/>
-      <c r="D406" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E406" s="6"/>
-      <c r="F406" s="6"/>
-      <c r="G406" s="7"/>
+      <c r="A406" s="12">
+        <v>45899.62866052083</v>
+      </c>
+      <c r="B406" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C406" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D406" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E406" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F406" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G406" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="407">
-      <c r="A407" s="16"/>
-      <c r="B407" s="17"/>
-      <c r="C407" s="18"/>
-      <c r="D407" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E407" s="18"/>
-      <c r="F407" s="18"/>
-      <c r="G407" s="19"/>
+      <c r="A407" s="8">
+        <v>45899.633389062496</v>
+      </c>
+      <c r="B407" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C407" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D407" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E407" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F407" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G407" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="408">
-      <c r="A408" s="4"/>
-      <c r="B408" s="5"/>
-      <c r="C408" s="6"/>
-      <c r="D408" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E408" s="6"/>
-      <c r="F408" s="6"/>
-      <c r="G408" s="7"/>
+      <c r="A408" s="12">
+        <v>45899.65121561343</v>
+      </c>
+      <c r="B408" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C408" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D408" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E408" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F408" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G408" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="409">
-      <c r="A409" s="16"/>
-      <c r="B409" s="17"/>
-      <c r="C409" s="18"/>
-      <c r="D409" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E409" s="18"/>
-      <c r="F409" s="18"/>
-      <c r="G409" s="19"/>
+      <c r="A409" s="8">
+        <v>45899.65198822916</v>
+      </c>
+      <c r="B409" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C409" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D409" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E409" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F409" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G409" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="410">
-      <c r="A410" s="4"/>
-      <c r="B410" s="5"/>
-      <c r="C410" s="6"/>
-      <c r="D410" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E410" s="6"/>
-      <c r="F410" s="6"/>
-      <c r="G410" s="7"/>
+      <c r="A410" s="12">
+        <v>45899.65470646991</v>
+      </c>
+      <c r="B410" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C410" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D410" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E410" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F410" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G410" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="411">
-      <c r="A411" s="16"/>
-      <c r="B411" s="17"/>
-      <c r="C411" s="18"/>
-      <c r="D411" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E411" s="18"/>
-      <c r="F411" s="18"/>
-      <c r="G411" s="19"/>
+      <c r="A411" s="8">
+        <v>45899.68458782407</v>
+      </c>
+      <c r="B411" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C411" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D411" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E411" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F411" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G411" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="412">
-      <c r="A412" s="4"/>
-      <c r="B412" s="5"/>
-      <c r="C412" s="6"/>
-      <c r="D412" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E412" s="6"/>
-      <c r="F412" s="6"/>
-      <c r="G412" s="7"/>
+      <c r="A412" s="12">
+        <v>45899.68521365741</v>
+      </c>
+      <c r="B412" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C412" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D412" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E412" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F412" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G412" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="413">
-      <c r="A413" s="16"/>
-      <c r="B413" s="17"/>
-      <c r="C413" s="18"/>
-      <c r="D413" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E413" s="18"/>
-      <c r="F413" s="18"/>
-      <c r="G413" s="19"/>
+      <c r="A413" s="8">
+        <v>45899.69000982639</v>
+      </c>
+      <c r="B413" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C413" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D413" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E413" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F413" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G413" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="414">
-      <c r="A414" s="4"/>
-      <c r="B414" s="5"/>
-      <c r="C414" s="6"/>
-      <c r="D414" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E414" s="6"/>
-      <c r="F414" s="6"/>
-      <c r="G414" s="7"/>
+      <c r="A414" s="12">
+        <v>45899.70623444444</v>
+      </c>
+      <c r="B414" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C414" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D414" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E414" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F414" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G414" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="16"/>
@@ -10860,15 +11184,312 @@
       <c r="G486" s="7"/>
     </row>
     <row r="487">
-      <c r="A487" s="20"/>
-      <c r="B487" s="21"/>
-      <c r="C487" s="22"/>
-      <c r="D487" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E487" s="22"/>
-      <c r="F487" s="22"/>
-      <c r="G487" s="23"/>
+      <c r="A487" s="16"/>
+      <c r="B487" s="17"/>
+      <c r="C487" s="18"/>
+      <c r="D487" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E487" s="18"/>
+      <c r="F487" s="18"/>
+      <c r="G487" s="19"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="4"/>
+      <c r="B488" s="5"/>
+      <c r="C488" s="6"/>
+      <c r="D488" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E488" s="6"/>
+      <c r="F488" s="6"/>
+      <c r="G488" s="7"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="16"/>
+      <c r="B489" s="17"/>
+      <c r="C489" s="18"/>
+      <c r="D489" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E489" s="18"/>
+      <c r="F489" s="18"/>
+      <c r="G489" s="19"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="4"/>
+      <c r="B490" s="5"/>
+      <c r="C490" s="6"/>
+      <c r="D490" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E490" s="6"/>
+      <c r="F490" s="6"/>
+      <c r="G490" s="7"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="16"/>
+      <c r="B491" s="17"/>
+      <c r="C491" s="18"/>
+      <c r="D491" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E491" s="18"/>
+      <c r="F491" s="18"/>
+      <c r="G491" s="19"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="4"/>
+      <c r="B492" s="5"/>
+      <c r="C492" s="6"/>
+      <c r="D492" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E492" s="6"/>
+      <c r="F492" s="6"/>
+      <c r="G492" s="7"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="16"/>
+      <c r="B493" s="17"/>
+      <c r="C493" s="18"/>
+      <c r="D493" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E493" s="18"/>
+      <c r="F493" s="18"/>
+      <c r="G493" s="19"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="4"/>
+      <c r="B494" s="5"/>
+      <c r="C494" s="6"/>
+      <c r="D494" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E494" s="6"/>
+      <c r="F494" s="6"/>
+      <c r="G494" s="7"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="16"/>
+      <c r="B495" s="17"/>
+      <c r="C495" s="18"/>
+      <c r="D495" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E495" s="18"/>
+      <c r="F495" s="18"/>
+      <c r="G495" s="19"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="4"/>
+      <c r="B496" s="5"/>
+      <c r="C496" s="6"/>
+      <c r="D496" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E496" s="6"/>
+      <c r="F496" s="6"/>
+      <c r="G496" s="7"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="16"/>
+      <c r="B497" s="17"/>
+      <c r="C497" s="18"/>
+      <c r="D497" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E497" s="18"/>
+      <c r="F497" s="18"/>
+      <c r="G497" s="19"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="4"/>
+      <c r="B498" s="5"/>
+      <c r="C498" s="6"/>
+      <c r="D498" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E498" s="6"/>
+      <c r="F498" s="6"/>
+      <c r="G498" s="7"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="16"/>
+      <c r="B499" s="17"/>
+      <c r="C499" s="18"/>
+      <c r="D499" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E499" s="18"/>
+      <c r="F499" s="18"/>
+      <c r="G499" s="19"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="4"/>
+      <c r="B500" s="5"/>
+      <c r="C500" s="6"/>
+      <c r="D500" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E500" s="6"/>
+      <c r="F500" s="6"/>
+      <c r="G500" s="7"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="16"/>
+      <c r="B501" s="17"/>
+      <c r="C501" s="18"/>
+      <c r="D501" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E501" s="18"/>
+      <c r="F501" s="18"/>
+      <c r="G501" s="19"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="4"/>
+      <c r="B502" s="5"/>
+      <c r="C502" s="6"/>
+      <c r="D502" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E502" s="6"/>
+      <c r="F502" s="6"/>
+      <c r="G502" s="7"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="16"/>
+      <c r="B503" s="17"/>
+      <c r="C503" s="18"/>
+      <c r="D503" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E503" s="18"/>
+      <c r="F503" s="18"/>
+      <c r="G503" s="19"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="4"/>
+      <c r="B504" s="5"/>
+      <c r="C504" s="6"/>
+      <c r="D504" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E504" s="6"/>
+      <c r="F504" s="6"/>
+      <c r="G504" s="7"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="16"/>
+      <c r="B505" s="17"/>
+      <c r="C505" s="18"/>
+      <c r="D505" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E505" s="18"/>
+      <c r="F505" s="18"/>
+      <c r="G505" s="19"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="4"/>
+      <c r="B506" s="5"/>
+      <c r="C506" s="6"/>
+      <c r="D506" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E506" s="6"/>
+      <c r="F506" s="6"/>
+      <c r="G506" s="7"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="16"/>
+      <c r="B507" s="17"/>
+      <c r="C507" s="18"/>
+      <c r="D507" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E507" s="18"/>
+      <c r="F507" s="18"/>
+      <c r="G507" s="19"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="4"/>
+      <c r="B508" s="5"/>
+      <c r="C508" s="6"/>
+      <c r="D508" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E508" s="6"/>
+      <c r="F508" s="6"/>
+      <c r="G508" s="7"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="16"/>
+      <c r="B509" s="17"/>
+      <c r="C509" s="18"/>
+      <c r="D509" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E509" s="18"/>
+      <c r="F509" s="18"/>
+      <c r="G509" s="19"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="4"/>
+      <c r="B510" s="5"/>
+      <c r="C510" s="6"/>
+      <c r="D510" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E510" s="6"/>
+      <c r="F510" s="6"/>
+      <c r="G510" s="7"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="16"/>
+      <c r="B511" s="17"/>
+      <c r="C511" s="18"/>
+      <c r="D511" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E511" s="18"/>
+      <c r="F511" s="18"/>
+      <c r="G511" s="19"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="4"/>
+      <c r="B512" s="5"/>
+      <c r="C512" s="6"/>
+      <c r="D512" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E512" s="6"/>
+      <c r="F512" s="6"/>
+      <c r="G512" s="7"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="16"/>
+      <c r="B513" s="17"/>
+      <c r="C513" s="18"/>
+      <c r="D513" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E513" s="18"/>
+      <c r="F513" s="18"/>
+      <c r="G513" s="19"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="20"/>
+      <c r="B514" s="21"/>
+      <c r="C514" s="22"/>
+      <c r="D514" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E514" s="22"/>
+      <c r="F514" s="22"/>
+      <c r="G514" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3281" uniqueCount="94">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ana pau </t>
+  </si>
+  <si>
+    <t>10 máximo</t>
   </si>
   <si>
     <t/>
@@ -458,10 +461,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -469,13 +472,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -483,13 +486,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -641,7 +644,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G514" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G523" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -10392,110 +10395,218 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="16"/>
-      <c r="B415" s="17"/>
-      <c r="C415" s="18"/>
-      <c r="D415" s="18" t="s">
+      <c r="A415" s="8">
+        <v>45900.90144605324</v>
+      </c>
+      <c r="B415" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C415" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D415" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E415" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E415" s="18"/>
-      <c r="F415" s="18"/>
-      <c r="G415" s="19"/>
+      <c r="F415" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G415" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="416">
-      <c r="A416" s="4"/>
-      <c r="B416" s="5"/>
-      <c r="C416" s="6"/>
-      <c r="D416" s="6" t="s">
+      <c r="A416" s="12">
+        <v>45900.90280681713</v>
+      </c>
+      <c r="B416" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C416" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D416" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E416" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F416" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G416" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="8">
+        <v>45900.906368634256</v>
+      </c>
+      <c r="B417" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C417" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D417" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E417" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F417" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G417" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="12">
+        <v>45900.911034537035</v>
+      </c>
+      <c r="B418" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C418" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D418" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E418" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F418" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G418" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="8">
+        <v>45900.9111315162</v>
+      </c>
+      <c r="B419" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C419" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D419" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E419" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F419" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G419" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="12">
+        <v>45900.91120474537</v>
+      </c>
+      <c r="B420" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C420" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D420" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E420" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F420" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G420" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="8">
+        <v>45900.91153305555</v>
+      </c>
+      <c r="B421" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C421" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D421" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E421" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F421" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G421" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="12">
+        <v>45900.91169070602</v>
+      </c>
+      <c r="B422" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C422" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D422" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E422" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E416" s="6"/>
-      <c r="F416" s="6"/>
-      <c r="G416" s="7"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="16"/>
-      <c r="B417" s="17"/>
-      <c r="C417" s="18"/>
-      <c r="D417" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E417" s="18"/>
-      <c r="F417" s="18"/>
-      <c r="G417" s="19"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="4"/>
-      <c r="B418" s="5"/>
-      <c r="C418" s="6"/>
-      <c r="D418" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E418" s="6"/>
-      <c r="F418" s="6"/>
-      <c r="G418" s="7"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="16"/>
-      <c r="B419" s="17"/>
-      <c r="C419" s="18"/>
-      <c r="D419" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E419" s="18"/>
-      <c r="F419" s="18"/>
-      <c r="G419" s="19"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="4"/>
-      <c r="B420" s="5"/>
-      <c r="C420" s="6"/>
-      <c r="D420" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E420" s="6"/>
-      <c r="F420" s="6"/>
-      <c r="G420" s="7"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="16"/>
-      <c r="B421" s="17"/>
-      <c r="C421" s="18"/>
-      <c r="D421" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E421" s="18"/>
-      <c r="F421" s="18"/>
-      <c r="G421" s="19"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="4"/>
-      <c r="B422" s="5"/>
-      <c r="C422" s="6"/>
-      <c r="D422" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E422" s="6"/>
-      <c r="F422" s="6"/>
-      <c r="G422" s="7"/>
+      <c r="F422" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G422" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="423">
-      <c r="A423" s="16"/>
-      <c r="B423" s="17"/>
-      <c r="C423" s="18"/>
-      <c r="D423" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E423" s="18"/>
-      <c r="F423" s="18"/>
-      <c r="G423" s="19"/>
+      <c r="A423" s="8">
+        <v>45900.93269518518</v>
+      </c>
+      <c r="B423" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C423" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D423" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E423" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F423" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G423" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="4"/>
       <c r="B424" s="5"/>
       <c r="C424" s="6"/>
       <c r="D424" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E424" s="6"/>
       <c r="F424" s="6"/>
@@ -10506,7 +10617,7 @@
       <c r="B425" s="17"/>
       <c r="C425" s="18"/>
       <c r="D425" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E425" s="18"/>
       <c r="F425" s="18"/>
@@ -10517,7 +10628,7 @@
       <c r="B426" s="5"/>
       <c r="C426" s="6"/>
       <c r="D426" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E426" s="6"/>
       <c r="F426" s="6"/>
@@ -10528,7 +10639,7 @@
       <c r="B427" s="17"/>
       <c r="C427" s="18"/>
       <c r="D427" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E427" s="18"/>
       <c r="F427" s="18"/>
@@ -10539,7 +10650,7 @@
       <c r="B428" s="5"/>
       <c r="C428" s="6"/>
       <c r="D428" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E428" s="6"/>
       <c r="F428" s="6"/>
@@ -10550,7 +10661,7 @@
       <c r="B429" s="17"/>
       <c r="C429" s="18"/>
       <c r="D429" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E429" s="18"/>
       <c r="F429" s="18"/>
@@ -10561,7 +10672,7 @@
       <c r="B430" s="5"/>
       <c r="C430" s="6"/>
       <c r="D430" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E430" s="6"/>
       <c r="F430" s="6"/>
@@ -10572,7 +10683,7 @@
       <c r="B431" s="17"/>
       <c r="C431" s="18"/>
       <c r="D431" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E431" s="18"/>
       <c r="F431" s="18"/>
@@ -10583,7 +10694,7 @@
       <c r="B432" s="5"/>
       <c r="C432" s="6"/>
       <c r="D432" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E432" s="6"/>
       <c r="F432" s="6"/>
@@ -10594,7 +10705,7 @@
       <c r="B433" s="17"/>
       <c r="C433" s="18"/>
       <c r="D433" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E433" s="18"/>
       <c r="F433" s="18"/>
@@ -10605,7 +10716,7 @@
       <c r="B434" s="5"/>
       <c r="C434" s="6"/>
       <c r="D434" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E434" s="6"/>
       <c r="F434" s="6"/>
@@ -10616,7 +10727,7 @@
       <c r="B435" s="17"/>
       <c r="C435" s="18"/>
       <c r="D435" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E435" s="18"/>
       <c r="F435" s="18"/>
@@ -10627,7 +10738,7 @@
       <c r="B436" s="5"/>
       <c r="C436" s="6"/>
       <c r="D436" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E436" s="6"/>
       <c r="F436" s="6"/>
@@ -10638,7 +10749,7 @@
       <c r="B437" s="17"/>
       <c r="C437" s="18"/>
       <c r="D437" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E437" s="18"/>
       <c r="F437" s="18"/>
@@ -10649,7 +10760,7 @@
       <c r="B438" s="5"/>
       <c r="C438" s="6"/>
       <c r="D438" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E438" s="6"/>
       <c r="F438" s="6"/>
@@ -10660,7 +10771,7 @@
       <c r="B439" s="17"/>
       <c r="C439" s="18"/>
       <c r="D439" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E439" s="18"/>
       <c r="F439" s="18"/>
@@ -10671,7 +10782,7 @@
       <c r="B440" s="5"/>
       <c r="C440" s="6"/>
       <c r="D440" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E440" s="6"/>
       <c r="F440" s="6"/>
@@ -10682,7 +10793,7 @@
       <c r="B441" s="17"/>
       <c r="C441" s="18"/>
       <c r="D441" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E441" s="18"/>
       <c r="F441" s="18"/>
@@ -10693,7 +10804,7 @@
       <c r="B442" s="5"/>
       <c r="C442" s="6"/>
       <c r="D442" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E442" s="6"/>
       <c r="F442" s="6"/>
@@ -10704,7 +10815,7 @@
       <c r="B443" s="17"/>
       <c r="C443" s="18"/>
       <c r="D443" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E443" s="18"/>
       <c r="F443" s="18"/>
@@ -10715,7 +10826,7 @@
       <c r="B444" s="5"/>
       <c r="C444" s="6"/>
       <c r="D444" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E444" s="6"/>
       <c r="F444" s="6"/>
@@ -10726,7 +10837,7 @@
       <c r="B445" s="17"/>
       <c r="C445" s="18"/>
       <c r="D445" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E445" s="18"/>
       <c r="F445" s="18"/>
@@ -10737,7 +10848,7 @@
       <c r="B446" s="5"/>
       <c r="C446" s="6"/>
       <c r="D446" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E446" s="6"/>
       <c r="F446" s="6"/>
@@ -10748,7 +10859,7 @@
       <c r="B447" s="17"/>
       <c r="C447" s="18"/>
       <c r="D447" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E447" s="18"/>
       <c r="F447" s="18"/>
@@ -10759,7 +10870,7 @@
       <c r="B448" s="5"/>
       <c r="C448" s="6"/>
       <c r="D448" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E448" s="6"/>
       <c r="F448" s="6"/>
@@ -10770,7 +10881,7 @@
       <c r="B449" s="17"/>
       <c r="C449" s="18"/>
       <c r="D449" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E449" s="18"/>
       <c r="F449" s="18"/>
@@ -10781,7 +10892,7 @@
       <c r="B450" s="5"/>
       <c r="C450" s="6"/>
       <c r="D450" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E450" s="6"/>
       <c r="F450" s="6"/>
@@ -10792,7 +10903,7 @@
       <c r="B451" s="17"/>
       <c r="C451" s="18"/>
       <c r="D451" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E451" s="18"/>
       <c r="F451" s="18"/>
@@ -10803,7 +10914,7 @@
       <c r="B452" s="5"/>
       <c r="C452" s="6"/>
       <c r="D452" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E452" s="6"/>
       <c r="F452" s="6"/>
@@ -10814,7 +10925,7 @@
       <c r="B453" s="17"/>
       <c r="C453" s="18"/>
       <c r="D453" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E453" s="18"/>
       <c r="F453" s="18"/>
@@ -10825,7 +10936,7 @@
       <c r="B454" s="5"/>
       <c r="C454" s="6"/>
       <c r="D454" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E454" s="6"/>
       <c r="F454" s="6"/>
@@ -10836,7 +10947,7 @@
       <c r="B455" s="17"/>
       <c r="C455" s="18"/>
       <c r="D455" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E455" s="18"/>
       <c r="F455" s="18"/>
@@ -10847,7 +10958,7 @@
       <c r="B456" s="5"/>
       <c r="C456" s="6"/>
       <c r="D456" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E456" s="6"/>
       <c r="F456" s="6"/>
@@ -10858,7 +10969,7 @@
       <c r="B457" s="17"/>
       <c r="C457" s="18"/>
       <c r="D457" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E457" s="18"/>
       <c r="F457" s="18"/>
@@ -10869,7 +10980,7 @@
       <c r="B458" s="5"/>
       <c r="C458" s="6"/>
       <c r="D458" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E458" s="6"/>
       <c r="F458" s="6"/>
@@ -10880,7 +10991,7 @@
       <c r="B459" s="17"/>
       <c r="C459" s="18"/>
       <c r="D459" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E459" s="18"/>
       <c r="F459" s="18"/>
@@ -10891,7 +11002,7 @@
       <c r="B460" s="5"/>
       <c r="C460" s="6"/>
       <c r="D460" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E460" s="6"/>
       <c r="F460" s="6"/>
@@ -10902,7 +11013,7 @@
       <c r="B461" s="17"/>
       <c r="C461" s="18"/>
       <c r="D461" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E461" s="18"/>
       <c r="F461" s="18"/>
@@ -10913,7 +11024,7 @@
       <c r="B462" s="5"/>
       <c r="C462" s="6"/>
       <c r="D462" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E462" s="6"/>
       <c r="F462" s="6"/>
@@ -10924,7 +11035,7 @@
       <c r="B463" s="17"/>
       <c r="C463" s="18"/>
       <c r="D463" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E463" s="18"/>
       <c r="F463" s="18"/>
@@ -10935,7 +11046,7 @@
       <c r="B464" s="5"/>
       <c r="C464" s="6"/>
       <c r="D464" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E464" s="6"/>
       <c r="F464" s="6"/>
@@ -10946,7 +11057,7 @@
       <c r="B465" s="17"/>
       <c r="C465" s="18"/>
       <c r="D465" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E465" s="18"/>
       <c r="F465" s="18"/>
@@ -10957,7 +11068,7 @@
       <c r="B466" s="5"/>
       <c r="C466" s="6"/>
       <c r="D466" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E466" s="6"/>
       <c r="F466" s="6"/>
@@ -10968,7 +11079,7 @@
       <c r="B467" s="17"/>
       <c r="C467" s="18"/>
       <c r="D467" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E467" s="18"/>
       <c r="F467" s="18"/>
@@ -10979,7 +11090,7 @@
       <c r="B468" s="5"/>
       <c r="C468" s="6"/>
       <c r="D468" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E468" s="6"/>
       <c r="F468" s="6"/>
@@ -10990,7 +11101,7 @@
       <c r="B469" s="17"/>
       <c r="C469" s="18"/>
       <c r="D469" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E469" s="18"/>
       <c r="F469" s="18"/>
@@ -11001,7 +11112,7 @@
       <c r="B470" s="5"/>
       <c r="C470" s="6"/>
       <c r="D470" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E470" s="6"/>
       <c r="F470" s="6"/>
@@ -11012,7 +11123,7 @@
       <c r="B471" s="17"/>
       <c r="C471" s="18"/>
       <c r="D471" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E471" s="18"/>
       <c r="F471" s="18"/>
@@ -11023,7 +11134,7 @@
       <c r="B472" s="5"/>
       <c r="C472" s="6"/>
       <c r="D472" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E472" s="6"/>
       <c r="F472" s="6"/>
@@ -11034,7 +11145,7 @@
       <c r="B473" s="17"/>
       <c r="C473" s="18"/>
       <c r="D473" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E473" s="18"/>
       <c r="F473" s="18"/>
@@ -11045,7 +11156,7 @@
       <c r="B474" s="5"/>
       <c r="C474" s="6"/>
       <c r="D474" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E474" s="6"/>
       <c r="F474" s="6"/>
@@ -11056,7 +11167,7 @@
       <c r="B475" s="17"/>
       <c r="C475" s="18"/>
       <c r="D475" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E475" s="18"/>
       <c r="F475" s="18"/>
@@ -11067,7 +11178,7 @@
       <c r="B476" s="5"/>
       <c r="C476" s="6"/>
       <c r="D476" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E476" s="6"/>
       <c r="F476" s="6"/>
@@ -11078,7 +11189,7 @@
       <c r="B477" s="17"/>
       <c r="C477" s="18"/>
       <c r="D477" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E477" s="18"/>
       <c r="F477" s="18"/>
@@ -11089,7 +11200,7 @@
       <c r="B478" s="5"/>
       <c r="C478" s="6"/>
       <c r="D478" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E478" s="6"/>
       <c r="F478" s="6"/>
@@ -11100,7 +11211,7 @@
       <c r="B479" s="17"/>
       <c r="C479" s="18"/>
       <c r="D479" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E479" s="18"/>
       <c r="F479" s="18"/>
@@ -11111,7 +11222,7 @@
       <c r="B480" s="5"/>
       <c r="C480" s="6"/>
       <c r="D480" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E480" s="6"/>
       <c r="F480" s="6"/>
@@ -11122,7 +11233,7 @@
       <c r="B481" s="17"/>
       <c r="C481" s="18"/>
       <c r="D481" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E481" s="18"/>
       <c r="F481" s="18"/>
@@ -11133,7 +11244,7 @@
       <c r="B482" s="5"/>
       <c r="C482" s="6"/>
       <c r="D482" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E482" s="6"/>
       <c r="F482" s="6"/>
@@ -11144,7 +11255,7 @@
       <c r="B483" s="17"/>
       <c r="C483" s="18"/>
       <c r="D483" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E483" s="18"/>
       <c r="F483" s="18"/>
@@ -11155,7 +11266,7 @@
       <c r="B484" s="5"/>
       <c r="C484" s="6"/>
       <c r="D484" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E484" s="6"/>
       <c r="F484" s="6"/>
@@ -11166,7 +11277,7 @@
       <c r="B485" s="17"/>
       <c r="C485" s="18"/>
       <c r="D485" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E485" s="18"/>
       <c r="F485" s="18"/>
@@ -11177,7 +11288,7 @@
       <c r="B486" s="5"/>
       <c r="C486" s="6"/>
       <c r="D486" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E486" s="6"/>
       <c r="F486" s="6"/>
@@ -11188,7 +11299,7 @@
       <c r="B487" s="17"/>
       <c r="C487" s="18"/>
       <c r="D487" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E487" s="18"/>
       <c r="F487" s="18"/>
@@ -11199,7 +11310,7 @@
       <c r="B488" s="5"/>
       <c r="C488" s="6"/>
       <c r="D488" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E488" s="6"/>
       <c r="F488" s="6"/>
@@ -11210,7 +11321,7 @@
       <c r="B489" s="17"/>
       <c r="C489" s="18"/>
       <c r="D489" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E489" s="18"/>
       <c r="F489" s="18"/>
@@ -11221,7 +11332,7 @@
       <c r="B490" s="5"/>
       <c r="C490" s="6"/>
       <c r="D490" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E490" s="6"/>
       <c r="F490" s="6"/>
@@ -11232,7 +11343,7 @@
       <c r="B491" s="17"/>
       <c r="C491" s="18"/>
       <c r="D491" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E491" s="18"/>
       <c r="F491" s="18"/>
@@ -11243,7 +11354,7 @@
       <c r="B492" s="5"/>
       <c r="C492" s="6"/>
       <c r="D492" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E492" s="6"/>
       <c r="F492" s="6"/>
@@ -11254,7 +11365,7 @@
       <c r="B493" s="17"/>
       <c r="C493" s="18"/>
       <c r="D493" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E493" s="18"/>
       <c r="F493" s="18"/>
@@ -11265,7 +11376,7 @@
       <c r="B494" s="5"/>
       <c r="C494" s="6"/>
       <c r="D494" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E494" s="6"/>
       <c r="F494" s="6"/>
@@ -11276,7 +11387,7 @@
       <c r="B495" s="17"/>
       <c r="C495" s="18"/>
       <c r="D495" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E495" s="18"/>
       <c r="F495" s="18"/>
@@ -11287,7 +11398,7 @@
       <c r="B496" s="5"/>
       <c r="C496" s="6"/>
       <c r="D496" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E496" s="6"/>
       <c r="F496" s="6"/>
@@ -11298,7 +11409,7 @@
       <c r="B497" s="17"/>
       <c r="C497" s="18"/>
       <c r="D497" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E497" s="18"/>
       <c r="F497" s="18"/>
@@ -11309,7 +11420,7 @@
       <c r="B498" s="5"/>
       <c r="C498" s="6"/>
       <c r="D498" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E498" s="6"/>
       <c r="F498" s="6"/>
@@ -11320,7 +11431,7 @@
       <c r="B499" s="17"/>
       <c r="C499" s="18"/>
       <c r="D499" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E499" s="18"/>
       <c r="F499" s="18"/>
@@ -11331,7 +11442,7 @@
       <c r="B500" s="5"/>
       <c r="C500" s="6"/>
       <c r="D500" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E500" s="6"/>
       <c r="F500" s="6"/>
@@ -11342,7 +11453,7 @@
       <c r="B501" s="17"/>
       <c r="C501" s="18"/>
       <c r="D501" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E501" s="18"/>
       <c r="F501" s="18"/>
@@ -11353,7 +11464,7 @@
       <c r="B502" s="5"/>
       <c r="C502" s="6"/>
       <c r="D502" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E502" s="6"/>
       <c r="F502" s="6"/>
@@ -11364,7 +11475,7 @@
       <c r="B503" s="17"/>
       <c r="C503" s="18"/>
       <c r="D503" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E503" s="18"/>
       <c r="F503" s="18"/>
@@ -11375,7 +11486,7 @@
       <c r="B504" s="5"/>
       <c r="C504" s="6"/>
       <c r="D504" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E504" s="6"/>
       <c r="F504" s="6"/>
@@ -11386,7 +11497,7 @@
       <c r="B505" s="17"/>
       <c r="C505" s="18"/>
       <c r="D505" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E505" s="18"/>
       <c r="F505" s="18"/>
@@ -11397,7 +11508,7 @@
       <c r="B506" s="5"/>
       <c r="C506" s="6"/>
       <c r="D506" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E506" s="6"/>
       <c r="F506" s="6"/>
@@ -11408,7 +11519,7 @@
       <c r="B507" s="17"/>
       <c r="C507" s="18"/>
       <c r="D507" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E507" s="18"/>
       <c r="F507" s="18"/>
@@ -11419,7 +11530,7 @@
       <c r="B508" s="5"/>
       <c r="C508" s="6"/>
       <c r="D508" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E508" s="6"/>
       <c r="F508" s="6"/>
@@ -11430,7 +11541,7 @@
       <c r="B509" s="17"/>
       <c r="C509" s="18"/>
       <c r="D509" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E509" s="18"/>
       <c r="F509" s="18"/>
@@ -11441,7 +11552,7 @@
       <c r="B510" s="5"/>
       <c r="C510" s="6"/>
       <c r="D510" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E510" s="6"/>
       <c r="F510" s="6"/>
@@ -11452,7 +11563,7 @@
       <c r="B511" s="17"/>
       <c r="C511" s="18"/>
       <c r="D511" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E511" s="18"/>
       <c r="F511" s="18"/>
@@ -11463,7 +11574,7 @@
       <c r="B512" s="5"/>
       <c r="C512" s="6"/>
       <c r="D512" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E512" s="6"/>
       <c r="F512" s="6"/>
@@ -11474,22 +11585,121 @@
       <c r="B513" s="17"/>
       <c r="C513" s="18"/>
       <c r="D513" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E513" s="18"/>
       <c r="F513" s="18"/>
       <c r="G513" s="19"/>
     </row>
     <row r="514">
-      <c r="A514" s="20"/>
-      <c r="B514" s="21"/>
-      <c r="C514" s="22"/>
-      <c r="D514" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E514" s="22"/>
-      <c r="F514" s="22"/>
-      <c r="G514" s="23"/>
+      <c r="A514" s="4"/>
+      <c r="B514" s="5"/>
+      <c r="C514" s="6"/>
+      <c r="D514" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E514" s="6"/>
+      <c r="F514" s="6"/>
+      <c r="G514" s="7"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="16"/>
+      <c r="B515" s="17"/>
+      <c r="C515" s="18"/>
+      <c r="D515" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E515" s="18"/>
+      <c r="F515" s="18"/>
+      <c r="G515" s="19"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="4"/>
+      <c r="B516" s="5"/>
+      <c r="C516" s="6"/>
+      <c r="D516" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E516" s="6"/>
+      <c r="F516" s="6"/>
+      <c r="G516" s="7"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="16"/>
+      <c r="B517" s="17"/>
+      <c r="C517" s="18"/>
+      <c r="D517" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E517" s="18"/>
+      <c r="F517" s="18"/>
+      <c r="G517" s="19"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="4"/>
+      <c r="B518" s="5"/>
+      <c r="C518" s="6"/>
+      <c r="D518" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E518" s="6"/>
+      <c r="F518" s="6"/>
+      <c r="G518" s="7"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="16"/>
+      <c r="B519" s="17"/>
+      <c r="C519" s="18"/>
+      <c r="D519" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E519" s="18"/>
+      <c r="F519" s="18"/>
+      <c r="G519" s="19"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="4"/>
+      <c r="B520" s="5"/>
+      <c r="C520" s="6"/>
+      <c r="D520" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E520" s="6"/>
+      <c r="F520" s="6"/>
+      <c r="G520" s="7"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="16"/>
+      <c r="B521" s="17"/>
+      <c r="C521" s="18"/>
+      <c r="D521" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E521" s="18"/>
+      <c r="F521" s="18"/>
+      <c r="G521" s="19"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="4"/>
+      <c r="B522" s="5"/>
+      <c r="C522" s="6"/>
+      <c r="D522" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E522" s="6"/>
+      <c r="F522" s="6"/>
+      <c r="G522" s="7"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="20"/>
+      <c r="B523" s="21"/>
+      <c r="C523" s="22"/>
+      <c r="D523" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E523" s="22"/>
+      <c r="F523" s="22"/>
+      <c r="G523" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11511,7 +11721,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>27</v>
@@ -11525,7 +11735,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="26" t="str">
         <f t="array" ref="E2:E1000">IF(D2:D1000="","", 
@@ -11544,90 +11754,90 @@
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -11638,18 +11848,18 @@
         <v>15</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
@@ -11660,183 +11870,183 @@
         <v>26</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -11847,4875 +12057,4875 @@
         <v>56</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>56</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108">
       <c r="E108" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109">
       <c r="E109" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112">
       <c r="E112" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113">
       <c r="E113" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="114">
       <c r="E114" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118">
       <c r="E118" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="119">
       <c r="E119" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120">
       <c r="E120" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="121">
       <c r="E121" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="123">
       <c r="E123" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124">
       <c r="E124" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125">
       <c r="E125" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126">
       <c r="E126" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="127">
       <c r="E127" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128">
       <c r="E128" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129">
       <c r="E129" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130">
       <c r="E130" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="131">
       <c r="E131" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132">
       <c r="E132" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133">
       <c r="E133" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="134">
       <c r="E134" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135">
       <c r="E135" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="136">
       <c r="E136" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="137">
       <c r="E137" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="138">
       <c r="E138" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139">
       <c r="E139" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="140">
       <c r="E140" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="141">
       <c r="E141" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="142">
       <c r="E142" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="143">
       <c r="E143" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="144">
       <c r="E144" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="145">
       <c r="E145" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="146">
       <c r="E146" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="147">
       <c r="E147" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="148">
       <c r="E148" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="149">
       <c r="E149" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="150">
       <c r="E150" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="151">
       <c r="E151" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="152">
       <c r="E152" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="153">
       <c r="E153" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="154">
       <c r="E154" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="155">
       <c r="E155" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="156">
       <c r="E156" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="157">
       <c r="E157" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158">
       <c r="E158" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="159">
       <c r="E159" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="160">
       <c r="E160" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="161">
       <c r="E161" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="162">
       <c r="E162" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="163">
       <c r="E163" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="164">
       <c r="E164" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="165">
       <c r="E165" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="166">
       <c r="E166" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="167">
       <c r="E167" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="168">
       <c r="E168" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="169">
       <c r="E169" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="170">
       <c r="E170" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="171">
       <c r="E171" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172">
       <c r="E172" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="173">
       <c r="E173" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="174">
       <c r="E174" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="175">
       <c r="E175" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="176">
       <c r="E176" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="177">
       <c r="E177" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="178">
       <c r="E178" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="179">
       <c r="E179" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="180">
       <c r="E180" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="181">
       <c r="E181" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="182">
       <c r="E182" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="183">
       <c r="E183" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="184">
       <c r="E184" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="185">
       <c r="E185" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="186">
       <c r="E186" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="187">
       <c r="E187" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="188">
       <c r="E188" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="189">
       <c r="E189" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="190">
       <c r="E190" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191">
       <c r="E191" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="192">
       <c r="E192" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="193">
       <c r="E193" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="194">
       <c r="E194" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="195">
       <c r="E195" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="196">
       <c r="E196" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197">
       <c r="E197" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="198">
       <c r="E198" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="199">
       <c r="E199" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="200">
       <c r="E200" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="201">
       <c r="E201" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="202">
       <c r="E202" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="203">
       <c r="E203" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="204">
       <c r="E204" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="205">
       <c r="E205" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="206">
       <c r="E206" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="207">
       <c r="E207" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="208">
       <c r="E208" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="209">
       <c r="E209" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="210">
       <c r="E210" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="211">
       <c r="E211" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="212">
       <c r="E212" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="213">
       <c r="E213" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="214">
       <c r="E214" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="215">
       <c r="E215" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="216">
       <c r="E216" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="217">
       <c r="E217" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="218">
       <c r="E218" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="219">
       <c r="E219" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="220">
       <c r="E220" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="221">
       <c r="E221" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="222">
       <c r="E222" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="223">
       <c r="E223" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="224">
       <c r="E224" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="225">
       <c r="E225" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="226">
       <c r="E226" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="227">
       <c r="E227" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="228">
       <c r="E228" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="229">
       <c r="E229" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="230">
       <c r="E230" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="231">
       <c r="E231" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="232">
       <c r="E232" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="233">
       <c r="E233" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="234">
       <c r="E234" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="235">
       <c r="E235" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="236">
       <c r="E236" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="237">
       <c r="E237" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="238">
       <c r="E238" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="239">
       <c r="E239" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="240">
       <c r="E240" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="241">
       <c r="E241" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="242">
       <c r="E242" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="243">
       <c r="E243" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="244">
       <c r="E244" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="245">
       <c r="E245" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="246">
       <c r="E246" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="247">
       <c r="E247" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="248">
       <c r="E248" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="249">
       <c r="E249" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="250">
       <c r="E250" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="251">
       <c r="E251" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="252">
       <c r="E252" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="253">
       <c r="E253" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="254">
       <c r="E254" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="255">
       <c r="E255" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="256">
       <c r="E256" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="257">
       <c r="E257" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="258">
       <c r="E258" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="259">
       <c r="E259" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="260">
       <c r="E260" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="261">
       <c r="E261" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="262">
       <c r="E262" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="263">
       <c r="E263" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="264">
       <c r="E264" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="265">
       <c r="E265" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="266">
       <c r="E266" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="267">
       <c r="E267" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="268">
       <c r="E268" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="269">
       <c r="E269" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="270">
       <c r="E270" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="271">
       <c r="E271" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="272">
       <c r="E272" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="273">
       <c r="E273" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="274">
       <c r="E274" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="275">
       <c r="E275" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="276">
       <c r="E276" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="277">
       <c r="E277" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="278">
       <c r="E278" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="279">
       <c r="E279" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="280">
       <c r="E280" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="281">
       <c r="E281" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="282">
       <c r="E282" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="283">
       <c r="E283" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="284">
       <c r="E284" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="285">
       <c r="E285" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="286">
       <c r="E286" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="287">
       <c r="E287" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="288">
       <c r="E288" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="289">
       <c r="E289" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="290">
       <c r="E290" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="291">
       <c r="E291" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="292">
       <c r="E292" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="293">
       <c r="E293" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="294">
       <c r="E294" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="295">
       <c r="E295" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="296">
       <c r="E296" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="297">
       <c r="E297" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="298">
       <c r="E298" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="299">
       <c r="E299" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="300">
       <c r="E300" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="301">
       <c r="E301" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="302">
       <c r="E302" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="303">
       <c r="E303" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="304">
       <c r="E304" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="305">
       <c r="E305" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="306">
       <c r="E306" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="307">
       <c r="E307" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="308">
       <c r="E308" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="309">
       <c r="E309" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="310">
       <c r="E310" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="311">
       <c r="E311" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="312">
       <c r="E312" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="313">
       <c r="E313" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="314">
       <c r="E314" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="315">
       <c r="E315" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="316">
       <c r="E316" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="317">
       <c r="E317" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="318">
       <c r="E318" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="319">
       <c r="E319" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="320">
       <c r="E320" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="321">
       <c r="E321" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="322">
       <c r="E322" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="323">
       <c r="E323" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="324">
       <c r="E324" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="325">
       <c r="E325" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="326">
       <c r="E326" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="327">
       <c r="E327" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="328">
       <c r="E328" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="329">
       <c r="E329" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="330">
       <c r="E330" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="331">
       <c r="E331" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="332">
       <c r="E332" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="333">
       <c r="E333" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="334">
       <c r="E334" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="335">
       <c r="E335" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="336">
       <c r="E336" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="337">
       <c r="E337" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="338">
       <c r="E338" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="339">
       <c r="E339" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="340">
       <c r="E340" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="341">
       <c r="E341" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="342">
       <c r="E342" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="343">
       <c r="E343" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="344">
       <c r="E344" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="345">
       <c r="E345" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="346">
       <c r="E346" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="347">
       <c r="E347" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="348">
       <c r="E348" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="349">
       <c r="E349" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="350">
       <c r="E350" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="351">
       <c r="E351" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="352">
       <c r="E352" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="353">
       <c r="E353" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="354">
       <c r="E354" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="355">
       <c r="E355" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="356">
       <c r="E356" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="357">
       <c r="E357" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="358">
       <c r="E358" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="359">
       <c r="E359" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="360">
       <c r="E360" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="361">
       <c r="E361" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="362">
       <c r="E362" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="363">
       <c r="E363" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="364">
       <c r="E364" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="365">
       <c r="E365" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="366">
       <c r="E366" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="367">
       <c r="E367" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="368">
       <c r="E368" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="369">
       <c r="E369" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="370">
       <c r="E370" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="371">
       <c r="E371" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="372">
       <c r="E372" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="373">
       <c r="E373" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="374">
       <c r="E374" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="375">
       <c r="E375" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="376">
       <c r="E376" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="377">
       <c r="E377" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="378">
       <c r="E378" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="379">
       <c r="E379" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="380">
       <c r="E380" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="381">
       <c r="E381" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="382">
       <c r="E382" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="383">
       <c r="E383" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="384">
       <c r="E384" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="385">
       <c r="E385" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="386">
       <c r="E386" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="387">
       <c r="E387" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="388">
       <c r="E388" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="389">
       <c r="E389" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="390">
       <c r="E390" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="391">
       <c r="E391" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="392">
       <c r="E392" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="393">
       <c r="E393" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="394">
       <c r="E394" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="395">
       <c r="E395" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="396">
       <c r="E396" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="397">
       <c r="E397" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="398">
       <c r="E398" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="399">
       <c r="E399" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="400">
       <c r="E400" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="401">
       <c r="E401" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="402">
       <c r="E402" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="403">
       <c r="E403" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="404">
       <c r="E404" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="405">
       <c r="E405" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="406">
       <c r="E406" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="407">
       <c r="E407" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="408">
       <c r="E408" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="409">
       <c r="E409" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="410">
       <c r="E410" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="411">
       <c r="E411" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="412">
       <c r="E412" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="413">
       <c r="E413" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="414">
       <c r="E414" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="415">
       <c r="E415" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="416">
       <c r="E416" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="417">
       <c r="E417" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="418">
       <c r="E418" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="419">
       <c r="E419" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="420">
       <c r="E420" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="421">
       <c r="E421" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="422">
       <c r="E422" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="423">
       <c r="E423" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="424">
       <c r="E424" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="425">
       <c r="E425" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="426">
       <c r="E426" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="427">
       <c r="E427" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="428">
       <c r="E428" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="429">
       <c r="E429" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="430">
       <c r="E430" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="431">
       <c r="E431" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="432">
       <c r="E432" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="433">
       <c r="E433" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="434">
       <c r="E434" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="435">
       <c r="E435" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="436">
       <c r="E436" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="437">
       <c r="E437" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="438">
       <c r="E438" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="439">
       <c r="E439" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="440">
       <c r="E440" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="441">
       <c r="E441" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="442">
       <c r="E442" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="443">
       <c r="E443" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="444">
       <c r="E444" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="445">
       <c r="E445" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="446">
       <c r="E446" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="447">
       <c r="E447" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="448">
       <c r="E448" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="449">
       <c r="E449" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="450">
       <c r="E450" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="451">
       <c r="E451" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="452">
       <c r="E452" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="453">
       <c r="E453" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="454">
       <c r="E454" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="455">
       <c r="E455" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="456">
       <c r="E456" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="457">
       <c r="E457" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="458">
       <c r="E458" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="459">
       <c r="E459" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="460">
       <c r="E460" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="461">
       <c r="E461" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="462">
       <c r="E462" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="463">
       <c r="E463" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="464">
       <c r="E464" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="465">
       <c r="E465" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="466">
       <c r="E466" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="467">
       <c r="E467" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="468">
       <c r="E468" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="469">
       <c r="E469" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="470">
       <c r="E470" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="471">
       <c r="E471" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="472">
       <c r="E472" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="473">
       <c r="E473" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="474">
       <c r="E474" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="475">
       <c r="E475" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="476">
       <c r="E476" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="477">
       <c r="E477" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="478">
       <c r="E478" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="479">
       <c r="E479" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="480">
       <c r="E480" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="481">
       <c r="E481" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="482">
       <c r="E482" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="483">
       <c r="E483" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="484">
       <c r="E484" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="485">
       <c r="E485" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="486">
       <c r="E486" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="487">
       <c r="E487" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="488">
       <c r="E488" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="489">
       <c r="E489" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="490">
       <c r="E490" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="491">
       <c r="E491" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="492">
       <c r="E492" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="493">
       <c r="E493" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="494">
       <c r="E494" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="495">
       <c r="E495" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="496">
       <c r="E496" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="497">
       <c r="E497" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="498">
       <c r="E498" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="499">
       <c r="E499" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="500">
       <c r="E500" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="501">
       <c r="E501" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="502">
       <c r="E502" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="503">
       <c r="E503" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="504">
       <c r="E504" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="505">
       <c r="E505" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="506">
       <c r="E506" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="507">
       <c r="E507" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="508">
       <c r="E508" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="509">
       <c r="E509" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="510">
       <c r="E510" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="511">
       <c r="E511" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="512">
       <c r="E512" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="513">
       <c r="E513" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="514">
       <c r="E514" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="515">
       <c r="E515" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="516">
       <c r="E516" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="517">
       <c r="E517" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="518">
       <c r="E518" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="519">
       <c r="E519" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="520">
       <c r="E520" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="521">
       <c r="E521" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="522">
       <c r="E522" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="523">
       <c r="E523" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="524">
       <c r="E524" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="525">
       <c r="E525" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="526">
       <c r="E526" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="527">
       <c r="E527" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="528">
       <c r="E528" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="529">
       <c r="E529" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="530">
       <c r="E530" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="531">
       <c r="E531" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="532">
       <c r="E532" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="533">
       <c r="E533" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="534">
       <c r="E534" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="535">
       <c r="E535" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="536">
       <c r="E536" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="537">
       <c r="E537" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="538">
       <c r="E538" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="539">
       <c r="E539" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="540">
       <c r="E540" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="541">
       <c r="E541" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="542">
       <c r="E542" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="543">
       <c r="E543" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="544">
       <c r="E544" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="545">
       <c r="E545" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="546">
       <c r="E546" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="547">
       <c r="E547" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="548">
       <c r="E548" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="549">
       <c r="E549" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="550">
       <c r="E550" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="551">
       <c r="E551" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="552">
       <c r="E552" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="553">
       <c r="E553" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="554">
       <c r="E554" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="555">
       <c r="E555" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="556">
       <c r="E556" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="557">
       <c r="E557" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="558">
       <c r="E558" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="559">
       <c r="E559" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="560">
       <c r="E560" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="561">
       <c r="E561" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="562">
       <c r="E562" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="563">
       <c r="E563" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="564">
       <c r="E564" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="565">
       <c r="E565" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="566">
       <c r="E566" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="567">
       <c r="E567" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="568">
       <c r="E568" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="569">
       <c r="E569" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="570">
       <c r="E570" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="571">
       <c r="E571" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="572">
       <c r="E572" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="573">
       <c r="E573" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="574">
       <c r="E574" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="575">
       <c r="E575" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="576">
       <c r="E576" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="577">
       <c r="E577" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="578">
       <c r="E578" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="579">
       <c r="E579" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="580">
       <c r="E580" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="581">
       <c r="E581" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="582">
       <c r="E582" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="583">
       <c r="E583" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="584">
       <c r="E584" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="585">
       <c r="E585" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="586">
       <c r="E586" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="587">
       <c r="E587" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="588">
       <c r="E588" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="589">
       <c r="E589" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="590">
       <c r="E590" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="591">
       <c r="E591" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="592">
       <c r="E592" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="593">
       <c r="E593" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="594">
       <c r="E594" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="595">
       <c r="E595" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="596">
       <c r="E596" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="597">
       <c r="E597" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="598">
       <c r="E598" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="599">
       <c r="E599" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="600">
       <c r="E600" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="601">
       <c r="E601" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="602">
       <c r="E602" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="603">
       <c r="E603" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="604">
       <c r="E604" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="605">
       <c r="E605" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="606">
       <c r="E606" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="607">
       <c r="E607" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="608">
       <c r="E608" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="609">
       <c r="E609" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="610">
       <c r="E610" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="611">
       <c r="E611" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="612">
       <c r="E612" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="613">
       <c r="E613" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="614">
       <c r="E614" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="615">
       <c r="E615" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="616">
       <c r="E616" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="617">
       <c r="E617" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="618">
       <c r="E618" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="619">
       <c r="E619" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="620">
       <c r="E620" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="621">
       <c r="E621" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="622">
       <c r="E622" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="623">
       <c r="E623" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="624">
       <c r="E624" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="625">
       <c r="E625" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="626">
       <c r="E626" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="627">
       <c r="E627" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="628">
       <c r="E628" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="629">
       <c r="E629" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="630">
       <c r="E630" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="631">
       <c r="E631" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="632">
       <c r="E632" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="633">
       <c r="E633" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="634">
       <c r="E634" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="635">
       <c r="E635" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="636">
       <c r="E636" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="637">
       <c r="E637" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="638">
       <c r="E638" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="639">
       <c r="E639" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="640">
       <c r="E640" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="641">
       <c r="E641" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="642">
       <c r="E642" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="643">
       <c r="E643" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="644">
       <c r="E644" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="645">
       <c r="E645" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="646">
       <c r="E646" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="647">
       <c r="E647" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="648">
       <c r="E648" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="649">
       <c r="E649" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="650">
       <c r="E650" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="651">
       <c r="E651" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="652">
       <c r="E652" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="653">
       <c r="E653" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="654">
       <c r="E654" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="655">
       <c r="E655" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="656">
       <c r="E656" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="657">
       <c r="E657" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="658">
       <c r="E658" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="659">
       <c r="E659" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="660">
       <c r="E660" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="661">
       <c r="E661" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="662">
       <c r="E662" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="663">
       <c r="E663" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="664">
       <c r="E664" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="665">
       <c r="E665" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="666">
       <c r="E666" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="667">
       <c r="E667" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="668">
       <c r="E668" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="669">
       <c r="E669" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="670">
       <c r="E670" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="671">
       <c r="E671" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="672">
       <c r="E672" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="673">
       <c r="E673" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="674">
       <c r="E674" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="675">
       <c r="E675" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="676">
       <c r="E676" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="677">
       <c r="E677" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="678">
       <c r="E678" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="679">
       <c r="E679" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="680">
       <c r="E680" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="681">
       <c r="E681" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="682">
       <c r="E682" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="683">
       <c r="E683" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="684">
       <c r="E684" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="685">
       <c r="E685" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="686">
       <c r="E686" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="687">
       <c r="E687" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="688">
       <c r="E688" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="689">
       <c r="E689" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="690">
       <c r="E690" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="691">
       <c r="E691" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="692">
       <c r="E692" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="693">
       <c r="E693" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="694">
       <c r="E694" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="695">
       <c r="E695" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="696">
       <c r="E696" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="697">
       <c r="E697" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="698">
       <c r="E698" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="699">
       <c r="E699" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="700">
       <c r="E700" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="701">
       <c r="E701" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="702">
       <c r="E702" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="703">
       <c r="E703" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="704">
       <c r="E704" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="705">
       <c r="E705" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="706">
       <c r="E706" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="707">
       <c r="E707" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="708">
       <c r="E708" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="709">
       <c r="E709" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="710">
       <c r="E710" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="711">
       <c r="E711" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="712">
       <c r="E712" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="713">
       <c r="E713" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="714">
       <c r="E714" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="715">
       <c r="E715" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="716">
       <c r="E716" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="717">
       <c r="E717" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="718">
       <c r="E718" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="719">
       <c r="E719" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="720">
       <c r="E720" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="721">
       <c r="E721" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="722">
       <c r="E722" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="723">
       <c r="E723" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="724">
       <c r="E724" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="725">
       <c r="E725" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="726">
       <c r="E726" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="727">
       <c r="E727" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="728">
       <c r="E728" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="729">
       <c r="E729" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="730">
       <c r="E730" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="731">
       <c r="E731" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="732">
       <c r="E732" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="733">
       <c r="E733" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="734">
       <c r="E734" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="735">
       <c r="E735" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="736">
       <c r="E736" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="737">
       <c r="E737" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="738">
       <c r="E738" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="739">
       <c r="E739" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="740">
       <c r="E740" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="741">
       <c r="E741" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="742">
       <c r="E742" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="743">
       <c r="E743" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="744">
       <c r="E744" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="745">
       <c r="E745" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="746">
       <c r="E746" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="747">
       <c r="E747" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="748">
       <c r="E748" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="749">
       <c r="E749" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="750">
       <c r="E750" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="751">
       <c r="E751" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="752">
       <c r="E752" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="753">
       <c r="E753" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="754">
       <c r="E754" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="755">
       <c r="E755" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="756">
       <c r="E756" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="757">
       <c r="E757" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="758">
       <c r="E758" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="759">
       <c r="E759" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="760">
       <c r="E760" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="761">
       <c r="E761" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="762">
       <c r="E762" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="763">
       <c r="E763" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="764">
       <c r="E764" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="765">
       <c r="E765" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="766">
       <c r="E766" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="767">
       <c r="E767" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="768">
       <c r="E768" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="769">
       <c r="E769" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="770">
       <c r="E770" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="771">
       <c r="E771" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="772">
       <c r="E772" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="773">
       <c r="E773" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="774">
       <c r="E774" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="775">
       <c r="E775" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="776">
       <c r="E776" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="777">
       <c r="E777" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="778">
       <c r="E778" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="779">
       <c r="E779" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="780">
       <c r="E780" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="781">
       <c r="E781" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="782">
       <c r="E782" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="783">
       <c r="E783" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="784">
       <c r="E784" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="785">
       <c r="E785" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="786">
       <c r="E786" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="787">
       <c r="E787" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="788">
       <c r="E788" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="789">
       <c r="E789" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="790">
       <c r="E790" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="791">
       <c r="E791" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="792">
       <c r="E792" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="793">
       <c r="E793" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="794">
       <c r="E794" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="795">
       <c r="E795" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="796">
       <c r="E796" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="797">
       <c r="E797" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="798">
       <c r="E798" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="799">
       <c r="E799" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="800">
       <c r="E800" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="801">
       <c r="E801" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="802">
       <c r="E802" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="803">
       <c r="E803" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="804">
       <c r="E804" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="805">
       <c r="E805" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="806">
       <c r="E806" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="807">
       <c r="E807" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="808">
       <c r="E808" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="809">
       <c r="E809" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="810">
       <c r="E810" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="811">
       <c r="E811" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="812">
       <c r="E812" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="813">
       <c r="E813" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="814">
       <c r="E814" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="815">
       <c r="E815" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="816">
       <c r="E816" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="817">
       <c r="E817" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="818">
       <c r="E818" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="819">
       <c r="E819" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="820">
       <c r="E820" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="821">
       <c r="E821" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="822">
       <c r="E822" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="823">
       <c r="E823" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="824">
       <c r="E824" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="825">
       <c r="E825" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="826">
       <c r="E826" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="827">
       <c r="E827" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="828">
       <c r="E828" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="829">
       <c r="E829" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="830">
       <c r="E830" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="831">
       <c r="E831" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="832">
       <c r="E832" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="833">
       <c r="E833" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="834">
       <c r="E834" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="835">
       <c r="E835" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="836">
       <c r="E836" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="837">
       <c r="E837" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="838">
       <c r="E838" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="839">
       <c r="E839" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="840">
       <c r="E840" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="841">
       <c r="E841" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="842">
       <c r="E842" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="843">
       <c r="E843" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="844">
       <c r="E844" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="845">
       <c r="E845" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="846">
       <c r="E846" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="847">
       <c r="E847" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="848">
       <c r="E848" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="849">
       <c r="E849" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="850">
       <c r="E850" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="851">
       <c r="E851" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="852">
       <c r="E852" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="853">
       <c r="E853" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="854">
       <c r="E854" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="855">
       <c r="E855" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="856">
       <c r="E856" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="857">
       <c r="E857" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="858">
       <c r="E858" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="859">
       <c r="E859" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="860">
       <c r="E860" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="861">
       <c r="E861" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="862">
       <c r="E862" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="863">
       <c r="E863" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="864">
       <c r="E864" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="865">
       <c r="E865" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="866">
       <c r="E866" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="867">
       <c r="E867" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="868">
       <c r="E868" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="869">
       <c r="E869" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="870">
       <c r="E870" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="871">
       <c r="E871" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="872">
       <c r="E872" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="873">
       <c r="E873" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="874">
       <c r="E874" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="875">
       <c r="E875" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="876">
       <c r="E876" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="877">
       <c r="E877" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="878">
       <c r="E878" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="879">
       <c r="E879" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="880">
       <c r="E880" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="881">
       <c r="E881" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="882">
       <c r="E882" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="883">
       <c r="E883" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="884">
       <c r="E884" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="885">
       <c r="E885" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="886">
       <c r="E886" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="887">
       <c r="E887" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="888">
       <c r="E888" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="889">
       <c r="E889" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="890">
       <c r="E890" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="891">
       <c r="E891" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="892">
       <c r="E892" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="893">
       <c r="E893" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="894">
       <c r="E894" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="895">
       <c r="E895" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="896">
       <c r="E896" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="897">
       <c r="E897" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="898">
       <c r="E898" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="899">
       <c r="E899" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="900">
       <c r="E900" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="901">
       <c r="E901" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="902">
       <c r="E902" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="903">
       <c r="E903" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="904">
       <c r="E904" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="905">
       <c r="E905" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="906">
       <c r="E906" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="907">
       <c r="E907" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="908">
       <c r="E908" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="909">
       <c r="E909" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="910">
       <c r="E910" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="911">
       <c r="E911" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="912">
       <c r="E912" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="913">
       <c r="E913" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="914">
       <c r="E914" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="915">
       <c r="E915" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="916">
       <c r="E916" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="917">
       <c r="E917" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="918">
       <c r="E918" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="919">
       <c r="E919" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="920">
       <c r="E920" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="921">
       <c r="E921" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="922">
       <c r="E922" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="923">
       <c r="E923" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="924">
       <c r="E924" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="925">
       <c r="E925" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="926">
       <c r="E926" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="927">
       <c r="E927" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="928">
       <c r="E928" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="929">
       <c r="E929" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="930">
       <c r="E930" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="931">
       <c r="E931" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="932">
       <c r="E932" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="933">
       <c r="E933" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="934">
       <c r="E934" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="935">
       <c r="E935" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="936">
       <c r="E936" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="937">
       <c r="E937" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="938">
       <c r="E938" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="939">
       <c r="E939" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="940">
       <c r="E940" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="941">
       <c r="E941" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="942">
       <c r="E942" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="943">
       <c r="E943" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="944">
       <c r="E944" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="945">
       <c r="E945" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="946">
       <c r="E946" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="947">
       <c r="E947" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="948">
       <c r="E948" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="949">
       <c r="E949" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="950">
       <c r="E950" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="951">
       <c r="E951" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="952">
       <c r="E952" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="953">
       <c r="E953" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="954">
       <c r="E954" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="955">
       <c r="E955" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="956">
       <c r="E956" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="957">
       <c r="E957" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="958">
       <c r="E958" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="959">
       <c r="E959" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="960">
       <c r="E960" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="961">
       <c r="E961" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="962">
       <c r="E962" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="963">
       <c r="E963" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="964">
       <c r="E964" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="965">
       <c r="E965" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="966">
       <c r="E966" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="967">
       <c r="E967" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="968">
       <c r="E968" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="969">
       <c r="E969" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="970">
       <c r="E970" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="971">
       <c r="E971" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="972">
       <c r="E972" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="973">
       <c r="E973" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="974">
       <c r="E974" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="975">
       <c r="E975" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="976">
       <c r="E976" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="977">
       <c r="E977" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="978">
       <c r="E978" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="979">
       <c r="E979" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="980">
       <c r="E980" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="981">
       <c r="E981" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="982">
       <c r="E982" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="983">
       <c r="E983" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="984">
       <c r="E984" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="985">
       <c r="E985" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="986">
       <c r="E986" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="987">
       <c r="E987" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="988">
       <c r="E988" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="989">
       <c r="E989" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="990">
       <c r="E990" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="991">
       <c r="E991" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="992">
       <c r="E992" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="993">
       <c r="E993" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="994">
       <c r="E994" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="995">
       <c r="E995" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="996">
       <c r="E996" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="997">
       <c r="E997" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="998">
       <c r="E998" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="999">
       <c r="E999" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1000">
       <c r="E1000" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3281" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="95">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>10 máximo</t>
+  </si>
+  <si>
+    <t>Carol</t>
   </si>
   <si>
     <t/>
@@ -461,10 +464,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -472,13 +475,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -486,13 +489,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -644,7 +647,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G523" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G538" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -10602,176 +10605,356 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="4"/>
-      <c r="B424" s="5"/>
-      <c r="C424" s="6"/>
-      <c r="D424" s="6" t="s">
+      <c r="A424" s="12">
+        <v>45902.54691726852</v>
+      </c>
+      <c r="B424" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C424" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D424" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E424" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F424" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G424" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="8">
+        <v>45902.787408495366</v>
+      </c>
+      <c r="B425" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C425" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D425" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E425" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F425" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G425" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="12">
+        <v>45902.79305976852</v>
+      </c>
+      <c r="B426" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C426" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D426" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E426" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F426" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G426" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="8">
+        <v>45902.7931893287</v>
+      </c>
+      <c r="B427" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C427" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D427" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E427" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F427" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G427" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="12">
+        <v>45902.79320545139</v>
+      </c>
+      <c r="B428" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C428" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D428" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E428" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F428" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G428" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="8">
+        <v>45902.79335136574</v>
+      </c>
+      <c r="B429" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C429" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D429" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E429" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F429" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G429" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="12">
+        <v>45902.793404571756</v>
+      </c>
+      <c r="B430" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C430" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D430" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E430" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F430" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G430" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="8">
+        <v>45902.793418761576</v>
+      </c>
+      <c r="B431" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C431" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D431" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E431" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F431" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G431" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="12">
+        <v>45902.79345403935</v>
+      </c>
+      <c r="B432" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C432" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D432" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E432" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F432" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G432" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="8">
+        <v>45902.79347388889</v>
+      </c>
+      <c r="B433" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C433" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D433" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E433" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F433" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G433" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="12">
+        <v>45902.793527222224</v>
+      </c>
+      <c r="B434" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C434" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D434" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E434" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F434" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G434" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="8">
+        <v>45902.79366715278</v>
+      </c>
+      <c r="B435" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C435" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D435" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E435" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F435" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G435" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="12">
+        <v>45902.79383363426</v>
+      </c>
+      <c r="B436" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C436" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D436" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E436" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F436" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G436" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="8">
+        <v>45902.79428682871</v>
+      </c>
+      <c r="B437" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C437" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D437" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E424" s="6"/>
-      <c r="F424" s="6"/>
-      <c r="G424" s="7"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="16"/>
-      <c r="B425" s="17"/>
-      <c r="C425" s="18"/>
-      <c r="D425" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E425" s="18"/>
-      <c r="F425" s="18"/>
-      <c r="G425" s="19"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="4"/>
-      <c r="B426" s="5"/>
-      <c r="C426" s="6"/>
-      <c r="D426" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E426" s="6"/>
-      <c r="F426" s="6"/>
-      <c r="G426" s="7"/>
-    </row>
-    <row r="427">
-      <c r="A427" s="16"/>
-      <c r="B427" s="17"/>
-      <c r="C427" s="18"/>
-      <c r="D427" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E427" s="18"/>
-      <c r="F427" s="18"/>
-      <c r="G427" s="19"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="4"/>
-      <c r="B428" s="5"/>
-      <c r="C428" s="6"/>
-      <c r="D428" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E428" s="6"/>
-      <c r="F428" s="6"/>
-      <c r="G428" s="7"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="16"/>
-      <c r="B429" s="17"/>
-      <c r="C429" s="18"/>
-      <c r="D429" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E429" s="18"/>
-      <c r="F429" s="18"/>
-      <c r="G429" s="19"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="4"/>
-      <c r="B430" s="5"/>
-      <c r="C430" s="6"/>
-      <c r="D430" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E430" s="6"/>
-      <c r="F430" s="6"/>
-      <c r="G430" s="7"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="16"/>
-      <c r="B431" s="17"/>
-      <c r="C431" s="18"/>
-      <c r="D431" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E431" s="18"/>
-      <c r="F431" s="18"/>
-      <c r="G431" s="19"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="4"/>
-      <c r="B432" s="5"/>
-      <c r="C432" s="6"/>
-      <c r="D432" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E432" s="6"/>
-      <c r="F432" s="6"/>
-      <c r="G432" s="7"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="16"/>
-      <c r="B433" s="17"/>
-      <c r="C433" s="18"/>
-      <c r="D433" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E433" s="18"/>
-      <c r="F433" s="18"/>
-      <c r="G433" s="19"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="4"/>
-      <c r="B434" s="5"/>
-      <c r="C434" s="6"/>
-      <c r="D434" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E434" s="6"/>
-      <c r="F434" s="6"/>
-      <c r="G434" s="7"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="16"/>
-      <c r="B435" s="17"/>
-      <c r="C435" s="18"/>
-      <c r="D435" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E435" s="18"/>
-      <c r="F435" s="18"/>
-      <c r="G435" s="19"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="4"/>
-      <c r="B436" s="5"/>
-      <c r="C436" s="6"/>
-      <c r="D436" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E436" s="6"/>
-      <c r="F436" s="6"/>
-      <c r="G436" s="7"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="16"/>
-      <c r="B437" s="17"/>
-      <c r="C437" s="18"/>
-      <c r="D437" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E437" s="18"/>
-      <c r="F437" s="18"/>
-      <c r="G437" s="19"/>
+      <c r="E437" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F437" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G437" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="438">
-      <c r="A438" s="4"/>
-      <c r="B438" s="5"/>
-      <c r="C438" s="6"/>
-      <c r="D438" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E438" s="6"/>
-      <c r="F438" s="6"/>
-      <c r="G438" s="7"/>
+      <c r="A438" s="12">
+        <v>45902.81828664352</v>
+      </c>
+      <c r="B438" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C438" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D438" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E438" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F438" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G438" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="16"/>
       <c r="B439" s="17"/>
       <c r="C439" s="18"/>
       <c r="D439" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E439" s="18"/>
       <c r="F439" s="18"/>
@@ -10782,7 +10965,7 @@
       <c r="B440" s="5"/>
       <c r="C440" s="6"/>
       <c r="D440" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E440" s="6"/>
       <c r="F440" s="6"/>
@@ -10793,7 +10976,7 @@
       <c r="B441" s="17"/>
       <c r="C441" s="18"/>
       <c r="D441" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E441" s="18"/>
       <c r="F441" s="18"/>
@@ -10804,7 +10987,7 @@
       <c r="B442" s="5"/>
       <c r="C442" s="6"/>
       <c r="D442" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E442" s="6"/>
       <c r="F442" s="6"/>
@@ -10815,7 +10998,7 @@
       <c r="B443" s="17"/>
       <c r="C443" s="18"/>
       <c r="D443" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E443" s="18"/>
       <c r="F443" s="18"/>
@@ -10826,7 +11009,7 @@
       <c r="B444" s="5"/>
       <c r="C444" s="6"/>
       <c r="D444" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E444" s="6"/>
       <c r="F444" s="6"/>
@@ -10837,7 +11020,7 @@
       <c r="B445" s="17"/>
       <c r="C445" s="18"/>
       <c r="D445" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E445" s="18"/>
       <c r="F445" s="18"/>
@@ -10848,7 +11031,7 @@
       <c r="B446" s="5"/>
       <c r="C446" s="6"/>
       <c r="D446" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E446" s="6"/>
       <c r="F446" s="6"/>
@@ -10859,7 +11042,7 @@
       <c r="B447" s="17"/>
       <c r="C447" s="18"/>
       <c r="D447" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E447" s="18"/>
       <c r="F447" s="18"/>
@@ -10870,7 +11053,7 @@
       <c r="B448" s="5"/>
       <c r="C448" s="6"/>
       <c r="D448" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E448" s="6"/>
       <c r="F448" s="6"/>
@@ -10881,7 +11064,7 @@
       <c r="B449" s="17"/>
       <c r="C449" s="18"/>
       <c r="D449" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E449" s="18"/>
       <c r="F449" s="18"/>
@@ -10892,7 +11075,7 @@
       <c r="B450" s="5"/>
       <c r="C450" s="6"/>
       <c r="D450" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E450" s="6"/>
       <c r="F450" s="6"/>
@@ -10903,7 +11086,7 @@
       <c r="B451" s="17"/>
       <c r="C451" s="18"/>
       <c r="D451" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E451" s="18"/>
       <c r="F451" s="18"/>
@@ -10914,7 +11097,7 @@
       <c r="B452" s="5"/>
       <c r="C452" s="6"/>
       <c r="D452" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E452" s="6"/>
       <c r="F452" s="6"/>
@@ -10925,7 +11108,7 @@
       <c r="B453" s="17"/>
       <c r="C453" s="18"/>
       <c r="D453" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E453" s="18"/>
       <c r="F453" s="18"/>
@@ -10936,7 +11119,7 @@
       <c r="B454" s="5"/>
       <c r="C454" s="6"/>
       <c r="D454" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E454" s="6"/>
       <c r="F454" s="6"/>
@@ -10947,7 +11130,7 @@
       <c r="B455" s="17"/>
       <c r="C455" s="18"/>
       <c r="D455" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E455" s="18"/>
       <c r="F455" s="18"/>
@@ -10958,7 +11141,7 @@
       <c r="B456" s="5"/>
       <c r="C456" s="6"/>
       <c r="D456" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E456" s="6"/>
       <c r="F456" s="6"/>
@@ -10969,7 +11152,7 @@
       <c r="B457" s="17"/>
       <c r="C457" s="18"/>
       <c r="D457" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E457" s="18"/>
       <c r="F457" s="18"/>
@@ -10980,7 +11163,7 @@
       <c r="B458" s="5"/>
       <c r="C458" s="6"/>
       <c r="D458" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E458" s="6"/>
       <c r="F458" s="6"/>
@@ -10991,7 +11174,7 @@
       <c r="B459" s="17"/>
       <c r="C459" s="18"/>
       <c r="D459" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E459" s="18"/>
       <c r="F459" s="18"/>
@@ -11002,7 +11185,7 @@
       <c r="B460" s="5"/>
       <c r="C460" s="6"/>
       <c r="D460" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E460" s="6"/>
       <c r="F460" s="6"/>
@@ -11013,7 +11196,7 @@
       <c r="B461" s="17"/>
       <c r="C461" s="18"/>
       <c r="D461" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E461" s="18"/>
       <c r="F461" s="18"/>
@@ -11024,7 +11207,7 @@
       <c r="B462" s="5"/>
       <c r="C462" s="6"/>
       <c r="D462" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E462" s="6"/>
       <c r="F462" s="6"/>
@@ -11035,7 +11218,7 @@
       <c r="B463" s="17"/>
       <c r="C463" s="18"/>
       <c r="D463" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E463" s="18"/>
       <c r="F463" s="18"/>
@@ -11046,7 +11229,7 @@
       <c r="B464" s="5"/>
       <c r="C464" s="6"/>
       <c r="D464" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E464" s="6"/>
       <c r="F464" s="6"/>
@@ -11057,7 +11240,7 @@
       <c r="B465" s="17"/>
       <c r="C465" s="18"/>
       <c r="D465" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E465" s="18"/>
       <c r="F465" s="18"/>
@@ -11068,7 +11251,7 @@
       <c r="B466" s="5"/>
       <c r="C466" s="6"/>
       <c r="D466" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E466" s="6"/>
       <c r="F466" s="6"/>
@@ -11079,7 +11262,7 @@
       <c r="B467" s="17"/>
       <c r="C467" s="18"/>
       <c r="D467" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E467" s="18"/>
       <c r="F467" s="18"/>
@@ -11090,7 +11273,7 @@
       <c r="B468" s="5"/>
       <c r="C468" s="6"/>
       <c r="D468" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E468" s="6"/>
       <c r="F468" s="6"/>
@@ -11101,7 +11284,7 @@
       <c r="B469" s="17"/>
       <c r="C469" s="18"/>
       <c r="D469" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E469" s="18"/>
       <c r="F469" s="18"/>
@@ -11112,7 +11295,7 @@
       <c r="B470" s="5"/>
       <c r="C470" s="6"/>
       <c r="D470" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E470" s="6"/>
       <c r="F470" s="6"/>
@@ -11123,7 +11306,7 @@
       <c r="B471" s="17"/>
       <c r="C471" s="18"/>
       <c r="D471" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E471" s="18"/>
       <c r="F471" s="18"/>
@@ -11134,7 +11317,7 @@
       <c r="B472" s="5"/>
       <c r="C472" s="6"/>
       <c r="D472" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E472" s="6"/>
       <c r="F472" s="6"/>
@@ -11145,7 +11328,7 @@
       <c r="B473" s="17"/>
       <c r="C473" s="18"/>
       <c r="D473" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E473" s="18"/>
       <c r="F473" s="18"/>
@@ -11156,7 +11339,7 @@
       <c r="B474" s="5"/>
       <c r="C474" s="6"/>
       <c r="D474" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E474" s="6"/>
       <c r="F474" s="6"/>
@@ -11167,7 +11350,7 @@
       <c r="B475" s="17"/>
       <c r="C475" s="18"/>
       <c r="D475" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E475" s="18"/>
       <c r="F475" s="18"/>
@@ -11178,7 +11361,7 @@
       <c r="B476" s="5"/>
       <c r="C476" s="6"/>
       <c r="D476" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E476" s="6"/>
       <c r="F476" s="6"/>
@@ -11189,7 +11372,7 @@
       <c r="B477" s="17"/>
       <c r="C477" s="18"/>
       <c r="D477" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E477" s="18"/>
       <c r="F477" s="18"/>
@@ -11200,7 +11383,7 @@
       <c r="B478" s="5"/>
       <c r="C478" s="6"/>
       <c r="D478" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E478" s="6"/>
       <c r="F478" s="6"/>
@@ -11211,7 +11394,7 @@
       <c r="B479" s="17"/>
       <c r="C479" s="18"/>
       <c r="D479" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E479" s="18"/>
       <c r="F479" s="18"/>
@@ -11222,7 +11405,7 @@
       <c r="B480" s="5"/>
       <c r="C480" s="6"/>
       <c r="D480" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E480" s="6"/>
       <c r="F480" s="6"/>
@@ -11233,7 +11416,7 @@
       <c r="B481" s="17"/>
       <c r="C481" s="18"/>
       <c r="D481" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E481" s="18"/>
       <c r="F481" s="18"/>
@@ -11244,7 +11427,7 @@
       <c r="B482" s="5"/>
       <c r="C482" s="6"/>
       <c r="D482" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E482" s="6"/>
       <c r="F482" s="6"/>
@@ -11255,7 +11438,7 @@
       <c r="B483" s="17"/>
       <c r="C483" s="18"/>
       <c r="D483" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E483" s="18"/>
       <c r="F483" s="18"/>
@@ -11266,7 +11449,7 @@
       <c r="B484" s="5"/>
       <c r="C484" s="6"/>
       <c r="D484" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E484" s="6"/>
       <c r="F484" s="6"/>
@@ -11277,7 +11460,7 @@
       <c r="B485" s="17"/>
       <c r="C485" s="18"/>
       <c r="D485" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E485" s="18"/>
       <c r="F485" s="18"/>
@@ -11288,7 +11471,7 @@
       <c r="B486" s="5"/>
       <c r="C486" s="6"/>
       <c r="D486" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E486" s="6"/>
       <c r="F486" s="6"/>
@@ -11299,7 +11482,7 @@
       <c r="B487" s="17"/>
       <c r="C487" s="18"/>
       <c r="D487" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E487" s="18"/>
       <c r="F487" s="18"/>
@@ -11310,7 +11493,7 @@
       <c r="B488" s="5"/>
       <c r="C488" s="6"/>
       <c r="D488" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E488" s="6"/>
       <c r="F488" s="6"/>
@@ -11321,7 +11504,7 @@
       <c r="B489" s="17"/>
       <c r="C489" s="18"/>
       <c r="D489" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E489" s="18"/>
       <c r="F489" s="18"/>
@@ -11332,7 +11515,7 @@
       <c r="B490" s="5"/>
       <c r="C490" s="6"/>
       <c r="D490" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E490" s="6"/>
       <c r="F490" s="6"/>
@@ -11343,7 +11526,7 @@
       <c r="B491" s="17"/>
       <c r="C491" s="18"/>
       <c r="D491" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E491" s="18"/>
       <c r="F491" s="18"/>
@@ -11354,7 +11537,7 @@
       <c r="B492" s="5"/>
       <c r="C492" s="6"/>
       <c r="D492" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E492" s="6"/>
       <c r="F492" s="6"/>
@@ -11365,7 +11548,7 @@
       <c r="B493" s="17"/>
       <c r="C493" s="18"/>
       <c r="D493" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E493" s="18"/>
       <c r="F493" s="18"/>
@@ -11376,7 +11559,7 @@
       <c r="B494" s="5"/>
       <c r="C494" s="6"/>
       <c r="D494" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E494" s="6"/>
       <c r="F494" s="6"/>
@@ -11387,7 +11570,7 @@
       <c r="B495" s="17"/>
       <c r="C495" s="18"/>
       <c r="D495" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E495" s="18"/>
       <c r="F495" s="18"/>
@@ -11398,7 +11581,7 @@
       <c r="B496" s="5"/>
       <c r="C496" s="6"/>
       <c r="D496" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E496" s="6"/>
       <c r="F496" s="6"/>
@@ -11409,7 +11592,7 @@
       <c r="B497" s="17"/>
       <c r="C497" s="18"/>
       <c r="D497" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E497" s="18"/>
       <c r="F497" s="18"/>
@@ -11420,7 +11603,7 @@
       <c r="B498" s="5"/>
       <c r="C498" s="6"/>
       <c r="D498" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E498" s="6"/>
       <c r="F498" s="6"/>
@@ -11431,7 +11614,7 @@
       <c r="B499" s="17"/>
       <c r="C499" s="18"/>
       <c r="D499" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E499" s="18"/>
       <c r="F499" s="18"/>
@@ -11442,7 +11625,7 @@
       <c r="B500" s="5"/>
       <c r="C500" s="6"/>
       <c r="D500" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E500" s="6"/>
       <c r="F500" s="6"/>
@@ -11453,7 +11636,7 @@
       <c r="B501" s="17"/>
       <c r="C501" s="18"/>
       <c r="D501" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E501" s="18"/>
       <c r="F501" s="18"/>
@@ -11464,7 +11647,7 @@
       <c r="B502" s="5"/>
       <c r="C502" s="6"/>
       <c r="D502" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E502" s="6"/>
       <c r="F502" s="6"/>
@@ -11475,7 +11658,7 @@
       <c r="B503" s="17"/>
       <c r="C503" s="18"/>
       <c r="D503" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E503" s="18"/>
       <c r="F503" s="18"/>
@@ -11486,7 +11669,7 @@
       <c r="B504" s="5"/>
       <c r="C504" s="6"/>
       <c r="D504" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E504" s="6"/>
       <c r="F504" s="6"/>
@@ -11497,7 +11680,7 @@
       <c r="B505" s="17"/>
       <c r="C505" s="18"/>
       <c r="D505" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E505" s="18"/>
       <c r="F505" s="18"/>
@@ -11508,7 +11691,7 @@
       <c r="B506" s="5"/>
       <c r="C506" s="6"/>
       <c r="D506" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E506" s="6"/>
       <c r="F506" s="6"/>
@@ -11519,7 +11702,7 @@
       <c r="B507" s="17"/>
       <c r="C507" s="18"/>
       <c r="D507" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E507" s="18"/>
       <c r="F507" s="18"/>
@@ -11530,7 +11713,7 @@
       <c r="B508" s="5"/>
       <c r="C508" s="6"/>
       <c r="D508" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E508" s="6"/>
       <c r="F508" s="6"/>
@@ -11541,7 +11724,7 @@
       <c r="B509" s="17"/>
       <c r="C509" s="18"/>
       <c r="D509" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E509" s="18"/>
       <c r="F509" s="18"/>
@@ -11552,7 +11735,7 @@
       <c r="B510" s="5"/>
       <c r="C510" s="6"/>
       <c r="D510" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E510" s="6"/>
       <c r="F510" s="6"/>
@@ -11563,7 +11746,7 @@
       <c r="B511" s="17"/>
       <c r="C511" s="18"/>
       <c r="D511" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E511" s="18"/>
       <c r="F511" s="18"/>
@@ -11574,7 +11757,7 @@
       <c r="B512" s="5"/>
       <c r="C512" s="6"/>
       <c r="D512" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E512" s="6"/>
       <c r="F512" s="6"/>
@@ -11585,7 +11768,7 @@
       <c r="B513" s="17"/>
       <c r="C513" s="18"/>
       <c r="D513" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E513" s="18"/>
       <c r="F513" s="18"/>
@@ -11596,7 +11779,7 @@
       <c r="B514" s="5"/>
       <c r="C514" s="6"/>
       <c r="D514" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E514" s="6"/>
       <c r="F514" s="6"/>
@@ -11607,7 +11790,7 @@
       <c r="B515" s="17"/>
       <c r="C515" s="18"/>
       <c r="D515" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E515" s="18"/>
       <c r="F515" s="18"/>
@@ -11618,7 +11801,7 @@
       <c r="B516" s="5"/>
       <c r="C516" s="6"/>
       <c r="D516" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E516" s="6"/>
       <c r="F516" s="6"/>
@@ -11629,7 +11812,7 @@
       <c r="B517" s="17"/>
       <c r="C517" s="18"/>
       <c r="D517" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E517" s="18"/>
       <c r="F517" s="18"/>
@@ -11640,7 +11823,7 @@
       <c r="B518" s="5"/>
       <c r="C518" s="6"/>
       <c r="D518" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E518" s="6"/>
       <c r="F518" s="6"/>
@@ -11651,7 +11834,7 @@
       <c r="B519" s="17"/>
       <c r="C519" s="18"/>
       <c r="D519" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E519" s="18"/>
       <c r="F519" s="18"/>
@@ -11662,7 +11845,7 @@
       <c r="B520" s="5"/>
       <c r="C520" s="6"/>
       <c r="D520" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E520" s="6"/>
       <c r="F520" s="6"/>
@@ -11673,7 +11856,7 @@
       <c r="B521" s="17"/>
       <c r="C521" s="18"/>
       <c r="D521" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E521" s="18"/>
       <c r="F521" s="18"/>
@@ -11684,22 +11867,187 @@
       <c r="B522" s="5"/>
       <c r="C522" s="6"/>
       <c r="D522" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E522" s="6"/>
       <c r="F522" s="6"/>
       <c r="G522" s="7"/>
     </row>
     <row r="523">
-      <c r="A523" s="20"/>
-      <c r="B523" s="21"/>
-      <c r="C523" s="22"/>
-      <c r="D523" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E523" s="22"/>
-      <c r="F523" s="22"/>
-      <c r="G523" s="23"/>
+      <c r="A523" s="16"/>
+      <c r="B523" s="17"/>
+      <c r="C523" s="18"/>
+      <c r="D523" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E523" s="18"/>
+      <c r="F523" s="18"/>
+      <c r="G523" s="19"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="4"/>
+      <c r="B524" s="5"/>
+      <c r="C524" s="6"/>
+      <c r="D524" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E524" s="6"/>
+      <c r="F524" s="6"/>
+      <c r="G524" s="7"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="16"/>
+      <c r="B525" s="17"/>
+      <c r="C525" s="18"/>
+      <c r="D525" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E525" s="18"/>
+      <c r="F525" s="18"/>
+      <c r="G525" s="19"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="4"/>
+      <c r="B526" s="5"/>
+      <c r="C526" s="6"/>
+      <c r="D526" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E526" s="6"/>
+      <c r="F526" s="6"/>
+      <c r="G526" s="7"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="16"/>
+      <c r="B527" s="17"/>
+      <c r="C527" s="18"/>
+      <c r="D527" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E527" s="18"/>
+      <c r="F527" s="18"/>
+      <c r="G527" s="19"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="4"/>
+      <c r="B528" s="5"/>
+      <c r="C528" s="6"/>
+      <c r="D528" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E528" s="6"/>
+      <c r="F528" s="6"/>
+      <c r="G528" s="7"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="16"/>
+      <c r="B529" s="17"/>
+      <c r="C529" s="18"/>
+      <c r="D529" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E529" s="18"/>
+      <c r="F529" s="18"/>
+      <c r="G529" s="19"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="4"/>
+      <c r="B530" s="5"/>
+      <c r="C530" s="6"/>
+      <c r="D530" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E530" s="6"/>
+      <c r="F530" s="6"/>
+      <c r="G530" s="7"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="16"/>
+      <c r="B531" s="17"/>
+      <c r="C531" s="18"/>
+      <c r="D531" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E531" s="18"/>
+      <c r="F531" s="18"/>
+      <c r="G531" s="19"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="4"/>
+      <c r="B532" s="5"/>
+      <c r="C532" s="6"/>
+      <c r="D532" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E532" s="6"/>
+      <c r="F532" s="6"/>
+      <c r="G532" s="7"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="16"/>
+      <c r="B533" s="17"/>
+      <c r="C533" s="18"/>
+      <c r="D533" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E533" s="18"/>
+      <c r="F533" s="18"/>
+      <c r="G533" s="19"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="4"/>
+      <c r="B534" s="5"/>
+      <c r="C534" s="6"/>
+      <c r="D534" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E534" s="6"/>
+      <c r="F534" s="6"/>
+      <c r="G534" s="7"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="16"/>
+      <c r="B535" s="17"/>
+      <c r="C535" s="18"/>
+      <c r="D535" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E535" s="18"/>
+      <c r="F535" s="18"/>
+      <c r="G535" s="19"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="4"/>
+      <c r="B536" s="5"/>
+      <c r="C536" s="6"/>
+      <c r="D536" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E536" s="6"/>
+      <c r="F536" s="6"/>
+      <c r="G536" s="7"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="16"/>
+      <c r="B537" s="17"/>
+      <c r="C537" s="18"/>
+      <c r="D537" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E537" s="18"/>
+      <c r="F537" s="18"/>
+      <c r="G537" s="19"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="20"/>
+      <c r="B538" s="21"/>
+      <c r="C538" s="22"/>
+      <c r="D538" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E538" s="22"/>
+      <c r="F538" s="22"/>
+      <c r="G538" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -11721,7 +12069,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>27</v>
@@ -11735,7 +12083,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="26" t="str">
         <f t="array" ref="E2:E1000">IF(D2:D1000="","", 
@@ -11754,90 +12102,90 @@
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -11848,18 +12196,18 @@
         <v>15</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -11870,183 +12218,183 @@
         <v>26</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -12057,4875 +12405,4875 @@
         <v>56</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>56</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108">
       <c r="E108" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109">
       <c r="E109" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112">
       <c r="E112" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113">
       <c r="E113" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114">
       <c r="E114" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118">
       <c r="E118" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119">
       <c r="E119" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120">
       <c r="E120" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121">
       <c r="E121" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123">
       <c r="E123" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124">
       <c r="E124" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125">
       <c r="E125" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126">
       <c r="E126" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127">
       <c r="E127" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128">
       <c r="E128" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129">
       <c r="E129" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130">
       <c r="E130" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131">
       <c r="E131" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132">
       <c r="E132" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133">
       <c r="E133" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134">
       <c r="E134" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135">
       <c r="E135" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136">
       <c r="E136" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137">
       <c r="E137" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138">
       <c r="E138" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139">
       <c r="E139" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140">
       <c r="E140" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141">
       <c r="E141" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142">
       <c r="E142" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143">
       <c r="E143" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144">
       <c r="E144" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="145">
       <c r="E145" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="146">
       <c r="E146" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147">
       <c r="E147" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148">
       <c r="E148" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149">
       <c r="E149" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150">
       <c r="E150" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151">
       <c r="E151" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="152">
       <c r="E152" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153">
       <c r="E153" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154">
       <c r="E154" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155">
       <c r="E155" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156">
       <c r="E156" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="157">
       <c r="E157" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158">
       <c r="E158" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="159">
       <c r="E159" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="160">
       <c r="E160" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161">
       <c r="E161" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162">
       <c r="E162" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="163">
       <c r="E163" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164">
       <c r="E164" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165">
       <c r="E165" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166">
       <c r="E166" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167">
       <c r="E167" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="168">
       <c r="E168" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="169">
       <c r="E169" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="170">
       <c r="E170" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171">
       <c r="E171" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172">
       <c r="E172" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173">
       <c r="E173" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174">
       <c r="E174" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175">
       <c r="E175" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176">
       <c r="E176" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177">
       <c r="E177" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178">
       <c r="E178" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179">
       <c r="E179" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="180">
       <c r="E180" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181">
       <c r="E181" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182">
       <c r="E182" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183">
       <c r="E183" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184">
       <c r="E184" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185">
       <c r="E185" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="186">
       <c r="E186" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187">
       <c r="E187" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188">
       <c r="E188" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189">
       <c r="E189" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190">
       <c r="E190" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="191">
       <c r="E191" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192">
       <c r="E192" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193">
       <c r="E193" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194">
       <c r="E194" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195">
       <c r="E195" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="196">
       <c r="E196" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="197">
       <c r="E197" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="198">
       <c r="E198" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199">
       <c r="E199" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200">
       <c r="E200" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201">
       <c r="E201" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="202">
       <c r="E202" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203">
       <c r="E203" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204">
       <c r="E204" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205">
       <c r="E205" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="206">
       <c r="E206" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="207">
       <c r="E207" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="208">
       <c r="E208" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="209">
       <c r="E209" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="210">
       <c r="E210" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="211">
       <c r="E211" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="212">
       <c r="E212" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="213">
       <c r="E213" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="214">
       <c r="E214" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="215">
       <c r="E215" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="216">
       <c r="E216" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="217">
       <c r="E217" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="218">
       <c r="E218" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="219">
       <c r="E219" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="220">
       <c r="E220" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="221">
       <c r="E221" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="222">
       <c r="E222" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="223">
       <c r="E223" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="224">
       <c r="E224" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="225">
       <c r="E225" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="226">
       <c r="E226" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="227">
       <c r="E227" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="228">
       <c r="E228" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="229">
       <c r="E229" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="230">
       <c r="E230" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="231">
       <c r="E231" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="232">
       <c r="E232" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="233">
       <c r="E233" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="234">
       <c r="E234" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="235">
       <c r="E235" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="236">
       <c r="E236" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="237">
       <c r="E237" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="238">
       <c r="E238" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="239">
       <c r="E239" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="240">
       <c r="E240" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="241">
       <c r="E241" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="242">
       <c r="E242" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="243">
       <c r="E243" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="244">
       <c r="E244" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="245">
       <c r="E245" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="246">
       <c r="E246" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="247">
       <c r="E247" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="248">
       <c r="E248" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="249">
       <c r="E249" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="250">
       <c r="E250" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="251">
       <c r="E251" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="252">
       <c r="E252" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="253">
       <c r="E253" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="254">
       <c r="E254" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="255">
       <c r="E255" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="256">
       <c r="E256" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="257">
       <c r="E257" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="258">
       <c r="E258" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="259">
       <c r="E259" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="260">
       <c r="E260" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="261">
       <c r="E261" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="262">
       <c r="E262" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="263">
       <c r="E263" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="264">
       <c r="E264" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="265">
       <c r="E265" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="266">
       <c r="E266" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="267">
       <c r="E267" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="268">
       <c r="E268" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="269">
       <c r="E269" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="270">
       <c r="E270" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="271">
       <c r="E271" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="272">
       <c r="E272" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="273">
       <c r="E273" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="274">
       <c r="E274" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="275">
       <c r="E275" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="276">
       <c r="E276" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="277">
       <c r="E277" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="278">
       <c r="E278" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="279">
       <c r="E279" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="280">
       <c r="E280" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="281">
       <c r="E281" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="282">
       <c r="E282" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="283">
       <c r="E283" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="284">
       <c r="E284" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="285">
       <c r="E285" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="286">
       <c r="E286" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="287">
       <c r="E287" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="288">
       <c r="E288" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="289">
       <c r="E289" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="290">
       <c r="E290" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="291">
       <c r="E291" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="292">
       <c r="E292" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="293">
       <c r="E293" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="294">
       <c r="E294" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="295">
       <c r="E295" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="296">
       <c r="E296" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="297">
       <c r="E297" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="298">
       <c r="E298" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="299">
       <c r="E299" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="300">
       <c r="E300" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="301">
       <c r="E301" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="302">
       <c r="E302" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="303">
       <c r="E303" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="304">
       <c r="E304" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="305">
       <c r="E305" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="306">
       <c r="E306" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="307">
       <c r="E307" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="308">
       <c r="E308" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="309">
       <c r="E309" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="310">
       <c r="E310" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="311">
       <c r="E311" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="312">
       <c r="E312" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="313">
       <c r="E313" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="314">
       <c r="E314" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="315">
       <c r="E315" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="316">
       <c r="E316" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="317">
       <c r="E317" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="318">
       <c r="E318" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="319">
       <c r="E319" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="320">
       <c r="E320" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="321">
       <c r="E321" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="322">
       <c r="E322" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="323">
       <c r="E323" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="324">
       <c r="E324" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="325">
       <c r="E325" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="326">
       <c r="E326" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="327">
       <c r="E327" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="328">
       <c r="E328" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="329">
       <c r="E329" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="330">
       <c r="E330" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="331">
       <c r="E331" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="332">
       <c r="E332" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="333">
       <c r="E333" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="334">
       <c r="E334" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="335">
       <c r="E335" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="336">
       <c r="E336" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="337">
       <c r="E337" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="338">
       <c r="E338" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="339">
       <c r="E339" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="340">
       <c r="E340" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="341">
       <c r="E341" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="342">
       <c r="E342" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="343">
       <c r="E343" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="344">
       <c r="E344" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="345">
       <c r="E345" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="346">
       <c r="E346" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="347">
       <c r="E347" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="348">
       <c r="E348" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="349">
       <c r="E349" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="350">
       <c r="E350" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="351">
       <c r="E351" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="352">
       <c r="E352" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="353">
       <c r="E353" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="354">
       <c r="E354" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="355">
       <c r="E355" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="356">
       <c r="E356" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="357">
       <c r="E357" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="358">
       <c r="E358" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="359">
       <c r="E359" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="360">
       <c r="E360" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="361">
       <c r="E361" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="362">
       <c r="E362" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="363">
       <c r="E363" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="364">
       <c r="E364" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="365">
       <c r="E365" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="366">
       <c r="E366" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="367">
       <c r="E367" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="368">
       <c r="E368" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="369">
       <c r="E369" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="370">
       <c r="E370" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="371">
       <c r="E371" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="372">
       <c r="E372" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="373">
       <c r="E373" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="374">
       <c r="E374" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="375">
       <c r="E375" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="376">
       <c r="E376" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="377">
       <c r="E377" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="378">
       <c r="E378" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="379">
       <c r="E379" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="380">
       <c r="E380" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="381">
       <c r="E381" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="382">
       <c r="E382" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="383">
       <c r="E383" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="384">
       <c r="E384" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="385">
       <c r="E385" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="386">
       <c r="E386" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="387">
       <c r="E387" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="388">
       <c r="E388" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="389">
       <c r="E389" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="390">
       <c r="E390" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="391">
       <c r="E391" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="392">
       <c r="E392" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="393">
       <c r="E393" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="394">
       <c r="E394" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="395">
       <c r="E395" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="396">
       <c r="E396" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="397">
       <c r="E397" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="398">
       <c r="E398" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="399">
       <c r="E399" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="400">
       <c r="E400" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="401">
       <c r="E401" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="402">
       <c r="E402" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="403">
       <c r="E403" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="404">
       <c r="E404" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="405">
       <c r="E405" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="406">
       <c r="E406" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="407">
       <c r="E407" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="408">
       <c r="E408" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="409">
       <c r="E409" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="410">
       <c r="E410" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="411">
       <c r="E411" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="412">
       <c r="E412" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="413">
       <c r="E413" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="414">
       <c r="E414" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="415">
       <c r="E415" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="416">
       <c r="E416" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="417">
       <c r="E417" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="418">
       <c r="E418" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="419">
       <c r="E419" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="420">
       <c r="E420" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="421">
       <c r="E421" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="422">
       <c r="E422" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="423">
       <c r="E423" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="424">
       <c r="E424" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="425">
       <c r="E425" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="426">
       <c r="E426" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="427">
       <c r="E427" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="428">
       <c r="E428" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="429">
       <c r="E429" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="430">
       <c r="E430" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="431">
       <c r="E431" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="432">
       <c r="E432" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="433">
       <c r="E433" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="434">
       <c r="E434" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="435">
       <c r="E435" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="436">
       <c r="E436" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="437">
       <c r="E437" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="438">
       <c r="E438" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="439">
       <c r="E439" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="440">
       <c r="E440" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="441">
       <c r="E441" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="442">
       <c r="E442" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="443">
       <c r="E443" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="444">
       <c r="E444" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="445">
       <c r="E445" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="446">
       <c r="E446" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="447">
       <c r="E447" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="448">
       <c r="E448" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="449">
       <c r="E449" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="450">
       <c r="E450" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="451">
       <c r="E451" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="452">
       <c r="E452" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="453">
       <c r="E453" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="454">
       <c r="E454" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="455">
       <c r="E455" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="456">
       <c r="E456" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="457">
       <c r="E457" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="458">
       <c r="E458" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="459">
       <c r="E459" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="460">
       <c r="E460" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="461">
       <c r="E461" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="462">
       <c r="E462" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="463">
       <c r="E463" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="464">
       <c r="E464" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="465">
       <c r="E465" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="466">
       <c r="E466" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="467">
       <c r="E467" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="468">
       <c r="E468" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="469">
       <c r="E469" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="470">
       <c r="E470" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="471">
       <c r="E471" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="472">
       <c r="E472" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="473">
       <c r="E473" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="474">
       <c r="E474" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="475">
       <c r="E475" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="476">
       <c r="E476" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="477">
       <c r="E477" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="478">
       <c r="E478" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="479">
       <c r="E479" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="480">
       <c r="E480" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="481">
       <c r="E481" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="482">
       <c r="E482" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="483">
       <c r="E483" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="484">
       <c r="E484" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="485">
       <c r="E485" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="486">
       <c r="E486" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="487">
       <c r="E487" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="488">
       <c r="E488" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="489">
       <c r="E489" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="490">
       <c r="E490" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="491">
       <c r="E491" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="492">
       <c r="E492" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="493">
       <c r="E493" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="494">
       <c r="E494" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="495">
       <c r="E495" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="496">
       <c r="E496" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="497">
       <c r="E497" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="498">
       <c r="E498" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="499">
       <c r="E499" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="500">
       <c r="E500" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="501">
       <c r="E501" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="502">
       <c r="E502" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="503">
       <c r="E503" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="504">
       <c r="E504" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="505">
       <c r="E505" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="506">
       <c r="E506" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="507">
       <c r="E507" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="508">
       <c r="E508" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="509">
       <c r="E509" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="510">
       <c r="E510" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="511">
       <c r="E511" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="512">
       <c r="E512" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="513">
       <c r="E513" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="514">
       <c r="E514" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="515">
       <c r="E515" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="516">
       <c r="E516" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="517">
       <c r="E517" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="518">
       <c r="E518" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="519">
       <c r="E519" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="520">
       <c r="E520" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="521">
       <c r="E521" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="522">
       <c r="E522" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="523">
       <c r="E523" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="524">
       <c r="E524" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="525">
       <c r="E525" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="526">
       <c r="E526" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="527">
       <c r="E527" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="528">
       <c r="E528" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="529">
       <c r="E529" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="530">
       <c r="E530" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="531">
       <c r="E531" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="532">
       <c r="E532" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="533">
       <c r="E533" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="534">
       <c r="E534" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="535">
       <c r="E535" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="536">
       <c r="E536" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="537">
       <c r="E537" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="538">
       <c r="E538" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="539">
       <c r="E539" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="540">
       <c r="E540" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="541">
       <c r="E541" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="542">
       <c r="E542" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="543">
       <c r="E543" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="544">
       <c r="E544" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="545">
       <c r="E545" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="546">
       <c r="E546" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="547">
       <c r="E547" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="548">
       <c r="E548" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="549">
       <c r="E549" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="550">
       <c r="E550" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="551">
       <c r="E551" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="552">
       <c r="E552" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="553">
       <c r="E553" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="554">
       <c r="E554" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="555">
       <c r="E555" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="556">
       <c r="E556" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="557">
       <c r="E557" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="558">
       <c r="E558" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="559">
       <c r="E559" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="560">
       <c r="E560" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="561">
       <c r="E561" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="562">
       <c r="E562" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="563">
       <c r="E563" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="564">
       <c r="E564" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="565">
       <c r="E565" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="566">
       <c r="E566" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="567">
       <c r="E567" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="568">
       <c r="E568" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="569">
       <c r="E569" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="570">
       <c r="E570" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="571">
       <c r="E571" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="572">
       <c r="E572" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="573">
       <c r="E573" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="574">
       <c r="E574" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="575">
       <c r="E575" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="576">
       <c r="E576" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="577">
       <c r="E577" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="578">
       <c r="E578" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="579">
       <c r="E579" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="580">
       <c r="E580" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="581">
       <c r="E581" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="582">
       <c r="E582" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="583">
       <c r="E583" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="584">
       <c r="E584" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="585">
       <c r="E585" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="586">
       <c r="E586" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="587">
       <c r="E587" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="588">
       <c r="E588" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="589">
       <c r="E589" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="590">
       <c r="E590" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="591">
       <c r="E591" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="592">
       <c r="E592" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="593">
       <c r="E593" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="594">
       <c r="E594" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="595">
       <c r="E595" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="596">
       <c r="E596" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="597">
       <c r="E597" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="598">
       <c r="E598" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="599">
       <c r="E599" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="600">
       <c r="E600" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="601">
       <c r="E601" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="602">
       <c r="E602" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="603">
       <c r="E603" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="604">
       <c r="E604" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="605">
       <c r="E605" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="606">
       <c r="E606" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="607">
       <c r="E607" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="608">
       <c r="E608" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="609">
       <c r="E609" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="610">
       <c r="E610" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="611">
       <c r="E611" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="612">
       <c r="E612" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="613">
       <c r="E613" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="614">
       <c r="E614" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="615">
       <c r="E615" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="616">
       <c r="E616" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="617">
       <c r="E617" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="618">
       <c r="E618" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="619">
       <c r="E619" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="620">
       <c r="E620" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="621">
       <c r="E621" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="622">
       <c r="E622" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="623">
       <c r="E623" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="624">
       <c r="E624" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="625">
       <c r="E625" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="626">
       <c r="E626" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="627">
       <c r="E627" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="628">
       <c r="E628" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="629">
       <c r="E629" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="630">
       <c r="E630" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="631">
       <c r="E631" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="632">
       <c r="E632" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="633">
       <c r="E633" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="634">
       <c r="E634" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="635">
       <c r="E635" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="636">
       <c r="E636" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="637">
       <c r="E637" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="638">
       <c r="E638" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="639">
       <c r="E639" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="640">
       <c r="E640" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="641">
       <c r="E641" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="642">
       <c r="E642" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="643">
       <c r="E643" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="644">
       <c r="E644" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="645">
       <c r="E645" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="646">
       <c r="E646" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="647">
       <c r="E647" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="648">
       <c r="E648" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="649">
       <c r="E649" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="650">
       <c r="E650" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="651">
       <c r="E651" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="652">
       <c r="E652" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="653">
       <c r="E653" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="654">
       <c r="E654" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="655">
       <c r="E655" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="656">
       <c r="E656" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="657">
       <c r="E657" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="658">
       <c r="E658" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="659">
       <c r="E659" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="660">
       <c r="E660" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="661">
       <c r="E661" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="662">
       <c r="E662" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="663">
       <c r="E663" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="664">
       <c r="E664" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="665">
       <c r="E665" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="666">
       <c r="E666" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="667">
       <c r="E667" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="668">
       <c r="E668" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="669">
       <c r="E669" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="670">
       <c r="E670" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="671">
       <c r="E671" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="672">
       <c r="E672" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="673">
       <c r="E673" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="674">
       <c r="E674" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="675">
       <c r="E675" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="676">
       <c r="E676" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="677">
       <c r="E677" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="678">
       <c r="E678" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="679">
       <c r="E679" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="680">
       <c r="E680" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="681">
       <c r="E681" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="682">
       <c r="E682" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="683">
       <c r="E683" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="684">
       <c r="E684" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="685">
       <c r="E685" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="686">
       <c r="E686" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="687">
       <c r="E687" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="688">
       <c r="E688" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="689">
       <c r="E689" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="690">
       <c r="E690" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="691">
       <c r="E691" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="692">
       <c r="E692" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="693">
       <c r="E693" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="694">
       <c r="E694" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="695">
       <c r="E695" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="696">
       <c r="E696" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="697">
       <c r="E697" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="698">
       <c r="E698" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="699">
       <c r="E699" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="700">
       <c r="E700" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="701">
       <c r="E701" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="702">
       <c r="E702" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="703">
       <c r="E703" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="704">
       <c r="E704" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="705">
       <c r="E705" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="706">
       <c r="E706" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="707">
       <c r="E707" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="708">
       <c r="E708" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="709">
       <c r="E709" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="710">
       <c r="E710" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="711">
       <c r="E711" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="712">
       <c r="E712" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="713">
       <c r="E713" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="714">
       <c r="E714" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="715">
       <c r="E715" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="716">
       <c r="E716" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="717">
       <c r="E717" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="718">
       <c r="E718" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="719">
       <c r="E719" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="720">
       <c r="E720" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="721">
       <c r="E721" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="722">
       <c r="E722" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="723">
       <c r="E723" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="724">
       <c r="E724" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="725">
       <c r="E725" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="726">
       <c r="E726" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="727">
       <c r="E727" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="728">
       <c r="E728" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="729">
       <c r="E729" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="730">
       <c r="E730" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="731">
       <c r="E731" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="732">
       <c r="E732" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="733">
       <c r="E733" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="734">
       <c r="E734" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="735">
       <c r="E735" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="736">
       <c r="E736" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="737">
       <c r="E737" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="738">
       <c r="E738" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="739">
       <c r="E739" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="740">
       <c r="E740" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="741">
       <c r="E741" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="742">
       <c r="E742" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="743">
       <c r="E743" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="744">
       <c r="E744" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="745">
       <c r="E745" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="746">
       <c r="E746" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="747">
       <c r="E747" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="748">
       <c r="E748" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="749">
       <c r="E749" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="750">
       <c r="E750" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="751">
       <c r="E751" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="752">
       <c r="E752" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="753">
       <c r="E753" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="754">
       <c r="E754" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="755">
       <c r="E755" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="756">
       <c r="E756" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="757">
       <c r="E757" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="758">
       <c r="E758" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="759">
       <c r="E759" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="760">
       <c r="E760" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="761">
       <c r="E761" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="762">
       <c r="E762" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="763">
       <c r="E763" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="764">
       <c r="E764" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="765">
       <c r="E765" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="766">
       <c r="E766" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="767">
       <c r="E767" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="768">
       <c r="E768" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="769">
       <c r="E769" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="770">
       <c r="E770" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="771">
       <c r="E771" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="772">
       <c r="E772" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="773">
       <c r="E773" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="774">
       <c r="E774" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="775">
       <c r="E775" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="776">
       <c r="E776" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="777">
       <c r="E777" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="778">
       <c r="E778" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="779">
       <c r="E779" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="780">
       <c r="E780" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="781">
       <c r="E781" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="782">
       <c r="E782" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="783">
       <c r="E783" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="784">
       <c r="E784" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="785">
       <c r="E785" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="786">
       <c r="E786" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="787">
       <c r="E787" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="788">
       <c r="E788" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="789">
       <c r="E789" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="790">
       <c r="E790" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="791">
       <c r="E791" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="792">
       <c r="E792" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="793">
       <c r="E793" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="794">
       <c r="E794" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="795">
       <c r="E795" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="796">
       <c r="E796" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="797">
       <c r="E797" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="798">
       <c r="E798" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="799">
       <c r="E799" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="800">
       <c r="E800" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="801">
       <c r="E801" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="802">
       <c r="E802" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="803">
       <c r="E803" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="804">
       <c r="E804" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="805">
       <c r="E805" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="806">
       <c r="E806" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="807">
       <c r="E807" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="808">
       <c r="E808" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="809">
       <c r="E809" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="810">
       <c r="E810" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="811">
       <c r="E811" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="812">
       <c r="E812" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="813">
       <c r="E813" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="814">
       <c r="E814" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="815">
       <c r="E815" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="816">
       <c r="E816" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="817">
       <c r="E817" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="818">
       <c r="E818" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="819">
       <c r="E819" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="820">
       <c r="E820" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="821">
       <c r="E821" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="822">
       <c r="E822" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="823">
       <c r="E823" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="824">
       <c r="E824" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="825">
       <c r="E825" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="826">
       <c r="E826" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="827">
       <c r="E827" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="828">
       <c r="E828" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="829">
       <c r="E829" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="830">
       <c r="E830" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="831">
       <c r="E831" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="832">
       <c r="E832" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="833">
       <c r="E833" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="834">
       <c r="E834" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="835">
       <c r="E835" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="836">
       <c r="E836" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="837">
       <c r="E837" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="838">
       <c r="E838" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="839">
       <c r="E839" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="840">
       <c r="E840" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="841">
       <c r="E841" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="842">
       <c r="E842" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="843">
       <c r="E843" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="844">
       <c r="E844" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="845">
       <c r="E845" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="846">
       <c r="E846" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="847">
       <c r="E847" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="848">
       <c r="E848" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="849">
       <c r="E849" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="850">
       <c r="E850" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="851">
       <c r="E851" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="852">
       <c r="E852" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="853">
       <c r="E853" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="854">
       <c r="E854" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="855">
       <c r="E855" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="856">
       <c r="E856" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="857">
       <c r="E857" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="858">
       <c r="E858" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="859">
       <c r="E859" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="860">
       <c r="E860" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="861">
       <c r="E861" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="862">
       <c r="E862" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="863">
       <c r="E863" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="864">
       <c r="E864" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="865">
       <c r="E865" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="866">
       <c r="E866" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="867">
       <c r="E867" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="868">
       <c r="E868" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="869">
       <c r="E869" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="870">
       <c r="E870" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="871">
       <c r="E871" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="872">
       <c r="E872" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="873">
       <c r="E873" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="874">
       <c r="E874" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="875">
       <c r="E875" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="876">
       <c r="E876" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="877">
       <c r="E877" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="878">
       <c r="E878" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="879">
       <c r="E879" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="880">
       <c r="E880" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="881">
       <c r="E881" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="882">
       <c r="E882" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="883">
       <c r="E883" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="884">
       <c r="E884" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="885">
       <c r="E885" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="886">
       <c r="E886" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="887">
       <c r="E887" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="888">
       <c r="E888" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="889">
       <c r="E889" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="890">
       <c r="E890" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="891">
       <c r="E891" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="892">
       <c r="E892" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="893">
       <c r="E893" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="894">
       <c r="E894" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="895">
       <c r="E895" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="896">
       <c r="E896" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="897">
       <c r="E897" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="898">
       <c r="E898" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="899">
       <c r="E899" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="900">
       <c r="E900" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="901">
       <c r="E901" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="902">
       <c r="E902" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="903">
       <c r="E903" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="904">
       <c r="E904" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="905">
       <c r="E905" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="906">
       <c r="E906" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="907">
       <c r="E907" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="908">
       <c r="E908" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="909">
       <c r="E909" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="910">
       <c r="E910" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="911">
       <c r="E911" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="912">
       <c r="E912" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="913">
       <c r="E913" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="914">
       <c r="E914" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="915">
       <c r="E915" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="916">
       <c r="E916" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="917">
       <c r="E917" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="918">
       <c r="E918" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="919">
       <c r="E919" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="920">
       <c r="E920" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="921">
       <c r="E921" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="922">
       <c r="E922" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="923">
       <c r="E923" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="924">
       <c r="E924" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="925">
       <c r="E925" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="926">
       <c r="E926" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="927">
       <c r="E927" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="928">
       <c r="E928" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="929">
       <c r="E929" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="930">
       <c r="E930" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="931">
       <c r="E931" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="932">
       <c r="E932" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="933">
       <c r="E933" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="934">
       <c r="E934" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="935">
       <c r="E935" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="936">
       <c r="E936" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="937">
       <c r="E937" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="938">
       <c r="E938" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="939">
       <c r="E939" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="940">
       <c r="E940" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="941">
       <c r="E941" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="942">
       <c r="E942" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="943">
       <c r="E943" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="944">
       <c r="E944" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="945">
       <c r="E945" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="946">
       <c r="E946" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="947">
       <c r="E947" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="948">
       <c r="E948" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="949">
       <c r="E949" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="950">
       <c r="E950" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="951">
       <c r="E951" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="952">
       <c r="E952" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="953">
       <c r="E953" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="954">
       <c r="E954" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="955">
       <c r="E955" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="956">
       <c r="E956" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="957">
       <c r="E957" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="958">
       <c r="E958" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="959">
       <c r="E959" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="960">
       <c r="E960" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="961">
       <c r="E961" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="962">
       <c r="E962" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="963">
       <c r="E963" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="964">
       <c r="E964" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="965">
       <c r="E965" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="966">
       <c r="E966" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="967">
       <c r="E967" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="968">
       <c r="E968" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="969">
       <c r="E969" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="970">
       <c r="E970" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="971">
       <c r="E971" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="972">
       <c r="E972" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="973">
       <c r="E973" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="974">
       <c r="E974" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="975">
       <c r="E975" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="976">
       <c r="E976" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="977">
       <c r="E977" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="978">
       <c r="E978" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="979">
       <c r="E979" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="980">
       <c r="E980" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="981">
       <c r="E981" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="982">
       <c r="E982" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="983">
       <c r="E983" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="984">
       <c r="E984" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="985">
       <c r="E985" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="986">
       <c r="E986" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="987">
       <c r="E987" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="988">
       <c r="E988" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="989">
       <c r="E989" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="990">
       <c r="E990" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="991">
       <c r="E991" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="992">
       <c r="E992" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="993">
       <c r="E993" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="994">
       <c r="E994" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="995">
       <c r="E995" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="996">
       <c r="E996" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="997">
       <c r="E997" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="998">
       <c r="E998" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="999">
       <c r="E999" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1000">
       <c r="E1000" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="96">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Carol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carol Acuña </t>
   </si>
   <si>
     <t/>
@@ -647,7 +650,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G538" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G560" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -10950,253 +10953,517 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="16"/>
-      <c r="B439" s="17"/>
-      <c r="C439" s="18"/>
-      <c r="D439" s="18" t="s">
+      <c r="A439" s="8">
+        <v>45903.90715950231</v>
+      </c>
+      <c r="B439" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C439" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D439" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E439" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F439" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G439" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="12">
+        <v>45903.91298471065</v>
+      </c>
+      <c r="B440" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C440" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D440" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E440" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F440" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G440" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="8">
+        <v>45903.940096342594</v>
+      </c>
+      <c r="B441" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C441" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D441" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E441" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F441" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G441" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="12">
+        <v>45903.94010965277</v>
+      </c>
+      <c r="B442" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C442" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D442" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E442" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F442" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G442" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="8">
+        <v>45903.9401828588</v>
+      </c>
+      <c r="B443" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C443" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D443" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E443" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F443" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G443" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="12">
+        <v>45903.94133695602</v>
+      </c>
+      <c r="B444" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C444" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D444" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E444" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F444" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G444" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="8">
+        <v>45903.94585633102</v>
+      </c>
+      <c r="B445" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C445" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D445" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E445" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F445" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G445" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="12">
+        <v>45903.94846319444</v>
+      </c>
+      <c r="B446" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C446" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D446" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E446" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F446" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G446" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="8">
+        <v>45903.948888784726</v>
+      </c>
+      <c r="B447" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C447" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D447" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E447" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F447" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G447" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="12">
+        <v>45903.9518818287</v>
+      </c>
+      <c r="B448" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C448" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D448" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E448" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F448" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G448" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="8">
+        <v>45903.95198028935</v>
+      </c>
+      <c r="B449" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C449" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D449" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E449" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F449" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G449" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="12">
+        <v>45904.514027881945</v>
+      </c>
+      <c r="B450" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C450" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D450" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E450" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F450" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G450" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="8">
+        <v>45905.56972813657</v>
+      </c>
+      <c r="B451" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C451" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D451" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E451" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F451" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G451" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="12">
+        <v>45905.571888125</v>
+      </c>
+      <c r="B452" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C452" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D452" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E452" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F452" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G452" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="8">
+        <v>45905.573581296296</v>
+      </c>
+      <c r="B453" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C453" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D453" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E453" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F453" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G453" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="12">
+        <v>45905.574079722224</v>
+      </c>
+      <c r="B454" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C454" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D454" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E439" s="18"/>
-      <c r="F439" s="18"/>
-      <c r="G439" s="19"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="4"/>
-      <c r="B440" s="5"/>
-      <c r="C440" s="6"/>
-      <c r="D440" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E440" s="6"/>
-      <c r="F440" s="6"/>
-      <c r="G440" s="7"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="16"/>
-      <c r="B441" s="17"/>
-      <c r="C441" s="18"/>
-      <c r="D441" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E441" s="18"/>
-      <c r="F441" s="18"/>
-      <c r="G441" s="19"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="4"/>
-      <c r="B442" s="5"/>
-      <c r="C442" s="6"/>
-      <c r="D442" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E442" s="6"/>
-      <c r="F442" s="6"/>
-      <c r="G442" s="7"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="16"/>
-      <c r="B443" s="17"/>
-      <c r="C443" s="18"/>
-      <c r="D443" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E443" s="18"/>
-      <c r="F443" s="18"/>
-      <c r="G443" s="19"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="4"/>
-      <c r="B444" s="5"/>
-      <c r="C444" s="6"/>
-      <c r="D444" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E444" s="6"/>
-      <c r="F444" s="6"/>
-      <c r="G444" s="7"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="16"/>
-      <c r="B445" s="17"/>
-      <c r="C445" s="18"/>
-      <c r="D445" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E445" s="18"/>
-      <c r="F445" s="18"/>
-      <c r="G445" s="19"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="4"/>
-      <c r="B446" s="5"/>
-      <c r="C446" s="6"/>
-      <c r="D446" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E446" s="6"/>
-      <c r="F446" s="6"/>
-      <c r="G446" s="7"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="16"/>
-      <c r="B447" s="17"/>
-      <c r="C447" s="18"/>
-      <c r="D447" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E447" s="18"/>
-      <c r="F447" s="18"/>
-      <c r="G447" s="19"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="4"/>
-      <c r="B448" s="5"/>
-      <c r="C448" s="6"/>
-      <c r="D448" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E448" s="6"/>
-      <c r="F448" s="6"/>
-      <c r="G448" s="7"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="16"/>
-      <c r="B449" s="17"/>
-      <c r="C449" s="18"/>
-      <c r="D449" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E449" s="18"/>
-      <c r="F449" s="18"/>
-      <c r="G449" s="19"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="4"/>
-      <c r="B450" s="5"/>
-      <c r="C450" s="6"/>
-      <c r="D450" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E450" s="6"/>
-      <c r="F450" s="6"/>
-      <c r="G450" s="7"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="16"/>
-      <c r="B451" s="17"/>
-      <c r="C451" s="18"/>
-      <c r="D451" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E451" s="18"/>
-      <c r="F451" s="18"/>
-      <c r="G451" s="19"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="4"/>
-      <c r="B452" s="5"/>
-      <c r="C452" s="6"/>
-      <c r="D452" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E452" s="6"/>
-      <c r="F452" s="6"/>
-      <c r="G452" s="7"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="16"/>
-      <c r="B453" s="17"/>
-      <c r="C453" s="18"/>
-      <c r="D453" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E453" s="18"/>
-      <c r="F453" s="18"/>
-      <c r="G453" s="19"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="4"/>
-      <c r="B454" s="5"/>
-      <c r="C454" s="6"/>
-      <c r="D454" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E454" s="6"/>
-      <c r="F454" s="6"/>
-      <c r="G454" s="7"/>
+      <c r="E454" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F454" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G454" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="455">
-      <c r="A455" s="16"/>
-      <c r="B455" s="17"/>
-      <c r="C455" s="18"/>
-      <c r="D455" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E455" s="18"/>
-      <c r="F455" s="18"/>
-      <c r="G455" s="19"/>
+      <c r="A455" s="8">
+        <v>45905.57410583334</v>
+      </c>
+      <c r="B455" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C455" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D455" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E455" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F455" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G455" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="456">
-      <c r="A456" s="4"/>
-      <c r="B456" s="5"/>
-      <c r="C456" s="6"/>
-      <c r="D456" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E456" s="6"/>
-      <c r="F456" s="6"/>
-      <c r="G456" s="7"/>
+      <c r="A456" s="12">
+        <v>45905.57420003472</v>
+      </c>
+      <c r="B456" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C456" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D456" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E456" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F456" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G456" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="457">
-      <c r="A457" s="16"/>
-      <c r="B457" s="17"/>
-      <c r="C457" s="18"/>
-      <c r="D457" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E457" s="18"/>
-      <c r="F457" s="18"/>
-      <c r="G457" s="19"/>
+      <c r="A457" s="8">
+        <v>45905.57455818287</v>
+      </c>
+      <c r="B457" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C457" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D457" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E457" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F457" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G457" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="458">
-      <c r="A458" s="4"/>
-      <c r="B458" s="5"/>
-      <c r="C458" s="6"/>
-      <c r="D458" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E458" s="6"/>
-      <c r="F458" s="6"/>
-      <c r="G458" s="7"/>
+      <c r="A458" s="12">
+        <v>45905.5796371412</v>
+      </c>
+      <c r="B458" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C458" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D458" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E458" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F458" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G458" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="459">
-      <c r="A459" s="16"/>
-      <c r="B459" s="17"/>
-      <c r="C459" s="18"/>
-      <c r="D459" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E459" s="18"/>
-      <c r="F459" s="18"/>
-      <c r="G459" s="19"/>
+      <c r="A459" s="8">
+        <v>45905.59211951389</v>
+      </c>
+      <c r="B459" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C459" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D459" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E459" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F459" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G459" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="460">
-      <c r="A460" s="4"/>
-      <c r="B460" s="5"/>
-      <c r="C460" s="6"/>
-      <c r="D460" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E460" s="6"/>
-      <c r="F460" s="6"/>
-      <c r="G460" s="7"/>
+      <c r="A460" s="12">
+        <v>45905.81757451389</v>
+      </c>
+      <c r="B460" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C460" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D460" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E460" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F460" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G460" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="16"/>
       <c r="B461" s="17"/>
       <c r="C461" s="18"/>
       <c r="D461" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E461" s="18"/>
       <c r="F461" s="18"/>
@@ -11207,7 +11474,7 @@
       <c r="B462" s="5"/>
       <c r="C462" s="6"/>
       <c r="D462" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E462" s="6"/>
       <c r="F462" s="6"/>
@@ -11218,7 +11485,7 @@
       <c r="B463" s="17"/>
       <c r="C463" s="18"/>
       <c r="D463" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E463" s="18"/>
       <c r="F463" s="18"/>
@@ -11229,7 +11496,7 @@
       <c r="B464" s="5"/>
       <c r="C464" s="6"/>
       <c r="D464" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E464" s="6"/>
       <c r="F464" s="6"/>
@@ -11240,7 +11507,7 @@
       <c r="B465" s="17"/>
       <c r="C465" s="18"/>
       <c r="D465" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E465" s="18"/>
       <c r="F465" s="18"/>
@@ -11251,7 +11518,7 @@
       <c r="B466" s="5"/>
       <c r="C466" s="6"/>
       <c r="D466" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E466" s="6"/>
       <c r="F466" s="6"/>
@@ -11262,7 +11529,7 @@
       <c r="B467" s="17"/>
       <c r="C467" s="18"/>
       <c r="D467" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E467" s="18"/>
       <c r="F467" s="18"/>
@@ -11273,7 +11540,7 @@
       <c r="B468" s="5"/>
       <c r="C468" s="6"/>
       <c r="D468" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E468" s="6"/>
       <c r="F468" s="6"/>
@@ -11284,7 +11551,7 @@
       <c r="B469" s="17"/>
       <c r="C469" s="18"/>
       <c r="D469" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E469" s="18"/>
       <c r="F469" s="18"/>
@@ -11295,7 +11562,7 @@
       <c r="B470" s="5"/>
       <c r="C470" s="6"/>
       <c r="D470" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E470" s="6"/>
       <c r="F470" s="6"/>
@@ -11306,7 +11573,7 @@
       <c r="B471" s="17"/>
       <c r="C471" s="18"/>
       <c r="D471" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E471" s="18"/>
       <c r="F471" s="18"/>
@@ -11317,7 +11584,7 @@
       <c r="B472" s="5"/>
       <c r="C472" s="6"/>
       <c r="D472" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E472" s="6"/>
       <c r="F472" s="6"/>
@@ -11328,7 +11595,7 @@
       <c r="B473" s="17"/>
       <c r="C473" s="18"/>
       <c r="D473" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E473" s="18"/>
       <c r="F473" s="18"/>
@@ -11339,7 +11606,7 @@
       <c r="B474" s="5"/>
       <c r="C474" s="6"/>
       <c r="D474" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E474" s="6"/>
       <c r="F474" s="6"/>
@@ -11350,7 +11617,7 @@
       <c r="B475" s="17"/>
       <c r="C475" s="18"/>
       <c r="D475" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E475" s="18"/>
       <c r="F475" s="18"/>
@@ -11361,7 +11628,7 @@
       <c r="B476" s="5"/>
       <c r="C476" s="6"/>
       <c r="D476" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E476" s="6"/>
       <c r="F476" s="6"/>
@@ -11372,7 +11639,7 @@
       <c r="B477" s="17"/>
       <c r="C477" s="18"/>
       <c r="D477" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E477" s="18"/>
       <c r="F477" s="18"/>
@@ -11383,7 +11650,7 @@
       <c r="B478" s="5"/>
       <c r="C478" s="6"/>
       <c r="D478" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E478" s="6"/>
       <c r="F478" s="6"/>
@@ -11394,7 +11661,7 @@
       <c r="B479" s="17"/>
       <c r="C479" s="18"/>
       <c r="D479" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E479" s="18"/>
       <c r="F479" s="18"/>
@@ -11405,7 +11672,7 @@
       <c r="B480" s="5"/>
       <c r="C480" s="6"/>
       <c r="D480" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E480" s="6"/>
       <c r="F480" s="6"/>
@@ -11416,7 +11683,7 @@
       <c r="B481" s="17"/>
       <c r="C481" s="18"/>
       <c r="D481" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E481" s="18"/>
       <c r="F481" s="18"/>
@@ -11427,7 +11694,7 @@
       <c r="B482" s="5"/>
       <c r="C482" s="6"/>
       <c r="D482" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E482" s="6"/>
       <c r="F482" s="6"/>
@@ -11438,7 +11705,7 @@
       <c r="B483" s="17"/>
       <c r="C483" s="18"/>
       <c r="D483" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E483" s="18"/>
       <c r="F483" s="18"/>
@@ -11449,7 +11716,7 @@
       <c r="B484" s="5"/>
       <c r="C484" s="6"/>
       <c r="D484" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E484" s="6"/>
       <c r="F484" s="6"/>
@@ -11460,7 +11727,7 @@
       <c r="B485" s="17"/>
       <c r="C485" s="18"/>
       <c r="D485" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E485" s="18"/>
       <c r="F485" s="18"/>
@@ -11471,7 +11738,7 @@
       <c r="B486" s="5"/>
       <c r="C486" s="6"/>
       <c r="D486" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E486" s="6"/>
       <c r="F486" s="6"/>
@@ -11482,7 +11749,7 @@
       <c r="B487" s="17"/>
       <c r="C487" s="18"/>
       <c r="D487" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E487" s="18"/>
       <c r="F487" s="18"/>
@@ -11493,7 +11760,7 @@
       <c r="B488" s="5"/>
       <c r="C488" s="6"/>
       <c r="D488" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E488" s="6"/>
       <c r="F488" s="6"/>
@@ -11504,7 +11771,7 @@
       <c r="B489" s="17"/>
       <c r="C489" s="18"/>
       <c r="D489" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E489" s="18"/>
       <c r="F489" s="18"/>
@@ -11515,7 +11782,7 @@
       <c r="B490" s="5"/>
       <c r="C490" s="6"/>
       <c r="D490" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E490" s="6"/>
       <c r="F490" s="6"/>
@@ -11526,7 +11793,7 @@
       <c r="B491" s="17"/>
       <c r="C491" s="18"/>
       <c r="D491" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E491" s="18"/>
       <c r="F491" s="18"/>
@@ -11537,7 +11804,7 @@
       <c r="B492" s="5"/>
       <c r="C492" s="6"/>
       <c r="D492" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E492" s="6"/>
       <c r="F492" s="6"/>
@@ -11548,7 +11815,7 @@
       <c r="B493" s="17"/>
       <c r="C493" s="18"/>
       <c r="D493" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E493" s="18"/>
       <c r="F493" s="18"/>
@@ -11559,7 +11826,7 @@
       <c r="B494" s="5"/>
       <c r="C494" s="6"/>
       <c r="D494" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E494" s="6"/>
       <c r="F494" s="6"/>
@@ -11570,7 +11837,7 @@
       <c r="B495" s="17"/>
       <c r="C495" s="18"/>
       <c r="D495" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E495" s="18"/>
       <c r="F495" s="18"/>
@@ -11581,7 +11848,7 @@
       <c r="B496" s="5"/>
       <c r="C496" s="6"/>
       <c r="D496" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E496" s="6"/>
       <c r="F496" s="6"/>
@@ -11592,7 +11859,7 @@
       <c r="B497" s="17"/>
       <c r="C497" s="18"/>
       <c r="D497" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E497" s="18"/>
       <c r="F497" s="18"/>
@@ -11603,7 +11870,7 @@
       <c r="B498" s="5"/>
       <c r="C498" s="6"/>
       <c r="D498" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E498" s="6"/>
       <c r="F498" s="6"/>
@@ -11614,7 +11881,7 @@
       <c r="B499" s="17"/>
       <c r="C499" s="18"/>
       <c r="D499" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E499" s="18"/>
       <c r="F499" s="18"/>
@@ -11625,7 +11892,7 @@
       <c r="B500" s="5"/>
       <c r="C500" s="6"/>
       <c r="D500" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E500" s="6"/>
       <c r="F500" s="6"/>
@@ -11636,7 +11903,7 @@
       <c r="B501" s="17"/>
       <c r="C501" s="18"/>
       <c r="D501" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E501" s="18"/>
       <c r="F501" s="18"/>
@@ -11647,7 +11914,7 @@
       <c r="B502" s="5"/>
       <c r="C502" s="6"/>
       <c r="D502" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E502" s="6"/>
       <c r="F502" s="6"/>
@@ -11658,7 +11925,7 @@
       <c r="B503" s="17"/>
       <c r="C503" s="18"/>
       <c r="D503" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E503" s="18"/>
       <c r="F503" s="18"/>
@@ -11669,7 +11936,7 @@
       <c r="B504" s="5"/>
       <c r="C504" s="6"/>
       <c r="D504" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E504" s="6"/>
       <c r="F504" s="6"/>
@@ -11680,7 +11947,7 @@
       <c r="B505" s="17"/>
       <c r="C505" s="18"/>
       <c r="D505" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E505" s="18"/>
       <c r="F505" s="18"/>
@@ -11691,7 +11958,7 @@
       <c r="B506" s="5"/>
       <c r="C506" s="6"/>
       <c r="D506" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E506" s="6"/>
       <c r="F506" s="6"/>
@@ -11702,7 +11969,7 @@
       <c r="B507" s="17"/>
       <c r="C507" s="18"/>
       <c r="D507" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E507" s="18"/>
       <c r="F507" s="18"/>
@@ -11713,7 +11980,7 @@
       <c r="B508" s="5"/>
       <c r="C508" s="6"/>
       <c r="D508" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E508" s="6"/>
       <c r="F508" s="6"/>
@@ -11724,7 +11991,7 @@
       <c r="B509" s="17"/>
       <c r="C509" s="18"/>
       <c r="D509" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E509" s="18"/>
       <c r="F509" s="18"/>
@@ -11735,7 +12002,7 @@
       <c r="B510" s="5"/>
       <c r="C510" s="6"/>
       <c r="D510" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E510" s="6"/>
       <c r="F510" s="6"/>
@@ -11746,7 +12013,7 @@
       <c r="B511" s="17"/>
       <c r="C511" s="18"/>
       <c r="D511" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E511" s="18"/>
       <c r="F511" s="18"/>
@@ -11757,7 +12024,7 @@
       <c r="B512" s="5"/>
       <c r="C512" s="6"/>
       <c r="D512" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E512" s="6"/>
       <c r="F512" s="6"/>
@@ -11768,7 +12035,7 @@
       <c r="B513" s="17"/>
       <c r="C513" s="18"/>
       <c r="D513" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E513" s="18"/>
       <c r="F513" s="18"/>
@@ -11779,7 +12046,7 @@
       <c r="B514" s="5"/>
       <c r="C514" s="6"/>
       <c r="D514" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E514" s="6"/>
       <c r="F514" s="6"/>
@@ -11790,7 +12057,7 @@
       <c r="B515" s="17"/>
       <c r="C515" s="18"/>
       <c r="D515" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E515" s="18"/>
       <c r="F515" s="18"/>
@@ -11801,7 +12068,7 @@
       <c r="B516" s="5"/>
       <c r="C516" s="6"/>
       <c r="D516" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E516" s="6"/>
       <c r="F516" s="6"/>
@@ -11812,7 +12079,7 @@
       <c r="B517" s="17"/>
       <c r="C517" s="18"/>
       <c r="D517" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E517" s="18"/>
       <c r="F517" s="18"/>
@@ -11823,7 +12090,7 @@
       <c r="B518" s="5"/>
       <c r="C518" s="6"/>
       <c r="D518" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E518" s="6"/>
       <c r="F518" s="6"/>
@@ -11834,7 +12101,7 @@
       <c r="B519" s="17"/>
       <c r="C519" s="18"/>
       <c r="D519" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E519" s="18"/>
       <c r="F519" s="18"/>
@@ -11845,7 +12112,7 @@
       <c r="B520" s="5"/>
       <c r="C520" s="6"/>
       <c r="D520" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E520" s="6"/>
       <c r="F520" s="6"/>
@@ -11856,7 +12123,7 @@
       <c r="B521" s="17"/>
       <c r="C521" s="18"/>
       <c r="D521" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E521" s="18"/>
       <c r="F521" s="18"/>
@@ -11867,7 +12134,7 @@
       <c r="B522" s="5"/>
       <c r="C522" s="6"/>
       <c r="D522" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E522" s="6"/>
       <c r="F522" s="6"/>
@@ -11878,7 +12145,7 @@
       <c r="B523" s="17"/>
       <c r="C523" s="18"/>
       <c r="D523" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E523" s="18"/>
       <c r="F523" s="18"/>
@@ -11889,7 +12156,7 @@
       <c r="B524" s="5"/>
       <c r="C524" s="6"/>
       <c r="D524" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E524" s="6"/>
       <c r="F524" s="6"/>
@@ -11900,7 +12167,7 @@
       <c r="B525" s="17"/>
       <c r="C525" s="18"/>
       <c r="D525" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E525" s="18"/>
       <c r="F525" s="18"/>
@@ -11911,7 +12178,7 @@
       <c r="B526" s="5"/>
       <c r="C526" s="6"/>
       <c r="D526" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E526" s="6"/>
       <c r="F526" s="6"/>
@@ -11922,7 +12189,7 @@
       <c r="B527" s="17"/>
       <c r="C527" s="18"/>
       <c r="D527" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E527" s="18"/>
       <c r="F527" s="18"/>
@@ -11933,7 +12200,7 @@
       <c r="B528" s="5"/>
       <c r="C528" s="6"/>
       <c r="D528" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E528" s="6"/>
       <c r="F528" s="6"/>
@@ -11944,7 +12211,7 @@
       <c r="B529" s="17"/>
       <c r="C529" s="18"/>
       <c r="D529" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E529" s="18"/>
       <c r="F529" s="18"/>
@@ -11955,7 +12222,7 @@
       <c r="B530" s="5"/>
       <c r="C530" s="6"/>
       <c r="D530" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E530" s="6"/>
       <c r="F530" s="6"/>
@@ -11966,7 +12233,7 @@
       <c r="B531" s="17"/>
       <c r="C531" s="18"/>
       <c r="D531" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E531" s="18"/>
       <c r="F531" s="18"/>
@@ -11977,7 +12244,7 @@
       <c r="B532" s="5"/>
       <c r="C532" s="6"/>
       <c r="D532" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E532" s="6"/>
       <c r="F532" s="6"/>
@@ -11988,7 +12255,7 @@
       <c r="B533" s="17"/>
       <c r="C533" s="18"/>
       <c r="D533" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E533" s="18"/>
       <c r="F533" s="18"/>
@@ -11999,7 +12266,7 @@
       <c r="B534" s="5"/>
       <c r="C534" s="6"/>
       <c r="D534" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E534" s="6"/>
       <c r="F534" s="6"/>
@@ -12010,7 +12277,7 @@
       <c r="B535" s="17"/>
       <c r="C535" s="18"/>
       <c r="D535" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E535" s="18"/>
       <c r="F535" s="18"/>
@@ -12021,7 +12288,7 @@
       <c r="B536" s="5"/>
       <c r="C536" s="6"/>
       <c r="D536" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E536" s="6"/>
       <c r="F536" s="6"/>
@@ -12032,22 +12299,264 @@
       <c r="B537" s="17"/>
       <c r="C537" s="18"/>
       <c r="D537" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E537" s="18"/>
       <c r="F537" s="18"/>
       <c r="G537" s="19"/>
     </row>
     <row r="538">
-      <c r="A538" s="20"/>
-      <c r="B538" s="21"/>
-      <c r="C538" s="22"/>
-      <c r="D538" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E538" s="22"/>
-      <c r="F538" s="22"/>
-      <c r="G538" s="23"/>
+      <c r="A538" s="4"/>
+      <c r="B538" s="5"/>
+      <c r="C538" s="6"/>
+      <c r="D538" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E538" s="6"/>
+      <c r="F538" s="6"/>
+      <c r="G538" s="7"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="16"/>
+      <c r="B539" s="17"/>
+      <c r="C539" s="18"/>
+      <c r="D539" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E539" s="18"/>
+      <c r="F539" s="18"/>
+      <c r="G539" s="19"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="4"/>
+      <c r="B540" s="5"/>
+      <c r="C540" s="6"/>
+      <c r="D540" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E540" s="6"/>
+      <c r="F540" s="6"/>
+      <c r="G540" s="7"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="16"/>
+      <c r="B541" s="17"/>
+      <c r="C541" s="18"/>
+      <c r="D541" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E541" s="18"/>
+      <c r="F541" s="18"/>
+      <c r="G541" s="19"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="4"/>
+      <c r="B542" s="5"/>
+      <c r="C542" s="6"/>
+      <c r="D542" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E542" s="6"/>
+      <c r="F542" s="6"/>
+      <c r="G542" s="7"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="16"/>
+      <c r="B543" s="17"/>
+      <c r="C543" s="18"/>
+      <c r="D543" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E543" s="18"/>
+      <c r="F543" s="18"/>
+      <c r="G543" s="19"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="4"/>
+      <c r="B544" s="5"/>
+      <c r="C544" s="6"/>
+      <c r="D544" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E544" s="6"/>
+      <c r="F544" s="6"/>
+      <c r="G544" s="7"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="16"/>
+      <c r="B545" s="17"/>
+      <c r="C545" s="18"/>
+      <c r="D545" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E545" s="18"/>
+      <c r="F545" s="18"/>
+      <c r="G545" s="19"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="4"/>
+      <c r="B546" s="5"/>
+      <c r="C546" s="6"/>
+      <c r="D546" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E546" s="6"/>
+      <c r="F546" s="6"/>
+      <c r="G546" s="7"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="16"/>
+      <c r="B547" s="17"/>
+      <c r="C547" s="18"/>
+      <c r="D547" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E547" s="18"/>
+      <c r="F547" s="18"/>
+      <c r="G547" s="19"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="4"/>
+      <c r="B548" s="5"/>
+      <c r="C548" s="6"/>
+      <c r="D548" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E548" s="6"/>
+      <c r="F548" s="6"/>
+      <c r="G548" s="7"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="16"/>
+      <c r="B549" s="17"/>
+      <c r="C549" s="18"/>
+      <c r="D549" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E549" s="18"/>
+      <c r="F549" s="18"/>
+      <c r="G549" s="19"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="4"/>
+      <c r="B550" s="5"/>
+      <c r="C550" s="6"/>
+      <c r="D550" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E550" s="6"/>
+      <c r="F550" s="6"/>
+      <c r="G550" s="7"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="16"/>
+      <c r="B551" s="17"/>
+      <c r="C551" s="18"/>
+      <c r="D551" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E551" s="18"/>
+      <c r="F551" s="18"/>
+      <c r="G551" s="19"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="4"/>
+      <c r="B552" s="5"/>
+      <c r="C552" s="6"/>
+      <c r="D552" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E552" s="6"/>
+      <c r="F552" s="6"/>
+      <c r="G552" s="7"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="16"/>
+      <c r="B553" s="17"/>
+      <c r="C553" s="18"/>
+      <c r="D553" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E553" s="18"/>
+      <c r="F553" s="18"/>
+      <c r="G553" s="19"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="4"/>
+      <c r="B554" s="5"/>
+      <c r="C554" s="6"/>
+      <c r="D554" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E554" s="6"/>
+      <c r="F554" s="6"/>
+      <c r="G554" s="7"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="16"/>
+      <c r="B555" s="17"/>
+      <c r="C555" s="18"/>
+      <c r="D555" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E555" s="18"/>
+      <c r="F555" s="18"/>
+      <c r="G555" s="19"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="4"/>
+      <c r="B556" s="5"/>
+      <c r="C556" s="6"/>
+      <c r="D556" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E556" s="6"/>
+      <c r="F556" s="6"/>
+      <c r="G556" s="7"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="16"/>
+      <c r="B557" s="17"/>
+      <c r="C557" s="18"/>
+      <c r="D557" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E557" s="18"/>
+      <c r="F557" s="18"/>
+      <c r="G557" s="19"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="4"/>
+      <c r="B558" s="5"/>
+      <c r="C558" s="6"/>
+      <c r="D558" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E558" s="6"/>
+      <c r="F558" s="6"/>
+      <c r="G558" s="7"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="16"/>
+      <c r="B559" s="17"/>
+      <c r="C559" s="18"/>
+      <c r="D559" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E559" s="18"/>
+      <c r="F559" s="18"/>
+      <c r="G559" s="19"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="20"/>
+      <c r="B560" s="21"/>
+      <c r="C560" s="22"/>
+      <c r="D560" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E560" s="22"/>
+      <c r="F560" s="22"/>
+      <c r="G560" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -12069,7 +12578,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>27</v>
@@ -12083,7 +12592,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="26" t="str">
         <f t="array" ref="E2:E1000">IF(D2:D1000="","", 
@@ -12102,90 +12611,90 @@
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -12196,18 +12705,18 @@
         <v>15</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -12218,183 +12727,183 @@
         <v>26</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
@@ -12405,4875 +12914,4875 @@
         <v>56</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>56</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108">
       <c r="E108" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109">
       <c r="E109" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112">
       <c r="E112" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113">
       <c r="E113" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114">
       <c r="E114" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="118">
       <c r="E118" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119">
       <c r="E119" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120">
       <c r="E120" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="121">
       <c r="E121" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123">
       <c r="E123" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="124">
       <c r="E124" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="125">
       <c r="E125" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="126">
       <c r="E126" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="127">
       <c r="E127" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="128">
       <c r="E128" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="129">
       <c r="E129" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="130">
       <c r="E130" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="131">
       <c r="E131" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="132">
       <c r="E132" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="133">
       <c r="E133" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="134">
       <c r="E134" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="135">
       <c r="E135" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136">
       <c r="E136" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="137">
       <c r="E137" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="138">
       <c r="E138" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="139">
       <c r="E139" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="140">
       <c r="E140" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="141">
       <c r="E141" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="142">
       <c r="E142" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="143">
       <c r="E143" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="144">
       <c r="E144" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="145">
       <c r="E145" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="146">
       <c r="E146" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147">
       <c r="E147" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="148">
       <c r="E148" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="149">
       <c r="E149" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="150">
       <c r="E150" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="151">
       <c r="E151" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="152">
       <c r="E152" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="153">
       <c r="E153" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="154">
       <c r="E154" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="155">
       <c r="E155" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="156">
       <c r="E156" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="157">
       <c r="E157" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="158">
       <c r="E158" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="159">
       <c r="E159" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="160">
       <c r="E160" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="161">
       <c r="E161" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="162">
       <c r="E162" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="163">
       <c r="E163" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="164">
       <c r="E164" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="165">
       <c r="E165" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="166">
       <c r="E166" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="167">
       <c r="E167" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="168">
       <c r="E168" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="169">
       <c r="E169" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="170">
       <c r="E170" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="171">
       <c r="E171" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="172">
       <c r="E172" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="173">
       <c r="E173" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="174">
       <c r="E174" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="175">
       <c r="E175" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="176">
       <c r="E176" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="177">
       <c r="E177" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178">
       <c r="E178" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="179">
       <c r="E179" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="180">
       <c r="E180" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="181">
       <c r="E181" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="182">
       <c r="E182" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="183">
       <c r="E183" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="184">
       <c r="E184" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="185">
       <c r="E185" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="186">
       <c r="E186" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="187">
       <c r="E187" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="188">
       <c r="E188" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="189">
       <c r="E189" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="190">
       <c r="E190" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="191">
       <c r="E191" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="192">
       <c r="E192" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="193">
       <c r="E193" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="194">
       <c r="E194" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="195">
       <c r="E195" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="196">
       <c r="E196" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="197">
       <c r="E197" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="198">
       <c r="E198" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="199">
       <c r="E199" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="200">
       <c r="E200" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="201">
       <c r="E201" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="202">
       <c r="E202" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="203">
       <c r="E203" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="204">
       <c r="E204" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="205">
       <c r="E205" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="206">
       <c r="E206" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="207">
       <c r="E207" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="208">
       <c r="E208" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="209">
       <c r="E209" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="210">
       <c r="E210" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="211">
       <c r="E211" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="212">
       <c r="E212" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="213">
       <c r="E213" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="214">
       <c r="E214" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="215">
       <c r="E215" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="216">
       <c r="E216" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="217">
       <c r="E217" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="218">
       <c r="E218" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="219">
       <c r="E219" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="220">
       <c r="E220" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="221">
       <c r="E221" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="222">
       <c r="E222" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="223">
       <c r="E223" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="224">
       <c r="E224" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="225">
       <c r="E225" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="226">
       <c r="E226" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="227">
       <c r="E227" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="228">
       <c r="E228" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="229">
       <c r="E229" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="230">
       <c r="E230" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="231">
       <c r="E231" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="232">
       <c r="E232" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="233">
       <c r="E233" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="234">
       <c r="E234" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="235">
       <c r="E235" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="236">
       <c r="E236" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="237">
       <c r="E237" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="238">
       <c r="E238" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="239">
       <c r="E239" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="240">
       <c r="E240" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="241">
       <c r="E241" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="242">
       <c r="E242" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="243">
       <c r="E243" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="244">
       <c r="E244" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="245">
       <c r="E245" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="246">
       <c r="E246" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="247">
       <c r="E247" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="248">
       <c r="E248" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="249">
       <c r="E249" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="250">
       <c r="E250" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="251">
       <c r="E251" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="252">
       <c r="E252" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="253">
       <c r="E253" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="254">
       <c r="E254" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="255">
       <c r="E255" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="256">
       <c r="E256" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="257">
       <c r="E257" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="258">
       <c r="E258" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="259">
       <c r="E259" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="260">
       <c r="E260" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="261">
       <c r="E261" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="262">
       <c r="E262" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="263">
       <c r="E263" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="264">
       <c r="E264" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="265">
       <c r="E265" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="266">
       <c r="E266" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="267">
       <c r="E267" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="268">
       <c r="E268" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="269">
       <c r="E269" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="270">
       <c r="E270" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="271">
       <c r="E271" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="272">
       <c r="E272" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="273">
       <c r="E273" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="274">
       <c r="E274" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="275">
       <c r="E275" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="276">
       <c r="E276" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="277">
       <c r="E277" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="278">
       <c r="E278" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="279">
       <c r="E279" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="280">
       <c r="E280" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="281">
       <c r="E281" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="282">
       <c r="E282" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="283">
       <c r="E283" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="284">
       <c r="E284" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="285">
       <c r="E285" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="286">
       <c r="E286" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="287">
       <c r="E287" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="288">
       <c r="E288" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="289">
       <c r="E289" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="290">
       <c r="E290" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="291">
       <c r="E291" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="292">
       <c r="E292" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="293">
       <c r="E293" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="294">
       <c r="E294" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="295">
       <c r="E295" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="296">
       <c r="E296" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="297">
       <c r="E297" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="298">
       <c r="E298" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="299">
       <c r="E299" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="300">
       <c r="E300" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="301">
       <c r="E301" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="302">
       <c r="E302" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="303">
       <c r="E303" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="304">
       <c r="E304" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="305">
       <c r="E305" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="306">
       <c r="E306" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="307">
       <c r="E307" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="308">
       <c r="E308" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="309">
       <c r="E309" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="310">
       <c r="E310" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="311">
       <c r="E311" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="312">
       <c r="E312" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="313">
       <c r="E313" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="314">
       <c r="E314" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="315">
       <c r="E315" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="316">
       <c r="E316" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="317">
       <c r="E317" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="318">
       <c r="E318" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="319">
       <c r="E319" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="320">
       <c r="E320" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="321">
       <c r="E321" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="322">
       <c r="E322" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="323">
       <c r="E323" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="324">
       <c r="E324" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="325">
       <c r="E325" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="326">
       <c r="E326" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="327">
       <c r="E327" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="328">
       <c r="E328" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="329">
       <c r="E329" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="330">
       <c r="E330" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="331">
       <c r="E331" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="332">
       <c r="E332" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="333">
       <c r="E333" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="334">
       <c r="E334" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="335">
       <c r="E335" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="336">
       <c r="E336" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="337">
       <c r="E337" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="338">
       <c r="E338" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="339">
       <c r="E339" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="340">
       <c r="E340" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="341">
       <c r="E341" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="342">
       <c r="E342" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="343">
       <c r="E343" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="344">
       <c r="E344" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="345">
       <c r="E345" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="346">
       <c r="E346" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="347">
       <c r="E347" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="348">
       <c r="E348" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="349">
       <c r="E349" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="350">
       <c r="E350" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="351">
       <c r="E351" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="352">
       <c r="E352" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="353">
       <c r="E353" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="354">
       <c r="E354" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="355">
       <c r="E355" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="356">
       <c r="E356" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="357">
       <c r="E357" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="358">
       <c r="E358" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="359">
       <c r="E359" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="360">
       <c r="E360" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="361">
       <c r="E361" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="362">
       <c r="E362" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="363">
       <c r="E363" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="364">
       <c r="E364" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="365">
       <c r="E365" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="366">
       <c r="E366" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="367">
       <c r="E367" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="368">
       <c r="E368" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="369">
       <c r="E369" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="370">
       <c r="E370" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="371">
       <c r="E371" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="372">
       <c r="E372" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="373">
       <c r="E373" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="374">
       <c r="E374" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="375">
       <c r="E375" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="376">
       <c r="E376" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="377">
       <c r="E377" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="378">
       <c r="E378" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="379">
       <c r="E379" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="380">
       <c r="E380" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="381">
       <c r="E381" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="382">
       <c r="E382" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="383">
       <c r="E383" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="384">
       <c r="E384" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="385">
       <c r="E385" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="386">
       <c r="E386" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="387">
       <c r="E387" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="388">
       <c r="E388" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="389">
       <c r="E389" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="390">
       <c r="E390" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="391">
       <c r="E391" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="392">
       <c r="E392" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="393">
       <c r="E393" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="394">
       <c r="E394" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="395">
       <c r="E395" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="396">
       <c r="E396" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="397">
       <c r="E397" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="398">
       <c r="E398" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="399">
       <c r="E399" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="400">
       <c r="E400" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="401">
       <c r="E401" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="402">
       <c r="E402" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="403">
       <c r="E403" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="404">
       <c r="E404" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="405">
       <c r="E405" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="406">
       <c r="E406" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="407">
       <c r="E407" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="408">
       <c r="E408" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="409">
       <c r="E409" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="410">
       <c r="E410" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="411">
       <c r="E411" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="412">
       <c r="E412" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="413">
       <c r="E413" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="414">
       <c r="E414" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="415">
       <c r="E415" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="416">
       <c r="E416" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="417">
       <c r="E417" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="418">
       <c r="E418" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="419">
       <c r="E419" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="420">
       <c r="E420" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="421">
       <c r="E421" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="422">
       <c r="E422" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="423">
       <c r="E423" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="424">
       <c r="E424" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="425">
       <c r="E425" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="426">
       <c r="E426" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="427">
       <c r="E427" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="428">
       <c r="E428" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="429">
       <c r="E429" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="430">
       <c r="E430" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="431">
       <c r="E431" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="432">
       <c r="E432" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="433">
       <c r="E433" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="434">
       <c r="E434" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="435">
       <c r="E435" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="436">
       <c r="E436" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="437">
       <c r="E437" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="438">
       <c r="E438" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="439">
       <c r="E439" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="440">
       <c r="E440" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="441">
       <c r="E441" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="442">
       <c r="E442" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="443">
       <c r="E443" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="444">
       <c r="E444" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="445">
       <c r="E445" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="446">
       <c r="E446" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="447">
       <c r="E447" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="448">
       <c r="E448" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="449">
       <c r="E449" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="450">
       <c r="E450" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="451">
       <c r="E451" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="452">
       <c r="E452" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="453">
       <c r="E453" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="454">
       <c r="E454" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="455">
       <c r="E455" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="456">
       <c r="E456" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="457">
       <c r="E457" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="458">
       <c r="E458" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="459">
       <c r="E459" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="460">
       <c r="E460" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="461">
       <c r="E461" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="462">
       <c r="E462" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="463">
       <c r="E463" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="464">
       <c r="E464" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="465">
       <c r="E465" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="466">
       <c r="E466" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="467">
       <c r="E467" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="468">
       <c r="E468" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="469">
       <c r="E469" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="470">
       <c r="E470" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="471">
       <c r="E471" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="472">
       <c r="E472" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="473">
       <c r="E473" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="474">
       <c r="E474" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="475">
       <c r="E475" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="476">
       <c r="E476" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="477">
       <c r="E477" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="478">
       <c r="E478" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="479">
       <c r="E479" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="480">
       <c r="E480" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="481">
       <c r="E481" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="482">
       <c r="E482" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="483">
       <c r="E483" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="484">
       <c r="E484" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="485">
       <c r="E485" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="486">
       <c r="E486" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="487">
       <c r="E487" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="488">
       <c r="E488" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="489">
       <c r="E489" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="490">
       <c r="E490" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="491">
       <c r="E491" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="492">
       <c r="E492" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="493">
       <c r="E493" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="494">
       <c r="E494" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="495">
       <c r="E495" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="496">
       <c r="E496" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="497">
       <c r="E497" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="498">
       <c r="E498" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="499">
       <c r="E499" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="500">
       <c r="E500" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="501">
       <c r="E501" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="502">
       <c r="E502" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="503">
       <c r="E503" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="504">
       <c r="E504" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="505">
       <c r="E505" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="506">
       <c r="E506" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="507">
       <c r="E507" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="508">
       <c r="E508" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="509">
       <c r="E509" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="510">
       <c r="E510" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="511">
       <c r="E511" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="512">
       <c r="E512" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="513">
       <c r="E513" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="514">
       <c r="E514" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="515">
       <c r="E515" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="516">
       <c r="E516" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="517">
       <c r="E517" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="518">
       <c r="E518" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="519">
       <c r="E519" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="520">
       <c r="E520" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="521">
       <c r="E521" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="522">
       <c r="E522" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="523">
       <c r="E523" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="524">
       <c r="E524" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="525">
       <c r="E525" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="526">
       <c r="E526" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="527">
       <c r="E527" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="528">
       <c r="E528" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="529">
       <c r="E529" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="530">
       <c r="E530" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="531">
       <c r="E531" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="532">
       <c r="E532" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="533">
       <c r="E533" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="534">
       <c r="E534" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="535">
       <c r="E535" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="536">
       <c r="E536" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="537">
       <c r="E537" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="538">
       <c r="E538" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="539">
       <c r="E539" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="540">
       <c r="E540" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="541">
       <c r="E541" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="542">
       <c r="E542" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="543">
       <c r="E543" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="544">
       <c r="E544" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="545">
       <c r="E545" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="546">
       <c r="E546" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="547">
       <c r="E547" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="548">
       <c r="E548" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="549">
       <c r="E549" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="550">
       <c r="E550" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="551">
       <c r="E551" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="552">
       <c r="E552" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="553">
       <c r="E553" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="554">
       <c r="E554" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="555">
       <c r="E555" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="556">
       <c r="E556" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="557">
       <c r="E557" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="558">
       <c r="E558" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="559">
       <c r="E559" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="560">
       <c r="E560" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="561">
       <c r="E561" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="562">
       <c r="E562" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="563">
       <c r="E563" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="564">
       <c r="E564" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="565">
       <c r="E565" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="566">
       <c r="E566" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="567">
       <c r="E567" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="568">
       <c r="E568" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="569">
       <c r="E569" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="570">
       <c r="E570" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="571">
       <c r="E571" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="572">
       <c r="E572" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="573">
       <c r="E573" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="574">
       <c r="E574" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="575">
       <c r="E575" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="576">
       <c r="E576" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="577">
       <c r="E577" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="578">
       <c r="E578" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="579">
       <c r="E579" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="580">
       <c r="E580" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="581">
       <c r="E581" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="582">
       <c r="E582" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="583">
       <c r="E583" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="584">
       <c r="E584" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="585">
       <c r="E585" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="586">
       <c r="E586" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="587">
       <c r="E587" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="588">
       <c r="E588" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="589">
       <c r="E589" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="590">
       <c r="E590" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="591">
       <c r="E591" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="592">
       <c r="E592" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="593">
       <c r="E593" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="594">
       <c r="E594" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="595">
       <c r="E595" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="596">
       <c r="E596" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="597">
       <c r="E597" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="598">
       <c r="E598" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="599">
       <c r="E599" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="600">
       <c r="E600" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="601">
       <c r="E601" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="602">
       <c r="E602" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="603">
       <c r="E603" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="604">
       <c r="E604" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="605">
       <c r="E605" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="606">
       <c r="E606" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="607">
       <c r="E607" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="608">
       <c r="E608" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="609">
       <c r="E609" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="610">
       <c r="E610" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="611">
       <c r="E611" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="612">
       <c r="E612" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="613">
       <c r="E613" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="614">
       <c r="E614" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="615">
       <c r="E615" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="616">
       <c r="E616" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="617">
       <c r="E617" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="618">
       <c r="E618" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="619">
       <c r="E619" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="620">
       <c r="E620" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="621">
       <c r="E621" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="622">
       <c r="E622" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="623">
       <c r="E623" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="624">
       <c r="E624" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="625">
       <c r="E625" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="626">
       <c r="E626" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="627">
       <c r="E627" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="628">
       <c r="E628" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="629">
       <c r="E629" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="630">
       <c r="E630" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="631">
       <c r="E631" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="632">
       <c r="E632" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="633">
       <c r="E633" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="634">
       <c r="E634" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="635">
       <c r="E635" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="636">
       <c r="E636" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="637">
       <c r="E637" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="638">
       <c r="E638" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="639">
       <c r="E639" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="640">
       <c r="E640" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="641">
       <c r="E641" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="642">
       <c r="E642" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="643">
       <c r="E643" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="644">
       <c r="E644" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="645">
       <c r="E645" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="646">
       <c r="E646" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="647">
       <c r="E647" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="648">
       <c r="E648" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="649">
       <c r="E649" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="650">
       <c r="E650" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="651">
       <c r="E651" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="652">
       <c r="E652" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="653">
       <c r="E653" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="654">
       <c r="E654" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="655">
       <c r="E655" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="656">
       <c r="E656" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="657">
       <c r="E657" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="658">
       <c r="E658" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="659">
       <c r="E659" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="660">
       <c r="E660" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="661">
       <c r="E661" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="662">
       <c r="E662" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="663">
       <c r="E663" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="664">
       <c r="E664" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="665">
       <c r="E665" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="666">
       <c r="E666" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="667">
       <c r="E667" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="668">
       <c r="E668" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="669">
       <c r="E669" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="670">
       <c r="E670" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="671">
       <c r="E671" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="672">
       <c r="E672" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="673">
       <c r="E673" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="674">
       <c r="E674" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="675">
       <c r="E675" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="676">
       <c r="E676" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="677">
       <c r="E677" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="678">
       <c r="E678" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="679">
       <c r="E679" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="680">
       <c r="E680" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="681">
       <c r="E681" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="682">
       <c r="E682" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="683">
       <c r="E683" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="684">
       <c r="E684" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="685">
       <c r="E685" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="686">
       <c r="E686" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="687">
       <c r="E687" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="688">
       <c r="E688" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="689">
       <c r="E689" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="690">
       <c r="E690" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="691">
       <c r="E691" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="692">
       <c r="E692" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="693">
       <c r="E693" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="694">
       <c r="E694" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="695">
       <c r="E695" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="696">
       <c r="E696" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="697">
       <c r="E697" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="698">
       <c r="E698" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="699">
       <c r="E699" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="700">
       <c r="E700" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="701">
       <c r="E701" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="702">
       <c r="E702" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="703">
       <c r="E703" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="704">
       <c r="E704" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="705">
       <c r="E705" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="706">
       <c r="E706" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="707">
       <c r="E707" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="708">
       <c r="E708" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="709">
       <c r="E709" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="710">
       <c r="E710" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="711">
       <c r="E711" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="712">
       <c r="E712" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="713">
       <c r="E713" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="714">
       <c r="E714" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="715">
       <c r="E715" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="716">
       <c r="E716" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="717">
       <c r="E717" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="718">
       <c r="E718" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="719">
       <c r="E719" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="720">
       <c r="E720" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="721">
       <c r="E721" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="722">
       <c r="E722" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="723">
       <c r="E723" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="724">
       <c r="E724" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="725">
       <c r="E725" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="726">
       <c r="E726" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="727">
       <c r="E727" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="728">
       <c r="E728" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="729">
       <c r="E729" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="730">
       <c r="E730" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="731">
       <c r="E731" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="732">
       <c r="E732" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="733">
       <c r="E733" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="734">
       <c r="E734" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="735">
       <c r="E735" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="736">
       <c r="E736" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="737">
       <c r="E737" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="738">
       <c r="E738" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="739">
       <c r="E739" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="740">
       <c r="E740" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="741">
       <c r="E741" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="742">
       <c r="E742" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="743">
       <c r="E743" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="744">
       <c r="E744" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="745">
       <c r="E745" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="746">
       <c r="E746" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="747">
       <c r="E747" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="748">
       <c r="E748" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="749">
       <c r="E749" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="750">
       <c r="E750" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="751">
       <c r="E751" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="752">
       <c r="E752" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="753">
       <c r="E753" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="754">
       <c r="E754" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="755">
       <c r="E755" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="756">
       <c r="E756" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="757">
       <c r="E757" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="758">
       <c r="E758" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="759">
       <c r="E759" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="760">
       <c r="E760" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="761">
       <c r="E761" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="762">
       <c r="E762" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="763">
       <c r="E763" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="764">
       <c r="E764" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="765">
       <c r="E765" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="766">
       <c r="E766" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="767">
       <c r="E767" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="768">
       <c r="E768" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="769">
       <c r="E769" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="770">
       <c r="E770" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="771">
       <c r="E771" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="772">
       <c r="E772" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="773">
       <c r="E773" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="774">
       <c r="E774" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="775">
       <c r="E775" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="776">
       <c r="E776" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="777">
       <c r="E777" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="778">
       <c r="E778" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="779">
       <c r="E779" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="780">
       <c r="E780" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="781">
       <c r="E781" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="782">
       <c r="E782" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="783">
       <c r="E783" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="784">
       <c r="E784" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="785">
       <c r="E785" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="786">
       <c r="E786" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="787">
       <c r="E787" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="788">
       <c r="E788" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="789">
       <c r="E789" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="790">
       <c r="E790" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="791">
       <c r="E791" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="792">
       <c r="E792" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="793">
       <c r="E793" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="794">
       <c r="E794" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="795">
       <c r="E795" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="796">
       <c r="E796" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="797">
       <c r="E797" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="798">
       <c r="E798" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="799">
       <c r="E799" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="800">
       <c r="E800" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="801">
       <c r="E801" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="802">
       <c r="E802" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="803">
       <c r="E803" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="804">
       <c r="E804" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="805">
       <c r="E805" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="806">
       <c r="E806" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="807">
       <c r="E807" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="808">
       <c r="E808" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="809">
       <c r="E809" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="810">
       <c r="E810" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="811">
       <c r="E811" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="812">
       <c r="E812" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="813">
       <c r="E813" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="814">
       <c r="E814" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="815">
       <c r="E815" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="816">
       <c r="E816" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="817">
       <c r="E817" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="818">
       <c r="E818" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="819">
       <c r="E819" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="820">
       <c r="E820" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="821">
       <c r="E821" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="822">
       <c r="E822" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="823">
       <c r="E823" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="824">
       <c r="E824" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="825">
       <c r="E825" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="826">
       <c r="E826" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="827">
       <c r="E827" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="828">
       <c r="E828" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="829">
       <c r="E829" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="830">
       <c r="E830" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="831">
       <c r="E831" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="832">
       <c r="E832" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="833">
       <c r="E833" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="834">
       <c r="E834" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="835">
       <c r="E835" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="836">
       <c r="E836" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="837">
       <c r="E837" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="838">
       <c r="E838" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="839">
       <c r="E839" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="840">
       <c r="E840" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="841">
       <c r="E841" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="842">
       <c r="E842" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="843">
       <c r="E843" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="844">
       <c r="E844" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="845">
       <c r="E845" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="846">
       <c r="E846" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="847">
       <c r="E847" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="848">
       <c r="E848" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="849">
       <c r="E849" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="850">
       <c r="E850" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="851">
       <c r="E851" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="852">
       <c r="E852" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="853">
       <c r="E853" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="854">
       <c r="E854" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="855">
       <c r="E855" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="856">
       <c r="E856" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="857">
       <c r="E857" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="858">
       <c r="E858" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="859">
       <c r="E859" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="860">
       <c r="E860" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="861">
       <c r="E861" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="862">
       <c r="E862" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="863">
       <c r="E863" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="864">
       <c r="E864" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="865">
       <c r="E865" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="866">
       <c r="E866" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="867">
       <c r="E867" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="868">
       <c r="E868" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="869">
       <c r="E869" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="870">
       <c r="E870" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="871">
       <c r="E871" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="872">
       <c r="E872" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="873">
       <c r="E873" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="874">
       <c r="E874" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="875">
       <c r="E875" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="876">
       <c r="E876" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="877">
       <c r="E877" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="878">
       <c r="E878" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="879">
       <c r="E879" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="880">
       <c r="E880" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="881">
       <c r="E881" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="882">
       <c r="E882" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="883">
       <c r="E883" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="884">
       <c r="E884" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="885">
       <c r="E885" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="886">
       <c r="E886" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="887">
       <c r="E887" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="888">
       <c r="E888" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="889">
       <c r="E889" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="890">
       <c r="E890" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="891">
       <c r="E891" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="892">
       <c r="E892" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="893">
       <c r="E893" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="894">
       <c r="E894" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="895">
       <c r="E895" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="896">
       <c r="E896" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="897">
       <c r="E897" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="898">
       <c r="E898" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="899">
       <c r="E899" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="900">
       <c r="E900" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="901">
       <c r="E901" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="902">
       <c r="E902" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="903">
       <c r="E903" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="904">
       <c r="E904" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="905">
       <c r="E905" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="906">
       <c r="E906" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="907">
       <c r="E907" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="908">
       <c r="E908" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="909">
       <c r="E909" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="910">
       <c r="E910" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="911">
       <c r="E911" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="912">
       <c r="E912" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="913">
       <c r="E913" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="914">
       <c r="E914" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="915">
       <c r="E915" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="916">
       <c r="E916" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="917">
       <c r="E917" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="918">
       <c r="E918" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="919">
       <c r="E919" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="920">
       <c r="E920" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="921">
       <c r="E921" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="922">
       <c r="E922" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="923">
       <c r="E923" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="924">
       <c r="E924" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="925">
       <c r="E925" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="926">
       <c r="E926" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="927">
       <c r="E927" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="928">
       <c r="E928" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="929">
       <c r="E929" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="930">
       <c r="E930" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="931">
       <c r="E931" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="932">
       <c r="E932" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="933">
       <c r="E933" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="934">
       <c r="E934" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="935">
       <c r="E935" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="936">
       <c r="E936" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="937">
       <c r="E937" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="938">
       <c r="E938" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="939">
       <c r="E939" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="940">
       <c r="E940" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="941">
       <c r="E941" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="942">
       <c r="E942" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="943">
       <c r="E943" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="944">
       <c r="E944" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="945">
       <c r="E945" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="946">
       <c r="E946" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="947">
       <c r="E947" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="948">
       <c r="E948" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="949">
       <c r="E949" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="950">
       <c r="E950" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="951">
       <c r="E951" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="952">
       <c r="E952" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="953">
       <c r="E953" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="954">
       <c r="E954" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="955">
       <c r="E955" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="956">
       <c r="E956" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="957">
       <c r="E957" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="958">
       <c r="E958" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="959">
       <c r="E959" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="960">
       <c r="E960" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="961">
       <c r="E961" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="962">
       <c r="E962" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="963">
       <c r="E963" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="964">
       <c r="E964" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="965">
       <c r="E965" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="966">
       <c r="E966" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="967">
       <c r="E967" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="968">
       <c r="E968" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="969">
       <c r="E969" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="970">
       <c r="E970" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="971">
       <c r="E971" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="972">
       <c r="E972" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="973">
       <c r="E973" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="974">
       <c r="E974" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="975">
       <c r="E975" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="976">
       <c r="E976" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="977">
       <c r="E977" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="978">
       <c r="E978" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="979">
       <c r="E979" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="980">
       <c r="E980" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="981">
       <c r="E981" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="982">
       <c r="E982" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="983">
       <c r="E983" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="984">
       <c r="E984" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="985">
       <c r="E985" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="986">
       <c r="E986" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="987">
       <c r="E987" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="988">
       <c r="E988" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="989">
       <c r="E989" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="990">
       <c r="E990" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="991">
       <c r="E991" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="992">
       <c r="E992" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="993">
       <c r="E993" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="994">
       <c r="E994" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="995">
       <c r="E995" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="996">
       <c r="E996" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="997">
       <c r="E997" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="998">
       <c r="E998" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="999">
       <c r="E999" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1000">
       <c r="E1000" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="100">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -197,6 +197,48 @@
     <t xml:space="preserve">Carol Acuña </t>
   </si>
   <si>
+    <t>Alondra</t>
+  </si>
+  <si>
+    <t>Paños</t>
+  </si>
+  <si>
+    <t>Ki</t>
+  </si>
+  <si>
+    <t>annie</t>
+  </si>
+  <si>
+    <t>karina</t>
+  </si>
+  <si>
+    <t>Bruna</t>
+  </si>
+  <si>
+    <t>Marissa Garcia</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Irene</t>
+  </si>
+  <si>
+    <t>Scarlett</t>
+  </si>
+  <si>
+    <t>Nicki</t>
+  </si>
+  <si>
+    <t>Jana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carol </t>
+  </si>
+  <si>
+    <t>Itzel</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -212,25 +254,10 @@
     <t>Kim</t>
   </si>
   <si>
-    <t>Jana</t>
-  </si>
-  <si>
-    <t>Irene</t>
-  </si>
-  <si>
     <t>Karina</t>
   </si>
   <si>
-    <t>Itzel</t>
-  </si>
-  <si>
-    <t>Paños</t>
-  </si>
-  <si>
     <t>Sandra</t>
-  </si>
-  <si>
-    <t>Nicki</t>
   </si>
   <si>
     <t>Annie</t>
@@ -242,9 +269,6 @@
     <t>Mon</t>
   </si>
   <si>
-    <t>Scarlett</t>
-  </si>
-  <si>
     <t>Alexa Soto</t>
   </si>
   <si>
@@ -252,15 +276,6 @@
   </si>
   <si>
     <t>Kiana</t>
-  </si>
-  <si>
-    <t>Ki</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>Bruna</t>
   </si>
   <si>
     <t>Okeke Chidinma</t>
@@ -294,9 +309,6 @@
   </si>
   <si>
     <t>Aylin Avilez</t>
-  </si>
-  <si>
-    <t>Alondra</t>
   </si>
   <si>
     <t>Jordan</t>
@@ -467,10 +479,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -478,13 +490,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -492,13 +504,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -650,7 +662,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G560" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G587" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -11459,308 +11471,632 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="16"/>
-      <c r="B461" s="17"/>
-      <c r="C461" s="18"/>
-      <c r="D461" s="18" t="s">
+      <c r="A461" s="8">
+        <v>45906.48569811342</v>
+      </c>
+      <c r="B461" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C461" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D461" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E461" s="18"/>
-      <c r="F461" s="18"/>
-      <c r="G461" s="19"/>
+      <c r="E461" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F461" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G461" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="462">
-      <c r="A462" s="4"/>
-      <c r="B462" s="5"/>
-      <c r="C462" s="6"/>
-      <c r="D462" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E462" s="6"/>
-      <c r="F462" s="6"/>
-      <c r="G462" s="7"/>
+      <c r="A462" s="12">
+        <v>45906.49965324074</v>
+      </c>
+      <c r="B462" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C462" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D462" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E462" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F462" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G462" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="463">
-      <c r="A463" s="16"/>
-      <c r="B463" s="17"/>
-      <c r="C463" s="18"/>
-      <c r="D463" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E463" s="18"/>
-      <c r="F463" s="18"/>
-      <c r="G463" s="19"/>
+      <c r="A463" s="8">
+        <v>45906.50025430556</v>
+      </c>
+      <c r="B463" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C463" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D463" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E463" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F463" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G463" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="464">
-      <c r="A464" s="4"/>
-      <c r="B464" s="5"/>
-      <c r="C464" s="6"/>
-      <c r="D464" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E464" s="6"/>
-      <c r="F464" s="6"/>
-      <c r="G464" s="7"/>
+      <c r="A464" s="12">
+        <v>45906.505480381944</v>
+      </c>
+      <c r="B464" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C464" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D464" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E464" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F464" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G464" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="465">
-      <c r="A465" s="16"/>
-      <c r="B465" s="17"/>
-      <c r="C465" s="18"/>
-      <c r="D465" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E465" s="18"/>
-      <c r="F465" s="18"/>
-      <c r="G465" s="19"/>
+      <c r="A465" s="8">
+        <v>45906.50549309028</v>
+      </c>
+      <c r="B465" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C465" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D465" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E465" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F465" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G465" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="466">
-      <c r="A466" s="4"/>
-      <c r="B466" s="5"/>
-      <c r="C466" s="6"/>
-      <c r="D466" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E466" s="6"/>
-      <c r="F466" s="6"/>
-      <c r="G466" s="7"/>
+      <c r="A466" s="12">
+        <v>45906.508834050925</v>
+      </c>
+      <c r="B466" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C466" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D466" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E466" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F466" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G466" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="467">
-      <c r="A467" s="16"/>
-      <c r="B467" s="17"/>
-      <c r="C467" s="18"/>
-      <c r="D467" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E467" s="18"/>
-      <c r="F467" s="18"/>
-      <c r="G467" s="19"/>
+      <c r="A467" s="8">
+        <v>45906.52029890046</v>
+      </c>
+      <c r="B467" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C467" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D467" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E467" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F467" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G467" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="468">
-      <c r="A468" s="4"/>
-      <c r="B468" s="5"/>
-      <c r="C468" s="6"/>
-      <c r="D468" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E468" s="6"/>
-      <c r="F468" s="6"/>
-      <c r="G468" s="7"/>
+      <c r="A468" s="12">
+        <v>45906.5350072338</v>
+      </c>
+      <c r="B468" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C468" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D468" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E468" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F468" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G468" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="469">
-      <c r="A469" s="16"/>
-      <c r="B469" s="17"/>
-      <c r="C469" s="18"/>
-      <c r="D469" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E469" s="18"/>
-      <c r="F469" s="18"/>
-      <c r="G469" s="19"/>
+      <c r="A469" s="8">
+        <v>45906.5430838426</v>
+      </c>
+      <c r="B469" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C469" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D469" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E469" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F469" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G469" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="470">
-      <c r="A470" s="4"/>
-      <c r="B470" s="5"/>
-      <c r="C470" s="6"/>
-      <c r="D470" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E470" s="6"/>
-      <c r="F470" s="6"/>
-      <c r="G470" s="7"/>
+      <c r="A470" s="12">
+        <v>45906.54346671296</v>
+      </c>
+      <c r="B470" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C470" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D470" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E470" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F470" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G470" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="471">
-      <c r="A471" s="16"/>
-      <c r="B471" s="17"/>
-      <c r="C471" s="18"/>
-      <c r="D471" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E471" s="18"/>
-      <c r="F471" s="18"/>
-      <c r="G471" s="19"/>
+      <c r="A471" s="8">
+        <v>45906.54483417824</v>
+      </c>
+      <c r="B471" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C471" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D471" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E471" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F471" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G471" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="472">
-      <c r="A472" s="4"/>
-      <c r="B472" s="5"/>
-      <c r="C472" s="6"/>
-      <c r="D472" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E472" s="6"/>
-      <c r="F472" s="6"/>
-      <c r="G472" s="7"/>
+      <c r="A472" s="12">
+        <v>45906.54489310185</v>
+      </c>
+      <c r="B472" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C472" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D472" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E472" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F472" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G472" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="473">
-      <c r="A473" s="16"/>
-      <c r="B473" s="17"/>
-      <c r="C473" s="18"/>
-      <c r="D473" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E473" s="18"/>
-      <c r="F473" s="18"/>
-      <c r="G473" s="19"/>
+      <c r="A473" s="8">
+        <v>45906.54673209491</v>
+      </c>
+      <c r="B473" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C473" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D473" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E473" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F473" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G473" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="474">
-      <c r="A474" s="4"/>
-      <c r="B474" s="5"/>
-      <c r="C474" s="6"/>
-      <c r="D474" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E474" s="6"/>
-      <c r="F474" s="6"/>
-      <c r="G474" s="7"/>
+      <c r="A474" s="12">
+        <v>45906.55054292824</v>
+      </c>
+      <c r="B474" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C474" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D474" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E474" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F474" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G474" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="475">
-      <c r="A475" s="16"/>
-      <c r="B475" s="17"/>
-      <c r="C475" s="18"/>
-      <c r="D475" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E475" s="18"/>
-      <c r="F475" s="18"/>
-      <c r="G475" s="19"/>
+      <c r="A475" s="8">
+        <v>45906.587619247686</v>
+      </c>
+      <c r="B475" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C475" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D475" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E475" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F475" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G475" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="476">
-      <c r="A476" s="4"/>
-      <c r="B476" s="5"/>
-      <c r="C476" s="6"/>
-      <c r="D476" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E476" s="6"/>
-      <c r="F476" s="6"/>
-      <c r="G476" s="7"/>
+      <c r="A476" s="12">
+        <v>45906.729216493055</v>
+      </c>
+      <c r="B476" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C476" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D476" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E476" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F476" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G476" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="477">
-      <c r="A477" s="16"/>
-      <c r="B477" s="17"/>
-      <c r="C477" s="18"/>
-      <c r="D477" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E477" s="18"/>
-      <c r="F477" s="18"/>
-      <c r="G477" s="19"/>
+      <c r="A477" s="8">
+        <v>45907.60135493056</v>
+      </c>
+      <c r="B477" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C477" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D477" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E477" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F477" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G477" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="478">
-      <c r="A478" s="4"/>
-      <c r="B478" s="5"/>
-      <c r="C478" s="6"/>
-      <c r="D478" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E478" s="6"/>
-      <c r="F478" s="6"/>
-      <c r="G478" s="7"/>
+      <c r="A478" s="12">
+        <v>45907.60386018519</v>
+      </c>
+      <c r="B478" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C478" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D478" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E478" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F478" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G478" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="479">
-      <c r="A479" s="16"/>
-      <c r="B479" s="17"/>
-      <c r="C479" s="18"/>
-      <c r="D479" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E479" s="18"/>
-      <c r="F479" s="18"/>
-      <c r="G479" s="19"/>
+      <c r="A479" s="8">
+        <v>45907.62391741898</v>
+      </c>
+      <c r="B479" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C479" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D479" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E479" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F479" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G479" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="480">
-      <c r="A480" s="4"/>
-      <c r="B480" s="5"/>
-      <c r="C480" s="6"/>
-      <c r="D480" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E480" s="6"/>
-      <c r="F480" s="6"/>
-      <c r="G480" s="7"/>
+      <c r="A480" s="12">
+        <v>45907.62658390046</v>
+      </c>
+      <c r="B480" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C480" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D480" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E480" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F480" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G480" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="481">
-      <c r="A481" s="16"/>
-      <c r="B481" s="17"/>
-      <c r="C481" s="18"/>
-      <c r="D481" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E481" s="18"/>
-      <c r="F481" s="18"/>
-      <c r="G481" s="19"/>
+      <c r="A481" s="8">
+        <v>45907.62676850695</v>
+      </c>
+      <c r="B481" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C481" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D481" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E481" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F481" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G481" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="482">
-      <c r="A482" s="4"/>
-      <c r="B482" s="5"/>
-      <c r="C482" s="6"/>
-      <c r="D482" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E482" s="6"/>
-      <c r="F482" s="6"/>
-      <c r="G482" s="7"/>
+      <c r="A482" s="12">
+        <v>45907.62748900463</v>
+      </c>
+      <c r="B482" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C482" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D482" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E482" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F482" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G482" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="483">
-      <c r="A483" s="16"/>
-      <c r="B483" s="17"/>
-      <c r="C483" s="18"/>
-      <c r="D483" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E483" s="18"/>
-      <c r="F483" s="18"/>
-      <c r="G483" s="19"/>
+      <c r="A483" s="8">
+        <v>45907.629629710646</v>
+      </c>
+      <c r="B483" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C483" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D483" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E483" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F483" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G483" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="484">
-      <c r="A484" s="4"/>
-      <c r="B484" s="5"/>
-      <c r="C484" s="6"/>
-      <c r="D484" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E484" s="6"/>
-      <c r="F484" s="6"/>
-      <c r="G484" s="7"/>
+      <c r="A484" s="12">
+        <v>45907.654195243056</v>
+      </c>
+      <c r="B484" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C484" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D484" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E484" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F484" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G484" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="485">
-      <c r="A485" s="16"/>
-      <c r="B485" s="17"/>
-      <c r="C485" s="18"/>
-      <c r="D485" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E485" s="18"/>
-      <c r="F485" s="18"/>
-      <c r="G485" s="19"/>
+      <c r="A485" s="8">
+        <v>45907.65492671296</v>
+      </c>
+      <c r="B485" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C485" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D485" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E485" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F485" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G485" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="486">
-      <c r="A486" s="4"/>
-      <c r="B486" s="5"/>
-      <c r="C486" s="6"/>
-      <c r="D486" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E486" s="6"/>
-      <c r="F486" s="6"/>
-      <c r="G486" s="7"/>
+      <c r="A486" s="12">
+        <v>45907.655176354165</v>
+      </c>
+      <c r="B486" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C486" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D486" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E486" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F486" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G486" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="487">
-      <c r="A487" s="16"/>
-      <c r="B487" s="17"/>
-      <c r="C487" s="18"/>
-      <c r="D487" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E487" s="18"/>
-      <c r="F487" s="18"/>
-      <c r="G487" s="19"/>
+      <c r="A487" s="8">
+        <v>45907.82524244213</v>
+      </c>
+      <c r="B487" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C487" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D487" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E487" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F487" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G487" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="4"/>
       <c r="B488" s="5"/>
       <c r="C488" s="6"/>
       <c r="D488" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E488" s="6"/>
       <c r="F488" s="6"/>
@@ -11771,7 +12107,7 @@
       <c r="B489" s="17"/>
       <c r="C489" s="18"/>
       <c r="D489" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E489" s="18"/>
       <c r="F489" s="18"/>
@@ -11782,7 +12118,7 @@
       <c r="B490" s="5"/>
       <c r="C490" s="6"/>
       <c r="D490" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E490" s="6"/>
       <c r="F490" s="6"/>
@@ -11793,7 +12129,7 @@
       <c r="B491" s="17"/>
       <c r="C491" s="18"/>
       <c r="D491" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E491" s="18"/>
       <c r="F491" s="18"/>
@@ -11804,7 +12140,7 @@
       <c r="B492" s="5"/>
       <c r="C492" s="6"/>
       <c r="D492" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E492" s="6"/>
       <c r="F492" s="6"/>
@@ -11815,7 +12151,7 @@
       <c r="B493" s="17"/>
       <c r="C493" s="18"/>
       <c r="D493" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E493" s="18"/>
       <c r="F493" s="18"/>
@@ -11826,7 +12162,7 @@
       <c r="B494" s="5"/>
       <c r="C494" s="6"/>
       <c r="D494" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E494" s="6"/>
       <c r="F494" s="6"/>
@@ -11837,7 +12173,7 @@
       <c r="B495" s="17"/>
       <c r="C495" s="18"/>
       <c r="D495" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E495" s="18"/>
       <c r="F495" s="18"/>
@@ -11848,7 +12184,7 @@
       <c r="B496" s="5"/>
       <c r="C496" s="6"/>
       <c r="D496" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E496" s="6"/>
       <c r="F496" s="6"/>
@@ -11859,7 +12195,7 @@
       <c r="B497" s="17"/>
       <c r="C497" s="18"/>
       <c r="D497" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E497" s="18"/>
       <c r="F497" s="18"/>
@@ -11870,7 +12206,7 @@
       <c r="B498" s="5"/>
       <c r="C498" s="6"/>
       <c r="D498" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E498" s="6"/>
       <c r="F498" s="6"/>
@@ -11881,7 +12217,7 @@
       <c r="B499" s="17"/>
       <c r="C499" s="18"/>
       <c r="D499" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E499" s="18"/>
       <c r="F499" s="18"/>
@@ -11892,7 +12228,7 @@
       <c r="B500" s="5"/>
       <c r="C500" s="6"/>
       <c r="D500" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E500" s="6"/>
       <c r="F500" s="6"/>
@@ -11903,7 +12239,7 @@
       <c r="B501" s="17"/>
       <c r="C501" s="18"/>
       <c r="D501" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E501" s="18"/>
       <c r="F501" s="18"/>
@@ -11914,7 +12250,7 @@
       <c r="B502" s="5"/>
       <c r="C502" s="6"/>
       <c r="D502" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E502" s="6"/>
       <c r="F502" s="6"/>
@@ -11925,7 +12261,7 @@
       <c r="B503" s="17"/>
       <c r="C503" s="18"/>
       <c r="D503" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E503" s="18"/>
       <c r="F503" s="18"/>
@@ -11936,7 +12272,7 @@
       <c r="B504" s="5"/>
       <c r="C504" s="6"/>
       <c r="D504" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E504" s="6"/>
       <c r="F504" s="6"/>
@@ -11947,7 +12283,7 @@
       <c r="B505" s="17"/>
       <c r="C505" s="18"/>
       <c r="D505" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E505" s="18"/>
       <c r="F505" s="18"/>
@@ -11958,7 +12294,7 @@
       <c r="B506" s="5"/>
       <c r="C506" s="6"/>
       <c r="D506" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E506" s="6"/>
       <c r="F506" s="6"/>
@@ -11969,7 +12305,7 @@
       <c r="B507" s="17"/>
       <c r="C507" s="18"/>
       <c r="D507" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E507" s="18"/>
       <c r="F507" s="18"/>
@@ -11980,7 +12316,7 @@
       <c r="B508" s="5"/>
       <c r="C508" s="6"/>
       <c r="D508" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E508" s="6"/>
       <c r="F508" s="6"/>
@@ -11991,7 +12327,7 @@
       <c r="B509" s="17"/>
       <c r="C509" s="18"/>
       <c r="D509" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E509" s="18"/>
       <c r="F509" s="18"/>
@@ -12002,7 +12338,7 @@
       <c r="B510" s="5"/>
       <c r="C510" s="6"/>
       <c r="D510" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E510" s="6"/>
       <c r="F510" s="6"/>
@@ -12013,7 +12349,7 @@
       <c r="B511" s="17"/>
       <c r="C511" s="18"/>
       <c r="D511" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E511" s="18"/>
       <c r="F511" s="18"/>
@@ -12024,7 +12360,7 @@
       <c r="B512" s="5"/>
       <c r="C512" s="6"/>
       <c r="D512" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E512" s="6"/>
       <c r="F512" s="6"/>
@@ -12035,7 +12371,7 @@
       <c r="B513" s="17"/>
       <c r="C513" s="18"/>
       <c r="D513" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E513" s="18"/>
       <c r="F513" s="18"/>
@@ -12046,7 +12382,7 @@
       <c r="B514" s="5"/>
       <c r="C514" s="6"/>
       <c r="D514" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E514" s="6"/>
       <c r="F514" s="6"/>
@@ -12057,7 +12393,7 @@
       <c r="B515" s="17"/>
       <c r="C515" s="18"/>
       <c r="D515" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E515" s="18"/>
       <c r="F515" s="18"/>
@@ -12068,7 +12404,7 @@
       <c r="B516" s="5"/>
       <c r="C516" s="6"/>
       <c r="D516" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E516" s="6"/>
       <c r="F516" s="6"/>
@@ -12079,7 +12415,7 @@
       <c r="B517" s="17"/>
       <c r="C517" s="18"/>
       <c r="D517" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E517" s="18"/>
       <c r="F517" s="18"/>
@@ -12090,7 +12426,7 @@
       <c r="B518" s="5"/>
       <c r="C518" s="6"/>
       <c r="D518" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E518" s="6"/>
       <c r="F518" s="6"/>
@@ -12101,7 +12437,7 @@
       <c r="B519" s="17"/>
       <c r="C519" s="18"/>
       <c r="D519" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E519" s="18"/>
       <c r="F519" s="18"/>
@@ -12112,7 +12448,7 @@
       <c r="B520" s="5"/>
       <c r="C520" s="6"/>
       <c r="D520" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E520" s="6"/>
       <c r="F520" s="6"/>
@@ -12123,7 +12459,7 @@
       <c r="B521" s="17"/>
       <c r="C521" s="18"/>
       <c r="D521" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E521" s="18"/>
       <c r="F521" s="18"/>
@@ -12134,7 +12470,7 @@
       <c r="B522" s="5"/>
       <c r="C522" s="6"/>
       <c r="D522" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E522" s="6"/>
       <c r="F522" s="6"/>
@@ -12145,7 +12481,7 @@
       <c r="B523" s="17"/>
       <c r="C523" s="18"/>
       <c r="D523" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E523" s="18"/>
       <c r="F523" s="18"/>
@@ -12156,7 +12492,7 @@
       <c r="B524" s="5"/>
       <c r="C524" s="6"/>
       <c r="D524" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E524" s="6"/>
       <c r="F524" s="6"/>
@@ -12167,7 +12503,7 @@
       <c r="B525" s="17"/>
       <c r="C525" s="18"/>
       <c r="D525" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E525" s="18"/>
       <c r="F525" s="18"/>
@@ -12178,7 +12514,7 @@
       <c r="B526" s="5"/>
       <c r="C526" s="6"/>
       <c r="D526" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E526" s="6"/>
       <c r="F526" s="6"/>
@@ -12189,7 +12525,7 @@
       <c r="B527" s="17"/>
       <c r="C527" s="18"/>
       <c r="D527" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E527" s="18"/>
       <c r="F527" s="18"/>
@@ -12200,7 +12536,7 @@
       <c r="B528" s="5"/>
       <c r="C528" s="6"/>
       <c r="D528" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E528" s="6"/>
       <c r="F528" s="6"/>
@@ -12211,7 +12547,7 @@
       <c r="B529" s="17"/>
       <c r="C529" s="18"/>
       <c r="D529" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E529" s="18"/>
       <c r="F529" s="18"/>
@@ -12222,7 +12558,7 @@
       <c r="B530" s="5"/>
       <c r="C530" s="6"/>
       <c r="D530" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E530" s="6"/>
       <c r="F530" s="6"/>
@@ -12233,7 +12569,7 @@
       <c r="B531" s="17"/>
       <c r="C531" s="18"/>
       <c r="D531" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E531" s="18"/>
       <c r="F531" s="18"/>
@@ -12244,7 +12580,7 @@
       <c r="B532" s="5"/>
       <c r="C532" s="6"/>
       <c r="D532" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E532" s="6"/>
       <c r="F532" s="6"/>
@@ -12255,7 +12591,7 @@
       <c r="B533" s="17"/>
       <c r="C533" s="18"/>
       <c r="D533" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E533" s="18"/>
       <c r="F533" s="18"/>
@@ -12266,7 +12602,7 @@
       <c r="B534" s="5"/>
       <c r="C534" s="6"/>
       <c r="D534" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E534" s="6"/>
       <c r="F534" s="6"/>
@@ -12277,7 +12613,7 @@
       <c r="B535" s="17"/>
       <c r="C535" s="18"/>
       <c r="D535" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E535" s="18"/>
       <c r="F535" s="18"/>
@@ -12288,7 +12624,7 @@
       <c r="B536" s="5"/>
       <c r="C536" s="6"/>
       <c r="D536" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E536" s="6"/>
       <c r="F536" s="6"/>
@@ -12299,7 +12635,7 @@
       <c r="B537" s="17"/>
       <c r="C537" s="18"/>
       <c r="D537" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E537" s="18"/>
       <c r="F537" s="18"/>
@@ -12310,7 +12646,7 @@
       <c r="B538" s="5"/>
       <c r="C538" s="6"/>
       <c r="D538" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E538" s="6"/>
       <c r="F538" s="6"/>
@@ -12321,7 +12657,7 @@
       <c r="B539" s="17"/>
       <c r="C539" s="18"/>
       <c r="D539" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E539" s="18"/>
       <c r="F539" s="18"/>
@@ -12332,7 +12668,7 @@
       <c r="B540" s="5"/>
       <c r="C540" s="6"/>
       <c r="D540" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E540" s="6"/>
       <c r="F540" s="6"/>
@@ -12343,7 +12679,7 @@
       <c r="B541" s="17"/>
       <c r="C541" s="18"/>
       <c r="D541" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E541" s="18"/>
       <c r="F541" s="18"/>
@@ -12354,7 +12690,7 @@
       <c r="B542" s="5"/>
       <c r="C542" s="6"/>
       <c r="D542" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E542" s="6"/>
       <c r="F542" s="6"/>
@@ -12365,7 +12701,7 @@
       <c r="B543" s="17"/>
       <c r="C543" s="18"/>
       <c r="D543" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E543" s="18"/>
       <c r="F543" s="18"/>
@@ -12376,7 +12712,7 @@
       <c r="B544" s="5"/>
       <c r="C544" s="6"/>
       <c r="D544" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E544" s="6"/>
       <c r="F544" s="6"/>
@@ -12387,7 +12723,7 @@
       <c r="B545" s="17"/>
       <c r="C545" s="18"/>
       <c r="D545" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E545" s="18"/>
       <c r="F545" s="18"/>
@@ -12398,7 +12734,7 @@
       <c r="B546" s="5"/>
       <c r="C546" s="6"/>
       <c r="D546" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E546" s="6"/>
       <c r="F546" s="6"/>
@@ -12409,7 +12745,7 @@
       <c r="B547" s="17"/>
       <c r="C547" s="18"/>
       <c r="D547" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E547" s="18"/>
       <c r="F547" s="18"/>
@@ -12420,7 +12756,7 @@
       <c r="B548" s="5"/>
       <c r="C548" s="6"/>
       <c r="D548" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E548" s="6"/>
       <c r="F548" s="6"/>
@@ -12431,7 +12767,7 @@
       <c r="B549" s="17"/>
       <c r="C549" s="18"/>
       <c r="D549" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E549" s="18"/>
       <c r="F549" s="18"/>
@@ -12442,7 +12778,7 @@
       <c r="B550" s="5"/>
       <c r="C550" s="6"/>
       <c r="D550" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E550" s="6"/>
       <c r="F550" s="6"/>
@@ -12453,7 +12789,7 @@
       <c r="B551" s="17"/>
       <c r="C551" s="18"/>
       <c r="D551" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E551" s="18"/>
       <c r="F551" s="18"/>
@@ -12464,7 +12800,7 @@
       <c r="B552" s="5"/>
       <c r="C552" s="6"/>
       <c r="D552" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E552" s="6"/>
       <c r="F552" s="6"/>
@@ -12475,7 +12811,7 @@
       <c r="B553" s="17"/>
       <c r="C553" s="18"/>
       <c r="D553" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E553" s="18"/>
       <c r="F553" s="18"/>
@@ -12486,7 +12822,7 @@
       <c r="B554" s="5"/>
       <c r="C554" s="6"/>
       <c r="D554" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E554" s="6"/>
       <c r="F554" s="6"/>
@@ -12497,7 +12833,7 @@
       <c r="B555" s="17"/>
       <c r="C555" s="18"/>
       <c r="D555" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E555" s="18"/>
       <c r="F555" s="18"/>
@@ -12508,7 +12844,7 @@
       <c r="B556" s="5"/>
       <c r="C556" s="6"/>
       <c r="D556" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E556" s="6"/>
       <c r="F556" s="6"/>
@@ -12519,7 +12855,7 @@
       <c r="B557" s="17"/>
       <c r="C557" s="18"/>
       <c r="D557" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E557" s="18"/>
       <c r="F557" s="18"/>
@@ -12530,7 +12866,7 @@
       <c r="B558" s="5"/>
       <c r="C558" s="6"/>
       <c r="D558" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E558" s="6"/>
       <c r="F558" s="6"/>
@@ -12541,22 +12877,319 @@
       <c r="B559" s="17"/>
       <c r="C559" s="18"/>
       <c r="D559" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E559" s="18"/>
       <c r="F559" s="18"/>
       <c r="G559" s="19"/>
     </row>
     <row r="560">
-      <c r="A560" s="20"/>
-      <c r="B560" s="21"/>
-      <c r="C560" s="22"/>
-      <c r="D560" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E560" s="22"/>
-      <c r="F560" s="22"/>
-      <c r="G560" s="23"/>
+      <c r="A560" s="4"/>
+      <c r="B560" s="5"/>
+      <c r="C560" s="6"/>
+      <c r="D560" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E560" s="6"/>
+      <c r="F560" s="6"/>
+      <c r="G560" s="7"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="16"/>
+      <c r="B561" s="17"/>
+      <c r="C561" s="18"/>
+      <c r="D561" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E561" s="18"/>
+      <c r="F561" s="18"/>
+      <c r="G561" s="19"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="4"/>
+      <c r="B562" s="5"/>
+      <c r="C562" s="6"/>
+      <c r="D562" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E562" s="6"/>
+      <c r="F562" s="6"/>
+      <c r="G562" s="7"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="16"/>
+      <c r="B563" s="17"/>
+      <c r="C563" s="18"/>
+      <c r="D563" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E563" s="18"/>
+      <c r="F563" s="18"/>
+      <c r="G563" s="19"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="4"/>
+      <c r="B564" s="5"/>
+      <c r="C564" s="6"/>
+      <c r="D564" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E564" s="6"/>
+      <c r="F564" s="6"/>
+      <c r="G564" s="7"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="16"/>
+      <c r="B565" s="17"/>
+      <c r="C565" s="18"/>
+      <c r="D565" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E565" s="18"/>
+      <c r="F565" s="18"/>
+      <c r="G565" s="19"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="4"/>
+      <c r="B566" s="5"/>
+      <c r="C566" s="6"/>
+      <c r="D566" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E566" s="6"/>
+      <c r="F566" s="6"/>
+      <c r="G566" s="7"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="16"/>
+      <c r="B567" s="17"/>
+      <c r="C567" s="18"/>
+      <c r="D567" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E567" s="18"/>
+      <c r="F567" s="18"/>
+      <c r="G567" s="19"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="4"/>
+      <c r="B568" s="5"/>
+      <c r="C568" s="6"/>
+      <c r="D568" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E568" s="6"/>
+      <c r="F568" s="6"/>
+      <c r="G568" s="7"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="16"/>
+      <c r="B569" s="17"/>
+      <c r="C569" s="18"/>
+      <c r="D569" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E569" s="18"/>
+      <c r="F569" s="18"/>
+      <c r="G569" s="19"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="4"/>
+      <c r="B570" s="5"/>
+      <c r="C570" s="6"/>
+      <c r="D570" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E570" s="6"/>
+      <c r="F570" s="6"/>
+      <c r="G570" s="7"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="16"/>
+      <c r="B571" s="17"/>
+      <c r="C571" s="18"/>
+      <c r="D571" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E571" s="18"/>
+      <c r="F571" s="18"/>
+      <c r="G571" s="19"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="4"/>
+      <c r="B572" s="5"/>
+      <c r="C572" s="6"/>
+      <c r="D572" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E572" s="6"/>
+      <c r="F572" s="6"/>
+      <c r="G572" s="7"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="16"/>
+      <c r="B573" s="17"/>
+      <c r="C573" s="18"/>
+      <c r="D573" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E573" s="18"/>
+      <c r="F573" s="18"/>
+      <c r="G573" s="19"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="4"/>
+      <c r="B574" s="5"/>
+      <c r="C574" s="6"/>
+      <c r="D574" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E574" s="6"/>
+      <c r="F574" s="6"/>
+      <c r="G574" s="7"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="16"/>
+      <c r="B575" s="17"/>
+      <c r="C575" s="18"/>
+      <c r="D575" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E575" s="18"/>
+      <c r="F575" s="18"/>
+      <c r="G575" s="19"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="4"/>
+      <c r="B576" s="5"/>
+      <c r="C576" s="6"/>
+      <c r="D576" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E576" s="6"/>
+      <c r="F576" s="6"/>
+      <c r="G576" s="7"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="16"/>
+      <c r="B577" s="17"/>
+      <c r="C577" s="18"/>
+      <c r="D577" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E577" s="18"/>
+      <c r="F577" s="18"/>
+      <c r="G577" s="19"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="4"/>
+      <c r="B578" s="5"/>
+      <c r="C578" s="6"/>
+      <c r="D578" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E578" s="6"/>
+      <c r="F578" s="6"/>
+      <c r="G578" s="7"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="16"/>
+      <c r="B579" s="17"/>
+      <c r="C579" s="18"/>
+      <c r="D579" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E579" s="18"/>
+      <c r="F579" s="18"/>
+      <c r="G579" s="19"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="4"/>
+      <c r="B580" s="5"/>
+      <c r="C580" s="6"/>
+      <c r="D580" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E580" s="6"/>
+      <c r="F580" s="6"/>
+      <c r="G580" s="7"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="16"/>
+      <c r="B581" s="17"/>
+      <c r="C581" s="18"/>
+      <c r="D581" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E581" s="18"/>
+      <c r="F581" s="18"/>
+      <c r="G581" s="19"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="4"/>
+      <c r="B582" s="5"/>
+      <c r="C582" s="6"/>
+      <c r="D582" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E582" s="6"/>
+      <c r="F582" s="6"/>
+      <c r="G582" s="7"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="16"/>
+      <c r="B583" s="17"/>
+      <c r="C583" s="18"/>
+      <c r="D583" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E583" s="18"/>
+      <c r="F583" s="18"/>
+      <c r="G583" s="19"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="4"/>
+      <c r="B584" s="5"/>
+      <c r="C584" s="6"/>
+      <c r="D584" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E584" s="6"/>
+      <c r="F584" s="6"/>
+      <c r="G584" s="7"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="16"/>
+      <c r="B585" s="17"/>
+      <c r="C585" s="18"/>
+      <c r="D585" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E585" s="18"/>
+      <c r="F585" s="18"/>
+      <c r="G585" s="19"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="4"/>
+      <c r="B586" s="5"/>
+      <c r="C586" s="6"/>
+      <c r="D586" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E586" s="6"/>
+      <c r="F586" s="6"/>
+      <c r="G586" s="7"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="20"/>
+      <c r="B587" s="21"/>
+      <c r="C587" s="22"/>
+      <c r="D587" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E587" s="22"/>
+      <c r="F587" s="22"/>
+      <c r="G587" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -12578,7 +13211,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>27</v>
@@ -12592,7 +13225,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E2" s="26" t="str">
         <f t="array" ref="E2:E1000">IF(D2:D1000="","", 
@@ -12611,90 +13244,90 @@
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="24" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="24" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -12705,18 +13338,18 @@
         <v>15</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -12727,183 +13360,183 @@
         <v>26</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="24" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="24" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="24" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="24" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="24" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="24" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -12914,4875 +13547,4875 @@
         <v>56</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="24" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="24" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>56</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="25" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108">
       <c r="E108" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109">
       <c r="E109" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112">
       <c r="E112" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113">
       <c r="E113" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114">
       <c r="E114" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118">
       <c r="E118" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119">
       <c r="E119" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="120">
       <c r="E120" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121">
       <c r="E121" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123">
       <c r="E123" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124">
       <c r="E124" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125">
       <c r="E125" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126">
       <c r="E126" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127">
       <c r="E127" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128">
       <c r="E128" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="129">
       <c r="E129" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130">
       <c r="E130" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131">
       <c r="E131" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132">
       <c r="E132" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133">
       <c r="E133" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="134">
       <c r="E134" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="135">
       <c r="E135" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="136">
       <c r="E136" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137">
       <c r="E137" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138">
       <c r="E138" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139">
       <c r="E139" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="140">
       <c r="E140" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141">
       <c r="E141" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142">
       <c r="E142" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="143">
       <c r="E143" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144">
       <c r="E144" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145">
       <c r="E145" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146">
       <c r="E146" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="147">
       <c r="E147" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148">
       <c r="E148" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="149">
       <c r="E149" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150">
       <c r="E150" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="151">
       <c r="E151" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="152">
       <c r="E152" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="153">
       <c r="E153" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="154">
       <c r="E154" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="155">
       <c r="E155" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="156">
       <c r="E156" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="157">
       <c r="E157" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="158">
       <c r="E158" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="159">
       <c r="E159" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="160">
       <c r="E160" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="161">
       <c r="E161" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="162">
       <c r="E162" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="163">
       <c r="E163" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="164">
       <c r="E164" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="165">
       <c r="E165" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166">
       <c r="E166" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167">
       <c r="E167" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="168">
       <c r="E168" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="169">
       <c r="E169" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="170">
       <c r="E170" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171">
       <c r="E171" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="172">
       <c r="E172" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="173">
       <c r="E173" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="174">
       <c r="E174" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="175">
       <c r="E175" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="176">
       <c r="E176" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="177">
       <c r="E177" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="178">
       <c r="E178" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="179">
       <c r="E179" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="180">
       <c r="E180" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="181">
       <c r="E181" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="182">
       <c r="E182" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="183">
       <c r="E183" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="184">
       <c r="E184" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="185">
       <c r="E185" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="186">
       <c r="E186" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="187">
       <c r="E187" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="188">
       <c r="E188" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="189">
       <c r="E189" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="190">
       <c r="E190" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="191">
       <c r="E191" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="192">
       <c r="E192" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="193">
       <c r="E193" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="194">
       <c r="E194" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="195">
       <c r="E195" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="196">
       <c r="E196" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="197">
       <c r="E197" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="198">
       <c r="E198" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="199">
       <c r="E199" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="200">
       <c r="E200" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="201">
       <c r="E201" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="202">
       <c r="E202" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="203">
       <c r="E203" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="204">
       <c r="E204" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="205">
       <c r="E205" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="206">
       <c r="E206" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="207">
       <c r="E207" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="208">
       <c r="E208" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="209">
       <c r="E209" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="210">
       <c r="E210" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="211">
       <c r="E211" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="212">
       <c r="E212" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="213">
       <c r="E213" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="214">
       <c r="E214" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="215">
       <c r="E215" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="216">
       <c r="E216" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="217">
       <c r="E217" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="218">
       <c r="E218" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="219">
       <c r="E219" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="220">
       <c r="E220" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="221">
       <c r="E221" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="222">
       <c r="E222" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="223">
       <c r="E223" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="224">
       <c r="E224" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="225">
       <c r="E225" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226">
       <c r="E226" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="227">
       <c r="E227" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="228">
       <c r="E228" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="229">
       <c r="E229" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="230">
       <c r="E230" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="231">
       <c r="E231" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="232">
       <c r="E232" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="233">
       <c r="E233" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234">
       <c r="E234" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235">
       <c r="E235" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236">
       <c r="E236" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="237">
       <c r="E237" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="238">
       <c r="E238" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="239">
       <c r="E239" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="240">
       <c r="E240" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="241">
       <c r="E241" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="242">
       <c r="E242" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="243">
       <c r="E243" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244">
       <c r="E244" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="245">
       <c r="E245" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="246">
       <c r="E246" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="247">
       <c r="E247" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="248">
       <c r="E248" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="249">
       <c r="E249" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="250">
       <c r="E250" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="251">
       <c r="E251" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="252">
       <c r="E252" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="253">
       <c r="E253" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="254">
       <c r="E254" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="255">
       <c r="E255" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="256">
       <c r="E256" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="257">
       <c r="E257" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="258">
       <c r="E258" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="259">
       <c r="E259" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="260">
       <c r="E260" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="261">
       <c r="E261" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="262">
       <c r="E262" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="263">
       <c r="E263" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="264">
       <c r="E264" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="265">
       <c r="E265" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="266">
       <c r="E266" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="267">
       <c r="E267" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="268">
       <c r="E268" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="269">
       <c r="E269" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="270">
       <c r="E270" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="271">
       <c r="E271" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="272">
       <c r="E272" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="273">
       <c r="E273" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="274">
       <c r="E274" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="275">
       <c r="E275" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="276">
       <c r="E276" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="277">
       <c r="E277" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="278">
       <c r="E278" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="279">
       <c r="E279" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="280">
       <c r="E280" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="281">
       <c r="E281" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="282">
       <c r="E282" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="283">
       <c r="E283" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="284">
       <c r="E284" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="285">
       <c r="E285" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="286">
       <c r="E286" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="287">
       <c r="E287" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="288">
       <c r="E288" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="289">
       <c r="E289" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="290">
       <c r="E290" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="291">
       <c r="E291" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="292">
       <c r="E292" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="293">
       <c r="E293" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="294">
       <c r="E294" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="295">
       <c r="E295" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="296">
       <c r="E296" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="297">
       <c r="E297" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="298">
       <c r="E298" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="299">
       <c r="E299" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="300">
       <c r="E300" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="301">
       <c r="E301" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="302">
       <c r="E302" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="303">
       <c r="E303" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="304">
       <c r="E304" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="305">
       <c r="E305" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="306">
       <c r="E306" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="307">
       <c r="E307" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="308">
       <c r="E308" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="309">
       <c r="E309" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="310">
       <c r="E310" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="311">
       <c r="E311" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="312">
       <c r="E312" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="313">
       <c r="E313" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="314">
       <c r="E314" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="315">
       <c r="E315" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="316">
       <c r="E316" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="317">
       <c r="E317" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="318">
       <c r="E318" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="319">
       <c r="E319" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="320">
       <c r="E320" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="321">
       <c r="E321" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="322">
       <c r="E322" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="323">
       <c r="E323" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="324">
       <c r="E324" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="325">
       <c r="E325" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="326">
       <c r="E326" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="327">
       <c r="E327" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="328">
       <c r="E328" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="329">
       <c r="E329" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="330">
       <c r="E330" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="331">
       <c r="E331" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="332">
       <c r="E332" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="333">
       <c r="E333" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="334">
       <c r="E334" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="335">
       <c r="E335" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="336">
       <c r="E336" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="337">
       <c r="E337" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="338">
       <c r="E338" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="339">
       <c r="E339" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="340">
       <c r="E340" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="341">
       <c r="E341" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="342">
       <c r="E342" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="343">
       <c r="E343" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="344">
       <c r="E344" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="345">
       <c r="E345" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="346">
       <c r="E346" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="347">
       <c r="E347" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="348">
       <c r="E348" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="349">
       <c r="E349" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="350">
       <c r="E350" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="351">
       <c r="E351" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="352">
       <c r="E352" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="353">
       <c r="E353" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="354">
       <c r="E354" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="355">
       <c r="E355" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="356">
       <c r="E356" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="357">
       <c r="E357" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="358">
       <c r="E358" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="359">
       <c r="E359" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="360">
       <c r="E360" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="361">
       <c r="E361" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="362">
       <c r="E362" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="363">
       <c r="E363" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="364">
       <c r="E364" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="365">
       <c r="E365" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="366">
       <c r="E366" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="367">
       <c r="E367" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="368">
       <c r="E368" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="369">
       <c r="E369" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="370">
       <c r="E370" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="371">
       <c r="E371" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="372">
       <c r="E372" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="373">
       <c r="E373" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="374">
       <c r="E374" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="375">
       <c r="E375" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="376">
       <c r="E376" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="377">
       <c r="E377" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="378">
       <c r="E378" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="379">
       <c r="E379" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="380">
       <c r="E380" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="381">
       <c r="E381" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="382">
       <c r="E382" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="383">
       <c r="E383" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="384">
       <c r="E384" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="385">
       <c r="E385" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="386">
       <c r="E386" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="387">
       <c r="E387" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="388">
       <c r="E388" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="389">
       <c r="E389" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="390">
       <c r="E390" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="391">
       <c r="E391" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="392">
       <c r="E392" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="393">
       <c r="E393" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="394">
       <c r="E394" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="395">
       <c r="E395" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="396">
       <c r="E396" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="397">
       <c r="E397" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="398">
       <c r="E398" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="399">
       <c r="E399" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="400">
       <c r="E400" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="401">
       <c r="E401" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="402">
       <c r="E402" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="403">
       <c r="E403" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="404">
       <c r="E404" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="405">
       <c r="E405" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="406">
       <c r="E406" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="407">
       <c r="E407" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="408">
       <c r="E408" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="409">
       <c r="E409" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="410">
       <c r="E410" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="411">
       <c r="E411" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="412">
       <c r="E412" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="413">
       <c r="E413" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="414">
       <c r="E414" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="415">
       <c r="E415" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="416">
       <c r="E416" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="417">
       <c r="E417" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="418">
       <c r="E418" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="419">
       <c r="E419" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="420">
       <c r="E420" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="421">
       <c r="E421" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="422">
       <c r="E422" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="423">
       <c r="E423" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="424">
       <c r="E424" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="425">
       <c r="E425" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="426">
       <c r="E426" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="427">
       <c r="E427" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="428">
       <c r="E428" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="429">
       <c r="E429" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="430">
       <c r="E430" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="431">
       <c r="E431" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="432">
       <c r="E432" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="433">
       <c r="E433" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="434">
       <c r="E434" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="435">
       <c r="E435" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="436">
       <c r="E436" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="437">
       <c r="E437" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="438">
       <c r="E438" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="439">
       <c r="E439" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="440">
       <c r="E440" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="441">
       <c r="E441" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="442">
       <c r="E442" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="443">
       <c r="E443" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="444">
       <c r="E444" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="445">
       <c r="E445" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="446">
       <c r="E446" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="447">
       <c r="E447" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="448">
       <c r="E448" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="449">
       <c r="E449" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="450">
       <c r="E450" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="451">
       <c r="E451" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="452">
       <c r="E452" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="453">
       <c r="E453" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="454">
       <c r="E454" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="455">
       <c r="E455" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="456">
       <c r="E456" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="457">
       <c r="E457" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="458">
       <c r="E458" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="459">
       <c r="E459" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="460">
       <c r="E460" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="461">
       <c r="E461" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="462">
       <c r="E462" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="463">
       <c r="E463" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="464">
       <c r="E464" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="465">
       <c r="E465" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="466">
       <c r="E466" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="467">
       <c r="E467" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="468">
       <c r="E468" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="469">
       <c r="E469" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="470">
       <c r="E470" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="471">
       <c r="E471" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="472">
       <c r="E472" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="473">
       <c r="E473" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="474">
       <c r="E474" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="475">
       <c r="E475" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="476">
       <c r="E476" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="477">
       <c r="E477" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="478">
       <c r="E478" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="479">
       <c r="E479" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="480">
       <c r="E480" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="481">
       <c r="E481" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="482">
       <c r="E482" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="483">
       <c r="E483" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="484">
       <c r="E484" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="485">
       <c r="E485" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="486">
       <c r="E486" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="487">
       <c r="E487" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="488">
       <c r="E488" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="489">
       <c r="E489" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="490">
       <c r="E490" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="491">
       <c r="E491" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="492">
       <c r="E492" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="493">
       <c r="E493" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="494">
       <c r="E494" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="495">
       <c r="E495" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="496">
       <c r="E496" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="497">
       <c r="E497" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="498">
       <c r="E498" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="499">
       <c r="E499" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="500">
       <c r="E500" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="501">
       <c r="E501" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="502">
       <c r="E502" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="503">
       <c r="E503" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="504">
       <c r="E504" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="505">
       <c r="E505" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="506">
       <c r="E506" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="507">
       <c r="E507" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="508">
       <c r="E508" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="509">
       <c r="E509" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="510">
       <c r="E510" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="511">
       <c r="E511" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="512">
       <c r="E512" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="513">
       <c r="E513" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="514">
       <c r="E514" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="515">
       <c r="E515" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="516">
       <c r="E516" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="517">
       <c r="E517" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="518">
       <c r="E518" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="519">
       <c r="E519" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="520">
       <c r="E520" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="521">
       <c r="E521" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="522">
       <c r="E522" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="523">
       <c r="E523" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="524">
       <c r="E524" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="525">
       <c r="E525" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="526">
       <c r="E526" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="527">
       <c r="E527" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="528">
       <c r="E528" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="529">
       <c r="E529" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="530">
       <c r="E530" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="531">
       <c r="E531" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="532">
       <c r="E532" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="533">
       <c r="E533" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="534">
       <c r="E534" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="535">
       <c r="E535" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="536">
       <c r="E536" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="537">
       <c r="E537" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="538">
       <c r="E538" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="539">
       <c r="E539" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="540">
       <c r="E540" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="541">
       <c r="E541" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="542">
       <c r="E542" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="543">
       <c r="E543" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="544">
       <c r="E544" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="545">
       <c r="E545" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="546">
       <c r="E546" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="547">
       <c r="E547" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="548">
       <c r="E548" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="549">
       <c r="E549" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="550">
       <c r="E550" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="551">
       <c r="E551" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="552">
       <c r="E552" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="553">
       <c r="E553" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="554">
       <c r="E554" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="555">
       <c r="E555" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="556">
       <c r="E556" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="557">
       <c r="E557" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="558">
       <c r="E558" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="559">
       <c r="E559" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="560">
       <c r="E560" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="561">
       <c r="E561" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="562">
       <c r="E562" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="563">
       <c r="E563" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="564">
       <c r="E564" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="565">
       <c r="E565" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="566">
       <c r="E566" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="567">
       <c r="E567" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="568">
       <c r="E568" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="569">
       <c r="E569" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="570">
       <c r="E570" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="571">
       <c r="E571" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="572">
       <c r="E572" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="573">
       <c r="E573" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="574">
       <c r="E574" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="575">
       <c r="E575" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="576">
       <c r="E576" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="577">
       <c r="E577" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="578">
       <c r="E578" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="579">
       <c r="E579" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="580">
       <c r="E580" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="581">
       <c r="E581" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="582">
       <c r="E582" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="583">
       <c r="E583" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="584">
       <c r="E584" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="585">
       <c r="E585" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="586">
       <c r="E586" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="587">
       <c r="E587" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="588">
       <c r="E588" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="589">
       <c r="E589" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="590">
       <c r="E590" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="591">
       <c r="E591" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="592">
       <c r="E592" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="593">
       <c r="E593" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="594">
       <c r="E594" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="595">
       <c r="E595" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="596">
       <c r="E596" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="597">
       <c r="E597" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="598">
       <c r="E598" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="599">
       <c r="E599" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="600">
       <c r="E600" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="601">
       <c r="E601" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="602">
       <c r="E602" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="603">
       <c r="E603" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="604">
       <c r="E604" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="605">
       <c r="E605" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="606">
       <c r="E606" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="607">
       <c r="E607" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="608">
       <c r="E608" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="609">
       <c r="E609" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="610">
       <c r="E610" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="611">
       <c r="E611" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="612">
       <c r="E612" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="613">
       <c r="E613" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="614">
       <c r="E614" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="615">
       <c r="E615" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="616">
       <c r="E616" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="617">
       <c r="E617" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="618">
       <c r="E618" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="619">
       <c r="E619" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="620">
       <c r="E620" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="621">
       <c r="E621" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="622">
       <c r="E622" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="623">
       <c r="E623" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="624">
       <c r="E624" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="625">
       <c r="E625" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="626">
       <c r="E626" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="627">
       <c r="E627" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="628">
       <c r="E628" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="629">
       <c r="E629" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="630">
       <c r="E630" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="631">
       <c r="E631" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="632">
       <c r="E632" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="633">
       <c r="E633" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="634">
       <c r="E634" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="635">
       <c r="E635" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="636">
       <c r="E636" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="637">
       <c r="E637" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="638">
       <c r="E638" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="639">
       <c r="E639" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="640">
       <c r="E640" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="641">
       <c r="E641" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="642">
       <c r="E642" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="643">
       <c r="E643" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="644">
       <c r="E644" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="645">
       <c r="E645" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="646">
       <c r="E646" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="647">
       <c r="E647" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="648">
       <c r="E648" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="649">
       <c r="E649" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="650">
       <c r="E650" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="651">
       <c r="E651" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="652">
       <c r="E652" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="653">
       <c r="E653" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="654">
       <c r="E654" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="655">
       <c r="E655" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="656">
       <c r="E656" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="657">
       <c r="E657" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="658">
       <c r="E658" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="659">
       <c r="E659" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="660">
       <c r="E660" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="661">
       <c r="E661" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="662">
       <c r="E662" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="663">
       <c r="E663" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="664">
       <c r="E664" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="665">
       <c r="E665" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="666">
       <c r="E666" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="667">
       <c r="E667" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="668">
       <c r="E668" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="669">
       <c r="E669" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="670">
       <c r="E670" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="671">
       <c r="E671" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="672">
       <c r="E672" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="673">
       <c r="E673" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="674">
       <c r="E674" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="675">
       <c r="E675" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="676">
       <c r="E676" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="677">
       <c r="E677" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="678">
       <c r="E678" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="679">
       <c r="E679" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="680">
       <c r="E680" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="681">
       <c r="E681" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="682">
       <c r="E682" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="683">
       <c r="E683" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="684">
       <c r="E684" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="685">
       <c r="E685" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="686">
       <c r="E686" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="687">
       <c r="E687" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="688">
       <c r="E688" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="689">
       <c r="E689" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="690">
       <c r="E690" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="691">
       <c r="E691" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="692">
       <c r="E692" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="693">
       <c r="E693" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="694">
       <c r="E694" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="695">
       <c r="E695" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="696">
       <c r="E696" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="697">
       <c r="E697" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="698">
       <c r="E698" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="699">
       <c r="E699" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="700">
       <c r="E700" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="701">
       <c r="E701" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="702">
       <c r="E702" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="703">
       <c r="E703" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="704">
       <c r="E704" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="705">
       <c r="E705" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="706">
       <c r="E706" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="707">
       <c r="E707" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="708">
       <c r="E708" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="709">
       <c r="E709" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="710">
       <c r="E710" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="711">
       <c r="E711" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="712">
       <c r="E712" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="713">
       <c r="E713" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="714">
       <c r="E714" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="715">
       <c r="E715" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="716">
       <c r="E716" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="717">
       <c r="E717" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="718">
       <c r="E718" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="719">
       <c r="E719" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="720">
       <c r="E720" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="721">
       <c r="E721" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="722">
       <c r="E722" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="723">
       <c r="E723" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="724">
       <c r="E724" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="725">
       <c r="E725" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="726">
       <c r="E726" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="727">
       <c r="E727" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="728">
       <c r="E728" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="729">
       <c r="E729" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="730">
       <c r="E730" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="731">
       <c r="E731" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="732">
       <c r="E732" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="733">
       <c r="E733" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="734">
       <c r="E734" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="735">
       <c r="E735" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="736">
       <c r="E736" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="737">
       <c r="E737" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="738">
       <c r="E738" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="739">
       <c r="E739" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="740">
       <c r="E740" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="741">
       <c r="E741" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="742">
       <c r="E742" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="743">
       <c r="E743" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="744">
       <c r="E744" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="745">
       <c r="E745" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="746">
       <c r="E746" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="747">
       <c r="E747" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="748">
       <c r="E748" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="749">
       <c r="E749" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="750">
       <c r="E750" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="751">
       <c r="E751" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="752">
       <c r="E752" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="753">
       <c r="E753" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="754">
       <c r="E754" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="755">
       <c r="E755" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="756">
       <c r="E756" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="757">
       <c r="E757" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="758">
       <c r="E758" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="759">
       <c r="E759" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="760">
       <c r="E760" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="761">
       <c r="E761" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="762">
       <c r="E762" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="763">
       <c r="E763" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="764">
       <c r="E764" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="765">
       <c r="E765" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="766">
       <c r="E766" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="767">
       <c r="E767" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="768">
       <c r="E768" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="769">
       <c r="E769" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="770">
       <c r="E770" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="771">
       <c r="E771" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="772">
       <c r="E772" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="773">
       <c r="E773" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="774">
       <c r="E774" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="775">
       <c r="E775" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="776">
       <c r="E776" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="777">
       <c r="E777" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="778">
       <c r="E778" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="779">
       <c r="E779" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="780">
       <c r="E780" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="781">
       <c r="E781" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="782">
       <c r="E782" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="783">
       <c r="E783" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="784">
       <c r="E784" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="785">
       <c r="E785" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="786">
       <c r="E786" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="787">
       <c r="E787" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="788">
       <c r="E788" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="789">
       <c r="E789" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="790">
       <c r="E790" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="791">
       <c r="E791" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="792">
       <c r="E792" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="793">
       <c r="E793" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="794">
       <c r="E794" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="795">
       <c r="E795" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="796">
       <c r="E796" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="797">
       <c r="E797" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="798">
       <c r="E798" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="799">
       <c r="E799" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="800">
       <c r="E800" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="801">
       <c r="E801" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="802">
       <c r="E802" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="803">
       <c r="E803" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="804">
       <c r="E804" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="805">
       <c r="E805" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="806">
       <c r="E806" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="807">
       <c r="E807" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="808">
       <c r="E808" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="809">
       <c r="E809" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="810">
       <c r="E810" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="811">
       <c r="E811" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="812">
       <c r="E812" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="813">
       <c r="E813" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="814">
       <c r="E814" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="815">
       <c r="E815" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="816">
       <c r="E816" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="817">
       <c r="E817" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="818">
       <c r="E818" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="819">
       <c r="E819" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="820">
       <c r="E820" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="821">
       <c r="E821" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="822">
       <c r="E822" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="823">
       <c r="E823" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="824">
       <c r="E824" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="825">
       <c r="E825" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="826">
       <c r="E826" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="827">
       <c r="E827" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="828">
       <c r="E828" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="829">
       <c r="E829" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="830">
       <c r="E830" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="831">
       <c r="E831" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="832">
       <c r="E832" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="833">
       <c r="E833" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="834">
       <c r="E834" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="835">
       <c r="E835" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="836">
       <c r="E836" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="837">
       <c r="E837" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="838">
       <c r="E838" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="839">
       <c r="E839" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="840">
       <c r="E840" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="841">
       <c r="E841" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="842">
       <c r="E842" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="843">
       <c r="E843" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="844">
       <c r="E844" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="845">
       <c r="E845" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="846">
       <c r="E846" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="847">
       <c r="E847" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="848">
       <c r="E848" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="849">
       <c r="E849" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="850">
       <c r="E850" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="851">
       <c r="E851" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="852">
       <c r="E852" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="853">
       <c r="E853" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="854">
       <c r="E854" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="855">
       <c r="E855" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="856">
       <c r="E856" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="857">
       <c r="E857" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="858">
       <c r="E858" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="859">
       <c r="E859" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="860">
       <c r="E860" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="861">
       <c r="E861" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="862">
       <c r="E862" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="863">
       <c r="E863" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="864">
       <c r="E864" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="865">
       <c r="E865" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="866">
       <c r="E866" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="867">
       <c r="E867" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="868">
       <c r="E868" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="869">
       <c r="E869" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="870">
       <c r="E870" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="871">
       <c r="E871" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="872">
       <c r="E872" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="873">
       <c r="E873" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="874">
       <c r="E874" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="875">
       <c r="E875" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="876">
       <c r="E876" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="877">
       <c r="E877" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="878">
       <c r="E878" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="879">
       <c r="E879" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="880">
       <c r="E880" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="881">
       <c r="E881" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="882">
       <c r="E882" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="883">
       <c r="E883" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="884">
       <c r="E884" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="885">
       <c r="E885" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="886">
       <c r="E886" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="887">
       <c r="E887" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="888">
       <c r="E888" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="889">
       <c r="E889" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="890">
       <c r="E890" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="891">
       <c r="E891" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="892">
       <c r="E892" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="893">
       <c r="E893" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="894">
       <c r="E894" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="895">
       <c r="E895" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="896">
       <c r="E896" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="897">
       <c r="E897" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="898">
       <c r="E898" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="899">
       <c r="E899" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="900">
       <c r="E900" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="901">
       <c r="E901" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="902">
       <c r="E902" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="903">
       <c r="E903" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="904">
       <c r="E904" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="905">
       <c r="E905" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="906">
       <c r="E906" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="907">
       <c r="E907" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="908">
       <c r="E908" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="909">
       <c r="E909" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="910">
       <c r="E910" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="911">
       <c r="E911" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="912">
       <c r="E912" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="913">
       <c r="E913" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="914">
       <c r="E914" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="915">
       <c r="E915" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="916">
       <c r="E916" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="917">
       <c r="E917" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="918">
       <c r="E918" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="919">
       <c r="E919" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="920">
       <c r="E920" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="921">
       <c r="E921" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="922">
       <c r="E922" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="923">
       <c r="E923" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="924">
       <c r="E924" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="925">
       <c r="E925" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="926">
       <c r="E926" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="927">
       <c r="E927" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="928">
       <c r="E928" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="929">
       <c r="E929" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="930">
       <c r="E930" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="931">
       <c r="E931" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="932">
       <c r="E932" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="933">
       <c r="E933" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="934">
       <c r="E934" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="935">
       <c r="E935" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="936">
       <c r="E936" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="937">
       <c r="E937" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="938">
       <c r="E938" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="939">
       <c r="E939" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="940">
       <c r="E940" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="941">
       <c r="E941" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="942">
       <c r="E942" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="943">
       <c r="E943" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="944">
       <c r="E944" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="945">
       <c r="E945" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="946">
       <c r="E946" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="947">
       <c r="E947" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="948">
       <c r="E948" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="949">
       <c r="E949" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="950">
       <c r="E950" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="951">
       <c r="E951" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="952">
       <c r="E952" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="953">
       <c r="E953" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="954">
       <c r="E954" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="955">
       <c r="E955" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="956">
       <c r="E956" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="957">
       <c r="E957" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="958">
       <c r="E958" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="959">
       <c r="E959" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="960">
       <c r="E960" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="961">
       <c r="E961" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="962">
       <c r="E962" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="963">
       <c r="E963" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="964">
       <c r="E964" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="965">
       <c r="E965" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="966">
       <c r="E966" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="967">
       <c r="E967" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="968">
       <c r="E968" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="969">
       <c r="E969" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="970">
       <c r="E970" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="971">
       <c r="E971" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="972">
       <c r="E972" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="973">
       <c r="E973" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="974">
       <c r="E974" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="975">
       <c r="E975" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="976">
       <c r="E976" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="977">
       <c r="E977" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="978">
       <c r="E978" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="979">
       <c r="E979" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="980">
       <c r="E980" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="981">
       <c r="E981" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="982">
       <c r="E982" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="983">
       <c r="E983" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="984">
       <c r="E984" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="985">
       <c r="E985" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="986">
       <c r="E986" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="987">
       <c r="E987" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="988">
       <c r="E988" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="989">
       <c r="E989" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="990">
       <c r="E990" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="991">
       <c r="E991" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="992">
       <c r="E992" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="993">
       <c r="E993" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="994">
       <c r="E994" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="995">
       <c r="E995" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="996">
       <c r="E996" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="997">
       <c r="E997" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="998">
       <c r="E998" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="999">
       <c r="E999" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1000">
       <c r="E1000" s="26" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="100">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -479,10 +479,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -490,13 +490,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -504,13 +504,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -662,7 +662,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G587" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G606" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -12092,213 +12092,441 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="4"/>
-      <c r="B488" s="5"/>
-      <c r="C488" s="6"/>
-      <c r="D488" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E488" s="6"/>
-      <c r="F488" s="6"/>
-      <c r="G488" s="7"/>
+      <c r="A488" s="12">
+        <v>45910.57323637731</v>
+      </c>
+      <c r="B488" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C488" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D488" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E488" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F488" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G488" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="489">
-      <c r="A489" s="16"/>
-      <c r="B489" s="17"/>
-      <c r="C489" s="18"/>
-      <c r="D489" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E489" s="18"/>
-      <c r="F489" s="18"/>
-      <c r="G489" s="19"/>
+      <c r="A489" s="8">
+        <v>45910.57614821759</v>
+      </c>
+      <c r="B489" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C489" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D489" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E489" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F489" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G489" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="490">
-      <c r="A490" s="4"/>
-      <c r="B490" s="5"/>
-      <c r="C490" s="6"/>
-      <c r="D490" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E490" s="6"/>
-      <c r="F490" s="6"/>
-      <c r="G490" s="7"/>
+      <c r="A490" s="12">
+        <v>45910.579944004625</v>
+      </c>
+      <c r="B490" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C490" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D490" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E490" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F490" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G490" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="491">
-      <c r="A491" s="16"/>
-      <c r="B491" s="17"/>
-      <c r="C491" s="18"/>
-      <c r="D491" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E491" s="18"/>
-      <c r="F491" s="18"/>
-      <c r="G491" s="19"/>
+      <c r="A491" s="8">
+        <v>45910.5832874537</v>
+      </c>
+      <c r="B491" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C491" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D491" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E491" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F491" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G491" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="492">
-      <c r="A492" s="4"/>
-      <c r="B492" s="5"/>
-      <c r="C492" s="6"/>
-      <c r="D492" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E492" s="6"/>
-      <c r="F492" s="6"/>
-      <c r="G492" s="7"/>
+      <c r="A492" s="12">
+        <v>45910.58723038195</v>
+      </c>
+      <c r="B492" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C492" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D492" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E492" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F492" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G492" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="493">
-      <c r="A493" s="16"/>
-      <c r="B493" s="17"/>
-      <c r="C493" s="18"/>
-      <c r="D493" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E493" s="18"/>
-      <c r="F493" s="18"/>
-      <c r="G493" s="19"/>
+      <c r="A493" s="8">
+        <v>45910.62457140046</v>
+      </c>
+      <c r="B493" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C493" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D493" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E493" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F493" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G493" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="494">
-      <c r="A494" s="4"/>
-      <c r="B494" s="5"/>
-      <c r="C494" s="6"/>
-      <c r="D494" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E494" s="6"/>
-      <c r="F494" s="6"/>
-      <c r="G494" s="7"/>
+      <c r="A494" s="12">
+        <v>45910.62891006944</v>
+      </c>
+      <c r="B494" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C494" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D494" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E494" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F494" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G494" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="495">
-      <c r="A495" s="16"/>
-      <c r="B495" s="17"/>
-      <c r="C495" s="18"/>
-      <c r="D495" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E495" s="18"/>
-      <c r="F495" s="18"/>
-      <c r="G495" s="19"/>
+      <c r="A495" s="8">
+        <v>45910.63076325231</v>
+      </c>
+      <c r="B495" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C495" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D495" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E495" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F495" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G495" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="496">
-      <c r="A496" s="4"/>
-      <c r="B496" s="5"/>
-      <c r="C496" s="6"/>
-      <c r="D496" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E496" s="6"/>
-      <c r="F496" s="6"/>
-      <c r="G496" s="7"/>
+      <c r="A496" s="12">
+        <v>45910.63119001157</v>
+      </c>
+      <c r="B496" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C496" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D496" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E496" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F496" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G496" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="497">
-      <c r="A497" s="16"/>
-      <c r="B497" s="17"/>
-      <c r="C497" s="18"/>
-      <c r="D497" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E497" s="18"/>
-      <c r="F497" s="18"/>
-      <c r="G497" s="19"/>
+      <c r="A497" s="8">
+        <v>45910.63385061343</v>
+      </c>
+      <c r="B497" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C497" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D497" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E497" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F497" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G497" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="498">
-      <c r="A498" s="4"/>
-      <c r="B498" s="5"/>
-      <c r="C498" s="6"/>
-      <c r="D498" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E498" s="6"/>
-      <c r="F498" s="6"/>
-      <c r="G498" s="7"/>
+      <c r="A498" s="12">
+        <v>45910.6790316088</v>
+      </c>
+      <c r="B498" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C498" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D498" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E498" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F498" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G498" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="499">
-      <c r="A499" s="16"/>
-      <c r="B499" s="17"/>
-      <c r="C499" s="18"/>
-      <c r="D499" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E499" s="18"/>
-      <c r="F499" s="18"/>
-      <c r="G499" s="19"/>
+      <c r="A499" s="8">
+        <v>45911.59851152777</v>
+      </c>
+      <c r="B499" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C499" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D499" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E499" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F499" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G499" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="500">
-      <c r="A500" s="4"/>
-      <c r="B500" s="5"/>
-      <c r="C500" s="6"/>
-      <c r="D500" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E500" s="6"/>
-      <c r="F500" s="6"/>
-      <c r="G500" s="7"/>
+      <c r="A500" s="12">
+        <v>45911.60402442129</v>
+      </c>
+      <c r="B500" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C500" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D500" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E500" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F500" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G500" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="501">
-      <c r="A501" s="16"/>
-      <c r="B501" s="17"/>
-      <c r="C501" s="18"/>
-      <c r="D501" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E501" s="18"/>
-      <c r="F501" s="18"/>
-      <c r="G501" s="19"/>
+      <c r="A501" s="8">
+        <v>45911.60627152778</v>
+      </c>
+      <c r="B501" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C501" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D501" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E501" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F501" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G501" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="502">
-      <c r="A502" s="4"/>
-      <c r="B502" s="5"/>
-      <c r="C502" s="6"/>
-      <c r="D502" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E502" s="6"/>
-      <c r="F502" s="6"/>
-      <c r="G502" s="7"/>
+      <c r="A502" s="12">
+        <v>45911.613541203704</v>
+      </c>
+      <c r="B502" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C502" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D502" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E502" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F502" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G502" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="503">
-      <c r="A503" s="16"/>
-      <c r="B503" s="17"/>
-      <c r="C503" s="18"/>
-      <c r="D503" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E503" s="18"/>
-      <c r="F503" s="18"/>
-      <c r="G503" s="19"/>
+      <c r="A503" s="8">
+        <v>45911.613673541666</v>
+      </c>
+      <c r="B503" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C503" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D503" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E503" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F503" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G503" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="504">
-      <c r="A504" s="4"/>
-      <c r="B504" s="5"/>
-      <c r="C504" s="6"/>
-      <c r="D504" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E504" s="6"/>
-      <c r="F504" s="6"/>
-      <c r="G504" s="7"/>
+      <c r="A504" s="12">
+        <v>45911.61424219907</v>
+      </c>
+      <c r="B504" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C504" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D504" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E504" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F504" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G504" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="505">
-      <c r="A505" s="16"/>
-      <c r="B505" s="17"/>
-      <c r="C505" s="18"/>
-      <c r="D505" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E505" s="18"/>
-      <c r="F505" s="18"/>
-      <c r="G505" s="19"/>
+      <c r="A505" s="8">
+        <v>45911.62619045139</v>
+      </c>
+      <c r="B505" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C505" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D505" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E505" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F505" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G505" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="506">
-      <c r="A506" s="4"/>
-      <c r="B506" s="5"/>
-      <c r="C506" s="6"/>
-      <c r="D506" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E506" s="6"/>
-      <c r="F506" s="6"/>
-      <c r="G506" s="7"/>
+      <c r="A506" s="12">
+        <v>45911.68851206018</v>
+      </c>
+      <c r="B506" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C506" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D506" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E506" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F506" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G506" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="16"/>
@@ -13181,15 +13409,224 @@
       <c r="G586" s="7"/>
     </row>
     <row r="587">
-      <c r="A587" s="20"/>
-      <c r="B587" s="21"/>
-      <c r="C587" s="22"/>
-      <c r="D587" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E587" s="22"/>
-      <c r="F587" s="22"/>
-      <c r="G587" s="23"/>
+      <c r="A587" s="16"/>
+      <c r="B587" s="17"/>
+      <c r="C587" s="18"/>
+      <c r="D587" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E587" s="18"/>
+      <c r="F587" s="18"/>
+      <c r="G587" s="19"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="4"/>
+      <c r="B588" s="5"/>
+      <c r="C588" s="6"/>
+      <c r="D588" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E588" s="6"/>
+      <c r="F588" s="6"/>
+      <c r="G588" s="7"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="16"/>
+      <c r="B589" s="17"/>
+      <c r="C589" s="18"/>
+      <c r="D589" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E589" s="18"/>
+      <c r="F589" s="18"/>
+      <c r="G589" s="19"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="4"/>
+      <c r="B590" s="5"/>
+      <c r="C590" s="6"/>
+      <c r="D590" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E590" s="6"/>
+      <c r="F590" s="6"/>
+      <c r="G590" s="7"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="16"/>
+      <c r="B591" s="17"/>
+      <c r="C591" s="18"/>
+      <c r="D591" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E591" s="18"/>
+      <c r="F591" s="18"/>
+      <c r="G591" s="19"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="4"/>
+      <c r="B592" s="5"/>
+      <c r="C592" s="6"/>
+      <c r="D592" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E592" s="6"/>
+      <c r="F592" s="6"/>
+      <c r="G592" s="7"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="16"/>
+      <c r="B593" s="17"/>
+      <c r="C593" s="18"/>
+      <c r="D593" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E593" s="18"/>
+      <c r="F593" s="18"/>
+      <c r="G593" s="19"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="4"/>
+      <c r="B594" s="5"/>
+      <c r="C594" s="6"/>
+      <c r="D594" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E594" s="6"/>
+      <c r="F594" s="6"/>
+      <c r="G594" s="7"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="16"/>
+      <c r="B595" s="17"/>
+      <c r="C595" s="18"/>
+      <c r="D595" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E595" s="18"/>
+      <c r="F595" s="18"/>
+      <c r="G595" s="19"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="4"/>
+      <c r="B596" s="5"/>
+      <c r="C596" s="6"/>
+      <c r="D596" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E596" s="6"/>
+      <c r="F596" s="6"/>
+      <c r="G596" s="7"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="16"/>
+      <c r="B597" s="17"/>
+      <c r="C597" s="18"/>
+      <c r="D597" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E597" s="18"/>
+      <c r="F597" s="18"/>
+      <c r="G597" s="19"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="4"/>
+      <c r="B598" s="5"/>
+      <c r="C598" s="6"/>
+      <c r="D598" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E598" s="6"/>
+      <c r="F598" s="6"/>
+      <c r="G598" s="7"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="16"/>
+      <c r="B599" s="17"/>
+      <c r="C599" s="18"/>
+      <c r="D599" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E599" s="18"/>
+      <c r="F599" s="18"/>
+      <c r="G599" s="19"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="4"/>
+      <c r="B600" s="5"/>
+      <c r="C600" s="6"/>
+      <c r="D600" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E600" s="6"/>
+      <c r="F600" s="6"/>
+      <c r="G600" s="7"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="16"/>
+      <c r="B601" s="17"/>
+      <c r="C601" s="18"/>
+      <c r="D601" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E601" s="18"/>
+      <c r="F601" s="18"/>
+      <c r="G601" s="19"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="4"/>
+      <c r="B602" s="5"/>
+      <c r="C602" s="6"/>
+      <c r="D602" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E602" s="6"/>
+      <c r="F602" s="6"/>
+      <c r="G602" s="7"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="16"/>
+      <c r="B603" s="17"/>
+      <c r="C603" s="18"/>
+      <c r="D603" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E603" s="18"/>
+      <c r="F603" s="18"/>
+      <c r="G603" s="19"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="4"/>
+      <c r="B604" s="5"/>
+      <c r="C604" s="6"/>
+      <c r="D604" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E604" s="6"/>
+      <c r="F604" s="6"/>
+      <c r="G604" s="7"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="16"/>
+      <c r="B605" s="17"/>
+      <c r="C605" s="18"/>
+      <c r="D605" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E605" s="18"/>
+      <c r="F605" s="18"/>
+      <c r="G605" s="19"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="20"/>
+      <c r="B606" s="21"/>
+      <c r="C606" s="22"/>
+      <c r="D606" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E606" s="22"/>
+      <c r="F606" s="22"/>
+      <c r="G606" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3826" uniqueCount="101">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Itzel</t>
+  </si>
+  <si>
+    <t>Ana Paula Pedrero</t>
   </si>
   <si>
     <t/>
@@ -662,7 +665,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G606" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G632" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -12529,297 +12532,609 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="16"/>
-      <c r="B507" s="17"/>
-      <c r="C507" s="18"/>
-      <c r="D507" s="18" t="s">
+      <c r="A507" s="8">
+        <v>45911.70296569444</v>
+      </c>
+      <c r="B507" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C507" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D507" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E507" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F507" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G507" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="12">
+        <v>45912.579153865736</v>
+      </c>
+      <c r="B508" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C508" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D508" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E508" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F508" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G508" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="8">
+        <v>45912.60522672454</v>
+      </c>
+      <c r="B509" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C509" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D509" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E509" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F509" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G509" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="12">
+        <v>45912.612685925924</v>
+      </c>
+      <c r="B510" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C510" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D510" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E510" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F510" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G510" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="8">
+        <v>45912.617971203705</v>
+      </c>
+      <c r="B511" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C511" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D511" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E507" s="18"/>
-      <c r="F507" s="18"/>
-      <c r="G507" s="19"/>
-    </row>
-    <row r="508">
-      <c r="A508" s="4"/>
-      <c r="B508" s="5"/>
-      <c r="C508" s="6"/>
-      <c r="D508" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E508" s="6"/>
-      <c r="F508" s="6"/>
-      <c r="G508" s="7"/>
-    </row>
-    <row r="509">
-      <c r="A509" s="16"/>
-      <c r="B509" s="17"/>
-      <c r="C509" s="18"/>
-      <c r="D509" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E509" s="18"/>
-      <c r="F509" s="18"/>
-      <c r="G509" s="19"/>
-    </row>
-    <row r="510">
-      <c r="A510" s="4"/>
-      <c r="B510" s="5"/>
-      <c r="C510" s="6"/>
-      <c r="D510" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E510" s="6"/>
-      <c r="F510" s="6"/>
-      <c r="G510" s="7"/>
-    </row>
-    <row r="511">
-      <c r="A511" s="16"/>
-      <c r="B511" s="17"/>
-      <c r="C511" s="18"/>
-      <c r="D511" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E511" s="18"/>
-      <c r="F511" s="18"/>
-      <c r="G511" s="19"/>
+      <c r="E511" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F511" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G511" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="512">
-      <c r="A512" s="4"/>
-      <c r="B512" s="5"/>
-      <c r="C512" s="6"/>
-      <c r="D512" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E512" s="6"/>
-      <c r="F512" s="6"/>
-      <c r="G512" s="7"/>
+      <c r="A512" s="12">
+        <v>45912.62027303241</v>
+      </c>
+      <c r="B512" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C512" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D512" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E512" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F512" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G512" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="513">
-      <c r="A513" s="16"/>
-      <c r="B513" s="17"/>
-      <c r="C513" s="18"/>
-      <c r="D513" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E513" s="18"/>
-      <c r="F513" s="18"/>
-      <c r="G513" s="19"/>
+      <c r="A513" s="8">
+        <v>45912.63352990741</v>
+      </c>
+      <c r="B513" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C513" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D513" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E513" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F513" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G513" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="514">
-      <c r="A514" s="4"/>
-      <c r="B514" s="5"/>
-      <c r="C514" s="6"/>
-      <c r="D514" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E514" s="6"/>
-      <c r="F514" s="6"/>
-      <c r="G514" s="7"/>
+      <c r="A514" s="12">
+        <v>45912.63921241898</v>
+      </c>
+      <c r="B514" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C514" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D514" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E514" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F514" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G514" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="515">
-      <c r="A515" s="16"/>
-      <c r="B515" s="17"/>
-      <c r="C515" s="18"/>
-      <c r="D515" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E515" s="18"/>
-      <c r="F515" s="18"/>
-      <c r="G515" s="19"/>
+      <c r="A515" s="8">
+        <v>45912.639495034724</v>
+      </c>
+      <c r="B515" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C515" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D515" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E515" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F515" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G515" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="516">
-      <c r="A516" s="4"/>
-      <c r="B516" s="5"/>
-      <c r="C516" s="6"/>
-      <c r="D516" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E516" s="6"/>
-      <c r="F516" s="6"/>
-      <c r="G516" s="7"/>
+      <c r="A516" s="12">
+        <v>45912.6718869676</v>
+      </c>
+      <c r="B516" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C516" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D516" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E516" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F516" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G516" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="517">
-      <c r="A517" s="16"/>
-      <c r="B517" s="17"/>
-      <c r="C517" s="18"/>
-      <c r="D517" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E517" s="18"/>
-      <c r="F517" s="18"/>
-      <c r="G517" s="19"/>
+      <c r="A517" s="8">
+        <v>45913.65250033565</v>
+      </c>
+      <c r="B517" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C517" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D517" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E517" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F517" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G517" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="518">
-      <c r="A518" s="4"/>
-      <c r="B518" s="5"/>
-      <c r="C518" s="6"/>
-      <c r="D518" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E518" s="6"/>
-      <c r="F518" s="6"/>
-      <c r="G518" s="7"/>
+      <c r="A518" s="12">
+        <v>45913.652871886574</v>
+      </c>
+      <c r="B518" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C518" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D518" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E518" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F518" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G518" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="519">
-      <c r="A519" s="16"/>
-      <c r="B519" s="17"/>
-      <c r="C519" s="18"/>
-      <c r="D519" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E519" s="18"/>
-      <c r="F519" s="18"/>
-      <c r="G519" s="19"/>
+      <c r="A519" s="8">
+        <v>45913.65300712963</v>
+      </c>
+      <c r="B519" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C519" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D519" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E519" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F519" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G519" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="520">
-      <c r="A520" s="4"/>
-      <c r="B520" s="5"/>
-      <c r="C520" s="6"/>
-      <c r="D520" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E520" s="6"/>
-      <c r="F520" s="6"/>
-      <c r="G520" s="7"/>
+      <c r="A520" s="12">
+        <v>45913.66638368055</v>
+      </c>
+      <c r="B520" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C520" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D520" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E520" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F520" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G520" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="521">
-      <c r="A521" s="16"/>
-      <c r="B521" s="17"/>
-      <c r="C521" s="18"/>
-      <c r="D521" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E521" s="18"/>
-      <c r="F521" s="18"/>
-      <c r="G521" s="19"/>
+      <c r="A521" s="8">
+        <v>45913.67273046296</v>
+      </c>
+      <c r="B521" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C521" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D521" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E521" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F521" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G521" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="522">
-      <c r="A522" s="4"/>
-      <c r="B522" s="5"/>
-      <c r="C522" s="6"/>
-      <c r="D522" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E522" s="6"/>
-      <c r="F522" s="6"/>
-      <c r="G522" s="7"/>
+      <c r="A522" s="12">
+        <v>45913.674493865736</v>
+      </c>
+      <c r="B522" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C522" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D522" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E522" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F522" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G522" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="523">
-      <c r="A523" s="16"/>
-      <c r="B523" s="17"/>
-      <c r="C523" s="18"/>
-      <c r="D523" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E523" s="18"/>
-      <c r="F523" s="18"/>
-      <c r="G523" s="19"/>
+      <c r="A523" s="8">
+        <v>45913.68571243055</v>
+      </c>
+      <c r="B523" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C523" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D523" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E523" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F523" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G523" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="524">
-      <c r="A524" s="4"/>
-      <c r="B524" s="5"/>
-      <c r="C524" s="6"/>
-      <c r="D524" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E524" s="6"/>
-      <c r="F524" s="6"/>
-      <c r="G524" s="7"/>
+      <c r="A524" s="12">
+        <v>45913.693654780094</v>
+      </c>
+      <c r="B524" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C524" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D524" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E524" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F524" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G524" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="525">
-      <c r="A525" s="16"/>
-      <c r="B525" s="17"/>
-      <c r="C525" s="18"/>
-      <c r="D525" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E525" s="18"/>
-      <c r="F525" s="18"/>
-      <c r="G525" s="19"/>
+      <c r="A525" s="8">
+        <v>45913.72478143519</v>
+      </c>
+      <c r="B525" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C525" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D525" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E525" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F525" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G525" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="526">
-      <c r="A526" s="4"/>
-      <c r="B526" s="5"/>
-      <c r="C526" s="6"/>
-      <c r="D526" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E526" s="6"/>
-      <c r="F526" s="6"/>
-      <c r="G526" s="7"/>
+      <c r="A526" s="12">
+        <v>45913.72757228009</v>
+      </c>
+      <c r="B526" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C526" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D526" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E526" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F526" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G526" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="527">
-      <c r="A527" s="16"/>
-      <c r="B527" s="17"/>
-      <c r="C527" s="18"/>
-      <c r="D527" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E527" s="18"/>
-      <c r="F527" s="18"/>
-      <c r="G527" s="19"/>
+      <c r="A527" s="8">
+        <v>45914.63785998843</v>
+      </c>
+      <c r="B527" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C527" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D527" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E527" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F527" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G527" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="528">
-      <c r="A528" s="4"/>
-      <c r="B528" s="5"/>
-      <c r="C528" s="6"/>
-      <c r="D528" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E528" s="6"/>
-      <c r="F528" s="6"/>
-      <c r="G528" s="7"/>
+      <c r="A528" s="12">
+        <v>45914.66356909722</v>
+      </c>
+      <c r="B528" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C528" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D528" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E528" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F528" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G528" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="529">
-      <c r="A529" s="16"/>
-      <c r="B529" s="17"/>
-      <c r="C529" s="18"/>
-      <c r="D529" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E529" s="18"/>
-      <c r="F529" s="18"/>
-      <c r="G529" s="19"/>
+      <c r="A529" s="8">
+        <v>45914.66891532407</v>
+      </c>
+      <c r="B529" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C529" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D529" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E529" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F529" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G529" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="530">
-      <c r="A530" s="4"/>
-      <c r="B530" s="5"/>
-      <c r="C530" s="6"/>
-      <c r="D530" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E530" s="6"/>
-      <c r="F530" s="6"/>
-      <c r="G530" s="7"/>
+      <c r="A530" s="12">
+        <v>45914.67234131944</v>
+      </c>
+      <c r="B530" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C530" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D530" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E530" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F530" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G530" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="531">
-      <c r="A531" s="16"/>
-      <c r="B531" s="17"/>
-      <c r="C531" s="18"/>
-      <c r="D531" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E531" s="18"/>
-      <c r="F531" s="18"/>
-      <c r="G531" s="19"/>
+      <c r="A531" s="8">
+        <v>45914.69976931713</v>
+      </c>
+      <c r="B531" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C531" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D531" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E531" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F531" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G531" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="532">
-      <c r="A532" s="4"/>
-      <c r="B532" s="5"/>
-      <c r="C532" s="6"/>
-      <c r="D532" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E532" s="6"/>
-      <c r="F532" s="6"/>
-      <c r="G532" s="7"/>
+      <c r="A532" s="12">
+        <v>45914.714432002314</v>
+      </c>
+      <c r="B532" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C532" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D532" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E532" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F532" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G532" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="16"/>
       <c r="B533" s="17"/>
       <c r="C533" s="18"/>
       <c r="D533" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E533" s="18"/>
       <c r="F533" s="18"/>
@@ -12830,7 +13145,7 @@
       <c r="B534" s="5"/>
       <c r="C534" s="6"/>
       <c r="D534" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E534" s="6"/>
       <c r="F534" s="6"/>
@@ -12841,7 +13156,7 @@
       <c r="B535" s="17"/>
       <c r="C535" s="18"/>
       <c r="D535" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E535" s="18"/>
       <c r="F535" s="18"/>
@@ -12852,7 +13167,7 @@
       <c r="B536" s="5"/>
       <c r="C536" s="6"/>
       <c r="D536" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E536" s="6"/>
       <c r="F536" s="6"/>
@@ -12863,7 +13178,7 @@
       <c r="B537" s="17"/>
       <c r="C537" s="18"/>
       <c r="D537" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E537" s="18"/>
       <c r="F537" s="18"/>
@@ -12874,7 +13189,7 @@
       <c r="B538" s="5"/>
       <c r="C538" s="6"/>
       <c r="D538" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E538" s="6"/>
       <c r="F538" s="6"/>
@@ -12885,7 +13200,7 @@
       <c r="B539" s="17"/>
       <c r="C539" s="18"/>
       <c r="D539" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E539" s="18"/>
       <c r="F539" s="18"/>
@@ -12896,7 +13211,7 @@
       <c r="B540" s="5"/>
       <c r="C540" s="6"/>
       <c r="D540" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E540" s="6"/>
       <c r="F540" s="6"/>
@@ -12907,7 +13222,7 @@
       <c r="B541" s="17"/>
       <c r="C541" s="18"/>
       <c r="D541" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E541" s="18"/>
       <c r="F541" s="18"/>
@@ -12918,7 +13233,7 @@
       <c r="B542" s="5"/>
       <c r="C542" s="6"/>
       <c r="D542" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E542" s="6"/>
       <c r="F542" s="6"/>
@@ -12929,7 +13244,7 @@
       <c r="B543" s="17"/>
       <c r="C543" s="18"/>
       <c r="D543" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E543" s="18"/>
       <c r="F543" s="18"/>
@@ -12940,7 +13255,7 @@
       <c r="B544" s="5"/>
       <c r="C544" s="6"/>
       <c r="D544" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E544" s="6"/>
       <c r="F544" s="6"/>
@@ -12951,7 +13266,7 @@
       <c r="B545" s="17"/>
       <c r="C545" s="18"/>
       <c r="D545" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E545" s="18"/>
       <c r="F545" s="18"/>
@@ -12962,7 +13277,7 @@
       <c r="B546" s="5"/>
       <c r="C546" s="6"/>
       <c r="D546" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E546" s="6"/>
       <c r="F546" s="6"/>
@@ -12973,7 +13288,7 @@
       <c r="B547" s="17"/>
       <c r="C547" s="18"/>
       <c r="D547" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E547" s="18"/>
       <c r="F547" s="18"/>
@@ -12984,7 +13299,7 @@
       <c r="B548" s="5"/>
       <c r="C548" s="6"/>
       <c r="D548" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E548" s="6"/>
       <c r="F548" s="6"/>
@@ -12995,7 +13310,7 @@
       <c r="B549" s="17"/>
       <c r="C549" s="18"/>
       <c r="D549" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E549" s="18"/>
       <c r="F549" s="18"/>
@@ -13006,7 +13321,7 @@
       <c r="B550" s="5"/>
       <c r="C550" s="6"/>
       <c r="D550" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E550" s="6"/>
       <c r="F550" s="6"/>
@@ -13017,7 +13332,7 @@
       <c r="B551" s="17"/>
       <c r="C551" s="18"/>
       <c r="D551" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E551" s="18"/>
       <c r="F551" s="18"/>
@@ -13028,7 +13343,7 @@
       <c r="B552" s="5"/>
       <c r="C552" s="6"/>
       <c r="D552" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E552" s="6"/>
       <c r="F552" s="6"/>
@@ -13039,7 +13354,7 @@
       <c r="B553" s="17"/>
       <c r="C553" s="18"/>
       <c r="D553" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E553" s="18"/>
       <c r="F553" s="18"/>
@@ -13050,7 +13365,7 @@
       <c r="B554" s="5"/>
       <c r="C554" s="6"/>
       <c r="D554" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E554" s="6"/>
       <c r="F554" s="6"/>
@@ -13061,7 +13376,7 @@
       <c r="B555" s="17"/>
       <c r="C555" s="18"/>
       <c r="D555" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E555" s="18"/>
       <c r="F555" s="18"/>
@@ -13072,7 +13387,7 @@
       <c r="B556" s="5"/>
       <c r="C556" s="6"/>
       <c r="D556" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E556" s="6"/>
       <c r="F556" s="6"/>
@@ -13083,7 +13398,7 @@
       <c r="B557" s="17"/>
       <c r="C557" s="18"/>
       <c r="D557" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E557" s="18"/>
       <c r="F557" s="18"/>
@@ -13094,7 +13409,7 @@
       <c r="B558" s="5"/>
       <c r="C558" s="6"/>
       <c r="D558" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E558" s="6"/>
       <c r="F558" s="6"/>
@@ -13105,7 +13420,7 @@
       <c r="B559" s="17"/>
       <c r="C559" s="18"/>
       <c r="D559" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E559" s="18"/>
       <c r="F559" s="18"/>
@@ -13116,7 +13431,7 @@
       <c r="B560" s="5"/>
       <c r="C560" s="6"/>
       <c r="D560" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E560" s="6"/>
       <c r="F560" s="6"/>
@@ -13127,7 +13442,7 @@
       <c r="B561" s="17"/>
       <c r="C561" s="18"/>
       <c r="D561" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E561" s="18"/>
       <c r="F561" s="18"/>
@@ -13138,7 +13453,7 @@
       <c r="B562" s="5"/>
       <c r="C562" s="6"/>
       <c r="D562" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E562" s="6"/>
       <c r="F562" s="6"/>
@@ -13149,7 +13464,7 @@
       <c r="B563" s="17"/>
       <c r="C563" s="18"/>
       <c r="D563" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E563" s="18"/>
       <c r="F563" s="18"/>
@@ -13160,7 +13475,7 @@
       <c r="B564" s="5"/>
       <c r="C564" s="6"/>
       <c r="D564" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E564" s="6"/>
       <c r="F564" s="6"/>
@@ -13171,7 +13486,7 @@
       <c r="B565" s="17"/>
       <c r="C565" s="18"/>
       <c r="D565" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E565" s="18"/>
       <c r="F565" s="18"/>
@@ -13182,7 +13497,7 @@
       <c r="B566" s="5"/>
       <c r="C566" s="6"/>
       <c r="D566" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E566" s="6"/>
       <c r="F566" s="6"/>
@@ -13193,7 +13508,7 @@
       <c r="B567" s="17"/>
       <c r="C567" s="18"/>
       <c r="D567" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E567" s="18"/>
       <c r="F567" s="18"/>
@@ -13204,7 +13519,7 @@
       <c r="B568" s="5"/>
       <c r="C568" s="6"/>
       <c r="D568" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E568" s="6"/>
       <c r="F568" s="6"/>
@@ -13215,7 +13530,7 @@
       <c r="B569" s="17"/>
       <c r="C569" s="18"/>
       <c r="D569" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E569" s="18"/>
       <c r="F569" s="18"/>
@@ -13226,7 +13541,7 @@
       <c r="B570" s="5"/>
       <c r="C570" s="6"/>
       <c r="D570" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E570" s="6"/>
       <c r="F570" s="6"/>
@@ -13237,7 +13552,7 @@
       <c r="B571" s="17"/>
       <c r="C571" s="18"/>
       <c r="D571" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E571" s="18"/>
       <c r="F571" s="18"/>
@@ -13248,7 +13563,7 @@
       <c r="B572" s="5"/>
       <c r="C572" s="6"/>
       <c r="D572" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E572" s="6"/>
       <c r="F572" s="6"/>
@@ -13259,7 +13574,7 @@
       <c r="B573" s="17"/>
       <c r="C573" s="18"/>
       <c r="D573" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E573" s="18"/>
       <c r="F573" s="18"/>
@@ -13270,7 +13585,7 @@
       <c r="B574" s="5"/>
       <c r="C574" s="6"/>
       <c r="D574" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E574" s="6"/>
       <c r="F574" s="6"/>
@@ -13281,7 +13596,7 @@
       <c r="B575" s="17"/>
       <c r="C575" s="18"/>
       <c r="D575" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E575" s="18"/>
       <c r="F575" s="18"/>
@@ -13292,7 +13607,7 @@
       <c r="B576" s="5"/>
       <c r="C576" s="6"/>
       <c r="D576" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E576" s="6"/>
       <c r="F576" s="6"/>
@@ -13303,7 +13618,7 @@
       <c r="B577" s="17"/>
       <c r="C577" s="18"/>
       <c r="D577" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E577" s="18"/>
       <c r="F577" s="18"/>
@@ -13314,7 +13629,7 @@
       <c r="B578" s="5"/>
       <c r="C578" s="6"/>
       <c r="D578" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E578" s="6"/>
       <c r="F578" s="6"/>
@@ -13325,7 +13640,7 @@
       <c r="B579" s="17"/>
       <c r="C579" s="18"/>
       <c r="D579" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E579" s="18"/>
       <c r="F579" s="18"/>
@@ -13336,7 +13651,7 @@
       <c r="B580" s="5"/>
       <c r="C580" s="6"/>
       <c r="D580" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E580" s="6"/>
       <c r="F580" s="6"/>
@@ -13347,7 +13662,7 @@
       <c r="B581" s="17"/>
       <c r="C581" s="18"/>
       <c r="D581" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E581" s="18"/>
       <c r="F581" s="18"/>
@@ -13358,7 +13673,7 @@
       <c r="B582" s="5"/>
       <c r="C582" s="6"/>
       <c r="D582" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E582" s="6"/>
       <c r="F582" s="6"/>
@@ -13369,7 +13684,7 @@
       <c r="B583" s="17"/>
       <c r="C583" s="18"/>
       <c r="D583" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E583" s="18"/>
       <c r="F583" s="18"/>
@@ -13380,7 +13695,7 @@
       <c r="B584" s="5"/>
       <c r="C584" s="6"/>
       <c r="D584" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E584" s="6"/>
       <c r="F584" s="6"/>
@@ -13391,7 +13706,7 @@
       <c r="B585" s="17"/>
       <c r="C585" s="18"/>
       <c r="D585" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E585" s="18"/>
       <c r="F585" s="18"/>
@@ -13402,7 +13717,7 @@
       <c r="B586" s="5"/>
       <c r="C586" s="6"/>
       <c r="D586" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E586" s="6"/>
       <c r="F586" s="6"/>
@@ -13413,7 +13728,7 @@
       <c r="B587" s="17"/>
       <c r="C587" s="18"/>
       <c r="D587" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E587" s="18"/>
       <c r="F587" s="18"/>
@@ -13424,7 +13739,7 @@
       <c r="B588" s="5"/>
       <c r="C588" s="6"/>
       <c r="D588" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E588" s="6"/>
       <c r="F588" s="6"/>
@@ -13435,7 +13750,7 @@
       <c r="B589" s="17"/>
       <c r="C589" s="18"/>
       <c r="D589" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E589" s="18"/>
       <c r="F589" s="18"/>
@@ -13446,7 +13761,7 @@
       <c r="B590" s="5"/>
       <c r="C590" s="6"/>
       <c r="D590" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E590" s="6"/>
       <c r="F590" s="6"/>
@@ -13457,7 +13772,7 @@
       <c r="B591" s="17"/>
       <c r="C591" s="18"/>
       <c r="D591" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E591" s="18"/>
       <c r="F591" s="18"/>
@@ -13468,7 +13783,7 @@
       <c r="B592" s="5"/>
       <c r="C592" s="6"/>
       <c r="D592" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E592" s="6"/>
       <c r="F592" s="6"/>
@@ -13479,7 +13794,7 @@
       <c r="B593" s="17"/>
       <c r="C593" s="18"/>
       <c r="D593" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E593" s="18"/>
       <c r="F593" s="18"/>
@@ -13490,7 +13805,7 @@
       <c r="B594" s="5"/>
       <c r="C594" s="6"/>
       <c r="D594" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E594" s="6"/>
       <c r="F594" s="6"/>
@@ -13501,7 +13816,7 @@
       <c r="B595" s="17"/>
       <c r="C595" s="18"/>
       <c r="D595" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E595" s="18"/>
       <c r="F595" s="18"/>
@@ -13512,7 +13827,7 @@
       <c r="B596" s="5"/>
       <c r="C596" s="6"/>
       <c r="D596" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E596" s="6"/>
       <c r="F596" s="6"/>
@@ -13523,7 +13838,7 @@
       <c r="B597" s="17"/>
       <c r="C597" s="18"/>
       <c r="D597" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E597" s="18"/>
       <c r="F597" s="18"/>
@@ -13534,7 +13849,7 @@
       <c r="B598" s="5"/>
       <c r="C598" s="6"/>
       <c r="D598" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E598" s="6"/>
       <c r="F598" s="6"/>
@@ -13545,7 +13860,7 @@
       <c r="B599" s="17"/>
       <c r="C599" s="18"/>
       <c r="D599" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E599" s="18"/>
       <c r="F599" s="18"/>
@@ -13556,7 +13871,7 @@
       <c r="B600" s="5"/>
       <c r="C600" s="6"/>
       <c r="D600" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E600" s="6"/>
       <c r="F600" s="6"/>
@@ -13567,7 +13882,7 @@
       <c r="B601" s="17"/>
       <c r="C601" s="18"/>
       <c r="D601" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E601" s="18"/>
       <c r="F601" s="18"/>
@@ -13578,7 +13893,7 @@
       <c r="B602" s="5"/>
       <c r="C602" s="6"/>
       <c r="D602" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E602" s="6"/>
       <c r="F602" s="6"/>
@@ -13589,7 +13904,7 @@
       <c r="B603" s="17"/>
       <c r="C603" s="18"/>
       <c r="D603" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E603" s="18"/>
       <c r="F603" s="18"/>
@@ -13600,7 +13915,7 @@
       <c r="B604" s="5"/>
       <c r="C604" s="6"/>
       <c r="D604" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E604" s="6"/>
       <c r="F604" s="6"/>
@@ -13611,22 +13926,308 @@
       <c r="B605" s="17"/>
       <c r="C605" s="18"/>
       <c r="D605" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E605" s="18"/>
       <c r="F605" s="18"/>
       <c r="G605" s="19"/>
     </row>
     <row r="606">
-      <c r="A606" s="20"/>
-      <c r="B606" s="21"/>
-      <c r="C606" s="22"/>
-      <c r="D606" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E606" s="22"/>
-      <c r="F606" s="22"/>
-      <c r="G606" s="23"/>
+      <c r="A606" s="4"/>
+      <c r="B606" s="5"/>
+      <c r="C606" s="6"/>
+      <c r="D606" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E606" s="6"/>
+      <c r="F606" s="6"/>
+      <c r="G606" s="7"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="16"/>
+      <c r="B607" s="17"/>
+      <c r="C607" s="18"/>
+      <c r="D607" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E607" s="18"/>
+      <c r="F607" s="18"/>
+      <c r="G607" s="19"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="4"/>
+      <c r="B608" s="5"/>
+      <c r="C608" s="6"/>
+      <c r="D608" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E608" s="6"/>
+      <c r="F608" s="6"/>
+      <c r="G608" s="7"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="16"/>
+      <c r="B609" s="17"/>
+      <c r="C609" s="18"/>
+      <c r="D609" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E609" s="18"/>
+      <c r="F609" s="18"/>
+      <c r="G609" s="19"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="4"/>
+      <c r="B610" s="5"/>
+      <c r="C610" s="6"/>
+      <c r="D610" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E610" s="6"/>
+      <c r="F610" s="6"/>
+      <c r="G610" s="7"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="16"/>
+      <c r="B611" s="17"/>
+      <c r="C611" s="18"/>
+      <c r="D611" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E611" s="18"/>
+      <c r="F611" s="18"/>
+      <c r="G611" s="19"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="4"/>
+      <c r="B612" s="5"/>
+      <c r="C612" s="6"/>
+      <c r="D612" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E612" s="6"/>
+      <c r="F612" s="6"/>
+      <c r="G612" s="7"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="16"/>
+      <c r="B613" s="17"/>
+      <c r="C613" s="18"/>
+      <c r="D613" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E613" s="18"/>
+      <c r="F613" s="18"/>
+      <c r="G613" s="19"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="4"/>
+      <c r="B614" s="5"/>
+      <c r="C614" s="6"/>
+      <c r="D614" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E614" s="6"/>
+      <c r="F614" s="6"/>
+      <c r="G614" s="7"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="16"/>
+      <c r="B615" s="17"/>
+      <c r="C615" s="18"/>
+      <c r="D615" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E615" s="18"/>
+      <c r="F615" s="18"/>
+      <c r="G615" s="19"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="4"/>
+      <c r="B616" s="5"/>
+      <c r="C616" s="6"/>
+      <c r="D616" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E616" s="6"/>
+      <c r="F616" s="6"/>
+      <c r="G616" s="7"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="16"/>
+      <c r="B617" s="17"/>
+      <c r="C617" s="18"/>
+      <c r="D617" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E617" s="18"/>
+      <c r="F617" s="18"/>
+      <c r="G617" s="19"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="4"/>
+      <c r="B618" s="5"/>
+      <c r="C618" s="6"/>
+      <c r="D618" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E618" s="6"/>
+      <c r="F618" s="6"/>
+      <c r="G618" s="7"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="16"/>
+      <c r="B619" s="17"/>
+      <c r="C619" s="18"/>
+      <c r="D619" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E619" s="18"/>
+      <c r="F619" s="18"/>
+      <c r="G619" s="19"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="4"/>
+      <c r="B620" s="5"/>
+      <c r="C620" s="6"/>
+      <c r="D620" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E620" s="6"/>
+      <c r="F620" s="6"/>
+      <c r="G620" s="7"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="16"/>
+      <c r="B621" s="17"/>
+      <c r="C621" s="18"/>
+      <c r="D621" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E621" s="18"/>
+      <c r="F621" s="18"/>
+      <c r="G621" s="19"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="4"/>
+      <c r="B622" s="5"/>
+      <c r="C622" s="6"/>
+      <c r="D622" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E622" s="6"/>
+      <c r="F622" s="6"/>
+      <c r="G622" s="7"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="16"/>
+      <c r="B623" s="17"/>
+      <c r="C623" s="18"/>
+      <c r="D623" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E623" s="18"/>
+      <c r="F623" s="18"/>
+      <c r="G623" s="19"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="4"/>
+      <c r="B624" s="5"/>
+      <c r="C624" s="6"/>
+      <c r="D624" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E624" s="6"/>
+      <c r="F624" s="6"/>
+      <c r="G624" s="7"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="16"/>
+      <c r="B625" s="17"/>
+      <c r="C625" s="18"/>
+      <c r="D625" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E625" s="18"/>
+      <c r="F625" s="18"/>
+      <c r="G625" s="19"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="4"/>
+      <c r="B626" s="5"/>
+      <c r="C626" s="6"/>
+      <c r="D626" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E626" s="6"/>
+      <c r="F626" s="6"/>
+      <c r="G626" s="7"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="16"/>
+      <c r="B627" s="17"/>
+      <c r="C627" s="18"/>
+      <c r="D627" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E627" s="18"/>
+      <c r="F627" s="18"/>
+      <c r="G627" s="19"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="4"/>
+      <c r="B628" s="5"/>
+      <c r="C628" s="6"/>
+      <c r="D628" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E628" s="6"/>
+      <c r="F628" s="6"/>
+      <c r="G628" s="7"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="16"/>
+      <c r="B629" s="17"/>
+      <c r="C629" s="18"/>
+      <c r="D629" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E629" s="18"/>
+      <c r="F629" s="18"/>
+      <c r="G629" s="19"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="4"/>
+      <c r="B630" s="5"/>
+      <c r="C630" s="6"/>
+      <c r="D630" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E630" s="6"/>
+      <c r="F630" s="6"/>
+      <c r="G630" s="7"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="16"/>
+      <c r="B631" s="17"/>
+      <c r="C631" s="18"/>
+      <c r="D631" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E631" s="18"/>
+      <c r="F631" s="18"/>
+      <c r="G631" s="19"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="20"/>
+      <c r="B632" s="21"/>
+      <c r="C632" s="22"/>
+      <c r="D632" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E632" s="22"/>
+      <c r="F632" s="22"/>
+      <c r="G632" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -13648,7 +14249,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>27</v>
@@ -13662,7 +14263,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="26" t="str">
         <f t="array" ref="E2:E1000">IF(D2:D1000="","", 
@@ -13681,24 +14282,24 @@
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -13709,7 +14310,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -13720,18 +14321,18 @@
         <v>17</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -13742,7 +14343,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -13753,18 +14354,18 @@
         <v>15</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -13775,7 +14376,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -13786,7 +14387,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -13797,40 +14398,40 @@
         <v>26</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -13841,40 +14442,40 @@
         <v>50</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -13885,7 +14486,7 @@
         <v>30</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -13896,7 +14497,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
@@ -13907,73 +14508,73 @@
         <v>39</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
@@ -13984,18 +14585,18 @@
         <v>56</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
@@ -14006,4853 +14607,4853 @@
         <v>56</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108">
       <c r="E108" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="109">
       <c r="E109" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="112">
       <c r="E112" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113">
       <c r="E113" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114">
       <c r="E114" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118">
       <c r="E118" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119">
       <c r="E119" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120">
       <c r="E120" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121">
       <c r="E121" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="123">
       <c r="E123" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124">
       <c r="E124" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125">
       <c r="E125" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126">
       <c r="E126" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="127">
       <c r="E127" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128">
       <c r="E128" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="129">
       <c r="E129" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="130">
       <c r="E130" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="131">
       <c r="E131" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132">
       <c r="E132" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133">
       <c r="E133" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="134">
       <c r="E134" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="135">
       <c r="E135" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136">
       <c r="E136" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="137">
       <c r="E137" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138">
       <c r="E138" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="139">
       <c r="E139" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="140">
       <c r="E140" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="141">
       <c r="E141" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="142">
       <c r="E142" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143">
       <c r="E143" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="144">
       <c r="E144" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="145">
       <c r="E145" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="146">
       <c r="E146" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="147">
       <c r="E147" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="148">
       <c r="E148" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="149">
       <c r="E149" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="150">
       <c r="E150" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="151">
       <c r="E151" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="152">
       <c r="E152" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="153">
       <c r="E153" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="154">
       <c r="E154" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="155">
       <c r="E155" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="156">
       <c r="E156" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="157">
       <c r="E157" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="158">
       <c r="E158" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="159">
       <c r="E159" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="160">
       <c r="E160" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="161">
       <c r="E161" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="162">
       <c r="E162" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="163">
       <c r="E163" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="164">
       <c r="E164" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="165">
       <c r="E165" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="166">
       <c r="E166" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="167">
       <c r="E167" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="168">
       <c r="E168" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="169">
       <c r="E169" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="170">
       <c r="E170" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="171">
       <c r="E171" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="172">
       <c r="E172" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="173">
       <c r="E173" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="174">
       <c r="E174" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="175">
       <c r="E175" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="176">
       <c r="E176" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="177">
       <c r="E177" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="178">
       <c r="E178" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="179">
       <c r="E179" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="180">
       <c r="E180" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="181">
       <c r="E181" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="182">
       <c r="E182" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="183">
       <c r="E183" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="184">
       <c r="E184" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="185">
       <c r="E185" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="186">
       <c r="E186" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="187">
       <c r="E187" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="188">
       <c r="E188" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="189">
       <c r="E189" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="190">
       <c r="E190" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="191">
       <c r="E191" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="192">
       <c r="E192" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="193">
       <c r="E193" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="194">
       <c r="E194" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="195">
       <c r="E195" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="196">
       <c r="E196" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="197">
       <c r="E197" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="198">
       <c r="E198" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="199">
       <c r="E199" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="200">
       <c r="E200" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="201">
       <c r="E201" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="202">
       <c r="E202" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="203">
       <c r="E203" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="204">
       <c r="E204" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="205">
       <c r="E205" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="206">
       <c r="E206" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="207">
       <c r="E207" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="208">
       <c r="E208" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="209">
       <c r="E209" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="210">
       <c r="E210" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="211">
       <c r="E211" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="212">
       <c r="E212" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="213">
       <c r="E213" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="214">
       <c r="E214" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="215">
       <c r="E215" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="216">
       <c r="E216" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="217">
       <c r="E217" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="218">
       <c r="E218" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="219">
       <c r="E219" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="220">
       <c r="E220" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221">
       <c r="E221" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="222">
       <c r="E222" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="223">
       <c r="E223" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="224">
       <c r="E224" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="225">
       <c r="E225" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="226">
       <c r="E226" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="227">
       <c r="E227" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="228">
       <c r="E228" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="229">
       <c r="E229" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="230">
       <c r="E230" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="231">
       <c r="E231" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="232">
       <c r="E232" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="233">
       <c r="E233" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="234">
       <c r="E234" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="235">
       <c r="E235" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236">
       <c r="E236" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="237">
       <c r="E237" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="238">
       <c r="E238" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239">
       <c r="E239" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="240">
       <c r="E240" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="241">
       <c r="E241" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242">
       <c r="E242" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="243">
       <c r="E243" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="244">
       <c r="E244" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="245">
       <c r="E245" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="246">
       <c r="E246" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="247">
       <c r="E247" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="248">
       <c r="E248" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249">
       <c r="E249" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="250">
       <c r="E250" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="251">
       <c r="E251" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="252">
       <c r="E252" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="253">
       <c r="E253" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="254">
       <c r="E254" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="255">
       <c r="E255" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="256">
       <c r="E256" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="257">
       <c r="E257" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="258">
       <c r="E258" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="259">
       <c r="E259" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="260">
       <c r="E260" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="261">
       <c r="E261" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="262">
       <c r="E262" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="263">
       <c r="E263" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="264">
       <c r="E264" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="265">
       <c r="E265" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="266">
       <c r="E266" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="267">
       <c r="E267" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="268">
       <c r="E268" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="269">
       <c r="E269" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="270">
       <c r="E270" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="271">
       <c r="E271" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="272">
       <c r="E272" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="273">
       <c r="E273" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="274">
       <c r="E274" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="275">
       <c r="E275" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="276">
       <c r="E276" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="277">
       <c r="E277" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="278">
       <c r="E278" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="279">
       <c r="E279" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="280">
       <c r="E280" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="281">
       <c r="E281" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="282">
       <c r="E282" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="283">
       <c r="E283" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="284">
       <c r="E284" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="285">
       <c r="E285" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="286">
       <c r="E286" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="287">
       <c r="E287" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="288">
       <c r="E288" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="289">
       <c r="E289" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="290">
       <c r="E290" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="291">
       <c r="E291" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="292">
       <c r="E292" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="293">
       <c r="E293" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="294">
       <c r="E294" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="295">
       <c r="E295" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="296">
       <c r="E296" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="297">
       <c r="E297" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="298">
       <c r="E298" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="299">
       <c r="E299" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="300">
       <c r="E300" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="301">
       <c r="E301" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="302">
       <c r="E302" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="303">
       <c r="E303" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="304">
       <c r="E304" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="305">
       <c r="E305" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="306">
       <c r="E306" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="307">
       <c r="E307" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="308">
       <c r="E308" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="309">
       <c r="E309" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="310">
       <c r="E310" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="311">
       <c r="E311" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="312">
       <c r="E312" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="313">
       <c r="E313" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="314">
       <c r="E314" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="315">
       <c r="E315" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="316">
       <c r="E316" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="317">
       <c r="E317" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="318">
       <c r="E318" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="319">
       <c r="E319" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="320">
       <c r="E320" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="321">
       <c r="E321" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="322">
       <c r="E322" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="323">
       <c r="E323" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="324">
       <c r="E324" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="325">
       <c r="E325" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="326">
       <c r="E326" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="327">
       <c r="E327" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="328">
       <c r="E328" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="329">
       <c r="E329" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="330">
       <c r="E330" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="331">
       <c r="E331" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="332">
       <c r="E332" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="333">
       <c r="E333" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="334">
       <c r="E334" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="335">
       <c r="E335" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="336">
       <c r="E336" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="337">
       <c r="E337" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="338">
       <c r="E338" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="339">
       <c r="E339" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="340">
       <c r="E340" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="341">
       <c r="E341" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="342">
       <c r="E342" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="343">
       <c r="E343" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="344">
       <c r="E344" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="345">
       <c r="E345" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="346">
       <c r="E346" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="347">
       <c r="E347" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="348">
       <c r="E348" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="349">
       <c r="E349" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="350">
       <c r="E350" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="351">
       <c r="E351" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="352">
       <c r="E352" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="353">
       <c r="E353" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="354">
       <c r="E354" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="355">
       <c r="E355" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="356">
       <c r="E356" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="357">
       <c r="E357" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="358">
       <c r="E358" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="359">
       <c r="E359" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="360">
       <c r="E360" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="361">
       <c r="E361" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="362">
       <c r="E362" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="363">
       <c r="E363" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="364">
       <c r="E364" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="365">
       <c r="E365" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="366">
       <c r="E366" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="367">
       <c r="E367" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="368">
       <c r="E368" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="369">
       <c r="E369" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="370">
       <c r="E370" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="371">
       <c r="E371" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="372">
       <c r="E372" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="373">
       <c r="E373" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="374">
       <c r="E374" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="375">
       <c r="E375" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="376">
       <c r="E376" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="377">
       <c r="E377" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="378">
       <c r="E378" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="379">
       <c r="E379" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="380">
       <c r="E380" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="381">
       <c r="E381" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="382">
       <c r="E382" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="383">
       <c r="E383" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="384">
       <c r="E384" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="385">
       <c r="E385" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="386">
       <c r="E386" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="387">
       <c r="E387" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="388">
       <c r="E388" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="389">
       <c r="E389" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="390">
       <c r="E390" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="391">
       <c r="E391" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="392">
       <c r="E392" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="393">
       <c r="E393" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="394">
       <c r="E394" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="395">
       <c r="E395" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="396">
       <c r="E396" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="397">
       <c r="E397" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="398">
       <c r="E398" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="399">
       <c r="E399" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="400">
       <c r="E400" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="401">
       <c r="E401" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="402">
       <c r="E402" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="403">
       <c r="E403" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="404">
       <c r="E404" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="405">
       <c r="E405" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="406">
       <c r="E406" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="407">
       <c r="E407" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="408">
       <c r="E408" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="409">
       <c r="E409" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="410">
       <c r="E410" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="411">
       <c r="E411" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="412">
       <c r="E412" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="413">
       <c r="E413" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="414">
       <c r="E414" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="415">
       <c r="E415" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="416">
       <c r="E416" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="417">
       <c r="E417" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="418">
       <c r="E418" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="419">
       <c r="E419" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="420">
       <c r="E420" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="421">
       <c r="E421" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="422">
       <c r="E422" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="423">
       <c r="E423" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="424">
       <c r="E424" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="425">
       <c r="E425" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="426">
       <c r="E426" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="427">
       <c r="E427" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="428">
       <c r="E428" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="429">
       <c r="E429" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="430">
       <c r="E430" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="431">
       <c r="E431" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="432">
       <c r="E432" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="433">
       <c r="E433" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="434">
       <c r="E434" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="435">
       <c r="E435" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="436">
       <c r="E436" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="437">
       <c r="E437" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="438">
       <c r="E438" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="439">
       <c r="E439" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="440">
       <c r="E440" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="441">
       <c r="E441" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="442">
       <c r="E442" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="443">
       <c r="E443" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="444">
       <c r="E444" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="445">
       <c r="E445" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="446">
       <c r="E446" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="447">
       <c r="E447" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="448">
       <c r="E448" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="449">
       <c r="E449" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="450">
       <c r="E450" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="451">
       <c r="E451" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="452">
       <c r="E452" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="453">
       <c r="E453" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="454">
       <c r="E454" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="455">
       <c r="E455" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="456">
       <c r="E456" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="457">
       <c r="E457" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="458">
       <c r="E458" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="459">
       <c r="E459" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="460">
       <c r="E460" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="461">
       <c r="E461" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="462">
       <c r="E462" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="463">
       <c r="E463" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="464">
       <c r="E464" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="465">
       <c r="E465" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="466">
       <c r="E466" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="467">
       <c r="E467" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="468">
       <c r="E468" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="469">
       <c r="E469" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="470">
       <c r="E470" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="471">
       <c r="E471" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="472">
       <c r="E472" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="473">
       <c r="E473" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="474">
       <c r="E474" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="475">
       <c r="E475" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="476">
       <c r="E476" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="477">
       <c r="E477" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="478">
       <c r="E478" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="479">
       <c r="E479" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="480">
       <c r="E480" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="481">
       <c r="E481" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="482">
       <c r="E482" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="483">
       <c r="E483" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="484">
       <c r="E484" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="485">
       <c r="E485" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="486">
       <c r="E486" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="487">
       <c r="E487" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="488">
       <c r="E488" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="489">
       <c r="E489" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="490">
       <c r="E490" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="491">
       <c r="E491" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="492">
       <c r="E492" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="493">
       <c r="E493" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="494">
       <c r="E494" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="495">
       <c r="E495" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="496">
       <c r="E496" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="497">
       <c r="E497" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="498">
       <c r="E498" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="499">
       <c r="E499" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="500">
       <c r="E500" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="501">
       <c r="E501" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="502">
       <c r="E502" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="503">
       <c r="E503" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="504">
       <c r="E504" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="505">
       <c r="E505" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="506">
       <c r="E506" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="507">
       <c r="E507" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="508">
       <c r="E508" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="509">
       <c r="E509" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="510">
       <c r="E510" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="511">
       <c r="E511" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="512">
       <c r="E512" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="513">
       <c r="E513" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="514">
       <c r="E514" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="515">
       <c r="E515" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="516">
       <c r="E516" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="517">
       <c r="E517" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="518">
       <c r="E518" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="519">
       <c r="E519" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="520">
       <c r="E520" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="521">
       <c r="E521" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="522">
       <c r="E522" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="523">
       <c r="E523" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="524">
       <c r="E524" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="525">
       <c r="E525" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="526">
       <c r="E526" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="527">
       <c r="E527" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="528">
       <c r="E528" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="529">
       <c r="E529" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="530">
       <c r="E530" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="531">
       <c r="E531" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="532">
       <c r="E532" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="533">
       <c r="E533" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="534">
       <c r="E534" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="535">
       <c r="E535" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="536">
       <c r="E536" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="537">
       <c r="E537" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="538">
       <c r="E538" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="539">
       <c r="E539" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="540">
       <c r="E540" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="541">
       <c r="E541" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="542">
       <c r="E542" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="543">
       <c r="E543" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="544">
       <c r="E544" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="545">
       <c r="E545" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="546">
       <c r="E546" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="547">
       <c r="E547" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="548">
       <c r="E548" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="549">
       <c r="E549" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="550">
       <c r="E550" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="551">
       <c r="E551" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="552">
       <c r="E552" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="553">
       <c r="E553" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="554">
       <c r="E554" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="555">
       <c r="E555" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="556">
       <c r="E556" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="557">
       <c r="E557" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="558">
       <c r="E558" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="559">
       <c r="E559" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="560">
       <c r="E560" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="561">
       <c r="E561" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="562">
       <c r="E562" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="563">
       <c r="E563" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="564">
       <c r="E564" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="565">
       <c r="E565" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="566">
       <c r="E566" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="567">
       <c r="E567" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="568">
       <c r="E568" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="569">
       <c r="E569" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="570">
       <c r="E570" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="571">
       <c r="E571" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="572">
       <c r="E572" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="573">
       <c r="E573" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="574">
       <c r="E574" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="575">
       <c r="E575" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="576">
       <c r="E576" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="577">
       <c r="E577" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="578">
       <c r="E578" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="579">
       <c r="E579" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="580">
       <c r="E580" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="581">
       <c r="E581" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="582">
       <c r="E582" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="583">
       <c r="E583" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="584">
       <c r="E584" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="585">
       <c r="E585" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="586">
       <c r="E586" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="587">
       <c r="E587" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="588">
       <c r="E588" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="589">
       <c r="E589" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="590">
       <c r="E590" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="591">
       <c r="E591" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="592">
       <c r="E592" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="593">
       <c r="E593" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="594">
       <c r="E594" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="595">
       <c r="E595" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="596">
       <c r="E596" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="597">
       <c r="E597" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="598">
       <c r="E598" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="599">
       <c r="E599" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="600">
       <c r="E600" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="601">
       <c r="E601" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="602">
       <c r="E602" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="603">
       <c r="E603" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="604">
       <c r="E604" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="605">
       <c r="E605" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="606">
       <c r="E606" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="607">
       <c r="E607" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="608">
       <c r="E608" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="609">
       <c r="E609" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="610">
       <c r="E610" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="611">
       <c r="E611" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="612">
       <c r="E612" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="613">
       <c r="E613" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="614">
       <c r="E614" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="615">
       <c r="E615" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="616">
       <c r="E616" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="617">
       <c r="E617" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="618">
       <c r="E618" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="619">
       <c r="E619" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="620">
       <c r="E620" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="621">
       <c r="E621" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="622">
       <c r="E622" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="623">
       <c r="E623" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="624">
       <c r="E624" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="625">
       <c r="E625" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="626">
       <c r="E626" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="627">
       <c r="E627" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="628">
       <c r="E628" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="629">
       <c r="E629" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="630">
       <c r="E630" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="631">
       <c r="E631" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="632">
       <c r="E632" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="633">
       <c r="E633" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="634">
       <c r="E634" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="635">
       <c r="E635" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="636">
       <c r="E636" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="637">
       <c r="E637" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="638">
       <c r="E638" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="639">
       <c r="E639" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="640">
       <c r="E640" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="641">
       <c r="E641" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="642">
       <c r="E642" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="643">
       <c r="E643" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="644">
       <c r="E644" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="645">
       <c r="E645" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="646">
       <c r="E646" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="647">
       <c r="E647" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="648">
       <c r="E648" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="649">
       <c r="E649" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="650">
       <c r="E650" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="651">
       <c r="E651" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="652">
       <c r="E652" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="653">
       <c r="E653" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="654">
       <c r="E654" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="655">
       <c r="E655" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="656">
       <c r="E656" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="657">
       <c r="E657" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="658">
       <c r="E658" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="659">
       <c r="E659" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="660">
       <c r="E660" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="661">
       <c r="E661" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="662">
       <c r="E662" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="663">
       <c r="E663" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="664">
       <c r="E664" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="665">
       <c r="E665" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="666">
       <c r="E666" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="667">
       <c r="E667" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="668">
       <c r="E668" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="669">
       <c r="E669" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="670">
       <c r="E670" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="671">
       <c r="E671" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="672">
       <c r="E672" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="673">
       <c r="E673" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="674">
       <c r="E674" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="675">
       <c r="E675" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="676">
       <c r="E676" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="677">
       <c r="E677" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="678">
       <c r="E678" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="679">
       <c r="E679" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="680">
       <c r="E680" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="681">
       <c r="E681" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="682">
       <c r="E682" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="683">
       <c r="E683" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="684">
       <c r="E684" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="685">
       <c r="E685" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="686">
       <c r="E686" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="687">
       <c r="E687" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="688">
       <c r="E688" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="689">
       <c r="E689" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="690">
       <c r="E690" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="691">
       <c r="E691" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="692">
       <c r="E692" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="693">
       <c r="E693" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="694">
       <c r="E694" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="695">
       <c r="E695" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="696">
       <c r="E696" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="697">
       <c r="E697" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="698">
       <c r="E698" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="699">
       <c r="E699" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="700">
       <c r="E700" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="701">
       <c r="E701" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="702">
       <c r="E702" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="703">
       <c r="E703" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="704">
       <c r="E704" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="705">
       <c r="E705" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="706">
       <c r="E706" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="707">
       <c r="E707" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="708">
       <c r="E708" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="709">
       <c r="E709" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="710">
       <c r="E710" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="711">
       <c r="E711" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="712">
       <c r="E712" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="713">
       <c r="E713" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="714">
       <c r="E714" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="715">
       <c r="E715" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="716">
       <c r="E716" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="717">
       <c r="E717" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="718">
       <c r="E718" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="719">
       <c r="E719" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="720">
       <c r="E720" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="721">
       <c r="E721" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="722">
       <c r="E722" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="723">
       <c r="E723" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="724">
       <c r="E724" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="725">
       <c r="E725" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="726">
       <c r="E726" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="727">
       <c r="E727" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="728">
       <c r="E728" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="729">
       <c r="E729" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="730">
       <c r="E730" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="731">
       <c r="E731" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="732">
       <c r="E732" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="733">
       <c r="E733" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="734">
       <c r="E734" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="735">
       <c r="E735" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="736">
       <c r="E736" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="737">
       <c r="E737" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="738">
       <c r="E738" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="739">
       <c r="E739" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="740">
       <c r="E740" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="741">
       <c r="E741" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="742">
       <c r="E742" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="743">
       <c r="E743" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="744">
       <c r="E744" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="745">
       <c r="E745" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="746">
       <c r="E746" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="747">
       <c r="E747" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="748">
       <c r="E748" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="749">
       <c r="E749" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="750">
       <c r="E750" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="751">
       <c r="E751" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="752">
       <c r="E752" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="753">
       <c r="E753" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="754">
       <c r="E754" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="755">
       <c r="E755" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="756">
       <c r="E756" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="757">
       <c r="E757" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="758">
       <c r="E758" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="759">
       <c r="E759" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="760">
       <c r="E760" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="761">
       <c r="E761" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="762">
       <c r="E762" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="763">
       <c r="E763" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="764">
       <c r="E764" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="765">
       <c r="E765" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="766">
       <c r="E766" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="767">
       <c r="E767" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="768">
       <c r="E768" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="769">
       <c r="E769" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="770">
       <c r="E770" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="771">
       <c r="E771" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="772">
       <c r="E772" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="773">
       <c r="E773" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="774">
       <c r="E774" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="775">
       <c r="E775" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="776">
       <c r="E776" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="777">
       <c r="E777" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="778">
       <c r="E778" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="779">
       <c r="E779" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="780">
       <c r="E780" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="781">
       <c r="E781" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="782">
       <c r="E782" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="783">
       <c r="E783" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="784">
       <c r="E784" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="785">
       <c r="E785" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="786">
       <c r="E786" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="787">
       <c r="E787" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="788">
       <c r="E788" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="789">
       <c r="E789" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="790">
       <c r="E790" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="791">
       <c r="E791" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="792">
       <c r="E792" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="793">
       <c r="E793" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="794">
       <c r="E794" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="795">
       <c r="E795" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="796">
       <c r="E796" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="797">
       <c r="E797" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="798">
       <c r="E798" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="799">
       <c r="E799" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="800">
       <c r="E800" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="801">
       <c r="E801" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="802">
       <c r="E802" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="803">
       <c r="E803" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="804">
       <c r="E804" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="805">
       <c r="E805" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="806">
       <c r="E806" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="807">
       <c r="E807" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="808">
       <c r="E808" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="809">
       <c r="E809" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="810">
       <c r="E810" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="811">
       <c r="E811" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="812">
       <c r="E812" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="813">
       <c r="E813" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="814">
       <c r="E814" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="815">
       <c r="E815" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="816">
       <c r="E816" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="817">
       <c r="E817" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="818">
       <c r="E818" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="819">
       <c r="E819" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="820">
       <c r="E820" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="821">
       <c r="E821" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="822">
       <c r="E822" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="823">
       <c r="E823" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="824">
       <c r="E824" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="825">
       <c r="E825" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="826">
       <c r="E826" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="827">
       <c r="E827" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="828">
       <c r="E828" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="829">
       <c r="E829" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="830">
       <c r="E830" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="831">
       <c r="E831" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="832">
       <c r="E832" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="833">
       <c r="E833" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="834">
       <c r="E834" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="835">
       <c r="E835" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="836">
       <c r="E836" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="837">
       <c r="E837" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="838">
       <c r="E838" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="839">
       <c r="E839" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="840">
       <c r="E840" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="841">
       <c r="E841" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="842">
       <c r="E842" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="843">
       <c r="E843" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="844">
       <c r="E844" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="845">
       <c r="E845" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="846">
       <c r="E846" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="847">
       <c r="E847" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="848">
       <c r="E848" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="849">
       <c r="E849" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="850">
       <c r="E850" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="851">
       <c r="E851" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="852">
       <c r="E852" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="853">
       <c r="E853" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="854">
       <c r="E854" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="855">
       <c r="E855" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="856">
       <c r="E856" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="857">
       <c r="E857" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="858">
       <c r="E858" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="859">
       <c r="E859" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="860">
       <c r="E860" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="861">
       <c r="E861" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="862">
       <c r="E862" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="863">
       <c r="E863" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="864">
       <c r="E864" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="865">
       <c r="E865" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="866">
       <c r="E866" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="867">
       <c r="E867" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="868">
       <c r="E868" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="869">
       <c r="E869" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="870">
       <c r="E870" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="871">
       <c r="E871" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="872">
       <c r="E872" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="873">
       <c r="E873" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="874">
       <c r="E874" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="875">
       <c r="E875" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="876">
       <c r="E876" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="877">
       <c r="E877" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="878">
       <c r="E878" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="879">
       <c r="E879" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="880">
       <c r="E880" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="881">
       <c r="E881" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="882">
       <c r="E882" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="883">
       <c r="E883" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="884">
       <c r="E884" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="885">
       <c r="E885" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="886">
       <c r="E886" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="887">
       <c r="E887" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="888">
       <c r="E888" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="889">
       <c r="E889" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="890">
       <c r="E890" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="891">
       <c r="E891" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="892">
       <c r="E892" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="893">
       <c r="E893" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="894">
       <c r="E894" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="895">
       <c r="E895" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="896">
       <c r="E896" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="897">
       <c r="E897" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="898">
       <c r="E898" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="899">
       <c r="E899" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="900">
       <c r="E900" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="901">
       <c r="E901" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="902">
       <c r="E902" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="903">
       <c r="E903" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="904">
       <c r="E904" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="905">
       <c r="E905" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="906">
       <c r="E906" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="907">
       <c r="E907" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="908">
       <c r="E908" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="909">
       <c r="E909" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="910">
       <c r="E910" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="911">
       <c r="E911" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="912">
       <c r="E912" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="913">
       <c r="E913" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="914">
       <c r="E914" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="915">
       <c r="E915" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="916">
       <c r="E916" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="917">
       <c r="E917" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="918">
       <c r="E918" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="919">
       <c r="E919" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="920">
       <c r="E920" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="921">
       <c r="E921" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="922">
       <c r="E922" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="923">
       <c r="E923" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="924">
       <c r="E924" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="925">
       <c r="E925" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="926">
       <c r="E926" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="927">
       <c r="E927" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="928">
       <c r="E928" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="929">
       <c r="E929" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="930">
       <c r="E930" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="931">
       <c r="E931" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="932">
       <c r="E932" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="933">
       <c r="E933" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="934">
       <c r="E934" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="935">
       <c r="E935" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="936">
       <c r="E936" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="937">
       <c r="E937" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="938">
       <c r="E938" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="939">
       <c r="E939" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="940">
       <c r="E940" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="941">
       <c r="E941" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="942">
       <c r="E942" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="943">
       <c r="E943" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="944">
       <c r="E944" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="945">
       <c r="E945" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="946">
       <c r="E946" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="947">
       <c r="E947" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="948">
       <c r="E948" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="949">
       <c r="E949" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="950">
       <c r="E950" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="951">
       <c r="E951" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="952">
       <c r="E952" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="953">
       <c r="E953" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="954">
       <c r="E954" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="955">
       <c r="E955" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="956">
       <c r="E956" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="957">
       <c r="E957" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="958">
       <c r="E958" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="959">
       <c r="E959" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="960">
       <c r="E960" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="961">
       <c r="E961" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="962">
       <c r="E962" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="963">
       <c r="E963" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="964">
       <c r="E964" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="965">
       <c r="E965" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="966">
       <c r="E966" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="967">
       <c r="E967" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="968">
       <c r="E968" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="969">
       <c r="E969" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="970">
       <c r="E970" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="971">
       <c r="E971" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="972">
       <c r="E972" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="973">
       <c r="E973" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="974">
       <c r="E974" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="975">
       <c r="E975" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="976">
       <c r="E976" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="977">
       <c r="E977" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="978">
       <c r="E978" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="979">
       <c r="E979" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="980">
       <c r="E980" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="981">
       <c r="E981" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="982">
       <c r="E982" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="983">
       <c r="E983" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="984">
       <c r="E984" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="985">
       <c r="E985" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="986">
       <c r="E986" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="987">
       <c r="E987" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="988">
       <c r="E988" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="989">
       <c r="E989" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="990">
       <c r="E990" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="991">
       <c r="E991" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="992">
       <c r="E992" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="993">
       <c r="E993" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="994">
       <c r="E994" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="995">
       <c r="E995" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="996">
       <c r="E996" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="997">
       <c r="E997" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="998">
       <c r="E998" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="999">
       <c r="E999" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1000">
       <c r="E1000" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3826" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3866" uniqueCount="101">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -665,7 +665,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G632" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G640" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -13130,92 +13130,188 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="16"/>
-      <c r="B533" s="17"/>
-      <c r="C533" s="18"/>
-      <c r="D533" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E533" s="18"/>
-      <c r="F533" s="18"/>
-      <c r="G533" s="19"/>
+      <c r="A533" s="8">
+        <v>45916.56380898148</v>
+      </c>
+      <c r="B533" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C533" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D533" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E533" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F533" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G533" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="534">
-      <c r="A534" s="4"/>
-      <c r="B534" s="5"/>
-      <c r="C534" s="6"/>
-      <c r="D534" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E534" s="6"/>
-      <c r="F534" s="6"/>
-      <c r="G534" s="7"/>
+      <c r="A534" s="12">
+        <v>45916.56407141204</v>
+      </c>
+      <c r="B534" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C534" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D534" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E534" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F534" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G534" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="535">
-      <c r="A535" s="16"/>
-      <c r="B535" s="17"/>
-      <c r="C535" s="18"/>
-      <c r="D535" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E535" s="18"/>
-      <c r="F535" s="18"/>
-      <c r="G535" s="19"/>
+      <c r="A535" s="8">
+        <v>45916.58846321759</v>
+      </c>
+      <c r="B535" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C535" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D535" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E535" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F535" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G535" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="536">
-      <c r="A536" s="4"/>
-      <c r="B536" s="5"/>
-      <c r="C536" s="6"/>
-      <c r="D536" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E536" s="6"/>
-      <c r="F536" s="6"/>
-      <c r="G536" s="7"/>
+      <c r="A536" s="12">
+        <v>45916.59053890046</v>
+      </c>
+      <c r="B536" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C536" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D536" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E536" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F536" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G536" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="537">
-      <c r="A537" s="16"/>
-      <c r="B537" s="17"/>
-      <c r="C537" s="18"/>
-      <c r="D537" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E537" s="18"/>
-      <c r="F537" s="18"/>
-      <c r="G537" s="19"/>
+      <c r="A537" s="8">
+        <v>45916.610671574075</v>
+      </c>
+      <c r="B537" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C537" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D537" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E537" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F537" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G537" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="538">
-      <c r="A538" s="4"/>
-      <c r="B538" s="5"/>
-      <c r="C538" s="6"/>
-      <c r="D538" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E538" s="6"/>
-      <c r="F538" s="6"/>
-      <c r="G538" s="7"/>
+      <c r="A538" s="12">
+        <v>45916.61443313658</v>
+      </c>
+      <c r="B538" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C538" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D538" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E538" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F538" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G538" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="539">
-      <c r="A539" s="16"/>
-      <c r="B539" s="17"/>
-      <c r="C539" s="18"/>
-      <c r="D539" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E539" s="18"/>
-      <c r="F539" s="18"/>
-      <c r="G539" s="19"/>
+      <c r="A539" s="8">
+        <v>45916.65232690972</v>
+      </c>
+      <c r="B539" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C539" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D539" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E539" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F539" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G539" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="540">
-      <c r="A540" s="4"/>
-      <c r="B540" s="5"/>
-      <c r="C540" s="6"/>
-      <c r="D540" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E540" s="6"/>
-      <c r="F540" s="6"/>
-      <c r="G540" s="7"/>
+      <c r="A540" s="12">
+        <v>45916.69393574074</v>
+      </c>
+      <c r="B540" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C540" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D540" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E540" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F540" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G540" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="16"/>
@@ -14219,15 +14315,103 @@
       <c r="G631" s="19"/>
     </row>
     <row r="632">
-      <c r="A632" s="20"/>
-      <c r="B632" s="21"/>
-      <c r="C632" s="22"/>
-      <c r="D632" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E632" s="22"/>
-      <c r="F632" s="22"/>
-      <c r="G632" s="23"/>
+      <c r="A632" s="4"/>
+      <c r="B632" s="5"/>
+      <c r="C632" s="6"/>
+      <c r="D632" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E632" s="6"/>
+      <c r="F632" s="6"/>
+      <c r="G632" s="7"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="16"/>
+      <c r="B633" s="17"/>
+      <c r="C633" s="18"/>
+      <c r="D633" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E633" s="18"/>
+      <c r="F633" s="18"/>
+      <c r="G633" s="19"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="4"/>
+      <c r="B634" s="5"/>
+      <c r="C634" s="6"/>
+      <c r="D634" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E634" s="6"/>
+      <c r="F634" s="6"/>
+      <c r="G634" s="7"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="16"/>
+      <c r="B635" s="17"/>
+      <c r="C635" s="18"/>
+      <c r="D635" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E635" s="18"/>
+      <c r="F635" s="18"/>
+      <c r="G635" s="19"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="4"/>
+      <c r="B636" s="5"/>
+      <c r="C636" s="6"/>
+      <c r="D636" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E636" s="6"/>
+      <c r="F636" s="6"/>
+      <c r="G636" s="7"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="16"/>
+      <c r="B637" s="17"/>
+      <c r="C637" s="18"/>
+      <c r="D637" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E637" s="18"/>
+      <c r="F637" s="18"/>
+      <c r="G637" s="19"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="4"/>
+      <c r="B638" s="5"/>
+      <c r="C638" s="6"/>
+      <c r="D638" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E638" s="6"/>
+      <c r="F638" s="6"/>
+      <c r="G638" s="7"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="16"/>
+      <c r="B639" s="17"/>
+      <c r="C639" s="18"/>
+      <c r="D639" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E639" s="18"/>
+      <c r="F639" s="18"/>
+      <c r="G639" s="19"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="20"/>
+      <c r="B640" s="21"/>
+      <c r="C640" s="22"/>
+      <c r="D640" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E640" s="22"/>
+      <c r="F640" s="22"/>
+      <c r="G640" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3866" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="101">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -482,10 +482,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -493,13 +493,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -507,13 +507,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -665,7 +665,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G640" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G647" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -13314,81 +13314,165 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="16"/>
-      <c r="B541" s="17"/>
-      <c r="C541" s="18"/>
-      <c r="D541" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E541" s="18"/>
-      <c r="F541" s="18"/>
-      <c r="G541" s="19"/>
+      <c r="A541" s="8">
+        <v>45917.59426520833</v>
+      </c>
+      <c r="B541" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C541" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D541" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E541" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F541" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G541" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="542">
-      <c r="A542" s="4"/>
-      <c r="B542" s="5"/>
-      <c r="C542" s="6"/>
-      <c r="D542" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E542" s="6"/>
-      <c r="F542" s="6"/>
-      <c r="G542" s="7"/>
+      <c r="A542" s="12">
+        <v>45917.606990659726</v>
+      </c>
+      <c r="B542" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C542" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D542" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E542" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F542" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G542" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="543">
-      <c r="A543" s="16"/>
-      <c r="B543" s="17"/>
-      <c r="C543" s="18"/>
-      <c r="D543" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E543" s="18"/>
-      <c r="F543" s="18"/>
-      <c r="G543" s="19"/>
+      <c r="A543" s="8">
+        <v>45917.62054434028</v>
+      </c>
+      <c r="B543" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C543" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D543" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E543" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F543" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G543" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="544">
-      <c r="A544" s="4"/>
-      <c r="B544" s="5"/>
-      <c r="C544" s="6"/>
-      <c r="D544" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E544" s="6"/>
-      <c r="F544" s="6"/>
-      <c r="G544" s="7"/>
+      <c r="A544" s="12">
+        <v>45917.62205252315</v>
+      </c>
+      <c r="B544" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C544" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D544" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E544" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F544" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G544" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="545">
-      <c r="A545" s="16"/>
-      <c r="B545" s="17"/>
-      <c r="C545" s="18"/>
-      <c r="D545" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E545" s="18"/>
-      <c r="F545" s="18"/>
-      <c r="G545" s="19"/>
+      <c r="A545" s="8">
+        <v>45917.624638090274</v>
+      </c>
+      <c r="B545" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C545" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D545" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E545" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F545" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G545" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="546">
-      <c r="A546" s="4"/>
-      <c r="B546" s="5"/>
-      <c r="C546" s="6"/>
-      <c r="D546" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E546" s="6"/>
-      <c r="F546" s="6"/>
-      <c r="G546" s="7"/>
+      <c r="A546" s="12">
+        <v>45917.62618160879</v>
+      </c>
+      <c r="B546" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C546" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D546" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E546" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F546" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G546" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="547">
-      <c r="A547" s="16"/>
-      <c r="B547" s="17"/>
-      <c r="C547" s="18"/>
-      <c r="D547" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E547" s="18"/>
-      <c r="F547" s="18"/>
-      <c r="G547" s="19"/>
+      <c r="A547" s="8">
+        <v>45917.668413692125</v>
+      </c>
+      <c r="B547" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C547" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D547" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E547" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F547" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G547" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="4"/>
@@ -14403,15 +14487,92 @@
       <c r="G639" s="19"/>
     </row>
     <row r="640">
-      <c r="A640" s="20"/>
-      <c r="B640" s="21"/>
-      <c r="C640" s="22"/>
-      <c r="D640" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E640" s="22"/>
-      <c r="F640" s="22"/>
-      <c r="G640" s="23"/>
+      <c r="A640" s="4"/>
+      <c r="B640" s="5"/>
+      <c r="C640" s="6"/>
+      <c r="D640" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E640" s="6"/>
+      <c r="F640" s="6"/>
+      <c r="G640" s="7"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="16"/>
+      <c r="B641" s="17"/>
+      <c r="C641" s="18"/>
+      <c r="D641" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E641" s="18"/>
+      <c r="F641" s="18"/>
+      <c r="G641" s="19"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="4"/>
+      <c r="B642" s="5"/>
+      <c r="C642" s="6"/>
+      <c r="D642" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E642" s="6"/>
+      <c r="F642" s="6"/>
+      <c r="G642" s="7"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="16"/>
+      <c r="B643" s="17"/>
+      <c r="C643" s="18"/>
+      <c r="D643" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E643" s="18"/>
+      <c r="F643" s="18"/>
+      <c r="G643" s="19"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="4"/>
+      <c r="B644" s="5"/>
+      <c r="C644" s="6"/>
+      <c r="D644" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E644" s="6"/>
+      <c r="F644" s="6"/>
+      <c r="G644" s="7"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="16"/>
+      <c r="B645" s="17"/>
+      <c r="C645" s="18"/>
+      <c r="D645" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E645" s="18"/>
+      <c r="F645" s="18"/>
+      <c r="G645" s="19"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="4"/>
+      <c r="B646" s="5"/>
+      <c r="C646" s="6"/>
+      <c r="D646" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E646" s="6"/>
+      <c r="F646" s="6"/>
+      <c r="G646" s="7"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="20"/>
+      <c r="B647" s="21"/>
+      <c r="C647" s="22"/>
+      <c r="D647" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E647" s="22"/>
+      <c r="F647" s="22"/>
+      <c r="G647" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3971" uniqueCount="101">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -665,7 +665,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G647" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G661" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -13475,158 +13475,326 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" s="4"/>
-      <c r="B548" s="5"/>
-      <c r="C548" s="6"/>
-      <c r="D548" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E548" s="6"/>
-      <c r="F548" s="6"/>
-      <c r="G548" s="7"/>
+      <c r="A548" s="12">
+        <v>45918.91273657407</v>
+      </c>
+      <c r="B548" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C548" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D548" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E548" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F548" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G548" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="549">
-      <c r="A549" s="16"/>
-      <c r="B549" s="17"/>
-      <c r="C549" s="18"/>
-      <c r="D549" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E549" s="18"/>
-      <c r="F549" s="18"/>
-      <c r="G549" s="19"/>
+      <c r="A549" s="8">
+        <v>45918.99149385416</v>
+      </c>
+      <c r="B549" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C549" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D549" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E549" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F549" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G549" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="550">
-      <c r="A550" s="4"/>
-      <c r="B550" s="5"/>
-      <c r="C550" s="6"/>
-      <c r="D550" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E550" s="6"/>
-      <c r="F550" s="6"/>
-      <c r="G550" s="7"/>
+      <c r="A550" s="12">
+        <v>45919.00210643519</v>
+      </c>
+      <c r="B550" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C550" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D550" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E550" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F550" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G550" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="551">
-      <c r="A551" s="16"/>
-      <c r="B551" s="17"/>
-      <c r="C551" s="18"/>
-      <c r="D551" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E551" s="18"/>
-      <c r="F551" s="18"/>
-      <c r="G551" s="19"/>
+      <c r="A551" s="8">
+        <v>45920.458808599535</v>
+      </c>
+      <c r="B551" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C551" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D551" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E551" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F551" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G551" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="552">
-      <c r="A552" s="4"/>
-      <c r="B552" s="5"/>
-      <c r="C552" s="6"/>
-      <c r="D552" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E552" s="6"/>
-      <c r="F552" s="6"/>
-      <c r="G552" s="7"/>
+      <c r="A552" s="12">
+        <v>45920.48119659722</v>
+      </c>
+      <c r="B552" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C552" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D552" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E552" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F552" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G552" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="553">
-      <c r="A553" s="16"/>
-      <c r="B553" s="17"/>
-      <c r="C553" s="18"/>
-      <c r="D553" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E553" s="18"/>
-      <c r="F553" s="18"/>
-      <c r="G553" s="19"/>
+      <c r="A553" s="8">
+        <v>45920.521896527775</v>
+      </c>
+      <c r="B553" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C553" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D553" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E553" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F553" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G553" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="554">
-      <c r="A554" s="4"/>
-      <c r="B554" s="5"/>
-      <c r="C554" s="6"/>
-      <c r="D554" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E554" s="6"/>
-      <c r="F554" s="6"/>
-      <c r="G554" s="7"/>
+      <c r="A554" s="12">
+        <v>45920.52372331018</v>
+      </c>
+      <c r="B554" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C554" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D554" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E554" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F554" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G554" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="555">
-      <c r="A555" s="16"/>
-      <c r="B555" s="17"/>
-      <c r="C555" s="18"/>
-      <c r="D555" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E555" s="18"/>
-      <c r="F555" s="18"/>
-      <c r="G555" s="19"/>
+      <c r="A555" s="8">
+        <v>45920.55358689815</v>
+      </c>
+      <c r="B555" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C555" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D555" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E555" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F555" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G555" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="556">
-      <c r="A556" s="4"/>
-      <c r="B556" s="5"/>
-      <c r="C556" s="6"/>
-      <c r="D556" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E556" s="6"/>
-      <c r="F556" s="6"/>
-      <c r="G556" s="7"/>
+      <c r="A556" s="12">
+        <v>45920.55374766204</v>
+      </c>
+      <c r="B556" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C556" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D556" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E556" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F556" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G556" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="557">
-      <c r="A557" s="16"/>
-      <c r="B557" s="17"/>
-      <c r="C557" s="18"/>
-      <c r="D557" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E557" s="18"/>
-      <c r="F557" s="18"/>
-      <c r="G557" s="19"/>
+      <c r="A557" s="8">
+        <v>45920.55873142361</v>
+      </c>
+      <c r="B557" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C557" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D557" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E557" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F557" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G557" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="558">
-      <c r="A558" s="4"/>
-      <c r="B558" s="5"/>
-      <c r="C558" s="6"/>
-      <c r="D558" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E558" s="6"/>
-      <c r="F558" s="6"/>
-      <c r="G558" s="7"/>
+      <c r="A558" s="12">
+        <v>45921.514430613424</v>
+      </c>
+      <c r="B558" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C558" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D558" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E558" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F558" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G558" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="559">
-      <c r="A559" s="16"/>
-      <c r="B559" s="17"/>
-      <c r="C559" s="18"/>
-      <c r="D559" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E559" s="18"/>
-      <c r="F559" s="18"/>
-      <c r="G559" s="19"/>
+      <c r="A559" s="8">
+        <v>45921.515066527776</v>
+      </c>
+      <c r="B559" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C559" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D559" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E559" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F559" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G559" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="560">
-      <c r="A560" s="4"/>
-      <c r="B560" s="5"/>
-      <c r="C560" s="6"/>
-      <c r="D560" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E560" s="6"/>
-      <c r="F560" s="6"/>
-      <c r="G560" s="7"/>
+      <c r="A560" s="12">
+        <v>45921.515137407405</v>
+      </c>
+      <c r="B560" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C560" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D560" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E560" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F560" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G560" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="561">
-      <c r="A561" s="16"/>
-      <c r="B561" s="17"/>
-      <c r="C561" s="18"/>
-      <c r="D561" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E561" s="18"/>
-      <c r="F561" s="18"/>
-      <c r="G561" s="19"/>
+      <c r="A561" s="8">
+        <v>45921.659911967596</v>
+      </c>
+      <c r="B561" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C561" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D561" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E561" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F561" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G561" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="4"/>
@@ -14564,15 +14732,169 @@
       <c r="G646" s="7"/>
     </row>
     <row r="647">
-      <c r="A647" s="20"/>
-      <c r="B647" s="21"/>
-      <c r="C647" s="22"/>
-      <c r="D647" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E647" s="22"/>
-      <c r="F647" s="22"/>
-      <c r="G647" s="23"/>
+      <c r="A647" s="16"/>
+      <c r="B647" s="17"/>
+      <c r="C647" s="18"/>
+      <c r="D647" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E647" s="18"/>
+      <c r="F647" s="18"/>
+      <c r="G647" s="19"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="4"/>
+      <c r="B648" s="5"/>
+      <c r="C648" s="6"/>
+      <c r="D648" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E648" s="6"/>
+      <c r="F648" s="6"/>
+      <c r="G648" s="7"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="16"/>
+      <c r="B649" s="17"/>
+      <c r="C649" s="18"/>
+      <c r="D649" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E649" s="18"/>
+      <c r="F649" s="18"/>
+      <c r="G649" s="19"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="4"/>
+      <c r="B650" s="5"/>
+      <c r="C650" s="6"/>
+      <c r="D650" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E650" s="6"/>
+      <c r="F650" s="6"/>
+      <c r="G650" s="7"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="16"/>
+      <c r="B651" s="17"/>
+      <c r="C651" s="18"/>
+      <c r="D651" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E651" s="18"/>
+      <c r="F651" s="18"/>
+      <c r="G651" s="19"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="4"/>
+      <c r="B652" s="5"/>
+      <c r="C652" s="6"/>
+      <c r="D652" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E652" s="6"/>
+      <c r="F652" s="6"/>
+      <c r="G652" s="7"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="16"/>
+      <c r="B653" s="17"/>
+      <c r="C653" s="18"/>
+      <c r="D653" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E653" s="18"/>
+      <c r="F653" s="18"/>
+      <c r="G653" s="19"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="4"/>
+      <c r="B654" s="5"/>
+      <c r="C654" s="6"/>
+      <c r="D654" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E654" s="6"/>
+      <c r="F654" s="6"/>
+      <c r="G654" s="7"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="16"/>
+      <c r="B655" s="17"/>
+      <c r="C655" s="18"/>
+      <c r="D655" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E655" s="18"/>
+      <c r="F655" s="18"/>
+      <c r="G655" s="19"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="4"/>
+      <c r="B656" s="5"/>
+      <c r="C656" s="6"/>
+      <c r="D656" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E656" s="6"/>
+      <c r="F656" s="6"/>
+      <c r="G656" s="7"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="16"/>
+      <c r="B657" s="17"/>
+      <c r="C657" s="18"/>
+      <c r="D657" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E657" s="18"/>
+      <c r="F657" s="18"/>
+      <c r="G657" s="19"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="4"/>
+      <c r="B658" s="5"/>
+      <c r="C658" s="6"/>
+      <c r="D658" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E658" s="6"/>
+      <c r="F658" s="6"/>
+      <c r="G658" s="7"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="16"/>
+      <c r="B659" s="17"/>
+      <c r="C659" s="18"/>
+      <c r="D659" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E659" s="18"/>
+      <c r="F659" s="18"/>
+      <c r="G659" s="19"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="4"/>
+      <c r="B660" s="5"/>
+      <c r="C660" s="6"/>
+      <c r="D660" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E660" s="6"/>
+      <c r="F660" s="6"/>
+      <c r="G660" s="7"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="20"/>
+      <c r="B661" s="21"/>
+      <c r="C661" s="22"/>
+      <c r="D661" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E661" s="22"/>
+      <c r="F661" s="22"/>
+      <c r="G661" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3971" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4036" uniqueCount="102">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Ana Paula Pedrero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annia Mejia </t>
   </si>
   <si>
     <t/>
@@ -482,10 +485,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -493,13 +496,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -507,13 +510,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -665,7 +668,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G661" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G674" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -13797,154 +13800,310 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" s="4"/>
-      <c r="B562" s="5"/>
-      <c r="C562" s="6"/>
-      <c r="D562" s="6" t="s">
+      <c r="A562" s="12">
+        <v>45922.888328773144</v>
+      </c>
+      <c r="B562" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C562" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D562" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E562" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F562" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G562" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="8">
+        <v>45922.890252083336</v>
+      </c>
+      <c r="B563" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C563" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D563" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E563" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F563" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G563" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="12">
+        <v>45922.893554571754</v>
+      </c>
+      <c r="B564" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C564" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D564" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E564" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F564" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G564" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="8">
+        <v>45923.622780474536</v>
+      </c>
+      <c r="B565" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C565" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D565" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E565" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F565" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G565" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="12">
+        <v>45923.65518962963</v>
+      </c>
+      <c r="B566" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C566" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D566" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E566" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F566" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G566" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="8">
+        <v>45923.66197407407</v>
+      </c>
+      <c r="B567" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C567" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D567" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E562" s="6"/>
-      <c r="F562" s="6"/>
-      <c r="G562" s="7"/>
-    </row>
-    <row r="563">
-      <c r="A563" s="16"/>
-      <c r="B563" s="17"/>
-      <c r="C563" s="18"/>
-      <c r="D563" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E563" s="18"/>
-      <c r="F563" s="18"/>
-      <c r="G563" s="19"/>
-    </row>
-    <row r="564">
-      <c r="A564" s="4"/>
-      <c r="B564" s="5"/>
-      <c r="C564" s="6"/>
-      <c r="D564" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E564" s="6"/>
-      <c r="F564" s="6"/>
-      <c r="G564" s="7"/>
-    </row>
-    <row r="565">
-      <c r="A565" s="16"/>
-      <c r="B565" s="17"/>
-      <c r="C565" s="18"/>
-      <c r="D565" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E565" s="18"/>
-      <c r="F565" s="18"/>
-      <c r="G565" s="19"/>
-    </row>
-    <row r="566">
-      <c r="A566" s="4"/>
-      <c r="B566" s="5"/>
-      <c r="C566" s="6"/>
-      <c r="D566" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E566" s="6"/>
-      <c r="F566" s="6"/>
-      <c r="G566" s="7"/>
-    </row>
-    <row r="567">
-      <c r="A567" s="16"/>
-      <c r="B567" s="17"/>
-      <c r="C567" s="18"/>
-      <c r="D567" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E567" s="18"/>
-      <c r="F567" s="18"/>
-      <c r="G567" s="19"/>
+      <c r="E567" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F567" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G567" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="568">
-      <c r="A568" s="4"/>
-      <c r="B568" s="5"/>
-      <c r="C568" s="6"/>
-      <c r="D568" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E568" s="6"/>
-      <c r="F568" s="6"/>
-      <c r="G568" s="7"/>
+      <c r="A568" s="12">
+        <v>45923.6745968287</v>
+      </c>
+      <c r="B568" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C568" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D568" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E568" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F568" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G568" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="569">
-      <c r="A569" s="16"/>
-      <c r="B569" s="17"/>
-      <c r="C569" s="18"/>
-      <c r="D569" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E569" s="18"/>
-      <c r="F569" s="18"/>
-      <c r="G569" s="19"/>
+      <c r="A569" s="8">
+        <v>45924.497939629626</v>
+      </c>
+      <c r="B569" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C569" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D569" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E569" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F569" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G569" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="570">
-      <c r="A570" s="4"/>
-      <c r="B570" s="5"/>
-      <c r="C570" s="6"/>
-      <c r="D570" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E570" s="6"/>
-      <c r="F570" s="6"/>
-      <c r="G570" s="7"/>
+      <c r="A570" s="12">
+        <v>45924.508479745375</v>
+      </c>
+      <c r="B570" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C570" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D570" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E570" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F570" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G570" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="571">
-      <c r="A571" s="16"/>
-      <c r="B571" s="17"/>
-      <c r="C571" s="18"/>
-      <c r="D571" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E571" s="18"/>
-      <c r="F571" s="18"/>
-      <c r="G571" s="19"/>
+      <c r="A571" s="8">
+        <v>45924.509379282405</v>
+      </c>
+      <c r="B571" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C571" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D571" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E571" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F571" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G571" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="572">
-      <c r="A572" s="4"/>
-      <c r="B572" s="5"/>
-      <c r="C572" s="6"/>
-      <c r="D572" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E572" s="6"/>
-      <c r="F572" s="6"/>
-      <c r="G572" s="7"/>
+      <c r="A572" s="12">
+        <v>45924.55037964121</v>
+      </c>
+      <c r="B572" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C572" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D572" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E572" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F572" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G572" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="573">
-      <c r="A573" s="16"/>
-      <c r="B573" s="17"/>
-      <c r="C573" s="18"/>
-      <c r="D573" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E573" s="18"/>
-      <c r="F573" s="18"/>
-      <c r="G573" s="19"/>
+      <c r="A573" s="8">
+        <v>45924.553432650464</v>
+      </c>
+      <c r="B573" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C573" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D573" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E573" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F573" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G573" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="574">
-      <c r="A574" s="4"/>
-      <c r="B574" s="5"/>
-      <c r="C574" s="6"/>
-      <c r="D574" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E574" s="6"/>
-      <c r="F574" s="6"/>
-      <c r="G574" s="7"/>
+      <c r="A574" s="12">
+        <v>45924.58756994213</v>
+      </c>
+      <c r="B574" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C574" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D574" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E574" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F574" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G574" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="16"/>
       <c r="B575" s="17"/>
       <c r="C575" s="18"/>
       <c r="D575" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E575" s="18"/>
       <c r="F575" s="18"/>
@@ -13955,7 +14114,7 @@
       <c r="B576" s="5"/>
       <c r="C576" s="6"/>
       <c r="D576" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E576" s="6"/>
       <c r="F576" s="6"/>
@@ -13966,7 +14125,7 @@
       <c r="B577" s="17"/>
       <c r="C577" s="18"/>
       <c r="D577" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E577" s="18"/>
       <c r="F577" s="18"/>
@@ -13977,7 +14136,7 @@
       <c r="B578" s="5"/>
       <c r="C578" s="6"/>
       <c r="D578" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E578" s="6"/>
       <c r="F578" s="6"/>
@@ -13988,7 +14147,7 @@
       <c r="B579" s="17"/>
       <c r="C579" s="18"/>
       <c r="D579" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E579" s="18"/>
       <c r="F579" s="18"/>
@@ -13999,7 +14158,7 @@
       <c r="B580" s="5"/>
       <c r="C580" s="6"/>
       <c r="D580" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E580" s="6"/>
       <c r="F580" s="6"/>
@@ -14010,7 +14169,7 @@
       <c r="B581" s="17"/>
       <c r="C581" s="18"/>
       <c r="D581" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E581" s="18"/>
       <c r="F581" s="18"/>
@@ -14021,7 +14180,7 @@
       <c r="B582" s="5"/>
       <c r="C582" s="6"/>
       <c r="D582" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E582" s="6"/>
       <c r="F582" s="6"/>
@@ -14032,7 +14191,7 @@
       <c r="B583" s="17"/>
       <c r="C583" s="18"/>
       <c r="D583" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E583" s="18"/>
       <c r="F583" s="18"/>
@@ -14043,7 +14202,7 @@
       <c r="B584" s="5"/>
       <c r="C584" s="6"/>
       <c r="D584" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E584" s="6"/>
       <c r="F584" s="6"/>
@@ -14054,7 +14213,7 @@
       <c r="B585" s="17"/>
       <c r="C585" s="18"/>
       <c r="D585" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E585" s="18"/>
       <c r="F585" s="18"/>
@@ -14065,7 +14224,7 @@
       <c r="B586" s="5"/>
       <c r="C586" s="6"/>
       <c r="D586" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E586" s="6"/>
       <c r="F586" s="6"/>
@@ -14076,7 +14235,7 @@
       <c r="B587" s="17"/>
       <c r="C587" s="18"/>
       <c r="D587" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E587" s="18"/>
       <c r="F587" s="18"/>
@@ -14087,7 +14246,7 @@
       <c r="B588" s="5"/>
       <c r="C588" s="6"/>
       <c r="D588" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E588" s="6"/>
       <c r="F588" s="6"/>
@@ -14098,7 +14257,7 @@
       <c r="B589" s="17"/>
       <c r="C589" s="18"/>
       <c r="D589" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E589" s="18"/>
       <c r="F589" s="18"/>
@@ -14109,7 +14268,7 @@
       <c r="B590" s="5"/>
       <c r="C590" s="6"/>
       <c r="D590" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E590" s="6"/>
       <c r="F590" s="6"/>
@@ -14120,7 +14279,7 @@
       <c r="B591" s="17"/>
       <c r="C591" s="18"/>
       <c r="D591" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E591" s="18"/>
       <c r="F591" s="18"/>
@@ -14131,7 +14290,7 @@
       <c r="B592" s="5"/>
       <c r="C592" s="6"/>
       <c r="D592" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E592" s="6"/>
       <c r="F592" s="6"/>
@@ -14142,7 +14301,7 @@
       <c r="B593" s="17"/>
       <c r="C593" s="18"/>
       <c r="D593" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E593" s="18"/>
       <c r="F593" s="18"/>
@@ -14153,7 +14312,7 @@
       <c r="B594" s="5"/>
       <c r="C594" s="6"/>
       <c r="D594" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E594" s="6"/>
       <c r="F594" s="6"/>
@@ -14164,7 +14323,7 @@
       <c r="B595" s="17"/>
       <c r="C595" s="18"/>
       <c r="D595" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E595" s="18"/>
       <c r="F595" s="18"/>
@@ -14175,7 +14334,7 @@
       <c r="B596" s="5"/>
       <c r="C596" s="6"/>
       <c r="D596" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E596" s="6"/>
       <c r="F596" s="6"/>
@@ -14186,7 +14345,7 @@
       <c r="B597" s="17"/>
       <c r="C597" s="18"/>
       <c r="D597" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E597" s="18"/>
       <c r="F597" s="18"/>
@@ -14197,7 +14356,7 @@
       <c r="B598" s="5"/>
       <c r="C598" s="6"/>
       <c r="D598" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E598" s="6"/>
       <c r="F598" s="6"/>
@@ -14208,7 +14367,7 @@
       <c r="B599" s="17"/>
       <c r="C599" s="18"/>
       <c r="D599" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E599" s="18"/>
       <c r="F599" s="18"/>
@@ -14219,7 +14378,7 @@
       <c r="B600" s="5"/>
       <c r="C600" s="6"/>
       <c r="D600" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E600" s="6"/>
       <c r="F600" s="6"/>
@@ -14230,7 +14389,7 @@
       <c r="B601" s="17"/>
       <c r="C601" s="18"/>
       <c r="D601" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E601" s="18"/>
       <c r="F601" s="18"/>
@@ -14241,7 +14400,7 @@
       <c r="B602" s="5"/>
       <c r="C602" s="6"/>
       <c r="D602" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E602" s="6"/>
       <c r="F602" s="6"/>
@@ -14252,7 +14411,7 @@
       <c r="B603" s="17"/>
       <c r="C603" s="18"/>
       <c r="D603" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E603" s="18"/>
       <c r="F603" s="18"/>
@@ -14263,7 +14422,7 @@
       <c r="B604" s="5"/>
       <c r="C604" s="6"/>
       <c r="D604" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E604" s="6"/>
       <c r="F604" s="6"/>
@@ -14274,7 +14433,7 @@
       <c r="B605" s="17"/>
       <c r="C605" s="18"/>
       <c r="D605" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E605" s="18"/>
       <c r="F605" s="18"/>
@@ -14285,7 +14444,7 @@
       <c r="B606" s="5"/>
       <c r="C606" s="6"/>
       <c r="D606" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E606" s="6"/>
       <c r="F606" s="6"/>
@@ -14296,7 +14455,7 @@
       <c r="B607" s="17"/>
       <c r="C607" s="18"/>
       <c r="D607" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E607" s="18"/>
       <c r="F607" s="18"/>
@@ -14307,7 +14466,7 @@
       <c r="B608" s="5"/>
       <c r="C608" s="6"/>
       <c r="D608" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E608" s="6"/>
       <c r="F608" s="6"/>
@@ -14318,7 +14477,7 @@
       <c r="B609" s="17"/>
       <c r="C609" s="18"/>
       <c r="D609" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E609" s="18"/>
       <c r="F609" s="18"/>
@@ -14329,7 +14488,7 @@
       <c r="B610" s="5"/>
       <c r="C610" s="6"/>
       <c r="D610" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E610" s="6"/>
       <c r="F610" s="6"/>
@@ -14340,7 +14499,7 @@
       <c r="B611" s="17"/>
       <c r="C611" s="18"/>
       <c r="D611" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E611" s="18"/>
       <c r="F611" s="18"/>
@@ -14351,7 +14510,7 @@
       <c r="B612" s="5"/>
       <c r="C612" s="6"/>
       <c r="D612" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E612" s="6"/>
       <c r="F612" s="6"/>
@@ -14362,7 +14521,7 @@
       <c r="B613" s="17"/>
       <c r="C613" s="18"/>
       <c r="D613" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E613" s="18"/>
       <c r="F613" s="18"/>
@@ -14373,7 +14532,7 @@
       <c r="B614" s="5"/>
       <c r="C614" s="6"/>
       <c r="D614" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E614" s="6"/>
       <c r="F614" s="6"/>
@@ -14384,7 +14543,7 @@
       <c r="B615" s="17"/>
       <c r="C615" s="18"/>
       <c r="D615" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E615" s="18"/>
       <c r="F615" s="18"/>
@@ -14395,7 +14554,7 @@
       <c r="B616" s="5"/>
       <c r="C616" s="6"/>
       <c r="D616" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E616" s="6"/>
       <c r="F616" s="6"/>
@@ -14406,7 +14565,7 @@
       <c r="B617" s="17"/>
       <c r="C617" s="18"/>
       <c r="D617" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E617" s="18"/>
       <c r="F617" s="18"/>
@@ -14417,7 +14576,7 @@
       <c r="B618" s="5"/>
       <c r="C618" s="6"/>
       <c r="D618" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E618" s="6"/>
       <c r="F618" s="6"/>
@@ -14428,7 +14587,7 @@
       <c r="B619" s="17"/>
       <c r="C619" s="18"/>
       <c r="D619" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E619" s="18"/>
       <c r="F619" s="18"/>
@@ -14439,7 +14598,7 @@
       <c r="B620" s="5"/>
       <c r="C620" s="6"/>
       <c r="D620" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E620" s="6"/>
       <c r="F620" s="6"/>
@@ -14450,7 +14609,7 @@
       <c r="B621" s="17"/>
       <c r="C621" s="18"/>
       <c r="D621" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E621" s="18"/>
       <c r="F621" s="18"/>
@@ -14461,7 +14620,7 @@
       <c r="B622" s="5"/>
       <c r="C622" s="6"/>
       <c r="D622" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E622" s="6"/>
       <c r="F622" s="6"/>
@@ -14472,7 +14631,7 @@
       <c r="B623" s="17"/>
       <c r="C623" s="18"/>
       <c r="D623" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E623" s="18"/>
       <c r="F623" s="18"/>
@@ -14483,7 +14642,7 @@
       <c r="B624" s="5"/>
       <c r="C624" s="6"/>
       <c r="D624" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E624" s="6"/>
       <c r="F624" s="6"/>
@@ -14494,7 +14653,7 @@
       <c r="B625" s="17"/>
       <c r="C625" s="18"/>
       <c r="D625" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E625" s="18"/>
       <c r="F625" s="18"/>
@@ -14505,7 +14664,7 @@
       <c r="B626" s="5"/>
       <c r="C626" s="6"/>
       <c r="D626" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E626" s="6"/>
       <c r="F626" s="6"/>
@@ -14516,7 +14675,7 @@
       <c r="B627" s="17"/>
       <c r="C627" s="18"/>
       <c r="D627" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E627" s="18"/>
       <c r="F627" s="18"/>
@@ -14527,7 +14686,7 @@
       <c r="B628" s="5"/>
       <c r="C628" s="6"/>
       <c r="D628" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E628" s="6"/>
       <c r="F628" s="6"/>
@@ -14538,7 +14697,7 @@
       <c r="B629" s="17"/>
       <c r="C629" s="18"/>
       <c r="D629" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E629" s="18"/>
       <c r="F629" s="18"/>
@@ -14549,7 +14708,7 @@
       <c r="B630" s="5"/>
       <c r="C630" s="6"/>
       <c r="D630" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E630" s="6"/>
       <c r="F630" s="6"/>
@@ -14560,7 +14719,7 @@
       <c r="B631" s="17"/>
       <c r="C631" s="18"/>
       <c r="D631" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E631" s="18"/>
       <c r="F631" s="18"/>
@@ -14571,7 +14730,7 @@
       <c r="B632" s="5"/>
       <c r="C632" s="6"/>
       <c r="D632" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E632" s="6"/>
       <c r="F632" s="6"/>
@@ -14582,7 +14741,7 @@
       <c r="B633" s="17"/>
       <c r="C633" s="18"/>
       <c r="D633" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E633" s="18"/>
       <c r="F633" s="18"/>
@@ -14593,7 +14752,7 @@
       <c r="B634" s="5"/>
       <c r="C634" s="6"/>
       <c r="D634" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E634" s="6"/>
       <c r="F634" s="6"/>
@@ -14604,7 +14763,7 @@
       <c r="B635" s="17"/>
       <c r="C635" s="18"/>
       <c r="D635" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E635" s="18"/>
       <c r="F635" s="18"/>
@@ -14615,7 +14774,7 @@
       <c r="B636" s="5"/>
       <c r="C636" s="6"/>
       <c r="D636" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E636" s="6"/>
       <c r="F636" s="6"/>
@@ -14626,7 +14785,7 @@
       <c r="B637" s="17"/>
       <c r="C637" s="18"/>
       <c r="D637" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E637" s="18"/>
       <c r="F637" s="18"/>
@@ -14637,7 +14796,7 @@
       <c r="B638" s="5"/>
       <c r="C638" s="6"/>
       <c r="D638" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E638" s="6"/>
       <c r="F638" s="6"/>
@@ -14648,7 +14807,7 @@
       <c r="B639" s="17"/>
       <c r="C639" s="18"/>
       <c r="D639" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E639" s="18"/>
       <c r="F639" s="18"/>
@@ -14659,7 +14818,7 @@
       <c r="B640" s="5"/>
       <c r="C640" s="6"/>
       <c r="D640" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E640" s="6"/>
       <c r="F640" s="6"/>
@@ -14670,7 +14829,7 @@
       <c r="B641" s="17"/>
       <c r="C641" s="18"/>
       <c r="D641" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E641" s="18"/>
       <c r="F641" s="18"/>
@@ -14681,7 +14840,7 @@
       <c r="B642" s="5"/>
       <c r="C642" s="6"/>
       <c r="D642" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E642" s="6"/>
       <c r="F642" s="6"/>
@@ -14692,7 +14851,7 @@
       <c r="B643" s="17"/>
       <c r="C643" s="18"/>
       <c r="D643" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E643" s="18"/>
       <c r="F643" s="18"/>
@@ -14703,7 +14862,7 @@
       <c r="B644" s="5"/>
       <c r="C644" s="6"/>
       <c r="D644" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E644" s="6"/>
       <c r="F644" s="6"/>
@@ -14714,7 +14873,7 @@
       <c r="B645" s="17"/>
       <c r="C645" s="18"/>
       <c r="D645" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E645" s="18"/>
       <c r="F645" s="18"/>
@@ -14725,7 +14884,7 @@
       <c r="B646" s="5"/>
       <c r="C646" s="6"/>
       <c r="D646" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E646" s="6"/>
       <c r="F646" s="6"/>
@@ -14736,7 +14895,7 @@
       <c r="B647" s="17"/>
       <c r="C647" s="18"/>
       <c r="D647" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E647" s="18"/>
       <c r="F647" s="18"/>
@@ -14747,7 +14906,7 @@
       <c r="B648" s="5"/>
       <c r="C648" s="6"/>
       <c r="D648" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E648" s="6"/>
       <c r="F648" s="6"/>
@@ -14758,7 +14917,7 @@
       <c r="B649" s="17"/>
       <c r="C649" s="18"/>
       <c r="D649" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E649" s="18"/>
       <c r="F649" s="18"/>
@@ -14769,7 +14928,7 @@
       <c r="B650" s="5"/>
       <c r="C650" s="6"/>
       <c r="D650" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E650" s="6"/>
       <c r="F650" s="6"/>
@@ -14780,7 +14939,7 @@
       <c r="B651" s="17"/>
       <c r="C651" s="18"/>
       <c r="D651" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E651" s="18"/>
       <c r="F651" s="18"/>
@@ -14791,7 +14950,7 @@
       <c r="B652" s="5"/>
       <c r="C652" s="6"/>
       <c r="D652" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E652" s="6"/>
       <c r="F652" s="6"/>
@@ -14802,7 +14961,7 @@
       <c r="B653" s="17"/>
       <c r="C653" s="18"/>
       <c r="D653" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E653" s="18"/>
       <c r="F653" s="18"/>
@@ -14813,7 +14972,7 @@
       <c r="B654" s="5"/>
       <c r="C654" s="6"/>
       <c r="D654" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E654" s="6"/>
       <c r="F654" s="6"/>
@@ -14824,7 +14983,7 @@
       <c r="B655" s="17"/>
       <c r="C655" s="18"/>
       <c r="D655" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E655" s="18"/>
       <c r="F655" s="18"/>
@@ -14835,7 +14994,7 @@
       <c r="B656" s="5"/>
       <c r="C656" s="6"/>
       <c r="D656" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E656" s="6"/>
       <c r="F656" s="6"/>
@@ -14846,7 +15005,7 @@
       <c r="B657" s="17"/>
       <c r="C657" s="18"/>
       <c r="D657" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E657" s="18"/>
       <c r="F657" s="18"/>
@@ -14857,7 +15016,7 @@
       <c r="B658" s="5"/>
       <c r="C658" s="6"/>
       <c r="D658" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E658" s="6"/>
       <c r="F658" s="6"/>
@@ -14868,7 +15027,7 @@
       <c r="B659" s="17"/>
       <c r="C659" s="18"/>
       <c r="D659" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E659" s="18"/>
       <c r="F659" s="18"/>
@@ -14879,22 +15038,165 @@
       <c r="B660" s="5"/>
       <c r="C660" s="6"/>
       <c r="D660" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E660" s="6"/>
       <c r="F660" s="6"/>
       <c r="G660" s="7"/>
     </row>
     <row r="661">
-      <c r="A661" s="20"/>
-      <c r="B661" s="21"/>
-      <c r="C661" s="22"/>
-      <c r="D661" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E661" s="22"/>
-      <c r="F661" s="22"/>
-      <c r="G661" s="23"/>
+      <c r="A661" s="16"/>
+      <c r="B661" s="17"/>
+      <c r="C661" s="18"/>
+      <c r="D661" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E661" s="18"/>
+      <c r="F661" s="18"/>
+      <c r="G661" s="19"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="4"/>
+      <c r="B662" s="5"/>
+      <c r="C662" s="6"/>
+      <c r="D662" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E662" s="6"/>
+      <c r="F662" s="6"/>
+      <c r="G662" s="7"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="16"/>
+      <c r="B663" s="17"/>
+      <c r="C663" s="18"/>
+      <c r="D663" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E663" s="18"/>
+      <c r="F663" s="18"/>
+      <c r="G663" s="19"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="4"/>
+      <c r="B664" s="5"/>
+      <c r="C664" s="6"/>
+      <c r="D664" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E664" s="6"/>
+      <c r="F664" s="6"/>
+      <c r="G664" s="7"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="16"/>
+      <c r="B665" s="17"/>
+      <c r="C665" s="18"/>
+      <c r="D665" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E665" s="18"/>
+      <c r="F665" s="18"/>
+      <c r="G665" s="19"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="4"/>
+      <c r="B666" s="5"/>
+      <c r="C666" s="6"/>
+      <c r="D666" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E666" s="6"/>
+      <c r="F666" s="6"/>
+      <c r="G666" s="7"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="16"/>
+      <c r="B667" s="17"/>
+      <c r="C667" s="18"/>
+      <c r="D667" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E667" s="18"/>
+      <c r="F667" s="18"/>
+      <c r="G667" s="19"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="4"/>
+      <c r="B668" s="5"/>
+      <c r="C668" s="6"/>
+      <c r="D668" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E668" s="6"/>
+      <c r="F668" s="6"/>
+      <c r="G668" s="7"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="16"/>
+      <c r="B669" s="17"/>
+      <c r="C669" s="18"/>
+      <c r="D669" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E669" s="18"/>
+      <c r="F669" s="18"/>
+      <c r="G669" s="19"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="4"/>
+      <c r="B670" s="5"/>
+      <c r="C670" s="6"/>
+      <c r="D670" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E670" s="6"/>
+      <c r="F670" s="6"/>
+      <c r="G670" s="7"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="16"/>
+      <c r="B671" s="17"/>
+      <c r="C671" s="18"/>
+      <c r="D671" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E671" s="18"/>
+      <c r="F671" s="18"/>
+      <c r="G671" s="19"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="4"/>
+      <c r="B672" s="5"/>
+      <c r="C672" s="6"/>
+      <c r="D672" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E672" s="6"/>
+      <c r="F672" s="6"/>
+      <c r="G672" s="7"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="16"/>
+      <c r="B673" s="17"/>
+      <c r="C673" s="18"/>
+      <c r="D673" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E673" s="18"/>
+      <c r="F673" s="18"/>
+      <c r="G673" s="19"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="20"/>
+      <c r="B674" s="21"/>
+      <c r="C674" s="22"/>
+      <c r="D674" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E674" s="22"/>
+      <c r="F674" s="22"/>
+      <c r="G674" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -14916,7 +15218,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>27</v>
@@ -14930,7 +15232,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="26" t="str">
         <f t="array" ref="E2:E1000">IF(D2:D1000="","", 
@@ -14949,24 +15251,24 @@
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -14977,7 +15279,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -14988,18 +15290,18 @@
         <v>17</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -15010,7 +15312,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -15021,18 +15323,18 @@
         <v>15</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -15043,7 +15345,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -15054,7 +15356,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -15065,40 +15367,40 @@
         <v>26</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -15109,40 +15411,40 @@
         <v>50</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -15153,7 +15455,7 @@
         <v>30</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -15164,7 +15466,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -15175,73 +15477,73 @@
         <v>39</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -15252,18 +15554,18 @@
         <v>56</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -15274,4853 +15576,4853 @@
         <v>56</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108">
       <c r="E108" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109">
       <c r="E109" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112">
       <c r="E112" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113">
       <c r="E113" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114">
       <c r="E114" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118">
       <c r="E118" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119">
       <c r="E119" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="120">
       <c r="E120" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121">
       <c r="E121" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123">
       <c r="E123" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124">
       <c r="E124" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125">
       <c r="E125" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126">
       <c r="E126" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127">
       <c r="E127" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128">
       <c r="E128" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="129">
       <c r="E129" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="130">
       <c r="E130" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="131">
       <c r="E131" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="132">
       <c r="E132" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133">
       <c r="E133" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134">
       <c r="E134" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135">
       <c r="E135" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="136">
       <c r="E136" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="137">
       <c r="E137" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="138">
       <c r="E138" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139">
       <c r="E139" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140">
       <c r="E140" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="141">
       <c r="E141" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="142">
       <c r="E142" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143">
       <c r="E143" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="144">
       <c r="E144" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="145">
       <c r="E145" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="146">
       <c r="E146" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="147">
       <c r="E147" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148">
       <c r="E148" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="149">
       <c r="E149" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="150">
       <c r="E150" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="151">
       <c r="E151" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="152">
       <c r="E152" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="153">
       <c r="E153" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="154">
       <c r="E154" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="155">
       <c r="E155" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="156">
       <c r="E156" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="157">
       <c r="E157" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="158">
       <c r="E158" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="159">
       <c r="E159" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="160">
       <c r="E160" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="161">
       <c r="E161" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="162">
       <c r="E162" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="163">
       <c r="E163" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="164">
       <c r="E164" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="165">
       <c r="E165" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="166">
       <c r="E166" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="167">
       <c r="E167" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="168">
       <c r="E168" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="169">
       <c r="E169" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="170">
       <c r="E170" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="171">
       <c r="E171" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="172">
       <c r="E172" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="173">
       <c r="E173" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="174">
       <c r="E174" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="175">
       <c r="E175" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="176">
       <c r="E176" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="177">
       <c r="E177" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="178">
       <c r="E178" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="179">
       <c r="E179" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="180">
       <c r="E180" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="181">
       <c r="E181" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="182">
       <c r="E182" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="183">
       <c r="E183" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="184">
       <c r="E184" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="185">
       <c r="E185" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="186">
       <c r="E186" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="187">
       <c r="E187" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="188">
       <c r="E188" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="189">
       <c r="E189" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="190">
       <c r="E190" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="191">
       <c r="E191" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="192">
       <c r="E192" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="193">
       <c r="E193" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="194">
       <c r="E194" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="195">
       <c r="E195" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="196">
       <c r="E196" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="197">
       <c r="E197" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="198">
       <c r="E198" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="199">
       <c r="E199" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="200">
       <c r="E200" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="201">
       <c r="E201" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="202">
       <c r="E202" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="203">
       <c r="E203" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="204">
       <c r="E204" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="205">
       <c r="E205" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="206">
       <c r="E206" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="207">
       <c r="E207" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="208">
       <c r="E208" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="209">
       <c r="E209" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="210">
       <c r="E210" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="211">
       <c r="E211" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="212">
       <c r="E212" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="213">
       <c r="E213" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="214">
       <c r="E214" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="215">
       <c r="E215" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="216">
       <c r="E216" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="217">
       <c r="E217" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="218">
       <c r="E218" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="219">
       <c r="E219" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="220">
       <c r="E220" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="221">
       <c r="E221" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="222">
       <c r="E222" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="223">
       <c r="E223" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="224">
       <c r="E224" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="225">
       <c r="E225" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="226">
       <c r="E226" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="227">
       <c r="E227" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="228">
       <c r="E228" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="229">
       <c r="E229" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="230">
       <c r="E230" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="231">
       <c r="E231" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="232">
       <c r="E232" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="233">
       <c r="E233" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="234">
       <c r="E234" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="235">
       <c r="E235" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="236">
       <c r="E236" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="237">
       <c r="E237" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="238">
       <c r="E238" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="239">
       <c r="E239" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="240">
       <c r="E240" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="241">
       <c r="E241" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="242">
       <c r="E242" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="243">
       <c r="E243" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="244">
       <c r="E244" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="245">
       <c r="E245" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="246">
       <c r="E246" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="247">
       <c r="E247" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="248">
       <c r="E248" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="249">
       <c r="E249" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="250">
       <c r="E250" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="251">
       <c r="E251" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="252">
       <c r="E252" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="253">
       <c r="E253" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="254">
       <c r="E254" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="255">
       <c r="E255" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="256">
       <c r="E256" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="257">
       <c r="E257" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="258">
       <c r="E258" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="259">
       <c r="E259" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="260">
       <c r="E260" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="261">
       <c r="E261" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="262">
       <c r="E262" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="263">
       <c r="E263" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="264">
       <c r="E264" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="265">
       <c r="E265" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="266">
       <c r="E266" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="267">
       <c r="E267" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="268">
       <c r="E268" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="269">
       <c r="E269" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="270">
       <c r="E270" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="271">
       <c r="E271" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="272">
       <c r="E272" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="273">
       <c r="E273" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="274">
       <c r="E274" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="275">
       <c r="E275" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="276">
       <c r="E276" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="277">
       <c r="E277" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="278">
       <c r="E278" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="279">
       <c r="E279" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="280">
       <c r="E280" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="281">
       <c r="E281" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="282">
       <c r="E282" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="283">
       <c r="E283" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="284">
       <c r="E284" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="285">
       <c r="E285" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="286">
       <c r="E286" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="287">
       <c r="E287" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="288">
       <c r="E288" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="289">
       <c r="E289" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="290">
       <c r="E290" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="291">
       <c r="E291" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="292">
       <c r="E292" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="293">
       <c r="E293" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="294">
       <c r="E294" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="295">
       <c r="E295" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="296">
       <c r="E296" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="297">
       <c r="E297" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="298">
       <c r="E298" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="299">
       <c r="E299" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="300">
       <c r="E300" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="301">
       <c r="E301" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="302">
       <c r="E302" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="303">
       <c r="E303" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="304">
       <c r="E304" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="305">
       <c r="E305" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="306">
       <c r="E306" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="307">
       <c r="E307" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="308">
       <c r="E308" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="309">
       <c r="E309" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="310">
       <c r="E310" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="311">
       <c r="E311" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="312">
       <c r="E312" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="313">
       <c r="E313" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="314">
       <c r="E314" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="315">
       <c r="E315" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="316">
       <c r="E316" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="317">
       <c r="E317" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="318">
       <c r="E318" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="319">
       <c r="E319" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="320">
       <c r="E320" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="321">
       <c r="E321" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="322">
       <c r="E322" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="323">
       <c r="E323" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="324">
       <c r="E324" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="325">
       <c r="E325" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="326">
       <c r="E326" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="327">
       <c r="E327" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="328">
       <c r="E328" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="329">
       <c r="E329" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="330">
       <c r="E330" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="331">
       <c r="E331" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="332">
       <c r="E332" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="333">
       <c r="E333" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="334">
       <c r="E334" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="335">
       <c r="E335" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="336">
       <c r="E336" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="337">
       <c r="E337" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="338">
       <c r="E338" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="339">
       <c r="E339" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="340">
       <c r="E340" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="341">
       <c r="E341" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="342">
       <c r="E342" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="343">
       <c r="E343" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="344">
       <c r="E344" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="345">
       <c r="E345" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="346">
       <c r="E346" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="347">
       <c r="E347" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="348">
       <c r="E348" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="349">
       <c r="E349" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="350">
       <c r="E350" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="351">
       <c r="E351" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="352">
       <c r="E352" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="353">
       <c r="E353" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="354">
       <c r="E354" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="355">
       <c r="E355" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="356">
       <c r="E356" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="357">
       <c r="E357" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="358">
       <c r="E358" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="359">
       <c r="E359" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="360">
       <c r="E360" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="361">
       <c r="E361" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="362">
       <c r="E362" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="363">
       <c r="E363" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="364">
       <c r="E364" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="365">
       <c r="E365" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="366">
       <c r="E366" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="367">
       <c r="E367" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="368">
       <c r="E368" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="369">
       <c r="E369" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="370">
       <c r="E370" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="371">
       <c r="E371" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="372">
       <c r="E372" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="373">
       <c r="E373" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="374">
       <c r="E374" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="375">
       <c r="E375" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="376">
       <c r="E376" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="377">
       <c r="E377" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="378">
       <c r="E378" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="379">
       <c r="E379" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="380">
       <c r="E380" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="381">
       <c r="E381" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="382">
       <c r="E382" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="383">
       <c r="E383" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="384">
       <c r="E384" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="385">
       <c r="E385" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="386">
       <c r="E386" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="387">
       <c r="E387" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="388">
       <c r="E388" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="389">
       <c r="E389" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="390">
       <c r="E390" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="391">
       <c r="E391" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="392">
       <c r="E392" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="393">
       <c r="E393" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="394">
       <c r="E394" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="395">
       <c r="E395" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="396">
       <c r="E396" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="397">
       <c r="E397" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="398">
       <c r="E398" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="399">
       <c r="E399" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="400">
       <c r="E400" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="401">
       <c r="E401" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="402">
       <c r="E402" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="403">
       <c r="E403" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="404">
       <c r="E404" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="405">
       <c r="E405" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="406">
       <c r="E406" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="407">
       <c r="E407" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="408">
       <c r="E408" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="409">
       <c r="E409" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="410">
       <c r="E410" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="411">
       <c r="E411" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="412">
       <c r="E412" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="413">
       <c r="E413" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="414">
       <c r="E414" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="415">
       <c r="E415" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="416">
       <c r="E416" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="417">
       <c r="E417" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="418">
       <c r="E418" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="419">
       <c r="E419" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="420">
       <c r="E420" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="421">
       <c r="E421" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="422">
       <c r="E422" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="423">
       <c r="E423" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="424">
       <c r="E424" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="425">
       <c r="E425" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="426">
       <c r="E426" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="427">
       <c r="E427" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="428">
       <c r="E428" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="429">
       <c r="E429" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="430">
       <c r="E430" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="431">
       <c r="E431" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="432">
       <c r="E432" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="433">
       <c r="E433" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="434">
       <c r="E434" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="435">
       <c r="E435" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="436">
       <c r="E436" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="437">
       <c r="E437" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="438">
       <c r="E438" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="439">
       <c r="E439" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="440">
       <c r="E440" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="441">
       <c r="E441" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="442">
       <c r="E442" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="443">
       <c r="E443" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="444">
       <c r="E444" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="445">
       <c r="E445" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="446">
       <c r="E446" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="447">
       <c r="E447" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="448">
       <c r="E448" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="449">
       <c r="E449" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="450">
       <c r="E450" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="451">
       <c r="E451" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="452">
       <c r="E452" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="453">
       <c r="E453" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="454">
       <c r="E454" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="455">
       <c r="E455" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="456">
       <c r="E456" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="457">
       <c r="E457" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="458">
       <c r="E458" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="459">
       <c r="E459" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="460">
       <c r="E460" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="461">
       <c r="E461" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="462">
       <c r="E462" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="463">
       <c r="E463" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="464">
       <c r="E464" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="465">
       <c r="E465" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="466">
       <c r="E466" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="467">
       <c r="E467" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="468">
       <c r="E468" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="469">
       <c r="E469" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="470">
       <c r="E470" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="471">
       <c r="E471" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="472">
       <c r="E472" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="473">
       <c r="E473" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="474">
       <c r="E474" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="475">
       <c r="E475" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="476">
       <c r="E476" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="477">
       <c r="E477" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="478">
       <c r="E478" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="479">
       <c r="E479" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="480">
       <c r="E480" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="481">
       <c r="E481" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="482">
       <c r="E482" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="483">
       <c r="E483" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="484">
       <c r="E484" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="485">
       <c r="E485" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="486">
       <c r="E486" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="487">
       <c r="E487" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="488">
       <c r="E488" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="489">
       <c r="E489" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="490">
       <c r="E490" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="491">
       <c r="E491" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="492">
       <c r="E492" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="493">
       <c r="E493" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="494">
       <c r="E494" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="495">
       <c r="E495" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="496">
       <c r="E496" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="497">
       <c r="E497" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="498">
       <c r="E498" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="499">
       <c r="E499" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="500">
       <c r="E500" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="501">
       <c r="E501" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="502">
       <c r="E502" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="503">
       <c r="E503" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="504">
       <c r="E504" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="505">
       <c r="E505" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="506">
       <c r="E506" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="507">
       <c r="E507" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="508">
       <c r="E508" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="509">
       <c r="E509" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="510">
       <c r="E510" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="511">
       <c r="E511" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="512">
       <c r="E512" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="513">
       <c r="E513" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="514">
       <c r="E514" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="515">
       <c r="E515" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="516">
       <c r="E516" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="517">
       <c r="E517" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="518">
       <c r="E518" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="519">
       <c r="E519" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="520">
       <c r="E520" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="521">
       <c r="E521" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="522">
       <c r="E522" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="523">
       <c r="E523" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="524">
       <c r="E524" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="525">
       <c r="E525" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="526">
       <c r="E526" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="527">
       <c r="E527" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="528">
       <c r="E528" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="529">
       <c r="E529" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="530">
       <c r="E530" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="531">
       <c r="E531" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="532">
       <c r="E532" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="533">
       <c r="E533" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="534">
       <c r="E534" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="535">
       <c r="E535" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="536">
       <c r="E536" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="537">
       <c r="E537" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="538">
       <c r="E538" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="539">
       <c r="E539" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="540">
       <c r="E540" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="541">
       <c r="E541" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="542">
       <c r="E542" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="543">
       <c r="E543" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="544">
       <c r="E544" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="545">
       <c r="E545" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="546">
       <c r="E546" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="547">
       <c r="E547" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="548">
       <c r="E548" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="549">
       <c r="E549" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="550">
       <c r="E550" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="551">
       <c r="E551" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="552">
       <c r="E552" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="553">
       <c r="E553" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="554">
       <c r="E554" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="555">
       <c r="E555" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="556">
       <c r="E556" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="557">
       <c r="E557" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="558">
       <c r="E558" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="559">
       <c r="E559" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="560">
       <c r="E560" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="561">
       <c r="E561" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="562">
       <c r="E562" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="563">
       <c r="E563" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="564">
       <c r="E564" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="565">
       <c r="E565" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="566">
       <c r="E566" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="567">
       <c r="E567" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="568">
       <c r="E568" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="569">
       <c r="E569" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="570">
       <c r="E570" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="571">
       <c r="E571" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="572">
       <c r="E572" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="573">
       <c r="E573" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="574">
       <c r="E574" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="575">
       <c r="E575" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="576">
       <c r="E576" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="577">
       <c r="E577" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="578">
       <c r="E578" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="579">
       <c r="E579" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="580">
       <c r="E580" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="581">
       <c r="E581" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="582">
       <c r="E582" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="583">
       <c r="E583" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="584">
       <c r="E584" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="585">
       <c r="E585" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="586">
       <c r="E586" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="587">
       <c r="E587" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="588">
       <c r="E588" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="589">
       <c r="E589" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="590">
       <c r="E590" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="591">
       <c r="E591" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="592">
       <c r="E592" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="593">
       <c r="E593" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="594">
       <c r="E594" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="595">
       <c r="E595" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="596">
       <c r="E596" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="597">
       <c r="E597" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="598">
       <c r="E598" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="599">
       <c r="E599" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="600">
       <c r="E600" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="601">
       <c r="E601" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="602">
       <c r="E602" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="603">
       <c r="E603" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="604">
       <c r="E604" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="605">
       <c r="E605" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="606">
       <c r="E606" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="607">
       <c r="E607" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="608">
       <c r="E608" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="609">
       <c r="E609" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="610">
       <c r="E610" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="611">
       <c r="E611" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="612">
       <c r="E612" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="613">
       <c r="E613" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="614">
       <c r="E614" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="615">
       <c r="E615" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="616">
       <c r="E616" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="617">
       <c r="E617" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="618">
       <c r="E618" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="619">
       <c r="E619" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="620">
       <c r="E620" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="621">
       <c r="E621" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="622">
       <c r="E622" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="623">
       <c r="E623" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="624">
       <c r="E624" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="625">
       <c r="E625" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="626">
       <c r="E626" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="627">
       <c r="E627" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="628">
       <c r="E628" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="629">
       <c r="E629" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="630">
       <c r="E630" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="631">
       <c r="E631" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="632">
       <c r="E632" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="633">
       <c r="E633" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="634">
       <c r="E634" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="635">
       <c r="E635" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="636">
       <c r="E636" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="637">
       <c r="E637" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="638">
       <c r="E638" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="639">
       <c r="E639" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="640">
       <c r="E640" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="641">
       <c r="E641" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="642">
       <c r="E642" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="643">
       <c r="E643" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="644">
       <c r="E644" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="645">
       <c r="E645" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="646">
       <c r="E646" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="647">
       <c r="E647" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="648">
       <c r="E648" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="649">
       <c r="E649" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="650">
       <c r="E650" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="651">
       <c r="E651" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="652">
       <c r="E652" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="653">
       <c r="E653" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="654">
       <c r="E654" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="655">
       <c r="E655" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="656">
       <c r="E656" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="657">
       <c r="E657" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="658">
       <c r="E658" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="659">
       <c r="E659" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="660">
       <c r="E660" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="661">
       <c r="E661" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="662">
       <c r="E662" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="663">
       <c r="E663" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="664">
       <c r="E664" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="665">
       <c r="E665" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="666">
       <c r="E666" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="667">
       <c r="E667" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="668">
       <c r="E668" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="669">
       <c r="E669" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="670">
       <c r="E670" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="671">
       <c r="E671" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="672">
       <c r="E672" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="673">
       <c r="E673" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="674">
       <c r="E674" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="675">
       <c r="E675" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="676">
       <c r="E676" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="677">
       <c r="E677" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="678">
       <c r="E678" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="679">
       <c r="E679" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="680">
       <c r="E680" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="681">
       <c r="E681" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="682">
       <c r="E682" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="683">
       <c r="E683" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="684">
       <c r="E684" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="685">
       <c r="E685" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="686">
       <c r="E686" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="687">
       <c r="E687" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="688">
       <c r="E688" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="689">
       <c r="E689" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="690">
       <c r="E690" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="691">
       <c r="E691" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="692">
       <c r="E692" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="693">
       <c r="E693" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="694">
       <c r="E694" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="695">
       <c r="E695" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="696">
       <c r="E696" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="697">
       <c r="E697" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="698">
       <c r="E698" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="699">
       <c r="E699" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="700">
       <c r="E700" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="701">
       <c r="E701" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="702">
       <c r="E702" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="703">
       <c r="E703" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="704">
       <c r="E704" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="705">
       <c r="E705" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="706">
       <c r="E706" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="707">
       <c r="E707" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="708">
       <c r="E708" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="709">
       <c r="E709" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="710">
       <c r="E710" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="711">
       <c r="E711" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="712">
       <c r="E712" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="713">
       <c r="E713" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="714">
       <c r="E714" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="715">
       <c r="E715" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="716">
       <c r="E716" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="717">
       <c r="E717" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="718">
       <c r="E718" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="719">
       <c r="E719" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="720">
       <c r="E720" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="721">
       <c r="E721" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="722">
       <c r="E722" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="723">
       <c r="E723" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="724">
       <c r="E724" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="725">
       <c r="E725" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="726">
       <c r="E726" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="727">
       <c r="E727" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="728">
       <c r="E728" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="729">
       <c r="E729" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="730">
       <c r="E730" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="731">
       <c r="E731" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="732">
       <c r="E732" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="733">
       <c r="E733" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="734">
       <c r="E734" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="735">
       <c r="E735" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="736">
       <c r="E736" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="737">
       <c r="E737" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="738">
       <c r="E738" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="739">
       <c r="E739" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="740">
       <c r="E740" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="741">
       <c r="E741" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="742">
       <c r="E742" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="743">
       <c r="E743" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="744">
       <c r="E744" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="745">
       <c r="E745" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="746">
       <c r="E746" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="747">
       <c r="E747" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="748">
       <c r="E748" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="749">
       <c r="E749" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="750">
       <c r="E750" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="751">
       <c r="E751" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="752">
       <c r="E752" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="753">
       <c r="E753" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="754">
       <c r="E754" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="755">
       <c r="E755" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="756">
       <c r="E756" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="757">
       <c r="E757" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="758">
       <c r="E758" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="759">
       <c r="E759" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="760">
       <c r="E760" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="761">
       <c r="E761" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="762">
       <c r="E762" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="763">
       <c r="E763" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="764">
       <c r="E764" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="765">
       <c r="E765" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="766">
       <c r="E766" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="767">
       <c r="E767" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="768">
       <c r="E768" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="769">
       <c r="E769" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="770">
       <c r="E770" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="771">
       <c r="E771" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="772">
       <c r="E772" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="773">
       <c r="E773" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="774">
       <c r="E774" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="775">
       <c r="E775" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="776">
       <c r="E776" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="777">
       <c r="E777" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="778">
       <c r="E778" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="779">
       <c r="E779" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="780">
       <c r="E780" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="781">
       <c r="E781" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="782">
       <c r="E782" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="783">
       <c r="E783" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="784">
       <c r="E784" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="785">
       <c r="E785" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="786">
       <c r="E786" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="787">
       <c r="E787" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="788">
       <c r="E788" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="789">
       <c r="E789" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="790">
       <c r="E790" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="791">
       <c r="E791" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="792">
       <c r="E792" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="793">
       <c r="E793" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="794">
       <c r="E794" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="795">
       <c r="E795" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="796">
       <c r="E796" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="797">
       <c r="E797" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="798">
       <c r="E798" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="799">
       <c r="E799" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="800">
       <c r="E800" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="801">
       <c r="E801" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="802">
       <c r="E802" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="803">
       <c r="E803" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="804">
       <c r="E804" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="805">
       <c r="E805" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="806">
       <c r="E806" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="807">
       <c r="E807" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="808">
       <c r="E808" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="809">
       <c r="E809" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="810">
       <c r="E810" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="811">
       <c r="E811" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="812">
       <c r="E812" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="813">
       <c r="E813" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="814">
       <c r="E814" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="815">
       <c r="E815" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="816">
       <c r="E816" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="817">
       <c r="E817" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="818">
       <c r="E818" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="819">
       <c r="E819" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="820">
       <c r="E820" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="821">
       <c r="E821" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="822">
       <c r="E822" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="823">
       <c r="E823" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="824">
       <c r="E824" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="825">
       <c r="E825" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="826">
       <c r="E826" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="827">
       <c r="E827" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="828">
       <c r="E828" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="829">
       <c r="E829" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="830">
       <c r="E830" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="831">
       <c r="E831" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="832">
       <c r="E832" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="833">
       <c r="E833" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="834">
       <c r="E834" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="835">
       <c r="E835" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="836">
       <c r="E836" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="837">
       <c r="E837" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="838">
       <c r="E838" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="839">
       <c r="E839" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="840">
       <c r="E840" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="841">
       <c r="E841" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="842">
       <c r="E842" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="843">
       <c r="E843" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="844">
       <c r="E844" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="845">
       <c r="E845" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="846">
       <c r="E846" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="847">
       <c r="E847" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="848">
       <c r="E848" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="849">
       <c r="E849" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="850">
       <c r="E850" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="851">
       <c r="E851" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="852">
       <c r="E852" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="853">
       <c r="E853" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="854">
       <c r="E854" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="855">
       <c r="E855" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="856">
       <c r="E856" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="857">
       <c r="E857" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="858">
       <c r="E858" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="859">
       <c r="E859" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="860">
       <c r="E860" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="861">
       <c r="E861" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="862">
       <c r="E862" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="863">
       <c r="E863" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="864">
       <c r="E864" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="865">
       <c r="E865" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="866">
       <c r="E866" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="867">
       <c r="E867" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="868">
       <c r="E868" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="869">
       <c r="E869" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="870">
       <c r="E870" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="871">
       <c r="E871" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="872">
       <c r="E872" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="873">
       <c r="E873" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="874">
       <c r="E874" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="875">
       <c r="E875" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="876">
       <c r="E876" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="877">
       <c r="E877" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="878">
       <c r="E878" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="879">
       <c r="E879" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="880">
       <c r="E880" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="881">
       <c r="E881" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="882">
       <c r="E882" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="883">
       <c r="E883" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="884">
       <c r="E884" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="885">
       <c r="E885" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="886">
       <c r="E886" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="887">
       <c r="E887" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="888">
       <c r="E888" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="889">
       <c r="E889" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="890">
       <c r="E890" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="891">
       <c r="E891" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="892">
       <c r="E892" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="893">
       <c r="E893" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="894">
       <c r="E894" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="895">
       <c r="E895" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="896">
       <c r="E896" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="897">
       <c r="E897" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="898">
       <c r="E898" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="899">
       <c r="E899" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="900">
       <c r="E900" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="901">
       <c r="E901" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="902">
       <c r="E902" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="903">
       <c r="E903" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="904">
       <c r="E904" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="905">
       <c r="E905" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="906">
       <c r="E906" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="907">
       <c r="E907" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="908">
       <c r="E908" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="909">
       <c r="E909" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="910">
       <c r="E910" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="911">
       <c r="E911" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="912">
       <c r="E912" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="913">
       <c r="E913" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="914">
       <c r="E914" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="915">
       <c r="E915" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="916">
       <c r="E916" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="917">
       <c r="E917" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="918">
       <c r="E918" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="919">
       <c r="E919" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="920">
       <c r="E920" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="921">
       <c r="E921" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="922">
       <c r="E922" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="923">
       <c r="E923" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="924">
       <c r="E924" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="925">
       <c r="E925" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="926">
       <c r="E926" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="927">
       <c r="E927" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="928">
       <c r="E928" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="929">
       <c r="E929" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="930">
       <c r="E930" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="931">
       <c r="E931" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="932">
       <c r="E932" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="933">
       <c r="E933" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="934">
       <c r="E934" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="935">
       <c r="E935" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="936">
       <c r="E936" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="937">
       <c r="E937" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="938">
       <c r="E938" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="939">
       <c r="E939" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="940">
       <c r="E940" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="941">
       <c r="E941" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="942">
       <c r="E942" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="943">
       <c r="E943" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="944">
       <c r="E944" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="945">
       <c r="E945" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="946">
       <c r="E946" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="947">
       <c r="E947" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="948">
       <c r="E948" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="949">
       <c r="E949" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="950">
       <c r="E950" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="951">
       <c r="E951" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="952">
       <c r="E952" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="953">
       <c r="E953" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="954">
       <c r="E954" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="955">
       <c r="E955" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="956">
       <c r="E956" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="957">
       <c r="E957" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="958">
       <c r="E958" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="959">
       <c r="E959" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="960">
       <c r="E960" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="961">
       <c r="E961" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="962">
       <c r="E962" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="963">
       <c r="E963" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="964">
       <c r="E964" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="965">
       <c r="E965" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="966">
       <c r="E966" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="967">
       <c r="E967" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="968">
       <c r="E968" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="969">
       <c r="E969" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="970">
       <c r="E970" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="971">
       <c r="E971" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="972">
       <c r="E972" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="973">
       <c r="E973" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="974">
       <c r="E974" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="975">
       <c r="E975" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="976">
       <c r="E976" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="977">
       <c r="E977" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="978">
       <c r="E978" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="979">
       <c r="E979" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="980">
       <c r="E980" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="981">
       <c r="E981" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="982">
       <c r="E982" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="983">
       <c r="E983" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="984">
       <c r="E984" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="985">
       <c r="E985" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="986">
       <c r="E986" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="987">
       <c r="E987" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="988">
       <c r="E988" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="989">
       <c r="E989" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="990">
       <c r="E990" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="991">
       <c r="E991" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="992">
       <c r="E992" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="993">
       <c r="E993" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="994">
       <c r="E994" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="995">
       <c r="E995" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="996">
       <c r="E996" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="997">
       <c r="E997" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="998">
       <c r="E998" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="999">
       <c r="E999" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1000">
       <c r="E1000" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4036" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4056" uniqueCount="102">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G674" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G678" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -14099,48 +14099,96 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" s="16"/>
-      <c r="B575" s="17"/>
-      <c r="C575" s="18"/>
-      <c r="D575" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E575" s="18"/>
-      <c r="F575" s="18"/>
-      <c r="G575" s="19"/>
+      <c r="A575" s="8">
+        <v>45925.51610770833</v>
+      </c>
+      <c r="B575" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C575" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D575" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E575" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F575" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G575" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="576">
-      <c r="A576" s="4"/>
-      <c r="B576" s="5"/>
-      <c r="C576" s="6"/>
-      <c r="D576" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E576" s="6"/>
-      <c r="F576" s="6"/>
-      <c r="G576" s="7"/>
+      <c r="A576" s="12">
+        <v>45925.58681137732</v>
+      </c>
+      <c r="B576" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C576" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D576" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E576" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F576" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G576" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="577">
-      <c r="A577" s="16"/>
-      <c r="B577" s="17"/>
-      <c r="C577" s="18"/>
-      <c r="D577" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E577" s="18"/>
-      <c r="F577" s="18"/>
-      <c r="G577" s="19"/>
+      <c r="A577" s="8">
+        <v>45925.58735072917</v>
+      </c>
+      <c r="B577" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C577" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D577" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E577" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F577" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G577" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="578">
-      <c r="A578" s="4"/>
-      <c r="B578" s="5"/>
-      <c r="C578" s="6"/>
-      <c r="D578" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E578" s="6"/>
-      <c r="F578" s="6"/>
-      <c r="G578" s="7"/>
+      <c r="A578" s="12">
+        <v>45925.593427569445</v>
+      </c>
+      <c r="B578" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C578" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D578" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E578" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F578" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G578" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="16"/>
@@ -15188,15 +15236,59 @@
       <c r="G673" s="19"/>
     </row>
     <row r="674">
-      <c r="A674" s="20"/>
-      <c r="B674" s="21"/>
-      <c r="C674" s="22"/>
-      <c r="D674" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E674" s="22"/>
-      <c r="F674" s="22"/>
-      <c r="G674" s="23"/>
+      <c r="A674" s="4"/>
+      <c r="B674" s="5"/>
+      <c r="C674" s="6"/>
+      <c r="D674" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E674" s="6"/>
+      <c r="F674" s="6"/>
+      <c r="G674" s="7"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="16"/>
+      <c r="B675" s="17"/>
+      <c r="C675" s="18"/>
+      <c r="D675" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E675" s="18"/>
+      <c r="F675" s="18"/>
+      <c r="G675" s="19"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="4"/>
+      <c r="B676" s="5"/>
+      <c r="C676" s="6"/>
+      <c r="D676" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E676" s="6"/>
+      <c r="F676" s="6"/>
+      <c r="G676" s="7"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="16"/>
+      <c r="B677" s="17"/>
+      <c r="C677" s="18"/>
+      <c r="D677" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E677" s="18"/>
+      <c r="F677" s="18"/>
+      <c r="G677" s="19"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="20"/>
+      <c r="B678" s="21"/>
+      <c r="C678" s="22"/>
+      <c r="D678" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E678" s="22"/>
+      <c r="F678" s="22"/>
+      <c r="G678" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4056" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4096" uniqueCount="102">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G678" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G686" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -14191,92 +14191,188 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" s="16"/>
-      <c r="B579" s="17"/>
-      <c r="C579" s="18"/>
-      <c r="D579" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E579" s="18"/>
-      <c r="F579" s="18"/>
-      <c r="G579" s="19"/>
+      <c r="A579" s="8">
+        <v>45926.92746545139</v>
+      </c>
+      <c r="B579" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C579" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D579" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E579" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F579" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G579" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="580">
-      <c r="A580" s="4"/>
-      <c r="B580" s="5"/>
-      <c r="C580" s="6"/>
-      <c r="D580" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E580" s="6"/>
-      <c r="F580" s="6"/>
-      <c r="G580" s="7"/>
+      <c r="A580" s="12">
+        <v>45926.99015803241</v>
+      </c>
+      <c r="B580" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C580" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D580" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E580" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F580" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G580" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="581">
-      <c r="A581" s="16"/>
-      <c r="B581" s="17"/>
-      <c r="C581" s="18"/>
-      <c r="D581" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E581" s="18"/>
-      <c r="F581" s="18"/>
-      <c r="G581" s="19"/>
+      <c r="A581" s="8">
+        <v>45928.54656295139</v>
+      </c>
+      <c r="B581" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C581" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D581" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E581" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F581" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G581" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="582">
-      <c r="A582" s="4"/>
-      <c r="B582" s="5"/>
-      <c r="C582" s="6"/>
-      <c r="D582" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E582" s="6"/>
-      <c r="F582" s="6"/>
-      <c r="G582" s="7"/>
+      <c r="A582" s="12">
+        <v>45928.73389120371</v>
+      </c>
+      <c r="B582" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C582" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D582" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E582" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F582" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G582" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="583">
-      <c r="A583" s="16"/>
-      <c r="B583" s="17"/>
-      <c r="C583" s="18"/>
-      <c r="D583" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E583" s="18"/>
-      <c r="F583" s="18"/>
-      <c r="G583" s="19"/>
+      <c r="A583" s="8">
+        <v>45929.58078930556</v>
+      </c>
+      <c r="B583" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C583" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D583" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E583" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F583" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G583" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="584">
-      <c r="A584" s="4"/>
-      <c r="B584" s="5"/>
-      <c r="C584" s="6"/>
-      <c r="D584" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E584" s="6"/>
-      <c r="F584" s="6"/>
-      <c r="G584" s="7"/>
+      <c r="A584" s="12">
+        <v>45929.641220370366</v>
+      </c>
+      <c r="B584" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C584" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D584" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E584" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F584" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G584" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="585">
-      <c r="A585" s="16"/>
-      <c r="B585" s="17"/>
-      <c r="C585" s="18"/>
-      <c r="D585" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E585" s="18"/>
-      <c r="F585" s="18"/>
-      <c r="G585" s="19"/>
+      <c r="A585" s="8">
+        <v>45929.64800074074</v>
+      </c>
+      <c r="B585" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C585" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D585" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E585" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F585" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G585" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="586">
-      <c r="A586" s="4"/>
-      <c r="B586" s="5"/>
-      <c r="C586" s="6"/>
-      <c r="D586" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E586" s="6"/>
-      <c r="F586" s="6"/>
-      <c r="G586" s="7"/>
+      <c r="A586" s="12">
+        <v>45929.648027476855</v>
+      </c>
+      <c r="B586" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C586" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D586" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E586" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F586" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G586" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="16"/>
@@ -15280,15 +15376,103 @@
       <c r="G677" s="19"/>
     </row>
     <row r="678">
-      <c r="A678" s="20"/>
-      <c r="B678" s="21"/>
-      <c r="C678" s="22"/>
-      <c r="D678" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E678" s="22"/>
-      <c r="F678" s="22"/>
-      <c r="G678" s="23"/>
+      <c r="A678" s="4"/>
+      <c r="B678" s="5"/>
+      <c r="C678" s="6"/>
+      <c r="D678" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E678" s="6"/>
+      <c r="F678" s="6"/>
+      <c r="G678" s="7"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="16"/>
+      <c r="B679" s="17"/>
+      <c r="C679" s="18"/>
+      <c r="D679" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E679" s="18"/>
+      <c r="F679" s="18"/>
+      <c r="G679" s="19"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="4"/>
+      <c r="B680" s="5"/>
+      <c r="C680" s="6"/>
+      <c r="D680" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E680" s="6"/>
+      <c r="F680" s="6"/>
+      <c r="G680" s="7"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="16"/>
+      <c r="B681" s="17"/>
+      <c r="C681" s="18"/>
+      <c r="D681" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E681" s="18"/>
+      <c r="F681" s="18"/>
+      <c r="G681" s="19"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="4"/>
+      <c r="B682" s="5"/>
+      <c r="C682" s="6"/>
+      <c r="D682" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E682" s="6"/>
+      <c r="F682" s="6"/>
+      <c r="G682" s="7"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="16"/>
+      <c r="B683" s="17"/>
+      <c r="C683" s="18"/>
+      <c r="D683" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E683" s="18"/>
+      <c r="F683" s="18"/>
+      <c r="G683" s="19"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="4"/>
+      <c r="B684" s="5"/>
+      <c r="C684" s="6"/>
+      <c r="D684" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E684" s="6"/>
+      <c r="F684" s="6"/>
+      <c r="G684" s="7"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="16"/>
+      <c r="B685" s="17"/>
+      <c r="C685" s="18"/>
+      <c r="D685" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E685" s="18"/>
+      <c r="F685" s="18"/>
+      <c r="G685" s="19"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="20"/>
+      <c r="B686" s="21"/>
+      <c r="C686" s="22"/>
+      <c r="D686" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E686" s="22"/>
+      <c r="F686" s="22"/>
+      <c r="G686" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4096" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4111" uniqueCount="102">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -485,10 +485,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -496,13 +496,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -510,13 +510,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G686" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G689" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -14375,37 +14375,73 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" s="16"/>
-      <c r="B587" s="17"/>
-      <c r="C587" s="18"/>
-      <c r="D587" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E587" s="18"/>
-      <c r="F587" s="18"/>
-      <c r="G587" s="19"/>
+      <c r="A587" s="8">
+        <v>45930.93262248843</v>
+      </c>
+      <c r="B587" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C587" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D587" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E587" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F587" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G587" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="588">
-      <c r="A588" s="4"/>
-      <c r="B588" s="5"/>
-      <c r="C588" s="6"/>
-      <c r="D588" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E588" s="6"/>
-      <c r="F588" s="6"/>
-      <c r="G588" s="7"/>
+      <c r="A588" s="12">
+        <v>45930.93987802083</v>
+      </c>
+      <c r="B588" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C588" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D588" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E588" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F588" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G588" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="589">
-      <c r="A589" s="16"/>
-      <c r="B589" s="17"/>
-      <c r="C589" s="18"/>
-      <c r="D589" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E589" s="18"/>
-      <c r="F589" s="18"/>
-      <c r="G589" s="19"/>
+      <c r="A589" s="8">
+        <v>45930.95141969908</v>
+      </c>
+      <c r="B589" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C589" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D589" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E589" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F589" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G589" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="4"/>
@@ -15464,15 +15500,48 @@
       <c r="G685" s="19"/>
     </row>
     <row r="686">
-      <c r="A686" s="20"/>
-      <c r="B686" s="21"/>
-      <c r="C686" s="22"/>
-      <c r="D686" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E686" s="22"/>
-      <c r="F686" s="22"/>
-      <c r="G686" s="23"/>
+      <c r="A686" s="4"/>
+      <c r="B686" s="5"/>
+      <c r="C686" s="6"/>
+      <c r="D686" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E686" s="6"/>
+      <c r="F686" s="6"/>
+      <c r="G686" s="7"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="16"/>
+      <c r="B687" s="17"/>
+      <c r="C687" s="18"/>
+      <c r="D687" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E687" s="18"/>
+      <c r="F687" s="18"/>
+      <c r="G687" s="19"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="4"/>
+      <c r="B688" s="5"/>
+      <c r="C688" s="6"/>
+      <c r="D688" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E688" s="6"/>
+      <c r="F688" s="6"/>
+      <c r="G688" s="7"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="20"/>
+      <c r="B689" s="21"/>
+      <c r="C689" s="22"/>
+      <c r="D689" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E689" s="22"/>
+      <c r="F689" s="22"/>
+      <c r="G689" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4111" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4171" uniqueCount="102">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G689" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G701" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -14444,136 +14444,280 @@
       </c>
     </row>
     <row r="590">
-      <c r="A590" s="4"/>
-      <c r="B590" s="5"/>
-      <c r="C590" s="6"/>
-      <c r="D590" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E590" s="6"/>
-      <c r="F590" s="6"/>
-      <c r="G590" s="7"/>
+      <c r="A590" s="12">
+        <v>45933.5549353588</v>
+      </c>
+      <c r="B590" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C590" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D590" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E590" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F590" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G590" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="591">
-      <c r="A591" s="16"/>
-      <c r="B591" s="17"/>
-      <c r="C591" s="18"/>
-      <c r="D591" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E591" s="18"/>
-      <c r="F591" s="18"/>
-      <c r="G591" s="19"/>
+      <c r="A591" s="8">
+        <v>45933.589317094906</v>
+      </c>
+      <c r="B591" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C591" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D591" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E591" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F591" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G591" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="592">
-      <c r="A592" s="4"/>
-      <c r="B592" s="5"/>
-      <c r="C592" s="6"/>
-      <c r="D592" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E592" s="6"/>
-      <c r="F592" s="6"/>
-      <c r="G592" s="7"/>
+      <c r="A592" s="12">
+        <v>45933.58955641204</v>
+      </c>
+      <c r="B592" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C592" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D592" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E592" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F592" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G592" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="593">
-      <c r="A593" s="16"/>
-      <c r="B593" s="17"/>
-      <c r="C593" s="18"/>
-      <c r="D593" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E593" s="18"/>
-      <c r="F593" s="18"/>
-      <c r="G593" s="19"/>
+      <c r="A593" s="8">
+        <v>45933.59414400463</v>
+      </c>
+      <c r="B593" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C593" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D593" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E593" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F593" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G593" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="594">
-      <c r="A594" s="4"/>
-      <c r="B594" s="5"/>
-      <c r="C594" s="6"/>
-      <c r="D594" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E594" s="6"/>
-      <c r="F594" s="6"/>
-      <c r="G594" s="7"/>
+      <c r="A594" s="12">
+        <v>45933.610001747686</v>
+      </c>
+      <c r="B594" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C594" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D594" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E594" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F594" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G594" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="595">
-      <c r="A595" s="16"/>
-      <c r="B595" s="17"/>
-      <c r="C595" s="18"/>
-      <c r="D595" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E595" s="18"/>
-      <c r="F595" s="18"/>
-      <c r="G595" s="19"/>
+      <c r="A595" s="8">
+        <v>45933.663822476854</v>
+      </c>
+      <c r="B595" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C595" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D595" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E595" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F595" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G595" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="596">
-      <c r="A596" s="4"/>
-      <c r="B596" s="5"/>
-      <c r="C596" s="6"/>
-      <c r="D596" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E596" s="6"/>
-      <c r="F596" s="6"/>
-      <c r="G596" s="7"/>
+      <c r="A596" s="12">
+        <v>45934.57078196759</v>
+      </c>
+      <c r="B596" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C596" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D596" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E596" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F596" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G596" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="597">
-      <c r="A597" s="16"/>
-      <c r="B597" s="17"/>
-      <c r="C597" s="18"/>
-      <c r="D597" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E597" s="18"/>
-      <c r="F597" s="18"/>
-      <c r="G597" s="19"/>
+      <c r="A597" s="8">
+        <v>45934.605708414354</v>
+      </c>
+      <c r="B597" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C597" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D597" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E597" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F597" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G597" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="598">
-      <c r="A598" s="4"/>
-      <c r="B598" s="5"/>
-      <c r="C598" s="6"/>
-      <c r="D598" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E598" s="6"/>
-      <c r="F598" s="6"/>
-      <c r="G598" s="7"/>
+      <c r="A598" s="12">
+        <v>45934.717456238424</v>
+      </c>
+      <c r="B598" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C598" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D598" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E598" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F598" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G598" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="599">
-      <c r="A599" s="16"/>
-      <c r="B599" s="17"/>
-      <c r="C599" s="18"/>
-      <c r="D599" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E599" s="18"/>
-      <c r="F599" s="18"/>
-      <c r="G599" s="19"/>
+      <c r="A599" s="8">
+        <v>45935.54215226852</v>
+      </c>
+      <c r="B599" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C599" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D599" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E599" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F599" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G599" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="600">
-      <c r="A600" s="4"/>
-      <c r="B600" s="5"/>
-      <c r="C600" s="6"/>
-      <c r="D600" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E600" s="6"/>
-      <c r="F600" s="6"/>
-      <c r="G600" s="7"/>
+      <c r="A600" s="12">
+        <v>45935.588249085646</v>
+      </c>
+      <c r="B600" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C600" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D600" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E600" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F600" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G600" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="601">
-      <c r="A601" s="16"/>
-      <c r="B601" s="17"/>
-      <c r="C601" s="18"/>
-      <c r="D601" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E601" s="18"/>
-      <c r="F601" s="18"/>
-      <c r="G601" s="19"/>
+      <c r="A601" s="8">
+        <v>45935.58890021991</v>
+      </c>
+      <c r="B601" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C601" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D601" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E601" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F601" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G601" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="4"/>
@@ -15533,15 +15677,147 @@
       <c r="G688" s="7"/>
     </row>
     <row r="689">
-      <c r="A689" s="20"/>
-      <c r="B689" s="21"/>
-      <c r="C689" s="22"/>
-      <c r="D689" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E689" s="22"/>
-      <c r="F689" s="22"/>
-      <c r="G689" s="23"/>
+      <c r="A689" s="16"/>
+      <c r="B689" s="17"/>
+      <c r="C689" s="18"/>
+      <c r="D689" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E689" s="18"/>
+      <c r="F689" s="18"/>
+      <c r="G689" s="19"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="4"/>
+      <c r="B690" s="5"/>
+      <c r="C690" s="6"/>
+      <c r="D690" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E690" s="6"/>
+      <c r="F690" s="6"/>
+      <c r="G690" s="7"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="16"/>
+      <c r="B691" s="17"/>
+      <c r="C691" s="18"/>
+      <c r="D691" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E691" s="18"/>
+      <c r="F691" s="18"/>
+      <c r="G691" s="19"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="4"/>
+      <c r="B692" s="5"/>
+      <c r="C692" s="6"/>
+      <c r="D692" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E692" s="6"/>
+      <c r="F692" s="6"/>
+      <c r="G692" s="7"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="16"/>
+      <c r="B693" s="17"/>
+      <c r="C693" s="18"/>
+      <c r="D693" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E693" s="18"/>
+      <c r="F693" s="18"/>
+      <c r="G693" s="19"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="4"/>
+      <c r="B694" s="5"/>
+      <c r="C694" s="6"/>
+      <c r="D694" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E694" s="6"/>
+      <c r="F694" s="6"/>
+      <c r="G694" s="7"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="16"/>
+      <c r="B695" s="17"/>
+      <c r="C695" s="18"/>
+      <c r="D695" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E695" s="18"/>
+      <c r="F695" s="18"/>
+      <c r="G695" s="19"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="4"/>
+      <c r="B696" s="5"/>
+      <c r="C696" s="6"/>
+      <c r="D696" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E696" s="6"/>
+      <c r="F696" s="6"/>
+      <c r="G696" s="7"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="16"/>
+      <c r="B697" s="17"/>
+      <c r="C697" s="18"/>
+      <c r="D697" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E697" s="18"/>
+      <c r="F697" s="18"/>
+      <c r="G697" s="19"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="4"/>
+      <c r="B698" s="5"/>
+      <c r="C698" s="6"/>
+      <c r="D698" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E698" s="6"/>
+      <c r="F698" s="6"/>
+      <c r="G698" s="7"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="16"/>
+      <c r="B699" s="17"/>
+      <c r="C699" s="18"/>
+      <c r="D699" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E699" s="18"/>
+      <c r="F699" s="18"/>
+      <c r="G699" s="19"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="4"/>
+      <c r="B700" s="5"/>
+      <c r="C700" s="6"/>
+      <c r="D700" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E700" s="6"/>
+      <c r="F700" s="6"/>
+      <c r="G700" s="7"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="20"/>
+      <c r="B701" s="21"/>
+      <c r="C701" s="22"/>
+      <c r="D701" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E701" s="22"/>
+      <c r="F701" s="22"/>
+      <c r="G701" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4171" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4196" uniqueCount="102">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -485,10 +485,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -496,13 +496,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -510,13 +510,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G701" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G706" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -14720,59 +14720,119 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" s="4"/>
-      <c r="B602" s="5"/>
-      <c r="C602" s="6"/>
-      <c r="D602" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E602" s="6"/>
-      <c r="F602" s="6"/>
-      <c r="G602" s="7"/>
+      <c r="A602" s="12">
+        <v>45936.97486393519</v>
+      </c>
+      <c r="B602" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C602" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D602" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E602" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F602" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G602" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="603">
-      <c r="A603" s="16"/>
-      <c r="B603" s="17"/>
-      <c r="C603" s="18"/>
-      <c r="D603" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E603" s="18"/>
-      <c r="F603" s="18"/>
-      <c r="G603" s="19"/>
+      <c r="A603" s="8">
+        <v>45937.0389235301</v>
+      </c>
+      <c r="B603" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C603" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D603" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E603" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F603" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G603" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="604">
-      <c r="A604" s="4"/>
-      <c r="B604" s="5"/>
-      <c r="C604" s="6"/>
-      <c r="D604" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E604" s="6"/>
-      <c r="F604" s="6"/>
-      <c r="G604" s="7"/>
+      <c r="A604" s="12">
+        <v>45937.03903605324</v>
+      </c>
+      <c r="B604" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C604" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D604" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E604" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F604" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G604" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="605">
-      <c r="A605" s="16"/>
-      <c r="B605" s="17"/>
-      <c r="C605" s="18"/>
-      <c r="D605" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E605" s="18"/>
-      <c r="F605" s="18"/>
-      <c r="G605" s="19"/>
+      <c r="A605" s="8">
+        <v>45937.03943954861</v>
+      </c>
+      <c r="B605" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C605" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D605" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E605" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F605" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G605" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="606">
-      <c r="A606" s="4"/>
-      <c r="B606" s="5"/>
-      <c r="C606" s="6"/>
-      <c r="D606" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E606" s="6"/>
-      <c r="F606" s="6"/>
-      <c r="G606" s="7"/>
+      <c r="A606" s="12">
+        <v>45937.34496048611</v>
+      </c>
+      <c r="B606" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C606" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D606" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E606" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F606" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G606" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="16"/>
@@ -15809,15 +15869,70 @@
       <c r="G700" s="7"/>
     </row>
     <row r="701">
-      <c r="A701" s="20"/>
-      <c r="B701" s="21"/>
-      <c r="C701" s="22"/>
-      <c r="D701" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E701" s="22"/>
-      <c r="F701" s="22"/>
-      <c r="G701" s="23"/>
+      <c r="A701" s="16"/>
+      <c r="B701" s="17"/>
+      <c r="C701" s="18"/>
+      <c r="D701" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E701" s="18"/>
+      <c r="F701" s="18"/>
+      <c r="G701" s="19"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="4"/>
+      <c r="B702" s="5"/>
+      <c r="C702" s="6"/>
+      <c r="D702" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E702" s="6"/>
+      <c r="F702" s="6"/>
+      <c r="G702" s="7"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="16"/>
+      <c r="B703" s="17"/>
+      <c r="C703" s="18"/>
+      <c r="D703" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E703" s="18"/>
+      <c r="F703" s="18"/>
+      <c r="G703" s="19"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="4"/>
+      <c r="B704" s="5"/>
+      <c r="C704" s="6"/>
+      <c r="D704" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E704" s="6"/>
+      <c r="F704" s="6"/>
+      <c r="G704" s="7"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="16"/>
+      <c r="B705" s="17"/>
+      <c r="C705" s="18"/>
+      <c r="D705" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E705" s="18"/>
+      <c r="F705" s="18"/>
+      <c r="G705" s="19"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="20"/>
+      <c r="B706" s="21"/>
+      <c r="C706" s="22"/>
+      <c r="D706" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E706" s="22"/>
+      <c r="F706" s="22"/>
+      <c r="G706" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4196" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4206" uniqueCount="102">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G706" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G708" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -14835,26 +14835,50 @@
       </c>
     </row>
     <row r="607">
-      <c r="A607" s="16"/>
-      <c r="B607" s="17"/>
-      <c r="C607" s="18"/>
-      <c r="D607" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E607" s="18"/>
-      <c r="F607" s="18"/>
-      <c r="G607" s="19"/>
+      <c r="A607" s="8">
+        <v>45938.53863333333</v>
+      </c>
+      <c r="B607" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C607" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D607" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E607" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F607" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G607" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="608">
-      <c r="A608" s="4"/>
-      <c r="B608" s="5"/>
-      <c r="C608" s="6"/>
-      <c r="D608" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E608" s="6"/>
-      <c r="F608" s="6"/>
-      <c r="G608" s="7"/>
+      <c r="A608" s="12">
+        <v>45938.58293527778</v>
+      </c>
+      <c r="B608" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C608" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D608" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E608" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F608" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G608" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="16"/>
@@ -15924,15 +15948,37 @@
       <c r="G705" s="19"/>
     </row>
     <row r="706">
-      <c r="A706" s="20"/>
-      <c r="B706" s="21"/>
-      <c r="C706" s="22"/>
-      <c r="D706" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E706" s="22"/>
-      <c r="F706" s="22"/>
-      <c r="G706" s="23"/>
+      <c r="A706" s="4"/>
+      <c r="B706" s="5"/>
+      <c r="C706" s="6"/>
+      <c r="D706" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E706" s="6"/>
+      <c r="F706" s="6"/>
+      <c r="G706" s="7"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="16"/>
+      <c r="B707" s="17"/>
+      <c r="C707" s="18"/>
+      <c r="D707" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E707" s="18"/>
+      <c r="F707" s="18"/>
+      <c r="G707" s="19"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="20"/>
+      <c r="B708" s="21"/>
+      <c r="C708" s="22"/>
+      <c r="D708" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E708" s="22"/>
+      <c r="F708" s="22"/>
+      <c r="G708" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4206" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4301" uniqueCount="102">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -485,10 +485,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -496,13 +496,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -510,13 +510,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G708" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G727" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -14881,213 +14881,441 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="16"/>
-      <c r="B609" s="17"/>
-      <c r="C609" s="18"/>
-      <c r="D609" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E609" s="18"/>
-      <c r="F609" s="18"/>
-      <c r="G609" s="19"/>
+      <c r="A609" s="8">
+        <v>45939.6792422338</v>
+      </c>
+      <c r="B609" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C609" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D609" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E609" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F609" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G609" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="610">
-      <c r="A610" s="4"/>
-      <c r="B610" s="5"/>
-      <c r="C610" s="6"/>
-      <c r="D610" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E610" s="6"/>
-      <c r="F610" s="6"/>
-      <c r="G610" s="7"/>
+      <c r="A610" s="12">
+        <v>45939.731480462964</v>
+      </c>
+      <c r="B610" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C610" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D610" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E610" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F610" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G610" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="611">
-      <c r="A611" s="16"/>
-      <c r="B611" s="17"/>
-      <c r="C611" s="18"/>
-      <c r="D611" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E611" s="18"/>
-      <c r="F611" s="18"/>
-      <c r="G611" s="19"/>
+      <c r="A611" s="8">
+        <v>45940.90829180555</v>
+      </c>
+      <c r="B611" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C611" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D611" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E611" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F611" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G611" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="612">
-      <c r="A612" s="4"/>
-      <c r="B612" s="5"/>
-      <c r="C612" s="6"/>
-      <c r="D612" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E612" s="6"/>
-      <c r="F612" s="6"/>
-      <c r="G612" s="7"/>
+      <c r="A612" s="12">
+        <v>45940.9297618287</v>
+      </c>
+      <c r="B612" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C612" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D612" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E612" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F612" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G612" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="613">
-      <c r="A613" s="16"/>
-      <c r="B613" s="17"/>
-      <c r="C613" s="18"/>
-      <c r="D613" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E613" s="18"/>
-      <c r="F613" s="18"/>
-      <c r="G613" s="19"/>
+      <c r="A613" s="8">
+        <v>45940.94776943287</v>
+      </c>
+      <c r="B613" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C613" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D613" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E613" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F613" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G613" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="614">
-      <c r="A614" s="4"/>
-      <c r="B614" s="5"/>
-      <c r="C614" s="6"/>
-      <c r="D614" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E614" s="6"/>
-      <c r="F614" s="6"/>
-      <c r="G614" s="7"/>
+      <c r="A614" s="12">
+        <v>45940.98267273148</v>
+      </c>
+      <c r="B614" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C614" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D614" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E614" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F614" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G614" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="615">
-      <c r="A615" s="16"/>
-      <c r="B615" s="17"/>
-      <c r="C615" s="18"/>
-      <c r="D615" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E615" s="18"/>
-      <c r="F615" s="18"/>
-      <c r="G615" s="19"/>
+      <c r="A615" s="8">
+        <v>45941.00769810185</v>
+      </c>
+      <c r="B615" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C615" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D615" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E615" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F615" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G615" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="616">
-      <c r="A616" s="4"/>
-      <c r="B616" s="5"/>
-      <c r="C616" s="6"/>
-      <c r="D616" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E616" s="6"/>
-      <c r="F616" s="6"/>
-      <c r="G616" s="7"/>
+      <c r="A616" s="12">
+        <v>45941.00831020833</v>
+      </c>
+      <c r="B616" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C616" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D616" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E616" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F616" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G616" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="617">
-      <c r="A617" s="16"/>
-      <c r="B617" s="17"/>
-      <c r="C617" s="18"/>
-      <c r="D617" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E617" s="18"/>
-      <c r="F617" s="18"/>
-      <c r="G617" s="19"/>
+      <c r="A617" s="8">
+        <v>45942.55521089121</v>
+      </c>
+      <c r="B617" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C617" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D617" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E617" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F617" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G617" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="618">
-      <c r="A618" s="4"/>
-      <c r="B618" s="5"/>
-      <c r="C618" s="6"/>
-      <c r="D618" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E618" s="6"/>
-      <c r="F618" s="6"/>
-      <c r="G618" s="7"/>
+      <c r="A618" s="12">
+        <v>45942.55840497685</v>
+      </c>
+      <c r="B618" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C618" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D618" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E618" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F618" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G618" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="619">
-      <c r="A619" s="16"/>
-      <c r="B619" s="17"/>
-      <c r="C619" s="18"/>
-      <c r="D619" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E619" s="18"/>
-      <c r="F619" s="18"/>
-      <c r="G619" s="19"/>
+      <c r="A619" s="8">
+        <v>45942.57007621528</v>
+      </c>
+      <c r="B619" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C619" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D619" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E619" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F619" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G619" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="620">
-      <c r="A620" s="4"/>
-      <c r="B620" s="5"/>
-      <c r="C620" s="6"/>
-      <c r="D620" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E620" s="6"/>
-      <c r="F620" s="6"/>
-      <c r="G620" s="7"/>
+      <c r="A620" s="12">
+        <v>45942.6255766088</v>
+      </c>
+      <c r="B620" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C620" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D620" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E620" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F620" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G620" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="621">
-      <c r="A621" s="16"/>
-      <c r="B621" s="17"/>
-      <c r="C621" s="18"/>
-      <c r="D621" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E621" s="18"/>
-      <c r="F621" s="18"/>
-      <c r="G621" s="19"/>
+      <c r="A621" s="8">
+        <v>45942.73575569445</v>
+      </c>
+      <c r="B621" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C621" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D621" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E621" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F621" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G621" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="622">
-      <c r="A622" s="4"/>
-      <c r="B622" s="5"/>
-      <c r="C622" s="6"/>
-      <c r="D622" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E622" s="6"/>
-      <c r="F622" s="6"/>
-      <c r="G622" s="7"/>
+      <c r="A622" s="12">
+        <v>45943.617266284724</v>
+      </c>
+      <c r="B622" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C622" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D622" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E622" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F622" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G622" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="623">
-      <c r="A623" s="16"/>
-      <c r="B623" s="17"/>
-      <c r="C623" s="18"/>
-      <c r="D623" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E623" s="18"/>
-      <c r="F623" s="18"/>
-      <c r="G623" s="19"/>
+      <c r="A623" s="8">
+        <v>45943.630999988425</v>
+      </c>
+      <c r="B623" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C623" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D623" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E623" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F623" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G623" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="624">
-      <c r="A624" s="4"/>
-      <c r="B624" s="5"/>
-      <c r="C624" s="6"/>
-      <c r="D624" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E624" s="6"/>
-      <c r="F624" s="6"/>
-      <c r="G624" s="7"/>
+      <c r="A624" s="12">
+        <v>45943.6448547801</v>
+      </c>
+      <c r="B624" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C624" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D624" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E624" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F624" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G624" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="625">
-      <c r="A625" s="16"/>
-      <c r="B625" s="17"/>
-      <c r="C625" s="18"/>
-      <c r="D625" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E625" s="18"/>
-      <c r="F625" s="18"/>
-      <c r="G625" s="19"/>
+      <c r="A625" s="8">
+        <v>45943.650788969906</v>
+      </c>
+      <c r="B625" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C625" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D625" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E625" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F625" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G625" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="626">
-      <c r="A626" s="4"/>
-      <c r="B626" s="5"/>
-      <c r="C626" s="6"/>
-      <c r="D626" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E626" s="6"/>
-      <c r="F626" s="6"/>
-      <c r="G626" s="7"/>
+      <c r="A626" s="12">
+        <v>45944.51738696759</v>
+      </c>
+      <c r="B626" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C626" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D626" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E626" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F626" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G626" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="627">
-      <c r="A627" s="16"/>
-      <c r="B627" s="17"/>
-      <c r="C627" s="18"/>
-      <c r="D627" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E627" s="18"/>
-      <c r="F627" s="18"/>
-      <c r="G627" s="19"/>
+      <c r="A627" s="8">
+        <v>45944.60555820602</v>
+      </c>
+      <c r="B627" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C627" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D627" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E627" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F627" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G627" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="4"/>
@@ -15970,15 +16198,224 @@
       <c r="G707" s="19"/>
     </row>
     <row r="708">
-      <c r="A708" s="20"/>
-      <c r="B708" s="21"/>
-      <c r="C708" s="22"/>
-      <c r="D708" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E708" s="22"/>
-      <c r="F708" s="22"/>
-      <c r="G708" s="23"/>
+      <c r="A708" s="4"/>
+      <c r="B708" s="5"/>
+      <c r="C708" s="6"/>
+      <c r="D708" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E708" s="6"/>
+      <c r="F708" s="6"/>
+      <c r="G708" s="7"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="16"/>
+      <c r="B709" s="17"/>
+      <c r="C709" s="18"/>
+      <c r="D709" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E709" s="18"/>
+      <c r="F709" s="18"/>
+      <c r="G709" s="19"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="4"/>
+      <c r="B710" s="5"/>
+      <c r="C710" s="6"/>
+      <c r="D710" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E710" s="6"/>
+      <c r="F710" s="6"/>
+      <c r="G710" s="7"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="16"/>
+      <c r="B711" s="17"/>
+      <c r="C711" s="18"/>
+      <c r="D711" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E711" s="18"/>
+      <c r="F711" s="18"/>
+      <c r="G711" s="19"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="4"/>
+      <c r="B712" s="5"/>
+      <c r="C712" s="6"/>
+      <c r="D712" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E712" s="6"/>
+      <c r="F712" s="6"/>
+      <c r="G712" s="7"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="16"/>
+      <c r="B713" s="17"/>
+      <c r="C713" s="18"/>
+      <c r="D713" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E713" s="18"/>
+      <c r="F713" s="18"/>
+      <c r="G713" s="19"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="4"/>
+      <c r="B714" s="5"/>
+      <c r="C714" s="6"/>
+      <c r="D714" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E714" s="6"/>
+      <c r="F714" s="6"/>
+      <c r="G714" s="7"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="16"/>
+      <c r="B715" s="17"/>
+      <c r="C715" s="18"/>
+      <c r="D715" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E715" s="18"/>
+      <c r="F715" s="18"/>
+      <c r="G715" s="19"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="4"/>
+      <c r="B716" s="5"/>
+      <c r="C716" s="6"/>
+      <c r="D716" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E716" s="6"/>
+      <c r="F716" s="6"/>
+      <c r="G716" s="7"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="16"/>
+      <c r="B717" s="17"/>
+      <c r="C717" s="18"/>
+      <c r="D717" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E717" s="18"/>
+      <c r="F717" s="18"/>
+      <c r="G717" s="19"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="4"/>
+      <c r="B718" s="5"/>
+      <c r="C718" s="6"/>
+      <c r="D718" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E718" s="6"/>
+      <c r="F718" s="6"/>
+      <c r="G718" s="7"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="16"/>
+      <c r="B719" s="17"/>
+      <c r="C719" s="18"/>
+      <c r="D719" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E719" s="18"/>
+      <c r="F719" s="18"/>
+      <c r="G719" s="19"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="4"/>
+      <c r="B720" s="5"/>
+      <c r="C720" s="6"/>
+      <c r="D720" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E720" s="6"/>
+      <c r="F720" s="6"/>
+      <c r="G720" s="7"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="16"/>
+      <c r="B721" s="17"/>
+      <c r="C721" s="18"/>
+      <c r="D721" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E721" s="18"/>
+      <c r="F721" s="18"/>
+      <c r="G721" s="19"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="4"/>
+      <c r="B722" s="5"/>
+      <c r="C722" s="6"/>
+      <c r="D722" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E722" s="6"/>
+      <c r="F722" s="6"/>
+      <c r="G722" s="7"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="16"/>
+      <c r="B723" s="17"/>
+      <c r="C723" s="18"/>
+      <c r="D723" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E723" s="18"/>
+      <c r="F723" s="18"/>
+      <c r="G723" s="19"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="4"/>
+      <c r="B724" s="5"/>
+      <c r="C724" s="6"/>
+      <c r="D724" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E724" s="6"/>
+      <c r="F724" s="6"/>
+      <c r="G724" s="7"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="16"/>
+      <c r="B725" s="17"/>
+      <c r="C725" s="18"/>
+      <c r="D725" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E725" s="18"/>
+      <c r="F725" s="18"/>
+      <c r="G725" s="19"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="4"/>
+      <c r="B726" s="5"/>
+      <c r="C726" s="6"/>
+      <c r="D726" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E726" s="6"/>
+      <c r="F726" s="6"/>
+      <c r="G726" s="7"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="20"/>
+      <c r="B727" s="21"/>
+      <c r="C727" s="22"/>
+      <c r="D727" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E727" s="22"/>
+      <c r="F727" s="22"/>
+      <c r="G727" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4301" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4306" uniqueCount="102">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -485,10 +485,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -496,13 +496,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -510,13 +510,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -650,10 +650,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Respuestas de formulario 1-style">
+    <tableStyle count="4" pivot="0" name="Respuestas de formulario 1-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement size="0" type="wholeTable"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -668,7 +669,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G727" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G728" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -15318,15 +15319,27 @@
       </c>
     </row>
     <row r="628">
-      <c r="A628" s="4"/>
-      <c r="B628" s="5"/>
-      <c r="C628" s="6"/>
-      <c r="D628" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E628" s="6"/>
-      <c r="F628" s="6"/>
-      <c r="G628" s="7"/>
+      <c r="A628" s="12">
+        <v>45945.95190297454</v>
+      </c>
+      <c r="B628" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C628" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D628" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E628" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F628" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G628" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="16"/>
@@ -16407,15 +16420,26 @@
       <c r="G726" s="7"/>
     </row>
     <row r="727">
-      <c r="A727" s="20"/>
-      <c r="B727" s="21"/>
-      <c r="C727" s="22"/>
-      <c r="D727" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E727" s="22"/>
-      <c r="F727" s="22"/>
-      <c r="G727" s="23"/>
+      <c r="A727" s="16"/>
+      <c r="B727" s="17"/>
+      <c r="C727" s="18"/>
+      <c r="D727" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E727" s="18"/>
+      <c r="F727" s="18"/>
+      <c r="G727" s="19"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="20"/>
+      <c r="B728" s="21"/>
+      <c r="C728" s="22"/>
+      <c r="D728" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E728" s="22"/>
+      <c r="F728" s="22"/>
+      <c r="G728" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4306" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4331" uniqueCount="102">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -245,6 +245,9 @@
     <t xml:space="preserve">Annia Mejia </t>
   </si>
   <si>
+    <t>Sarah Luebbert</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -297,9 +300,6 @@
   </si>
   <si>
     <t>Sarah</t>
-  </si>
-  <si>
-    <t>Sarah Luebbert</t>
   </si>
   <si>
     <t>Aylin</t>
@@ -485,10 +485,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -496,13 +496,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -510,13 +510,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -669,7 +669,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G728" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G733" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -15342,66 +15342,126 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="16"/>
-      <c r="B629" s="17"/>
-      <c r="C629" s="18"/>
-      <c r="D629" s="18" t="s">
+      <c r="A629" s="8">
+        <v>45947.816359641205</v>
+      </c>
+      <c r="B629" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C629" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D629" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E629" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F629" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G629" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="12">
+        <v>45947.856505</v>
+      </c>
+      <c r="B630" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C630" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D630" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E630" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F630" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G630" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="8">
+        <v>45948.78936283565</v>
+      </c>
+      <c r="B631" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C631" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D631" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E631" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F631" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G631" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="12">
+        <v>45948.79100210648</v>
+      </c>
+      <c r="B632" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C632" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D632" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E632" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F632" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G632" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="8">
+        <v>45948.9191212963</v>
+      </c>
+      <c r="B633" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C633" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D633" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E629" s="18"/>
-      <c r="F629" s="18"/>
-      <c r="G629" s="19"/>
-    </row>
-    <row r="630">
-      <c r="A630" s="4"/>
-      <c r="B630" s="5"/>
-      <c r="C630" s="6"/>
-      <c r="D630" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E630" s="6"/>
-      <c r="F630" s="6"/>
-      <c r="G630" s="7"/>
-    </row>
-    <row r="631">
-      <c r="A631" s="16"/>
-      <c r="B631" s="17"/>
-      <c r="C631" s="18"/>
-      <c r="D631" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E631" s="18"/>
-      <c r="F631" s="18"/>
-      <c r="G631" s="19"/>
-    </row>
-    <row r="632">
-      <c r="A632" s="4"/>
-      <c r="B632" s="5"/>
-      <c r="C632" s="6"/>
-      <c r="D632" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E632" s="6"/>
-      <c r="F632" s="6"/>
-      <c r="G632" s="7"/>
-    </row>
-    <row r="633">
-      <c r="A633" s="16"/>
-      <c r="B633" s="17"/>
-      <c r="C633" s="18"/>
-      <c r="D633" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E633" s="18"/>
-      <c r="F633" s="18"/>
-      <c r="G633" s="19"/>
+      <c r="E633" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F633" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G633" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="4"/>
       <c r="B634" s="5"/>
       <c r="C634" s="6"/>
       <c r="D634" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E634" s="6"/>
       <c r="F634" s="6"/>
@@ -15412,7 +15472,7 @@
       <c r="B635" s="17"/>
       <c r="C635" s="18"/>
       <c r="D635" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E635" s="18"/>
       <c r="F635" s="18"/>
@@ -15423,7 +15483,7 @@
       <c r="B636" s="5"/>
       <c r="C636" s="6"/>
       <c r="D636" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E636" s="6"/>
       <c r="F636" s="6"/>
@@ -15434,7 +15494,7 @@
       <c r="B637" s="17"/>
       <c r="C637" s="18"/>
       <c r="D637" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E637" s="18"/>
       <c r="F637" s="18"/>
@@ -15445,7 +15505,7 @@
       <c r="B638" s="5"/>
       <c r="C638" s="6"/>
       <c r="D638" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E638" s="6"/>
       <c r="F638" s="6"/>
@@ -15456,7 +15516,7 @@
       <c r="B639" s="17"/>
       <c r="C639" s="18"/>
       <c r="D639" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E639" s="18"/>
       <c r="F639" s="18"/>
@@ -15467,7 +15527,7 @@
       <c r="B640" s="5"/>
       <c r="C640" s="6"/>
       <c r="D640" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E640" s="6"/>
       <c r="F640" s="6"/>
@@ -15478,7 +15538,7 @@
       <c r="B641" s="17"/>
       <c r="C641" s="18"/>
       <c r="D641" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E641" s="18"/>
       <c r="F641" s="18"/>
@@ -15489,7 +15549,7 @@
       <c r="B642" s="5"/>
       <c r="C642" s="6"/>
       <c r="D642" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E642" s="6"/>
       <c r="F642" s="6"/>
@@ -15500,7 +15560,7 @@
       <c r="B643" s="17"/>
       <c r="C643" s="18"/>
       <c r="D643" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E643" s="18"/>
       <c r="F643" s="18"/>
@@ -15511,7 +15571,7 @@
       <c r="B644" s="5"/>
       <c r="C644" s="6"/>
       <c r="D644" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E644" s="6"/>
       <c r="F644" s="6"/>
@@ -15522,7 +15582,7 @@
       <c r="B645" s="17"/>
       <c r="C645" s="18"/>
       <c r="D645" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E645" s="18"/>
       <c r="F645" s="18"/>
@@ -15533,7 +15593,7 @@
       <c r="B646" s="5"/>
       <c r="C646" s="6"/>
       <c r="D646" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E646" s="6"/>
       <c r="F646" s="6"/>
@@ -15544,7 +15604,7 @@
       <c r="B647" s="17"/>
       <c r="C647" s="18"/>
       <c r="D647" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E647" s="18"/>
       <c r="F647" s="18"/>
@@ -15555,7 +15615,7 @@
       <c r="B648" s="5"/>
       <c r="C648" s="6"/>
       <c r="D648" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E648" s="6"/>
       <c r="F648" s="6"/>
@@ -15566,7 +15626,7 @@
       <c r="B649" s="17"/>
       <c r="C649" s="18"/>
       <c r="D649" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E649" s="18"/>
       <c r="F649" s="18"/>
@@ -15577,7 +15637,7 @@
       <c r="B650" s="5"/>
       <c r="C650" s="6"/>
       <c r="D650" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E650" s="6"/>
       <c r="F650" s="6"/>
@@ -15588,7 +15648,7 @@
       <c r="B651" s="17"/>
       <c r="C651" s="18"/>
       <c r="D651" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E651" s="18"/>
       <c r="F651" s="18"/>
@@ -15599,7 +15659,7 @@
       <c r="B652" s="5"/>
       <c r="C652" s="6"/>
       <c r="D652" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E652" s="6"/>
       <c r="F652" s="6"/>
@@ -15610,7 +15670,7 @@
       <c r="B653" s="17"/>
       <c r="C653" s="18"/>
       <c r="D653" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E653" s="18"/>
       <c r="F653" s="18"/>
@@ -15621,7 +15681,7 @@
       <c r="B654" s="5"/>
       <c r="C654" s="6"/>
       <c r="D654" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E654" s="6"/>
       <c r="F654" s="6"/>
@@ -15632,7 +15692,7 @@
       <c r="B655" s="17"/>
       <c r="C655" s="18"/>
       <c r="D655" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E655" s="18"/>
       <c r="F655" s="18"/>
@@ -15643,7 +15703,7 @@
       <c r="B656" s="5"/>
       <c r="C656" s="6"/>
       <c r="D656" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E656" s="6"/>
       <c r="F656" s="6"/>
@@ -15654,7 +15714,7 @@
       <c r="B657" s="17"/>
       <c r="C657" s="18"/>
       <c r="D657" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E657" s="18"/>
       <c r="F657" s="18"/>
@@ -15665,7 +15725,7 @@
       <c r="B658" s="5"/>
       <c r="C658" s="6"/>
       <c r="D658" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E658" s="6"/>
       <c r="F658" s="6"/>
@@ -15676,7 +15736,7 @@
       <c r="B659" s="17"/>
       <c r="C659" s="18"/>
       <c r="D659" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E659" s="18"/>
       <c r="F659" s="18"/>
@@ -15687,7 +15747,7 @@
       <c r="B660" s="5"/>
       <c r="C660" s="6"/>
       <c r="D660" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E660" s="6"/>
       <c r="F660" s="6"/>
@@ -15698,7 +15758,7 @@
       <c r="B661" s="17"/>
       <c r="C661" s="18"/>
       <c r="D661" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E661" s="18"/>
       <c r="F661" s="18"/>
@@ -15709,7 +15769,7 @@
       <c r="B662" s="5"/>
       <c r="C662" s="6"/>
       <c r="D662" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E662" s="6"/>
       <c r="F662" s="6"/>
@@ -15720,7 +15780,7 @@
       <c r="B663" s="17"/>
       <c r="C663" s="18"/>
       <c r="D663" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E663" s="18"/>
       <c r="F663" s="18"/>
@@ -15731,7 +15791,7 @@
       <c r="B664" s="5"/>
       <c r="C664" s="6"/>
       <c r="D664" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E664" s="6"/>
       <c r="F664" s="6"/>
@@ -15742,7 +15802,7 @@
       <c r="B665" s="17"/>
       <c r="C665" s="18"/>
       <c r="D665" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E665" s="18"/>
       <c r="F665" s="18"/>
@@ -15753,7 +15813,7 @@
       <c r="B666" s="5"/>
       <c r="C666" s="6"/>
       <c r="D666" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E666" s="6"/>
       <c r="F666" s="6"/>
@@ -15764,7 +15824,7 @@
       <c r="B667" s="17"/>
       <c r="C667" s="18"/>
       <c r="D667" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E667" s="18"/>
       <c r="F667" s="18"/>
@@ -15775,7 +15835,7 @@
       <c r="B668" s="5"/>
       <c r="C668" s="6"/>
       <c r="D668" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E668" s="6"/>
       <c r="F668" s="6"/>
@@ -15786,7 +15846,7 @@
       <c r="B669" s="17"/>
       <c r="C669" s="18"/>
       <c r="D669" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E669" s="18"/>
       <c r="F669" s="18"/>
@@ -15797,7 +15857,7 @@
       <c r="B670" s="5"/>
       <c r="C670" s="6"/>
       <c r="D670" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E670" s="6"/>
       <c r="F670" s="6"/>
@@ -15808,7 +15868,7 @@
       <c r="B671" s="17"/>
       <c r="C671" s="18"/>
       <c r="D671" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E671" s="18"/>
       <c r="F671" s="18"/>
@@ -15819,7 +15879,7 @@
       <c r="B672" s="5"/>
       <c r="C672" s="6"/>
       <c r="D672" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E672" s="6"/>
       <c r="F672" s="6"/>
@@ -15830,7 +15890,7 @@
       <c r="B673" s="17"/>
       <c r="C673" s="18"/>
       <c r="D673" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E673" s="18"/>
       <c r="F673" s="18"/>
@@ -15841,7 +15901,7 @@
       <c r="B674" s="5"/>
       <c r="C674" s="6"/>
       <c r="D674" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E674" s="6"/>
       <c r="F674" s="6"/>
@@ -15852,7 +15912,7 @@
       <c r="B675" s="17"/>
       <c r="C675" s="18"/>
       <c r="D675" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E675" s="18"/>
       <c r="F675" s="18"/>
@@ -15863,7 +15923,7 @@
       <c r="B676" s="5"/>
       <c r="C676" s="6"/>
       <c r="D676" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E676" s="6"/>
       <c r="F676" s="6"/>
@@ -15874,7 +15934,7 @@
       <c r="B677" s="17"/>
       <c r="C677" s="18"/>
       <c r="D677" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E677" s="18"/>
       <c r="F677" s="18"/>
@@ -15885,7 +15945,7 @@
       <c r="B678" s="5"/>
       <c r="C678" s="6"/>
       <c r="D678" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E678" s="6"/>
       <c r="F678" s="6"/>
@@ -15896,7 +15956,7 @@
       <c r="B679" s="17"/>
       <c r="C679" s="18"/>
       <c r="D679" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E679" s="18"/>
       <c r="F679" s="18"/>
@@ -15907,7 +15967,7 @@
       <c r="B680" s="5"/>
       <c r="C680" s="6"/>
       <c r="D680" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E680" s="6"/>
       <c r="F680" s="6"/>
@@ -15918,7 +15978,7 @@
       <c r="B681" s="17"/>
       <c r="C681" s="18"/>
       <c r="D681" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E681" s="18"/>
       <c r="F681" s="18"/>
@@ -15929,7 +15989,7 @@
       <c r="B682" s="5"/>
       <c r="C682" s="6"/>
       <c r="D682" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E682" s="6"/>
       <c r="F682" s="6"/>
@@ -15940,7 +16000,7 @@
       <c r="B683" s="17"/>
       <c r="C683" s="18"/>
       <c r="D683" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E683" s="18"/>
       <c r="F683" s="18"/>
@@ -15951,7 +16011,7 @@
       <c r="B684" s="5"/>
       <c r="C684" s="6"/>
       <c r="D684" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E684" s="6"/>
       <c r="F684" s="6"/>
@@ -15962,7 +16022,7 @@
       <c r="B685" s="17"/>
       <c r="C685" s="18"/>
       <c r="D685" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E685" s="18"/>
       <c r="F685" s="18"/>
@@ -15973,7 +16033,7 @@
       <c r="B686" s="5"/>
       <c r="C686" s="6"/>
       <c r="D686" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E686" s="6"/>
       <c r="F686" s="6"/>
@@ -15984,7 +16044,7 @@
       <c r="B687" s="17"/>
       <c r="C687" s="18"/>
       <c r="D687" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E687" s="18"/>
       <c r="F687" s="18"/>
@@ -15995,7 +16055,7 @@
       <c r="B688" s="5"/>
       <c r="C688" s="6"/>
       <c r="D688" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E688" s="6"/>
       <c r="F688" s="6"/>
@@ -16006,7 +16066,7 @@
       <c r="B689" s="17"/>
       <c r="C689" s="18"/>
       <c r="D689" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E689" s="18"/>
       <c r="F689" s="18"/>
@@ -16017,7 +16077,7 @@
       <c r="B690" s="5"/>
       <c r="C690" s="6"/>
       <c r="D690" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E690" s="6"/>
       <c r="F690" s="6"/>
@@ -16028,7 +16088,7 @@
       <c r="B691" s="17"/>
       <c r="C691" s="18"/>
       <c r="D691" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E691" s="18"/>
       <c r="F691" s="18"/>
@@ -16039,7 +16099,7 @@
       <c r="B692" s="5"/>
       <c r="C692" s="6"/>
       <c r="D692" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E692" s="6"/>
       <c r="F692" s="6"/>
@@ -16050,7 +16110,7 @@
       <c r="B693" s="17"/>
       <c r="C693" s="18"/>
       <c r="D693" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E693" s="18"/>
       <c r="F693" s="18"/>
@@ -16061,7 +16121,7 @@
       <c r="B694" s="5"/>
       <c r="C694" s="6"/>
       <c r="D694" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E694" s="6"/>
       <c r="F694" s="6"/>
@@ -16072,7 +16132,7 @@
       <c r="B695" s="17"/>
       <c r="C695" s="18"/>
       <c r="D695" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E695" s="18"/>
       <c r="F695" s="18"/>
@@ -16083,7 +16143,7 @@
       <c r="B696" s="5"/>
       <c r="C696" s="6"/>
       <c r="D696" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E696" s="6"/>
       <c r="F696" s="6"/>
@@ -16094,7 +16154,7 @@
       <c r="B697" s="17"/>
       <c r="C697" s="18"/>
       <c r="D697" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E697" s="18"/>
       <c r="F697" s="18"/>
@@ -16105,7 +16165,7 @@
       <c r="B698" s="5"/>
       <c r="C698" s="6"/>
       <c r="D698" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E698" s="6"/>
       <c r="F698" s="6"/>
@@ -16116,7 +16176,7 @@
       <c r="B699" s="17"/>
       <c r="C699" s="18"/>
       <c r="D699" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E699" s="18"/>
       <c r="F699" s="18"/>
@@ -16127,7 +16187,7 @@
       <c r="B700" s="5"/>
       <c r="C700" s="6"/>
       <c r="D700" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E700" s="6"/>
       <c r="F700" s="6"/>
@@ -16138,7 +16198,7 @@
       <c r="B701" s="17"/>
       <c r="C701" s="18"/>
       <c r="D701" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E701" s="18"/>
       <c r="F701" s="18"/>
@@ -16149,7 +16209,7 @@
       <c r="B702" s="5"/>
       <c r="C702" s="6"/>
       <c r="D702" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E702" s="6"/>
       <c r="F702" s="6"/>
@@ -16160,7 +16220,7 @@
       <c r="B703" s="17"/>
       <c r="C703" s="18"/>
       <c r="D703" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E703" s="18"/>
       <c r="F703" s="18"/>
@@ -16171,7 +16231,7 @@
       <c r="B704" s="5"/>
       <c r="C704" s="6"/>
       <c r="D704" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E704" s="6"/>
       <c r="F704" s="6"/>
@@ -16182,7 +16242,7 @@
       <c r="B705" s="17"/>
       <c r="C705" s="18"/>
       <c r="D705" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E705" s="18"/>
       <c r="F705" s="18"/>
@@ -16193,7 +16253,7 @@
       <c r="B706" s="5"/>
       <c r="C706" s="6"/>
       <c r="D706" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E706" s="6"/>
       <c r="F706" s="6"/>
@@ -16204,7 +16264,7 @@
       <c r="B707" s="17"/>
       <c r="C707" s="18"/>
       <c r="D707" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E707" s="18"/>
       <c r="F707" s="18"/>
@@ -16215,7 +16275,7 @@
       <c r="B708" s="5"/>
       <c r="C708" s="6"/>
       <c r="D708" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E708" s="6"/>
       <c r="F708" s="6"/>
@@ -16226,7 +16286,7 @@
       <c r="B709" s="17"/>
       <c r="C709" s="18"/>
       <c r="D709" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E709" s="18"/>
       <c r="F709" s="18"/>
@@ -16237,7 +16297,7 @@
       <c r="B710" s="5"/>
       <c r="C710" s="6"/>
       <c r="D710" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E710" s="6"/>
       <c r="F710" s="6"/>
@@ -16248,7 +16308,7 @@
       <c r="B711" s="17"/>
       <c r="C711" s="18"/>
       <c r="D711" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E711" s="18"/>
       <c r="F711" s="18"/>
@@ -16259,7 +16319,7 @@
       <c r="B712" s="5"/>
       <c r="C712" s="6"/>
       <c r="D712" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E712" s="6"/>
       <c r="F712" s="6"/>
@@ -16270,7 +16330,7 @@
       <c r="B713" s="17"/>
       <c r="C713" s="18"/>
       <c r="D713" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E713" s="18"/>
       <c r="F713" s="18"/>
@@ -16281,7 +16341,7 @@
       <c r="B714" s="5"/>
       <c r="C714" s="6"/>
       <c r="D714" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E714" s="6"/>
       <c r="F714" s="6"/>
@@ -16292,7 +16352,7 @@
       <c r="B715" s="17"/>
       <c r="C715" s="18"/>
       <c r="D715" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E715" s="18"/>
       <c r="F715" s="18"/>
@@ -16303,7 +16363,7 @@
       <c r="B716" s="5"/>
       <c r="C716" s="6"/>
       <c r="D716" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E716" s="6"/>
       <c r="F716" s="6"/>
@@ -16314,7 +16374,7 @@
       <c r="B717" s="17"/>
       <c r="C717" s="18"/>
       <c r="D717" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E717" s="18"/>
       <c r="F717" s="18"/>
@@ -16325,7 +16385,7 @@
       <c r="B718" s="5"/>
       <c r="C718" s="6"/>
       <c r="D718" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E718" s="6"/>
       <c r="F718" s="6"/>
@@ -16336,7 +16396,7 @@
       <c r="B719" s="17"/>
       <c r="C719" s="18"/>
       <c r="D719" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E719" s="18"/>
       <c r="F719" s="18"/>
@@ -16347,7 +16407,7 @@
       <c r="B720" s="5"/>
       <c r="C720" s="6"/>
       <c r="D720" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E720" s="6"/>
       <c r="F720" s="6"/>
@@ -16358,7 +16418,7 @@
       <c r="B721" s="17"/>
       <c r="C721" s="18"/>
       <c r="D721" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E721" s="18"/>
       <c r="F721" s="18"/>
@@ -16369,7 +16429,7 @@
       <c r="B722" s="5"/>
       <c r="C722" s="6"/>
       <c r="D722" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E722" s="6"/>
       <c r="F722" s="6"/>
@@ -16380,7 +16440,7 @@
       <c r="B723" s="17"/>
       <c r="C723" s="18"/>
       <c r="D723" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E723" s="18"/>
       <c r="F723" s="18"/>
@@ -16391,7 +16451,7 @@
       <c r="B724" s="5"/>
       <c r="C724" s="6"/>
       <c r="D724" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E724" s="6"/>
       <c r="F724" s="6"/>
@@ -16402,7 +16462,7 @@
       <c r="B725" s="17"/>
       <c r="C725" s="18"/>
       <c r="D725" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E725" s="18"/>
       <c r="F725" s="18"/>
@@ -16413,7 +16473,7 @@
       <c r="B726" s="5"/>
       <c r="C726" s="6"/>
       <c r="D726" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E726" s="6"/>
       <c r="F726" s="6"/>
@@ -16424,22 +16484,77 @@
       <c r="B727" s="17"/>
       <c r="C727" s="18"/>
       <c r="D727" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E727" s="18"/>
       <c r="F727" s="18"/>
       <c r="G727" s="19"/>
     </row>
     <row r="728">
-      <c r="A728" s="20"/>
-      <c r="B728" s="21"/>
-      <c r="C728" s="22"/>
-      <c r="D728" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E728" s="22"/>
-      <c r="F728" s="22"/>
-      <c r="G728" s="23"/>
+      <c r="A728" s="4"/>
+      <c r="B728" s="5"/>
+      <c r="C728" s="6"/>
+      <c r="D728" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E728" s="6"/>
+      <c r="F728" s="6"/>
+      <c r="G728" s="7"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="16"/>
+      <c r="B729" s="17"/>
+      <c r="C729" s="18"/>
+      <c r="D729" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E729" s="18"/>
+      <c r="F729" s="18"/>
+      <c r="G729" s="19"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="4"/>
+      <c r="B730" s="5"/>
+      <c r="C730" s="6"/>
+      <c r="D730" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E730" s="6"/>
+      <c r="F730" s="6"/>
+      <c r="G730" s="7"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="16"/>
+      <c r="B731" s="17"/>
+      <c r="C731" s="18"/>
+      <c r="D731" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E731" s="18"/>
+      <c r="F731" s="18"/>
+      <c r="G731" s="19"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="4"/>
+      <c r="B732" s="5"/>
+      <c r="C732" s="6"/>
+      <c r="D732" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E732" s="6"/>
+      <c r="F732" s="6"/>
+      <c r="G732" s="7"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="20"/>
+      <c r="B733" s="21"/>
+      <c r="C733" s="22"/>
+      <c r="D733" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E733" s="22"/>
+      <c r="F733" s="22"/>
+      <c r="G733" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -16461,7 +16576,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>27</v>
@@ -16475,7 +16590,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" s="26" t="str">
         <f t="array" ref="E2:E1000">IF(D2:D1000="","", 
@@ -16494,24 +16609,24 @@
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -16522,7 +16637,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -16533,18 +16648,18 @@
         <v>17</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -16555,7 +16670,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -16566,18 +16681,18 @@
         <v>15</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -16588,7 +16703,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -16599,7 +16714,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -16610,40 +16725,40 @@
         <v>26</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -16654,40 +16769,40 @@
         <v>50</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
@@ -16698,7 +16813,7 @@
         <v>30</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -16709,7 +16824,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -16720,40 +16835,40 @@
         <v>39</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
@@ -16764,7 +16879,7 @@
         <v>97</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -16775,7 +16890,7 @@
         <v>97</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
@@ -16786,7 +16901,7 @@
         <v>99</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
@@ -16797,7 +16912,7 @@
         <v>56</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
@@ -16808,7 +16923,7 @@
         <v>97</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -16819,7 +16934,7 @@
         <v>56</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -16830,4842 +16945,4842 @@
         <v>48</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108">
       <c r="E108" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109">
       <c r="E109" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112">
       <c r="E112" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113">
       <c r="E113" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114">
       <c r="E114" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118">
       <c r="E118" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119">
       <c r="E119" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120">
       <c r="E120" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="121">
       <c r="E121" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123">
       <c r="E123" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124">
       <c r="E124" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125">
       <c r="E125" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126">
       <c r="E126" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127">
       <c r="E127" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="128">
       <c r="E128" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129">
       <c r="E129" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="130">
       <c r="E130" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="131">
       <c r="E131" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="132">
       <c r="E132" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="133">
       <c r="E133" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="134">
       <c r="E134" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="135">
       <c r="E135" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="136">
       <c r="E136" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="137">
       <c r="E137" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="138">
       <c r="E138" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="139">
       <c r="E139" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="140">
       <c r="E140" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="141">
       <c r="E141" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="142">
       <c r="E142" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="143">
       <c r="E143" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="144">
       <c r="E144" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145">
       <c r="E145" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="146">
       <c r="E146" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="147">
       <c r="E147" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="148">
       <c r="E148" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="149">
       <c r="E149" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="150">
       <c r="E150" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="151">
       <c r="E151" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="152">
       <c r="E152" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="153">
       <c r="E153" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="154">
       <c r="E154" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="155">
       <c r="E155" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="156">
       <c r="E156" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="157">
       <c r="E157" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="158">
       <c r="E158" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="159">
       <c r="E159" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="160">
       <c r="E160" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="161">
       <c r="E161" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="162">
       <c r="E162" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="163">
       <c r="E163" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="164">
       <c r="E164" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="165">
       <c r="E165" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="166">
       <c r="E166" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="167">
       <c r="E167" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="168">
       <c r="E168" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="169">
       <c r="E169" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="170">
       <c r="E170" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="171">
       <c r="E171" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="172">
       <c r="E172" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="173">
       <c r="E173" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="174">
       <c r="E174" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="175">
       <c r="E175" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="176">
       <c r="E176" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="177">
       <c r="E177" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="178">
       <c r="E178" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="179">
       <c r="E179" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="180">
       <c r="E180" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="181">
       <c r="E181" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="182">
       <c r="E182" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="183">
       <c r="E183" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="184">
       <c r="E184" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="185">
       <c r="E185" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="186">
       <c r="E186" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="187">
       <c r="E187" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="188">
       <c r="E188" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="189">
       <c r="E189" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="190">
       <c r="E190" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="191">
       <c r="E191" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="192">
       <c r="E192" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="193">
       <c r="E193" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="194">
       <c r="E194" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="195">
       <c r="E195" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="196">
       <c r="E196" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="197">
       <c r="E197" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="198">
       <c r="E198" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="199">
       <c r="E199" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="200">
       <c r="E200" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="201">
       <c r="E201" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="202">
       <c r="E202" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="203">
       <c r="E203" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="204">
       <c r="E204" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="205">
       <c r="E205" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="206">
       <c r="E206" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="207">
       <c r="E207" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="208">
       <c r="E208" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="209">
       <c r="E209" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="210">
       <c r="E210" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="211">
       <c r="E211" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="212">
       <c r="E212" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="213">
       <c r="E213" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="214">
       <c r="E214" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="215">
       <c r="E215" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="216">
       <c r="E216" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="217">
       <c r="E217" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="218">
       <c r="E218" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="219">
       <c r="E219" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="220">
       <c r="E220" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="221">
       <c r="E221" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="222">
       <c r="E222" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="223">
       <c r="E223" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="224">
       <c r="E224" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="225">
       <c r="E225" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="226">
       <c r="E226" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="227">
       <c r="E227" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="228">
       <c r="E228" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="229">
       <c r="E229" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="230">
       <c r="E230" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="231">
       <c r="E231" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="232">
       <c r="E232" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="233">
       <c r="E233" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="234">
       <c r="E234" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="235">
       <c r="E235" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="236">
       <c r="E236" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="237">
       <c r="E237" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="238">
       <c r="E238" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="239">
       <c r="E239" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="240">
       <c r="E240" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="241">
       <c r="E241" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="242">
       <c r="E242" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="243">
       <c r="E243" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="244">
       <c r="E244" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="245">
       <c r="E245" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="246">
       <c r="E246" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="247">
       <c r="E247" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="248">
       <c r="E248" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="249">
       <c r="E249" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="250">
       <c r="E250" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="251">
       <c r="E251" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="252">
       <c r="E252" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="253">
       <c r="E253" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="254">
       <c r="E254" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="255">
       <c r="E255" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="256">
       <c r="E256" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="257">
       <c r="E257" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="258">
       <c r="E258" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="259">
       <c r="E259" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="260">
       <c r="E260" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="261">
       <c r="E261" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="262">
       <c r="E262" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="263">
       <c r="E263" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="264">
       <c r="E264" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="265">
       <c r="E265" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="266">
       <c r="E266" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="267">
       <c r="E267" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="268">
       <c r="E268" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="269">
       <c r="E269" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="270">
       <c r="E270" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="271">
       <c r="E271" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="272">
       <c r="E272" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="273">
       <c r="E273" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="274">
       <c r="E274" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="275">
       <c r="E275" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="276">
       <c r="E276" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="277">
       <c r="E277" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="278">
       <c r="E278" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="279">
       <c r="E279" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="280">
       <c r="E280" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="281">
       <c r="E281" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="282">
       <c r="E282" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="283">
       <c r="E283" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="284">
       <c r="E284" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="285">
       <c r="E285" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="286">
       <c r="E286" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="287">
       <c r="E287" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="288">
       <c r="E288" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="289">
       <c r="E289" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="290">
       <c r="E290" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="291">
       <c r="E291" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="292">
       <c r="E292" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="293">
       <c r="E293" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="294">
       <c r="E294" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="295">
       <c r="E295" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="296">
       <c r="E296" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="297">
       <c r="E297" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="298">
       <c r="E298" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="299">
       <c r="E299" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="300">
       <c r="E300" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="301">
       <c r="E301" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="302">
       <c r="E302" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="303">
       <c r="E303" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="304">
       <c r="E304" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="305">
       <c r="E305" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="306">
       <c r="E306" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="307">
       <c r="E307" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="308">
       <c r="E308" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="309">
       <c r="E309" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="310">
       <c r="E310" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="311">
       <c r="E311" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="312">
       <c r="E312" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="313">
       <c r="E313" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="314">
       <c r="E314" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="315">
       <c r="E315" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="316">
       <c r="E316" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="317">
       <c r="E317" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="318">
       <c r="E318" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="319">
       <c r="E319" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="320">
       <c r="E320" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="321">
       <c r="E321" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="322">
       <c r="E322" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="323">
       <c r="E323" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="324">
       <c r="E324" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="325">
       <c r="E325" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="326">
       <c r="E326" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="327">
       <c r="E327" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="328">
       <c r="E328" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="329">
       <c r="E329" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="330">
       <c r="E330" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="331">
       <c r="E331" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="332">
       <c r="E332" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="333">
       <c r="E333" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="334">
       <c r="E334" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="335">
       <c r="E335" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="336">
       <c r="E336" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="337">
       <c r="E337" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="338">
       <c r="E338" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="339">
       <c r="E339" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="340">
       <c r="E340" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="341">
       <c r="E341" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="342">
       <c r="E342" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="343">
       <c r="E343" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="344">
       <c r="E344" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="345">
       <c r="E345" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="346">
       <c r="E346" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="347">
       <c r="E347" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="348">
       <c r="E348" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="349">
       <c r="E349" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="350">
       <c r="E350" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="351">
       <c r="E351" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="352">
       <c r="E352" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="353">
       <c r="E353" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="354">
       <c r="E354" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="355">
       <c r="E355" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="356">
       <c r="E356" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="357">
       <c r="E357" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="358">
       <c r="E358" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="359">
       <c r="E359" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="360">
       <c r="E360" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="361">
       <c r="E361" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="362">
       <c r="E362" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="363">
       <c r="E363" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="364">
       <c r="E364" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="365">
       <c r="E365" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="366">
       <c r="E366" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="367">
       <c r="E367" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="368">
       <c r="E368" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="369">
       <c r="E369" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="370">
       <c r="E370" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="371">
       <c r="E371" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="372">
       <c r="E372" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="373">
       <c r="E373" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="374">
       <c r="E374" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="375">
       <c r="E375" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="376">
       <c r="E376" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="377">
       <c r="E377" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="378">
       <c r="E378" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="379">
       <c r="E379" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="380">
       <c r="E380" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="381">
       <c r="E381" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="382">
       <c r="E382" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="383">
       <c r="E383" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="384">
       <c r="E384" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="385">
       <c r="E385" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="386">
       <c r="E386" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="387">
       <c r="E387" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="388">
       <c r="E388" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="389">
       <c r="E389" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="390">
       <c r="E390" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="391">
       <c r="E391" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="392">
       <c r="E392" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="393">
       <c r="E393" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="394">
       <c r="E394" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="395">
       <c r="E395" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="396">
       <c r="E396" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="397">
       <c r="E397" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="398">
       <c r="E398" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="399">
       <c r="E399" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="400">
       <c r="E400" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="401">
       <c r="E401" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="402">
       <c r="E402" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="403">
       <c r="E403" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="404">
       <c r="E404" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="405">
       <c r="E405" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="406">
       <c r="E406" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="407">
       <c r="E407" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="408">
       <c r="E408" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="409">
       <c r="E409" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="410">
       <c r="E410" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="411">
       <c r="E411" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="412">
       <c r="E412" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="413">
       <c r="E413" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="414">
       <c r="E414" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="415">
       <c r="E415" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="416">
       <c r="E416" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="417">
       <c r="E417" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="418">
       <c r="E418" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="419">
       <c r="E419" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="420">
       <c r="E420" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="421">
       <c r="E421" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="422">
       <c r="E422" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="423">
       <c r="E423" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="424">
       <c r="E424" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="425">
       <c r="E425" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="426">
       <c r="E426" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="427">
       <c r="E427" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="428">
       <c r="E428" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="429">
       <c r="E429" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="430">
       <c r="E430" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="431">
       <c r="E431" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="432">
       <c r="E432" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="433">
       <c r="E433" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="434">
       <c r="E434" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="435">
       <c r="E435" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="436">
       <c r="E436" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="437">
       <c r="E437" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="438">
       <c r="E438" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="439">
       <c r="E439" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="440">
       <c r="E440" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="441">
       <c r="E441" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="442">
       <c r="E442" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="443">
       <c r="E443" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="444">
       <c r="E444" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="445">
       <c r="E445" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="446">
       <c r="E446" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="447">
       <c r="E447" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="448">
       <c r="E448" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="449">
       <c r="E449" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="450">
       <c r="E450" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="451">
       <c r="E451" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="452">
       <c r="E452" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="453">
       <c r="E453" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="454">
       <c r="E454" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="455">
       <c r="E455" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="456">
       <c r="E456" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="457">
       <c r="E457" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="458">
       <c r="E458" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="459">
       <c r="E459" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="460">
       <c r="E460" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="461">
       <c r="E461" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="462">
       <c r="E462" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="463">
       <c r="E463" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="464">
       <c r="E464" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="465">
       <c r="E465" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="466">
       <c r="E466" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="467">
       <c r="E467" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="468">
       <c r="E468" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="469">
       <c r="E469" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="470">
       <c r="E470" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="471">
       <c r="E471" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="472">
       <c r="E472" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="473">
       <c r="E473" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="474">
       <c r="E474" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="475">
       <c r="E475" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="476">
       <c r="E476" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="477">
       <c r="E477" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="478">
       <c r="E478" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="479">
       <c r="E479" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="480">
       <c r="E480" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="481">
       <c r="E481" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="482">
       <c r="E482" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="483">
       <c r="E483" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="484">
       <c r="E484" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="485">
       <c r="E485" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="486">
       <c r="E486" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="487">
       <c r="E487" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="488">
       <c r="E488" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="489">
       <c r="E489" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="490">
       <c r="E490" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="491">
       <c r="E491" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="492">
       <c r="E492" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="493">
       <c r="E493" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="494">
       <c r="E494" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="495">
       <c r="E495" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="496">
       <c r="E496" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="497">
       <c r="E497" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="498">
       <c r="E498" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="499">
       <c r="E499" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="500">
       <c r="E500" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="501">
       <c r="E501" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="502">
       <c r="E502" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="503">
       <c r="E503" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="504">
       <c r="E504" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="505">
       <c r="E505" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="506">
       <c r="E506" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="507">
       <c r="E507" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="508">
       <c r="E508" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="509">
       <c r="E509" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="510">
       <c r="E510" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="511">
       <c r="E511" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="512">
       <c r="E512" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="513">
       <c r="E513" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="514">
       <c r="E514" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="515">
       <c r="E515" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="516">
       <c r="E516" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="517">
       <c r="E517" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="518">
       <c r="E518" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="519">
       <c r="E519" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="520">
       <c r="E520" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="521">
       <c r="E521" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="522">
       <c r="E522" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="523">
       <c r="E523" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="524">
       <c r="E524" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="525">
       <c r="E525" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="526">
       <c r="E526" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="527">
       <c r="E527" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="528">
       <c r="E528" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="529">
       <c r="E529" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="530">
       <c r="E530" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="531">
       <c r="E531" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="532">
       <c r="E532" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="533">
       <c r="E533" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="534">
       <c r="E534" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="535">
       <c r="E535" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="536">
       <c r="E536" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="537">
       <c r="E537" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="538">
       <c r="E538" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="539">
       <c r="E539" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="540">
       <c r="E540" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="541">
       <c r="E541" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="542">
       <c r="E542" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="543">
       <c r="E543" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="544">
       <c r="E544" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="545">
       <c r="E545" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="546">
       <c r="E546" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="547">
       <c r="E547" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="548">
       <c r="E548" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="549">
       <c r="E549" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="550">
       <c r="E550" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="551">
       <c r="E551" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="552">
       <c r="E552" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="553">
       <c r="E553" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="554">
       <c r="E554" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="555">
       <c r="E555" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="556">
       <c r="E556" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="557">
       <c r="E557" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="558">
       <c r="E558" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="559">
       <c r="E559" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="560">
       <c r="E560" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="561">
       <c r="E561" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="562">
       <c r="E562" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="563">
       <c r="E563" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="564">
       <c r="E564" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="565">
       <c r="E565" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="566">
       <c r="E566" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="567">
       <c r="E567" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="568">
       <c r="E568" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="569">
       <c r="E569" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="570">
       <c r="E570" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="571">
       <c r="E571" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="572">
       <c r="E572" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="573">
       <c r="E573" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="574">
       <c r="E574" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="575">
       <c r="E575" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="576">
       <c r="E576" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="577">
       <c r="E577" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="578">
       <c r="E578" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="579">
       <c r="E579" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="580">
       <c r="E580" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="581">
       <c r="E581" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="582">
       <c r="E582" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="583">
       <c r="E583" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="584">
       <c r="E584" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="585">
       <c r="E585" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="586">
       <c r="E586" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="587">
       <c r="E587" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="588">
       <c r="E588" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="589">
       <c r="E589" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="590">
       <c r="E590" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="591">
       <c r="E591" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="592">
       <c r="E592" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="593">
       <c r="E593" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="594">
       <c r="E594" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="595">
       <c r="E595" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="596">
       <c r="E596" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="597">
       <c r="E597" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="598">
       <c r="E598" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="599">
       <c r="E599" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="600">
       <c r="E600" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="601">
       <c r="E601" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="602">
       <c r="E602" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="603">
       <c r="E603" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="604">
       <c r="E604" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="605">
       <c r="E605" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="606">
       <c r="E606" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="607">
       <c r="E607" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="608">
       <c r="E608" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="609">
       <c r="E609" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="610">
       <c r="E610" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="611">
       <c r="E611" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="612">
       <c r="E612" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="613">
       <c r="E613" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="614">
       <c r="E614" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="615">
       <c r="E615" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="616">
       <c r="E616" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="617">
       <c r="E617" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="618">
       <c r="E618" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="619">
       <c r="E619" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="620">
       <c r="E620" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="621">
       <c r="E621" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="622">
       <c r="E622" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="623">
       <c r="E623" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="624">
       <c r="E624" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="625">
       <c r="E625" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="626">
       <c r="E626" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="627">
       <c r="E627" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="628">
       <c r="E628" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="629">
       <c r="E629" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="630">
       <c r="E630" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="631">
       <c r="E631" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="632">
       <c r="E632" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="633">
       <c r="E633" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="634">
       <c r="E634" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="635">
       <c r="E635" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="636">
       <c r="E636" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="637">
       <c r="E637" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="638">
       <c r="E638" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="639">
       <c r="E639" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="640">
       <c r="E640" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="641">
       <c r="E641" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="642">
       <c r="E642" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="643">
       <c r="E643" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="644">
       <c r="E644" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="645">
       <c r="E645" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="646">
       <c r="E646" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="647">
       <c r="E647" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="648">
       <c r="E648" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="649">
       <c r="E649" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="650">
       <c r="E650" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="651">
       <c r="E651" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="652">
       <c r="E652" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="653">
       <c r="E653" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="654">
       <c r="E654" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="655">
       <c r="E655" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="656">
       <c r="E656" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="657">
       <c r="E657" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="658">
       <c r="E658" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="659">
       <c r="E659" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="660">
       <c r="E660" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="661">
       <c r="E661" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="662">
       <c r="E662" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="663">
       <c r="E663" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="664">
       <c r="E664" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="665">
       <c r="E665" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="666">
       <c r="E666" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="667">
       <c r="E667" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="668">
       <c r="E668" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="669">
       <c r="E669" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="670">
       <c r="E670" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="671">
       <c r="E671" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="672">
       <c r="E672" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="673">
       <c r="E673" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="674">
       <c r="E674" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="675">
       <c r="E675" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="676">
       <c r="E676" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="677">
       <c r="E677" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="678">
       <c r="E678" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="679">
       <c r="E679" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="680">
       <c r="E680" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="681">
       <c r="E681" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="682">
       <c r="E682" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="683">
       <c r="E683" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="684">
       <c r="E684" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="685">
       <c r="E685" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="686">
       <c r="E686" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="687">
       <c r="E687" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="688">
       <c r="E688" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="689">
       <c r="E689" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="690">
       <c r="E690" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="691">
       <c r="E691" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="692">
       <c r="E692" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="693">
       <c r="E693" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="694">
       <c r="E694" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="695">
       <c r="E695" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="696">
       <c r="E696" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="697">
       <c r="E697" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="698">
       <c r="E698" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="699">
       <c r="E699" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="700">
       <c r="E700" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="701">
       <c r="E701" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="702">
       <c r="E702" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="703">
       <c r="E703" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="704">
       <c r="E704" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="705">
       <c r="E705" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="706">
       <c r="E706" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="707">
       <c r="E707" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="708">
       <c r="E708" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="709">
       <c r="E709" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="710">
       <c r="E710" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="711">
       <c r="E711" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="712">
       <c r="E712" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="713">
       <c r="E713" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="714">
       <c r="E714" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="715">
       <c r="E715" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="716">
       <c r="E716" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="717">
       <c r="E717" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="718">
       <c r="E718" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="719">
       <c r="E719" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="720">
       <c r="E720" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="721">
       <c r="E721" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="722">
       <c r="E722" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="723">
       <c r="E723" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="724">
       <c r="E724" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="725">
       <c r="E725" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="726">
       <c r="E726" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="727">
       <c r="E727" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="728">
       <c r="E728" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="729">
       <c r="E729" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="730">
       <c r="E730" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="731">
       <c r="E731" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="732">
       <c r="E732" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="733">
       <c r="E733" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="734">
       <c r="E734" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="735">
       <c r="E735" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="736">
       <c r="E736" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="737">
       <c r="E737" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="738">
       <c r="E738" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="739">
       <c r="E739" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="740">
       <c r="E740" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="741">
       <c r="E741" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="742">
       <c r="E742" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="743">
       <c r="E743" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="744">
       <c r="E744" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="745">
       <c r="E745" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="746">
       <c r="E746" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="747">
       <c r="E747" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="748">
       <c r="E748" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="749">
       <c r="E749" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="750">
       <c r="E750" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="751">
       <c r="E751" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="752">
       <c r="E752" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="753">
       <c r="E753" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="754">
       <c r="E754" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="755">
       <c r="E755" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="756">
       <c r="E756" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="757">
       <c r="E757" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="758">
       <c r="E758" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="759">
       <c r="E759" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="760">
       <c r="E760" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="761">
       <c r="E761" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="762">
       <c r="E762" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="763">
       <c r="E763" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="764">
       <c r="E764" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="765">
       <c r="E765" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="766">
       <c r="E766" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="767">
       <c r="E767" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="768">
       <c r="E768" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="769">
       <c r="E769" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="770">
       <c r="E770" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="771">
       <c r="E771" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="772">
       <c r="E772" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="773">
       <c r="E773" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="774">
       <c r="E774" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="775">
       <c r="E775" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="776">
       <c r="E776" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="777">
       <c r="E777" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="778">
       <c r="E778" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="779">
       <c r="E779" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="780">
       <c r="E780" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="781">
       <c r="E781" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="782">
       <c r="E782" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="783">
       <c r="E783" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="784">
       <c r="E784" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="785">
       <c r="E785" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="786">
       <c r="E786" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="787">
       <c r="E787" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="788">
       <c r="E788" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="789">
       <c r="E789" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="790">
       <c r="E790" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="791">
       <c r="E791" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="792">
       <c r="E792" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="793">
       <c r="E793" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="794">
       <c r="E794" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="795">
       <c r="E795" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="796">
       <c r="E796" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="797">
       <c r="E797" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="798">
       <c r="E798" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="799">
       <c r="E799" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="800">
       <c r="E800" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="801">
       <c r="E801" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="802">
       <c r="E802" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="803">
       <c r="E803" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="804">
       <c r="E804" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="805">
       <c r="E805" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="806">
       <c r="E806" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="807">
       <c r="E807" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="808">
       <c r="E808" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="809">
       <c r="E809" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="810">
       <c r="E810" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="811">
       <c r="E811" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="812">
       <c r="E812" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="813">
       <c r="E813" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="814">
       <c r="E814" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="815">
       <c r="E815" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="816">
       <c r="E816" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="817">
       <c r="E817" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="818">
       <c r="E818" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="819">
       <c r="E819" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="820">
       <c r="E820" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="821">
       <c r="E821" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="822">
       <c r="E822" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="823">
       <c r="E823" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="824">
       <c r="E824" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="825">
       <c r="E825" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="826">
       <c r="E826" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="827">
       <c r="E827" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="828">
       <c r="E828" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="829">
       <c r="E829" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="830">
       <c r="E830" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="831">
       <c r="E831" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="832">
       <c r="E832" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="833">
       <c r="E833" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="834">
       <c r="E834" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="835">
       <c r="E835" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="836">
       <c r="E836" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="837">
       <c r="E837" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="838">
       <c r="E838" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="839">
       <c r="E839" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="840">
       <c r="E840" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="841">
       <c r="E841" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="842">
       <c r="E842" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="843">
       <c r="E843" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="844">
       <c r="E844" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="845">
       <c r="E845" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="846">
       <c r="E846" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="847">
       <c r="E847" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="848">
       <c r="E848" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="849">
       <c r="E849" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="850">
       <c r="E850" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="851">
       <c r="E851" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="852">
       <c r="E852" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="853">
       <c r="E853" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="854">
       <c r="E854" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="855">
       <c r="E855" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="856">
       <c r="E856" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="857">
       <c r="E857" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="858">
       <c r="E858" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="859">
       <c r="E859" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="860">
       <c r="E860" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="861">
       <c r="E861" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="862">
       <c r="E862" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="863">
       <c r="E863" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="864">
       <c r="E864" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="865">
       <c r="E865" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="866">
       <c r="E866" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="867">
       <c r="E867" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="868">
       <c r="E868" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="869">
       <c r="E869" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="870">
       <c r="E870" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="871">
       <c r="E871" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="872">
       <c r="E872" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="873">
       <c r="E873" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="874">
       <c r="E874" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="875">
       <c r="E875" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="876">
       <c r="E876" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="877">
       <c r="E877" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="878">
       <c r="E878" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="879">
       <c r="E879" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="880">
       <c r="E880" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="881">
       <c r="E881" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="882">
       <c r="E882" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="883">
       <c r="E883" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="884">
       <c r="E884" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="885">
       <c r="E885" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="886">
       <c r="E886" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="887">
       <c r="E887" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="888">
       <c r="E888" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="889">
       <c r="E889" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="890">
       <c r="E890" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="891">
       <c r="E891" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="892">
       <c r="E892" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="893">
       <c r="E893" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="894">
       <c r="E894" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="895">
       <c r="E895" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="896">
       <c r="E896" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="897">
       <c r="E897" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="898">
       <c r="E898" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="899">
       <c r="E899" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="900">
       <c r="E900" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="901">
       <c r="E901" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="902">
       <c r="E902" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="903">
       <c r="E903" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="904">
       <c r="E904" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="905">
       <c r="E905" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="906">
       <c r="E906" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="907">
       <c r="E907" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="908">
       <c r="E908" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="909">
       <c r="E909" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="910">
       <c r="E910" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="911">
       <c r="E911" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="912">
       <c r="E912" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="913">
       <c r="E913" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="914">
       <c r="E914" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="915">
       <c r="E915" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="916">
       <c r="E916" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="917">
       <c r="E917" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="918">
       <c r="E918" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="919">
       <c r="E919" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="920">
       <c r="E920" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="921">
       <c r="E921" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="922">
       <c r="E922" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="923">
       <c r="E923" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="924">
       <c r="E924" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="925">
       <c r="E925" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="926">
       <c r="E926" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="927">
       <c r="E927" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="928">
       <c r="E928" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="929">
       <c r="E929" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="930">
       <c r="E930" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="931">
       <c r="E931" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="932">
       <c r="E932" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="933">
       <c r="E933" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="934">
       <c r="E934" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="935">
       <c r="E935" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="936">
       <c r="E936" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="937">
       <c r="E937" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="938">
       <c r="E938" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="939">
       <c r="E939" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="940">
       <c r="E940" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="941">
       <c r="E941" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="942">
       <c r="E942" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="943">
       <c r="E943" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="944">
       <c r="E944" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="945">
       <c r="E945" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="946">
       <c r="E946" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="947">
       <c r="E947" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="948">
       <c r="E948" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="949">
       <c r="E949" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="950">
       <c r="E950" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="951">
       <c r="E951" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="952">
       <c r="E952" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="953">
       <c r="E953" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="954">
       <c r="E954" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="955">
       <c r="E955" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="956">
       <c r="E956" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="957">
       <c r="E957" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="958">
       <c r="E958" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="959">
       <c r="E959" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="960">
       <c r="E960" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="961">
       <c r="E961" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="962">
       <c r="E962" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="963">
       <c r="E963" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="964">
       <c r="E964" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="965">
       <c r="E965" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="966">
       <c r="E966" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="967">
       <c r="E967" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="968">
       <c r="E968" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="969">
       <c r="E969" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="970">
       <c r="E970" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="971">
       <c r="E971" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="972">
       <c r="E972" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="973">
       <c r="E973" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="974">
       <c r="E974" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="975">
       <c r="E975" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="976">
       <c r="E976" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="977">
       <c r="E977" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="978">
       <c r="E978" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="979">
       <c r="E979" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="980">
       <c r="E980" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="981">
       <c r="E981" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="982">
       <c r="E982" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="983">
       <c r="E983" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="984">
       <c r="E984" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="985">
       <c r="E985" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="986">
       <c r="E986" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="987">
       <c r="E987" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="988">
       <c r="E988" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="989">
       <c r="E989" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="990">
       <c r="E990" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="991">
       <c r="E991" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="992">
       <c r="E992" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="993">
       <c r="E993" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="994">
       <c r="E994" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="995">
       <c r="E995" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="996">
       <c r="E996" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="997">
       <c r="E997" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="998">
       <c r="E998" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="999">
       <c r="E999" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1000">
       <c r="E1000" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4331" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4336" uniqueCount="102">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -485,10 +485,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -496,13 +496,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -510,13 +510,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -669,7 +669,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G733" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G734" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -15457,15 +15457,27 @@
       </c>
     </row>
     <row r="634">
-      <c r="A634" s="4"/>
-      <c r="B634" s="5"/>
-      <c r="C634" s="6"/>
-      <c r="D634" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E634" s="6"/>
-      <c r="F634" s="6"/>
-      <c r="G634" s="7"/>
+      <c r="A634" s="12">
+        <v>45950.598089293984</v>
+      </c>
+      <c r="B634" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C634" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D634" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E634" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F634" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G634" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="16"/>
@@ -16546,15 +16558,26 @@
       <c r="G732" s="7"/>
     </row>
     <row r="733">
-      <c r="A733" s="20"/>
-      <c r="B733" s="21"/>
-      <c r="C733" s="22"/>
-      <c r="D733" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E733" s="22"/>
-      <c r="F733" s="22"/>
-      <c r="G733" s="23"/>
+      <c r="A733" s="16"/>
+      <c r="B733" s="17"/>
+      <c r="C733" s="18"/>
+      <c r="D733" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E733" s="18"/>
+      <c r="F733" s="18"/>
+      <c r="G733" s="19"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="20"/>
+      <c r="B734" s="21"/>
+      <c r="C734" s="22"/>
+      <c r="D734" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E734" s="22"/>
+      <c r="F734" s="22"/>
+      <c r="G734" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4336" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4346" uniqueCount="102">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -669,7 +669,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G734" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G736" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -15480,26 +15480,50 @@
       </c>
     </row>
     <row r="635">
-      <c r="A635" s="16"/>
-      <c r="B635" s="17"/>
-      <c r="C635" s="18"/>
-      <c r="D635" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E635" s="18"/>
-      <c r="F635" s="18"/>
-      <c r="G635" s="19"/>
+      <c r="A635" s="8">
+        <v>45951.40860740741</v>
+      </c>
+      <c r="B635" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C635" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D635" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E635" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F635" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G635" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="636">
-      <c r="A636" s="4"/>
-      <c r="B636" s="5"/>
-      <c r="C636" s="6"/>
-      <c r="D636" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E636" s="6"/>
-      <c r="F636" s="6"/>
-      <c r="G636" s="7"/>
+      <c r="A636" s="12">
+        <v>45951.55162837963</v>
+      </c>
+      <c r="B636" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C636" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D636" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E636" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F636" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G636" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="16"/>
@@ -16569,15 +16593,37 @@
       <c r="G733" s="19"/>
     </row>
     <row r="734">
-      <c r="A734" s="20"/>
-      <c r="B734" s="21"/>
-      <c r="C734" s="22"/>
-      <c r="D734" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E734" s="22"/>
-      <c r="F734" s="22"/>
-      <c r="G734" s="23"/>
+      <c r="A734" s="4"/>
+      <c r="B734" s="5"/>
+      <c r="C734" s="6"/>
+      <c r="D734" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E734" s="6"/>
+      <c r="F734" s="6"/>
+      <c r="G734" s="7"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="16"/>
+      <c r="B735" s="17"/>
+      <c r="C735" s="18"/>
+      <c r="D735" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E735" s="18"/>
+      <c r="F735" s="18"/>
+      <c r="G735" s="19"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="20"/>
+      <c r="B736" s="21"/>
+      <c r="C736" s="22"/>
+      <c r="D736" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E736" s="22"/>
+      <c r="F736" s="22"/>
+      <c r="G736" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4426" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4431" uniqueCount="103">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -472,7 +472,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G752" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G753" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -15697,15 +15697,27 @@
       </c>
     </row>
     <row r="653" ht="22.5" customHeight="1">
-      <c r="A653" s="2"/>
-      <c r="B653" s="3"/>
-      <c r="C653" s="4"/>
-      <c r="D653" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E653" s="4"/>
-      <c r="F653" s="4"/>
-      <c r="G653" s="4"/>
+      <c r="A653" s="5">
+        <v>45972.54771244213</v>
+      </c>
+      <c r="B653" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C653" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D653" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E653" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F653" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G653" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="654" ht="22.5" customHeight="1">
       <c r="A654" s="2"/>
@@ -16795,6 +16807,17 @@
       <c r="E752" s="4"/>
       <c r="F752" s="4"/>
       <c r="G752" s="4"/>
+    </row>
+    <row r="753" ht="22.5" customHeight="1">
+      <c r="A753" s="2"/>
+      <c r="B753" s="3"/>
+      <c r="C753" s="4"/>
+      <c r="D753" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E753" s="4"/>
+      <c r="F753" s="4"/>
+      <c r="G753" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4456" uniqueCount="104">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G755" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G758" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -15772,37 +15772,73 @@
       </c>
     </row>
     <row r="656" ht="22.5" customHeight="1">
-      <c r="A656" s="3"/>
-      <c r="B656" s="4"/>
-      <c r="C656" s="5"/>
-      <c r="D656" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E656" s="5"/>
-      <c r="F656" s="5"/>
-      <c r="G656" s="5"/>
+      <c r="A656" s="6">
+        <v>46021.76755451389</v>
+      </c>
+      <c r="B656" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C656" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D656" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E656" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F656" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G656" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="657" ht="22.5" customHeight="1">
-      <c r="A657" s="3"/>
-      <c r="B657" s="4"/>
-      <c r="C657" s="5"/>
-      <c r="D657" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E657" s="5"/>
-      <c r="F657" s="5"/>
-      <c r="G657" s="5"/>
+      <c r="A657" s="6">
+        <v>46022.41604818287</v>
+      </c>
+      <c r="B657" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C657" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D657" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E657" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F657" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G657" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="658" ht="22.5" customHeight="1">
-      <c r="A658" s="3"/>
-      <c r="B658" s="4"/>
-      <c r="C658" s="5"/>
-      <c r="D658" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E658" s="5"/>
-      <c r="F658" s="5"/>
-      <c r="G658" s="5"/>
+      <c r="A658" s="6">
+        <v>46022.49552228009</v>
+      </c>
+      <c r="B658" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C658" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D658" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E658" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F658" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G658" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="659" ht="22.5" customHeight="1">
       <c r="A659" s="3"/>
@@ -16870,6 +16906,39 @@
       <c r="E755" s="5"/>
       <c r="F755" s="5"/>
       <c r="G755" s="5"/>
+    </row>
+    <row r="756" ht="22.5" customHeight="1">
+      <c r="A756" s="3"/>
+      <c r="B756" s="4"/>
+      <c r="C756" s="5"/>
+      <c r="D756" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E756" s="5"/>
+      <c r="F756" s="5"/>
+      <c r="G756" s="5"/>
+    </row>
+    <row r="757" ht="22.5" customHeight="1">
+      <c r="A757" s="3"/>
+      <c r="B757" s="4"/>
+      <c r="C757" s="5"/>
+      <c r="D757" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E757" s="5"/>
+      <c r="F757" s="5"/>
+      <c r="G757" s="5"/>
+    </row>
+    <row r="758" ht="22.5" customHeight="1">
+      <c r="A758" s="3"/>
+      <c r="B758" s="4"/>
+      <c r="C758" s="5"/>
+      <c r="D758" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E758" s="5"/>
+      <c r="F758" s="5"/>
+      <c r="G758" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4456" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="104">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G758" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G772" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -15841,158 +15841,326 @@
       </c>
     </row>
     <row r="659" ht="22.5" customHeight="1">
-      <c r="A659" s="3"/>
-      <c r="B659" s="4"/>
-      <c r="C659" s="5"/>
-      <c r="D659" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E659" s="5"/>
-      <c r="F659" s="5"/>
-      <c r="G659" s="5"/>
+      <c r="A659" s="6">
+        <v>46024.73086443287</v>
+      </c>
+      <c r="B659" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C659" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D659" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E659" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F659" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G659" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="660" ht="22.5" customHeight="1">
-      <c r="A660" s="3"/>
-      <c r="B660" s="4"/>
-      <c r="C660" s="5"/>
-      <c r="D660" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E660" s="5"/>
-      <c r="F660" s="5"/>
-      <c r="G660" s="5"/>
+      <c r="A660" s="6">
+        <v>46024.84659783565</v>
+      </c>
+      <c r="B660" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C660" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D660" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E660" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F660" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G660" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="661" ht="22.5" customHeight="1">
-      <c r="A661" s="3"/>
-      <c r="B661" s="4"/>
-      <c r="C661" s="5"/>
-      <c r="D661" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E661" s="5"/>
-      <c r="F661" s="5"/>
-      <c r="G661" s="5"/>
+      <c r="A661" s="6">
+        <v>46025.5541284375</v>
+      </c>
+      <c r="B661" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C661" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D661" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E661" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F661" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G661" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="662" ht="22.5" customHeight="1">
-      <c r="A662" s="3"/>
-      <c r="B662" s="4"/>
-      <c r="C662" s="5"/>
-      <c r="D662" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E662" s="5"/>
-      <c r="F662" s="5"/>
-      <c r="G662" s="5"/>
+      <c r="A662" s="6">
+        <v>46025.560083020835</v>
+      </c>
+      <c r="B662" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C662" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D662" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E662" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F662" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G662" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="663" ht="22.5" customHeight="1">
-      <c r="A663" s="3"/>
-      <c r="B663" s="4"/>
-      <c r="C663" s="5"/>
-      <c r="D663" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E663" s="5"/>
-      <c r="F663" s="5"/>
-      <c r="G663" s="5"/>
+      <c r="A663" s="6">
+        <v>46025.59565940972</v>
+      </c>
+      <c r="B663" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C663" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D663" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E663" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F663" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G663" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="664" ht="22.5" customHeight="1">
-      <c r="A664" s="3"/>
-      <c r="B664" s="4"/>
-      <c r="C664" s="5"/>
-      <c r="D664" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E664" s="5"/>
-      <c r="F664" s="5"/>
-      <c r="G664" s="5"/>
+      <c r="A664" s="6">
+        <v>46025.60043486111</v>
+      </c>
+      <c r="B664" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C664" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D664" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E664" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F664" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G664" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="665" ht="22.5" customHeight="1">
-      <c r="A665" s="3"/>
-      <c r="B665" s="4"/>
-      <c r="C665" s="5"/>
-      <c r="D665" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E665" s="5"/>
-      <c r="F665" s="5"/>
-      <c r="G665" s="5"/>
+      <c r="A665" s="6">
+        <v>46025.63678744213</v>
+      </c>
+      <c r="B665" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C665" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D665" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E665" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F665" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G665" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="666" ht="22.5" customHeight="1">
-      <c r="A666" s="3"/>
-      <c r="B666" s="4"/>
-      <c r="C666" s="5"/>
-      <c r="D666" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E666" s="5"/>
-      <c r="F666" s="5"/>
-      <c r="G666" s="5"/>
+      <c r="A666" s="6">
+        <v>46026.50485855324</v>
+      </c>
+      <c r="B666" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C666" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D666" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E666" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F666" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G666" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="667" ht="22.5" customHeight="1">
-      <c r="A667" s="3"/>
-      <c r="B667" s="4"/>
-      <c r="C667" s="5"/>
-      <c r="D667" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E667" s="5"/>
-      <c r="F667" s="5"/>
-      <c r="G667" s="5"/>
+      <c r="A667" s="6">
+        <v>46026.51249828703</v>
+      </c>
+      <c r="B667" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C667" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D667" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E667" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F667" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G667" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="668" ht="22.5" customHeight="1">
-      <c r="A668" s="3"/>
-      <c r="B668" s="4"/>
-      <c r="C668" s="5"/>
-      <c r="D668" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E668" s="5"/>
-      <c r="F668" s="5"/>
-      <c r="G668" s="5"/>
+      <c r="A668" s="6">
+        <v>46026.52752942129</v>
+      </c>
+      <c r="B668" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C668" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D668" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E668" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F668" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G668" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="669" ht="22.5" customHeight="1">
-      <c r="A669" s="3"/>
-      <c r="B669" s="4"/>
-      <c r="C669" s="5"/>
-      <c r="D669" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E669" s="5"/>
-      <c r="F669" s="5"/>
-      <c r="G669" s="5"/>
+      <c r="A669" s="6">
+        <v>46026.527573252315</v>
+      </c>
+      <c r="B669" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C669" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D669" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E669" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F669" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G669" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="670" ht="22.5" customHeight="1">
-      <c r="A670" s="3"/>
-      <c r="B670" s="4"/>
-      <c r="C670" s="5"/>
-      <c r="D670" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E670" s="5"/>
-      <c r="F670" s="5"/>
-      <c r="G670" s="5"/>
+      <c r="A670" s="6">
+        <v>46026.52775288194</v>
+      </c>
+      <c r="B670" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C670" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D670" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E670" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F670" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G670" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="671" ht="22.5" customHeight="1">
-      <c r="A671" s="3"/>
-      <c r="B671" s="4"/>
-      <c r="C671" s="5"/>
-      <c r="D671" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E671" s="5"/>
-      <c r="F671" s="5"/>
-      <c r="G671" s="5"/>
+      <c r="A671" s="6">
+        <v>46026.547502870366</v>
+      </c>
+      <c r="B671" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C671" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D671" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E671" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F671" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G671" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="672" ht="22.5" customHeight="1">
-      <c r="A672" s="3"/>
-      <c r="B672" s="4"/>
-      <c r="C672" s="5"/>
-      <c r="D672" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E672" s="5"/>
-      <c r="F672" s="5"/>
-      <c r="G672" s="5"/>
+      <c r="A672" s="6">
+        <v>46026.57139607639</v>
+      </c>
+      <c r="B672" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C672" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D672" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E672" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F672" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G672" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="673" ht="22.5" customHeight="1">
       <c r="A673" s="3"/>
@@ -16939,6 +17107,160 @@
       <c r="E758" s="5"/>
       <c r="F758" s="5"/>
       <c r="G758" s="5"/>
+    </row>
+    <row r="759" ht="22.5" customHeight="1">
+      <c r="A759" s="3"/>
+      <c r="B759" s="4"/>
+      <c r="C759" s="5"/>
+      <c r="D759" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E759" s="5"/>
+      <c r="F759" s="5"/>
+      <c r="G759" s="5"/>
+    </row>
+    <row r="760" ht="22.5" customHeight="1">
+      <c r="A760" s="3"/>
+      <c r="B760" s="4"/>
+      <c r="C760" s="5"/>
+      <c r="D760" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E760" s="5"/>
+      <c r="F760" s="5"/>
+      <c r="G760" s="5"/>
+    </row>
+    <row r="761" ht="22.5" customHeight="1">
+      <c r="A761" s="3"/>
+      <c r="B761" s="4"/>
+      <c r="C761" s="5"/>
+      <c r="D761" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E761" s="5"/>
+      <c r="F761" s="5"/>
+      <c r="G761" s="5"/>
+    </row>
+    <row r="762" ht="22.5" customHeight="1">
+      <c r="A762" s="3"/>
+      <c r="B762" s="4"/>
+      <c r="C762" s="5"/>
+      <c r="D762" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E762" s="5"/>
+      <c r="F762" s="5"/>
+      <c r="G762" s="5"/>
+    </row>
+    <row r="763" ht="22.5" customHeight="1">
+      <c r="A763" s="3"/>
+      <c r="B763" s="4"/>
+      <c r="C763" s="5"/>
+      <c r="D763" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E763" s="5"/>
+      <c r="F763" s="5"/>
+      <c r="G763" s="5"/>
+    </row>
+    <row r="764" ht="22.5" customHeight="1">
+      <c r="A764" s="3"/>
+      <c r="B764" s="4"/>
+      <c r="C764" s="5"/>
+      <c r="D764" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E764" s="5"/>
+      <c r="F764" s="5"/>
+      <c r="G764" s="5"/>
+    </row>
+    <row r="765" ht="22.5" customHeight="1">
+      <c r="A765" s="3"/>
+      <c r="B765" s="4"/>
+      <c r="C765" s="5"/>
+      <c r="D765" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E765" s="5"/>
+      <c r="F765" s="5"/>
+      <c r="G765" s="5"/>
+    </row>
+    <row r="766" ht="22.5" customHeight="1">
+      <c r="A766" s="3"/>
+      <c r="B766" s="4"/>
+      <c r="C766" s="5"/>
+      <c r="D766" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E766" s="5"/>
+      <c r="F766" s="5"/>
+      <c r="G766" s="5"/>
+    </row>
+    <row r="767" ht="22.5" customHeight="1">
+      <c r="A767" s="3"/>
+      <c r="B767" s="4"/>
+      <c r="C767" s="5"/>
+      <c r="D767" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E767" s="5"/>
+      <c r="F767" s="5"/>
+      <c r="G767" s="5"/>
+    </row>
+    <row r="768" ht="22.5" customHeight="1">
+      <c r="A768" s="3"/>
+      <c r="B768" s="4"/>
+      <c r="C768" s="5"/>
+      <c r="D768" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E768" s="5"/>
+      <c r="F768" s="5"/>
+      <c r="G768" s="5"/>
+    </row>
+    <row r="769" ht="22.5" customHeight="1">
+      <c r="A769" s="3"/>
+      <c r="B769" s="4"/>
+      <c r="C769" s="5"/>
+      <c r="D769" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E769" s="5"/>
+      <c r="F769" s="5"/>
+      <c r="G769" s="5"/>
+    </row>
+    <row r="770" ht="22.5" customHeight="1">
+      <c r="A770" s="3"/>
+      <c r="B770" s="4"/>
+      <c r="C770" s="5"/>
+      <c r="D770" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E770" s="5"/>
+      <c r="F770" s="5"/>
+      <c r="G770" s="5"/>
+    </row>
+    <row r="771" ht="22.5" customHeight="1">
+      <c r="A771" s="3"/>
+      <c r="B771" s="4"/>
+      <c r="C771" s="5"/>
+      <c r="D771" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E771" s="5"/>
+      <c r="F771" s="5"/>
+      <c r="G771" s="5"/>
+    </row>
+    <row r="772" ht="22.5" customHeight="1">
+      <c r="A772" s="3"/>
+      <c r="B772" s="4"/>
+      <c r="C772" s="5"/>
+      <c r="D772" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E772" s="5"/>
+      <c r="F772" s="5"/>
+      <c r="G772" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4596" uniqueCount="106">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -254,6 +254,12 @@
     <t>Bárbara del Real Gómez</t>
   </si>
   <si>
+    <t>Xcaret Pineda</t>
+  </si>
+  <si>
+    <t>Giana Riley</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -478,7 +484,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G772" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G786" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -16163,165 +16169,333 @@
       </c>
     </row>
     <row r="673" ht="22.5" customHeight="1">
-      <c r="A673" s="3"/>
-      <c r="B673" s="4"/>
-      <c r="C673" s="5"/>
-      <c r="D673" s="5" t="s">
+      <c r="A673" s="6">
+        <v>46026.94119229166</v>
+      </c>
+      <c r="B673" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C673" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D673" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E673" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F673" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G673" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="674" ht="22.5" customHeight="1">
+      <c r="A674" s="6">
+        <v>46027.95845864584</v>
+      </c>
+      <c r="B674" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C674" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D674" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E674" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F674" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G674" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="675" ht="22.5" customHeight="1">
+      <c r="A675" s="6">
+        <v>46027.962911724535</v>
+      </c>
+      <c r="B675" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C675" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D675" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E673" s="5"/>
-      <c r="F673" s="5"/>
-      <c r="G673" s="5"/>
-    </row>
-    <row r="674" ht="22.5" customHeight="1">
-      <c r="A674" s="3"/>
-      <c r="B674" s="4"/>
-      <c r="C674" s="5"/>
-      <c r="D674" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E674" s="5"/>
-      <c r="F674" s="5"/>
-      <c r="G674" s="5"/>
-    </row>
-    <row r="675" ht="22.5" customHeight="1">
-      <c r="A675" s="3"/>
-      <c r="B675" s="4"/>
-      <c r="C675" s="5"/>
-      <c r="D675" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E675" s="5"/>
-      <c r="F675" s="5"/>
-      <c r="G675" s="5"/>
+      <c r="E675" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F675" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G675" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="676" ht="22.5" customHeight="1">
-      <c r="A676" s="3"/>
-      <c r="B676" s="4"/>
-      <c r="C676" s="5"/>
-      <c r="D676" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E676" s="5"/>
-      <c r="F676" s="5"/>
-      <c r="G676" s="5"/>
+      <c r="A676" s="6">
+        <v>46027.984876331015</v>
+      </c>
+      <c r="B676" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C676" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D676" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E676" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F676" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G676" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="677" ht="22.5" customHeight="1">
-      <c r="A677" s="3"/>
-      <c r="B677" s="4"/>
-      <c r="C677" s="5"/>
-      <c r="D677" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E677" s="5"/>
-      <c r="F677" s="5"/>
-      <c r="G677" s="5"/>
+      <c r="A677" s="6">
+        <v>46027.985643506945</v>
+      </c>
+      <c r="B677" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C677" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D677" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E677" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F677" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G677" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="678" ht="22.5" customHeight="1">
-      <c r="A678" s="3"/>
-      <c r="B678" s="4"/>
-      <c r="C678" s="5"/>
-      <c r="D678" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E678" s="5"/>
-      <c r="F678" s="5"/>
-      <c r="G678" s="5"/>
+      <c r="A678" s="6">
+        <v>46027.98593306713</v>
+      </c>
+      <c r="B678" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C678" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D678" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E678" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F678" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G678" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="679" ht="22.5" customHeight="1">
-      <c r="A679" s="3"/>
-      <c r="B679" s="4"/>
-      <c r="C679" s="5"/>
-      <c r="D679" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E679" s="5"/>
-      <c r="F679" s="5"/>
-      <c r="G679" s="5"/>
+      <c r="A679" s="6">
+        <v>46027.989084016204</v>
+      </c>
+      <c r="B679" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C679" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D679" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E679" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F679" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G679" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="680" ht="22.5" customHeight="1">
-      <c r="A680" s="3"/>
-      <c r="B680" s="4"/>
-      <c r="C680" s="5"/>
-      <c r="D680" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E680" s="5"/>
-      <c r="F680" s="5"/>
-      <c r="G680" s="5"/>
+      <c r="A680" s="6">
+        <v>46027.98919822917</v>
+      </c>
+      <c r="B680" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C680" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D680" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E680" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F680" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G680" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="681" ht="22.5" customHeight="1">
-      <c r="A681" s="3"/>
-      <c r="B681" s="4"/>
-      <c r="C681" s="5"/>
-      <c r="D681" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E681" s="5"/>
-      <c r="F681" s="5"/>
-      <c r="G681" s="5"/>
+      <c r="A681" s="6">
+        <v>46027.989351365744</v>
+      </c>
+      <c r="B681" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C681" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D681" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E681" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F681" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G681" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="682" ht="22.5" customHeight="1">
-      <c r="A682" s="3"/>
-      <c r="B682" s="4"/>
-      <c r="C682" s="5"/>
-      <c r="D682" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E682" s="5"/>
-      <c r="F682" s="5"/>
-      <c r="G682" s="5"/>
+      <c r="A682" s="6">
+        <v>46027.990538240745</v>
+      </c>
+      <c r="B682" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C682" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D682" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E682" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F682" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G682" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="683" ht="22.5" customHeight="1">
-      <c r="A683" s="3"/>
-      <c r="B683" s="4"/>
-      <c r="C683" s="5"/>
-      <c r="D683" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E683" s="5"/>
-      <c r="F683" s="5"/>
-      <c r="G683" s="5"/>
+      <c r="A683" s="6">
+        <v>46028.01912575231</v>
+      </c>
+      <c r="B683" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C683" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D683" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E683" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F683" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G683" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="684" ht="22.5" customHeight="1">
-      <c r="A684" s="3"/>
-      <c r="B684" s="4"/>
-      <c r="C684" s="5"/>
-      <c r="D684" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E684" s="5"/>
-      <c r="F684" s="5"/>
-      <c r="G684" s="5"/>
+      <c r="A684" s="6">
+        <v>46028.4455222338</v>
+      </c>
+      <c r="B684" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C684" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D684" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E684" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F684" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G684" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="685" ht="22.5" customHeight="1">
-      <c r="A685" s="3"/>
-      <c r="B685" s="4"/>
-      <c r="C685" s="5"/>
-      <c r="D685" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E685" s="5"/>
-      <c r="F685" s="5"/>
-      <c r="G685" s="5"/>
+      <c r="A685" s="6">
+        <v>46028.45460516204</v>
+      </c>
+      <c r="B685" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C685" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D685" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E685" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F685" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G685" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="686" ht="22.5" customHeight="1">
-      <c r="A686" s="3"/>
-      <c r="B686" s="4"/>
-      <c r="C686" s="5"/>
-      <c r="D686" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E686" s="5"/>
-      <c r="F686" s="5"/>
-      <c r="G686" s="5"/>
+      <c r="A686" s="6">
+        <v>46028.49456658565</v>
+      </c>
+      <c r="B686" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C686" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D686" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E686" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F686" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G686" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="687" ht="22.5" customHeight="1">
       <c r="A687" s="3"/>
       <c r="B687" s="4"/>
       <c r="C687" s="5"/>
       <c r="D687" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E687" s="5"/>
       <c r="F687" s="5"/>
@@ -16332,7 +16506,7 @@
       <c r="B688" s="4"/>
       <c r="C688" s="5"/>
       <c r="D688" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E688" s="5"/>
       <c r="F688" s="5"/>
@@ -16343,7 +16517,7 @@
       <c r="B689" s="4"/>
       <c r="C689" s="5"/>
       <c r="D689" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E689" s="5"/>
       <c r="F689" s="5"/>
@@ -16354,7 +16528,7 @@
       <c r="B690" s="4"/>
       <c r="C690" s="5"/>
       <c r="D690" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E690" s="5"/>
       <c r="F690" s="5"/>
@@ -16365,7 +16539,7 @@
       <c r="B691" s="4"/>
       <c r="C691" s="5"/>
       <c r="D691" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E691" s="5"/>
       <c r="F691" s="5"/>
@@ -16376,7 +16550,7 @@
       <c r="B692" s="4"/>
       <c r="C692" s="5"/>
       <c r="D692" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E692" s="5"/>
       <c r="F692" s="5"/>
@@ -16387,7 +16561,7 @@
       <c r="B693" s="4"/>
       <c r="C693" s="5"/>
       <c r="D693" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E693" s="5"/>
       <c r="F693" s="5"/>
@@ -16398,7 +16572,7 @@
       <c r="B694" s="4"/>
       <c r="C694" s="5"/>
       <c r="D694" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E694" s="5"/>
       <c r="F694" s="5"/>
@@ -16409,7 +16583,7 @@
       <c r="B695" s="4"/>
       <c r="C695" s="5"/>
       <c r="D695" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E695" s="5"/>
       <c r="F695" s="5"/>
@@ -16420,7 +16594,7 @@
       <c r="B696" s="4"/>
       <c r="C696" s="5"/>
       <c r="D696" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E696" s="5"/>
       <c r="F696" s="5"/>
@@ -16431,7 +16605,7 @@
       <c r="B697" s="4"/>
       <c r="C697" s="5"/>
       <c r="D697" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E697" s="5"/>
       <c r="F697" s="5"/>
@@ -16442,7 +16616,7 @@
       <c r="B698" s="4"/>
       <c r="C698" s="5"/>
       <c r="D698" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E698" s="5"/>
       <c r="F698" s="5"/>
@@ -16453,7 +16627,7 @@
       <c r="B699" s="4"/>
       <c r="C699" s="5"/>
       <c r="D699" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E699" s="5"/>
       <c r="F699" s="5"/>
@@ -16464,7 +16638,7 @@
       <c r="B700" s="4"/>
       <c r="C700" s="5"/>
       <c r="D700" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E700" s="5"/>
       <c r="F700" s="5"/>
@@ -16475,7 +16649,7 @@
       <c r="B701" s="4"/>
       <c r="C701" s="5"/>
       <c r="D701" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E701" s="5"/>
       <c r="F701" s="5"/>
@@ -16486,7 +16660,7 @@
       <c r="B702" s="4"/>
       <c r="C702" s="5"/>
       <c r="D702" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E702" s="5"/>
       <c r="F702" s="5"/>
@@ -16497,7 +16671,7 @@
       <c r="B703" s="4"/>
       <c r="C703" s="5"/>
       <c r="D703" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E703" s="5"/>
       <c r="F703" s="5"/>
@@ -16508,7 +16682,7 @@
       <c r="B704" s="4"/>
       <c r="C704" s="5"/>
       <c r="D704" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E704" s="5"/>
       <c r="F704" s="5"/>
@@ -16519,7 +16693,7 @@
       <c r="B705" s="4"/>
       <c r="C705" s="5"/>
       <c r="D705" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E705" s="5"/>
       <c r="F705" s="5"/>
@@ -16530,7 +16704,7 @@
       <c r="B706" s="4"/>
       <c r="C706" s="5"/>
       <c r="D706" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E706" s="5"/>
       <c r="F706" s="5"/>
@@ -16541,7 +16715,7 @@
       <c r="B707" s="4"/>
       <c r="C707" s="5"/>
       <c r="D707" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E707" s="5"/>
       <c r="F707" s="5"/>
@@ -16552,7 +16726,7 @@
       <c r="B708" s="4"/>
       <c r="C708" s="5"/>
       <c r="D708" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E708" s="5"/>
       <c r="F708" s="5"/>
@@ -16563,7 +16737,7 @@
       <c r="B709" s="4"/>
       <c r="C709" s="5"/>
       <c r="D709" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E709" s="5"/>
       <c r="F709" s="5"/>
@@ -16574,7 +16748,7 @@
       <c r="B710" s="4"/>
       <c r="C710" s="5"/>
       <c r="D710" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E710" s="5"/>
       <c r="F710" s="5"/>
@@ -16585,7 +16759,7 @@
       <c r="B711" s="4"/>
       <c r="C711" s="5"/>
       <c r="D711" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E711" s="5"/>
       <c r="F711" s="5"/>
@@ -16596,7 +16770,7 @@
       <c r="B712" s="4"/>
       <c r="C712" s="5"/>
       <c r="D712" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E712" s="5"/>
       <c r="F712" s="5"/>
@@ -16607,7 +16781,7 @@
       <c r="B713" s="4"/>
       <c r="C713" s="5"/>
       <c r="D713" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E713" s="5"/>
       <c r="F713" s="5"/>
@@ -16618,7 +16792,7 @@
       <c r="B714" s="4"/>
       <c r="C714" s="5"/>
       <c r="D714" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E714" s="5"/>
       <c r="F714" s="5"/>
@@ -16629,7 +16803,7 @@
       <c r="B715" s="4"/>
       <c r="C715" s="5"/>
       <c r="D715" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E715" s="5"/>
       <c r="F715" s="5"/>
@@ -16640,7 +16814,7 @@
       <c r="B716" s="4"/>
       <c r="C716" s="5"/>
       <c r="D716" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E716" s="5"/>
       <c r="F716" s="5"/>
@@ -16651,7 +16825,7 @@
       <c r="B717" s="4"/>
       <c r="C717" s="5"/>
       <c r="D717" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E717" s="5"/>
       <c r="F717" s="5"/>
@@ -16662,7 +16836,7 @@
       <c r="B718" s="4"/>
       <c r="C718" s="5"/>
       <c r="D718" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E718" s="5"/>
       <c r="F718" s="5"/>
@@ -16673,7 +16847,7 @@
       <c r="B719" s="4"/>
       <c r="C719" s="5"/>
       <c r="D719" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E719" s="5"/>
       <c r="F719" s="5"/>
@@ -16684,7 +16858,7 @@
       <c r="B720" s="4"/>
       <c r="C720" s="5"/>
       <c r="D720" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E720" s="5"/>
       <c r="F720" s="5"/>
@@ -16695,7 +16869,7 @@
       <c r="B721" s="4"/>
       <c r="C721" s="5"/>
       <c r="D721" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E721" s="5"/>
       <c r="F721" s="5"/>
@@ -16706,7 +16880,7 @@
       <c r="B722" s="4"/>
       <c r="C722" s="5"/>
       <c r="D722" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E722" s="5"/>
       <c r="F722" s="5"/>
@@ -16717,7 +16891,7 @@
       <c r="B723" s="4"/>
       <c r="C723" s="5"/>
       <c r="D723" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E723" s="5"/>
       <c r="F723" s="5"/>
@@ -16728,7 +16902,7 @@
       <c r="B724" s="4"/>
       <c r="C724" s="5"/>
       <c r="D724" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E724" s="5"/>
       <c r="F724" s="5"/>
@@ -16739,7 +16913,7 @@
       <c r="B725" s="4"/>
       <c r="C725" s="5"/>
       <c r="D725" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E725" s="5"/>
       <c r="F725" s="5"/>
@@ -16750,7 +16924,7 @@
       <c r="B726" s="4"/>
       <c r="C726" s="5"/>
       <c r="D726" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E726" s="5"/>
       <c r="F726" s="5"/>
@@ -16761,7 +16935,7 @@
       <c r="B727" s="4"/>
       <c r="C727" s="5"/>
       <c r="D727" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E727" s="5"/>
       <c r="F727" s="5"/>
@@ -16772,7 +16946,7 @@
       <c r="B728" s="4"/>
       <c r="C728" s="5"/>
       <c r="D728" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E728" s="5"/>
       <c r="F728" s="5"/>
@@ -16783,7 +16957,7 @@
       <c r="B729" s="4"/>
       <c r="C729" s="5"/>
       <c r="D729" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E729" s="5"/>
       <c r="F729" s="5"/>
@@ -16794,7 +16968,7 @@
       <c r="B730" s="4"/>
       <c r="C730" s="5"/>
       <c r="D730" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E730" s="5"/>
       <c r="F730" s="5"/>
@@ -16805,7 +16979,7 @@
       <c r="B731" s="4"/>
       <c r="C731" s="5"/>
       <c r="D731" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E731" s="5"/>
       <c r="F731" s="5"/>
@@ -16816,7 +16990,7 @@
       <c r="B732" s="4"/>
       <c r="C732" s="5"/>
       <c r="D732" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E732" s="5"/>
       <c r="F732" s="5"/>
@@ -16827,7 +17001,7 @@
       <c r="B733" s="4"/>
       <c r="C733" s="5"/>
       <c r="D733" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E733" s="5"/>
       <c r="F733" s="5"/>
@@ -16838,7 +17012,7 @@
       <c r="B734" s="4"/>
       <c r="C734" s="5"/>
       <c r="D734" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E734" s="5"/>
       <c r="F734" s="5"/>
@@ -16849,7 +17023,7 @@
       <c r="B735" s="4"/>
       <c r="C735" s="5"/>
       <c r="D735" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E735" s="5"/>
       <c r="F735" s="5"/>
@@ -16860,7 +17034,7 @@
       <c r="B736" s="4"/>
       <c r="C736" s="5"/>
       <c r="D736" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E736" s="5"/>
       <c r="F736" s="5"/>
@@ -16871,7 +17045,7 @@
       <c r="B737" s="4"/>
       <c r="C737" s="5"/>
       <c r="D737" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E737" s="5"/>
       <c r="F737" s="5"/>
@@ -16882,7 +17056,7 @@
       <c r="B738" s="4"/>
       <c r="C738" s="5"/>
       <c r="D738" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E738" s="5"/>
       <c r="F738" s="5"/>
@@ -16893,7 +17067,7 @@
       <c r="B739" s="4"/>
       <c r="C739" s="5"/>
       <c r="D739" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E739" s="5"/>
       <c r="F739" s="5"/>
@@ -16904,7 +17078,7 @@
       <c r="B740" s="4"/>
       <c r="C740" s="5"/>
       <c r="D740" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E740" s="5"/>
       <c r="F740" s="5"/>
@@ -16915,7 +17089,7 @@
       <c r="B741" s="4"/>
       <c r="C741" s="5"/>
       <c r="D741" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E741" s="5"/>
       <c r="F741" s="5"/>
@@ -16926,7 +17100,7 @@
       <c r="B742" s="4"/>
       <c r="C742" s="5"/>
       <c r="D742" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E742" s="5"/>
       <c r="F742" s="5"/>
@@ -16937,7 +17111,7 @@
       <c r="B743" s="4"/>
       <c r="C743" s="5"/>
       <c r="D743" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E743" s="5"/>
       <c r="F743" s="5"/>
@@ -16948,7 +17122,7 @@
       <c r="B744" s="4"/>
       <c r="C744" s="5"/>
       <c r="D744" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E744" s="5"/>
       <c r="F744" s="5"/>
@@ -16959,7 +17133,7 @@
       <c r="B745" s="4"/>
       <c r="C745" s="5"/>
       <c r="D745" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E745" s="5"/>
       <c r="F745" s="5"/>
@@ -16970,7 +17144,7 @@
       <c r="B746" s="4"/>
       <c r="C746" s="5"/>
       <c r="D746" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E746" s="5"/>
       <c r="F746" s="5"/>
@@ -16981,7 +17155,7 @@
       <c r="B747" s="4"/>
       <c r="C747" s="5"/>
       <c r="D747" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E747" s="5"/>
       <c r="F747" s="5"/>
@@ -16992,7 +17166,7 @@
       <c r="B748" s="4"/>
       <c r="C748" s="5"/>
       <c r="D748" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E748" s="5"/>
       <c r="F748" s="5"/>
@@ -17003,7 +17177,7 @@
       <c r="B749" s="4"/>
       <c r="C749" s="5"/>
       <c r="D749" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E749" s="5"/>
       <c r="F749" s="5"/>
@@ -17014,7 +17188,7 @@
       <c r="B750" s="4"/>
       <c r="C750" s="5"/>
       <c r="D750" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E750" s="5"/>
       <c r="F750" s="5"/>
@@ -17025,7 +17199,7 @@
       <c r="B751" s="4"/>
       <c r="C751" s="5"/>
       <c r="D751" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E751" s="5"/>
       <c r="F751" s="5"/>
@@ -17036,7 +17210,7 @@
       <c r="B752" s="4"/>
       <c r="C752" s="5"/>
       <c r="D752" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E752" s="5"/>
       <c r="F752" s="5"/>
@@ -17047,7 +17221,7 @@
       <c r="B753" s="4"/>
       <c r="C753" s="5"/>
       <c r="D753" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E753" s="5"/>
       <c r="F753" s="5"/>
@@ -17058,7 +17232,7 @@
       <c r="B754" s="4"/>
       <c r="C754" s="5"/>
       <c r="D754" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E754" s="5"/>
       <c r="F754" s="5"/>
@@ -17069,7 +17243,7 @@
       <c r="B755" s="4"/>
       <c r="C755" s="5"/>
       <c r="D755" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E755" s="5"/>
       <c r="F755" s="5"/>
@@ -17080,7 +17254,7 @@
       <c r="B756" s="4"/>
       <c r="C756" s="5"/>
       <c r="D756" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E756" s="5"/>
       <c r="F756" s="5"/>
@@ -17091,7 +17265,7 @@
       <c r="B757" s="4"/>
       <c r="C757" s="5"/>
       <c r="D757" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E757" s="5"/>
       <c r="F757" s="5"/>
@@ -17102,7 +17276,7 @@
       <c r="B758" s="4"/>
       <c r="C758" s="5"/>
       <c r="D758" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E758" s="5"/>
       <c r="F758" s="5"/>
@@ -17113,7 +17287,7 @@
       <c r="B759" s="4"/>
       <c r="C759" s="5"/>
       <c r="D759" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E759" s="5"/>
       <c r="F759" s="5"/>
@@ -17124,7 +17298,7 @@
       <c r="B760" s="4"/>
       <c r="C760" s="5"/>
       <c r="D760" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E760" s="5"/>
       <c r="F760" s="5"/>
@@ -17135,7 +17309,7 @@
       <c r="B761" s="4"/>
       <c r="C761" s="5"/>
       <c r="D761" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E761" s="5"/>
       <c r="F761" s="5"/>
@@ -17146,7 +17320,7 @@
       <c r="B762" s="4"/>
       <c r="C762" s="5"/>
       <c r="D762" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E762" s="5"/>
       <c r="F762" s="5"/>
@@ -17157,7 +17331,7 @@
       <c r="B763" s="4"/>
       <c r="C763" s="5"/>
       <c r="D763" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E763" s="5"/>
       <c r="F763" s="5"/>
@@ -17168,7 +17342,7 @@
       <c r="B764" s="4"/>
       <c r="C764" s="5"/>
       <c r="D764" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E764" s="5"/>
       <c r="F764" s="5"/>
@@ -17179,7 +17353,7 @@
       <c r="B765" s="4"/>
       <c r="C765" s="5"/>
       <c r="D765" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E765" s="5"/>
       <c r="F765" s="5"/>
@@ -17190,7 +17364,7 @@
       <c r="B766" s="4"/>
       <c r="C766" s="5"/>
       <c r="D766" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E766" s="5"/>
       <c r="F766" s="5"/>
@@ -17201,7 +17375,7 @@
       <c r="B767" s="4"/>
       <c r="C767" s="5"/>
       <c r="D767" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E767" s="5"/>
       <c r="F767" s="5"/>
@@ -17212,7 +17386,7 @@
       <c r="B768" s="4"/>
       <c r="C768" s="5"/>
       <c r="D768" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E768" s="5"/>
       <c r="F768" s="5"/>
@@ -17223,7 +17397,7 @@
       <c r="B769" s="4"/>
       <c r="C769" s="5"/>
       <c r="D769" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E769" s="5"/>
       <c r="F769" s="5"/>
@@ -17234,7 +17408,7 @@
       <c r="B770" s="4"/>
       <c r="C770" s="5"/>
       <c r="D770" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E770" s="5"/>
       <c r="F770" s="5"/>
@@ -17245,7 +17419,7 @@
       <c r="B771" s="4"/>
       <c r="C771" s="5"/>
       <c r="D771" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E771" s="5"/>
       <c r="F771" s="5"/>
@@ -17256,11 +17430,165 @@
       <c r="B772" s="4"/>
       <c r="C772" s="5"/>
       <c r="D772" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E772" s="5"/>
       <c r="F772" s="5"/>
       <c r="G772" s="5"/>
+    </row>
+    <row r="773" ht="22.5" customHeight="1">
+      <c r="A773" s="3"/>
+      <c r="B773" s="4"/>
+      <c r="C773" s="5"/>
+      <c r="D773" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E773" s="5"/>
+      <c r="F773" s="5"/>
+      <c r="G773" s="5"/>
+    </row>
+    <row r="774" ht="22.5" customHeight="1">
+      <c r="A774" s="3"/>
+      <c r="B774" s="4"/>
+      <c r="C774" s="5"/>
+      <c r="D774" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E774" s="5"/>
+      <c r="F774" s="5"/>
+      <c r="G774" s="5"/>
+    </row>
+    <row r="775" ht="22.5" customHeight="1">
+      <c r="A775" s="3"/>
+      <c r="B775" s="4"/>
+      <c r="C775" s="5"/>
+      <c r="D775" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E775" s="5"/>
+      <c r="F775" s="5"/>
+      <c r="G775" s="5"/>
+    </row>
+    <row r="776" ht="22.5" customHeight="1">
+      <c r="A776" s="3"/>
+      <c r="B776" s="4"/>
+      <c r="C776" s="5"/>
+      <c r="D776" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E776" s="5"/>
+      <c r="F776" s="5"/>
+      <c r="G776" s="5"/>
+    </row>
+    <row r="777" ht="22.5" customHeight="1">
+      <c r="A777" s="3"/>
+      <c r="B777" s="4"/>
+      <c r="C777" s="5"/>
+      <c r="D777" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E777" s="5"/>
+      <c r="F777" s="5"/>
+      <c r="G777" s="5"/>
+    </row>
+    <row r="778" ht="22.5" customHeight="1">
+      <c r="A778" s="3"/>
+      <c r="B778" s="4"/>
+      <c r="C778" s="5"/>
+      <c r="D778" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E778" s="5"/>
+      <c r="F778" s="5"/>
+      <c r="G778" s="5"/>
+    </row>
+    <row r="779" ht="22.5" customHeight="1">
+      <c r="A779" s="3"/>
+      <c r="B779" s="4"/>
+      <c r="C779" s="5"/>
+      <c r="D779" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E779" s="5"/>
+      <c r="F779" s="5"/>
+      <c r="G779" s="5"/>
+    </row>
+    <row r="780" ht="22.5" customHeight="1">
+      <c r="A780" s="3"/>
+      <c r="B780" s="4"/>
+      <c r="C780" s="5"/>
+      <c r="D780" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E780" s="5"/>
+      <c r="F780" s="5"/>
+      <c r="G780" s="5"/>
+    </row>
+    <row r="781" ht="22.5" customHeight="1">
+      <c r="A781" s="3"/>
+      <c r="B781" s="4"/>
+      <c r="C781" s="5"/>
+      <c r="D781" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E781" s="5"/>
+      <c r="F781" s="5"/>
+      <c r="G781" s="5"/>
+    </row>
+    <row r="782" ht="22.5" customHeight="1">
+      <c r="A782" s="3"/>
+      <c r="B782" s="4"/>
+      <c r="C782" s="5"/>
+      <c r="D782" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E782" s="5"/>
+      <c r="F782" s="5"/>
+      <c r="G782" s="5"/>
+    </row>
+    <row r="783" ht="22.5" customHeight="1">
+      <c r="A783" s="3"/>
+      <c r="B783" s="4"/>
+      <c r="C783" s="5"/>
+      <c r="D783" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E783" s="5"/>
+      <c r="F783" s="5"/>
+      <c r="G783" s="5"/>
+    </row>
+    <row r="784" ht="22.5" customHeight="1">
+      <c r="A784" s="3"/>
+      <c r="B784" s="4"/>
+      <c r="C784" s="5"/>
+      <c r="D784" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E784" s="5"/>
+      <c r="F784" s="5"/>
+      <c r="G784" s="5"/>
+    </row>
+    <row r="785" ht="22.5" customHeight="1">
+      <c r="A785" s="3"/>
+      <c r="B785" s="4"/>
+      <c r="C785" s="5"/>
+      <c r="D785" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E785" s="5"/>
+      <c r="F785" s="5"/>
+      <c r="G785" s="5"/>
+    </row>
+    <row r="786" ht="22.5" customHeight="1">
+      <c r="A786" s="3"/>
+      <c r="B786" s="4"/>
+      <c r="C786" s="5"/>
+      <c r="D786" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E786" s="5"/>
+      <c r="F786" s="5"/>
+      <c r="G786" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -17282,7 +17610,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>27</v>
@@ -17296,7 +17624,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2" s="11" t="str">
         <f t="array" ref="E2:E1000">IF(D2:D1000="","", 
@@ -17315,24 +17643,24 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -17343,7 +17671,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -17354,18 +17682,18 @@
         <v>17</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -17376,7 +17704,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -17387,18 +17715,18 @@
         <v>15</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -17409,7 +17737,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -17420,7 +17748,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -17431,40 +17759,40 @@
         <v>26</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -17475,40 +17803,40 @@
         <v>50</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -17519,7 +17847,7 @@
         <v>30</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -17530,7 +17858,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -17541,73 +17869,73 @@
         <v>39</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
@@ -17618,18 +17946,18 @@
         <v>56</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
@@ -17640,4853 +17968,4853 @@
         <v>56</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108">
       <c r="E108" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109">
       <c r="E109" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112">
       <c r="E112" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113">
       <c r="E113" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114">
       <c r="E114" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="118">
       <c r="E118" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119">
       <c r="E119" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120">
       <c r="E120" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121">
       <c r="E121" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123">
       <c r="E123" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124">
       <c r="E124" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="125">
       <c r="E125" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="126">
       <c r="E126" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127">
       <c r="E127" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="128">
       <c r="E128" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="129">
       <c r="E129" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130">
       <c r="E130" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="131">
       <c r="E131" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132">
       <c r="E132" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="133">
       <c r="E133" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="134">
       <c r="E134" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="135">
       <c r="E135" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="136">
       <c r="E136" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137">
       <c r="E137" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="138">
       <c r="E138" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="139">
       <c r="E139" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140">
       <c r="E140" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="141">
       <c r="E141" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="142">
       <c r="E142" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="143">
       <c r="E143" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="144">
       <c r="E144" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="145">
       <c r="E145" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="146">
       <c r="E146" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="147">
       <c r="E147" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="148">
       <c r="E148" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="149">
       <c r="E149" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="150">
       <c r="E150" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="151">
       <c r="E151" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="152">
       <c r="E152" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="153">
       <c r="E153" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="154">
       <c r="E154" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="155">
       <c r="E155" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="156">
       <c r="E156" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="157">
       <c r="E157" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="158">
       <c r="E158" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="159">
       <c r="E159" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="160">
       <c r="E160" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="161">
       <c r="E161" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="162">
       <c r="E162" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="163">
       <c r="E163" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="164">
       <c r="E164" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="165">
       <c r="E165" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="166">
       <c r="E166" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="167">
       <c r="E167" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="168">
       <c r="E168" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="169">
       <c r="E169" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="170">
       <c r="E170" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="171">
       <c r="E171" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="172">
       <c r="E172" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="173">
       <c r="E173" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="174">
       <c r="E174" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="175">
       <c r="E175" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="176">
       <c r="E176" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="177">
       <c r="E177" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="178">
       <c r="E178" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="179">
       <c r="E179" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="180">
       <c r="E180" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="181">
       <c r="E181" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="182">
       <c r="E182" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="183">
       <c r="E183" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="184">
       <c r="E184" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="185">
       <c r="E185" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="186">
       <c r="E186" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="187">
       <c r="E187" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="188">
       <c r="E188" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="189">
       <c r="E189" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="190">
       <c r="E190" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="191">
       <c r="E191" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="192">
       <c r="E192" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="193">
       <c r="E193" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="194">
       <c r="E194" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="195">
       <c r="E195" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="196">
       <c r="E196" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="197">
       <c r="E197" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="198">
       <c r="E198" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="199">
       <c r="E199" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="200">
       <c r="E200" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="201">
       <c r="E201" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="202">
       <c r="E202" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="203">
       <c r="E203" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="204">
       <c r="E204" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="205">
       <c r="E205" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="206">
       <c r="E206" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="207">
       <c r="E207" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="208">
       <c r="E208" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="209">
       <c r="E209" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="210">
       <c r="E210" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="211">
       <c r="E211" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="212">
       <c r="E212" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="213">
       <c r="E213" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="214">
       <c r="E214" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="215">
       <c r="E215" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="216">
       <c r="E216" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="217">
       <c r="E217" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="218">
       <c r="E218" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="219">
       <c r="E219" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="220">
       <c r="E220" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="221">
       <c r="E221" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="222">
       <c r="E222" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="223">
       <c r="E223" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="224">
       <c r="E224" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="225">
       <c r="E225" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="226">
       <c r="E226" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="227">
       <c r="E227" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="228">
       <c r="E228" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="229">
       <c r="E229" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="230">
       <c r="E230" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="231">
       <c r="E231" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="232">
       <c r="E232" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="233">
       <c r="E233" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="234">
       <c r="E234" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="235">
       <c r="E235" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="236">
       <c r="E236" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="237">
       <c r="E237" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="238">
       <c r="E238" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="239">
       <c r="E239" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="240">
       <c r="E240" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="241">
       <c r="E241" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="242">
       <c r="E242" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="243">
       <c r="E243" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="244">
       <c r="E244" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="245">
       <c r="E245" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="246">
       <c r="E246" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="247">
       <c r="E247" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="248">
       <c r="E248" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="249">
       <c r="E249" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="250">
       <c r="E250" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="251">
       <c r="E251" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="252">
       <c r="E252" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="253">
       <c r="E253" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="254">
       <c r="E254" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="255">
       <c r="E255" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="256">
       <c r="E256" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="257">
       <c r="E257" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="258">
       <c r="E258" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="259">
       <c r="E259" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="260">
       <c r="E260" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="261">
       <c r="E261" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="262">
       <c r="E262" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="263">
       <c r="E263" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="264">
       <c r="E264" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="265">
       <c r="E265" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="266">
       <c r="E266" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="267">
       <c r="E267" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="268">
       <c r="E268" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="269">
       <c r="E269" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="270">
       <c r="E270" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="271">
       <c r="E271" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="272">
       <c r="E272" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="273">
       <c r="E273" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="274">
       <c r="E274" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="275">
       <c r="E275" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="276">
       <c r="E276" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="277">
       <c r="E277" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="278">
       <c r="E278" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="279">
       <c r="E279" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="280">
       <c r="E280" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="281">
       <c r="E281" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="282">
       <c r="E282" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="283">
       <c r="E283" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="284">
       <c r="E284" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="285">
       <c r="E285" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="286">
       <c r="E286" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="287">
       <c r="E287" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="288">
       <c r="E288" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="289">
       <c r="E289" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="290">
       <c r="E290" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="291">
       <c r="E291" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="292">
       <c r="E292" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="293">
       <c r="E293" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="294">
       <c r="E294" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="295">
       <c r="E295" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="296">
       <c r="E296" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="297">
       <c r="E297" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="298">
       <c r="E298" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="299">
       <c r="E299" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="300">
       <c r="E300" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="301">
       <c r="E301" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="302">
       <c r="E302" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="303">
       <c r="E303" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="304">
       <c r="E304" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="305">
       <c r="E305" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="306">
       <c r="E306" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="307">
       <c r="E307" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="308">
       <c r="E308" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="309">
       <c r="E309" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="310">
       <c r="E310" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="311">
       <c r="E311" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="312">
       <c r="E312" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="313">
       <c r="E313" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="314">
       <c r="E314" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="315">
       <c r="E315" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="316">
       <c r="E316" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="317">
       <c r="E317" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="318">
       <c r="E318" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="319">
       <c r="E319" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="320">
       <c r="E320" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="321">
       <c r="E321" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="322">
       <c r="E322" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="323">
       <c r="E323" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="324">
       <c r="E324" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="325">
       <c r="E325" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="326">
       <c r="E326" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="327">
       <c r="E327" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="328">
       <c r="E328" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="329">
       <c r="E329" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="330">
       <c r="E330" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="331">
       <c r="E331" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="332">
       <c r="E332" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="333">
       <c r="E333" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="334">
       <c r="E334" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="335">
       <c r="E335" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="336">
       <c r="E336" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="337">
       <c r="E337" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="338">
       <c r="E338" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="339">
       <c r="E339" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="340">
       <c r="E340" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="341">
       <c r="E341" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="342">
       <c r="E342" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="343">
       <c r="E343" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="344">
       <c r="E344" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="345">
       <c r="E345" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="346">
       <c r="E346" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="347">
       <c r="E347" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="348">
       <c r="E348" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="349">
       <c r="E349" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="350">
       <c r="E350" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="351">
       <c r="E351" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="352">
       <c r="E352" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="353">
       <c r="E353" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="354">
       <c r="E354" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="355">
       <c r="E355" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="356">
       <c r="E356" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="357">
       <c r="E357" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="358">
       <c r="E358" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="359">
       <c r="E359" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="360">
       <c r="E360" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="361">
       <c r="E361" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="362">
       <c r="E362" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="363">
       <c r="E363" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="364">
       <c r="E364" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="365">
       <c r="E365" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="366">
       <c r="E366" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="367">
       <c r="E367" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="368">
       <c r="E368" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="369">
       <c r="E369" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="370">
       <c r="E370" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="371">
       <c r="E371" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="372">
       <c r="E372" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="373">
       <c r="E373" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="374">
       <c r="E374" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="375">
       <c r="E375" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="376">
       <c r="E376" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="377">
       <c r="E377" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="378">
       <c r="E378" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="379">
       <c r="E379" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="380">
       <c r="E380" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="381">
       <c r="E381" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="382">
       <c r="E382" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="383">
       <c r="E383" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="384">
       <c r="E384" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="385">
       <c r="E385" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="386">
       <c r="E386" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="387">
       <c r="E387" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="388">
       <c r="E388" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="389">
       <c r="E389" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="390">
       <c r="E390" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="391">
       <c r="E391" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="392">
       <c r="E392" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="393">
       <c r="E393" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="394">
       <c r="E394" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="395">
       <c r="E395" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="396">
       <c r="E396" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="397">
       <c r="E397" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="398">
       <c r="E398" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="399">
       <c r="E399" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="400">
       <c r="E400" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="401">
       <c r="E401" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="402">
       <c r="E402" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="403">
       <c r="E403" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="404">
       <c r="E404" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="405">
       <c r="E405" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="406">
       <c r="E406" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="407">
       <c r="E407" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="408">
       <c r="E408" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="409">
       <c r="E409" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="410">
       <c r="E410" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="411">
       <c r="E411" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="412">
       <c r="E412" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="413">
       <c r="E413" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="414">
       <c r="E414" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="415">
       <c r="E415" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="416">
       <c r="E416" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="417">
       <c r="E417" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="418">
       <c r="E418" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="419">
       <c r="E419" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="420">
       <c r="E420" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="421">
       <c r="E421" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="422">
       <c r="E422" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="423">
       <c r="E423" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="424">
       <c r="E424" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="425">
       <c r="E425" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="426">
       <c r="E426" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="427">
       <c r="E427" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="428">
       <c r="E428" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="429">
       <c r="E429" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="430">
       <c r="E430" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="431">
       <c r="E431" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="432">
       <c r="E432" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="433">
       <c r="E433" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="434">
       <c r="E434" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="435">
       <c r="E435" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="436">
       <c r="E436" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="437">
       <c r="E437" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="438">
       <c r="E438" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="439">
       <c r="E439" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="440">
       <c r="E440" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="441">
       <c r="E441" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="442">
       <c r="E442" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="443">
       <c r="E443" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="444">
       <c r="E444" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="445">
       <c r="E445" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="446">
       <c r="E446" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="447">
       <c r="E447" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="448">
       <c r="E448" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="449">
       <c r="E449" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="450">
       <c r="E450" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="451">
       <c r="E451" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="452">
       <c r="E452" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="453">
       <c r="E453" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="454">
       <c r="E454" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="455">
       <c r="E455" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="456">
       <c r="E456" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="457">
       <c r="E457" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="458">
       <c r="E458" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="459">
       <c r="E459" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="460">
       <c r="E460" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="461">
       <c r="E461" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="462">
       <c r="E462" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="463">
       <c r="E463" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="464">
       <c r="E464" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="465">
       <c r="E465" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="466">
       <c r="E466" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="467">
       <c r="E467" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="468">
       <c r="E468" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="469">
       <c r="E469" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="470">
       <c r="E470" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="471">
       <c r="E471" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="472">
       <c r="E472" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="473">
       <c r="E473" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="474">
       <c r="E474" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="475">
       <c r="E475" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="476">
       <c r="E476" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="477">
       <c r="E477" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="478">
       <c r="E478" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="479">
       <c r="E479" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="480">
       <c r="E480" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="481">
       <c r="E481" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="482">
       <c r="E482" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="483">
       <c r="E483" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="484">
       <c r="E484" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="485">
       <c r="E485" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="486">
       <c r="E486" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="487">
       <c r="E487" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="488">
       <c r="E488" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="489">
       <c r="E489" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="490">
       <c r="E490" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="491">
       <c r="E491" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="492">
       <c r="E492" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="493">
       <c r="E493" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="494">
       <c r="E494" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="495">
       <c r="E495" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="496">
       <c r="E496" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="497">
       <c r="E497" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="498">
       <c r="E498" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="499">
       <c r="E499" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="500">
       <c r="E500" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="501">
       <c r="E501" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="502">
       <c r="E502" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="503">
       <c r="E503" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="504">
       <c r="E504" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="505">
       <c r="E505" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="506">
       <c r="E506" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="507">
       <c r="E507" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="508">
       <c r="E508" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="509">
       <c r="E509" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="510">
       <c r="E510" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="511">
       <c r="E511" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="512">
       <c r="E512" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="513">
       <c r="E513" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="514">
       <c r="E514" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="515">
       <c r="E515" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="516">
       <c r="E516" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="517">
       <c r="E517" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="518">
       <c r="E518" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="519">
       <c r="E519" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="520">
       <c r="E520" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="521">
       <c r="E521" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="522">
       <c r="E522" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="523">
       <c r="E523" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="524">
       <c r="E524" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="525">
       <c r="E525" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="526">
       <c r="E526" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="527">
       <c r="E527" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="528">
       <c r="E528" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="529">
       <c r="E529" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="530">
       <c r="E530" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="531">
       <c r="E531" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="532">
       <c r="E532" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="533">
       <c r="E533" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="534">
       <c r="E534" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="535">
       <c r="E535" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="536">
       <c r="E536" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="537">
       <c r="E537" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="538">
       <c r="E538" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="539">
       <c r="E539" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="540">
       <c r="E540" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="541">
       <c r="E541" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="542">
       <c r="E542" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="543">
       <c r="E543" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="544">
       <c r="E544" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="545">
       <c r="E545" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="546">
       <c r="E546" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="547">
       <c r="E547" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="548">
       <c r="E548" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="549">
       <c r="E549" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="550">
       <c r="E550" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="551">
       <c r="E551" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="552">
       <c r="E552" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="553">
       <c r="E553" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="554">
       <c r="E554" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="555">
       <c r="E555" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="556">
       <c r="E556" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="557">
       <c r="E557" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="558">
       <c r="E558" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="559">
       <c r="E559" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="560">
       <c r="E560" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="561">
       <c r="E561" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="562">
       <c r="E562" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="563">
       <c r="E563" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="564">
       <c r="E564" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="565">
       <c r="E565" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="566">
       <c r="E566" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="567">
       <c r="E567" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="568">
       <c r="E568" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="569">
       <c r="E569" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="570">
       <c r="E570" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="571">
       <c r="E571" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="572">
       <c r="E572" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="573">
       <c r="E573" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="574">
       <c r="E574" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="575">
       <c r="E575" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="576">
       <c r="E576" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="577">
       <c r="E577" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="578">
       <c r="E578" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="579">
       <c r="E579" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="580">
       <c r="E580" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="581">
       <c r="E581" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="582">
       <c r="E582" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="583">
       <c r="E583" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="584">
       <c r="E584" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="585">
       <c r="E585" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="586">
       <c r="E586" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="587">
       <c r="E587" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="588">
       <c r="E588" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="589">
       <c r="E589" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="590">
       <c r="E590" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="591">
       <c r="E591" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="592">
       <c r="E592" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="593">
       <c r="E593" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="594">
       <c r="E594" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="595">
       <c r="E595" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="596">
       <c r="E596" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="597">
       <c r="E597" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="598">
       <c r="E598" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="599">
       <c r="E599" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="600">
       <c r="E600" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="601">
       <c r="E601" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="602">
       <c r="E602" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="603">
       <c r="E603" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="604">
       <c r="E604" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="605">
       <c r="E605" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="606">
       <c r="E606" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="607">
       <c r="E607" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="608">
       <c r="E608" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="609">
       <c r="E609" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="610">
       <c r="E610" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="611">
       <c r="E611" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="612">
       <c r="E612" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="613">
       <c r="E613" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="614">
       <c r="E614" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="615">
       <c r="E615" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="616">
       <c r="E616" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="617">
       <c r="E617" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="618">
       <c r="E618" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="619">
       <c r="E619" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="620">
       <c r="E620" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="621">
       <c r="E621" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="622">
       <c r="E622" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="623">
       <c r="E623" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="624">
       <c r="E624" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="625">
       <c r="E625" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="626">
       <c r="E626" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="627">
       <c r="E627" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="628">
       <c r="E628" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="629">
       <c r="E629" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="630">
       <c r="E630" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="631">
       <c r="E631" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="632">
       <c r="E632" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="633">
       <c r="E633" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="634">
       <c r="E634" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="635">
       <c r="E635" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="636">
       <c r="E636" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="637">
       <c r="E637" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="638">
       <c r="E638" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="639">
       <c r="E639" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="640">
       <c r="E640" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="641">
       <c r="E641" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="642">
       <c r="E642" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="643">
       <c r="E643" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="644">
       <c r="E644" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="645">
       <c r="E645" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="646">
       <c r="E646" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="647">
       <c r="E647" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="648">
       <c r="E648" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="649">
       <c r="E649" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="650">
       <c r="E650" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="651">
       <c r="E651" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="652">
       <c r="E652" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="653">
       <c r="E653" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="654">
       <c r="E654" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="655">
       <c r="E655" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="656">
       <c r="E656" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="657">
       <c r="E657" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="658">
       <c r="E658" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="659">
       <c r="E659" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="660">
       <c r="E660" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="661">
       <c r="E661" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="662">
       <c r="E662" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="663">
       <c r="E663" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="664">
       <c r="E664" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="665">
       <c r="E665" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="666">
       <c r="E666" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="667">
       <c r="E667" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="668">
       <c r="E668" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="669">
       <c r="E669" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="670">
       <c r="E670" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="671">
       <c r="E671" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="672">
       <c r="E672" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="673">
       <c r="E673" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="674">
       <c r="E674" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="675">
       <c r="E675" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="676">
       <c r="E676" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="677">
       <c r="E677" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="678">
       <c r="E678" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="679">
       <c r="E679" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="680">
       <c r="E680" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="681">
       <c r="E681" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="682">
       <c r="E682" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="683">
       <c r="E683" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="684">
       <c r="E684" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="685">
       <c r="E685" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="686">
       <c r="E686" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="687">
       <c r="E687" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="688">
       <c r="E688" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="689">
       <c r="E689" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="690">
       <c r="E690" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="691">
       <c r="E691" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="692">
       <c r="E692" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="693">
       <c r="E693" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="694">
       <c r="E694" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="695">
       <c r="E695" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="696">
       <c r="E696" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="697">
       <c r="E697" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="698">
       <c r="E698" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="699">
       <c r="E699" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="700">
       <c r="E700" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="701">
       <c r="E701" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="702">
       <c r="E702" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="703">
       <c r="E703" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="704">
       <c r="E704" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="705">
       <c r="E705" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="706">
       <c r="E706" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="707">
       <c r="E707" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="708">
       <c r="E708" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="709">
       <c r="E709" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="710">
       <c r="E710" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="711">
       <c r="E711" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="712">
       <c r="E712" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="713">
       <c r="E713" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="714">
       <c r="E714" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="715">
       <c r="E715" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="716">
       <c r="E716" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="717">
       <c r="E717" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="718">
       <c r="E718" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="719">
       <c r="E719" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="720">
       <c r="E720" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="721">
       <c r="E721" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="722">
       <c r="E722" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="723">
       <c r="E723" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="724">
       <c r="E724" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="725">
       <c r="E725" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="726">
       <c r="E726" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="727">
       <c r="E727" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="728">
       <c r="E728" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="729">
       <c r="E729" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="730">
       <c r="E730" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="731">
       <c r="E731" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="732">
       <c r="E732" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="733">
       <c r="E733" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="734">
       <c r="E734" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="735">
       <c r="E735" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="736">
       <c r="E736" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="737">
       <c r="E737" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="738">
       <c r="E738" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="739">
       <c r="E739" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="740">
       <c r="E740" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="741">
       <c r="E741" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="742">
       <c r="E742" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="743">
       <c r="E743" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="744">
       <c r="E744" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="745">
       <c r="E745" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="746">
       <c r="E746" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="747">
       <c r="E747" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="748">
       <c r="E748" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="749">
       <c r="E749" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="750">
       <c r="E750" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="751">
       <c r="E751" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="752">
       <c r="E752" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="753">
       <c r="E753" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="754">
       <c r="E754" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="755">
       <c r="E755" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="756">
       <c r="E756" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="757">
       <c r="E757" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="758">
       <c r="E758" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="759">
       <c r="E759" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="760">
       <c r="E760" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="761">
       <c r="E761" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="762">
       <c r="E762" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="763">
       <c r="E763" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="764">
       <c r="E764" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="765">
       <c r="E765" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="766">
       <c r="E766" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="767">
       <c r="E767" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="768">
       <c r="E768" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="769">
       <c r="E769" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="770">
       <c r="E770" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="771">
       <c r="E771" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="772">
       <c r="E772" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="773">
       <c r="E773" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="774">
       <c r="E774" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="775">
       <c r="E775" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="776">
       <c r="E776" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="777">
       <c r="E777" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="778">
       <c r="E778" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="779">
       <c r="E779" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="780">
       <c r="E780" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="781">
       <c r="E781" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="782">
       <c r="E782" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="783">
       <c r="E783" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="784">
       <c r="E784" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="785">
       <c r="E785" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="786">
       <c r="E786" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="787">
       <c r="E787" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="788">
       <c r="E788" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="789">
       <c r="E789" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="790">
       <c r="E790" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="791">
       <c r="E791" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="792">
       <c r="E792" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="793">
       <c r="E793" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="794">
       <c r="E794" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="795">
       <c r="E795" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="796">
       <c r="E796" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="797">
       <c r="E797" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="798">
       <c r="E798" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="799">
       <c r="E799" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="800">
       <c r="E800" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="801">
       <c r="E801" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="802">
       <c r="E802" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="803">
       <c r="E803" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="804">
       <c r="E804" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="805">
       <c r="E805" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="806">
       <c r="E806" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="807">
       <c r="E807" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="808">
       <c r="E808" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="809">
       <c r="E809" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="810">
       <c r="E810" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="811">
       <c r="E811" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="812">
       <c r="E812" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="813">
       <c r="E813" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="814">
       <c r="E814" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="815">
       <c r="E815" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="816">
       <c r="E816" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="817">
       <c r="E817" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="818">
       <c r="E818" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="819">
       <c r="E819" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="820">
       <c r="E820" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="821">
       <c r="E821" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="822">
       <c r="E822" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="823">
       <c r="E823" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="824">
       <c r="E824" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="825">
       <c r="E825" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="826">
       <c r="E826" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="827">
       <c r="E827" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="828">
       <c r="E828" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="829">
       <c r="E829" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="830">
       <c r="E830" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="831">
       <c r="E831" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="832">
       <c r="E832" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="833">
       <c r="E833" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="834">
       <c r="E834" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="835">
       <c r="E835" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="836">
       <c r="E836" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="837">
       <c r="E837" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="838">
       <c r="E838" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="839">
       <c r="E839" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="840">
       <c r="E840" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="841">
       <c r="E841" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="842">
       <c r="E842" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="843">
       <c r="E843" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="844">
       <c r="E844" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="845">
       <c r="E845" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="846">
       <c r="E846" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="847">
       <c r="E847" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="848">
       <c r="E848" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="849">
       <c r="E849" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="850">
       <c r="E850" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="851">
       <c r="E851" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="852">
       <c r="E852" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="853">
       <c r="E853" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="854">
       <c r="E854" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="855">
       <c r="E855" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="856">
       <c r="E856" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="857">
       <c r="E857" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="858">
       <c r="E858" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="859">
       <c r="E859" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="860">
       <c r="E860" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="861">
       <c r="E861" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="862">
       <c r="E862" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="863">
       <c r="E863" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="864">
       <c r="E864" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="865">
       <c r="E865" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="866">
       <c r="E866" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="867">
       <c r="E867" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="868">
       <c r="E868" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="869">
       <c r="E869" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="870">
       <c r="E870" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="871">
       <c r="E871" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="872">
       <c r="E872" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="873">
       <c r="E873" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="874">
       <c r="E874" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="875">
       <c r="E875" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="876">
       <c r="E876" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="877">
       <c r="E877" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="878">
       <c r="E878" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="879">
       <c r="E879" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="880">
       <c r="E880" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="881">
       <c r="E881" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="882">
       <c r="E882" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="883">
       <c r="E883" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="884">
       <c r="E884" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="885">
       <c r="E885" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="886">
       <c r="E886" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="887">
       <c r="E887" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="888">
       <c r="E888" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="889">
       <c r="E889" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="890">
       <c r="E890" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="891">
       <c r="E891" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="892">
       <c r="E892" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="893">
       <c r="E893" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="894">
       <c r="E894" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="895">
       <c r="E895" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="896">
       <c r="E896" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="897">
       <c r="E897" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="898">
       <c r="E898" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="899">
       <c r="E899" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="900">
       <c r="E900" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="901">
       <c r="E901" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="902">
       <c r="E902" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="903">
       <c r="E903" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="904">
       <c r="E904" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="905">
       <c r="E905" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="906">
       <c r="E906" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="907">
       <c r="E907" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="908">
       <c r="E908" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="909">
       <c r="E909" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="910">
       <c r="E910" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="911">
       <c r="E911" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="912">
       <c r="E912" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="913">
       <c r="E913" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="914">
       <c r="E914" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="915">
       <c r="E915" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="916">
       <c r="E916" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="917">
       <c r="E917" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="918">
       <c r="E918" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="919">
       <c r="E919" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="920">
       <c r="E920" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="921">
       <c r="E921" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="922">
       <c r="E922" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="923">
       <c r="E923" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="924">
       <c r="E924" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="925">
       <c r="E925" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="926">
       <c r="E926" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="927">
       <c r="E927" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="928">
       <c r="E928" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="929">
       <c r="E929" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="930">
       <c r="E930" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="931">
       <c r="E931" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="932">
       <c r="E932" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="933">
       <c r="E933" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="934">
       <c r="E934" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="935">
       <c r="E935" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="936">
       <c r="E936" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="937">
       <c r="E937" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="938">
       <c r="E938" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="939">
       <c r="E939" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="940">
       <c r="E940" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="941">
       <c r="E941" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="942">
       <c r="E942" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="943">
       <c r="E943" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="944">
       <c r="E944" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="945">
       <c r="E945" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="946">
       <c r="E946" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="947">
       <c r="E947" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="948">
       <c r="E948" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="949">
       <c r="E949" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="950">
       <c r="E950" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="951">
       <c r="E951" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="952">
       <c r="E952" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="953">
       <c r="E953" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="954">
       <c r="E954" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="955">
       <c r="E955" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="956">
       <c r="E956" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="957">
       <c r="E957" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="958">
       <c r="E958" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="959">
       <c r="E959" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="960">
       <c r="E960" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="961">
       <c r="E961" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="962">
       <c r="E962" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="963">
       <c r="E963" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="964">
       <c r="E964" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="965">
       <c r="E965" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="966">
       <c r="E966" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="967">
       <c r="E967" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="968">
       <c r="E968" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="969">
       <c r="E969" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="970">
       <c r="E970" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="971">
       <c r="E971" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="972">
       <c r="E972" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="973">
       <c r="E973" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="974">
       <c r="E974" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="975">
       <c r="E975" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="976">
       <c r="E976" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="977">
       <c r="E977" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="978">
       <c r="E978" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="979">
       <c r="E979" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="980">
       <c r="E980" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="981">
       <c r="E981" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="982">
       <c r="E982" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="983">
       <c r="E983" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="984">
       <c r="E984" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="985">
       <c r="E985" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="986">
       <c r="E986" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="987">
       <c r="E987" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="988">
       <c r="E988" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="989">
       <c r="E989" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="990">
       <c r="E990" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="991">
       <c r="E991" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="992">
       <c r="E992" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="993">
       <c r="E993" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="994">
       <c r="E994" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="995">
       <c r="E995" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="996">
       <c r="E996" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="997">
       <c r="E997" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="998">
       <c r="E998" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="999">
       <c r="E999" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1000">
       <c r="E1000" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4596" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4681" uniqueCount="110">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -260,6 +260,21 @@
     <t>Giana Riley</t>
   </si>
   <si>
+    <t>Chidinma Okeke</t>
+  </si>
+  <si>
+    <t>Gaby García</t>
+  </si>
+  <si>
+    <t>Annia Mejía</t>
+  </si>
+  <si>
+    <t>Valentina Murrieta</t>
+  </si>
+  <si>
+    <t>Isa Haas</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -300,9 +315,6 @@
   </si>
   <si>
     <t>Okeke Chidinma</t>
-  </si>
-  <si>
-    <t>Chidinma Okeke</t>
   </si>
   <si>
     <t>Luna</t>
@@ -484,7 +496,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G786" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G803" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -16491,198 +16503,402 @@
       </c>
     </row>
     <row r="687" ht="22.5" customHeight="1">
-      <c r="A687" s="3"/>
-      <c r="B687" s="4"/>
-      <c r="C687" s="5"/>
-      <c r="D687" s="5" t="s">
+      <c r="A687" s="6">
+        <v>46029.48292098379</v>
+      </c>
+      <c r="B687" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C687" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D687" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E687" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F687" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G687" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="688" ht="22.5" customHeight="1">
+      <c r="A688" s="6">
+        <v>46029.49681960648</v>
+      </c>
+      <c r="B688" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C688" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D688" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E688" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F688" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G688" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="689" ht="22.5" customHeight="1">
+      <c r="A689" s="6">
+        <v>46029.49758465278</v>
+      </c>
+      <c r="B689" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C689" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D689" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E689" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F689" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G689" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="690" ht="22.5" customHeight="1">
+      <c r="A690" s="6">
+        <v>46029.49764300926</v>
+      </c>
+      <c r="B690" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C690" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D690" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E690" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F690" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G690" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="691" ht="22.5" customHeight="1">
+      <c r="A691" s="6">
+        <v>46029.49799591435</v>
+      </c>
+      <c r="B691" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C691" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D691" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E691" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F691" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G691" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="692" ht="22.5" customHeight="1">
+      <c r="A692" s="6">
+        <v>46029.49853252315</v>
+      </c>
+      <c r="B692" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C692" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D692" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E692" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F692" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G692" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="693" ht="22.5" customHeight="1">
+      <c r="A693" s="6">
+        <v>46029.49867393519</v>
+      </c>
+      <c r="B693" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C693" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D693" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E693" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F693" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G693" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="694" ht="22.5" customHeight="1">
+      <c r="A694" s="6">
+        <v>46029.50046214121</v>
+      </c>
+      <c r="B694" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C694" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D694" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E694" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F694" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G694" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="695" ht="22.5" customHeight="1">
+      <c r="A695" s="6">
+        <v>46029.50432317129</v>
+      </c>
+      <c r="B695" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C695" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D695" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E687" s="5"/>
-      <c r="F687" s="5"/>
-      <c r="G687" s="5"/>
-    </row>
-    <row r="688" ht="22.5" customHeight="1">
-      <c r="A688" s="3"/>
-      <c r="B688" s="4"/>
-      <c r="C688" s="5"/>
-      <c r="D688" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E688" s="5"/>
-      <c r="F688" s="5"/>
-      <c r="G688" s="5"/>
-    </row>
-    <row r="689" ht="22.5" customHeight="1">
-      <c r="A689" s="3"/>
-      <c r="B689" s="4"/>
-      <c r="C689" s="5"/>
-      <c r="D689" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E689" s="5"/>
-      <c r="F689" s="5"/>
-      <c r="G689" s="5"/>
-    </row>
-    <row r="690" ht="22.5" customHeight="1">
-      <c r="A690" s="3"/>
-      <c r="B690" s="4"/>
-      <c r="C690" s="5"/>
-      <c r="D690" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E690" s="5"/>
-      <c r="F690" s="5"/>
-      <c r="G690" s="5"/>
-    </row>
-    <row r="691" ht="22.5" customHeight="1">
-      <c r="A691" s="3"/>
-      <c r="B691" s="4"/>
-      <c r="C691" s="5"/>
-      <c r="D691" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E691" s="5"/>
-      <c r="F691" s="5"/>
-      <c r="G691" s="5"/>
-    </row>
-    <row r="692" ht="22.5" customHeight="1">
-      <c r="A692" s="3"/>
-      <c r="B692" s="4"/>
-      <c r="C692" s="5"/>
-      <c r="D692" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E692" s="5"/>
-      <c r="F692" s="5"/>
-      <c r="G692" s="5"/>
-    </row>
-    <row r="693" ht="22.5" customHeight="1">
-      <c r="A693" s="3"/>
-      <c r="B693" s="4"/>
-      <c r="C693" s="5"/>
-      <c r="D693" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E693" s="5"/>
-      <c r="F693" s="5"/>
-      <c r="G693" s="5"/>
-    </row>
-    <row r="694" ht="22.5" customHeight="1">
-      <c r="A694" s="3"/>
-      <c r="B694" s="4"/>
-      <c r="C694" s="5"/>
-      <c r="D694" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E694" s="5"/>
-      <c r="F694" s="5"/>
-      <c r="G694" s="5"/>
-    </row>
-    <row r="695" ht="22.5" customHeight="1">
-      <c r="A695" s="3"/>
-      <c r="B695" s="4"/>
-      <c r="C695" s="5"/>
-      <c r="D695" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E695" s="5"/>
-      <c r="F695" s="5"/>
-      <c r="G695" s="5"/>
+      <c r="E695" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F695" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G695" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="696" ht="22.5" customHeight="1">
-      <c r="A696" s="3"/>
-      <c r="B696" s="4"/>
-      <c r="C696" s="5"/>
-      <c r="D696" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E696" s="5"/>
-      <c r="F696" s="5"/>
-      <c r="G696" s="5"/>
+      <c r="A696" s="6">
+        <v>46029.50599990741</v>
+      </c>
+      <c r="B696" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C696" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D696" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E696" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F696" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G696" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="697" ht="22.5" customHeight="1">
-      <c r="A697" s="3"/>
-      <c r="B697" s="4"/>
-      <c r="C697" s="5"/>
-      <c r="D697" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E697" s="5"/>
-      <c r="F697" s="5"/>
-      <c r="G697" s="5"/>
+      <c r="A697" s="6">
+        <v>46029.506585173614</v>
+      </c>
+      <c r="B697" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C697" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D697" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E697" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F697" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G697" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="698" ht="22.5" customHeight="1">
-      <c r="A698" s="3"/>
-      <c r="B698" s="4"/>
-      <c r="C698" s="5"/>
-      <c r="D698" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E698" s="5"/>
-      <c r="F698" s="5"/>
-      <c r="G698" s="5"/>
+      <c r="A698" s="6">
+        <v>46029.50789015046</v>
+      </c>
+      <c r="B698" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C698" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D698" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E698" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F698" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G698" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="699" ht="22.5" customHeight="1">
-      <c r="A699" s="3"/>
-      <c r="B699" s="4"/>
-      <c r="C699" s="5"/>
-      <c r="D699" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E699" s="5"/>
-      <c r="F699" s="5"/>
-      <c r="G699" s="5"/>
+      <c r="A699" s="6">
+        <v>46029.52671582176</v>
+      </c>
+      <c r="B699" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C699" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D699" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E699" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F699" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G699" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="700" ht="22.5" customHeight="1">
-      <c r="A700" s="3"/>
-      <c r="B700" s="4"/>
-      <c r="C700" s="5"/>
-      <c r="D700" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E700" s="5"/>
-      <c r="F700" s="5"/>
-      <c r="G700" s="5"/>
+      <c r="A700" s="6">
+        <v>46029.528419525464</v>
+      </c>
+      <c r="B700" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C700" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D700" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E700" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F700" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G700" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="701" ht="22.5" customHeight="1">
-      <c r="A701" s="3"/>
-      <c r="B701" s="4"/>
-      <c r="C701" s="5"/>
-      <c r="D701" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E701" s="5"/>
-      <c r="F701" s="5"/>
-      <c r="G701" s="5"/>
+      <c r="A701" s="6">
+        <v>46029.53073230324</v>
+      </c>
+      <c r="B701" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C701" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D701" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E701" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F701" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G701" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="702" ht="22.5" customHeight="1">
-      <c r="A702" s="3"/>
-      <c r="B702" s="4"/>
-      <c r="C702" s="5"/>
-      <c r="D702" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E702" s="5"/>
-      <c r="F702" s="5"/>
-      <c r="G702" s="5"/>
+      <c r="A702" s="6">
+        <v>46029.55343642361</v>
+      </c>
+      <c r="B702" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C702" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D702" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E702" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F702" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G702" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="703" ht="22.5" customHeight="1">
-      <c r="A703" s="3"/>
-      <c r="B703" s="4"/>
-      <c r="C703" s="5"/>
-      <c r="D703" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E703" s="5"/>
-      <c r="F703" s="5"/>
-      <c r="G703" s="5"/>
+      <c r="A703" s="6">
+        <v>46029.56104975694</v>
+      </c>
+      <c r="B703" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C703" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D703" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E703" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F703" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G703" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="704" ht="22.5" customHeight="1">
       <c r="A704" s="3"/>
       <c r="B704" s="4"/>
       <c r="C704" s="5"/>
       <c r="D704" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E704" s="5"/>
       <c r="F704" s="5"/>
@@ -16693,7 +16909,7 @@
       <c r="B705" s="4"/>
       <c r="C705" s="5"/>
       <c r="D705" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E705" s="5"/>
       <c r="F705" s="5"/>
@@ -16704,7 +16920,7 @@
       <c r="B706" s="4"/>
       <c r="C706" s="5"/>
       <c r="D706" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E706" s="5"/>
       <c r="F706" s="5"/>
@@ -16715,7 +16931,7 @@
       <c r="B707" s="4"/>
       <c r="C707" s="5"/>
       <c r="D707" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E707" s="5"/>
       <c r="F707" s="5"/>
@@ -16726,7 +16942,7 @@
       <c r="B708" s="4"/>
       <c r="C708" s="5"/>
       <c r="D708" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E708" s="5"/>
       <c r="F708" s="5"/>
@@ -16737,7 +16953,7 @@
       <c r="B709" s="4"/>
       <c r="C709" s="5"/>
       <c r="D709" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E709" s="5"/>
       <c r="F709" s="5"/>
@@ -16748,7 +16964,7 @@
       <c r="B710" s="4"/>
       <c r="C710" s="5"/>
       <c r="D710" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E710" s="5"/>
       <c r="F710" s="5"/>
@@ -16759,7 +16975,7 @@
       <c r="B711" s="4"/>
       <c r="C711" s="5"/>
       <c r="D711" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E711" s="5"/>
       <c r="F711" s="5"/>
@@ -16770,7 +16986,7 @@
       <c r="B712" s="4"/>
       <c r="C712" s="5"/>
       <c r="D712" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E712" s="5"/>
       <c r="F712" s="5"/>
@@ -16781,7 +16997,7 @@
       <c r="B713" s="4"/>
       <c r="C713" s="5"/>
       <c r="D713" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E713" s="5"/>
       <c r="F713" s="5"/>
@@ -16792,7 +17008,7 @@
       <c r="B714" s="4"/>
       <c r="C714" s="5"/>
       <c r="D714" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E714" s="5"/>
       <c r="F714" s="5"/>
@@ -16803,7 +17019,7 @@
       <c r="B715" s="4"/>
       <c r="C715" s="5"/>
       <c r="D715" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E715" s="5"/>
       <c r="F715" s="5"/>
@@ -16814,7 +17030,7 @@
       <c r="B716" s="4"/>
       <c r="C716" s="5"/>
       <c r="D716" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E716" s="5"/>
       <c r="F716" s="5"/>
@@ -16825,7 +17041,7 @@
       <c r="B717" s="4"/>
       <c r="C717" s="5"/>
       <c r="D717" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E717" s="5"/>
       <c r="F717" s="5"/>
@@ -16836,7 +17052,7 @@
       <c r="B718" s="4"/>
       <c r="C718" s="5"/>
       <c r="D718" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E718" s="5"/>
       <c r="F718" s="5"/>
@@ -16847,7 +17063,7 @@
       <c r="B719" s="4"/>
       <c r="C719" s="5"/>
       <c r="D719" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E719" s="5"/>
       <c r="F719" s="5"/>
@@ -16858,7 +17074,7 @@
       <c r="B720" s="4"/>
       <c r="C720" s="5"/>
       <c r="D720" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E720" s="5"/>
       <c r="F720" s="5"/>
@@ -16869,7 +17085,7 @@
       <c r="B721" s="4"/>
       <c r="C721" s="5"/>
       <c r="D721" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E721" s="5"/>
       <c r="F721" s="5"/>
@@ -16880,7 +17096,7 @@
       <c r="B722" s="4"/>
       <c r="C722" s="5"/>
       <c r="D722" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E722" s="5"/>
       <c r="F722" s="5"/>
@@ -16891,7 +17107,7 @@
       <c r="B723" s="4"/>
       <c r="C723" s="5"/>
       <c r="D723" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E723" s="5"/>
       <c r="F723" s="5"/>
@@ -16902,7 +17118,7 @@
       <c r="B724" s="4"/>
       <c r="C724" s="5"/>
       <c r="D724" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E724" s="5"/>
       <c r="F724" s="5"/>
@@ -16913,7 +17129,7 @@
       <c r="B725" s="4"/>
       <c r="C725" s="5"/>
       <c r="D725" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E725" s="5"/>
       <c r="F725" s="5"/>
@@ -16924,7 +17140,7 @@
       <c r="B726" s="4"/>
       <c r="C726" s="5"/>
       <c r="D726" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E726" s="5"/>
       <c r="F726" s="5"/>
@@ -16935,7 +17151,7 @@
       <c r="B727" s="4"/>
       <c r="C727" s="5"/>
       <c r="D727" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E727" s="5"/>
       <c r="F727" s="5"/>
@@ -16946,7 +17162,7 @@
       <c r="B728" s="4"/>
       <c r="C728" s="5"/>
       <c r="D728" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E728" s="5"/>
       <c r="F728" s="5"/>
@@ -16957,7 +17173,7 @@
       <c r="B729" s="4"/>
       <c r="C729" s="5"/>
       <c r="D729" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E729" s="5"/>
       <c r="F729" s="5"/>
@@ -16968,7 +17184,7 @@
       <c r="B730" s="4"/>
       <c r="C730" s="5"/>
       <c r="D730" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E730" s="5"/>
       <c r="F730" s="5"/>
@@ -16979,7 +17195,7 @@
       <c r="B731" s="4"/>
       <c r="C731" s="5"/>
       <c r="D731" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E731" s="5"/>
       <c r="F731" s="5"/>
@@ -16990,7 +17206,7 @@
       <c r="B732" s="4"/>
       <c r="C732" s="5"/>
       <c r="D732" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E732" s="5"/>
       <c r="F732" s="5"/>
@@ -17001,7 +17217,7 @@
       <c r="B733" s="4"/>
       <c r="C733" s="5"/>
       <c r="D733" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E733" s="5"/>
       <c r="F733" s="5"/>
@@ -17012,7 +17228,7 @@
       <c r="B734" s="4"/>
       <c r="C734" s="5"/>
       <c r="D734" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E734" s="5"/>
       <c r="F734" s="5"/>
@@ -17023,7 +17239,7 @@
       <c r="B735" s="4"/>
       <c r="C735" s="5"/>
       <c r="D735" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E735" s="5"/>
       <c r="F735" s="5"/>
@@ -17034,7 +17250,7 @@
       <c r="B736" s="4"/>
       <c r="C736" s="5"/>
       <c r="D736" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E736" s="5"/>
       <c r="F736" s="5"/>
@@ -17045,7 +17261,7 @@
       <c r="B737" s="4"/>
       <c r="C737" s="5"/>
       <c r="D737" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E737" s="5"/>
       <c r="F737" s="5"/>
@@ -17056,7 +17272,7 @@
       <c r="B738" s="4"/>
       <c r="C738" s="5"/>
       <c r="D738" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E738" s="5"/>
       <c r="F738" s="5"/>
@@ -17067,7 +17283,7 @@
       <c r="B739" s="4"/>
       <c r="C739" s="5"/>
       <c r="D739" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E739" s="5"/>
       <c r="F739" s="5"/>
@@ -17078,7 +17294,7 @@
       <c r="B740" s="4"/>
       <c r="C740" s="5"/>
       <c r="D740" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E740" s="5"/>
       <c r="F740" s="5"/>
@@ -17089,7 +17305,7 @@
       <c r="B741" s="4"/>
       <c r="C741" s="5"/>
       <c r="D741" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E741" s="5"/>
       <c r="F741" s="5"/>
@@ -17100,7 +17316,7 @@
       <c r="B742" s="4"/>
       <c r="C742" s="5"/>
       <c r="D742" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E742" s="5"/>
       <c r="F742" s="5"/>
@@ -17111,7 +17327,7 @@
       <c r="B743" s="4"/>
       <c r="C743" s="5"/>
       <c r="D743" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E743" s="5"/>
       <c r="F743" s="5"/>
@@ -17122,7 +17338,7 @@
       <c r="B744" s="4"/>
       <c r="C744" s="5"/>
       <c r="D744" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E744" s="5"/>
       <c r="F744" s="5"/>
@@ -17133,7 +17349,7 @@
       <c r="B745" s="4"/>
       <c r="C745" s="5"/>
       <c r="D745" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E745" s="5"/>
       <c r="F745" s="5"/>
@@ -17144,7 +17360,7 @@
       <c r="B746" s="4"/>
       <c r="C746" s="5"/>
       <c r="D746" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E746" s="5"/>
       <c r="F746" s="5"/>
@@ -17155,7 +17371,7 @@
       <c r="B747" s="4"/>
       <c r="C747" s="5"/>
       <c r="D747" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E747" s="5"/>
       <c r="F747" s="5"/>
@@ -17166,7 +17382,7 @@
       <c r="B748" s="4"/>
       <c r="C748" s="5"/>
       <c r="D748" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E748" s="5"/>
       <c r="F748" s="5"/>
@@ -17177,7 +17393,7 @@
       <c r="B749" s="4"/>
       <c r="C749" s="5"/>
       <c r="D749" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E749" s="5"/>
       <c r="F749" s="5"/>
@@ -17188,7 +17404,7 @@
       <c r="B750" s="4"/>
       <c r="C750" s="5"/>
       <c r="D750" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E750" s="5"/>
       <c r="F750" s="5"/>
@@ -17199,7 +17415,7 @@
       <c r="B751" s="4"/>
       <c r="C751" s="5"/>
       <c r="D751" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E751" s="5"/>
       <c r="F751" s="5"/>
@@ -17210,7 +17426,7 @@
       <c r="B752" s="4"/>
       <c r="C752" s="5"/>
       <c r="D752" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E752" s="5"/>
       <c r="F752" s="5"/>
@@ -17221,7 +17437,7 @@
       <c r="B753" s="4"/>
       <c r="C753" s="5"/>
       <c r="D753" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E753" s="5"/>
       <c r="F753" s="5"/>
@@ -17232,7 +17448,7 @@
       <c r="B754" s="4"/>
       <c r="C754" s="5"/>
       <c r="D754" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E754" s="5"/>
       <c r="F754" s="5"/>
@@ -17243,7 +17459,7 @@
       <c r="B755" s="4"/>
       <c r="C755" s="5"/>
       <c r="D755" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E755" s="5"/>
       <c r="F755" s="5"/>
@@ -17254,7 +17470,7 @@
       <c r="B756" s="4"/>
       <c r="C756" s="5"/>
       <c r="D756" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E756" s="5"/>
       <c r="F756" s="5"/>
@@ -17265,7 +17481,7 @@
       <c r="B757" s="4"/>
       <c r="C757" s="5"/>
       <c r="D757" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E757" s="5"/>
       <c r="F757" s="5"/>
@@ -17276,7 +17492,7 @@
       <c r="B758" s="4"/>
       <c r="C758" s="5"/>
       <c r="D758" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E758" s="5"/>
       <c r="F758" s="5"/>
@@ -17287,7 +17503,7 @@
       <c r="B759" s="4"/>
       <c r="C759" s="5"/>
       <c r="D759" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E759" s="5"/>
       <c r="F759" s="5"/>
@@ -17298,7 +17514,7 @@
       <c r="B760" s="4"/>
       <c r="C760" s="5"/>
       <c r="D760" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E760" s="5"/>
       <c r="F760" s="5"/>
@@ -17309,7 +17525,7 @@
       <c r="B761" s="4"/>
       <c r="C761" s="5"/>
       <c r="D761" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E761" s="5"/>
       <c r="F761" s="5"/>
@@ -17320,7 +17536,7 @@
       <c r="B762" s="4"/>
       <c r="C762" s="5"/>
       <c r="D762" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E762" s="5"/>
       <c r="F762" s="5"/>
@@ -17331,7 +17547,7 @@
       <c r="B763" s="4"/>
       <c r="C763" s="5"/>
       <c r="D763" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E763" s="5"/>
       <c r="F763" s="5"/>
@@ -17342,7 +17558,7 @@
       <c r="B764" s="4"/>
       <c r="C764" s="5"/>
       <c r="D764" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E764" s="5"/>
       <c r="F764" s="5"/>
@@ -17353,7 +17569,7 @@
       <c r="B765" s="4"/>
       <c r="C765" s="5"/>
       <c r="D765" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E765" s="5"/>
       <c r="F765" s="5"/>
@@ -17364,7 +17580,7 @@
       <c r="B766" s="4"/>
       <c r="C766" s="5"/>
       <c r="D766" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E766" s="5"/>
       <c r="F766" s="5"/>
@@ -17375,7 +17591,7 @@
       <c r="B767" s="4"/>
       <c r="C767" s="5"/>
       <c r="D767" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E767" s="5"/>
       <c r="F767" s="5"/>
@@ -17386,7 +17602,7 @@
       <c r="B768" s="4"/>
       <c r="C768" s="5"/>
       <c r="D768" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E768" s="5"/>
       <c r="F768" s="5"/>
@@ -17397,7 +17613,7 @@
       <c r="B769" s="4"/>
       <c r="C769" s="5"/>
       <c r="D769" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E769" s="5"/>
       <c r="F769" s="5"/>
@@ -17408,7 +17624,7 @@
       <c r="B770" s="4"/>
       <c r="C770" s="5"/>
       <c r="D770" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E770" s="5"/>
       <c r="F770" s="5"/>
@@ -17419,7 +17635,7 @@
       <c r="B771" s="4"/>
       <c r="C771" s="5"/>
       <c r="D771" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E771" s="5"/>
       <c r="F771" s="5"/>
@@ -17430,7 +17646,7 @@
       <c r="B772" s="4"/>
       <c r="C772" s="5"/>
       <c r="D772" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E772" s="5"/>
       <c r="F772" s="5"/>
@@ -17441,7 +17657,7 @@
       <c r="B773" s="4"/>
       <c r="C773" s="5"/>
       <c r="D773" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E773" s="5"/>
       <c r="F773" s="5"/>
@@ -17452,7 +17668,7 @@
       <c r="B774" s="4"/>
       <c r="C774" s="5"/>
       <c r="D774" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E774" s="5"/>
       <c r="F774" s="5"/>
@@ -17463,7 +17679,7 @@
       <c r="B775" s="4"/>
       <c r="C775" s="5"/>
       <c r="D775" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E775" s="5"/>
       <c r="F775" s="5"/>
@@ -17474,7 +17690,7 @@
       <c r="B776" s="4"/>
       <c r="C776" s="5"/>
       <c r="D776" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E776" s="5"/>
       <c r="F776" s="5"/>
@@ -17485,7 +17701,7 @@
       <c r="B777" s="4"/>
       <c r="C777" s="5"/>
       <c r="D777" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E777" s="5"/>
       <c r="F777" s="5"/>
@@ -17496,7 +17712,7 @@
       <c r="B778" s="4"/>
       <c r="C778" s="5"/>
       <c r="D778" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E778" s="5"/>
       <c r="F778" s="5"/>
@@ -17507,7 +17723,7 @@
       <c r="B779" s="4"/>
       <c r="C779" s="5"/>
       <c r="D779" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E779" s="5"/>
       <c r="F779" s="5"/>
@@ -17518,7 +17734,7 @@
       <c r="B780" s="4"/>
       <c r="C780" s="5"/>
       <c r="D780" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E780" s="5"/>
       <c r="F780" s="5"/>
@@ -17529,7 +17745,7 @@
       <c r="B781" s="4"/>
       <c r="C781" s="5"/>
       <c r="D781" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E781" s="5"/>
       <c r="F781" s="5"/>
@@ -17540,7 +17756,7 @@
       <c r="B782" s="4"/>
       <c r="C782" s="5"/>
       <c r="D782" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E782" s="5"/>
       <c r="F782" s="5"/>
@@ -17551,7 +17767,7 @@
       <c r="B783" s="4"/>
       <c r="C783" s="5"/>
       <c r="D783" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E783" s="5"/>
       <c r="F783" s="5"/>
@@ -17562,7 +17778,7 @@
       <c r="B784" s="4"/>
       <c r="C784" s="5"/>
       <c r="D784" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E784" s="5"/>
       <c r="F784" s="5"/>
@@ -17573,7 +17789,7 @@
       <c r="B785" s="4"/>
       <c r="C785" s="5"/>
       <c r="D785" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E785" s="5"/>
       <c r="F785" s="5"/>
@@ -17584,11 +17800,198 @@
       <c r="B786" s="4"/>
       <c r="C786" s="5"/>
       <c r="D786" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E786" s="5"/>
       <c r="F786" s="5"/>
       <c r="G786" s="5"/>
+    </row>
+    <row r="787" ht="22.5" customHeight="1">
+      <c r="A787" s="3"/>
+      <c r="B787" s="4"/>
+      <c r="C787" s="5"/>
+      <c r="D787" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E787" s="5"/>
+      <c r="F787" s="5"/>
+      <c r="G787" s="5"/>
+    </row>
+    <row r="788" ht="22.5" customHeight="1">
+      <c r="A788" s="3"/>
+      <c r="B788" s="4"/>
+      <c r="C788" s="5"/>
+      <c r="D788" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E788" s="5"/>
+      <c r="F788" s="5"/>
+      <c r="G788" s="5"/>
+    </row>
+    <row r="789" ht="22.5" customHeight="1">
+      <c r="A789" s="3"/>
+      <c r="B789" s="4"/>
+      <c r="C789" s="5"/>
+      <c r="D789" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E789" s="5"/>
+      <c r="F789" s="5"/>
+      <c r="G789" s="5"/>
+    </row>
+    <row r="790" ht="22.5" customHeight="1">
+      <c r="A790" s="3"/>
+      <c r="B790" s="4"/>
+      <c r="C790" s="5"/>
+      <c r="D790" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E790" s="5"/>
+      <c r="F790" s="5"/>
+      <c r="G790" s="5"/>
+    </row>
+    <row r="791" ht="22.5" customHeight="1">
+      <c r="A791" s="3"/>
+      <c r="B791" s="4"/>
+      <c r="C791" s="5"/>
+      <c r="D791" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E791" s="5"/>
+      <c r="F791" s="5"/>
+      <c r="G791" s="5"/>
+    </row>
+    <row r="792" ht="22.5" customHeight="1">
+      <c r="A792" s="3"/>
+      <c r="B792" s="4"/>
+      <c r="C792" s="5"/>
+      <c r="D792" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E792" s="5"/>
+      <c r="F792" s="5"/>
+      <c r="G792" s="5"/>
+    </row>
+    <row r="793" ht="22.5" customHeight="1">
+      <c r="A793" s="3"/>
+      <c r="B793" s="4"/>
+      <c r="C793" s="5"/>
+      <c r="D793" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E793" s="5"/>
+      <c r="F793" s="5"/>
+      <c r="G793" s="5"/>
+    </row>
+    <row r="794" ht="22.5" customHeight="1">
+      <c r="A794" s="3"/>
+      <c r="B794" s="4"/>
+      <c r="C794" s="5"/>
+      <c r="D794" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E794" s="5"/>
+      <c r="F794" s="5"/>
+      <c r="G794" s="5"/>
+    </row>
+    <row r="795" ht="22.5" customHeight="1">
+      <c r="A795" s="3"/>
+      <c r="B795" s="4"/>
+      <c r="C795" s="5"/>
+      <c r="D795" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E795" s="5"/>
+      <c r="F795" s="5"/>
+      <c r="G795" s="5"/>
+    </row>
+    <row r="796" ht="22.5" customHeight="1">
+      <c r="A796" s="3"/>
+      <c r="B796" s="4"/>
+      <c r="C796" s="5"/>
+      <c r="D796" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E796" s="5"/>
+      <c r="F796" s="5"/>
+      <c r="G796" s="5"/>
+    </row>
+    <row r="797" ht="22.5" customHeight="1">
+      <c r="A797" s="3"/>
+      <c r="B797" s="4"/>
+      <c r="C797" s="5"/>
+      <c r="D797" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E797" s="5"/>
+      <c r="F797" s="5"/>
+      <c r="G797" s="5"/>
+    </row>
+    <row r="798" ht="22.5" customHeight="1">
+      <c r="A798" s="3"/>
+      <c r="B798" s="4"/>
+      <c r="C798" s="5"/>
+      <c r="D798" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E798" s="5"/>
+      <c r="F798" s="5"/>
+      <c r="G798" s="5"/>
+    </row>
+    <row r="799" ht="22.5" customHeight="1">
+      <c r="A799" s="3"/>
+      <c r="B799" s="4"/>
+      <c r="C799" s="5"/>
+      <c r="D799" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E799" s="5"/>
+      <c r="F799" s="5"/>
+      <c r="G799" s="5"/>
+    </row>
+    <row r="800" ht="22.5" customHeight="1">
+      <c r="A800" s="3"/>
+      <c r="B800" s="4"/>
+      <c r="C800" s="5"/>
+      <c r="D800" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E800" s="5"/>
+      <c r="F800" s="5"/>
+      <c r="G800" s="5"/>
+    </row>
+    <row r="801" ht="22.5" customHeight="1">
+      <c r="A801" s="3"/>
+      <c r="B801" s="4"/>
+      <c r="C801" s="5"/>
+      <c r="D801" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E801" s="5"/>
+      <c r="F801" s="5"/>
+      <c r="G801" s="5"/>
+    </row>
+    <row r="802" ht="22.5" customHeight="1">
+      <c r="A802" s="3"/>
+      <c r="B802" s="4"/>
+      <c r="C802" s="5"/>
+      <c r="D802" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E802" s="5"/>
+      <c r="F802" s="5"/>
+      <c r="G802" s="5"/>
+    </row>
+    <row r="803" ht="22.5" customHeight="1">
+      <c r="A803" s="3"/>
+      <c r="B803" s="4"/>
+      <c r="C803" s="5"/>
+      <c r="D803" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E803" s="5"/>
+      <c r="F803" s="5"/>
+      <c r="G803" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -17610,7 +18013,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>27</v>
@@ -17624,7 +18027,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E2" s="11" t="str">
         <f t="array" ref="E2:E1000">IF(D2:D1000="","", 
@@ -17643,24 +18046,24 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -17671,7 +18074,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -17682,18 +18085,18 @@
         <v>17</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -17704,7 +18107,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -17715,18 +18118,18 @@
         <v>15</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -17737,7 +18140,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -17748,7 +18151,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
@@ -17759,40 +18162,40 @@
         <v>26</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -17803,40 +18206,40 @@
         <v>50</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -17847,7 +18250,7 @@
         <v>30</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -17858,7 +18261,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -17869,73 +18272,73 @@
         <v>39</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30">
@@ -17946,18 +18349,18 @@
         <v>56</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
@@ -17968,4853 +18371,4853 @@
         <v>56</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108">
       <c r="E108" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109">
       <c r="E109" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112">
       <c r="E112" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113">
       <c r="E113" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="114">
       <c r="E114" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="118">
       <c r="E118" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119">
       <c r="E119" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="120">
       <c r="E120" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121">
       <c r="E121" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="123">
       <c r="E123" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="124">
       <c r="E124" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="125">
       <c r="E125" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126">
       <c r="E126" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="127">
       <c r="E127" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="128">
       <c r="E128" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129">
       <c r="E129" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130">
       <c r="E130" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131">
       <c r="E131" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="132">
       <c r="E132" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="133">
       <c r="E133" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="134">
       <c r="E134" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="135">
       <c r="E135" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136">
       <c r="E136" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137">
       <c r="E137" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="138">
       <c r="E138" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="139">
       <c r="E139" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="140">
       <c r="E140" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="141">
       <c r="E141" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="142">
       <c r="E142" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="143">
       <c r="E143" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="144">
       <c r="E144" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="145">
       <c r="E145" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="146">
       <c r="E146" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="147">
       <c r="E147" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="148">
       <c r="E148" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="149">
       <c r="E149" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="150">
       <c r="E150" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="151">
       <c r="E151" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="152">
       <c r="E152" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="153">
       <c r="E153" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="154">
       <c r="E154" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="155">
       <c r="E155" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="156">
       <c r="E156" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="157">
       <c r="E157" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="158">
       <c r="E158" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="159">
       <c r="E159" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="160">
       <c r="E160" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="161">
       <c r="E161" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="162">
       <c r="E162" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="163">
       <c r="E163" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="164">
       <c r="E164" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="165">
       <c r="E165" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="166">
       <c r="E166" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="167">
       <c r="E167" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="168">
       <c r="E168" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="169">
       <c r="E169" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="170">
       <c r="E170" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="171">
       <c r="E171" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="172">
       <c r="E172" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="173">
       <c r="E173" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="174">
       <c r="E174" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="175">
       <c r="E175" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="176">
       <c r="E176" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="177">
       <c r="E177" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="178">
       <c r="E178" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="179">
       <c r="E179" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="180">
       <c r="E180" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="181">
       <c r="E181" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="182">
       <c r="E182" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="183">
       <c r="E183" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="184">
       <c r="E184" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="185">
       <c r="E185" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="186">
       <c r="E186" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="187">
       <c r="E187" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="188">
       <c r="E188" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="189">
       <c r="E189" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="190">
       <c r="E190" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="191">
       <c r="E191" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="192">
       <c r="E192" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="193">
       <c r="E193" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="194">
       <c r="E194" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="195">
       <c r="E195" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="196">
       <c r="E196" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="197">
       <c r="E197" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="198">
       <c r="E198" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="199">
       <c r="E199" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="200">
       <c r="E200" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="201">
       <c r="E201" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="202">
       <c r="E202" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="203">
       <c r="E203" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="204">
       <c r="E204" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="205">
       <c r="E205" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="206">
       <c r="E206" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="207">
       <c r="E207" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="208">
       <c r="E208" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="209">
       <c r="E209" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="210">
       <c r="E210" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="211">
       <c r="E211" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="212">
       <c r="E212" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="213">
       <c r="E213" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="214">
       <c r="E214" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="215">
       <c r="E215" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="216">
       <c r="E216" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="217">
       <c r="E217" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="218">
       <c r="E218" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="219">
       <c r="E219" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="220">
       <c r="E220" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="221">
       <c r="E221" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="222">
       <c r="E222" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="223">
       <c r="E223" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="224">
       <c r="E224" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="225">
       <c r="E225" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="226">
       <c r="E226" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="227">
       <c r="E227" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="228">
       <c r="E228" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="229">
       <c r="E229" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="230">
       <c r="E230" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="231">
       <c r="E231" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="232">
       <c r="E232" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="233">
       <c r="E233" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="234">
       <c r="E234" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="235">
       <c r="E235" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="236">
       <c r="E236" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="237">
       <c r="E237" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="238">
       <c r="E238" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="239">
       <c r="E239" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="240">
       <c r="E240" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="241">
       <c r="E241" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="242">
       <c r="E242" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="243">
       <c r="E243" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="244">
       <c r="E244" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="245">
       <c r="E245" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="246">
       <c r="E246" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="247">
       <c r="E247" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="248">
       <c r="E248" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="249">
       <c r="E249" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="250">
       <c r="E250" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="251">
       <c r="E251" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="252">
       <c r="E252" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="253">
       <c r="E253" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="254">
       <c r="E254" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="255">
       <c r="E255" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="256">
       <c r="E256" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="257">
       <c r="E257" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="258">
       <c r="E258" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="259">
       <c r="E259" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="260">
       <c r="E260" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="261">
       <c r="E261" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="262">
       <c r="E262" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="263">
       <c r="E263" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="264">
       <c r="E264" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="265">
       <c r="E265" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="266">
       <c r="E266" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="267">
       <c r="E267" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="268">
       <c r="E268" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="269">
       <c r="E269" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="270">
       <c r="E270" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="271">
       <c r="E271" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="272">
       <c r="E272" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="273">
       <c r="E273" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="274">
       <c r="E274" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="275">
       <c r="E275" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="276">
       <c r="E276" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="277">
       <c r="E277" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="278">
       <c r="E278" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="279">
       <c r="E279" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="280">
       <c r="E280" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="281">
       <c r="E281" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="282">
       <c r="E282" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="283">
       <c r="E283" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="284">
       <c r="E284" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="285">
       <c r="E285" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="286">
       <c r="E286" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="287">
       <c r="E287" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="288">
       <c r="E288" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="289">
       <c r="E289" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="290">
       <c r="E290" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="291">
       <c r="E291" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="292">
       <c r="E292" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="293">
       <c r="E293" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="294">
       <c r="E294" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="295">
       <c r="E295" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="296">
       <c r="E296" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="297">
       <c r="E297" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="298">
       <c r="E298" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="299">
       <c r="E299" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="300">
       <c r="E300" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="301">
       <c r="E301" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="302">
       <c r="E302" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="303">
       <c r="E303" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="304">
       <c r="E304" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="305">
       <c r="E305" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="306">
       <c r="E306" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="307">
       <c r="E307" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="308">
       <c r="E308" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="309">
       <c r="E309" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="310">
       <c r="E310" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="311">
       <c r="E311" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="312">
       <c r="E312" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="313">
       <c r="E313" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="314">
       <c r="E314" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="315">
       <c r="E315" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="316">
       <c r="E316" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="317">
       <c r="E317" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="318">
       <c r="E318" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="319">
       <c r="E319" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="320">
       <c r="E320" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="321">
       <c r="E321" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="322">
       <c r="E322" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="323">
       <c r="E323" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="324">
       <c r="E324" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="325">
       <c r="E325" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="326">
       <c r="E326" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="327">
       <c r="E327" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="328">
       <c r="E328" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="329">
       <c r="E329" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="330">
       <c r="E330" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="331">
       <c r="E331" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="332">
       <c r="E332" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="333">
       <c r="E333" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="334">
       <c r="E334" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="335">
       <c r="E335" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="336">
       <c r="E336" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="337">
       <c r="E337" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="338">
       <c r="E338" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="339">
       <c r="E339" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="340">
       <c r="E340" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="341">
       <c r="E341" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="342">
       <c r="E342" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="343">
       <c r="E343" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="344">
       <c r="E344" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="345">
       <c r="E345" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="346">
       <c r="E346" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="347">
       <c r="E347" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="348">
       <c r="E348" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="349">
       <c r="E349" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="350">
       <c r="E350" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="351">
       <c r="E351" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="352">
       <c r="E352" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="353">
       <c r="E353" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="354">
       <c r="E354" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="355">
       <c r="E355" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="356">
       <c r="E356" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="357">
       <c r="E357" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="358">
       <c r="E358" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="359">
       <c r="E359" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="360">
       <c r="E360" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="361">
       <c r="E361" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="362">
       <c r="E362" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="363">
       <c r="E363" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="364">
       <c r="E364" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="365">
       <c r="E365" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="366">
       <c r="E366" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="367">
       <c r="E367" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="368">
       <c r="E368" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="369">
       <c r="E369" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="370">
       <c r="E370" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="371">
       <c r="E371" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="372">
       <c r="E372" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="373">
       <c r="E373" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="374">
       <c r="E374" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="375">
       <c r="E375" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="376">
       <c r="E376" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="377">
       <c r="E377" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="378">
       <c r="E378" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="379">
       <c r="E379" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="380">
       <c r="E380" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="381">
       <c r="E381" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="382">
       <c r="E382" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="383">
       <c r="E383" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="384">
       <c r="E384" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="385">
       <c r="E385" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="386">
       <c r="E386" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="387">
       <c r="E387" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="388">
       <c r="E388" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="389">
       <c r="E389" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="390">
       <c r="E390" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="391">
       <c r="E391" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="392">
       <c r="E392" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="393">
       <c r="E393" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="394">
       <c r="E394" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="395">
       <c r="E395" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="396">
       <c r="E396" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="397">
       <c r="E397" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="398">
       <c r="E398" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="399">
       <c r="E399" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="400">
       <c r="E400" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="401">
       <c r="E401" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="402">
       <c r="E402" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="403">
       <c r="E403" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="404">
       <c r="E404" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="405">
       <c r="E405" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="406">
       <c r="E406" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="407">
       <c r="E407" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="408">
       <c r="E408" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="409">
       <c r="E409" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="410">
       <c r="E410" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="411">
       <c r="E411" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="412">
       <c r="E412" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="413">
       <c r="E413" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="414">
       <c r="E414" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="415">
       <c r="E415" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="416">
       <c r="E416" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="417">
       <c r="E417" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="418">
       <c r="E418" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="419">
       <c r="E419" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="420">
       <c r="E420" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="421">
       <c r="E421" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="422">
       <c r="E422" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="423">
       <c r="E423" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="424">
       <c r="E424" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="425">
       <c r="E425" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="426">
       <c r="E426" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="427">
       <c r="E427" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="428">
       <c r="E428" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="429">
       <c r="E429" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="430">
       <c r="E430" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="431">
       <c r="E431" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="432">
       <c r="E432" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="433">
       <c r="E433" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="434">
       <c r="E434" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="435">
       <c r="E435" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="436">
       <c r="E436" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="437">
       <c r="E437" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="438">
       <c r="E438" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="439">
       <c r="E439" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="440">
       <c r="E440" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="441">
       <c r="E441" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="442">
       <c r="E442" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="443">
       <c r="E443" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="444">
       <c r="E444" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="445">
       <c r="E445" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="446">
       <c r="E446" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="447">
       <c r="E447" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="448">
       <c r="E448" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="449">
       <c r="E449" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="450">
       <c r="E450" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="451">
       <c r="E451" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="452">
       <c r="E452" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="453">
       <c r="E453" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="454">
       <c r="E454" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="455">
       <c r="E455" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="456">
       <c r="E456" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="457">
       <c r="E457" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="458">
       <c r="E458" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="459">
       <c r="E459" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="460">
       <c r="E460" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="461">
       <c r="E461" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="462">
       <c r="E462" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="463">
       <c r="E463" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="464">
       <c r="E464" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="465">
       <c r="E465" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="466">
       <c r="E466" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="467">
       <c r="E467" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="468">
       <c r="E468" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="469">
       <c r="E469" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="470">
       <c r="E470" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="471">
       <c r="E471" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="472">
       <c r="E472" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="473">
       <c r="E473" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="474">
       <c r="E474" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="475">
       <c r="E475" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="476">
       <c r="E476" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="477">
       <c r="E477" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="478">
       <c r="E478" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="479">
       <c r="E479" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="480">
       <c r="E480" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="481">
       <c r="E481" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="482">
       <c r="E482" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="483">
       <c r="E483" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="484">
       <c r="E484" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="485">
       <c r="E485" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="486">
       <c r="E486" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="487">
       <c r="E487" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="488">
       <c r="E488" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="489">
       <c r="E489" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="490">
       <c r="E490" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="491">
       <c r="E491" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="492">
       <c r="E492" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="493">
       <c r="E493" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="494">
       <c r="E494" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="495">
       <c r="E495" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="496">
       <c r="E496" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="497">
       <c r="E497" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="498">
       <c r="E498" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="499">
       <c r="E499" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="500">
       <c r="E500" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="501">
       <c r="E501" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="502">
       <c r="E502" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="503">
       <c r="E503" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="504">
       <c r="E504" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="505">
       <c r="E505" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="506">
       <c r="E506" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="507">
       <c r="E507" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="508">
       <c r="E508" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="509">
       <c r="E509" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="510">
       <c r="E510" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="511">
       <c r="E511" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="512">
       <c r="E512" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="513">
       <c r="E513" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="514">
       <c r="E514" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="515">
       <c r="E515" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="516">
       <c r="E516" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="517">
       <c r="E517" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="518">
       <c r="E518" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="519">
       <c r="E519" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="520">
       <c r="E520" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="521">
       <c r="E521" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="522">
       <c r="E522" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="523">
       <c r="E523" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="524">
       <c r="E524" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="525">
       <c r="E525" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="526">
       <c r="E526" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="527">
       <c r="E527" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="528">
       <c r="E528" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="529">
       <c r="E529" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="530">
       <c r="E530" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="531">
       <c r="E531" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="532">
       <c r="E532" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="533">
       <c r="E533" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="534">
       <c r="E534" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="535">
       <c r="E535" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="536">
       <c r="E536" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="537">
       <c r="E537" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="538">
       <c r="E538" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="539">
       <c r="E539" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="540">
       <c r="E540" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="541">
       <c r="E541" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="542">
       <c r="E542" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="543">
       <c r="E543" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="544">
       <c r="E544" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="545">
       <c r="E545" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="546">
       <c r="E546" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="547">
       <c r="E547" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="548">
       <c r="E548" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="549">
       <c r="E549" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="550">
       <c r="E550" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="551">
       <c r="E551" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="552">
       <c r="E552" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="553">
       <c r="E553" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="554">
       <c r="E554" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="555">
       <c r="E555" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="556">
       <c r="E556" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="557">
       <c r="E557" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="558">
       <c r="E558" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="559">
       <c r="E559" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="560">
       <c r="E560" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="561">
       <c r="E561" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="562">
       <c r="E562" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="563">
       <c r="E563" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="564">
       <c r="E564" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="565">
       <c r="E565" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="566">
       <c r="E566" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="567">
       <c r="E567" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="568">
       <c r="E568" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="569">
       <c r="E569" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="570">
       <c r="E570" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="571">
       <c r="E571" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="572">
       <c r="E572" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="573">
       <c r="E573" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="574">
       <c r="E574" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="575">
       <c r="E575" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="576">
       <c r="E576" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="577">
       <c r="E577" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="578">
       <c r="E578" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="579">
       <c r="E579" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="580">
       <c r="E580" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="581">
       <c r="E581" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="582">
       <c r="E582" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="583">
       <c r="E583" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="584">
       <c r="E584" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="585">
       <c r="E585" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="586">
       <c r="E586" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="587">
       <c r="E587" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="588">
       <c r="E588" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="589">
       <c r="E589" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="590">
       <c r="E590" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="591">
       <c r="E591" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="592">
       <c r="E592" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="593">
       <c r="E593" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="594">
       <c r="E594" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="595">
       <c r="E595" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="596">
       <c r="E596" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="597">
       <c r="E597" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="598">
       <c r="E598" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="599">
       <c r="E599" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="600">
       <c r="E600" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="601">
       <c r="E601" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="602">
       <c r="E602" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="603">
       <c r="E603" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="604">
       <c r="E604" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="605">
       <c r="E605" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="606">
       <c r="E606" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="607">
       <c r="E607" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="608">
       <c r="E608" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="609">
       <c r="E609" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="610">
       <c r="E610" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="611">
       <c r="E611" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="612">
       <c r="E612" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="613">
       <c r="E613" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="614">
       <c r="E614" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="615">
       <c r="E615" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="616">
       <c r="E616" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="617">
       <c r="E617" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="618">
       <c r="E618" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="619">
       <c r="E619" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="620">
       <c r="E620" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="621">
       <c r="E621" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="622">
       <c r="E622" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="623">
       <c r="E623" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="624">
       <c r="E624" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="625">
       <c r="E625" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="626">
       <c r="E626" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="627">
       <c r="E627" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="628">
       <c r="E628" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="629">
       <c r="E629" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="630">
       <c r="E630" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="631">
       <c r="E631" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="632">
       <c r="E632" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="633">
       <c r="E633" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="634">
       <c r="E634" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="635">
       <c r="E635" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="636">
       <c r="E636" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="637">
       <c r="E637" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="638">
       <c r="E638" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="639">
       <c r="E639" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="640">
       <c r="E640" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="641">
       <c r="E641" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="642">
       <c r="E642" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="643">
       <c r="E643" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="644">
       <c r="E644" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="645">
       <c r="E645" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="646">
       <c r="E646" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="647">
       <c r="E647" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="648">
       <c r="E648" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="649">
       <c r="E649" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="650">
       <c r="E650" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="651">
       <c r="E651" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="652">
       <c r="E652" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="653">
       <c r="E653" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="654">
       <c r="E654" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="655">
       <c r="E655" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="656">
       <c r="E656" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="657">
       <c r="E657" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="658">
       <c r="E658" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="659">
       <c r="E659" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="660">
       <c r="E660" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="661">
       <c r="E661" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="662">
       <c r="E662" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="663">
       <c r="E663" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="664">
       <c r="E664" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="665">
       <c r="E665" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="666">
       <c r="E666" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="667">
       <c r="E667" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="668">
       <c r="E668" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="669">
       <c r="E669" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="670">
       <c r="E670" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="671">
       <c r="E671" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="672">
       <c r="E672" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="673">
       <c r="E673" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="674">
       <c r="E674" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="675">
       <c r="E675" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="676">
       <c r="E676" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="677">
       <c r="E677" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="678">
       <c r="E678" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="679">
       <c r="E679" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="680">
       <c r="E680" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="681">
       <c r="E681" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="682">
       <c r="E682" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="683">
       <c r="E683" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="684">
       <c r="E684" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="685">
       <c r="E685" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="686">
       <c r="E686" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="687">
       <c r="E687" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="688">
       <c r="E688" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="689">
       <c r="E689" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="690">
       <c r="E690" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="691">
       <c r="E691" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="692">
       <c r="E692" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="693">
       <c r="E693" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="694">
       <c r="E694" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="695">
       <c r="E695" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="696">
       <c r="E696" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="697">
       <c r="E697" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="698">
       <c r="E698" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="699">
       <c r="E699" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="700">
       <c r="E700" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="701">
       <c r="E701" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="702">
       <c r="E702" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="703">
       <c r="E703" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="704">
       <c r="E704" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="705">
       <c r="E705" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="706">
       <c r="E706" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="707">
       <c r="E707" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="708">
       <c r="E708" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="709">
       <c r="E709" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="710">
       <c r="E710" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="711">
       <c r="E711" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="712">
       <c r="E712" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="713">
       <c r="E713" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="714">
       <c r="E714" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="715">
       <c r="E715" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="716">
       <c r="E716" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="717">
       <c r="E717" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="718">
       <c r="E718" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="719">
       <c r="E719" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="720">
       <c r="E720" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="721">
       <c r="E721" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="722">
       <c r="E722" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="723">
       <c r="E723" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="724">
       <c r="E724" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="725">
       <c r="E725" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="726">
       <c r="E726" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="727">
       <c r="E727" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="728">
       <c r="E728" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="729">
       <c r="E729" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="730">
       <c r="E730" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="731">
       <c r="E731" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="732">
       <c r="E732" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="733">
       <c r="E733" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="734">
       <c r="E734" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="735">
       <c r="E735" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="736">
       <c r="E736" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="737">
       <c r="E737" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="738">
       <c r="E738" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="739">
       <c r="E739" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="740">
       <c r="E740" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="741">
       <c r="E741" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="742">
       <c r="E742" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="743">
       <c r="E743" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="744">
       <c r="E744" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="745">
       <c r="E745" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="746">
       <c r="E746" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="747">
       <c r="E747" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="748">
       <c r="E748" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="749">
       <c r="E749" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="750">
       <c r="E750" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="751">
       <c r="E751" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="752">
       <c r="E752" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="753">
       <c r="E753" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="754">
       <c r="E754" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="755">
       <c r="E755" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="756">
       <c r="E756" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="757">
       <c r="E757" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="758">
       <c r="E758" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="759">
       <c r="E759" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="760">
       <c r="E760" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="761">
       <c r="E761" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="762">
       <c r="E762" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="763">
       <c r="E763" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="764">
       <c r="E764" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="765">
       <c r="E765" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="766">
       <c r="E766" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="767">
       <c r="E767" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="768">
       <c r="E768" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="769">
       <c r="E769" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="770">
       <c r="E770" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="771">
       <c r="E771" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="772">
       <c r="E772" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="773">
       <c r="E773" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="774">
       <c r="E774" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="775">
       <c r="E775" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="776">
       <c r="E776" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="777">
       <c r="E777" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="778">
       <c r="E778" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="779">
       <c r="E779" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="780">
       <c r="E780" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="781">
       <c r="E781" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="782">
       <c r="E782" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="783">
       <c r="E783" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="784">
       <c r="E784" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="785">
       <c r="E785" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="786">
       <c r="E786" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="787">
       <c r="E787" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="788">
       <c r="E788" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="789">
       <c r="E789" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="790">
       <c r="E790" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="791">
       <c r="E791" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="792">
       <c r="E792" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="793">
       <c r="E793" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="794">
       <c r="E794" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="795">
       <c r="E795" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="796">
       <c r="E796" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="797">
       <c r="E797" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="798">
       <c r="E798" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="799">
       <c r="E799" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="800">
       <c r="E800" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="801">
       <c r="E801" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="802">
       <c r="E802" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="803">
       <c r="E803" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="804">
       <c r="E804" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="805">
       <c r="E805" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="806">
       <c r="E806" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="807">
       <c r="E807" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="808">
       <c r="E808" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="809">
       <c r="E809" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="810">
       <c r="E810" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="811">
       <c r="E811" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="812">
       <c r="E812" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="813">
       <c r="E813" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="814">
       <c r="E814" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="815">
       <c r="E815" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="816">
       <c r="E816" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="817">
       <c r="E817" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="818">
       <c r="E818" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="819">
       <c r="E819" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="820">
       <c r="E820" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="821">
       <c r="E821" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="822">
       <c r="E822" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="823">
       <c r="E823" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="824">
       <c r="E824" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="825">
       <c r="E825" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="826">
       <c r="E826" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="827">
       <c r="E827" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="828">
       <c r="E828" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="829">
       <c r="E829" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="830">
       <c r="E830" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="831">
       <c r="E831" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="832">
       <c r="E832" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="833">
       <c r="E833" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="834">
       <c r="E834" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="835">
       <c r="E835" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="836">
       <c r="E836" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="837">
       <c r="E837" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="838">
       <c r="E838" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="839">
       <c r="E839" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="840">
       <c r="E840" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="841">
       <c r="E841" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="842">
       <c r="E842" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="843">
       <c r="E843" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="844">
       <c r="E844" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="845">
       <c r="E845" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="846">
       <c r="E846" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="847">
       <c r="E847" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="848">
       <c r="E848" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="849">
       <c r="E849" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="850">
       <c r="E850" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="851">
       <c r="E851" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="852">
       <c r="E852" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="853">
       <c r="E853" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="854">
       <c r="E854" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="855">
       <c r="E855" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="856">
       <c r="E856" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="857">
       <c r="E857" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="858">
       <c r="E858" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="859">
       <c r="E859" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="860">
       <c r="E860" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="861">
       <c r="E861" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="862">
       <c r="E862" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="863">
       <c r="E863" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="864">
       <c r="E864" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="865">
       <c r="E865" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="866">
       <c r="E866" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="867">
       <c r="E867" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="868">
       <c r="E868" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="869">
       <c r="E869" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="870">
       <c r="E870" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="871">
       <c r="E871" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="872">
       <c r="E872" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="873">
       <c r="E873" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="874">
       <c r="E874" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="875">
       <c r="E875" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="876">
       <c r="E876" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="877">
       <c r="E877" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="878">
       <c r="E878" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="879">
       <c r="E879" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="880">
       <c r="E880" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="881">
       <c r="E881" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="882">
       <c r="E882" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="883">
       <c r="E883" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="884">
       <c r="E884" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="885">
       <c r="E885" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="886">
       <c r="E886" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="887">
       <c r="E887" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="888">
       <c r="E888" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="889">
       <c r="E889" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="890">
       <c r="E890" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="891">
       <c r="E891" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="892">
       <c r="E892" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="893">
       <c r="E893" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="894">
       <c r="E894" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="895">
       <c r="E895" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="896">
       <c r="E896" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="897">
       <c r="E897" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="898">
       <c r="E898" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="899">
       <c r="E899" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="900">
       <c r="E900" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="901">
       <c r="E901" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="902">
       <c r="E902" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="903">
       <c r="E903" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="904">
       <c r="E904" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="905">
       <c r="E905" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="906">
       <c r="E906" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="907">
       <c r="E907" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="908">
       <c r="E908" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="909">
       <c r="E909" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="910">
       <c r="E910" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="911">
       <c r="E911" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="912">
       <c r="E912" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="913">
       <c r="E913" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="914">
       <c r="E914" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="915">
       <c r="E915" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="916">
       <c r="E916" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="917">
       <c r="E917" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="918">
       <c r="E918" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="919">
       <c r="E919" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="920">
       <c r="E920" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="921">
       <c r="E921" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="922">
       <c r="E922" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="923">
       <c r="E923" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="924">
       <c r="E924" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="925">
       <c r="E925" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="926">
       <c r="E926" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="927">
       <c r="E927" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="928">
       <c r="E928" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="929">
       <c r="E929" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="930">
       <c r="E930" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="931">
       <c r="E931" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="932">
       <c r="E932" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="933">
       <c r="E933" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="934">
       <c r="E934" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="935">
       <c r="E935" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="936">
       <c r="E936" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="937">
       <c r="E937" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="938">
       <c r="E938" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="939">
       <c r="E939" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="940">
       <c r="E940" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="941">
       <c r="E941" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="942">
       <c r="E942" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="943">
       <c r="E943" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="944">
       <c r="E944" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="945">
       <c r="E945" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="946">
       <c r="E946" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="947">
       <c r="E947" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="948">
       <c r="E948" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="949">
       <c r="E949" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="950">
       <c r="E950" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="951">
       <c r="E951" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="952">
       <c r="E952" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="953">
       <c r="E953" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="954">
       <c r="E954" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="955">
       <c r="E955" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="956">
       <c r="E956" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="957">
       <c r="E957" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="958">
       <c r="E958" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="959">
       <c r="E959" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="960">
       <c r="E960" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="961">
       <c r="E961" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="962">
       <c r="E962" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="963">
       <c r="E963" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="964">
       <c r="E964" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="965">
       <c r="E965" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="966">
       <c r="E966" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="967">
       <c r="E967" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="968">
       <c r="E968" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="969">
       <c r="E969" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="970">
       <c r="E970" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="971">
       <c r="E971" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="972">
       <c r="E972" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="973">
       <c r="E973" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="974">
       <c r="E974" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="975">
       <c r="E975" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="976">
       <c r="E976" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="977">
       <c r="E977" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="978">
       <c r="E978" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="979">
       <c r="E979" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="980">
       <c r="E980" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="981">
       <c r="E981" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="982">
       <c r="E982" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="983">
       <c r="E983" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="984">
       <c r="E984" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="985">
       <c r="E985" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="986">
       <c r="E986" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="987">
       <c r="E987" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="988">
       <c r="E988" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="989">
       <c r="E989" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="990">
       <c r="E990" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="991">
       <c r="E991" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="992">
       <c r="E992" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="993">
       <c r="E993" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="994">
       <c r="E994" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="995">
       <c r="E995" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="996">
       <c r="E996" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="997">
       <c r="E997" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="998">
       <c r="E998" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="999">
       <c r="E999" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1000">
       <c r="E1000" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -263,7 +263,7 @@
     <t>Chidinma Okeke</t>
   </si>
   <si>
-    <t>Gaby García</t>
+    <t>Gabriela García</t>
   </si>
   <si>
     <t>Annia Mejía</t>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4681" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4846" uniqueCount="112">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -275,6 +275,15 @@
     <t>Isa Haas</t>
   </si>
   <si>
+    <t>Aylin Aviléz</t>
+  </si>
+  <si>
+    <t>Julie López</t>
+  </si>
+  <si>
+    <t>Gaby García</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -327,9 +336,6 @@
   </si>
   <si>
     <t>Aylin</t>
-  </si>
-  <si>
-    <t>Aylin Aviléz</t>
   </si>
   <si>
     <t>Daniela</t>
@@ -496,7 +502,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G803" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G836" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -16894,374 +16900,770 @@
       </c>
     </row>
     <row r="704" ht="22.5" customHeight="1">
-      <c r="A704" s="3"/>
-      <c r="B704" s="4"/>
-      <c r="C704" s="5"/>
-      <c r="D704" s="5" t="s">
+      <c r="A704" s="6">
+        <v>46030.559838437504</v>
+      </c>
+      <c r="B704" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C704" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D704" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E704" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F704" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G704" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="705" ht="22.5" customHeight="1">
+      <c r="A705" s="6">
+        <v>46030.56069346065</v>
+      </c>
+      <c r="B705" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C705" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D705" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E705" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F705" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G705" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="706" ht="22.5" customHeight="1">
+      <c r="A706" s="6">
+        <v>46030.56083086805</v>
+      </c>
+      <c r="B706" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C706" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D706" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E706" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F706" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G706" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="707" ht="22.5" customHeight="1">
+      <c r="A707" s="6">
+        <v>46030.560838680554</v>
+      </c>
+      <c r="B707" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C707" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D707" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E707" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F707" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G707" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="708" ht="22.5" customHeight="1">
+      <c r="A708" s="6">
+        <v>46030.56355659722</v>
+      </c>
+      <c r="B708" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C708" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D708" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E708" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F708" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G708" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="709" ht="22.5" customHeight="1">
+      <c r="A709" s="6">
+        <v>46030.56405509259</v>
+      </c>
+      <c r="B709" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C709" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D709" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E709" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F709" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G709" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="710" ht="22.5" customHeight="1">
+      <c r="A710" s="6">
+        <v>46030.56533171296</v>
+      </c>
+      <c r="B710" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C710" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D710" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E710" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F710" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G710" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="711" ht="22.5" customHeight="1">
+      <c r="A711" s="6">
+        <v>46030.5655189699</v>
+      </c>
+      <c r="B711" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C711" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D711" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E711" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F711" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G711" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="712" ht="22.5" customHeight="1">
+      <c r="A712" s="6">
+        <v>46030.56594990741</v>
+      </c>
+      <c r="B712" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C712" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D712" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E712" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F712" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G712" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="713" ht="22.5" customHeight="1">
+      <c r="A713" s="6">
+        <v>46030.572449259256</v>
+      </c>
+      <c r="B713" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C713" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D713" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E704" s="5"/>
-      <c r="F704" s="5"/>
-      <c r="G704" s="5"/>
-    </row>
-    <row r="705" ht="22.5" customHeight="1">
-      <c r="A705" s="3"/>
-      <c r="B705" s="4"/>
-      <c r="C705" s="5"/>
-      <c r="D705" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E705" s="5"/>
-      <c r="F705" s="5"/>
-      <c r="G705" s="5"/>
-    </row>
-    <row r="706" ht="22.5" customHeight="1">
-      <c r="A706" s="3"/>
-      <c r="B706" s="4"/>
-      <c r="C706" s="5"/>
-      <c r="D706" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E706" s="5"/>
-      <c r="F706" s="5"/>
-      <c r="G706" s="5"/>
-    </row>
-    <row r="707" ht="22.5" customHeight="1">
-      <c r="A707" s="3"/>
-      <c r="B707" s="4"/>
-      <c r="C707" s="5"/>
-      <c r="D707" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E707" s="5"/>
-      <c r="F707" s="5"/>
-      <c r="G707" s="5"/>
-    </row>
-    <row r="708" ht="22.5" customHeight="1">
-      <c r="A708" s="3"/>
-      <c r="B708" s="4"/>
-      <c r="C708" s="5"/>
-      <c r="D708" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E708" s="5"/>
-      <c r="F708" s="5"/>
-      <c r="G708" s="5"/>
-    </row>
-    <row r="709" ht="22.5" customHeight="1">
-      <c r="A709" s="3"/>
-      <c r="B709" s="4"/>
-      <c r="C709" s="5"/>
-      <c r="D709" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E709" s="5"/>
-      <c r="F709" s="5"/>
-      <c r="G709" s="5"/>
-    </row>
-    <row r="710" ht="22.5" customHeight="1">
-      <c r="A710" s="3"/>
-      <c r="B710" s="4"/>
-      <c r="C710" s="5"/>
-      <c r="D710" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E710" s="5"/>
-      <c r="F710" s="5"/>
-      <c r="G710" s="5"/>
-    </row>
-    <row r="711" ht="22.5" customHeight="1">
-      <c r="A711" s="3"/>
-      <c r="B711" s="4"/>
-      <c r="C711" s="5"/>
-      <c r="D711" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E711" s="5"/>
-      <c r="F711" s="5"/>
-      <c r="G711" s="5"/>
-    </row>
-    <row r="712" ht="22.5" customHeight="1">
-      <c r="A712" s="3"/>
-      <c r="B712" s="4"/>
-      <c r="C712" s="5"/>
-      <c r="D712" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E712" s="5"/>
-      <c r="F712" s="5"/>
-      <c r="G712" s="5"/>
-    </row>
-    <row r="713" ht="22.5" customHeight="1">
-      <c r="A713" s="3"/>
-      <c r="B713" s="4"/>
-      <c r="C713" s="5"/>
-      <c r="D713" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E713" s="5"/>
-      <c r="F713" s="5"/>
-      <c r="G713" s="5"/>
+      <c r="E713" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F713" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G713" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="714" ht="22.5" customHeight="1">
-      <c r="A714" s="3"/>
-      <c r="B714" s="4"/>
-      <c r="C714" s="5"/>
-      <c r="D714" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E714" s="5"/>
-      <c r="F714" s="5"/>
-      <c r="G714" s="5"/>
+      <c r="A714" s="6">
+        <v>46030.57260693287</v>
+      </c>
+      <c r="B714" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C714" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D714" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E714" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F714" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G714" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="715" ht="22.5" customHeight="1">
-      <c r="A715" s="3"/>
-      <c r="B715" s="4"/>
-      <c r="C715" s="5"/>
-      <c r="D715" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E715" s="5"/>
-      <c r="F715" s="5"/>
-      <c r="G715" s="5"/>
+      <c r="A715" s="6">
+        <v>46030.577190104166</v>
+      </c>
+      <c r="B715" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C715" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D715" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E715" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F715" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G715" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="716" ht="22.5" customHeight="1">
-      <c r="A716" s="3"/>
-      <c r="B716" s="4"/>
-      <c r="C716" s="5"/>
-      <c r="D716" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E716" s="5"/>
-      <c r="F716" s="5"/>
-      <c r="G716" s="5"/>
+      <c r="A716" s="6">
+        <v>46030.58000739584</v>
+      </c>
+      <c r="B716" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C716" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D716" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E716" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F716" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G716" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="717" ht="22.5" customHeight="1">
-      <c r="A717" s="3"/>
-      <c r="B717" s="4"/>
-      <c r="C717" s="5"/>
-      <c r="D717" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E717" s="5"/>
-      <c r="F717" s="5"/>
-      <c r="G717" s="5"/>
+      <c r="A717" s="6">
+        <v>46030.5801915162</v>
+      </c>
+      <c r="B717" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C717" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D717" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E717" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F717" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G717" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="718" ht="22.5" customHeight="1">
-      <c r="A718" s="3"/>
-      <c r="B718" s="4"/>
-      <c r="C718" s="5"/>
-      <c r="D718" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E718" s="5"/>
-      <c r="F718" s="5"/>
-      <c r="G718" s="5"/>
+      <c r="A718" s="6">
+        <v>46030.581905983796</v>
+      </c>
+      <c r="B718" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C718" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D718" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E718" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F718" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G718" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="719" ht="22.5" customHeight="1">
-      <c r="A719" s="3"/>
-      <c r="B719" s="4"/>
-      <c r="C719" s="5"/>
-      <c r="D719" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E719" s="5"/>
-      <c r="F719" s="5"/>
-      <c r="G719" s="5"/>
+      <c r="A719" s="6">
+        <v>46030.58470684028</v>
+      </c>
+      <c r="B719" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C719" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D719" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E719" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F719" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G719" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="720" ht="22.5" customHeight="1">
-      <c r="A720" s="3"/>
-      <c r="B720" s="4"/>
-      <c r="C720" s="5"/>
-      <c r="D720" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E720" s="5"/>
-      <c r="F720" s="5"/>
-      <c r="G720" s="5"/>
+      <c r="A720" s="6">
+        <v>46030.59147480324</v>
+      </c>
+      <c r="B720" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C720" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D720" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E720" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F720" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G720" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="721" ht="22.5" customHeight="1">
-      <c r="A721" s="3"/>
-      <c r="B721" s="4"/>
-      <c r="C721" s="5"/>
-      <c r="D721" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E721" s="5"/>
-      <c r="F721" s="5"/>
-      <c r="G721" s="5"/>
+      <c r="A721" s="6">
+        <v>46030.613346342594</v>
+      </c>
+      <c r="B721" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C721" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D721" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E721" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F721" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G721" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="722" ht="22.5" customHeight="1">
-      <c r="A722" s="3"/>
-      <c r="B722" s="4"/>
-      <c r="C722" s="5"/>
-      <c r="D722" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E722" s="5"/>
-      <c r="F722" s="5"/>
-      <c r="G722" s="5"/>
+      <c r="A722" s="6">
+        <v>46030.74624678241</v>
+      </c>
+      <c r="B722" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C722" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D722" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E722" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F722" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G722" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="723" ht="22.5" customHeight="1">
-      <c r="A723" s="3"/>
-      <c r="B723" s="4"/>
-      <c r="C723" s="5"/>
-      <c r="D723" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E723" s="5"/>
-      <c r="F723" s="5"/>
-      <c r="G723" s="5"/>
+      <c r="A723" s="6">
+        <v>46031.41028914352</v>
+      </c>
+      <c r="B723" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C723" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D723" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E723" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F723" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G723" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="724" ht="22.5" customHeight="1">
-      <c r="A724" s="3"/>
-      <c r="B724" s="4"/>
-      <c r="C724" s="5"/>
-      <c r="D724" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E724" s="5"/>
-      <c r="F724" s="5"/>
-      <c r="G724" s="5"/>
+      <c r="A724" s="6">
+        <v>46031.410909143524</v>
+      </c>
+      <c r="B724" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C724" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D724" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E724" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F724" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G724" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="725" ht="22.5" customHeight="1">
-      <c r="A725" s="3"/>
-      <c r="B725" s="4"/>
-      <c r="C725" s="5"/>
-      <c r="D725" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E725" s="5"/>
-      <c r="F725" s="5"/>
-      <c r="G725" s="5"/>
+      <c r="A725" s="6">
+        <v>46031.412402291666</v>
+      </c>
+      <c r="B725" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C725" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D725" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E725" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F725" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G725" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="726" ht="22.5" customHeight="1">
-      <c r="A726" s="3"/>
-      <c r="B726" s="4"/>
-      <c r="C726" s="5"/>
-      <c r="D726" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E726" s="5"/>
-      <c r="F726" s="5"/>
-      <c r="G726" s="5"/>
+      <c r="A726" s="6">
+        <v>46031.416509675924</v>
+      </c>
+      <c r="B726" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C726" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D726" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E726" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F726" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G726" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="727" ht="22.5" customHeight="1">
-      <c r="A727" s="3"/>
-      <c r="B727" s="4"/>
-      <c r="C727" s="5"/>
-      <c r="D727" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E727" s="5"/>
-      <c r="F727" s="5"/>
-      <c r="G727" s="5"/>
+      <c r="A727" s="6">
+        <v>46031.4167675</v>
+      </c>
+      <c r="B727" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C727" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D727" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E727" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F727" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G727" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="728" ht="22.5" customHeight="1">
-      <c r="A728" s="3"/>
-      <c r="B728" s="4"/>
-      <c r="C728" s="5"/>
-      <c r="D728" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E728" s="5"/>
-      <c r="F728" s="5"/>
-      <c r="G728" s="5"/>
+      <c r="A728" s="6">
+        <v>46031.42532922454</v>
+      </c>
+      <c r="B728" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C728" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D728" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E728" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F728" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G728" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="729" ht="22.5" customHeight="1">
-      <c r="A729" s="3"/>
-      <c r="B729" s="4"/>
-      <c r="C729" s="5"/>
-      <c r="D729" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E729" s="5"/>
-      <c r="F729" s="5"/>
-      <c r="G729" s="5"/>
+      <c r="A729" s="6">
+        <v>46031.425445057874</v>
+      </c>
+      <c r="B729" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C729" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D729" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E729" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F729" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G729" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="730" ht="22.5" customHeight="1">
-      <c r="A730" s="3"/>
-      <c r="B730" s="4"/>
-      <c r="C730" s="5"/>
-      <c r="D730" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E730" s="5"/>
-      <c r="F730" s="5"/>
-      <c r="G730" s="5"/>
+      <c r="A730" s="6">
+        <v>46031.43166299768</v>
+      </c>
+      <c r="B730" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C730" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D730" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E730" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F730" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G730" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="731" ht="22.5" customHeight="1">
-      <c r="A731" s="3"/>
-      <c r="B731" s="4"/>
-      <c r="C731" s="5"/>
-      <c r="D731" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E731" s="5"/>
-      <c r="F731" s="5"/>
-      <c r="G731" s="5"/>
+      <c r="A731" s="6">
+        <v>46031.44235359954</v>
+      </c>
+      <c r="B731" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C731" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D731" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E731" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F731" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G731" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="732" ht="22.5" customHeight="1">
-      <c r="A732" s="3"/>
-      <c r="B732" s="4"/>
-      <c r="C732" s="5"/>
-      <c r="D732" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E732" s="5"/>
-      <c r="F732" s="5"/>
-      <c r="G732" s="5"/>
+      <c r="A732" s="6">
+        <v>46031.44711194445</v>
+      </c>
+      <c r="B732" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C732" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D732" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E732" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F732" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G732" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="733" ht="22.5" customHeight="1">
-      <c r="A733" s="3"/>
-      <c r="B733" s="4"/>
-      <c r="C733" s="5"/>
-      <c r="D733" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E733" s="5"/>
-      <c r="F733" s="5"/>
-      <c r="G733" s="5"/>
+      <c r="A733" s="6">
+        <v>46031.45118480324</v>
+      </c>
+      <c r="B733" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C733" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D733" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E733" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F733" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G733" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="734" ht="22.5" customHeight="1">
-      <c r="A734" s="3"/>
-      <c r="B734" s="4"/>
-      <c r="C734" s="5"/>
-      <c r="D734" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E734" s="5"/>
-      <c r="F734" s="5"/>
-      <c r="G734" s="5"/>
+      <c r="A734" s="6">
+        <v>46031.49114359954</v>
+      </c>
+      <c r="B734" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C734" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D734" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E734" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F734" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G734" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="735" ht="22.5" customHeight="1">
-      <c r="A735" s="3"/>
-      <c r="B735" s="4"/>
-      <c r="C735" s="5"/>
-      <c r="D735" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E735" s="5"/>
-      <c r="F735" s="5"/>
-      <c r="G735" s="5"/>
+      <c r="A735" s="6">
+        <v>46031.588781805556</v>
+      </c>
+      <c r="B735" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C735" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D735" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E735" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F735" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G735" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="736" ht="22.5" customHeight="1">
-      <c r="A736" s="3"/>
-      <c r="B736" s="4"/>
-      <c r="C736" s="5"/>
-      <c r="D736" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E736" s="5"/>
-      <c r="F736" s="5"/>
-      <c r="G736" s="5"/>
+      <c r="A736" s="6">
+        <v>46031.984834745366</v>
+      </c>
+      <c r="B736" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C736" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D736" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E736" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F736" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G736" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="737" ht="22.5" customHeight="1">
       <c r="A737" s="3"/>
       <c r="B737" s="4"/>
       <c r="C737" s="5"/>
       <c r="D737" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E737" s="5"/>
       <c r="F737" s="5"/>
@@ -17272,7 +17674,7 @@
       <c r="B738" s="4"/>
       <c r="C738" s="5"/>
       <c r="D738" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E738" s="5"/>
       <c r="F738" s="5"/>
@@ -17283,7 +17685,7 @@
       <c r="B739" s="4"/>
       <c r="C739" s="5"/>
       <c r="D739" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E739" s="5"/>
       <c r="F739" s="5"/>
@@ -17294,7 +17696,7 @@
       <c r="B740" s="4"/>
       <c r="C740" s="5"/>
       <c r="D740" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E740" s="5"/>
       <c r="F740" s="5"/>
@@ -17305,7 +17707,7 @@
       <c r="B741" s="4"/>
       <c r="C741" s="5"/>
       <c r="D741" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E741" s="5"/>
       <c r="F741" s="5"/>
@@ -17316,7 +17718,7 @@
       <c r="B742" s="4"/>
       <c r="C742" s="5"/>
       <c r="D742" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E742" s="5"/>
       <c r="F742" s="5"/>
@@ -17327,7 +17729,7 @@
       <c r="B743" s="4"/>
       <c r="C743" s="5"/>
       <c r="D743" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E743" s="5"/>
       <c r="F743" s="5"/>
@@ -17338,7 +17740,7 @@
       <c r="B744" s="4"/>
       <c r="C744" s="5"/>
       <c r="D744" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E744" s="5"/>
       <c r="F744" s="5"/>
@@ -17349,7 +17751,7 @@
       <c r="B745" s="4"/>
       <c r="C745" s="5"/>
       <c r="D745" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E745" s="5"/>
       <c r="F745" s="5"/>
@@ -17360,7 +17762,7 @@
       <c r="B746" s="4"/>
       <c r="C746" s="5"/>
       <c r="D746" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E746" s="5"/>
       <c r="F746" s="5"/>
@@ -17371,7 +17773,7 @@
       <c r="B747" s="4"/>
       <c r="C747" s="5"/>
       <c r="D747" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E747" s="5"/>
       <c r="F747" s="5"/>
@@ -17382,7 +17784,7 @@
       <c r="B748" s="4"/>
       <c r="C748" s="5"/>
       <c r="D748" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E748" s="5"/>
       <c r="F748" s="5"/>
@@ -17393,7 +17795,7 @@
       <c r="B749" s="4"/>
       <c r="C749" s="5"/>
       <c r="D749" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E749" s="5"/>
       <c r="F749" s="5"/>
@@ -17404,7 +17806,7 @@
       <c r="B750" s="4"/>
       <c r="C750" s="5"/>
       <c r="D750" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E750" s="5"/>
       <c r="F750" s="5"/>
@@ -17415,7 +17817,7 @@
       <c r="B751" s="4"/>
       <c r="C751" s="5"/>
       <c r="D751" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E751" s="5"/>
       <c r="F751" s="5"/>
@@ -17426,7 +17828,7 @@
       <c r="B752" s="4"/>
       <c r="C752" s="5"/>
       <c r="D752" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E752" s="5"/>
       <c r="F752" s="5"/>
@@ -17437,7 +17839,7 @@
       <c r="B753" s="4"/>
       <c r="C753" s="5"/>
       <c r="D753" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E753" s="5"/>
       <c r="F753" s="5"/>
@@ -17448,7 +17850,7 @@
       <c r="B754" s="4"/>
       <c r="C754" s="5"/>
       <c r="D754" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E754" s="5"/>
       <c r="F754" s="5"/>
@@ -17459,7 +17861,7 @@
       <c r="B755" s="4"/>
       <c r="C755" s="5"/>
       <c r="D755" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E755" s="5"/>
       <c r="F755" s="5"/>
@@ -17470,7 +17872,7 @@
       <c r="B756" s="4"/>
       <c r="C756" s="5"/>
       <c r="D756" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E756" s="5"/>
       <c r="F756" s="5"/>
@@ -17481,7 +17883,7 @@
       <c r="B757" s="4"/>
       <c r="C757" s="5"/>
       <c r="D757" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E757" s="5"/>
       <c r="F757" s="5"/>
@@ -17492,7 +17894,7 @@
       <c r="B758" s="4"/>
       <c r="C758" s="5"/>
       <c r="D758" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E758" s="5"/>
       <c r="F758" s="5"/>
@@ -17503,7 +17905,7 @@
       <c r="B759" s="4"/>
       <c r="C759" s="5"/>
       <c r="D759" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E759" s="5"/>
       <c r="F759" s="5"/>
@@ -17514,7 +17916,7 @@
       <c r="B760" s="4"/>
       <c r="C760" s="5"/>
       <c r="D760" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E760" s="5"/>
       <c r="F760" s="5"/>
@@ -17525,7 +17927,7 @@
       <c r="B761" s="4"/>
       <c r="C761" s="5"/>
       <c r="D761" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E761" s="5"/>
       <c r="F761" s="5"/>
@@ -17536,7 +17938,7 @@
       <c r="B762" s="4"/>
       <c r="C762" s="5"/>
       <c r="D762" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E762" s="5"/>
       <c r="F762" s="5"/>
@@ -17547,7 +17949,7 @@
       <c r="B763" s="4"/>
       <c r="C763" s="5"/>
       <c r="D763" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E763" s="5"/>
       <c r="F763" s="5"/>
@@ -17558,7 +17960,7 @@
       <c r="B764" s="4"/>
       <c r="C764" s="5"/>
       <c r="D764" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E764" s="5"/>
       <c r="F764" s="5"/>
@@ -17569,7 +17971,7 @@
       <c r="B765" s="4"/>
       <c r="C765" s="5"/>
       <c r="D765" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E765" s="5"/>
       <c r="F765" s="5"/>
@@ -17580,7 +17982,7 @@
       <c r="B766" s="4"/>
       <c r="C766" s="5"/>
       <c r="D766" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E766" s="5"/>
       <c r="F766" s="5"/>
@@ -17591,7 +17993,7 @@
       <c r="B767" s="4"/>
       <c r="C767" s="5"/>
       <c r="D767" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E767" s="5"/>
       <c r="F767" s="5"/>
@@ -17602,7 +18004,7 @@
       <c r="B768" s="4"/>
       <c r="C768" s="5"/>
       <c r="D768" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E768" s="5"/>
       <c r="F768" s="5"/>
@@ -17613,7 +18015,7 @@
       <c r="B769" s="4"/>
       <c r="C769" s="5"/>
       <c r="D769" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E769" s="5"/>
       <c r="F769" s="5"/>
@@ -17624,7 +18026,7 @@
       <c r="B770" s="4"/>
       <c r="C770" s="5"/>
       <c r="D770" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E770" s="5"/>
       <c r="F770" s="5"/>
@@ -17635,7 +18037,7 @@
       <c r="B771" s="4"/>
       <c r="C771" s="5"/>
       <c r="D771" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E771" s="5"/>
       <c r="F771" s="5"/>
@@ -17646,7 +18048,7 @@
       <c r="B772" s="4"/>
       <c r="C772" s="5"/>
       <c r="D772" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E772" s="5"/>
       <c r="F772" s="5"/>
@@ -17657,7 +18059,7 @@
       <c r="B773" s="4"/>
       <c r="C773" s="5"/>
       <c r="D773" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E773" s="5"/>
       <c r="F773" s="5"/>
@@ -17668,7 +18070,7 @@
       <c r="B774" s="4"/>
       <c r="C774" s="5"/>
       <c r="D774" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E774" s="5"/>
       <c r="F774" s="5"/>
@@ -17679,7 +18081,7 @@
       <c r="B775" s="4"/>
       <c r="C775" s="5"/>
       <c r="D775" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E775" s="5"/>
       <c r="F775" s="5"/>
@@ -17690,7 +18092,7 @@
       <c r="B776" s="4"/>
       <c r="C776" s="5"/>
       <c r="D776" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E776" s="5"/>
       <c r="F776" s="5"/>
@@ -17701,7 +18103,7 @@
       <c r="B777" s="4"/>
       <c r="C777" s="5"/>
       <c r="D777" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E777" s="5"/>
       <c r="F777" s="5"/>
@@ -17712,7 +18114,7 @@
       <c r="B778" s="4"/>
       <c r="C778" s="5"/>
       <c r="D778" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E778" s="5"/>
       <c r="F778" s="5"/>
@@ -17723,7 +18125,7 @@
       <c r="B779" s="4"/>
       <c r="C779" s="5"/>
       <c r="D779" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E779" s="5"/>
       <c r="F779" s="5"/>
@@ -17734,7 +18136,7 @@
       <c r="B780" s="4"/>
       <c r="C780" s="5"/>
       <c r="D780" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E780" s="5"/>
       <c r="F780" s="5"/>
@@ -17745,7 +18147,7 @@
       <c r="B781" s="4"/>
       <c r="C781" s="5"/>
       <c r="D781" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E781" s="5"/>
       <c r="F781" s="5"/>
@@ -17756,7 +18158,7 @@
       <c r="B782" s="4"/>
       <c r="C782" s="5"/>
       <c r="D782" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E782" s="5"/>
       <c r="F782" s="5"/>
@@ -17767,7 +18169,7 @@
       <c r="B783" s="4"/>
       <c r="C783" s="5"/>
       <c r="D783" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E783" s="5"/>
       <c r="F783" s="5"/>
@@ -17778,7 +18180,7 @@
       <c r="B784" s="4"/>
       <c r="C784" s="5"/>
       <c r="D784" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E784" s="5"/>
       <c r="F784" s="5"/>
@@ -17789,7 +18191,7 @@
       <c r="B785" s="4"/>
       <c r="C785" s="5"/>
       <c r="D785" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E785" s="5"/>
       <c r="F785" s="5"/>
@@ -17800,7 +18202,7 @@
       <c r="B786" s="4"/>
       <c r="C786" s="5"/>
       <c r="D786" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E786" s="5"/>
       <c r="F786" s="5"/>
@@ -17811,7 +18213,7 @@
       <c r="B787" s="4"/>
       <c r="C787" s="5"/>
       <c r="D787" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E787" s="5"/>
       <c r="F787" s="5"/>
@@ -17822,7 +18224,7 @@
       <c r="B788" s="4"/>
       <c r="C788" s="5"/>
       <c r="D788" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E788" s="5"/>
       <c r="F788" s="5"/>
@@ -17833,7 +18235,7 @@
       <c r="B789" s="4"/>
       <c r="C789" s="5"/>
       <c r="D789" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E789" s="5"/>
       <c r="F789" s="5"/>
@@ -17844,7 +18246,7 @@
       <c r="B790" s="4"/>
       <c r="C790" s="5"/>
       <c r="D790" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E790" s="5"/>
       <c r="F790" s="5"/>
@@ -17855,7 +18257,7 @@
       <c r="B791" s="4"/>
       <c r="C791" s="5"/>
       <c r="D791" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E791" s="5"/>
       <c r="F791" s="5"/>
@@ -17866,7 +18268,7 @@
       <c r="B792" s="4"/>
       <c r="C792" s="5"/>
       <c r="D792" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E792" s="5"/>
       <c r="F792" s="5"/>
@@ -17877,7 +18279,7 @@
       <c r="B793" s="4"/>
       <c r="C793" s="5"/>
       <c r="D793" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E793" s="5"/>
       <c r="F793" s="5"/>
@@ -17888,7 +18290,7 @@
       <c r="B794" s="4"/>
       <c r="C794" s="5"/>
       <c r="D794" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E794" s="5"/>
       <c r="F794" s="5"/>
@@ -17899,7 +18301,7 @@
       <c r="B795" s="4"/>
       <c r="C795" s="5"/>
       <c r="D795" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E795" s="5"/>
       <c r="F795" s="5"/>
@@ -17910,7 +18312,7 @@
       <c r="B796" s="4"/>
       <c r="C796" s="5"/>
       <c r="D796" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E796" s="5"/>
       <c r="F796" s="5"/>
@@ -17921,7 +18323,7 @@
       <c r="B797" s="4"/>
       <c r="C797" s="5"/>
       <c r="D797" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E797" s="5"/>
       <c r="F797" s="5"/>
@@ -17932,7 +18334,7 @@
       <c r="B798" s="4"/>
       <c r="C798" s="5"/>
       <c r="D798" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E798" s="5"/>
       <c r="F798" s="5"/>
@@ -17943,7 +18345,7 @@
       <c r="B799" s="4"/>
       <c r="C799" s="5"/>
       <c r="D799" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E799" s="5"/>
       <c r="F799" s="5"/>
@@ -17954,7 +18356,7 @@
       <c r="B800" s="4"/>
       <c r="C800" s="5"/>
       <c r="D800" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E800" s="5"/>
       <c r="F800" s="5"/>
@@ -17965,7 +18367,7 @@
       <c r="B801" s="4"/>
       <c r="C801" s="5"/>
       <c r="D801" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E801" s="5"/>
       <c r="F801" s="5"/>
@@ -17976,7 +18378,7 @@
       <c r="B802" s="4"/>
       <c r="C802" s="5"/>
       <c r="D802" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E802" s="5"/>
       <c r="F802" s="5"/>
@@ -17987,11 +18389,374 @@
       <c r="B803" s="4"/>
       <c r="C803" s="5"/>
       <c r="D803" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E803" s="5"/>
       <c r="F803" s="5"/>
       <c r="G803" s="5"/>
+    </row>
+    <row r="804" ht="22.5" customHeight="1">
+      <c r="A804" s="3"/>
+      <c r="B804" s="4"/>
+      <c r="C804" s="5"/>
+      <c r="D804" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E804" s="5"/>
+      <c r="F804" s="5"/>
+      <c r="G804" s="5"/>
+    </row>
+    <row r="805" ht="22.5" customHeight="1">
+      <c r="A805" s="3"/>
+      <c r="B805" s="4"/>
+      <c r="C805" s="5"/>
+      <c r="D805" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E805" s="5"/>
+      <c r="F805" s="5"/>
+      <c r="G805" s="5"/>
+    </row>
+    <row r="806" ht="22.5" customHeight="1">
+      <c r="A806" s="3"/>
+      <c r="B806" s="4"/>
+      <c r="C806" s="5"/>
+      <c r="D806" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E806" s="5"/>
+      <c r="F806" s="5"/>
+      <c r="G806" s="5"/>
+    </row>
+    <row r="807" ht="22.5" customHeight="1">
+      <c r="A807" s="3"/>
+      <c r="B807" s="4"/>
+      <c r="C807" s="5"/>
+      <c r="D807" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E807" s="5"/>
+      <c r="F807" s="5"/>
+      <c r="G807" s="5"/>
+    </row>
+    <row r="808" ht="22.5" customHeight="1">
+      <c r="A808" s="3"/>
+      <c r="B808" s="4"/>
+      <c r="C808" s="5"/>
+      <c r="D808" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E808" s="5"/>
+      <c r="F808" s="5"/>
+      <c r="G808" s="5"/>
+    </row>
+    <row r="809" ht="22.5" customHeight="1">
+      <c r="A809" s="3"/>
+      <c r="B809" s="4"/>
+      <c r="C809" s="5"/>
+      <c r="D809" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E809" s="5"/>
+      <c r="F809" s="5"/>
+      <c r="G809" s="5"/>
+    </row>
+    <row r="810" ht="22.5" customHeight="1">
+      <c r="A810" s="3"/>
+      <c r="B810" s="4"/>
+      <c r="C810" s="5"/>
+      <c r="D810" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E810" s="5"/>
+      <c r="F810" s="5"/>
+      <c r="G810" s="5"/>
+    </row>
+    <row r="811" ht="22.5" customHeight="1">
+      <c r="A811" s="3"/>
+      <c r="B811" s="4"/>
+      <c r="C811" s="5"/>
+      <c r="D811" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E811" s="5"/>
+      <c r="F811" s="5"/>
+      <c r="G811" s="5"/>
+    </row>
+    <row r="812" ht="22.5" customHeight="1">
+      <c r="A812" s="3"/>
+      <c r="B812" s="4"/>
+      <c r="C812" s="5"/>
+      <c r="D812" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E812" s="5"/>
+      <c r="F812" s="5"/>
+      <c r="G812" s="5"/>
+    </row>
+    <row r="813" ht="22.5" customHeight="1">
+      <c r="A813" s="3"/>
+      <c r="B813" s="4"/>
+      <c r="C813" s="5"/>
+      <c r="D813" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E813" s="5"/>
+      <c r="F813" s="5"/>
+      <c r="G813" s="5"/>
+    </row>
+    <row r="814" ht="22.5" customHeight="1">
+      <c r="A814" s="3"/>
+      <c r="B814" s="4"/>
+      <c r="C814" s="5"/>
+      <c r="D814" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E814" s="5"/>
+      <c r="F814" s="5"/>
+      <c r="G814" s="5"/>
+    </row>
+    <row r="815" ht="22.5" customHeight="1">
+      <c r="A815" s="3"/>
+      <c r="B815" s="4"/>
+      <c r="C815" s="5"/>
+      <c r="D815" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E815" s="5"/>
+      <c r="F815" s="5"/>
+      <c r="G815" s="5"/>
+    </row>
+    <row r="816" ht="22.5" customHeight="1">
+      <c r="A816" s="3"/>
+      <c r="B816" s="4"/>
+      <c r="C816" s="5"/>
+      <c r="D816" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E816" s="5"/>
+      <c r="F816" s="5"/>
+      <c r="G816" s="5"/>
+    </row>
+    <row r="817" ht="22.5" customHeight="1">
+      <c r="A817" s="3"/>
+      <c r="B817" s="4"/>
+      <c r="C817" s="5"/>
+      <c r="D817" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E817" s="5"/>
+      <c r="F817" s="5"/>
+      <c r="G817" s="5"/>
+    </row>
+    <row r="818" ht="22.5" customHeight="1">
+      <c r="A818" s="3"/>
+      <c r="B818" s="4"/>
+      <c r="C818" s="5"/>
+      <c r="D818" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E818" s="5"/>
+      <c r="F818" s="5"/>
+      <c r="G818" s="5"/>
+    </row>
+    <row r="819" ht="22.5" customHeight="1">
+      <c r="A819" s="3"/>
+      <c r="B819" s="4"/>
+      <c r="C819" s="5"/>
+      <c r="D819" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E819" s="5"/>
+      <c r="F819" s="5"/>
+      <c r="G819" s="5"/>
+    </row>
+    <row r="820" ht="22.5" customHeight="1">
+      <c r="A820" s="3"/>
+      <c r="B820" s="4"/>
+      <c r="C820" s="5"/>
+      <c r="D820" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E820" s="5"/>
+      <c r="F820" s="5"/>
+      <c r="G820" s="5"/>
+    </row>
+    <row r="821" ht="22.5" customHeight="1">
+      <c r="A821" s="3"/>
+      <c r="B821" s="4"/>
+      <c r="C821" s="5"/>
+      <c r="D821" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E821" s="5"/>
+      <c r="F821" s="5"/>
+      <c r="G821" s="5"/>
+    </row>
+    <row r="822" ht="22.5" customHeight="1">
+      <c r="A822" s="3"/>
+      <c r="B822" s="4"/>
+      <c r="C822" s="5"/>
+      <c r="D822" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E822" s="5"/>
+      <c r="F822" s="5"/>
+      <c r="G822" s="5"/>
+    </row>
+    <row r="823" ht="22.5" customHeight="1">
+      <c r="A823" s="3"/>
+      <c r="B823" s="4"/>
+      <c r="C823" s="5"/>
+      <c r="D823" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E823" s="5"/>
+      <c r="F823" s="5"/>
+      <c r="G823" s="5"/>
+    </row>
+    <row r="824" ht="22.5" customHeight="1">
+      <c r="A824" s="3"/>
+      <c r="B824" s="4"/>
+      <c r="C824" s="5"/>
+      <c r="D824" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E824" s="5"/>
+      <c r="F824" s="5"/>
+      <c r="G824" s="5"/>
+    </row>
+    <row r="825" ht="22.5" customHeight="1">
+      <c r="A825" s="3"/>
+      <c r="B825" s="4"/>
+      <c r="C825" s="5"/>
+      <c r="D825" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E825" s="5"/>
+      <c r="F825" s="5"/>
+      <c r="G825" s="5"/>
+    </row>
+    <row r="826" ht="22.5" customHeight="1">
+      <c r="A826" s="3"/>
+      <c r="B826" s="4"/>
+      <c r="C826" s="5"/>
+      <c r="D826" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E826" s="5"/>
+      <c r="F826" s="5"/>
+      <c r="G826" s="5"/>
+    </row>
+    <row r="827" ht="22.5" customHeight="1">
+      <c r="A827" s="3"/>
+      <c r="B827" s="4"/>
+      <c r="C827" s="5"/>
+      <c r="D827" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E827" s="5"/>
+      <c r="F827" s="5"/>
+      <c r="G827" s="5"/>
+    </row>
+    <row r="828" ht="22.5" customHeight="1">
+      <c r="A828" s="3"/>
+      <c r="B828" s="4"/>
+      <c r="C828" s="5"/>
+      <c r="D828" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E828" s="5"/>
+      <c r="F828" s="5"/>
+      <c r="G828" s="5"/>
+    </row>
+    <row r="829" ht="22.5" customHeight="1">
+      <c r="A829" s="3"/>
+      <c r="B829" s="4"/>
+      <c r="C829" s="5"/>
+      <c r="D829" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E829" s="5"/>
+      <c r="F829" s="5"/>
+      <c r="G829" s="5"/>
+    </row>
+    <row r="830" ht="22.5" customHeight="1">
+      <c r="A830" s="3"/>
+      <c r="B830" s="4"/>
+      <c r="C830" s="5"/>
+      <c r="D830" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E830" s="5"/>
+      <c r="F830" s="5"/>
+      <c r="G830" s="5"/>
+    </row>
+    <row r="831" ht="22.5" customHeight="1">
+      <c r="A831" s="3"/>
+      <c r="B831" s="4"/>
+      <c r="C831" s="5"/>
+      <c r="D831" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E831" s="5"/>
+      <c r="F831" s="5"/>
+      <c r="G831" s="5"/>
+    </row>
+    <row r="832" ht="22.5" customHeight="1">
+      <c r="A832" s="3"/>
+      <c r="B832" s="4"/>
+      <c r="C832" s="5"/>
+      <c r="D832" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E832" s="5"/>
+      <c r="F832" s="5"/>
+      <c r="G832" s="5"/>
+    </row>
+    <row r="833" ht="22.5" customHeight="1">
+      <c r="A833" s="3"/>
+      <c r="B833" s="4"/>
+      <c r="C833" s="5"/>
+      <c r="D833" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E833" s="5"/>
+      <c r="F833" s="5"/>
+      <c r="G833" s="5"/>
+    </row>
+    <row r="834" ht="22.5" customHeight="1">
+      <c r="A834" s="3"/>
+      <c r="B834" s="4"/>
+      <c r="C834" s="5"/>
+      <c r="D834" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E834" s="5"/>
+      <c r="F834" s="5"/>
+      <c r="G834" s="5"/>
+    </row>
+    <row r="835" ht="22.5" customHeight="1">
+      <c r="A835" s="3"/>
+      <c r="B835" s="4"/>
+      <c r="C835" s="5"/>
+      <c r="D835" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E835" s="5"/>
+      <c r="F835" s="5"/>
+      <c r="G835" s="5"/>
+    </row>
+    <row r="836" ht="22.5" customHeight="1">
+      <c r="A836" s="3"/>
+      <c r="B836" s="4"/>
+      <c r="C836" s="5"/>
+      <c r="D836" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E836" s="5"/>
+      <c r="F836" s="5"/>
+      <c r="G836" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -18013,7 +18778,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>27</v>
@@ -18027,7 +18792,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E2" s="11" t="str">
         <f t="array" ref="E2:E1000">IF(D2:D1000="","", 
@@ -18046,24 +18811,24 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -18074,7 +18839,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -18085,18 +18850,18 @@
         <v>17</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -18107,7 +18872,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -18118,18 +18883,18 @@
         <v>15</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -18140,7 +18905,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -18151,7 +18916,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -18162,40 +18927,40 @@
         <v>26</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -18206,40 +18971,40 @@
         <v>50</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -18250,7 +19015,7 @@
         <v>30</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -18261,7 +19026,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
@@ -18272,73 +19037,73 @@
         <v>39</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>82</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -18349,18 +19114,18 @@
         <v>56</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -18371,4853 +19136,4853 @@
         <v>56</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108">
       <c r="E108" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109">
       <c r="E109" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112">
       <c r="E112" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113">
       <c r="E113" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114">
       <c r="E114" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118">
       <c r="E118" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119">
       <c r="E119" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120">
       <c r="E120" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121">
       <c r="E121" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123">
       <c r="E123" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124">
       <c r="E124" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125">
       <c r="E125" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="126">
       <c r="E126" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127">
       <c r="E127" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128">
       <c r="E128" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129">
       <c r="E129" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130">
       <c r="E130" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131">
       <c r="E131" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132">
       <c r="E132" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133">
       <c r="E133" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="134">
       <c r="E134" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135">
       <c r="E135" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="136">
       <c r="E136" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137">
       <c r="E137" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138">
       <c r="E138" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="139">
       <c r="E139" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140">
       <c r="E140" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="141">
       <c r="E141" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142">
       <c r="E142" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="143">
       <c r="E143" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="144">
       <c r="E144" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="145">
       <c r="E145" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="146">
       <c r="E146" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="147">
       <c r="E147" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148">
       <c r="E148" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149">
       <c r="E149" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150">
       <c r="E150" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="151">
       <c r="E151" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="152">
       <c r="E152" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="153">
       <c r="E153" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="154">
       <c r="E154" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="155">
       <c r="E155" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="156">
       <c r="E156" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="157">
       <c r="E157" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="158">
       <c r="E158" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="159">
       <c r="E159" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="160">
       <c r="E160" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="161">
       <c r="E161" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="162">
       <c r="E162" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="163">
       <c r="E163" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="164">
       <c r="E164" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="165">
       <c r="E165" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166">
       <c r="E166" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="167">
       <c r="E167" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="168">
       <c r="E168" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="169">
       <c r="E169" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="170">
       <c r="E170" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171">
       <c r="E171" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="172">
       <c r="E172" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="173">
       <c r="E173" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="174">
       <c r="E174" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="175">
       <c r="E175" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="176">
       <c r="E176" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="177">
       <c r="E177" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="178">
       <c r="E178" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="179">
       <c r="E179" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="180">
       <c r="E180" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="181">
       <c r="E181" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="182">
       <c r="E182" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="183">
       <c r="E183" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="184">
       <c r="E184" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="185">
       <c r="E185" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="186">
       <c r="E186" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="187">
       <c r="E187" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="188">
       <c r="E188" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="189">
       <c r="E189" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="190">
       <c r="E190" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="191">
       <c r="E191" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="192">
       <c r="E192" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="193">
       <c r="E193" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="194">
       <c r="E194" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="195">
       <c r="E195" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="196">
       <c r="E196" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="197">
       <c r="E197" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="198">
       <c r="E198" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="199">
       <c r="E199" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="200">
       <c r="E200" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="201">
       <c r="E201" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="202">
       <c r="E202" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="203">
       <c r="E203" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="204">
       <c r="E204" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="205">
       <c r="E205" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="206">
       <c r="E206" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="207">
       <c r="E207" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="208">
       <c r="E208" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="209">
       <c r="E209" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="210">
       <c r="E210" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="211">
       <c r="E211" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="212">
       <c r="E212" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="213">
       <c r="E213" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="214">
       <c r="E214" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="215">
       <c r="E215" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="216">
       <c r="E216" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="217">
       <c r="E217" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="218">
       <c r="E218" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="219">
       <c r="E219" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="220">
       <c r="E220" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="221">
       <c r="E221" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="222">
       <c r="E222" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="223">
       <c r="E223" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="224">
       <c r="E224" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="225">
       <c r="E225" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="226">
       <c r="E226" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="227">
       <c r="E227" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="228">
       <c r="E228" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="229">
       <c r="E229" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="230">
       <c r="E230" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="231">
       <c r="E231" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="232">
       <c r="E232" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="233">
       <c r="E233" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="234">
       <c r="E234" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="235">
       <c r="E235" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="236">
       <c r="E236" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="237">
       <c r="E237" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="238">
       <c r="E238" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="239">
       <c r="E239" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="240">
       <c r="E240" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="241">
       <c r="E241" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="242">
       <c r="E242" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="243">
       <c r="E243" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="244">
       <c r="E244" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="245">
       <c r="E245" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="246">
       <c r="E246" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="247">
       <c r="E247" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="248">
       <c r="E248" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="249">
       <c r="E249" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="250">
       <c r="E250" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="251">
       <c r="E251" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="252">
       <c r="E252" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="253">
       <c r="E253" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="254">
       <c r="E254" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="255">
       <c r="E255" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="256">
       <c r="E256" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="257">
       <c r="E257" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="258">
       <c r="E258" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="259">
       <c r="E259" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="260">
       <c r="E260" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="261">
       <c r="E261" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="262">
       <c r="E262" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="263">
       <c r="E263" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="264">
       <c r="E264" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="265">
       <c r="E265" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="266">
       <c r="E266" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="267">
       <c r="E267" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="268">
       <c r="E268" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="269">
       <c r="E269" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="270">
       <c r="E270" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="271">
       <c r="E271" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="272">
       <c r="E272" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="273">
       <c r="E273" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="274">
       <c r="E274" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="275">
       <c r="E275" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="276">
       <c r="E276" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="277">
       <c r="E277" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="278">
       <c r="E278" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="279">
       <c r="E279" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="280">
       <c r="E280" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="281">
       <c r="E281" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="282">
       <c r="E282" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="283">
       <c r="E283" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="284">
       <c r="E284" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="285">
       <c r="E285" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="286">
       <c r="E286" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="287">
       <c r="E287" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="288">
       <c r="E288" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="289">
       <c r="E289" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="290">
       <c r="E290" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="291">
       <c r="E291" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="292">
       <c r="E292" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="293">
       <c r="E293" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="294">
       <c r="E294" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="295">
       <c r="E295" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="296">
       <c r="E296" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="297">
       <c r="E297" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="298">
       <c r="E298" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="299">
       <c r="E299" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="300">
       <c r="E300" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="301">
       <c r="E301" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="302">
       <c r="E302" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="303">
       <c r="E303" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="304">
       <c r="E304" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="305">
       <c r="E305" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="306">
       <c r="E306" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="307">
       <c r="E307" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="308">
       <c r="E308" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="309">
       <c r="E309" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="310">
       <c r="E310" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="311">
       <c r="E311" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="312">
       <c r="E312" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="313">
       <c r="E313" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="314">
       <c r="E314" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="315">
       <c r="E315" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="316">
       <c r="E316" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="317">
       <c r="E317" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="318">
       <c r="E318" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="319">
       <c r="E319" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="320">
       <c r="E320" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="321">
       <c r="E321" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="322">
       <c r="E322" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="323">
       <c r="E323" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="324">
       <c r="E324" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="325">
       <c r="E325" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="326">
       <c r="E326" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="327">
       <c r="E327" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="328">
       <c r="E328" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="329">
       <c r="E329" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="330">
       <c r="E330" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="331">
       <c r="E331" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="332">
       <c r="E332" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="333">
       <c r="E333" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="334">
       <c r="E334" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="335">
       <c r="E335" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="336">
       <c r="E336" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="337">
       <c r="E337" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="338">
       <c r="E338" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="339">
       <c r="E339" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="340">
       <c r="E340" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="341">
       <c r="E341" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="342">
       <c r="E342" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="343">
       <c r="E343" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="344">
       <c r="E344" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="345">
       <c r="E345" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="346">
       <c r="E346" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="347">
       <c r="E347" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="348">
       <c r="E348" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="349">
       <c r="E349" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="350">
       <c r="E350" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="351">
       <c r="E351" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="352">
       <c r="E352" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="353">
       <c r="E353" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="354">
       <c r="E354" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="355">
       <c r="E355" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="356">
       <c r="E356" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="357">
       <c r="E357" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="358">
       <c r="E358" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="359">
       <c r="E359" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="360">
       <c r="E360" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="361">
       <c r="E361" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="362">
       <c r="E362" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="363">
       <c r="E363" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="364">
       <c r="E364" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="365">
       <c r="E365" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="366">
       <c r="E366" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="367">
       <c r="E367" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="368">
       <c r="E368" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="369">
       <c r="E369" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="370">
       <c r="E370" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="371">
       <c r="E371" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="372">
       <c r="E372" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="373">
       <c r="E373" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="374">
       <c r="E374" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="375">
       <c r="E375" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="376">
       <c r="E376" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="377">
       <c r="E377" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="378">
       <c r="E378" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="379">
       <c r="E379" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="380">
       <c r="E380" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="381">
       <c r="E381" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="382">
       <c r="E382" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="383">
       <c r="E383" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="384">
       <c r="E384" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="385">
       <c r="E385" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="386">
       <c r="E386" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="387">
       <c r="E387" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="388">
       <c r="E388" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="389">
       <c r="E389" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="390">
       <c r="E390" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="391">
       <c r="E391" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="392">
       <c r="E392" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="393">
       <c r="E393" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="394">
       <c r="E394" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="395">
       <c r="E395" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="396">
       <c r="E396" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="397">
       <c r="E397" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="398">
       <c r="E398" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="399">
       <c r="E399" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="400">
       <c r="E400" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="401">
       <c r="E401" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="402">
       <c r="E402" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="403">
       <c r="E403" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="404">
       <c r="E404" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="405">
       <c r="E405" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="406">
       <c r="E406" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="407">
       <c r="E407" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="408">
       <c r="E408" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="409">
       <c r="E409" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="410">
       <c r="E410" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="411">
       <c r="E411" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="412">
       <c r="E412" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="413">
       <c r="E413" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="414">
       <c r="E414" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="415">
       <c r="E415" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="416">
       <c r="E416" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="417">
       <c r="E417" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="418">
       <c r="E418" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="419">
       <c r="E419" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="420">
       <c r="E420" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="421">
       <c r="E421" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="422">
       <c r="E422" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="423">
       <c r="E423" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="424">
       <c r="E424" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="425">
       <c r="E425" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="426">
       <c r="E426" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="427">
       <c r="E427" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="428">
       <c r="E428" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="429">
       <c r="E429" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="430">
       <c r="E430" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="431">
       <c r="E431" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="432">
       <c r="E432" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="433">
       <c r="E433" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="434">
       <c r="E434" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="435">
       <c r="E435" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="436">
       <c r="E436" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="437">
       <c r="E437" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="438">
       <c r="E438" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="439">
       <c r="E439" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="440">
       <c r="E440" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="441">
       <c r="E441" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="442">
       <c r="E442" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="443">
       <c r="E443" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="444">
       <c r="E444" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="445">
       <c r="E445" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="446">
       <c r="E446" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="447">
       <c r="E447" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="448">
       <c r="E448" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="449">
       <c r="E449" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="450">
       <c r="E450" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="451">
       <c r="E451" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="452">
       <c r="E452" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="453">
       <c r="E453" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="454">
       <c r="E454" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="455">
       <c r="E455" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="456">
       <c r="E456" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="457">
       <c r="E457" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="458">
       <c r="E458" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="459">
       <c r="E459" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="460">
       <c r="E460" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="461">
       <c r="E461" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="462">
       <c r="E462" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="463">
       <c r="E463" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="464">
       <c r="E464" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="465">
       <c r="E465" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="466">
       <c r="E466" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="467">
       <c r="E467" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="468">
       <c r="E468" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="469">
       <c r="E469" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="470">
       <c r="E470" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="471">
       <c r="E471" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="472">
       <c r="E472" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="473">
       <c r="E473" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="474">
       <c r="E474" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="475">
       <c r="E475" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="476">
       <c r="E476" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="477">
       <c r="E477" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="478">
       <c r="E478" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="479">
       <c r="E479" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="480">
       <c r="E480" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="481">
       <c r="E481" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="482">
       <c r="E482" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="483">
       <c r="E483" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="484">
       <c r="E484" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="485">
       <c r="E485" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="486">
       <c r="E486" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="487">
       <c r="E487" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="488">
       <c r="E488" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="489">
       <c r="E489" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="490">
       <c r="E490" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="491">
       <c r="E491" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="492">
       <c r="E492" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="493">
       <c r="E493" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="494">
       <c r="E494" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="495">
       <c r="E495" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="496">
       <c r="E496" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="497">
       <c r="E497" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="498">
       <c r="E498" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="499">
       <c r="E499" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="500">
       <c r="E500" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="501">
       <c r="E501" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="502">
       <c r="E502" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="503">
       <c r="E503" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="504">
       <c r="E504" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="505">
       <c r="E505" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="506">
       <c r="E506" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="507">
       <c r="E507" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="508">
       <c r="E508" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="509">
       <c r="E509" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="510">
       <c r="E510" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="511">
       <c r="E511" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="512">
       <c r="E512" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="513">
       <c r="E513" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="514">
       <c r="E514" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="515">
       <c r="E515" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="516">
       <c r="E516" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="517">
       <c r="E517" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="518">
       <c r="E518" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="519">
       <c r="E519" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="520">
       <c r="E520" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="521">
       <c r="E521" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="522">
       <c r="E522" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="523">
       <c r="E523" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="524">
       <c r="E524" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="525">
       <c r="E525" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="526">
       <c r="E526" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="527">
       <c r="E527" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="528">
       <c r="E528" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="529">
       <c r="E529" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="530">
       <c r="E530" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="531">
       <c r="E531" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="532">
       <c r="E532" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="533">
       <c r="E533" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="534">
       <c r="E534" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="535">
       <c r="E535" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="536">
       <c r="E536" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="537">
       <c r="E537" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="538">
       <c r="E538" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="539">
       <c r="E539" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="540">
       <c r="E540" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="541">
       <c r="E541" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="542">
       <c r="E542" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="543">
       <c r="E543" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="544">
       <c r="E544" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="545">
       <c r="E545" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="546">
       <c r="E546" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="547">
       <c r="E547" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="548">
       <c r="E548" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="549">
       <c r="E549" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="550">
       <c r="E550" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="551">
       <c r="E551" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="552">
       <c r="E552" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="553">
       <c r="E553" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="554">
       <c r="E554" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="555">
       <c r="E555" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="556">
       <c r="E556" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="557">
       <c r="E557" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="558">
       <c r="E558" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="559">
       <c r="E559" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="560">
       <c r="E560" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="561">
       <c r="E561" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="562">
       <c r="E562" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="563">
       <c r="E563" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="564">
       <c r="E564" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="565">
       <c r="E565" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="566">
       <c r="E566" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="567">
       <c r="E567" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="568">
       <c r="E568" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="569">
       <c r="E569" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="570">
       <c r="E570" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="571">
       <c r="E571" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="572">
       <c r="E572" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="573">
       <c r="E573" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="574">
       <c r="E574" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="575">
       <c r="E575" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="576">
       <c r="E576" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="577">
       <c r="E577" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="578">
       <c r="E578" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="579">
       <c r="E579" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="580">
       <c r="E580" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="581">
       <c r="E581" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="582">
       <c r="E582" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="583">
       <c r="E583" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="584">
       <c r="E584" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="585">
       <c r="E585" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="586">
       <c r="E586" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="587">
       <c r="E587" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="588">
       <c r="E588" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="589">
       <c r="E589" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="590">
       <c r="E590" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="591">
       <c r="E591" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="592">
       <c r="E592" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="593">
       <c r="E593" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="594">
       <c r="E594" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="595">
       <c r="E595" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="596">
       <c r="E596" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="597">
       <c r="E597" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="598">
       <c r="E598" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="599">
       <c r="E599" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="600">
       <c r="E600" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="601">
       <c r="E601" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="602">
       <c r="E602" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="603">
       <c r="E603" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="604">
       <c r="E604" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="605">
       <c r="E605" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="606">
       <c r="E606" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="607">
       <c r="E607" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="608">
       <c r="E608" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="609">
       <c r="E609" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="610">
       <c r="E610" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="611">
       <c r="E611" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="612">
       <c r="E612" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="613">
       <c r="E613" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="614">
       <c r="E614" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="615">
       <c r="E615" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="616">
       <c r="E616" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="617">
       <c r="E617" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="618">
       <c r="E618" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="619">
       <c r="E619" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="620">
       <c r="E620" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="621">
       <c r="E621" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="622">
       <c r="E622" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="623">
       <c r="E623" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="624">
       <c r="E624" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="625">
       <c r="E625" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="626">
       <c r="E626" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="627">
       <c r="E627" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="628">
       <c r="E628" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="629">
       <c r="E629" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="630">
       <c r="E630" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="631">
       <c r="E631" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="632">
       <c r="E632" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="633">
       <c r="E633" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="634">
       <c r="E634" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="635">
       <c r="E635" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="636">
       <c r="E636" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="637">
       <c r="E637" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="638">
       <c r="E638" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="639">
       <c r="E639" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="640">
       <c r="E640" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="641">
       <c r="E641" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="642">
       <c r="E642" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="643">
       <c r="E643" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="644">
       <c r="E644" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="645">
       <c r="E645" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="646">
       <c r="E646" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="647">
       <c r="E647" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="648">
       <c r="E648" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="649">
       <c r="E649" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="650">
       <c r="E650" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="651">
       <c r="E651" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="652">
       <c r="E652" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="653">
       <c r="E653" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="654">
       <c r="E654" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="655">
       <c r="E655" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="656">
       <c r="E656" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="657">
       <c r="E657" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="658">
       <c r="E658" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="659">
       <c r="E659" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="660">
       <c r="E660" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="661">
       <c r="E661" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="662">
       <c r="E662" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="663">
       <c r="E663" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="664">
       <c r="E664" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="665">
       <c r="E665" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="666">
       <c r="E666" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="667">
       <c r="E667" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="668">
       <c r="E668" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="669">
       <c r="E669" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="670">
       <c r="E670" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="671">
       <c r="E671" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="672">
       <c r="E672" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="673">
       <c r="E673" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="674">
       <c r="E674" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="675">
       <c r="E675" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="676">
       <c r="E676" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="677">
       <c r="E677" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="678">
       <c r="E678" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="679">
       <c r="E679" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="680">
       <c r="E680" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="681">
       <c r="E681" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="682">
       <c r="E682" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="683">
       <c r="E683" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="684">
       <c r="E684" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="685">
       <c r="E685" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="686">
       <c r="E686" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="687">
       <c r="E687" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="688">
       <c r="E688" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="689">
       <c r="E689" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="690">
       <c r="E690" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="691">
       <c r="E691" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="692">
       <c r="E692" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="693">
       <c r="E693" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="694">
       <c r="E694" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="695">
       <c r="E695" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="696">
       <c r="E696" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="697">
       <c r="E697" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="698">
       <c r="E698" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="699">
       <c r="E699" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="700">
       <c r="E700" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="701">
       <c r="E701" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="702">
       <c r="E702" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="703">
       <c r="E703" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="704">
       <c r="E704" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="705">
       <c r="E705" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="706">
       <c r="E706" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="707">
       <c r="E707" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="708">
       <c r="E708" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="709">
       <c r="E709" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="710">
       <c r="E710" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="711">
       <c r="E711" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="712">
       <c r="E712" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="713">
       <c r="E713" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="714">
       <c r="E714" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="715">
       <c r="E715" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="716">
       <c r="E716" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="717">
       <c r="E717" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="718">
       <c r="E718" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="719">
       <c r="E719" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="720">
       <c r="E720" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="721">
       <c r="E721" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="722">
       <c r="E722" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="723">
       <c r="E723" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="724">
       <c r="E724" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="725">
       <c r="E725" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="726">
       <c r="E726" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="727">
       <c r="E727" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="728">
       <c r="E728" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="729">
       <c r="E729" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="730">
       <c r="E730" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="731">
       <c r="E731" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="732">
       <c r="E732" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="733">
       <c r="E733" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="734">
       <c r="E734" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="735">
       <c r="E735" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="736">
       <c r="E736" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="737">
       <c r="E737" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="738">
       <c r="E738" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="739">
       <c r="E739" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="740">
       <c r="E740" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="741">
       <c r="E741" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="742">
       <c r="E742" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="743">
       <c r="E743" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="744">
       <c r="E744" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="745">
       <c r="E745" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="746">
       <c r="E746" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="747">
       <c r="E747" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="748">
       <c r="E748" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="749">
       <c r="E749" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="750">
       <c r="E750" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="751">
       <c r="E751" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="752">
       <c r="E752" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="753">
       <c r="E753" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="754">
       <c r="E754" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="755">
       <c r="E755" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="756">
       <c r="E756" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="757">
       <c r="E757" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="758">
       <c r="E758" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="759">
       <c r="E759" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="760">
       <c r="E760" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="761">
       <c r="E761" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="762">
       <c r="E762" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="763">
       <c r="E763" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="764">
       <c r="E764" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="765">
       <c r="E765" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="766">
       <c r="E766" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="767">
       <c r="E767" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="768">
       <c r="E768" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="769">
       <c r="E769" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="770">
       <c r="E770" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="771">
       <c r="E771" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="772">
       <c r="E772" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="773">
       <c r="E773" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="774">
       <c r="E774" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="775">
       <c r="E775" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="776">
       <c r="E776" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="777">
       <c r="E777" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="778">
       <c r="E778" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="779">
       <c r="E779" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="780">
       <c r="E780" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="781">
       <c r="E781" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="782">
       <c r="E782" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="783">
       <c r="E783" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="784">
       <c r="E784" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="785">
       <c r="E785" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="786">
       <c r="E786" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="787">
       <c r="E787" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="788">
       <c r="E788" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="789">
       <c r="E789" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="790">
       <c r="E790" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="791">
       <c r="E791" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="792">
       <c r="E792" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="793">
       <c r="E793" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="794">
       <c r="E794" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="795">
       <c r="E795" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="796">
       <c r="E796" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="797">
       <c r="E797" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="798">
       <c r="E798" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="799">
       <c r="E799" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="800">
       <c r="E800" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="801">
       <c r="E801" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="802">
       <c r="E802" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="803">
       <c r="E803" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="804">
       <c r="E804" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="805">
       <c r="E805" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="806">
       <c r="E806" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="807">
       <c r="E807" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="808">
       <c r="E808" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="809">
       <c r="E809" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="810">
       <c r="E810" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="811">
       <c r="E811" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="812">
       <c r="E812" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="813">
       <c r="E813" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="814">
       <c r="E814" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="815">
       <c r="E815" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="816">
       <c r="E816" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="817">
       <c r="E817" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="818">
       <c r="E818" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="819">
       <c r="E819" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="820">
       <c r="E820" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="821">
       <c r="E821" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="822">
       <c r="E822" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="823">
       <c r="E823" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="824">
       <c r="E824" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="825">
       <c r="E825" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="826">
       <c r="E826" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="827">
       <c r="E827" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="828">
       <c r="E828" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="829">
       <c r="E829" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="830">
       <c r="E830" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="831">
       <c r="E831" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="832">
       <c r="E832" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="833">
       <c r="E833" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="834">
       <c r="E834" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="835">
       <c r="E835" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="836">
       <c r="E836" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="837">
       <c r="E837" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="838">
       <c r="E838" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="839">
       <c r="E839" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="840">
       <c r="E840" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="841">
       <c r="E841" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="842">
       <c r="E842" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="843">
       <c r="E843" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="844">
       <c r="E844" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="845">
       <c r="E845" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="846">
       <c r="E846" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="847">
       <c r="E847" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="848">
       <c r="E848" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="849">
       <c r="E849" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="850">
       <c r="E850" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="851">
       <c r="E851" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="852">
       <c r="E852" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="853">
       <c r="E853" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="854">
       <c r="E854" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="855">
       <c r="E855" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="856">
       <c r="E856" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="857">
       <c r="E857" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="858">
       <c r="E858" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="859">
       <c r="E859" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="860">
       <c r="E860" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="861">
       <c r="E861" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="862">
       <c r="E862" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="863">
       <c r="E863" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="864">
       <c r="E864" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="865">
       <c r="E865" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="866">
       <c r="E866" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="867">
       <c r="E867" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="868">
       <c r="E868" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="869">
       <c r="E869" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="870">
       <c r="E870" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="871">
       <c r="E871" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="872">
       <c r="E872" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="873">
       <c r="E873" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="874">
       <c r="E874" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="875">
       <c r="E875" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="876">
       <c r="E876" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="877">
       <c r="E877" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="878">
       <c r="E878" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="879">
       <c r="E879" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="880">
       <c r="E880" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="881">
       <c r="E881" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="882">
       <c r="E882" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="883">
       <c r="E883" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="884">
       <c r="E884" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="885">
       <c r="E885" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="886">
       <c r="E886" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="887">
       <c r="E887" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="888">
       <c r="E888" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="889">
       <c r="E889" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="890">
       <c r="E890" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="891">
       <c r="E891" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="892">
       <c r="E892" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="893">
       <c r="E893" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="894">
       <c r="E894" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="895">
       <c r="E895" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="896">
       <c r="E896" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="897">
       <c r="E897" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="898">
       <c r="E898" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="899">
       <c r="E899" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="900">
       <c r="E900" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="901">
       <c r="E901" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="902">
       <c r="E902" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="903">
       <c r="E903" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="904">
       <c r="E904" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="905">
       <c r="E905" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="906">
       <c r="E906" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="907">
       <c r="E907" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="908">
       <c r="E908" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="909">
       <c r="E909" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="910">
       <c r="E910" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="911">
       <c r="E911" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="912">
       <c r="E912" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="913">
       <c r="E913" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="914">
       <c r="E914" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="915">
       <c r="E915" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="916">
       <c r="E916" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="917">
       <c r="E917" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="918">
       <c r="E918" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="919">
       <c r="E919" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="920">
       <c r="E920" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="921">
       <c r="E921" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="922">
       <c r="E922" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="923">
       <c r="E923" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="924">
       <c r="E924" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="925">
       <c r="E925" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="926">
       <c r="E926" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="927">
       <c r="E927" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="928">
       <c r="E928" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="929">
       <c r="E929" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="930">
       <c r="E930" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="931">
       <c r="E931" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="932">
       <c r="E932" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="933">
       <c r="E933" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="934">
       <c r="E934" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="935">
       <c r="E935" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="936">
       <c r="E936" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="937">
       <c r="E937" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="938">
       <c r="E938" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="939">
       <c r="E939" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="940">
       <c r="E940" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="941">
       <c r="E941" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="942">
       <c r="E942" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="943">
       <c r="E943" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="944">
       <c r="E944" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="945">
       <c r="E945" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="946">
       <c r="E946" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="947">
       <c r="E947" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="948">
       <c r="E948" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="949">
       <c r="E949" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="950">
       <c r="E950" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="951">
       <c r="E951" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="952">
       <c r="E952" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="953">
       <c r="E953" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="954">
       <c r="E954" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="955">
       <c r="E955" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="956">
       <c r="E956" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="957">
       <c r="E957" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="958">
       <c r="E958" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="959">
       <c r="E959" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="960">
       <c r="E960" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="961">
       <c r="E961" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="962">
       <c r="E962" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="963">
       <c r="E963" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="964">
       <c r="E964" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="965">
       <c r="E965" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="966">
       <c r="E966" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="967">
       <c r="E967" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="968">
       <c r="E968" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="969">
       <c r="E969" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="970">
       <c r="E970" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="971">
       <c r="E971" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="972">
       <c r="E972" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="973">
       <c r="E973" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="974">
       <c r="E974" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="975">
       <c r="E975" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="976">
       <c r="E976" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="977">
       <c r="E977" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="978">
       <c r="E978" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="979">
       <c r="E979" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="980">
       <c r="E980" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="981">
       <c r="E981" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="982">
       <c r="E982" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="983">
       <c r="E983" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="984">
       <c r="E984" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="985">
       <c r="E985" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="986">
       <c r="E986" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="987">
       <c r="E987" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="988">
       <c r="E988" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="989">
       <c r="E989" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="990">
       <c r="E990" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="991">
       <c r="E991" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="992">
       <c r="E992" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="993">
       <c r="E993" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="994">
       <c r="E994" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="995">
       <c r="E995" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="996">
       <c r="E996" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="997">
       <c r="E997" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="998">
       <c r="E998" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="999">
       <c r="E999" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1000">
       <c r="E1000" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4846" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4921" uniqueCount="112">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G836" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G851" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -17659,169 +17659,349 @@
       </c>
     </row>
     <row r="737" ht="22.5" customHeight="1">
-      <c r="A737" s="3"/>
-      <c r="B737" s="4"/>
-      <c r="C737" s="5"/>
-      <c r="D737" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E737" s="5"/>
-      <c r="F737" s="5"/>
-      <c r="G737" s="5"/>
+      <c r="A737" s="6">
+        <v>46032.99435100694</v>
+      </c>
+      <c r="B737" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C737" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D737" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E737" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F737" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G737" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="738" ht="22.5" customHeight="1">
-      <c r="A738" s="3"/>
-      <c r="B738" s="4"/>
-      <c r="C738" s="5"/>
-      <c r="D738" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E738" s="5"/>
-      <c r="F738" s="5"/>
-      <c r="G738" s="5"/>
+      <c r="A738" s="6">
+        <v>46033.018771365736</v>
+      </c>
+      <c r="B738" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C738" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D738" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E738" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F738" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G738" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="739" ht="22.5" customHeight="1">
-      <c r="A739" s="3"/>
-      <c r="B739" s="4"/>
-      <c r="C739" s="5"/>
-      <c r="D739" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E739" s="5"/>
-      <c r="F739" s="5"/>
-      <c r="G739" s="5"/>
+      <c r="A739" s="6">
+        <v>46033.01890222222</v>
+      </c>
+      <c r="B739" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C739" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D739" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E739" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F739" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G739" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="740" ht="22.5" customHeight="1">
-      <c r="A740" s="3"/>
-      <c r="B740" s="4"/>
-      <c r="C740" s="5"/>
-      <c r="D740" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E740" s="5"/>
-      <c r="F740" s="5"/>
-      <c r="G740" s="5"/>
+      <c r="A740" s="6">
+        <v>46033.019061099534</v>
+      </c>
+      <c r="B740" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C740" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D740" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E740" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F740" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G740" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="741" ht="22.5" customHeight="1">
-      <c r="A741" s="3"/>
-      <c r="B741" s="4"/>
-      <c r="C741" s="5"/>
-      <c r="D741" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E741" s="5"/>
-      <c r="F741" s="5"/>
-      <c r="G741" s="5"/>
+      <c r="A741" s="6">
+        <v>46033.01928679398</v>
+      </c>
+      <c r="B741" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C741" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D741" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E741" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F741" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G741" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="742" ht="22.5" customHeight="1">
-      <c r="A742" s="3"/>
-      <c r="B742" s="4"/>
-      <c r="C742" s="5"/>
-      <c r="D742" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E742" s="5"/>
-      <c r="F742" s="5"/>
-      <c r="G742" s="5"/>
+      <c r="A742" s="6">
+        <v>46033.01950127315</v>
+      </c>
+      <c r="B742" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C742" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D742" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E742" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F742" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G742" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="743" ht="22.5" customHeight="1">
-      <c r="A743" s="3"/>
-      <c r="B743" s="4"/>
-      <c r="C743" s="5"/>
-      <c r="D743" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E743" s="5"/>
-      <c r="F743" s="5"/>
-      <c r="G743" s="5"/>
+      <c r="A743" s="6">
+        <v>46033.01970228009</v>
+      </c>
+      <c r="B743" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C743" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D743" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E743" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F743" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G743" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="744" ht="22.5" customHeight="1">
-      <c r="A744" s="3"/>
-      <c r="B744" s="4"/>
-      <c r="C744" s="5"/>
-      <c r="D744" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E744" s="5"/>
-      <c r="F744" s="5"/>
-      <c r="G744" s="5"/>
+      <c r="A744" s="6">
+        <v>46033.02049196759</v>
+      </c>
+      <c r="B744" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C744" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D744" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E744" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F744" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G744" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="745" ht="22.5" customHeight="1">
-      <c r="A745" s="3"/>
-      <c r="B745" s="4"/>
-      <c r="C745" s="5"/>
-      <c r="D745" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E745" s="5"/>
-      <c r="F745" s="5"/>
-      <c r="G745" s="5"/>
+      <c r="A745" s="6">
+        <v>46033.021022546294</v>
+      </c>
+      <c r="B745" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C745" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D745" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E745" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F745" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G745" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="746" ht="22.5" customHeight="1">
-      <c r="A746" s="3"/>
-      <c r="B746" s="4"/>
-      <c r="C746" s="5"/>
-      <c r="D746" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E746" s="5"/>
-      <c r="F746" s="5"/>
-      <c r="G746" s="5"/>
+      <c r="A746" s="6">
+        <v>46033.02128909722</v>
+      </c>
+      <c r="B746" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C746" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D746" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E746" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F746" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G746" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="747" ht="22.5" customHeight="1">
-      <c r="A747" s="3"/>
-      <c r="B747" s="4"/>
-      <c r="C747" s="5"/>
-      <c r="D747" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E747" s="5"/>
-      <c r="F747" s="5"/>
-      <c r="G747" s="5"/>
+      <c r="A747" s="6">
+        <v>46033.02278655092</v>
+      </c>
+      <c r="B747" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C747" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D747" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E747" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F747" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G747" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="748" ht="22.5" customHeight="1">
-      <c r="A748" s="3"/>
-      <c r="B748" s="4"/>
-      <c r="C748" s="5"/>
-      <c r="D748" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E748" s="5"/>
-      <c r="F748" s="5"/>
-      <c r="G748" s="5"/>
+      <c r="A748" s="6">
+        <v>46033.02346917824</v>
+      </c>
+      <c r="B748" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C748" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D748" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E748" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F748" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G748" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="749" ht="22.5" customHeight="1">
-      <c r="A749" s="3"/>
-      <c r="B749" s="4"/>
-      <c r="C749" s="5"/>
-      <c r="D749" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E749" s="5"/>
-      <c r="F749" s="5"/>
-      <c r="G749" s="5"/>
+      <c r="A749" s="6">
+        <v>46033.025001875</v>
+      </c>
+      <c r="B749" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C749" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D749" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E749" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F749" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G749" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="750" ht="22.5" customHeight="1">
-      <c r="A750" s="3"/>
-      <c r="B750" s="4"/>
-      <c r="C750" s="5"/>
-      <c r="D750" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E750" s="5"/>
-      <c r="F750" s="5"/>
-      <c r="G750" s="5"/>
+      <c r="A750" s="6">
+        <v>46033.0251953588</v>
+      </c>
+      <c r="B750" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C750" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D750" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E750" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F750" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G750" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="751" ht="22.5" customHeight="1">
-      <c r="A751" s="3"/>
-      <c r="B751" s="4"/>
-      <c r="C751" s="5"/>
-      <c r="D751" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E751" s="5"/>
-      <c r="F751" s="5"/>
-      <c r="G751" s="5"/>
+      <c r="A751" s="6">
+        <v>46033.055073344905</v>
+      </c>
+      <c r="B751" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="C751" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D751" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E751" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F751" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G751" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="752" ht="22.5" customHeight="1">
       <c r="A752" s="3"/>
@@ -18757,6 +18937,171 @@
       <c r="E836" s="5"/>
       <c r="F836" s="5"/>
       <c r="G836" s="5"/>
+    </row>
+    <row r="837" ht="22.5" customHeight="1">
+      <c r="A837" s="3"/>
+      <c r="B837" s="4"/>
+      <c r="C837" s="5"/>
+      <c r="D837" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E837" s="5"/>
+      <c r="F837" s="5"/>
+      <c r="G837" s="5"/>
+    </row>
+    <row r="838" ht="22.5" customHeight="1">
+      <c r="A838" s="3"/>
+      <c r="B838" s="4"/>
+      <c r="C838" s="5"/>
+      <c r="D838" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E838" s="5"/>
+      <c r="F838" s="5"/>
+      <c r="G838" s="5"/>
+    </row>
+    <row r="839" ht="22.5" customHeight="1">
+      <c r="A839" s="3"/>
+      <c r="B839" s="4"/>
+      <c r="C839" s="5"/>
+      <c r="D839" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E839" s="5"/>
+      <c r="F839" s="5"/>
+      <c r="G839" s="5"/>
+    </row>
+    <row r="840" ht="22.5" customHeight="1">
+      <c r="A840" s="3"/>
+      <c r="B840" s="4"/>
+      <c r="C840" s="5"/>
+      <c r="D840" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E840" s="5"/>
+      <c r="F840" s="5"/>
+      <c r="G840" s="5"/>
+    </row>
+    <row r="841" ht="22.5" customHeight="1">
+      <c r="A841" s="3"/>
+      <c r="B841" s="4"/>
+      <c r="C841" s="5"/>
+      <c r="D841" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E841" s="5"/>
+      <c r="F841" s="5"/>
+      <c r="G841" s="5"/>
+    </row>
+    <row r="842" ht="22.5" customHeight="1">
+      <c r="A842" s="3"/>
+      <c r="B842" s="4"/>
+      <c r="C842" s="5"/>
+      <c r="D842" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E842" s="5"/>
+      <c r="F842" s="5"/>
+      <c r="G842" s="5"/>
+    </row>
+    <row r="843" ht="22.5" customHeight="1">
+      <c r="A843" s="3"/>
+      <c r="B843" s="4"/>
+      <c r="C843" s="5"/>
+      <c r="D843" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E843" s="5"/>
+      <c r="F843" s="5"/>
+      <c r="G843" s="5"/>
+    </row>
+    <row r="844" ht="22.5" customHeight="1">
+      <c r="A844" s="3"/>
+      <c r="B844" s="4"/>
+      <c r="C844" s="5"/>
+      <c r="D844" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E844" s="5"/>
+      <c r="F844" s="5"/>
+      <c r="G844" s="5"/>
+    </row>
+    <row r="845" ht="22.5" customHeight="1">
+      <c r="A845" s="3"/>
+      <c r="B845" s="4"/>
+      <c r="C845" s="5"/>
+      <c r="D845" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E845" s="5"/>
+      <c r="F845" s="5"/>
+      <c r="G845" s="5"/>
+    </row>
+    <row r="846" ht="22.5" customHeight="1">
+      <c r="A846" s="3"/>
+      <c r="B846" s="4"/>
+      <c r="C846" s="5"/>
+      <c r="D846" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E846" s="5"/>
+      <c r="F846" s="5"/>
+      <c r="G846" s="5"/>
+    </row>
+    <row r="847" ht="22.5" customHeight="1">
+      <c r="A847" s="3"/>
+      <c r="B847" s="4"/>
+      <c r="C847" s="5"/>
+      <c r="D847" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E847" s="5"/>
+      <c r="F847" s="5"/>
+      <c r="G847" s="5"/>
+    </row>
+    <row r="848" ht="22.5" customHeight="1">
+      <c r="A848" s="3"/>
+      <c r="B848" s="4"/>
+      <c r="C848" s="5"/>
+      <c r="D848" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E848" s="5"/>
+      <c r="F848" s="5"/>
+      <c r="G848" s="5"/>
+    </row>
+    <row r="849" ht="22.5" customHeight="1">
+      <c r="A849" s="3"/>
+      <c r="B849" s="4"/>
+      <c r="C849" s="5"/>
+      <c r="D849" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E849" s="5"/>
+      <c r="F849" s="5"/>
+      <c r="G849" s="5"/>
+    </row>
+    <row r="850" ht="22.5" customHeight="1">
+      <c r="A850" s="3"/>
+      <c r="B850" s="4"/>
+      <c r="C850" s="5"/>
+      <c r="D850" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E850" s="5"/>
+      <c r="F850" s="5"/>
+      <c r="G850" s="5"/>
+    </row>
+    <row r="851" ht="22.5" customHeight="1">
+      <c r="A851" s="3"/>
+      <c r="B851" s="4"/>
+      <c r="C851" s="5"/>
+      <c r="D851" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E851" s="5"/>
+      <c r="F851" s="5"/>
+      <c r="G851" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -769,7 +769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="22.5" hidden="1" customHeight="1">
+    <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="4">
         <v>45854.54756740741</v>
       </c>
@@ -792,7 +792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="22.5" hidden="1" customHeight="1">
+    <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="7">
         <v>45854.552008819446</v>
       </c>
@@ -815,7 +815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="22.5" hidden="1" customHeight="1">
+    <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="7">
         <v>45854.56135857639</v>
       </c>
@@ -838,7 +838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="22.5" hidden="1" customHeight="1">
+    <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="7">
         <v>45855.59093805555</v>
       </c>
@@ -861,7 +861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="22.5" hidden="1" customHeight="1">
+    <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="7">
         <v>45855.59698162037</v>
       </c>
@@ -884,7 +884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="22.5" hidden="1" customHeight="1">
+    <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="7">
         <v>45855.62539986111</v>
       </c>
@@ -907,7 +907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="22.5" hidden="1" customHeight="1">
+    <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="7">
         <v>45855.62565326389</v>
       </c>
@@ -930,7 +930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="22.5" hidden="1" customHeight="1">
+    <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="7">
         <v>45855.6268725</v>
       </c>
@@ -953,7 +953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="22.5" hidden="1" customHeight="1">
+    <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="7">
         <v>45855.62695597222</v>
       </c>
@@ -976,7 +976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="22.5" hidden="1" customHeight="1">
+    <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="7">
         <v>45855.62696129629</v>
       </c>
@@ -999,7 +999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="22.5" hidden="1" customHeight="1">
+    <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="7">
         <v>45855.632263900465</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="22.5" hidden="1" customHeight="1">
+    <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="7">
         <v>45855.632817060185</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="22.5" hidden="1" customHeight="1">
+    <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="7">
         <v>45855.63432034722</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" ht="22.5" hidden="1" customHeight="1">
+    <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="7">
         <v>45855.65678528935</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" ht="22.5" hidden="1" customHeight="1">
+    <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="7">
         <v>45855.67895984954</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" ht="22.5" hidden="1" customHeight="1">
+    <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="7">
         <v>45857.43922170139</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" ht="22.5" hidden="1" customHeight="1">
+    <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="7">
         <v>45857.45083421296</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" ht="22.5" hidden="1" customHeight="1">
+    <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="7">
         <v>45857.45367002315</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" ht="22.5" hidden="1" customHeight="1">
+    <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="7">
         <v>45857.45402762732</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" ht="22.5" hidden="1" customHeight="1">
+    <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="7">
         <v>45857.45608445602</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" ht="22.5" hidden="1" customHeight="1">
+    <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="7">
         <v>45857.457044571755</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" ht="22.5" hidden="1" customHeight="1">
+    <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="7">
         <v>45857.46116925926</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" ht="22.5" hidden="1" customHeight="1">
+    <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="7">
         <v>45857.475398263894</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" ht="22.5" hidden="1" customHeight="1">
+    <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="7">
         <v>45857.51504788194</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" ht="22.5" hidden="1" customHeight="1">
+    <row r="26" ht="22.5" customHeight="1">
       <c r="A26" s="7">
         <v>45857.54535236111</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" ht="22.5" hidden="1" customHeight="1">
+    <row r="27" ht="22.5" customHeight="1">
       <c r="A27" s="7">
         <v>45857.6954391551</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" ht="22.5" hidden="1" customHeight="1">
+    <row r="28" ht="22.5" customHeight="1">
       <c r="A28" s="7">
         <v>45858.805086458335</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="22.5" hidden="1" customHeight="1">
+    <row r="29" ht="22.5" customHeight="1">
       <c r="A29" s="7">
         <v>45858.80541085648</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" ht="22.5" hidden="1" customHeight="1">
+    <row r="30" ht="22.5" customHeight="1">
       <c r="A30" s="7">
         <v>45858.81073546296</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" ht="22.5" hidden="1" customHeight="1">
+    <row r="31" ht="22.5" customHeight="1">
       <c r="A31" s="7">
         <v>45858.81741554398</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" ht="22.5" hidden="1" customHeight="1">
+    <row r="32" ht="22.5" customHeight="1">
       <c r="A32" s="7">
         <v>45858.853248576386</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" ht="22.5" hidden="1" customHeight="1">
+    <row r="33" ht="22.5" customHeight="1">
       <c r="A33" s="7">
         <v>45858.8551316088</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" ht="22.5" hidden="1" customHeight="1">
+    <row r="34" ht="22.5" customHeight="1">
       <c r="A34" s="7">
         <v>45858.8587925926</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" ht="22.5" hidden="1" customHeight="1">
+    <row r="35" ht="22.5" customHeight="1">
       <c r="A35" s="7">
         <v>45858.85944133102</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" ht="22.5" hidden="1" customHeight="1">
+    <row r="36" ht="22.5" customHeight="1">
       <c r="A36" s="7">
         <v>45858.9378469213</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" ht="22.5" hidden="1" customHeight="1">
+    <row r="37" ht="22.5" customHeight="1">
       <c r="A37" s="7">
         <v>45858.938589247686</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" ht="22.5" hidden="1" customHeight="1">
+    <row r="38" ht="22.5" customHeight="1">
       <c r="A38" s="7">
         <v>45860.55956028935</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" ht="22.5" hidden="1" customHeight="1">
+    <row r="39" ht="22.5" customHeight="1">
       <c r="A39" s="7">
         <v>45860.56098137732</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" ht="22.5" hidden="1" customHeight="1">
+    <row r="40" ht="22.5" customHeight="1">
       <c r="A40" s="7">
         <v>45860.56201444444</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" ht="22.5" hidden="1" customHeight="1">
+    <row r="41" ht="22.5" customHeight="1">
       <c r="A41" s="7">
         <v>45860.5621266088</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" ht="22.5" hidden="1" customHeight="1">
+    <row r="42" ht="22.5" customHeight="1">
       <c r="A42" s="7">
         <v>45860.562376041664</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" ht="22.5" hidden="1" customHeight="1">
+    <row r="43" ht="22.5" customHeight="1">
       <c r="A43" s="7">
         <v>45860.58399167824</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" ht="22.5" hidden="1" customHeight="1">
+    <row r="44" ht="22.5" customHeight="1">
       <c r="A44" s="7">
         <v>45860.591812569444</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" ht="22.5" hidden="1" customHeight="1">
+    <row r="45" ht="22.5" customHeight="1">
       <c r="A45" s="7">
         <v>45860.5921516088</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" ht="22.5" hidden="1" customHeight="1">
+    <row r="46" ht="22.5" customHeight="1">
       <c r="A46" s="7">
         <v>45860.61500564815</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" ht="22.5" hidden="1" customHeight="1">
+    <row r="47" ht="22.5" customHeight="1">
       <c r="A47" s="7">
         <v>45860.6151684838</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" ht="22.5" hidden="1" customHeight="1">
+    <row r="48" ht="22.5" customHeight="1">
       <c r="A48" s="7">
         <v>45860.625860671295</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" ht="22.5" hidden="1" customHeight="1">
+    <row r="49" ht="22.5" customHeight="1">
       <c r="A49" s="7">
         <v>45860.662755219906</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" ht="22.5" hidden="1" customHeight="1">
+    <row r="50" ht="22.5" customHeight="1">
       <c r="A50" s="7">
         <v>45860.68973431713</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" ht="22.5" hidden="1" customHeight="1">
+    <row r="51" ht="22.5" customHeight="1">
       <c r="A51" s="7">
         <v>45861.55650954861</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" ht="22.5" hidden="1" customHeight="1">
+    <row r="52" ht="22.5" customHeight="1">
       <c r="A52" s="7">
         <v>45861.57544818287</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" ht="22.5" hidden="1" customHeight="1">
+    <row r="53" ht="22.5" customHeight="1">
       <c r="A53" s="7">
         <v>45861.575711666665</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" ht="22.5" hidden="1" customHeight="1">
+    <row r="54" ht="22.5" customHeight="1">
       <c r="A54" s="7">
         <v>45861.57817983796</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" ht="22.5" hidden="1" customHeight="1">
+    <row r="55" ht="22.5" customHeight="1">
       <c r="A55" s="7">
         <v>45861.583925659725</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" ht="22.5" hidden="1" customHeight="1">
+    <row r="56" ht="22.5" customHeight="1">
       <c r="A56" s="7">
         <v>45861.58464670139</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" ht="22.5" hidden="1" customHeight="1">
+    <row r="57" ht="22.5" customHeight="1">
       <c r="A57" s="7">
         <v>45861.62068262731</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" ht="22.5" hidden="1" customHeight="1">
+    <row r="58" ht="22.5" customHeight="1">
       <c r="A58" s="7">
         <v>45861.630483726854</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" ht="22.5" hidden="1" customHeight="1">
+    <row r="59" ht="22.5" customHeight="1">
       <c r="A59" s="7">
         <v>45861.63065525463</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" ht="22.5" hidden="1" customHeight="1">
+    <row r="60" ht="22.5" customHeight="1">
       <c r="A60" s="7">
         <v>45861.65860252315</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" ht="22.5" hidden="1" customHeight="1">
+    <row r="61" ht="22.5" customHeight="1">
       <c r="A61" s="7">
         <v>45861.74116803241</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" ht="22.5" hidden="1" customHeight="1">
+    <row r="62" ht="22.5" customHeight="1">
       <c r="A62" s="7">
         <v>45862.584618877314</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" ht="22.5" hidden="1" customHeight="1">
+    <row r="63" ht="22.5" customHeight="1">
       <c r="A63" s="7">
         <v>45862.594041296295</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" ht="22.5" hidden="1" customHeight="1">
+    <row r="64" ht="22.5" customHeight="1">
       <c r="A64" s="7">
         <v>45862.61821078704</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" ht="22.5" hidden="1" customHeight="1">
+    <row r="65" ht="22.5" customHeight="1">
       <c r="A65" s="7">
         <v>45862.65210824074</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" ht="22.5" hidden="1" customHeight="1">
+    <row r="66" ht="22.5" customHeight="1">
       <c r="A66" s="7">
         <v>45862.67236672454</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" ht="22.5" hidden="1" customHeight="1">
+    <row r="67" ht="22.5" customHeight="1">
       <c r="A67" s="7">
         <v>45862.67680715278</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" ht="22.5" hidden="1" customHeight="1">
+    <row r="68" ht="22.5" customHeight="1">
       <c r="A68" s="7">
         <v>45864.464877199076</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" ht="22.5" hidden="1" customHeight="1">
+    <row r="69" ht="22.5" customHeight="1">
       <c r="A69" s="7">
         <v>45864.468284953706</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" ht="22.5" hidden="1" customHeight="1">
+    <row r="70" ht="22.5" customHeight="1">
       <c r="A70" s="7">
         <v>45864.469663923606</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" ht="22.5" hidden="1" customHeight="1">
+    <row r="71" ht="22.5" customHeight="1">
       <c r="A71" s="7">
         <v>45864.484494212964</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" ht="22.5" hidden="1" customHeight="1">
+    <row r="72" ht="22.5" customHeight="1">
       <c r="A72" s="7">
         <v>45864.487775347225</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" ht="22.5" hidden="1" customHeight="1">
+    <row r="73" ht="22.5" customHeight="1">
       <c r="A73" s="7">
         <v>45864.48789020833</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" ht="22.5" hidden="1" customHeight="1">
+    <row r="74" ht="22.5" customHeight="1">
       <c r="A74" s="7">
         <v>45864.48792731481</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" ht="22.5" hidden="1" customHeight="1">
+    <row r="75" ht="22.5" customHeight="1">
       <c r="A75" s="7">
         <v>45864.48866033565</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" ht="22.5" hidden="1" customHeight="1">
+    <row r="76" ht="22.5" customHeight="1">
       <c r="A76" s="7">
         <v>45864.492346666666</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" ht="22.5" hidden="1" customHeight="1">
+    <row r="77" ht="22.5" customHeight="1">
       <c r="A77" s="7">
         <v>45864.49591386574</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" ht="22.5" hidden="1" customHeight="1">
+    <row r="78" ht="22.5" customHeight="1">
       <c r="A78" s="7">
         <v>45864.58315180556</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" ht="22.5" hidden="1" customHeight="1">
+    <row r="79" ht="22.5" customHeight="1">
       <c r="A79" s="7">
         <v>45864.720231053245</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" ht="22.5" hidden="1" customHeight="1">
+    <row r="80" ht="22.5" customHeight="1">
       <c r="A80" s="7">
         <v>45865.80472046296</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" ht="22.5" hidden="1" customHeight="1">
+    <row r="81" ht="22.5" customHeight="1">
       <c r="A81" s="7">
         <v>45865.837949189816</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" ht="22.5" hidden="1" customHeight="1">
+    <row r="82" ht="22.5" customHeight="1">
       <c r="A82" s="7">
         <v>45865.83811696759</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" ht="22.5" hidden="1" customHeight="1">
+    <row r="83" ht="22.5" customHeight="1">
       <c r="A83" s="7">
         <v>45865.8381340625</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" ht="22.5" hidden="1" customHeight="1">
+    <row r="84" ht="22.5" customHeight="1">
       <c r="A84" s="7">
         <v>45865.83820722222</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" ht="22.5" hidden="1" customHeight="1">
+    <row r="85" ht="22.5" customHeight="1">
       <c r="A85" s="7">
         <v>45865.83821590278</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" ht="22.5" hidden="1" customHeight="1">
+    <row r="86" ht="22.5" customHeight="1">
       <c r="A86" s="7">
         <v>45865.8382509375</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" ht="22.5" hidden="1" customHeight="1">
+    <row r="87" ht="22.5" customHeight="1">
       <c r="A87" s="7">
         <v>45865.856824965274</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" ht="22.5" hidden="1" customHeight="1">
+    <row r="88" ht="22.5" customHeight="1">
       <c r="A88" s="7">
         <v>45867.55706421296</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" ht="22.5" hidden="1" customHeight="1">
+    <row r="89" ht="22.5" customHeight="1">
       <c r="A89" s="7">
         <v>45867.55710172454</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" ht="22.5" hidden="1" customHeight="1">
+    <row r="90" ht="22.5" customHeight="1">
       <c r="A90" s="7">
         <v>45867.55735195602</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" ht="22.5" hidden="1" customHeight="1">
+    <row r="91" ht="22.5" customHeight="1">
       <c r="A91" s="7">
         <v>45867.557362974534</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" ht="22.5" hidden="1" customHeight="1">
+    <row r="92" ht="22.5" customHeight="1">
       <c r="A92" s="7">
         <v>45867.55879643519</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" ht="22.5" hidden="1" customHeight="1">
+    <row r="93" ht="22.5" customHeight="1">
       <c r="A93" s="7">
         <v>45867.56142575231</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" ht="22.5" hidden="1" customHeight="1">
+    <row r="94" ht="22.5" customHeight="1">
       <c r="A94" s="7">
         <v>45867.56637292824</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" ht="22.5" hidden="1" customHeight="1">
+    <row r="95" ht="22.5" customHeight="1">
       <c r="A95" s="7">
         <v>45867.56867361111</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" ht="22.5" hidden="1" customHeight="1">
+    <row r="96" ht="22.5" customHeight="1">
       <c r="A96" s="7">
         <v>45867.5732383912</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" ht="22.5" hidden="1" customHeight="1">
+    <row r="97" ht="22.5" customHeight="1">
       <c r="A97" s="7">
         <v>45867.58363450231</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" ht="22.5" hidden="1" customHeight="1">
+    <row r="98" ht="22.5" customHeight="1">
       <c r="A98" s="7">
         <v>45867.61378730324</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" ht="22.5" hidden="1" customHeight="1">
+    <row r="99" ht="22.5" customHeight="1">
       <c r="A99" s="7">
         <v>45868.5610421412</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" ht="22.5" hidden="1" customHeight="1">
+    <row r="100" ht="22.5" customHeight="1">
       <c r="A100" s="7">
         <v>45868.561405451386</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" ht="22.5" hidden="1" customHeight="1">
+    <row r="101" ht="22.5" customHeight="1">
       <c r="A101" s="7">
         <v>45868.56161240741</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" ht="22.5" hidden="1" customHeight="1">
+    <row r="102" ht="22.5" customHeight="1">
       <c r="A102" s="7">
         <v>45868.56173259259</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" ht="22.5" hidden="1" customHeight="1">
+    <row r="103" ht="22.5" customHeight="1">
       <c r="A103" s="7">
         <v>45868.56204592592</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" ht="22.5" hidden="1" customHeight="1">
+    <row r="104" ht="22.5" customHeight="1">
       <c r="A104" s="7">
         <v>45868.57325864583</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" ht="22.5" hidden="1" customHeight="1">
+    <row r="105" ht="22.5" customHeight="1">
       <c r="A105" s="7">
         <v>45868.57399777778</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" ht="22.5" hidden="1" customHeight="1">
+    <row r="106" ht="22.5" customHeight="1">
       <c r="A106" s="7">
         <v>45868.57403607639</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" ht="22.5" hidden="1" customHeight="1">
+    <row r="107" ht="22.5" customHeight="1">
       <c r="A107" s="7">
         <v>45868.57421125</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" ht="22.5" hidden="1" customHeight="1">
+    <row r="108" ht="22.5" customHeight="1">
       <c r="A108" s="7">
         <v>45868.575399560184</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" ht="22.5" hidden="1" customHeight="1">
+    <row r="109" ht="22.5" customHeight="1">
       <c r="A109" s="7">
         <v>45868.57741344908</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" ht="22.5" hidden="1" customHeight="1">
+    <row r="110" ht="22.5" customHeight="1">
       <c r="A110" s="7">
         <v>45868.58221561342</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" ht="22.5" hidden="1" customHeight="1">
+    <row r="111" ht="22.5" customHeight="1">
       <c r="A111" s="7">
         <v>45868.596445717594</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" ht="22.5" hidden="1" customHeight="1">
+    <row r="112" ht="22.5" customHeight="1">
       <c r="A112" s="7">
         <v>45868.60163092593</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" ht="22.5" hidden="1" customHeight="1">
+    <row r="113" ht="22.5" customHeight="1">
       <c r="A113" s="7">
         <v>45868.623397511576</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" ht="22.5" hidden="1" customHeight="1">
+    <row r="114" ht="22.5" customHeight="1">
       <c r="A114" s="7">
         <v>45869.57822457176</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" ht="22.5" hidden="1" customHeight="1">
+    <row r="115" ht="22.5" customHeight="1">
       <c r="A115" s="7">
         <v>45869.58497993056</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" ht="22.5" hidden="1" customHeight="1">
+    <row r="116" ht="22.5" customHeight="1">
       <c r="A116" s="7">
         <v>45869.58528658564</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" ht="22.5" hidden="1" customHeight="1">
+    <row r="117" ht="22.5" customHeight="1">
       <c r="A117" s="7">
         <v>45869.58589259259</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" ht="22.5" hidden="1" customHeight="1">
+    <row r="118" ht="22.5" customHeight="1">
       <c r="A118" s="7">
         <v>45869.58670940972</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" ht="22.5" hidden="1" customHeight="1">
+    <row r="119" ht="22.5" customHeight="1">
       <c r="A119" s="7">
         <v>45869.59018255787</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" ht="22.5" hidden="1" customHeight="1">
+    <row r="120" ht="22.5" customHeight="1">
       <c r="A120" s="7">
         <v>45869.595063437504</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" ht="22.5" hidden="1" customHeight="1">
+    <row r="121" ht="22.5" customHeight="1">
       <c r="A121" s="7">
         <v>45869.603384988426</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" ht="22.5" hidden="1" customHeight="1">
+    <row r="122" ht="22.5" customHeight="1">
       <c r="A122" s="7">
         <v>45869.610806331024</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" ht="22.5" hidden="1" customHeight="1">
+    <row r="123" ht="22.5" customHeight="1">
       <c r="A123" s="7">
         <v>45869.61667743056</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" ht="22.5" hidden="1" customHeight="1">
+    <row r="124" ht="22.5" customHeight="1">
       <c r="A124" s="7">
         <v>45869.61692236111</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" ht="22.5" hidden="1" customHeight="1">
+    <row r="125" ht="22.5" customHeight="1">
       <c r="A125" s="7">
         <v>45869.61858212963</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" ht="22.5" hidden="1" customHeight="1">
+    <row r="126" ht="22.5" customHeight="1">
       <c r="A126" s="7">
         <v>45869.626005162034</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" ht="22.5" hidden="1" customHeight="1">
+    <row r="127" ht="22.5" customHeight="1">
       <c r="A127" s="7">
         <v>45869.62903795139</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" ht="22.5" hidden="1" customHeight="1">
+    <row r="128" ht="22.5" customHeight="1">
       <c r="A128" s="7">
         <v>45869.632819398146</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" ht="22.5" hidden="1" customHeight="1">
+    <row r="129" ht="22.5" customHeight="1">
       <c r="A129" s="7">
         <v>45870.64391096064</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" ht="22.5" hidden="1" customHeight="1">
+    <row r="130" ht="22.5" customHeight="1">
       <c r="A130" s="7">
         <v>45871.47101104166</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" ht="22.5" hidden="1" customHeight="1">
+    <row r="131" ht="22.5" customHeight="1">
       <c r="A131" s="7">
         <v>45871.47112328703</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" ht="22.5" hidden="1" customHeight="1">
+    <row r="132" ht="22.5" customHeight="1">
       <c r="A132" s="7">
         <v>45871.47133475695</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" ht="22.5" hidden="1" customHeight="1">
+    <row r="133" ht="22.5" customHeight="1">
       <c r="A133" s="7">
         <v>45871.47196549768</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" ht="22.5" hidden="1" customHeight="1">
+    <row r="134" ht="22.5" customHeight="1">
       <c r="A134" s="7">
         <v>45871.47270722222</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" ht="22.5" hidden="1" customHeight="1">
+    <row r="135" ht="22.5" customHeight="1">
       <c r="A135" s="7">
         <v>45871.47908592592</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" ht="22.5" hidden="1" customHeight="1">
+    <row r="136" ht="22.5" customHeight="1">
       <c r="A136" s="7">
         <v>45871.48335891204</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" ht="22.5" hidden="1" customHeight="1">
+    <row r="137" ht="22.5" customHeight="1">
       <c r="A137" s="7">
         <v>45871.48450177083</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" ht="22.5" hidden="1" customHeight="1">
+    <row r="138" ht="22.5" customHeight="1">
       <c r="A138" s="7">
         <v>45871.48570577546</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" ht="22.5" hidden="1" customHeight="1">
+    <row r="139" ht="22.5" customHeight="1">
       <c r="A139" s="7">
         <v>45871.49975091435</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" ht="22.5" hidden="1" customHeight="1">
+    <row r="140" ht="22.5" customHeight="1">
       <c r="A140" s="7">
         <v>45871.508302939816</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" ht="22.5" hidden="1" customHeight="1">
+    <row r="141" ht="22.5" customHeight="1">
       <c r="A141" s="7">
         <v>45871.51428106481</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" ht="22.5" hidden="1" customHeight="1">
+    <row r="142" ht="22.5" customHeight="1">
       <c r="A142" s="7">
         <v>45871.58729340278</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" ht="22.5" hidden="1" customHeight="1">
+    <row r="143" ht="22.5" customHeight="1">
       <c r="A143" s="7">
         <v>45872.818173576394</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" ht="22.5" hidden="1" customHeight="1">
+    <row r="144" ht="22.5" customHeight="1">
       <c r="A144" s="7">
         <v>45872.81834859954</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" ht="22.5" hidden="1" customHeight="1">
+    <row r="145" ht="22.5" customHeight="1">
       <c r="A145" s="7">
         <v>45872.82016290509</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" ht="22.5" hidden="1" customHeight="1">
+    <row r="146" ht="22.5" customHeight="1">
       <c r="A146" s="7">
         <v>45872.826328842595</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" ht="22.5" hidden="1" customHeight="1">
+    <row r="147" ht="22.5" customHeight="1">
       <c r="A147" s="7">
         <v>45872.83049018518</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" ht="22.5" hidden="1" customHeight="1">
+    <row r="148" ht="22.5" customHeight="1">
       <c r="A148" s="7">
         <v>45872.84038041667</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" ht="22.5" hidden="1" customHeight="1">
+    <row r="149" ht="22.5" customHeight="1">
       <c r="A149" s="7">
         <v>45872.84098946759</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" ht="22.5" hidden="1" customHeight="1">
+    <row r="150" ht="22.5" customHeight="1">
       <c r="A150" s="7">
         <v>45872.84131063658</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" ht="22.5" hidden="1" customHeight="1">
+    <row r="151" ht="22.5" customHeight="1">
       <c r="A151" s="7">
         <v>45872.84962851852</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" ht="22.5" hidden="1" customHeight="1">
+    <row r="152" ht="22.5" customHeight="1">
       <c r="A152" s="7">
         <v>45872.865574456024</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" ht="22.5" hidden="1" customHeight="1">
+    <row r="153" ht="22.5" customHeight="1">
       <c r="A153" s="7">
         <v>45872.89685809027</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" ht="22.5" hidden="1" customHeight="1">
+    <row r="154" ht="22.5" customHeight="1">
       <c r="A154" s="7">
         <v>45874.54679883102</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" ht="22.5" hidden="1" customHeight="1">
+    <row r="155" ht="22.5" customHeight="1">
       <c r="A155" s="7">
         <v>45874.54704856481</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" ht="22.5" hidden="1" customHeight="1">
+    <row r="156" ht="22.5" customHeight="1">
       <c r="A156" s="7">
         <v>45874.54746267361</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" ht="22.5" hidden="1" customHeight="1">
+    <row r="157" ht="22.5" customHeight="1">
       <c r="A157" s="7">
         <v>45874.54842910879</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" ht="22.5" hidden="1" customHeight="1">
+    <row r="158" ht="22.5" customHeight="1">
       <c r="A158" s="7">
         <v>45874.54871962963</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" ht="22.5" hidden="1" customHeight="1">
+    <row r="159" ht="22.5" customHeight="1">
       <c r="A159" s="7">
         <v>45874.55692174769</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" ht="22.5" hidden="1" customHeight="1">
+    <row r="160" ht="22.5" customHeight="1">
       <c r="A160" s="7">
         <v>45874.57293659722</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" ht="22.5" hidden="1" customHeight="1">
+    <row r="161" ht="22.5" customHeight="1">
       <c r="A161" s="7">
         <v>45874.58247193287</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" ht="22.5" hidden="1" customHeight="1">
+    <row r="162" ht="22.5" customHeight="1">
       <c r="A162" s="7">
         <v>45874.582465775464</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" ht="22.5" hidden="1" customHeight="1">
+    <row r="163" ht="22.5" customHeight="1">
       <c r="A163" s="7">
         <v>45874.58384782408</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" ht="22.5" hidden="1" customHeight="1">
+    <row r="164" ht="22.5" customHeight="1">
       <c r="A164" s="7">
         <v>45874.606049849535</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" ht="22.5" hidden="1" customHeight="1">
+    <row r="165" ht="22.5" customHeight="1">
       <c r="A165" s="7">
         <v>45874.606999421296</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" ht="22.5" hidden="1" customHeight="1">
+    <row r="166" ht="22.5" customHeight="1">
       <c r="A166" s="7">
         <v>45874.615732569444</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" ht="22.5" hidden="1" customHeight="1">
+    <row r="167" ht="22.5" customHeight="1">
       <c r="A167" s="7">
         <v>45874.61585203704</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" ht="22.5" hidden="1" customHeight="1">
+    <row r="168" ht="22.5" customHeight="1">
       <c r="A168" s="7">
         <v>45874.62065157408</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" ht="22.5" hidden="1" customHeight="1">
+    <row r="169" ht="22.5" customHeight="1">
       <c r="A169" s="7">
         <v>45874.62986263889</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" ht="22.5" hidden="1" customHeight="1">
+    <row r="170" ht="22.5" customHeight="1">
       <c r="A170" s="7">
         <v>45874.63530571759</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" ht="22.5" hidden="1" customHeight="1">
+    <row r="171" ht="22.5" customHeight="1">
       <c r="A171" s="7">
         <v>45875.57998105324</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" ht="22.5" hidden="1" customHeight="1">
+    <row r="172" ht="22.5" customHeight="1">
       <c r="A172" s="7">
         <v>45875.58162938658</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" ht="22.5" hidden="1" customHeight="1">
+    <row r="173" ht="22.5" customHeight="1">
       <c r="A173" s="7">
         <v>45875.58897989584</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" ht="22.5" hidden="1" customHeight="1">
+    <row r="174" ht="22.5" customHeight="1">
       <c r="A174" s="7">
         <v>45875.59411494213</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" ht="22.5" hidden="1" customHeight="1">
+    <row r="175" ht="22.5" customHeight="1">
       <c r="A175" s="7">
         <v>45875.596796342594</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" ht="22.5" hidden="1" customHeight="1">
+    <row r="176" ht="22.5" customHeight="1">
       <c r="A176" s="7">
         <v>45875.597105347224</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" ht="22.5" hidden="1" customHeight="1">
+    <row r="177" ht="22.5" customHeight="1">
       <c r="A177" s="7">
         <v>45875.598634884256</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" ht="22.5" hidden="1" customHeight="1">
+    <row r="178" ht="22.5" customHeight="1">
       <c r="A178" s="7">
         <v>45875.60378348379</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" ht="22.5" hidden="1" customHeight="1">
+    <row r="179" ht="22.5" customHeight="1">
       <c r="A179" s="7">
         <v>45875.60452826389</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" ht="22.5" hidden="1" customHeight="1">
+    <row r="180" ht="22.5" customHeight="1">
       <c r="A180" s="7">
         <v>45875.60475244213</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" ht="22.5" hidden="1" customHeight="1">
+    <row r="181" ht="22.5" customHeight="1">
       <c r="A181" s="7">
         <v>45875.60517480324</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" ht="22.5" hidden="1" customHeight="1">
+    <row r="182" ht="22.5" customHeight="1">
       <c r="A182" s="7">
         <v>45875.609699085646</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" ht="22.5" hidden="1" customHeight="1">
+    <row r="183" ht="22.5" customHeight="1">
       <c r="A183" s="7">
         <v>45875.627867627314</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" ht="22.5" hidden="1" customHeight="1">
+    <row r="184" ht="22.5" customHeight="1">
       <c r="A184" s="7">
         <v>45875.64754278935</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" ht="22.5" hidden="1" customHeight="1">
+    <row r="185" ht="22.5" customHeight="1">
       <c r="A185" s="7">
         <v>45876.57632630787</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" ht="22.5" hidden="1" customHeight="1">
+    <row r="186" ht="22.5" customHeight="1">
       <c r="A186" s="7">
         <v>45876.576951446754</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" ht="22.5" hidden="1" customHeight="1">
+    <row r="187" ht="22.5" customHeight="1">
       <c r="A187" s="7">
         <v>45876.58370935185</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" ht="22.5" hidden="1" customHeight="1">
+    <row r="188" ht="22.5" customHeight="1">
       <c r="A188" s="7">
         <v>45876.59309609953</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" ht="22.5" hidden="1" customHeight="1">
+    <row r="189" ht="22.5" customHeight="1">
       <c r="A189" s="7">
         <v>45876.59344790509</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" ht="22.5" hidden="1" customHeight="1">
+    <row r="190" ht="22.5" customHeight="1">
       <c r="A190" s="7">
         <v>45876.59346392361</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" ht="22.5" hidden="1" customHeight="1">
+    <row r="191" ht="22.5" customHeight="1">
       <c r="A191" s="7">
         <v>45876.59693291667</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" ht="22.5" hidden="1" customHeight="1">
+    <row r="192" ht="22.5" customHeight="1">
       <c r="A192" s="7">
         <v>45876.6165253588</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" ht="22.5" hidden="1" customHeight="1">
+    <row r="193" ht="22.5" customHeight="1">
       <c r="A193" s="7">
         <v>45876.629486562495</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" ht="22.5" hidden="1" customHeight="1">
+    <row r="194" ht="22.5" customHeight="1">
       <c r="A194" s="7">
         <v>45876.63430600695</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" ht="22.5" hidden="1" customHeight="1">
+    <row r="195" ht="22.5" customHeight="1">
       <c r="A195" s="7">
         <v>45876.655042592596</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" ht="22.5" hidden="1" customHeight="1">
+    <row r="196" ht="22.5" customHeight="1">
       <c r="A196" s="7">
         <v>45877.499875497684</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" ht="22.5" hidden="1" customHeight="1">
+    <row r="197" ht="22.5" customHeight="1">
       <c r="A197" s="7">
         <v>45877.500592627315</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" ht="22.5" hidden="1" customHeight="1">
+    <row r="198" ht="22.5" customHeight="1">
       <c r="A198" s="7">
         <v>45877.50077381944</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" ht="22.5" hidden="1" customHeight="1">
+    <row r="199" ht="22.5" customHeight="1">
       <c r="A199" s="7">
         <v>45877.508103263885</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" ht="22.5" hidden="1" customHeight="1">
+    <row r="200" ht="22.5" customHeight="1">
       <c r="A200" s="7">
         <v>45877.50832060185</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" ht="22.5" hidden="1" customHeight="1">
+    <row r="201" ht="22.5" customHeight="1">
       <c r="A201" s="7">
         <v>45877.52082638889</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" ht="22.5" hidden="1" customHeight="1">
+    <row r="202" ht="22.5" customHeight="1">
       <c r="A202" s="7">
         <v>45877.522756562495</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" ht="22.5" hidden="1" customHeight="1">
+    <row r="203" ht="22.5" customHeight="1">
       <c r="A203" s="7">
         <v>45877.52398603009</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" ht="22.5" hidden="1" customHeight="1">
+    <row r="204" ht="22.5" customHeight="1">
       <c r="A204" s="7">
         <v>45877.529527245366</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" ht="22.5" hidden="1" customHeight="1">
+    <row r="205" ht="22.5" customHeight="1">
       <c r="A205" s="7">
         <v>45877.529688993054</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" ht="22.5" hidden="1" customHeight="1">
+    <row r="206" ht="22.5" customHeight="1">
       <c r="A206" s="7">
         <v>45877.529753587965</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" ht="22.5" hidden="1" customHeight="1">
+    <row r="207" ht="22.5" customHeight="1">
       <c r="A207" s="7">
         <v>45877.529804247686</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" ht="22.5" hidden="1" customHeight="1">
+    <row r="208" ht="22.5" customHeight="1">
       <c r="A208" s="7">
         <v>45877.53514741898</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" ht="22.5" hidden="1" customHeight="1">
+    <row r="209" ht="22.5" customHeight="1">
       <c r="A209" s="7">
         <v>45877.539249016205</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" ht="22.5" hidden="1" customHeight="1">
+    <row r="210" ht="22.5" customHeight="1">
       <c r="A210" s="7">
         <v>45877.55101394676</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" ht="22.5" hidden="1" customHeight="1">
+    <row r="211" ht="22.5" customHeight="1">
       <c r="A211" s="7">
         <v>45877.55912614583</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" ht="22.5" hidden="1" customHeight="1">
+    <row r="212" ht="22.5" customHeight="1">
       <c r="A212" s="7">
         <v>45877.580553368054</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" ht="22.5" hidden="1" customHeight="1">
+    <row r="213" ht="22.5" customHeight="1">
       <c r="A213" s="7">
         <v>45878.392246180556</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" ht="22.5" hidden="1" customHeight="1">
+    <row r="214" ht="22.5" customHeight="1">
       <c r="A214" s="7">
         <v>45878.85698133102</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" ht="22.5" hidden="1" customHeight="1">
+    <row r="215" ht="22.5" customHeight="1">
       <c r="A215" s="7">
         <v>45878.8569834375</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" ht="22.5" hidden="1" customHeight="1">
+    <row r="216" ht="22.5" customHeight="1">
       <c r="A216" s="7">
         <v>45878.860781006944</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" ht="22.5" hidden="1" customHeight="1">
+    <row r="217" ht="22.5" customHeight="1">
       <c r="A217" s="7">
         <v>45878.861098124995</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" ht="22.5" hidden="1" customHeight="1">
+    <row r="218" ht="22.5" customHeight="1">
       <c r="A218" s="7">
         <v>45878.8647274074</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" ht="22.5" hidden="1" customHeight="1">
+    <row r="219" ht="22.5" customHeight="1">
       <c r="A219" s="7">
         <v>45878.86489048611</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" ht="22.5" hidden="1" customHeight="1">
+    <row r="220" ht="22.5" customHeight="1">
       <c r="A220" s="7">
         <v>45878.8654487037</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" ht="22.5" hidden="1" customHeight="1">
+    <row r="221" ht="22.5" customHeight="1">
       <c r="A221" s="7">
         <v>45878.87146524306</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" ht="22.5" hidden="1" customHeight="1">
+    <row r="222" ht="22.5" customHeight="1">
       <c r="A222" s="7">
         <v>45878.871942314814</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" ht="22.5" hidden="1" customHeight="1">
+    <row r="223" ht="22.5" customHeight="1">
       <c r="A223" s="7">
         <v>45878.89638115741</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" ht="22.5" hidden="1" customHeight="1">
+    <row r="224" ht="22.5" customHeight="1">
       <c r="A224" s="7">
         <v>45878.905136180554</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" ht="22.5" hidden="1" customHeight="1">
+    <row r="225" ht="22.5" customHeight="1">
       <c r="A225" s="7">
         <v>45878.9052209838</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" ht="22.5" hidden="1" customHeight="1">
+    <row r="226" ht="22.5" customHeight="1">
       <c r="A226" s="7">
         <v>45880.53705275463</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" ht="22.5" hidden="1" customHeight="1">
+    <row r="227" ht="22.5" customHeight="1">
       <c r="A227" s="7">
         <v>45880.537176631944</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" ht="22.5" hidden="1" customHeight="1">
+    <row r="228" ht="22.5" customHeight="1">
       <c r="A228" s="7">
         <v>45880.53776739583</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" ht="22.5" hidden="1" customHeight="1">
+    <row r="229" ht="22.5" customHeight="1">
       <c r="A229" s="7">
         <v>45880.538584849535</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" ht="22.5" hidden="1" customHeight="1">
+    <row r="230" ht="22.5" customHeight="1">
       <c r="A230" s="7">
         <v>45880.541264722226</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" ht="22.5" hidden="1" customHeight="1">
+    <row r="231" ht="22.5" customHeight="1">
       <c r="A231" s="7">
         <v>45880.54611083333</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" ht="22.5" hidden="1" customHeight="1">
+    <row r="232" ht="22.5" customHeight="1">
       <c r="A232" s="7">
         <v>45880.54615197917</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" ht="22.5" hidden="1" customHeight="1">
+    <row r="233" ht="22.5" customHeight="1">
       <c r="A233" s="7">
         <v>45880.54618255787</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" ht="22.5" hidden="1" customHeight="1">
+    <row r="234" ht="22.5" customHeight="1">
       <c r="A234" s="7">
         <v>45880.54865315973</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" ht="22.5" hidden="1" customHeight="1">
+    <row r="235" ht="22.5" customHeight="1">
       <c r="A235" s="7">
         <v>45880.549718194445</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" ht="22.5" hidden="1" customHeight="1">
+    <row r="236" ht="22.5" customHeight="1">
       <c r="A236" s="7">
         <v>45880.55359684028</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" ht="22.5" hidden="1" customHeight="1">
+    <row r="237" ht="22.5" customHeight="1">
       <c r="A237" s="7">
         <v>45880.55380819444</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" ht="22.5" hidden="1" customHeight="1">
+    <row r="238" ht="22.5" customHeight="1">
       <c r="A238" s="7">
         <v>45880.55491337963</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" ht="22.5" hidden="1" customHeight="1">
+    <row r="239" ht="22.5" customHeight="1">
       <c r="A239" s="7">
         <v>45880.572024375</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" ht="22.5" hidden="1" customHeight="1">
+    <row r="240" ht="22.5" customHeight="1">
       <c r="A240" s="7">
         <v>45880.58442539352</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" ht="22.5" hidden="1" customHeight="1">
+    <row r="241" ht="22.5" customHeight="1">
       <c r="A241" s="7">
         <v>45881.56381349537</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" ht="22.5" hidden="1" customHeight="1">
+    <row r="242" ht="22.5" customHeight="1">
       <c r="A242" s="7">
         <v>45881.56456222222</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" ht="22.5" hidden="1" customHeight="1">
+    <row r="243" ht="22.5" customHeight="1">
       <c r="A243" s="7">
         <v>45881.56580266204</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" ht="22.5" hidden="1" customHeight="1">
+    <row r="244" ht="22.5" customHeight="1">
       <c r="A244" s="7">
         <v>45881.565804768514</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" ht="22.5" hidden="1" customHeight="1">
+    <row r="245" ht="22.5" customHeight="1">
       <c r="A245" s="7">
         <v>45881.566490625</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" ht="22.5" hidden="1" customHeight="1">
+    <row r="246" ht="22.5" customHeight="1">
       <c r="A246" s="7">
         <v>45881.57044621528</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" ht="22.5" hidden="1" customHeight="1">
+    <row r="247" ht="22.5" customHeight="1">
       <c r="A247" s="7">
         <v>45881.57229568287</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" ht="22.5" hidden="1" customHeight="1">
+    <row r="248" ht="22.5" customHeight="1">
       <c r="A248" s="7">
         <v>45881.58404105324</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" ht="22.5" hidden="1" customHeight="1">
+    <row r="249" ht="22.5" customHeight="1">
       <c r="A249" s="7">
         <v>45881.58483949074</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" ht="22.5" hidden="1" customHeight="1">
+    <row r="250" ht="22.5" customHeight="1">
       <c r="A250" s="7">
         <v>45881.59085554398</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" ht="22.5" hidden="1" customHeight="1">
+    <row r="251" ht="22.5" customHeight="1">
       <c r="A251" s="7">
         <v>45881.59144765046</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" ht="22.5" hidden="1" customHeight="1">
+    <row r="252" ht="22.5" customHeight="1">
       <c r="A252" s="7">
         <v>45881.59487472222</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" ht="22.5" hidden="1" customHeight="1">
+    <row r="253" ht="22.5" customHeight="1">
       <c r="A253" s="7">
         <v>45881.60903585648</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" ht="22.5" hidden="1" customHeight="1">
+    <row r="254" ht="22.5" customHeight="1">
       <c r="A254" s="7">
         <v>45881.61132185185</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" ht="22.5" hidden="1" customHeight="1">
+    <row r="255" ht="22.5" customHeight="1">
       <c r="A255" s="7">
         <v>45881.623065127314</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" ht="22.5" hidden="1" customHeight="1">
+    <row r="256" ht="22.5" customHeight="1">
       <c r="A256" s="7">
         <v>45881.926884016204</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" ht="22.5" hidden="1" customHeight="1">
+    <row r="257" ht="22.5" customHeight="1">
       <c r="A257" s="7">
         <v>45882.93700155093</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" ht="22.5" hidden="1" customHeight="1">
+    <row r="258" ht="22.5" customHeight="1">
       <c r="A258" s="7">
         <v>45882.95459774305</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" ht="22.5" hidden="1" customHeight="1">
+    <row r="259" ht="22.5" customHeight="1">
       <c r="A259" s="7">
         <v>45882.95476893519</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" ht="22.5" hidden="1" customHeight="1">
+    <row r="260" ht="22.5" customHeight="1">
       <c r="A260" s="7">
         <v>45882.95729045139</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" ht="22.5" hidden="1" customHeight="1">
+    <row r="261" ht="22.5" customHeight="1">
       <c r="A261" s="7">
         <v>45883.01153103009</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" ht="22.5" hidden="1" customHeight="1">
+    <row r="262" ht="22.5" customHeight="1">
       <c r="A262" s="7">
         <v>45883.016146574075</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" ht="22.5" hidden="1" customHeight="1">
+    <row r="263" ht="22.5" customHeight="1">
       <c r="A263" s="7">
         <v>45884.60465429398</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" ht="22.5" hidden="1" customHeight="1">
+    <row r="264" ht="22.5" customHeight="1">
       <c r="A264" s="7">
         <v>45884.612344085646</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" ht="22.5" hidden="1" customHeight="1">
+    <row r="265" ht="22.5" customHeight="1">
       <c r="A265" s="7">
         <v>45884.626472187505</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" ht="22.5" hidden="1" customHeight="1">
+    <row r="266" ht="22.5" customHeight="1">
       <c r="A266" s="7">
         <v>45884.63373962963</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" ht="22.5" hidden="1" customHeight="1">
+    <row r="267" ht="22.5" customHeight="1">
       <c r="A267" s="7">
         <v>45884.662501388884</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" ht="22.5" hidden="1" customHeight="1">
+    <row r="268" ht="22.5" customHeight="1">
       <c r="A268" s="7">
         <v>45884.710062569444</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" ht="22.5" hidden="1" customHeight="1">
+    <row r="269" ht="22.5" customHeight="1">
       <c r="A269" s="7">
         <v>45885.49854734953</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" ht="22.5" hidden="1" customHeight="1">
+    <row r="270" ht="22.5" customHeight="1">
       <c r="A270" s="7">
         <v>45885.500254548606</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" ht="22.5" hidden="1" customHeight="1">
+    <row r="271" ht="22.5" customHeight="1">
       <c r="A271" s="7">
         <v>45885.50038277778</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" ht="22.5" hidden="1" customHeight="1">
+    <row r="272" ht="22.5" customHeight="1">
       <c r="A272" s="7">
         <v>45885.50532456019</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" ht="22.5" hidden="1" customHeight="1">
+    <row r="273" ht="22.5" customHeight="1">
       <c r="A273" s="7">
         <v>45885.51195951389</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" ht="22.5" hidden="1" customHeight="1">
+    <row r="274" ht="22.5" customHeight="1">
       <c r="A274" s="7">
         <v>45885.51503041667</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" ht="22.5" hidden="1" customHeight="1">
+    <row r="275" ht="22.5" customHeight="1">
       <c r="A275" s="7">
         <v>45885.51787145833</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" ht="22.5" hidden="1" customHeight="1">
+    <row r="276" ht="22.5" customHeight="1">
       <c r="A276" s="7">
         <v>45885.52090483796</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" ht="22.5" hidden="1" customHeight="1">
+    <row r="277" ht="22.5" customHeight="1">
       <c r="A277" s="7">
         <v>45885.53089173611</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" ht="22.5" hidden="1" customHeight="1">
+    <row r="278" ht="22.5" customHeight="1">
       <c r="A278" s="7">
         <v>45885.5621744213</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" ht="22.5" hidden="1" customHeight="1">
+    <row r="279" ht="22.5" customHeight="1">
       <c r="A279" s="7">
         <v>45885.583645763894</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" ht="22.5" hidden="1" customHeight="1">
+    <row r="280" ht="22.5" customHeight="1">
       <c r="A280" s="7">
         <v>45885.58733087963</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" ht="22.5" hidden="1" customHeight="1">
+    <row r="281" ht="22.5" customHeight="1">
       <c r="A281" s="7">
         <v>45885.620955763894</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" ht="22.5" hidden="1" customHeight="1">
+    <row r="282" ht="22.5" customHeight="1">
       <c r="A282" s="7">
         <v>45886.59570515047</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" ht="22.5" hidden="1" customHeight="1">
+    <row r="283" ht="22.5" customHeight="1">
       <c r="A283" s="7">
         <v>45886.59683637731</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" ht="22.5" hidden="1" customHeight="1">
+    <row r="284" ht="22.5" customHeight="1">
       <c r="A284" s="7">
         <v>45886.597412731484</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" ht="22.5" hidden="1" customHeight="1">
+    <row r="285" ht="22.5" customHeight="1">
       <c r="A285" s="7">
         <v>45886.597419224534</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286" ht="22.5" hidden="1" customHeight="1">
+    <row r="286" ht="22.5" customHeight="1">
       <c r="A286" s="7">
         <v>45886.5979228125</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" ht="22.5" hidden="1" customHeight="1">
+    <row r="287" ht="22.5" customHeight="1">
       <c r="A287" s="7">
         <v>45886.599403796296</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" ht="22.5" hidden="1" customHeight="1">
+    <row r="288" ht="22.5" customHeight="1">
       <c r="A288" s="7">
         <v>45886.60077070602</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" ht="22.5" hidden="1" customHeight="1">
+    <row r="289" ht="22.5" customHeight="1">
       <c r="A289" s="7">
         <v>45886.61433675926</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" ht="22.5" hidden="1" customHeight="1">
+    <row r="290" ht="22.5" customHeight="1">
       <c r="A290" s="7">
         <v>45886.62681857639</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" ht="22.5" hidden="1" customHeight="1">
+    <row r="291" ht="22.5" customHeight="1">
       <c r="A291" s="7">
         <v>45886.64396107639</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" ht="22.5" hidden="1" customHeight="1">
+    <row r="292" ht="22.5" customHeight="1">
       <c r="A292" s="7">
         <v>45886.69234013889</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="293" ht="22.5" hidden="1" customHeight="1">
+    <row r="293" ht="22.5" customHeight="1">
       <c r="A293" s="7">
         <v>45887.80681974537</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" ht="22.5" hidden="1" customHeight="1">
+    <row r="294" ht="22.5" customHeight="1">
       <c r="A294" s="7">
         <v>45887.80780891204</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" ht="22.5" hidden="1" customHeight="1">
+    <row r="295" ht="22.5" customHeight="1">
       <c r="A295" s="7">
         <v>45887.8201696412</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" ht="22.5" hidden="1" customHeight="1">
+    <row r="296" ht="22.5" customHeight="1">
       <c r="A296" s="7">
         <v>45887.820344733795</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" ht="22.5" hidden="1" customHeight="1">
+    <row r="297" ht="22.5" customHeight="1">
       <c r="A297" s="7">
         <v>45887.82048631944</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" ht="22.5" hidden="1" customHeight="1">
+    <row r="298" ht="22.5" customHeight="1">
       <c r="A298" s="7">
         <v>45887.82623472222</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" ht="22.5" hidden="1" customHeight="1">
+    <row r="299" ht="22.5" customHeight="1">
       <c r="A299" s="7">
         <v>45887.82677414352</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" ht="22.5" hidden="1" customHeight="1">
+    <row r="300" ht="22.5" customHeight="1">
       <c r="A300" s="7">
         <v>45887.826801550924</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" ht="22.5" hidden="1" customHeight="1">
+    <row r="301" ht="22.5" customHeight="1">
       <c r="A301" s="7">
         <v>45887.82692291666</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" ht="22.5" hidden="1" customHeight="1">
+    <row r="302" ht="22.5" customHeight="1">
       <c r="A302" s="7">
         <v>45887.829075625</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" ht="22.5" hidden="1" customHeight="1">
+    <row r="303" ht="22.5" customHeight="1">
       <c r="A303" s="7">
         <v>45887.82933561342</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" ht="22.5" hidden="1" customHeight="1">
+    <row r="304" ht="22.5" customHeight="1">
       <c r="A304" s="7">
         <v>45887.83089809028</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" ht="22.5" hidden="1" customHeight="1">
+    <row r="305" ht="22.5" customHeight="1">
       <c r="A305" s="7">
         <v>45888.760221122684</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="306" ht="22.5" hidden="1" customHeight="1">
+    <row r="306" ht="22.5" customHeight="1">
       <c r="A306" s="7">
         <v>45888.7645680787</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" ht="22.5" hidden="1" customHeight="1">
+    <row r="307" ht="22.5" customHeight="1">
       <c r="A307" s="7">
         <v>45888.7646030787</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" ht="22.5" hidden="1" customHeight="1">
+    <row r="308" ht="22.5" customHeight="1">
       <c r="A308" s="7">
         <v>45888.76485273148</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" ht="22.5" hidden="1" customHeight="1">
+    <row r="309" ht="22.5" customHeight="1">
       <c r="A309" s="7">
         <v>45888.76493842593</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" ht="22.5" hidden="1" customHeight="1">
+    <row r="310" ht="22.5" customHeight="1">
       <c r="A310" s="7">
         <v>45888.765548958334</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" ht="22.5" hidden="1" customHeight="1">
+    <row r="311" ht="22.5" customHeight="1">
       <c r="A311" s="7">
         <v>45888.767235300926</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" ht="22.5" hidden="1" customHeight="1">
+    <row r="312" ht="22.5" customHeight="1">
       <c r="A312" s="7">
         <v>45888.77713957176</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" ht="22.5" hidden="1" customHeight="1">
+    <row r="313" ht="22.5" customHeight="1">
       <c r="A313" s="7">
         <v>45888.77862491898</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" ht="22.5" hidden="1" customHeight="1">
+    <row r="314" ht="22.5" customHeight="1">
       <c r="A314" s="7">
         <v>45888.78136577546</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" ht="22.5" hidden="1" customHeight="1">
+    <row r="315" ht="22.5" customHeight="1">
       <c r="A315" s="7">
         <v>45888.782121550925</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" ht="22.5" hidden="1" customHeight="1">
+    <row r="316" ht="22.5" customHeight="1">
       <c r="A316" s="7">
         <v>45888.785798530094</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" ht="22.5" hidden="1" customHeight="1">
+    <row r="317" ht="22.5" customHeight="1">
       <c r="A317" s="7">
         <v>45888.79060194445</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" ht="22.5" hidden="1" customHeight="1">
+    <row r="318" ht="22.5" customHeight="1">
       <c r="A318" s="7">
         <v>45888.89795372685</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="319" ht="22.5" hidden="1" customHeight="1">
+    <row r="319" ht="22.5" customHeight="1">
       <c r="A319" s="7">
         <v>45889.94797793981</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" ht="22.5" hidden="1" customHeight="1">
+    <row r="320" ht="22.5" customHeight="1">
       <c r="A320" s="7">
         <v>45889.94809167824</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" ht="22.5" hidden="1" customHeight="1">
+    <row r="321" ht="22.5" customHeight="1">
       <c r="A321" s="7">
         <v>45889.94832726852</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="322" ht="22.5" hidden="1" customHeight="1">
+    <row r="322" ht="22.5" customHeight="1">
       <c r="A322" s="7">
         <v>45889.95455005787</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" ht="22.5" hidden="1" customHeight="1">
+    <row r="323" ht="22.5" customHeight="1">
       <c r="A323" s="7">
         <v>45889.95504502315</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="324" ht="22.5" hidden="1" customHeight="1">
+    <row r="324" ht="22.5" customHeight="1">
       <c r="A324" s="7">
         <v>45889.96889971065</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" ht="22.5" hidden="1" customHeight="1">
+    <row r="325" ht="22.5" customHeight="1">
       <c r="A325" s="7">
         <v>45889.98676533565</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="326" ht="22.5" hidden="1" customHeight="1">
+    <row r="326" ht="22.5" customHeight="1">
       <c r="A326" s="7">
         <v>45889.98685667824</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" ht="22.5" hidden="1" customHeight="1">
+    <row r="327" ht="22.5" customHeight="1">
       <c r="A327" s="7">
         <v>45889.98687685185</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" ht="22.5" hidden="1" customHeight="1">
+    <row r="328" ht="22.5" customHeight="1">
       <c r="A328" s="7">
         <v>45889.98697021991</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" ht="22.5" hidden="1" customHeight="1">
+    <row r="329" ht="22.5" customHeight="1">
       <c r="A329" s="7">
         <v>45889.992430115744</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" ht="22.5" hidden="1" customHeight="1">
+    <row r="330" ht="22.5" customHeight="1">
       <c r="A330" s="7">
         <v>45889.99581070602</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="331" ht="22.5" hidden="1" customHeight="1">
+    <row r="331" ht="22.5" customHeight="1">
       <c r="A331" s="7">
         <v>45889.99794810185</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" ht="22.5" hidden="1" customHeight="1">
+    <row r="332" ht="22.5" customHeight="1">
       <c r="A332" s="7">
         <v>45889.99817356482</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" ht="22.5" hidden="1" customHeight="1">
+    <row r="333" ht="22.5" customHeight="1">
       <c r="A333" s="7">
         <v>45891.519064803244</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="334" ht="22.5" hidden="1" customHeight="1">
+    <row r="334" ht="22.5" customHeight="1">
       <c r="A334" s="7">
         <v>45891.52769538194</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" ht="22.5" hidden="1" customHeight="1">
+    <row r="335" ht="22.5" customHeight="1">
       <c r="A335" s="7">
         <v>45891.541321365745</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" ht="22.5" hidden="1" customHeight="1">
+    <row r="336" ht="22.5" customHeight="1">
       <c r="A336" s="7">
         <v>45891.57888226851</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337" ht="22.5" hidden="1" customHeight="1">
+    <row r="337" ht="22.5" customHeight="1">
       <c r="A337" s="7">
         <v>45891.583185138894</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" ht="22.5" hidden="1" customHeight="1">
+    <row r="338" ht="22.5" customHeight="1">
       <c r="A338" s="7">
         <v>45891.587726157406</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="339" ht="22.5" hidden="1" customHeight="1">
+    <row r="339" ht="22.5" customHeight="1">
       <c r="A339" s="7">
         <v>45891.58951978009</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" ht="22.5" hidden="1" customHeight="1">
+    <row r="340" ht="22.5" customHeight="1">
       <c r="A340" s="7">
         <v>45891.640015150464</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="341" ht="22.5" hidden="1" customHeight="1">
+    <row r="341" ht="22.5" customHeight="1">
       <c r="A341" s="7">
         <v>45891.65338053241</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" ht="22.5" hidden="1" customHeight="1">
+    <row r="342" ht="22.5" customHeight="1">
       <c r="A342" s="7">
         <v>45891.72987087963</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="343" ht="22.5" hidden="1" customHeight="1">
+    <row r="343" ht="22.5" customHeight="1">
       <c r="A343" s="7">
         <v>45891.762696053236</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="344" ht="22.5" hidden="1" customHeight="1">
+    <row r="344" ht="22.5" customHeight="1">
       <c r="A344" s="7">
         <v>45892.4655993287</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" ht="22.5" hidden="1" customHeight="1">
+    <row r="345" ht="22.5" customHeight="1">
       <c r="A345" s="7">
         <v>45892.47555128472</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="346" ht="22.5" hidden="1" customHeight="1">
+    <row r="346" ht="22.5" customHeight="1">
       <c r="A346" s="7">
         <v>45892.49234246528</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" ht="22.5" hidden="1" customHeight="1">
+    <row r="347" ht="22.5" customHeight="1">
       <c r="A347" s="7">
         <v>45892.50115118056</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" ht="22.5" hidden="1" customHeight="1">
+    <row r="348" ht="22.5" customHeight="1">
       <c r="A348" s="7">
         <v>45892.50453826389</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" ht="22.5" hidden="1" customHeight="1">
+    <row r="349" ht="22.5" customHeight="1">
       <c r="A349" s="7">
         <v>45892.50476327546</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" ht="22.5" hidden="1" customHeight="1">
+    <row r="350" ht="22.5" customHeight="1">
       <c r="A350" s="7">
         <v>45892.50504096065</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" ht="22.5" hidden="1" customHeight="1">
+    <row r="351" ht="22.5" customHeight="1">
       <c r="A351" s="7">
         <v>45892.50620565972</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" ht="22.5" hidden="1" customHeight="1">
+    <row r="352" ht="22.5" customHeight="1">
       <c r="A352" s="7">
         <v>45892.508089560186</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" ht="22.5" hidden="1" customHeight="1">
+    <row r="353" ht="22.5" customHeight="1">
       <c r="A353" s="7">
         <v>45892.508273113424</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="354" ht="22.5" hidden="1" customHeight="1">
+    <row r="354" ht="22.5" customHeight="1">
       <c r="A354" s="7">
         <v>45892.51140020833</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="355" ht="22.5" hidden="1" customHeight="1">
+    <row r="355" ht="22.5" customHeight="1">
       <c r="A355" s="7">
         <v>45892.528551875</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" ht="22.5" hidden="1" customHeight="1">
+    <row r="356" ht="22.5" customHeight="1">
       <c r="A356" s="7">
         <v>45892.53454490741</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="357" ht="22.5" hidden="1" customHeight="1">
+    <row r="357" ht="22.5" customHeight="1">
       <c r="A357" s="7">
         <v>45892.583796122686</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="358" ht="22.5" hidden="1" customHeight="1">
+    <row r="358" ht="22.5" customHeight="1">
       <c r="A358" s="7">
         <v>45893.61294559028</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="359" ht="22.5" hidden="1" customHeight="1">
+    <row r="359" ht="22.5" customHeight="1">
       <c r="A359" s="7">
         <v>45893.62883988426</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" ht="22.5" hidden="1" customHeight="1">
+    <row r="360" ht="22.5" customHeight="1">
       <c r="A360" s="7">
         <v>45893.635516828705</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" ht="22.5" hidden="1" customHeight="1">
+    <row r="361" ht="22.5" customHeight="1">
       <c r="A361" s="7">
         <v>45893.63579619213</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" ht="22.5" hidden="1" customHeight="1">
+    <row r="362" ht="22.5" customHeight="1">
       <c r="A362" s="7">
         <v>45893.635811782406</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" ht="22.5" hidden="1" customHeight="1">
+    <row r="363" ht="22.5" customHeight="1">
       <c r="A363" s="7">
         <v>45893.636247291666</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="364" ht="22.5" hidden="1" customHeight="1">
+    <row r="364" ht="22.5" customHeight="1">
       <c r="A364" s="7">
         <v>45893.63690542824</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="365" ht="22.5" hidden="1" customHeight="1">
+    <row r="365" ht="22.5" customHeight="1">
       <c r="A365" s="7">
         <v>45893.64869649305</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="366" ht="22.5" hidden="1" customHeight="1">
+    <row r="366" ht="22.5" customHeight="1">
       <c r="A366" s="7">
         <v>45893.663504421296</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="367" ht="22.5" hidden="1" customHeight="1">
+    <row r="367" ht="22.5" customHeight="1">
       <c r="A367" s="7">
         <v>45893.66973616898</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" ht="22.5" hidden="1" customHeight="1">
+    <row r="368" ht="22.5" customHeight="1">
       <c r="A368" s="7">
         <v>45893.67024731482</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" ht="22.5" hidden="1" customHeight="1">
+    <row r="369" ht="22.5" customHeight="1">
       <c r="A369" s="7">
         <v>45895.54583229167</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="370" ht="22.5" hidden="1" customHeight="1">
+    <row r="370" ht="22.5" customHeight="1">
       <c r="A370" s="7">
         <v>45895.55165019676</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="371" ht="22.5" hidden="1" customHeight="1">
+    <row r="371" ht="22.5" customHeight="1">
       <c r="A371" s="7">
         <v>45895.55329052084</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" ht="22.5" hidden="1" customHeight="1">
+    <row r="372" ht="22.5" customHeight="1">
       <c r="A372" s="7">
         <v>45895.55397601852</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="373" ht="22.5" hidden="1" customHeight="1">
+    <row r="373" ht="22.5" customHeight="1">
       <c r="A373" s="7">
         <v>45895.55865293981</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="374" ht="22.5" hidden="1" customHeight="1">
+    <row r="374" ht="22.5" customHeight="1">
       <c r="A374" s="7">
         <v>45895.563294085645</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="375" ht="22.5" hidden="1" customHeight="1">
+    <row r="375" ht="22.5" customHeight="1">
       <c r="A375" s="7">
         <v>45895.56919844907</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="376" ht="22.5" hidden="1" customHeight="1">
+    <row r="376" ht="22.5" customHeight="1">
       <c r="A376" s="7">
         <v>45895.58391318287</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="377" ht="22.5" hidden="1" customHeight="1">
+    <row r="377" ht="22.5" customHeight="1">
       <c r="A377" s="7">
         <v>45895.58935376158</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" ht="22.5" hidden="1" customHeight="1">
+    <row r="378" ht="22.5" customHeight="1">
       <c r="A378" s="7">
         <v>45895.67312236111</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" ht="22.5" hidden="1" customHeight="1">
+    <row r="379" ht="22.5" customHeight="1">
       <c r="A379" s="7">
         <v>45895.69975332176</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" ht="22.5" hidden="1" customHeight="1">
+    <row r="380" ht="22.5" customHeight="1">
       <c r="A380" s="7">
         <v>45896.55440020833</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="381" ht="22.5" hidden="1" customHeight="1">
+    <row r="381" ht="22.5" customHeight="1">
       <c r="A381" s="7">
         <v>45896.559215138885</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="382" ht="22.5" hidden="1" customHeight="1">
+    <row r="382" ht="22.5" customHeight="1">
       <c r="A382" s="7">
         <v>45896.56802366898</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="383" ht="22.5" hidden="1" customHeight="1">
+    <row r="383" ht="22.5" customHeight="1">
       <c r="A383" s="7">
         <v>45896.57289052084</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" ht="22.5" hidden="1" customHeight="1">
+    <row r="384" ht="22.5" customHeight="1">
       <c r="A384" s="7">
         <v>45896.58111697917</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" ht="22.5" hidden="1" customHeight="1">
+    <row r="385" ht="22.5" customHeight="1">
       <c r="A385" s="7">
         <v>45896.60956803241</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="386" ht="22.5" hidden="1" customHeight="1">
+    <row r="386" ht="22.5" customHeight="1">
       <c r="A386" s="7">
         <v>45896.63098405093</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="387" ht="22.5" hidden="1" customHeight="1">
+    <row r="387" ht="22.5" customHeight="1">
       <c r="A387" s="7">
         <v>45896.681825381944</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="388" ht="22.5" hidden="1" customHeight="1">
+    <row r="388" ht="22.5" customHeight="1">
       <c r="A388" s="7">
         <v>45896.82693217593</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="389" ht="22.5" hidden="1" customHeight="1">
+    <row r="389" ht="22.5" customHeight="1">
       <c r="A389" s="7">
         <v>45897.4342965625</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="390" ht="22.5" hidden="1" customHeight="1">
+    <row r="390" ht="22.5" customHeight="1">
       <c r="A390" s="7">
         <v>45897.8981194213</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" ht="22.5" hidden="1" customHeight="1">
+    <row r="391" ht="22.5" customHeight="1">
       <c r="A391" s="7">
         <v>45897.89834753472</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="392" ht="22.5" hidden="1" customHeight="1">
+    <row r="392" ht="22.5" customHeight="1">
       <c r="A392" s="7">
         <v>45897.901761898145</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" ht="22.5" hidden="1" customHeight="1">
+    <row r="393" ht="22.5" customHeight="1">
       <c r="A393" s="7">
         <v>45897.905216354164</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" ht="22.5" hidden="1" customHeight="1">
+    <row r="394" ht="22.5" customHeight="1">
       <c r="A394" s="7">
         <v>45897.90637956018</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" ht="22.5" hidden="1" customHeight="1">
+    <row r="395" ht="22.5" customHeight="1">
       <c r="A395" s="7">
         <v>45897.90919835649</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" ht="22.5" hidden="1" customHeight="1">
+    <row r="396" ht="22.5" customHeight="1">
       <c r="A396" s="7">
         <v>45897.91482943287</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" ht="22.5" hidden="1" customHeight="1">
+    <row r="397" ht="22.5" customHeight="1">
       <c r="A397" s="7">
         <v>45897.926547372685</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" ht="22.5" hidden="1" customHeight="1">
+    <row r="398" ht="22.5" customHeight="1">
       <c r="A398" s="7">
         <v>45897.93368364584</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" ht="22.5" hidden="1" customHeight="1">
+    <row r="399" ht="22.5" customHeight="1">
       <c r="A399" s="7">
         <v>45898.5588016088</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="400" ht="22.5" hidden="1" customHeight="1">
+    <row r="400" ht="22.5" customHeight="1">
       <c r="A400" s="7">
         <v>45898.57760391204</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" ht="22.5" hidden="1" customHeight="1">
+    <row r="401" ht="22.5" customHeight="1">
       <c r="A401" s="7">
         <v>45898.58391987269</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="402" ht="22.5" hidden="1" customHeight="1">
+    <row r="402" ht="22.5" customHeight="1">
       <c r="A402" s="7">
         <v>45898.60859103009</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="403" ht="22.5" hidden="1" customHeight="1">
+    <row r="403" ht="22.5" customHeight="1">
       <c r="A403" s="7">
         <v>45898.610556898144</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" ht="22.5" hidden="1" customHeight="1">
+    <row r="404" ht="22.5" customHeight="1">
       <c r="A404" s="7">
         <v>45898.634029594905</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="405" ht="22.5" hidden="1" customHeight="1">
+    <row r="405" ht="22.5" customHeight="1">
       <c r="A405" s="7">
         <v>45898.64694358796</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" ht="22.5" hidden="1" customHeight="1">
+    <row r="406" ht="22.5" customHeight="1">
       <c r="A406" s="7">
         <v>45899.62866052083</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="407" ht="22.5" hidden="1" customHeight="1">
+    <row r="407" ht="22.5" customHeight="1">
       <c r="A407" s="7">
         <v>45899.633389062496</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="408" ht="22.5" hidden="1" customHeight="1">
+    <row r="408" ht="22.5" customHeight="1">
       <c r="A408" s="7">
         <v>45899.65121561343</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="409" ht="22.5" hidden="1" customHeight="1">
+    <row r="409" ht="22.5" customHeight="1">
       <c r="A409" s="7">
         <v>45899.65198822916</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="410" ht="22.5" hidden="1" customHeight="1">
+    <row r="410" ht="22.5" customHeight="1">
       <c r="A410" s="7">
         <v>45899.65470646991</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="411" ht="22.5" hidden="1" customHeight="1">
+    <row r="411" ht="22.5" customHeight="1">
       <c r="A411" s="7">
         <v>45899.68458782407</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="412" ht="22.5" hidden="1" customHeight="1">
+    <row r="412" ht="22.5" customHeight="1">
       <c r="A412" s="7">
         <v>45899.68521365741</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="413" ht="22.5" hidden="1" customHeight="1">
+    <row r="413" ht="22.5" customHeight="1">
       <c r="A413" s="7">
         <v>45899.69000982639</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="414" ht="22.5" hidden="1" customHeight="1">
+    <row r="414" ht="22.5" customHeight="1">
       <c r="A414" s="7">
         <v>45899.70623444444</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="415" ht="22.5" hidden="1" customHeight="1">
+    <row r="415" ht="22.5" customHeight="1">
       <c r="A415" s="7">
         <v>45900.90144605324</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" ht="22.5" hidden="1" customHeight="1">
+    <row r="416" ht="22.5" customHeight="1">
       <c r="A416" s="7">
         <v>45900.90280681713</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="417" ht="22.5" hidden="1" customHeight="1">
+    <row r="417" ht="22.5" customHeight="1">
       <c r="A417" s="7">
         <v>45900.906368634256</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" ht="22.5" hidden="1" customHeight="1">
+    <row r="418" ht="22.5" customHeight="1">
       <c r="A418" s="7">
         <v>45900.911034537035</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" ht="22.5" hidden="1" customHeight="1">
+    <row r="419" ht="22.5" customHeight="1">
       <c r="A419" s="7">
         <v>45900.9111315162</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="420" ht="22.5" hidden="1" customHeight="1">
+    <row r="420" ht="22.5" customHeight="1">
       <c r="A420" s="7">
         <v>45900.91120474537</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="421" ht="22.5" hidden="1" customHeight="1">
+    <row r="421" ht="22.5" customHeight="1">
       <c r="A421" s="7">
         <v>45900.91153305555</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="422" ht="22.5" hidden="1" customHeight="1">
+    <row r="422" ht="22.5" customHeight="1">
       <c r="A422" s="7">
         <v>45900.91169070602</v>
       </c>
@@ -10452,7 +10452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="423" ht="22.5" hidden="1" customHeight="1">
+    <row r="423" ht="22.5" customHeight="1">
       <c r="A423" s="7">
         <v>45900.93269518518</v>
       </c>
@@ -10475,7 +10475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="424" ht="22.5" hidden="1" customHeight="1">
+    <row r="424" ht="22.5" customHeight="1">
       <c r="A424" s="7">
         <v>45902.54691726852</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="425" ht="22.5" hidden="1" customHeight="1">
+    <row r="425" ht="22.5" customHeight="1">
       <c r="A425" s="7">
         <v>45902.787408495366</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="426" ht="22.5" hidden="1" customHeight="1">
+    <row r="426" ht="22.5" customHeight="1">
       <c r="A426" s="7">
         <v>45902.79305976852</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="427" ht="22.5" hidden="1" customHeight="1">
+    <row r="427" ht="22.5" customHeight="1">
       <c r="A427" s="7">
         <v>45902.7931893287</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="428" ht="22.5" hidden="1" customHeight="1">
+    <row r="428" ht="22.5" customHeight="1">
       <c r="A428" s="7">
         <v>45902.79320545139</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="429" ht="22.5" hidden="1" customHeight="1">
+    <row r="429" ht="22.5" customHeight="1">
       <c r="A429" s="7">
         <v>45902.79335136574</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="430" ht="22.5" hidden="1" customHeight="1">
+    <row r="430" ht="22.5" customHeight="1">
       <c r="A430" s="7">
         <v>45902.793404571756</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="431" ht="22.5" hidden="1" customHeight="1">
+    <row r="431" ht="22.5" customHeight="1">
       <c r="A431" s="7">
         <v>45902.793418761576</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" ht="22.5" hidden="1" customHeight="1">
+    <row r="432" ht="22.5" customHeight="1">
       <c r="A432" s="7">
         <v>45902.79345403935</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="433" ht="22.5" hidden="1" customHeight="1">
+    <row r="433" ht="22.5" customHeight="1">
       <c r="A433" s="7">
         <v>45902.79347388889</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="434" ht="22.5" hidden="1" customHeight="1">
+    <row r="434" ht="22.5" customHeight="1">
       <c r="A434" s="7">
         <v>45902.793527222224</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="435" ht="22.5" hidden="1" customHeight="1">
+    <row r="435" ht="22.5" customHeight="1">
       <c r="A435" s="7">
         <v>45902.79366715278</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="436" ht="22.5" hidden="1" customHeight="1">
+    <row r="436" ht="22.5" customHeight="1">
       <c r="A436" s="7">
         <v>45902.79383363426</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="437" ht="22.5" hidden="1" customHeight="1">
+    <row r="437" ht="22.5" customHeight="1">
       <c r="A437" s="7">
         <v>45902.79428682871</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="438" ht="22.5" hidden="1" customHeight="1">
+    <row r="438" ht="22.5" customHeight="1">
       <c r="A438" s="7">
         <v>45902.81828664352</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="439" ht="22.5" hidden="1" customHeight="1">
+    <row r="439" ht="22.5" customHeight="1">
       <c r="A439" s="7">
         <v>45903.90715950231</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="440" ht="22.5" hidden="1" customHeight="1">
+    <row r="440" ht="22.5" customHeight="1">
       <c r="A440" s="7">
         <v>45903.91298471065</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="441" ht="22.5" hidden="1" customHeight="1">
+    <row r="441" ht="22.5" customHeight="1">
       <c r="A441" s="7">
         <v>45903.940096342594</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="442" ht="22.5" hidden="1" customHeight="1">
+    <row r="442" ht="22.5" customHeight="1">
       <c r="A442" s="7">
         <v>45903.94010965277</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="443" ht="22.5" hidden="1" customHeight="1">
+    <row r="443" ht="22.5" customHeight="1">
       <c r="A443" s="7">
         <v>45903.9401828588</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" ht="22.5" hidden="1" customHeight="1">
+    <row r="444" ht="22.5" customHeight="1">
       <c r="A444" s="7">
         <v>45903.94133695602</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="445" ht="22.5" hidden="1" customHeight="1">
+    <row r="445" ht="22.5" customHeight="1">
       <c r="A445" s="7">
         <v>45903.94585633102</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="446" ht="22.5" hidden="1" customHeight="1">
+    <row r="446" ht="22.5" customHeight="1">
       <c r="A446" s="7">
         <v>45903.94846319444</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="447" ht="22.5" hidden="1" customHeight="1">
+    <row r="447" ht="22.5" customHeight="1">
       <c r="A447" s="7">
         <v>45903.948888784726</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" ht="22.5" hidden="1" customHeight="1">
+    <row r="448" ht="22.5" customHeight="1">
       <c r="A448" s="7">
         <v>45903.9518818287</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="449" ht="22.5" hidden="1" customHeight="1">
+    <row r="449" ht="22.5" customHeight="1">
       <c r="A449" s="7">
         <v>45903.95198028935</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" ht="22.5" hidden="1" customHeight="1">
+    <row r="450" ht="22.5" customHeight="1">
       <c r="A450" s="7">
         <v>45904.514027881945</v>
       </c>
@@ -11096,7 +11096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="451" ht="22.5" hidden="1" customHeight="1">
+    <row r="451" ht="22.5" customHeight="1">
       <c r="A451" s="7">
         <v>45905.56972813657</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" ht="22.5" hidden="1" customHeight="1">
+    <row r="452" ht="22.5" customHeight="1">
       <c r="A452" s="7">
         <v>45905.571888125</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="453" ht="22.5" hidden="1" customHeight="1">
+    <row r="453" ht="22.5" customHeight="1">
       <c r="A453" s="7">
         <v>45905.573581296296</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="454" ht="22.5" hidden="1" customHeight="1">
+    <row r="454" ht="22.5" customHeight="1">
       <c r="A454" s="7">
         <v>45905.574079722224</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="455" ht="22.5" hidden="1" customHeight="1">
+    <row r="455" ht="22.5" customHeight="1">
       <c r="A455" s="7">
         <v>45905.57410583334</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" ht="22.5" hidden="1" customHeight="1">
+    <row r="456" ht="22.5" customHeight="1">
       <c r="A456" s="7">
         <v>45905.57420003472</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="457" ht="22.5" hidden="1" customHeight="1">
+    <row r="457" ht="22.5" customHeight="1">
       <c r="A457" s="7">
         <v>45905.57455818287</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="458" ht="22.5" hidden="1" customHeight="1">
+    <row r="458" ht="22.5" customHeight="1">
       <c r="A458" s="7">
         <v>45905.5796371412</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="459" ht="22.5" hidden="1" customHeight="1">
+    <row r="459" ht="22.5" customHeight="1">
       <c r="A459" s="7">
         <v>45905.59211951389</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="460" ht="22.5" hidden="1" customHeight="1">
+    <row r="460" ht="22.5" customHeight="1">
       <c r="A460" s="7">
         <v>45905.81757451389</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="461" ht="22.5" hidden="1" customHeight="1">
+    <row r="461" ht="22.5" customHeight="1">
       <c r="A461" s="7">
         <v>45906.48569811342</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="462" ht="22.5" hidden="1" customHeight="1">
+    <row r="462" ht="22.5" customHeight="1">
       <c r="A462" s="7">
         <v>45906.49965324074</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="463" ht="22.5" hidden="1" customHeight="1">
+    <row r="463" ht="22.5" customHeight="1">
       <c r="A463" s="7">
         <v>45906.50025430556</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="464" ht="22.5" hidden="1" customHeight="1">
+    <row r="464" ht="22.5" customHeight="1">
       <c r="A464" s="7">
         <v>45906.505480381944</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" ht="22.5" hidden="1" customHeight="1">
+    <row r="465" ht="22.5" customHeight="1">
       <c r="A465" s="7">
         <v>45906.50549309028</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" ht="22.5" hidden="1" customHeight="1">
+    <row r="466" ht="22.5" customHeight="1">
       <c r="A466" s="7">
         <v>45906.508834050925</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="467" ht="22.5" hidden="1" customHeight="1">
+    <row r="467" ht="22.5" customHeight="1">
       <c r="A467" s="7">
         <v>45906.52029890046</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" ht="22.5" hidden="1" customHeight="1">
+    <row r="468" ht="22.5" customHeight="1">
       <c r="A468" s="7">
         <v>45906.5350072338</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="469" ht="22.5" hidden="1" customHeight="1">
+    <row r="469" ht="22.5" customHeight="1">
       <c r="A469" s="7">
         <v>45906.5430838426</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="470" ht="22.5" hidden="1" customHeight="1">
+    <row r="470" ht="22.5" customHeight="1">
       <c r="A470" s="7">
         <v>45906.54346671296</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="471" ht="22.5" hidden="1" customHeight="1">
+    <row r="471" ht="22.5" customHeight="1">
       <c r="A471" s="7">
         <v>45906.54483417824</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="472" ht="22.5" hidden="1" customHeight="1">
+    <row r="472" ht="22.5" customHeight="1">
       <c r="A472" s="7">
         <v>45906.54489310185</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="473" ht="22.5" hidden="1" customHeight="1">
+    <row r="473" ht="22.5" customHeight="1">
       <c r="A473" s="7">
         <v>45906.54673209491</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="474" ht="22.5" hidden="1" customHeight="1">
+    <row r="474" ht="22.5" customHeight="1">
       <c r="A474" s="7">
         <v>45906.55054292824</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" ht="22.5" hidden="1" customHeight="1">
+    <row r="475" ht="22.5" customHeight="1">
       <c r="A475" s="7">
         <v>45906.587619247686</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="476" ht="22.5" hidden="1" customHeight="1">
+    <row r="476" ht="22.5" customHeight="1">
       <c r="A476" s="7">
         <v>45906.729216493055</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="477" ht="22.5" hidden="1" customHeight="1">
+    <row r="477" ht="22.5" customHeight="1">
       <c r="A477" s="7">
         <v>45907.60135493056</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="478" ht="22.5" hidden="1" customHeight="1">
+    <row r="478" ht="22.5" customHeight="1">
       <c r="A478" s="7">
         <v>45907.60386018519</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="479" ht="22.5" hidden="1" customHeight="1">
+    <row r="479" ht="22.5" customHeight="1">
       <c r="A479" s="7">
         <v>45907.62391741898</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" ht="22.5" hidden="1" customHeight="1">
+    <row r="480" ht="22.5" customHeight="1">
       <c r="A480" s="7">
         <v>45907.62658390046</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" ht="22.5" hidden="1" customHeight="1">
+    <row r="481" ht="22.5" customHeight="1">
       <c r="A481" s="7">
         <v>45907.62676850695</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="482" ht="22.5" hidden="1" customHeight="1">
+    <row r="482" ht="22.5" customHeight="1">
       <c r="A482" s="7">
         <v>45907.62748900463</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="483" ht="22.5" hidden="1" customHeight="1">
+    <row r="483" ht="22.5" customHeight="1">
       <c r="A483" s="7">
         <v>45907.629629710646</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="484" ht="22.5" hidden="1" customHeight="1">
+    <row r="484" ht="22.5" customHeight="1">
       <c r="A484" s="7">
         <v>45907.654195243056</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="485" ht="22.5" hidden="1" customHeight="1">
+    <row r="485" ht="22.5" customHeight="1">
       <c r="A485" s="7">
         <v>45907.65492671296</v>
       </c>
@@ -11901,7 +11901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="486" ht="22.5" hidden="1" customHeight="1">
+    <row r="486" ht="22.5" customHeight="1">
       <c r="A486" s="7">
         <v>45907.655176354165</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="487" ht="22.5" hidden="1" customHeight="1">
+    <row r="487" ht="22.5" customHeight="1">
       <c r="A487" s="7">
         <v>45907.82524244213</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" ht="22.5" hidden="1" customHeight="1">
+    <row r="488" ht="22.5" customHeight="1">
       <c r="A488" s="7">
         <v>45910.57323637731</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" ht="22.5" hidden="1" customHeight="1">
+    <row r="489" ht="22.5" customHeight="1">
       <c r="A489" s="7">
         <v>45910.57614821759</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" ht="22.5" hidden="1" customHeight="1">
+    <row r="490" ht="22.5" customHeight="1">
       <c r="A490" s="7">
         <v>45910.579944004625</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="491" ht="22.5" hidden="1" customHeight="1">
+    <row r="491" ht="22.5" customHeight="1">
       <c r="A491" s="7">
         <v>45910.5832874537</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="492" ht="22.5" hidden="1" customHeight="1">
+    <row r="492" ht="22.5" customHeight="1">
       <c r="A492" s="7">
         <v>45910.58723038195</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="493" ht="22.5" hidden="1" customHeight="1">
+    <row r="493" ht="22.5" customHeight="1">
       <c r="A493" s="7">
         <v>45910.62457140046</v>
       </c>
@@ -12085,7 +12085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="494" ht="22.5" hidden="1" customHeight="1">
+    <row r="494" ht="22.5" customHeight="1">
       <c r="A494" s="7">
         <v>45910.62891006944</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="495" ht="22.5" hidden="1" customHeight="1">
+    <row r="495" ht="22.5" customHeight="1">
       <c r="A495" s="7">
         <v>45910.63076325231</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="496" ht="22.5" hidden="1" customHeight="1">
+    <row r="496" ht="22.5" customHeight="1">
       <c r="A496" s="7">
         <v>45910.63119001157</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="497" ht="22.5" hidden="1" customHeight="1">
+    <row r="497" ht="22.5" customHeight="1">
       <c r="A497" s="7">
         <v>45910.63385061343</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="498" ht="22.5" hidden="1" customHeight="1">
+    <row r="498" ht="22.5" customHeight="1">
       <c r="A498" s="7">
         <v>45910.6790316088</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="499" ht="22.5" hidden="1" customHeight="1">
+    <row r="499" ht="22.5" customHeight="1">
       <c r="A499" s="7">
         <v>45911.59851152777</v>
       </c>
@@ -12223,7 +12223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="500" ht="22.5" hidden="1" customHeight="1">
+    <row r="500" ht="22.5" customHeight="1">
       <c r="A500" s="7">
         <v>45911.60402442129</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="501" ht="22.5" hidden="1" customHeight="1">
+    <row r="501" ht="22.5" customHeight="1">
       <c r="A501" s="7">
         <v>45911.60627152778</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="502" ht="22.5" hidden="1" customHeight="1">
+    <row r="502" ht="22.5" customHeight="1">
       <c r="A502" s="7">
         <v>45911.613541203704</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" ht="22.5" hidden="1" customHeight="1">
+    <row r="503" ht="22.5" customHeight="1">
       <c r="A503" s="7">
         <v>45911.613673541666</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="504" ht="22.5" hidden="1" customHeight="1">
+    <row r="504" ht="22.5" customHeight="1">
       <c r="A504" s="7">
         <v>45911.61424219907</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" ht="22.5" hidden="1" customHeight="1">
+    <row r="505" ht="22.5" customHeight="1">
       <c r="A505" s="7">
         <v>45911.62619045139</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" ht="22.5" hidden="1" customHeight="1">
+    <row r="506" ht="22.5" customHeight="1">
       <c r="A506" s="7">
         <v>45911.68851206018</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="507" ht="22.5" hidden="1" customHeight="1">
+    <row r="507" ht="22.5" customHeight="1">
       <c r="A507" s="7">
         <v>45911.70296569444</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="508" ht="22.5" hidden="1" customHeight="1">
+    <row r="508" ht="22.5" customHeight="1">
       <c r="A508" s="7">
         <v>45912.579153865736</v>
       </c>
@@ -12430,7 +12430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" ht="22.5" hidden="1" customHeight="1">
+    <row r="509" ht="22.5" customHeight="1">
       <c r="A509" s="7">
         <v>45912.60522672454</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" ht="22.5" hidden="1" customHeight="1">
+    <row r="510" ht="22.5" customHeight="1">
       <c r="A510" s="7">
         <v>45912.612685925924</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="511" ht="22.5" hidden="1" customHeight="1">
+    <row r="511" ht="22.5" customHeight="1">
       <c r="A511" s="7">
         <v>45912.617971203705</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="512" ht="22.5" hidden="1" customHeight="1">
+    <row r="512" ht="22.5" customHeight="1">
       <c r="A512" s="7">
         <v>45912.62027303241</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="513" ht="22.5" hidden="1" customHeight="1">
+    <row r="513" ht="22.5" customHeight="1">
       <c r="A513" s="7">
         <v>45912.63352990741</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="514" ht="22.5" hidden="1" customHeight="1">
+    <row r="514" ht="22.5" customHeight="1">
       <c r="A514" s="7">
         <v>45912.63921241898</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="515" ht="22.5" hidden="1" customHeight="1">
+    <row r="515" ht="22.5" customHeight="1">
       <c r="A515" s="7">
         <v>45912.639495034724</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="516" ht="22.5" hidden="1" customHeight="1">
+    <row r="516" ht="22.5" customHeight="1">
       <c r="A516" s="7">
         <v>45912.6718869676</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" ht="22.5" hidden="1" customHeight="1">
+    <row r="517" ht="22.5" customHeight="1">
       <c r="A517" s="7">
         <v>45913.65250033565</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="518" ht="22.5" hidden="1" customHeight="1">
+    <row r="518" ht="22.5" customHeight="1">
       <c r="A518" s="7">
         <v>45913.652871886574</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="519" ht="22.5" hidden="1" customHeight="1">
+    <row r="519" ht="22.5" customHeight="1">
       <c r="A519" s="7">
         <v>45913.65300712963</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="520" ht="22.5" hidden="1" customHeight="1">
+    <row r="520" ht="22.5" customHeight="1">
       <c r="A520" s="7">
         <v>45913.66638368055</v>
       </c>
@@ -12706,7 +12706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="521" ht="22.5" hidden="1" customHeight="1">
+    <row r="521" ht="22.5" customHeight="1">
       <c r="A521" s="7">
         <v>45913.67273046296</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="522" ht="22.5" hidden="1" customHeight="1">
+    <row r="522" ht="22.5" customHeight="1">
       <c r="A522" s="7">
         <v>45913.674493865736</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="523" ht="22.5" hidden="1" customHeight="1">
+    <row r="523" ht="22.5" customHeight="1">
       <c r="A523" s="7">
         <v>45913.68571243055</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="524" ht="22.5" hidden="1" customHeight="1">
+    <row r="524" ht="22.5" customHeight="1">
       <c r="A524" s="7">
         <v>45913.693654780094</v>
       </c>
@@ -12798,7 +12798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="525" ht="22.5" hidden="1" customHeight="1">
+    <row r="525" ht="22.5" customHeight="1">
       <c r="A525" s="7">
         <v>45913.72478143519</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="526" ht="22.5" hidden="1" customHeight="1">
+    <row r="526" ht="22.5" customHeight="1">
       <c r="A526" s="7">
         <v>45913.72757228009</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="527" ht="22.5" hidden="1" customHeight="1">
+    <row r="527" ht="22.5" customHeight="1">
       <c r="A527" s="7">
         <v>45914.63785998843</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" ht="22.5" hidden="1" customHeight="1">
+    <row r="528" ht="22.5" customHeight="1">
       <c r="A528" s="7">
         <v>45914.66356909722</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="529" ht="22.5" hidden="1" customHeight="1">
+    <row r="529" ht="22.5" customHeight="1">
       <c r="A529" s="7">
         <v>45914.66891532407</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" ht="22.5" hidden="1" customHeight="1">
+    <row r="530" ht="22.5" customHeight="1">
       <c r="A530" s="7">
         <v>45914.67234131944</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="531" ht="22.5" hidden="1" customHeight="1">
+    <row r="531" ht="22.5" customHeight="1">
       <c r="A531" s="7">
         <v>45914.69976931713</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" ht="22.5" hidden="1" customHeight="1">
+    <row r="532" ht="22.5" customHeight="1">
       <c r="A532" s="7">
         <v>45914.714432002314</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" ht="22.5" hidden="1" customHeight="1">
+    <row r="533" ht="22.5" customHeight="1">
       <c r="A533" s="7">
         <v>45916.56380898148</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="534" ht="22.5" hidden="1" customHeight="1">
+    <row r="534" ht="22.5" customHeight="1">
       <c r="A534" s="7">
         <v>45916.56407141204</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="535" ht="22.5" hidden="1" customHeight="1">
+    <row r="535" ht="22.5" customHeight="1">
       <c r="A535" s="7">
         <v>45916.58846321759</v>
       </c>
@@ -13051,7 +13051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="536" ht="22.5" hidden="1" customHeight="1">
+    <row r="536" ht="22.5" customHeight="1">
       <c r="A536" s="7">
         <v>45916.59053890046</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="537" ht="22.5" hidden="1" customHeight="1">
+    <row r="537" ht="22.5" customHeight="1">
       <c r="A537" s="7">
         <v>45916.610671574075</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="538" ht="22.5" hidden="1" customHeight="1">
+    <row r="538" ht="22.5" customHeight="1">
       <c r="A538" s="7">
         <v>45916.61443313658</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" ht="22.5" hidden="1" customHeight="1">
+    <row r="539" ht="22.5" customHeight="1">
       <c r="A539" s="7">
         <v>45916.65232690972</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" ht="22.5" hidden="1" customHeight="1">
+    <row r="540" ht="22.5" customHeight="1">
       <c r="A540" s="7">
         <v>45916.69393574074</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="541" ht="22.5" hidden="1" customHeight="1">
+    <row r="541" ht="22.5" customHeight="1">
       <c r="A541" s="7">
         <v>45917.59426520833</v>
       </c>
@@ -13189,7 +13189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="542" ht="22.5" hidden="1" customHeight="1">
+    <row r="542" ht="22.5" customHeight="1">
       <c r="A542" s="7">
         <v>45917.606990659726</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="543" ht="22.5" hidden="1" customHeight="1">
+    <row r="543" ht="22.5" customHeight="1">
       <c r="A543" s="7">
         <v>45917.62054434028</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="544" ht="22.5" hidden="1" customHeight="1">
+    <row r="544" ht="22.5" customHeight="1">
       <c r="A544" s="7">
         <v>45917.62205252315</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="545" ht="22.5" hidden="1" customHeight="1">
+    <row r="545" ht="22.5" customHeight="1">
       <c r="A545" s="7">
         <v>45917.624638090274</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="546" ht="22.5" hidden="1" customHeight="1">
+    <row r="546" ht="22.5" customHeight="1">
       <c r="A546" s="7">
         <v>45917.62618160879</v>
       </c>
@@ -13304,7 +13304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="547" ht="22.5" hidden="1" customHeight="1">
+    <row r="547" ht="22.5" customHeight="1">
       <c r="A547" s="7">
         <v>45917.668413692125</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="548" ht="22.5" hidden="1" customHeight="1">
+    <row r="548" ht="22.5" customHeight="1">
       <c r="A548" s="7">
         <v>45918.91273657407</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="549" ht="22.5" hidden="1" customHeight="1">
+    <row r="549" ht="22.5" customHeight="1">
       <c r="A549" s="7">
         <v>45918.99149385416</v>
       </c>
@@ -13373,7 +13373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="550" ht="22.5" hidden="1" customHeight="1">
+    <row r="550" ht="22.5" customHeight="1">
       <c r="A550" s="7">
         <v>45919.00210643519</v>
       </c>
@@ -13396,7 +13396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="551" ht="22.5" hidden="1" customHeight="1">
+    <row r="551" ht="22.5" customHeight="1">
       <c r="A551" s="7">
         <v>45920.458808599535</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="552" ht="22.5" hidden="1" customHeight="1">
+    <row r="552" ht="22.5" customHeight="1">
       <c r="A552" s="7">
         <v>45920.48119659722</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="553" ht="22.5" hidden="1" customHeight="1">
+    <row r="553" ht="22.5" customHeight="1">
       <c r="A553" s="7">
         <v>45920.521896527775</v>
       </c>
@@ -13465,7 +13465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="554" ht="22.5" hidden="1" customHeight="1">
+    <row r="554" ht="22.5" customHeight="1">
       <c r="A554" s="7">
         <v>45920.52372331018</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="555" ht="22.5" hidden="1" customHeight="1">
+    <row r="555" ht="22.5" customHeight="1">
       <c r="A555" s="7">
         <v>45920.55358689815</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="556" ht="22.5" hidden="1" customHeight="1">
+    <row r="556" ht="22.5" customHeight="1">
       <c r="A556" s="7">
         <v>45920.55374766204</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="557" ht="22.5" hidden="1" customHeight="1">
+    <row r="557" ht="22.5" customHeight="1">
       <c r="A557" s="7">
         <v>45920.55873142361</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="558" ht="22.5" hidden="1" customHeight="1">
+    <row r="558" ht="22.5" customHeight="1">
       <c r="A558" s="7">
         <v>45921.514430613424</v>
       </c>
@@ -13580,7 +13580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="559" ht="22.5" hidden="1" customHeight="1">
+    <row r="559" ht="22.5" customHeight="1">
       <c r="A559" s="7">
         <v>45921.515066527776</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="560" ht="22.5" hidden="1" customHeight="1">
+    <row r="560" ht="22.5" customHeight="1">
       <c r="A560" s="7">
         <v>45921.515137407405</v>
       </c>
@@ -13626,7 +13626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="561" ht="22.5" hidden="1" customHeight="1">
+    <row r="561" ht="22.5" customHeight="1">
       <c r="A561" s="7">
         <v>45921.659911967596</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="562" ht="22.5" hidden="1" customHeight="1">
+    <row r="562" ht="22.5" customHeight="1">
       <c r="A562" s="7">
         <v>45922.888328773144</v>
       </c>
@@ -13672,7 +13672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="563" ht="22.5" hidden="1" customHeight="1">
+    <row r="563" ht="22.5" customHeight="1">
       <c r="A563" s="7">
         <v>45922.890252083336</v>
       </c>
@@ -13695,7 +13695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="564" ht="22.5" hidden="1" customHeight="1">
+    <row r="564" ht="22.5" customHeight="1">
       <c r="A564" s="7">
         <v>45922.893554571754</v>
       </c>
@@ -13718,7 +13718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="565" ht="22.5" hidden="1" customHeight="1">
+    <row r="565" ht="22.5" customHeight="1">
       <c r="A565" s="7">
         <v>45923.622780474536</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="566" ht="22.5" hidden="1" customHeight="1">
+    <row r="566" ht="22.5" customHeight="1">
       <c r="A566" s="7">
         <v>45923.65518962963</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="567" ht="22.5" hidden="1" customHeight="1">
+    <row r="567" ht="22.5" customHeight="1">
       <c r="A567" s="7">
         <v>45923.66197407407</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="568" ht="22.5" hidden="1" customHeight="1">
+    <row r="568" ht="22.5" customHeight="1">
       <c r="A568" s="7">
         <v>45923.6745968287</v>
       </c>
@@ -13810,7 +13810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="569" ht="22.5" hidden="1" customHeight="1">
+    <row r="569" ht="22.5" customHeight="1">
       <c r="A569" s="7">
         <v>45924.497939629626</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="570" ht="22.5" hidden="1" customHeight="1">
+    <row r="570" ht="22.5" customHeight="1">
       <c r="A570" s="7">
         <v>45924.508479745375</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="571" ht="22.5" hidden="1" customHeight="1">
+    <row r="571" ht="22.5" customHeight="1">
       <c r="A571" s="7">
         <v>45924.509379282405</v>
       </c>
@@ -13879,7 +13879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="572" ht="22.5" hidden="1" customHeight="1">
+    <row r="572" ht="22.5" customHeight="1">
       <c r="A572" s="7">
         <v>45924.55037964121</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="573" ht="22.5" hidden="1" customHeight="1">
+    <row r="573" ht="22.5" customHeight="1">
       <c r="A573" s="7">
         <v>45924.553432650464</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="574" ht="22.5" hidden="1" customHeight="1">
+    <row r="574" ht="22.5" customHeight="1">
       <c r="A574" s="7">
         <v>45924.58756994213</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="575" ht="22.5" hidden="1" customHeight="1">
+    <row r="575" ht="22.5" customHeight="1">
       <c r="A575" s="7">
         <v>45925.51610770833</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="576" ht="22.5" hidden="1" customHeight="1">
+    <row r="576" ht="22.5" customHeight="1">
       <c r="A576" s="7">
         <v>45925.58681137732</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="577" ht="22.5" hidden="1" customHeight="1">
+    <row r="577" ht="22.5" customHeight="1">
       <c r="A577" s="7">
         <v>45925.58735072917</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="578" ht="22.5" hidden="1" customHeight="1">
+    <row r="578" ht="22.5" customHeight="1">
       <c r="A578" s="7">
         <v>45925.593427569445</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="579" ht="22.5" hidden="1" customHeight="1">
+    <row r="579" ht="22.5" customHeight="1">
       <c r="A579" s="7">
         <v>45926.92746545139</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="580" ht="22.5" hidden="1" customHeight="1">
+    <row r="580" ht="22.5" customHeight="1">
       <c r="A580" s="7">
         <v>45926.99015803241</v>
       </c>
@@ -14086,7 +14086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="581" ht="22.5" hidden="1" customHeight="1">
+    <row r="581" ht="22.5" customHeight="1">
       <c r="A581" s="7">
         <v>45928.54656295139</v>
       </c>
@@ -14109,7 +14109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="582" ht="22.5" hidden="1" customHeight="1">
+    <row r="582" ht="22.5" customHeight="1">
       <c r="A582" s="7">
         <v>45928.73389120371</v>
       </c>
@@ -14132,7 +14132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="583" ht="22.5" hidden="1" customHeight="1">
+    <row r="583" ht="22.5" customHeight="1">
       <c r="A583" s="7">
         <v>45929.58078930556</v>
       </c>
@@ -14155,7 +14155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="584" ht="22.5" hidden="1" customHeight="1">
+    <row r="584" ht="22.5" customHeight="1">
       <c r="A584" s="7">
         <v>45929.641220370366</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="585" ht="22.5" hidden="1" customHeight="1">
+    <row r="585" ht="22.5" customHeight="1">
       <c r="A585" s="7">
         <v>45929.64800074074</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="586" ht="22.5" hidden="1" customHeight="1">
+    <row r="586" ht="22.5" customHeight="1">
       <c r="A586" s="7">
         <v>45929.648027476855</v>
       </c>
@@ -14224,7 +14224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="587" ht="22.5" hidden="1" customHeight="1">
+    <row r="587" ht="22.5" customHeight="1">
       <c r="A587" s="7">
         <v>45930.93262248843</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="588" ht="22.5" hidden="1" customHeight="1">
+    <row r="588" ht="22.5" customHeight="1">
       <c r="A588" s="7">
         <v>45930.93987802083</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="589" ht="22.5" hidden="1" customHeight="1">
+    <row r="589" ht="22.5" customHeight="1">
       <c r="A589" s="7">
         <v>45930.95141969908</v>
       </c>
@@ -14293,7 +14293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="590" ht="22.5" hidden="1" customHeight="1">
+    <row r="590" ht="22.5" customHeight="1">
       <c r="A590" s="7">
         <v>45933.5549353588</v>
       </c>
@@ -14316,7 +14316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="591" ht="22.5" hidden="1" customHeight="1">
+    <row r="591" ht="22.5" customHeight="1">
       <c r="A591" s="7">
         <v>45933.589317094906</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="592" ht="22.5" hidden="1" customHeight="1">
+    <row r="592" ht="22.5" customHeight="1">
       <c r="A592" s="7">
         <v>45933.58955641204</v>
       </c>
@@ -14362,7 +14362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="593" ht="22.5" hidden="1" customHeight="1">
+    <row r="593" ht="22.5" customHeight="1">
       <c r="A593" s="7">
         <v>45933.59414400463</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="594" ht="22.5" hidden="1" customHeight="1">
+    <row r="594" ht="22.5" customHeight="1">
       <c r="A594" s="7">
         <v>45933.610001747686</v>
       </c>
@@ -14408,7 +14408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="595" ht="22.5" hidden="1" customHeight="1">
+    <row r="595" ht="22.5" customHeight="1">
       <c r="A595" s="7">
         <v>45933.663822476854</v>
       </c>
@@ -14431,7 +14431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="596" ht="22.5" hidden="1" customHeight="1">
+    <row r="596" ht="22.5" customHeight="1">
       <c r="A596" s="7">
         <v>45934.57078196759</v>
       </c>
@@ -14454,7 +14454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="597" ht="22.5" hidden="1" customHeight="1">
+    <row r="597" ht="22.5" customHeight="1">
       <c r="A597" s="7">
         <v>45934.605708414354</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="598" ht="22.5" hidden="1" customHeight="1">
+    <row r="598" ht="22.5" customHeight="1">
       <c r="A598" s="7">
         <v>45934.717456238424</v>
       </c>
@@ -14500,7 +14500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="599" ht="22.5" hidden="1" customHeight="1">
+    <row r="599" ht="22.5" customHeight="1">
       <c r="A599" s="7">
         <v>45935.54215226852</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="600" ht="22.5" hidden="1" customHeight="1">
+    <row r="600" ht="22.5" customHeight="1">
       <c r="A600" s="7">
         <v>45935.588249085646</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="601" ht="22.5" hidden="1" customHeight="1">
+    <row r="601" ht="22.5" customHeight="1">
       <c r="A601" s="7">
         <v>45935.58890021991</v>
       </c>
@@ -14569,7 +14569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="602" ht="22.5" hidden="1" customHeight="1">
+    <row r="602" ht="22.5" customHeight="1">
       <c r="A602" s="7">
         <v>45936.97486393519</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" ht="22.5" hidden="1" customHeight="1">
+    <row r="603" ht="22.5" customHeight="1">
       <c r="A603" s="7">
         <v>45937.0389235301</v>
       </c>
@@ -14615,7 +14615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="604" ht="22.5" hidden="1" customHeight="1">
+    <row r="604" ht="22.5" customHeight="1">
       <c r="A604" s="7">
         <v>45937.03903605324</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="605" ht="22.5" hidden="1" customHeight="1">
+    <row r="605" ht="22.5" customHeight="1">
       <c r="A605" s="7">
         <v>45937.03943954861</v>
       </c>
@@ -14661,7 +14661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="606" ht="22.5" hidden="1" customHeight="1">
+    <row r="606" ht="22.5" customHeight="1">
       <c r="A606" s="7">
         <v>45937.34496048611</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="607" ht="22.5" hidden="1" customHeight="1">
+    <row r="607" ht="22.5" customHeight="1">
       <c r="A607" s="7">
         <v>45938.53863333333</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="608" ht="22.5" hidden="1" customHeight="1">
+    <row r="608" ht="22.5" customHeight="1">
       <c r="A608" s="7">
         <v>45938.58293527778</v>
       </c>
@@ -14730,7 +14730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="609" ht="22.5" hidden="1" customHeight="1">
+    <row r="609" ht="22.5" customHeight="1">
       <c r="A609" s="7">
         <v>45939.6792422338</v>
       </c>
@@ -14753,7 +14753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="610" ht="22.5" hidden="1" customHeight="1">
+    <row r="610" ht="22.5" customHeight="1">
       <c r="A610" s="7">
         <v>45939.731480462964</v>
       </c>
@@ -14776,7 +14776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="611" ht="22.5" hidden="1" customHeight="1">
+    <row r="611" ht="22.5" customHeight="1">
       <c r="A611" s="7">
         <v>45940.90829180555</v>
       </c>
@@ -14799,7 +14799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="612" ht="22.5" hidden="1" customHeight="1">
+    <row r="612" ht="22.5" customHeight="1">
       <c r="A612" s="7">
         <v>45940.9297618287</v>
       </c>
@@ -14822,7 +14822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="613" ht="22.5" hidden="1" customHeight="1">
+    <row r="613" ht="22.5" customHeight="1">
       <c r="A613" s="7">
         <v>45940.94776943287</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="614" ht="22.5" hidden="1" customHeight="1">
+    <row r="614" ht="22.5" customHeight="1">
       <c r="A614" s="7">
         <v>45940.98267273148</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="615" ht="22.5" hidden="1" customHeight="1">
+    <row r="615" ht="22.5" customHeight="1">
       <c r="A615" s="7">
         <v>45941.00769810185</v>
       </c>
@@ -14891,7 +14891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="616" ht="22.5" hidden="1" customHeight="1">
+    <row r="616" ht="22.5" customHeight="1">
       <c r="A616" s="7">
         <v>45941.00831020833</v>
       </c>
@@ -14914,7 +14914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="617" ht="22.5" hidden="1" customHeight="1">
+    <row r="617" ht="22.5" customHeight="1">
       <c r="A617" s="7">
         <v>45942.55521089121</v>
       </c>
@@ -14937,7 +14937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="618" ht="22.5" hidden="1" customHeight="1">
+    <row r="618" ht="22.5" customHeight="1">
       <c r="A618" s="7">
         <v>45942.55840497685</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="619" ht="22.5" hidden="1" customHeight="1">
+    <row r="619" ht="22.5" customHeight="1">
       <c r="A619" s="7">
         <v>45942.57007621528</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="620" ht="22.5" hidden="1" customHeight="1">
+    <row r="620" ht="22.5" customHeight="1">
       <c r="A620" s="7">
         <v>45942.6255766088</v>
       </c>
@@ -15006,7 +15006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="621" ht="22.5" hidden="1" customHeight="1">
+    <row r="621" ht="22.5" customHeight="1">
       <c r="A621" s="7">
         <v>45942.73575569445</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="622" ht="22.5" hidden="1" customHeight="1">
+    <row r="622" ht="22.5" customHeight="1">
       <c r="A622" s="7">
         <v>45943.617266284724</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="623" ht="22.5" hidden="1" customHeight="1">
+    <row r="623" ht="22.5" customHeight="1">
       <c r="A623" s="7">
         <v>45943.630999988425</v>
       </c>
@@ -15075,7 +15075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="624" ht="22.5" hidden="1" customHeight="1">
+    <row r="624" ht="22.5" customHeight="1">
       <c r="A624" s="7">
         <v>45943.6448547801</v>
       </c>
@@ -15098,7 +15098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="625" ht="22.5" hidden="1" customHeight="1">
+    <row r="625" ht="22.5" customHeight="1">
       <c r="A625" s="7">
         <v>45943.650788969906</v>
       </c>
@@ -15121,7 +15121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="626" ht="22.5" hidden="1" customHeight="1">
+    <row r="626" ht="22.5" customHeight="1">
       <c r="A626" s="7">
         <v>45944.51738696759</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="627" ht="22.5" hidden="1" customHeight="1">
+    <row r="627" ht="22.5" customHeight="1">
       <c r="A627" s="7">
         <v>45944.60555820602</v>
       </c>
@@ -15167,7 +15167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="628" ht="22.5" hidden="1" customHeight="1">
+    <row r="628" ht="22.5" customHeight="1">
       <c r="A628" s="7">
         <v>45945.95190297454</v>
       </c>
@@ -15190,7 +15190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="629" ht="22.5" hidden="1" customHeight="1">
+    <row r="629" ht="22.5" customHeight="1">
       <c r="A629" s="7">
         <v>45947.816359641205</v>
       </c>
@@ -15213,7 +15213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="630" ht="22.5" hidden="1" customHeight="1">
+    <row r="630" ht="22.5" customHeight="1">
       <c r="A630" s="7">
         <v>45947.856505</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="631" ht="22.5" hidden="1" customHeight="1">
+    <row r="631" ht="22.5" customHeight="1">
       <c r="A631" s="7">
         <v>45948.78936283565</v>
       </c>
@@ -15259,7 +15259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="632" ht="22.5" hidden="1" customHeight="1">
+    <row r="632" ht="22.5" customHeight="1">
       <c r="A632" s="7">
         <v>45948.79100210648</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="633" ht="22.5" hidden="1" customHeight="1">
+    <row r="633" ht="22.5" customHeight="1">
       <c r="A633" s="7">
         <v>45948.9191212963</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="634" ht="22.5" hidden="1" customHeight="1">
+    <row r="634" ht="22.5" customHeight="1">
       <c r="A634" s="7">
         <v>45950.598089293984</v>
       </c>
@@ -15328,7 +15328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="635" ht="22.5" hidden="1" customHeight="1">
+    <row r="635" ht="22.5" customHeight="1">
       <c r="A635" s="7">
         <v>45951.40860740741</v>
       </c>
@@ -15351,7 +15351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="636" ht="22.5" hidden="1" customHeight="1">
+    <row r="636" ht="22.5" customHeight="1">
       <c r="A636" s="7">
         <v>45951.55162837963</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="637" ht="22.5" hidden="1" customHeight="1">
+    <row r="637" ht="22.5" customHeight="1">
       <c r="A637" s="7">
         <v>45952.599184652776</v>
       </c>
@@ -15397,7 +15397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="638" ht="22.5" hidden="1" customHeight="1">
+    <row r="638" ht="22.5" customHeight="1">
       <c r="A638" s="7">
         <v>45952.616363900466</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="639" ht="22.5" hidden="1" customHeight="1">
+    <row r="639" ht="22.5" customHeight="1">
       <c r="A639" s="7">
         <v>45954.41246486111</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="640" ht="22.5" hidden="1" customHeight="1">
+    <row r="640" ht="22.5" customHeight="1">
       <c r="A640" s="7">
         <v>45957.6331430787</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="641" ht="22.5" hidden="1" customHeight="1">
+    <row r="641" ht="22.5" customHeight="1">
       <c r="A641" s="7">
         <v>45958.64637581019</v>
       </c>
@@ -15489,7 +15489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="642" ht="22.5" hidden="1" customHeight="1">
+    <row r="642" ht="22.5" customHeight="1">
       <c r="A642" s="7">
         <v>45958.73999109954</v>
       </c>
@@ -15512,7 +15512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="643" ht="22.5" hidden="1" customHeight="1">
+    <row r="643" ht="22.5" customHeight="1">
       <c r="A643" s="7">
         <v>45960.55267131944</v>
       </c>
@@ -15535,7 +15535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="644" ht="22.5" hidden="1" customHeight="1">
+    <row r="644" ht="22.5" customHeight="1">
       <c r="A644" s="7">
         <v>45960.666573055554</v>
       </c>
@@ -15558,7 +15558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="645" ht="22.5" hidden="1" customHeight="1">
+    <row r="645" ht="22.5" customHeight="1">
       <c r="A645" s="7">
         <v>45960.74008899306</v>
       </c>
@@ -15581,7 +15581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="646" ht="22.5" hidden="1" customHeight="1">
+    <row r="646" ht="22.5" customHeight="1">
       <c r="A646" s="7">
         <v>45961.64197844907</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="647" ht="22.5" hidden="1" customHeight="1">
+    <row r="647" ht="22.5" customHeight="1">
       <c r="A647" s="7">
         <v>45966.66490396991</v>
       </c>
@@ -15627,7 +15627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="648" ht="22.5" hidden="1" customHeight="1">
+    <row r="648" ht="22.5" customHeight="1">
       <c r="A648" s="7">
         <v>45966.665125150466</v>
       </c>
@@ -15650,7 +15650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="649" ht="22.5" hidden="1" customHeight="1">
+    <row r="649" ht="22.5" customHeight="1">
       <c r="A649" s="7">
         <v>45966.66589280093</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="650" ht="22.5" hidden="1" customHeight="1">
+    <row r="650" ht="22.5" customHeight="1">
       <c r="A650" s="7">
         <v>45967.932498298615</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="651" ht="22.5" hidden="1" customHeight="1">
+    <row r="651" ht="22.5" customHeight="1">
       <c r="A651" s="7">
         <v>45971.521558368055</v>
       </c>
@@ -15719,7 +15719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="652" ht="22.5" hidden="1" customHeight="1">
+    <row r="652" ht="22.5" customHeight="1">
       <c r="A652" s="7">
         <v>45971.68163655093</v>
       </c>
@@ -15742,7 +15742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="653" ht="22.5" hidden="1" customHeight="1">
+    <row r="653" ht="22.5" customHeight="1">
       <c r="A653" s="7">
         <v>45972.54771244213</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="654" ht="22.5" hidden="1" customHeight="1">
+    <row r="654" ht="22.5" customHeight="1">
       <c r="A654" s="7">
         <v>45975.00666003472</v>
       </c>
@@ -15788,7 +15788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="655" ht="22.5" hidden="1" customHeight="1">
+    <row r="655" ht="22.5" customHeight="1">
       <c r="A655" s="7">
         <v>46011.75109453704</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="656" ht="22.5" hidden="1" customHeight="1">
+    <row r="656" ht="22.5" customHeight="1">
       <c r="A656" s="7">
         <v>46021.76755451389</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="657" ht="22.5" hidden="1" customHeight="1">
+    <row r="657" ht="22.5" customHeight="1">
       <c r="A657" s="7">
         <v>46022.41604818287</v>
       </c>
@@ -15857,7 +15857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="658" ht="22.5" hidden="1" customHeight="1">
+    <row r="658" ht="22.5" customHeight="1">
       <c r="A658" s="7">
         <v>46022.49552228009</v>
       </c>
@@ -15880,7 +15880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="659" ht="22.5" hidden="1" customHeight="1">
+    <row r="659" ht="22.5" customHeight="1">
       <c r="A659" s="7">
         <v>46024.73086443287</v>
       </c>
@@ -15903,7 +15903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="660" ht="22.5" hidden="1" customHeight="1">
+    <row r="660" ht="22.5" customHeight="1">
       <c r="A660" s="7">
         <v>46024.84659783565</v>
       </c>
@@ -15926,7 +15926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="661" ht="22.5" hidden="1" customHeight="1">
+    <row r="661" ht="22.5" customHeight="1">
       <c r="A661" s="7">
         <v>46025.5541284375</v>
       </c>
@@ -15949,7 +15949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="662" ht="22.5" hidden="1" customHeight="1">
+    <row r="662" ht="22.5" customHeight="1">
       <c r="A662" s="7">
         <v>46025.560083020835</v>
       </c>
@@ -15972,7 +15972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="663" ht="22.5" hidden="1" customHeight="1">
+    <row r="663" ht="22.5" customHeight="1">
       <c r="A663" s="7">
         <v>46025.59565940972</v>
       </c>
@@ -15995,7 +15995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="664" ht="22.5" hidden="1" customHeight="1">
+    <row r="664" ht="22.5" customHeight="1">
       <c r="A664" s="7">
         <v>46025.60043486111</v>
       </c>
@@ -16018,7 +16018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="665" ht="22.5" hidden="1" customHeight="1">
+    <row r="665" ht="22.5" customHeight="1">
       <c r="A665" s="7">
         <v>46025.63678744213</v>
       </c>
@@ -16041,7 +16041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="666" ht="22.5" hidden="1" customHeight="1">
+    <row r="666" ht="22.5" customHeight="1">
       <c r="A666" s="7">
         <v>46026.50485855324</v>
       </c>
@@ -16064,7 +16064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="667" ht="22.5" hidden="1" customHeight="1">
+    <row r="667" ht="22.5" customHeight="1">
       <c r="A667" s="7">
         <v>46026.51249828703</v>
       </c>
@@ -16087,7 +16087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="668" ht="22.5" hidden="1" customHeight="1">
+    <row r="668" ht="22.5" customHeight="1">
       <c r="A668" s="7">
         <v>46026.52752942129</v>
       </c>
@@ -16110,7 +16110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="669" ht="22.5" hidden="1" customHeight="1">
+    <row r="669" ht="22.5" customHeight="1">
       <c r="A669" s="7">
         <v>46026.527573252315</v>
       </c>
@@ -16133,7 +16133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="670" ht="22.5" hidden="1" customHeight="1">
+    <row r="670" ht="22.5" customHeight="1">
       <c r="A670" s="7">
         <v>46026.52775288194</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="671" ht="22.5" hidden="1" customHeight="1">
+    <row r="671" ht="22.5" customHeight="1">
       <c r="A671" s="7">
         <v>46026.547502870366</v>
       </c>
@@ -16179,7 +16179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="672" ht="22.5" hidden="1" customHeight="1">
+    <row r="672" ht="22.5" customHeight="1">
       <c r="A672" s="7">
         <v>46026.57139607639</v>
       </c>
@@ -16202,7 +16202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="673" ht="22.5" hidden="1" customHeight="1">
+    <row r="673" ht="22.5" customHeight="1">
       <c r="A673" s="7">
         <v>46026.94119229166</v>
       </c>
@@ -16225,7 +16225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="674" ht="22.5" hidden="1" customHeight="1">
+    <row r="674" ht="22.5" customHeight="1">
       <c r="A674" s="7">
         <v>46027.95845864584</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="675" ht="22.5" hidden="1" customHeight="1">
+    <row r="675" ht="22.5" customHeight="1">
       <c r="A675" s="7">
         <v>46027.962911724535</v>
       </c>
@@ -16271,7 +16271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="676" ht="22.5" hidden="1" customHeight="1">
+    <row r="676" ht="22.5" customHeight="1">
       <c r="A676" s="7">
         <v>46027.984876331015</v>
       </c>
@@ -16294,7 +16294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="677" ht="22.5" hidden="1" customHeight="1">
+    <row r="677" ht="22.5" customHeight="1">
       <c r="A677" s="7">
         <v>46027.985643506945</v>
       </c>
@@ -16317,7 +16317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="678" ht="22.5" hidden="1" customHeight="1">
+    <row r="678" ht="22.5" customHeight="1">
       <c r="A678" s="7">
         <v>46027.98593306713</v>
       </c>
@@ -16340,7 +16340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="679" ht="22.5" hidden="1" customHeight="1">
+    <row r="679" ht="22.5" customHeight="1">
       <c r="A679" s="7">
         <v>46027.989084016204</v>
       </c>
@@ -16363,7 +16363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="680" ht="22.5" hidden="1" customHeight="1">
+    <row r="680" ht="22.5" customHeight="1">
       <c r="A680" s="7">
         <v>46027.98919822917</v>
       </c>
@@ -16386,7 +16386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="681" ht="22.5" hidden="1" customHeight="1">
+    <row r="681" ht="22.5" customHeight="1">
       <c r="A681" s="7">
         <v>46027.989351365744</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="682" ht="22.5" hidden="1" customHeight="1">
+    <row r="682" ht="22.5" customHeight="1">
       <c r="A682" s="7">
         <v>46027.990538240745</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="683" ht="22.5" hidden="1" customHeight="1">
+    <row r="683" ht="22.5" customHeight="1">
       <c r="A683" s="7">
         <v>46028.01912575231</v>
       </c>
@@ -16455,7 +16455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="684" ht="22.5" hidden="1" customHeight="1">
+    <row r="684" ht="22.5" customHeight="1">
       <c r="A684" s="7">
         <v>46028.4455222338</v>
       </c>
@@ -16478,7 +16478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="685" ht="22.5" hidden="1" customHeight="1">
+    <row r="685" ht="22.5" customHeight="1">
       <c r="A685" s="7">
         <v>46028.45460516204</v>
       </c>
@@ -16501,7 +16501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="686" ht="22.5" hidden="1" customHeight="1">
+    <row r="686" ht="22.5" customHeight="1">
       <c r="A686" s="7">
         <v>46028.49456658565</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="687" ht="22.5" hidden="1" customHeight="1">
+    <row r="687" ht="22.5" customHeight="1">
       <c r="A687" s="7">
         <v>46029.48292098379</v>
       </c>
@@ -16547,7 +16547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="688" ht="22.5" hidden="1" customHeight="1">
+    <row r="688" ht="22.5" customHeight="1">
       <c r="A688" s="7">
         <v>46029.49681960648</v>
       </c>
@@ -16570,7 +16570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="689" ht="22.5" hidden="1" customHeight="1">
+    <row r="689" ht="22.5" customHeight="1">
       <c r="A689" s="7">
         <v>46029.49758465278</v>
       </c>
@@ -16593,7 +16593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="690" ht="22.5" hidden="1" customHeight="1">
+    <row r="690" ht="22.5" customHeight="1">
       <c r="A690" s="7">
         <v>46029.49764300926</v>
       </c>
@@ -16616,7 +16616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="691" ht="22.5" hidden="1" customHeight="1">
+    <row r="691" ht="22.5" customHeight="1">
       <c r="A691" s="7">
         <v>46029.49799591435</v>
       </c>
@@ -16639,7 +16639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="692" ht="22.5" hidden="1" customHeight="1">
+    <row r="692" ht="22.5" customHeight="1">
       <c r="A692" s="7">
         <v>46029.49853252315</v>
       </c>
@@ -16662,7 +16662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="693" ht="22.5" hidden="1" customHeight="1">
+    <row r="693" ht="22.5" customHeight="1">
       <c r="A693" s="7">
         <v>46029.49867393519</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="694" ht="22.5" hidden="1" customHeight="1">
+    <row r="694" ht="22.5" customHeight="1">
       <c r="A694" s="7">
         <v>46029.50046214121</v>
       </c>
@@ -16708,7 +16708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="695" ht="22.5" hidden="1" customHeight="1">
+    <row r="695" ht="22.5" customHeight="1">
       <c r="A695" s="7">
         <v>46029.50432317129</v>
       </c>
@@ -16731,7 +16731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="696" ht="22.5" hidden="1" customHeight="1">
+    <row r="696" ht="22.5" customHeight="1">
       <c r="A696" s="7">
         <v>46029.50599990741</v>
       </c>
@@ -16754,7 +16754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="697" ht="22.5" hidden="1" customHeight="1">
+    <row r="697" ht="22.5" customHeight="1">
       <c r="A697" s="7">
         <v>46029.506585173614</v>
       </c>
@@ -16777,7 +16777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="698" ht="22.5" hidden="1" customHeight="1">
+    <row r="698" ht="22.5" customHeight="1">
       <c r="A698" s="7">
         <v>46029.50789015046</v>
       </c>
@@ -16800,7 +16800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="699" ht="22.5" hidden="1" customHeight="1">
+    <row r="699" ht="22.5" customHeight="1">
       <c r="A699" s="7">
         <v>46029.52671582176</v>
       </c>
@@ -16823,7 +16823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="700" ht="22.5" hidden="1" customHeight="1">
+    <row r="700" ht="22.5" customHeight="1">
       <c r="A700" s="7">
         <v>46029.528419525464</v>
       </c>
@@ -16846,7 +16846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="701" ht="22.5" hidden="1" customHeight="1">
+    <row r="701" ht="22.5" customHeight="1">
       <c r="A701" s="7">
         <v>46029.53073230324</v>
       </c>
@@ -16869,7 +16869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="702" ht="22.5" hidden="1" customHeight="1">
+    <row r="702" ht="22.5" customHeight="1">
       <c r="A702" s="7">
         <v>46029.55343642361</v>
       </c>
@@ -16892,7 +16892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="703" ht="22.5" hidden="1" customHeight="1">
+    <row r="703" ht="22.5" customHeight="1">
       <c r="A703" s="7">
         <v>46029.56104975694</v>
       </c>
@@ -16915,7 +16915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="704" ht="22.5" hidden="1" customHeight="1">
+    <row r="704" ht="22.5" customHeight="1">
       <c r="A704" s="7">
         <v>46030.559838437504</v>
       </c>
@@ -16938,7 +16938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="705" ht="22.5" hidden="1" customHeight="1">
+    <row r="705" ht="22.5" customHeight="1">
       <c r="A705" s="7">
         <v>46030.56069346065</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="706" ht="22.5" hidden="1" customHeight="1">
+    <row r="706" ht="22.5" customHeight="1">
       <c r="A706" s="7">
         <v>46030.56083086805</v>
       </c>
@@ -16984,7 +16984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="707" ht="22.5" hidden="1" customHeight="1">
+    <row r="707" ht="22.5" customHeight="1">
       <c r="A707" s="7">
         <v>46030.560838680554</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="708" ht="22.5" hidden="1" customHeight="1">
+    <row r="708" ht="22.5" customHeight="1">
       <c r="A708" s="7">
         <v>46030.56355659722</v>
       </c>
@@ -17030,7 +17030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="709" ht="22.5" hidden="1" customHeight="1">
+    <row r="709" ht="22.5" customHeight="1">
       <c r="A709" s="7">
         <v>46030.56405509259</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="710" ht="22.5" hidden="1" customHeight="1">
+    <row r="710" ht="22.5" customHeight="1">
       <c r="A710" s="7">
         <v>46030.56533171296</v>
       </c>
@@ -17076,7 +17076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="711" ht="22.5" hidden="1" customHeight="1">
+    <row r="711" ht="22.5" customHeight="1">
       <c r="A711" s="7">
         <v>46030.5655189699</v>
       </c>
@@ -17099,7 +17099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="712" ht="22.5" hidden="1" customHeight="1">
+    <row r="712" ht="22.5" customHeight="1">
       <c r="A712" s="7">
         <v>46030.56594990741</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="713" ht="22.5" hidden="1" customHeight="1">
+    <row r="713" ht="22.5" customHeight="1">
       <c r="A713" s="7">
         <v>46030.572449259256</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="714" ht="22.5" hidden="1" customHeight="1">
+    <row r="714" ht="22.5" customHeight="1">
       <c r="A714" s="7">
         <v>46030.57260693287</v>
       </c>
@@ -17168,7 +17168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="715" ht="22.5" hidden="1" customHeight="1">
+    <row r="715" ht="22.5" customHeight="1">
       <c r="A715" s="7">
         <v>46030.577190104166</v>
       </c>
@@ -17191,7 +17191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="716" ht="22.5" hidden="1" customHeight="1">
+    <row r="716" ht="22.5" customHeight="1">
       <c r="A716" s="7">
         <v>46030.58000739584</v>
       </c>
@@ -17214,7 +17214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="717" ht="22.5" hidden="1" customHeight="1">
+    <row r="717" ht="22.5" customHeight="1">
       <c r="A717" s="7">
         <v>46030.5801915162</v>
       </c>
@@ -17237,7 +17237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="718" ht="22.5" hidden="1" customHeight="1">
+    <row r="718" ht="22.5" customHeight="1">
       <c r="A718" s="7">
         <v>46030.581905983796</v>
       </c>
@@ -17260,7 +17260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="719" ht="22.5" hidden="1" customHeight="1">
+    <row r="719" ht="22.5" customHeight="1">
       <c r="A719" s="7">
         <v>46030.58470684028</v>
       </c>
@@ -17283,7 +17283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="720" ht="22.5" hidden="1" customHeight="1">
+    <row r="720" ht="22.5" customHeight="1">
       <c r="A720" s="7">
         <v>46030.59147480324</v>
       </c>
@@ -17306,7 +17306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="721" ht="22.5" hidden="1" customHeight="1">
+    <row r="721" ht="22.5" customHeight="1">
       <c r="A721" s="7">
         <v>46030.613346342594</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="722" ht="22.5" hidden="1" customHeight="1">
+    <row r="722" ht="22.5" customHeight="1">
       <c r="A722" s="7">
         <v>46030.74624678241</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="723" ht="22.5" hidden="1" customHeight="1">
+    <row r="723" ht="22.5" customHeight="1">
       <c r="A723" s="7">
         <v>46031.41028914352</v>
       </c>
@@ -17375,7 +17375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="724" ht="22.5" hidden="1" customHeight="1">
+    <row r="724" ht="22.5" customHeight="1">
       <c r="A724" s="7">
         <v>46031.410909143524</v>
       </c>
@@ -17398,7 +17398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="725" ht="22.5" hidden="1" customHeight="1">
+    <row r="725" ht="22.5" customHeight="1">
       <c r="A725" s="7">
         <v>46031.412402291666</v>
       </c>
@@ -17421,7 +17421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="726" ht="22.5" hidden="1" customHeight="1">
+    <row r="726" ht="22.5" customHeight="1">
       <c r="A726" s="7">
         <v>46031.416509675924</v>
       </c>
@@ -17444,7 +17444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="727" ht="22.5" hidden="1" customHeight="1">
+    <row r="727" ht="22.5" customHeight="1">
       <c r="A727" s="7">
         <v>46031.4167675</v>
       </c>
@@ -17467,7 +17467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="728" ht="22.5" hidden="1" customHeight="1">
+    <row r="728" ht="22.5" customHeight="1">
       <c r="A728" s="7">
         <v>46031.42532922454</v>
       </c>
@@ -17490,7 +17490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="729" ht="22.5" hidden="1" customHeight="1">
+    <row r="729" ht="22.5" customHeight="1">
       <c r="A729" s="7">
         <v>46031.425445057874</v>
       </c>
@@ -17513,7 +17513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="730" ht="22.5" hidden="1" customHeight="1">
+    <row r="730" ht="22.5" customHeight="1">
       <c r="A730" s="7">
         <v>46031.43166299768</v>
       </c>
@@ -17536,7 +17536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="731" ht="22.5" hidden="1" customHeight="1">
+    <row r="731" ht="22.5" customHeight="1">
       <c r="A731" s="7">
         <v>46031.44235359954</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="732" ht="22.5" hidden="1" customHeight="1">
+    <row r="732" ht="22.5" customHeight="1">
       <c r="A732" s="7">
         <v>46031.44711194445</v>
       </c>
@@ -17582,7 +17582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="733" ht="22.5" hidden="1" customHeight="1">
+    <row r="733" ht="22.5" customHeight="1">
       <c r="A733" s="7">
         <v>46031.45118480324</v>
       </c>
@@ -17605,7 +17605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="734" ht="22.5" hidden="1" customHeight="1">
+    <row r="734" ht="22.5" customHeight="1">
       <c r="A734" s="7">
         <v>46031.49114359954</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="735" ht="22.5" hidden="1" customHeight="1">
+    <row r="735" ht="22.5" customHeight="1">
       <c r="A735" s="7">
         <v>46031.588781805556</v>
       </c>
@@ -17651,7 +17651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="736" ht="22.5" hidden="1" customHeight="1">
+    <row r="736" ht="22.5" customHeight="1">
       <c r="A736" s="7">
         <v>46031.984834745366</v>
       </c>
@@ -17674,7 +17674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="737" ht="22.5" hidden="1" customHeight="1">
+    <row r="737" ht="22.5" customHeight="1">
       <c r="A737" s="7">
         <v>46032.99435100694</v>
       </c>
@@ -17697,7 +17697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="738" ht="22.5" hidden="1" customHeight="1">
+    <row r="738" ht="22.5" customHeight="1">
       <c r="A738" s="7">
         <v>46033.018771365736</v>
       </c>
@@ -17720,7 +17720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="739" ht="22.5" hidden="1" customHeight="1">
+    <row r="739" ht="22.5" customHeight="1">
       <c r="A739" s="7">
         <v>46033.01890222222</v>
       </c>
@@ -17743,7 +17743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="740" ht="22.5" hidden="1" customHeight="1">
+    <row r="740" ht="22.5" customHeight="1">
       <c r="A740" s="7">
         <v>46033.019061099534</v>
       </c>
@@ -17766,7 +17766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="741" ht="22.5" hidden="1" customHeight="1">
+    <row r="741" ht="22.5" customHeight="1">
       <c r="A741" s="7">
         <v>46033.01928679398</v>
       </c>
@@ -17789,7 +17789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="742" ht="22.5" hidden="1" customHeight="1">
+    <row r="742" ht="22.5" customHeight="1">
       <c r="A742" s="7">
         <v>46033.01950127315</v>
       </c>
@@ -17812,7 +17812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="743" ht="22.5" hidden="1" customHeight="1">
+    <row r="743" ht="22.5" customHeight="1">
       <c r="A743" s="7">
         <v>46033.01970228009</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="744" ht="22.5" hidden="1" customHeight="1">
+    <row r="744" ht="22.5" customHeight="1">
       <c r="A744" s="7">
         <v>46033.02049196759</v>
       </c>
@@ -17858,7 +17858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="745" ht="22.5" hidden="1" customHeight="1">
+    <row r="745" ht="22.5" customHeight="1">
       <c r="A745" s="7">
         <v>46033.021022546294</v>
       </c>
@@ -17881,7 +17881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="746" ht="22.5" hidden="1" customHeight="1">
+    <row r="746" ht="22.5" customHeight="1">
       <c r="A746" s="7">
         <v>46033.02128909722</v>
       </c>
@@ -17904,7 +17904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="747" ht="22.5" hidden="1" customHeight="1">
+    <row r="747" ht="22.5" customHeight="1">
       <c r="A747" s="7">
         <v>46033.02278655092</v>
       </c>
@@ -17927,7 +17927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="748" ht="22.5" hidden="1" customHeight="1">
+    <row r="748" ht="22.5" customHeight="1">
       <c r="A748" s="7">
         <v>46033.02346917824</v>
       </c>
@@ -17950,7 +17950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="749" ht="22.5" hidden="1" customHeight="1">
+    <row r="749" ht="22.5" customHeight="1">
       <c r="A749" s="7">
         <v>46033.025001875</v>
       </c>
@@ -17973,7 +17973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="750" ht="22.5" hidden="1" customHeight="1">
+    <row r="750" ht="22.5" customHeight="1">
       <c r="A750" s="7">
         <v>46033.0251953588</v>
       </c>
@@ -17996,7 +17996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="751" ht="22.5" hidden="1" customHeight="1">
+    <row r="751" ht="22.5" customHeight="1">
       <c r="A751" s="7">
         <v>46033.055073344905</v>
       </c>
@@ -18019,7 +18019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="752" ht="22.5" hidden="1" customHeight="1">
+    <row r="752" ht="22.5" customHeight="1">
       <c r="A752" s="7">
         <v>46034.60939611111</v>
       </c>
@@ -18042,7 +18042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="753" ht="22.5" hidden="1" customHeight="1">
+    <row r="753" ht="22.5" customHeight="1">
       <c r="A753" s="7">
         <v>46034.609617326394</v>
       </c>
@@ -18065,7 +18065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="754" ht="22.5" hidden="1" customHeight="1">
+    <row r="754" ht="22.5" customHeight="1">
       <c r="A754" s="7">
         <v>46034.614894872684</v>
       </c>
@@ -18088,7 +18088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="755" ht="22.5" hidden="1" customHeight="1">
+    <row r="755" ht="22.5" customHeight="1">
       <c r="A755" s="7">
         <v>46034.616226157406</v>
       </c>
@@ -18111,7 +18111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="756" ht="22.5" hidden="1" customHeight="1">
+    <row r="756" ht="22.5" customHeight="1">
       <c r="A756" s="7">
         <v>46034.62031412037</v>
       </c>
@@ -18134,7 +18134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="757" ht="22.5" hidden="1" customHeight="1">
+    <row r="757" ht="22.5" customHeight="1">
       <c r="A757" s="7">
         <v>46034.62597540509</v>
       </c>
@@ -18157,7 +18157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="758" ht="22.5" hidden="1" customHeight="1">
+    <row r="758" ht="22.5" customHeight="1">
       <c r="A758" s="7">
         <v>46034.64418653936</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="759" ht="22.5" hidden="1" customHeight="1">
+    <row r="759" ht="22.5" customHeight="1">
       <c r="A759" s="7">
         <v>46034.64502026621</v>
       </c>
@@ -18203,7 +18203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="760" ht="22.5" hidden="1" customHeight="1">
+    <row r="760" ht="22.5" customHeight="1">
       <c r="A760" s="7">
         <v>46034.6455121412</v>
       </c>
@@ -18226,7 +18226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="761" ht="22.5" hidden="1" customHeight="1">
+    <row r="761" ht="22.5" customHeight="1">
       <c r="A761" s="7">
         <v>46034.65078673611</v>
       </c>
@@ -18249,7 +18249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="762" ht="22.5" hidden="1" customHeight="1">
+    <row r="762" ht="22.5" customHeight="1">
       <c r="A762" s="7">
         <v>46034.65375621528</v>
       </c>
@@ -18272,7 +18272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="763" ht="22.5" hidden="1" customHeight="1">
+    <row r="763" ht="22.5" customHeight="1">
       <c r="A763" s="7">
         <v>46035.55215582176</v>
       </c>
@@ -18295,7 +18295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="764" ht="22.5" hidden="1" customHeight="1">
+    <row r="764" ht="22.5" customHeight="1">
       <c r="A764" s="7">
         <v>46035.555656331024</v>
       </c>
@@ -18318,7 +18318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="765" ht="22.5" hidden="1" customHeight="1">
+    <row r="765" ht="22.5" customHeight="1">
       <c r="A765" s="7">
         <v>46035.55789171296</v>
       </c>
@@ -18341,7 +18341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="766" ht="22.5" hidden="1" customHeight="1">
+    <row r="766" ht="22.5" customHeight="1">
       <c r="A766" s="7">
         <v>46035.559440613426</v>
       </c>
@@ -18364,7 +18364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="767" ht="22.5" hidden="1" customHeight="1">
+    <row r="767" ht="22.5" customHeight="1">
       <c r="A767" s="7">
         <v>46035.56232943287</v>
       </c>
@@ -18387,7 +18387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="768" ht="22.5" hidden="1" customHeight="1">
+    <row r="768" ht="22.5" customHeight="1">
       <c r="A768" s="7">
         <v>46035.56701305555</v>
       </c>
@@ -18410,7 +18410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="769" ht="22.5" hidden="1" customHeight="1">
+    <row r="769" ht="22.5" customHeight="1">
       <c r="A769" s="7">
         <v>46035.57094884259</v>
       </c>
@@ -18433,7 +18433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="770" ht="22.5" hidden="1" customHeight="1">
+    <row r="770" ht="22.5" customHeight="1">
       <c r="A770" s="7">
         <v>46035.57145733797</v>
       </c>
@@ -18456,7 +18456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="771" ht="22.5" hidden="1" customHeight="1">
+    <row r="771" ht="22.5" customHeight="1">
       <c r="A771" s="7">
         <v>46035.57153768519</v>
       </c>
@@ -18479,7 +18479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="772" ht="22.5" hidden="1" customHeight="1">
+    <row r="772" ht="22.5" customHeight="1">
       <c r="A772" s="7">
         <v>46035.572331840274</v>
       </c>
@@ -18502,7 +18502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="773" ht="22.5" hidden="1" customHeight="1">
+    <row r="773" ht="22.5" customHeight="1">
       <c r="A773" s="7">
         <v>46035.573415983796</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="774" ht="22.5" hidden="1" customHeight="1">
+    <row r="774" ht="22.5" customHeight="1">
       <c r="A774" s="7">
         <v>46035.574199016206</v>
       </c>
@@ -18548,7 +18548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="775" ht="22.5" hidden="1" customHeight="1">
+    <row r="775" ht="22.5" customHeight="1">
       <c r="A775" s="7">
         <v>46035.57451481481</v>
       </c>
@@ -18571,7 +18571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="776" ht="22.5" hidden="1" customHeight="1">
+    <row r="776" ht="22.5" customHeight="1">
       <c r="A776" s="7">
         <v>46035.57515900463</v>
       </c>
@@ -18594,7 +18594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="777" ht="22.5" hidden="1" customHeight="1">
+    <row r="777" ht="22.5" customHeight="1">
       <c r="A777" s="7">
         <v>46035.5764303125</v>
       </c>
@@ -18617,7 +18617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="778" ht="22.5" hidden="1" customHeight="1">
+    <row r="778" ht="22.5" customHeight="1">
       <c r="A778" s="7">
         <v>46035.61401943287</v>
       </c>
@@ -18640,7 +18640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="779" ht="22.5" hidden="1" customHeight="1">
+    <row r="779" ht="22.5" customHeight="1">
       <c r="A779" s="7">
         <v>46035.632012974536</v>
       </c>

--- a/data/rpe_femenil.xlsx
+++ b/data/rpe_femenil.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5146" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5416" uniqueCount="114">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -287,6 +287,12 @@
     <t>Julie Lopez</t>
   </si>
   <si>
+    <t>Geyse Ferreira</t>
+  </si>
+  <si>
+    <t>Daniela Espinosa</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -342,9 +348,6 @@
   </si>
   <si>
     <t>Daniela</t>
-  </si>
-  <si>
-    <t>Daniela Espinosa</t>
   </si>
   <si>
     <t>Aylin Avilez</t>
@@ -518,7 +521,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G896" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G950" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="7">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="Puntuación" id="2"/>
@@ -19055,605 +19058,1253 @@
       </c>
     </row>
     <row r="797" ht="22.5" customHeight="1">
-      <c r="A797" s="4"/>
-      <c r="B797" s="5"/>
-      <c r="C797" s="6"/>
-      <c r="D797" s="6" t="s">
+      <c r="A797" s="7">
+        <v>46038.53658180556</v>
+      </c>
+      <c r="B797" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C797" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D797" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E797" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F797" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G797" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="798" ht="22.5" customHeight="1">
+      <c r="A798" s="7">
+        <v>46038.53661605324</v>
+      </c>
+      <c r="B798" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C798" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D798" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E798" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F798" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G798" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="799" ht="22.5" customHeight="1">
+      <c r="A799" s="7">
+        <v>46038.53753487268</v>
+      </c>
+      <c r="B799" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C799" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D799" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E799" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F799" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G799" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="800" ht="22.5" customHeight="1">
+      <c r="A800" s="7">
+        <v>46038.53836230324</v>
+      </c>
+      <c r="B800" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C800" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D800" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E797" s="6"/>
-      <c r="F797" s="6"/>
-      <c r="G797" s="6"/>
-    </row>
-    <row r="798" ht="22.5" customHeight="1">
-      <c r="A798" s="4"/>
-      <c r="B798" s="5"/>
-      <c r="C798" s="6"/>
-      <c r="D798" s="6" t="s">
+      <c r="E800" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F800" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G800" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="801" ht="22.5" customHeight="1">
+      <c r="A801" s="7">
+        <v>46038.540014872684</v>
+      </c>
+      <c r="B801" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C801" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D801" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E801" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F801" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G801" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="802" ht="22.5" customHeight="1">
+      <c r="A802" s="7">
+        <v>46038.540186631944</v>
+      </c>
+      <c r="B802" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C802" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D802" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E798" s="6"/>
-      <c r="F798" s="6"/>
-      <c r="G798" s="6"/>
-    </row>
-    <row r="799" ht="22.5" customHeight="1">
-      <c r="A799" s="4"/>
-      <c r="B799" s="5"/>
-      <c r="C799" s="6"/>
-      <c r="D799" s="6" t="s">
+      <c r="E802" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F802" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G802" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="803" ht="22.5" customHeight="1">
+      <c r="A803" s="7">
+        <v>46038.54268003472</v>
+      </c>
+      <c r="B803" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C803" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D803" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E803" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F803" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G803" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="804" ht="22.5" customHeight="1">
+      <c r="A804" s="7">
+        <v>46038.54549121528</v>
+      </c>
+      <c r="B804" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C804" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D804" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E804" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F804" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G804" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="805" ht="22.5" customHeight="1">
+      <c r="A805" s="7">
+        <v>46038.54971209491</v>
+      </c>
+      <c r="B805" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C805" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D805" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E805" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F805" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G805" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="806" ht="22.5" customHeight="1">
+      <c r="A806" s="7">
+        <v>46038.559171307876</v>
+      </c>
+      <c r="B806" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C806" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D806" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E806" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F806" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G806" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="807" ht="22.5" customHeight="1">
+      <c r="A807" s="7">
+        <v>46038.55999988426</v>
+      </c>
+      <c r="B807" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C807" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D807" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E807" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F807" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G807" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="808" ht="22.5" customHeight="1">
+      <c r="A808" s="7">
+        <v>46038.5805165162</v>
+      </c>
+      <c r="B808" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C808" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D808" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E808" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F808" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G808" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="809" ht="22.5" customHeight="1">
+      <c r="A809" s="7">
+        <v>46038.581247685186</v>
+      </c>
+      <c r="B809" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C809" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D809" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E809" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F809" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G809" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="810" ht="22.5" customHeight="1">
+      <c r="A810" s="7">
+        <v>46038.58136969907</v>
+      </c>
+      <c r="B810" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C810" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D810" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E810" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F810" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G810" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="811" ht="22.5" customHeight="1">
+      <c r="A811" s="7">
+        <v>46038.583891250004</v>
+      </c>
+      <c r="B811" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C811" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D811" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E811" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F811" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G811" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="812" ht="22.5" customHeight="1">
+      <c r="A812" s="7">
+        <v>46038.59324025463</v>
+      </c>
+      <c r="B812" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C812" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D812" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E812" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F812" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G812" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="813" ht="22.5" customHeight="1">
+      <c r="A813" s="7">
+        <v>46038.63001581018</v>
+      </c>
+      <c r="B813" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C813" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D813" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E813" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F813" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G813" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="814" ht="22.5" customHeight="1">
+      <c r="A814" s="7">
+        <v>46039.56041253472</v>
+      </c>
+      <c r="B814" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C814" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D814" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E799" s="6"/>
-      <c r="F799" s="6"/>
-      <c r="G799" s="6"/>
-    </row>
-    <row r="800" ht="22.5" customHeight="1">
-      <c r="A800" s="4"/>
-      <c r="B800" s="5"/>
-      <c r="C800" s="6"/>
-      <c r="D800" s="6" t="s">
+      <c r="E814" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F814" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G814" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="815" ht="22.5" customHeight="1">
+      <c r="A815" s="7">
+        <v>46039.79626746528</v>
+      </c>
+      <c r="B815" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C815" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D815" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E815" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F815" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G815" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="816" ht="22.5" customHeight="1">
+      <c r="A816" s="7">
+        <v>46039.79666936342</v>
+      </c>
+      <c r="B816" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C816" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D816" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E816" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F816" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G816" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="817" ht="22.5" customHeight="1">
+      <c r="A817" s="7">
+        <v>46039.799399317126</v>
+      </c>
+      <c r="B817" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C817" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D817" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E817" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F817" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G817" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="818" ht="22.5" customHeight="1">
+      <c r="A818" s="7">
+        <v>46039.82094335648</v>
+      </c>
+      <c r="B818" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C818" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D818" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E818" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F818" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G818" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="819" ht="22.5" customHeight="1">
+      <c r="A819" s="7">
+        <v>46039.82228630787</v>
+      </c>
+      <c r="B819" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C819" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D819" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E819" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F819" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G819" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="820" ht="22.5" customHeight="1">
+      <c r="A820" s="7">
+        <v>46039.822431238426</v>
+      </c>
+      <c r="B820" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C820" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D820" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E820" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F820" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G820" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="821" ht="22.5" customHeight="1">
+      <c r="A821" s="7">
+        <v>46039.82853824074</v>
+      </c>
+      <c r="B821" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C821" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D821" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E821" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F821" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G821" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="822" ht="22.5" customHeight="1">
+      <c r="A822" s="7">
+        <v>46039.834086296294</v>
+      </c>
+      <c r="B822" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C822" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D822" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E822" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F822" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G822" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="823" ht="22.5" customHeight="1">
+      <c r="A823" s="7">
+        <v>46039.83419358796</v>
+      </c>
+      <c r="B823" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C823" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D823" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E823" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F823" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G823" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="824" ht="22.5" customHeight="1">
+      <c r="A824" s="7">
+        <v>46039.83432934028</v>
+      </c>
+      <c r="B824" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C824" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D824" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E824" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F824" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G824" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="825" ht="22.5" customHeight="1">
+      <c r="A825" s="7">
+        <v>46039.99273799769</v>
+      </c>
+      <c r="B825" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C825" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D825" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E825" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F825" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G825" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="826" ht="22.5" customHeight="1">
+      <c r="A826" s="7">
+        <v>46040.4588559838</v>
+      </c>
+      <c r="B826" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C826" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D826" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E826" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F826" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G826" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="827" ht="22.5" customHeight="1">
+      <c r="A827" s="7">
+        <v>46040.45943461805</v>
+      </c>
+      <c r="B827" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C827" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D827" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E827" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F827" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G827" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="828" ht="22.5" customHeight="1">
+      <c r="A828" s="7">
+        <v>46040.47269825231</v>
+      </c>
+      <c r="B828" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C828" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D828" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E800" s="6"/>
-      <c r="F800" s="6"/>
-      <c r="G800" s="6"/>
-    </row>
-    <row r="801" ht="22.5" customHeight="1">
-      <c r="A801" s="4"/>
-      <c r="B801" s="5"/>
-      <c r="C801" s="6"/>
-      <c r="D801" s="6" t="s">
+      <c r="E828" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F828" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G828" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="829" ht="22.5" customHeight="1">
+      <c r="A829" s="7">
+        <v>46040.480587094906</v>
+      </c>
+      <c r="B829" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C829" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D829" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E829" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F829" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G829" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="830" ht="22.5" customHeight="1">
+      <c r="A830" s="7">
+        <v>46040.51356421296</v>
+      </c>
+      <c r="B830" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C830" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D830" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E830" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F830" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G830" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="831" ht="22.5" customHeight="1">
+      <c r="A831" s="7">
+        <v>46040.61123594907</v>
+      </c>
+      <c r="B831" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C831" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D831" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E831" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F831" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G831" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="832" ht="22.5" customHeight="1">
+      <c r="A832" s="7">
+        <v>46040.943666817126</v>
+      </c>
+      <c r="B832" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C832" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D832" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E832" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F832" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G832" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="833" ht="22.5" customHeight="1">
+      <c r="A833" s="7">
+        <v>46041.49639689815</v>
+      </c>
+      <c r="B833" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C833" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D833" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E801" s="6"/>
-      <c r="F801" s="6"/>
-      <c r="G801" s="6"/>
-    </row>
-    <row r="802" ht="22.5" customHeight="1">
-      <c r="A802" s="4"/>
-      <c r="B802" s="5"/>
-      <c r="C802" s="6"/>
-      <c r="D802" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E802" s="6"/>
-      <c r="F802" s="6"/>
-      <c r="G802" s="6"/>
-    </row>
-    <row r="803" ht="22.5" customHeight="1">
-      <c r="A803" s="4"/>
-      <c r="B803" s="5"/>
-      <c r="C803" s="6"/>
-      <c r="D803" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E803" s="6"/>
-      <c r="F803" s="6"/>
-      <c r="G803" s="6"/>
-    </row>
-    <row r="804" ht="22.5" customHeight="1">
-      <c r="A804" s="4"/>
-      <c r="B804" s="5"/>
-      <c r="C804" s="6"/>
-      <c r="D804" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E804" s="6"/>
-      <c r="F804" s="6"/>
-      <c r="G804" s="6"/>
-    </row>
-    <row r="805" ht="22.5" customHeight="1">
-      <c r="A805" s="4"/>
-      <c r="B805" s="5"/>
-      <c r="C805" s="6"/>
-      <c r="D805" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E805" s="6"/>
-      <c r="F805" s="6"/>
-      <c r="G805" s="6"/>
-    </row>
-    <row r="806" ht="22.5" customHeight="1">
-      <c r="A806" s="4"/>
-      <c r="B806" s="5"/>
-      <c r="C806" s="6"/>
-      <c r="D806" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E806" s="6"/>
-      <c r="F806" s="6"/>
-      <c r="G806" s="6"/>
-    </row>
-    <row r="807" ht="22.5" customHeight="1">
-      <c r="A807" s="4"/>
-      <c r="B807" s="5"/>
-      <c r="C807" s="6"/>
-      <c r="D807" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E807" s="6"/>
-      <c r="F807" s="6"/>
-      <c r="G807" s="6"/>
-    </row>
-    <row r="808" ht="22.5" customHeight="1">
-      <c r="A808" s="4"/>
-      <c r="B808" s="5"/>
-      <c r="C808" s="6"/>
-      <c r="D808" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E808" s="6"/>
-      <c r="F808" s="6"/>
-      <c r="G808" s="6"/>
-    </row>
-    <row r="809" ht="22.5" customHeight="1">
-      <c r="A809" s="4"/>
-      <c r="B809" s="5"/>
-      <c r="C809" s="6"/>
-      <c r="D809" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E809" s="6"/>
-      <c r="F809" s="6"/>
-      <c r="G809" s="6"/>
-    </row>
-    <row r="810" ht="22.5" customHeight="1">
-      <c r="A810" s="4"/>
-      <c r="B810" s="5"/>
-      <c r="C810" s="6"/>
-      <c r="D810" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E810" s="6"/>
-      <c r="F810" s="6"/>
-      <c r="G810" s="6"/>
-    </row>
-    <row r="811" ht="22.5" customHeight="1">
-      <c r="A811" s="4"/>
-      <c r="B811" s="5"/>
-      <c r="C811" s="6"/>
-      <c r="D811" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E811" s="6"/>
-      <c r="F811" s="6"/>
-      <c r="G811" s="6"/>
-    </row>
-    <row r="812" ht="22.5" customHeight="1">
-      <c r="A812" s="4"/>
-      <c r="B812" s="5"/>
-      <c r="C812" s="6"/>
-      <c r="D812" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E812" s="6"/>
-      <c r="F812" s="6"/>
-      <c r="G812" s="6"/>
-    </row>
-    <row r="813" ht="22.5" customHeight="1">
-      <c r="A813" s="4"/>
-      <c r="B813" s="5"/>
-      <c r="C813" s="6"/>
-      <c r="D813" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E813" s="6"/>
-      <c r="F813" s="6"/>
-      <c r="G813" s="6"/>
-    </row>
-    <row r="814" ht="22.5" customHeight="1">
-      <c r="A814" s="4"/>
-      <c r="B814" s="5"/>
-      <c r="C814" s="6"/>
-      <c r="D814" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E814" s="6"/>
-      <c r="F814" s="6"/>
-      <c r="G814" s="6"/>
-    </row>
-    <row r="815" ht="22.5" customHeight="1">
-      <c r="A815" s="4"/>
-      <c r="B815" s="5"/>
-      <c r="C815" s="6"/>
-      <c r="D815" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E815" s="6"/>
-      <c r="F815" s="6"/>
-      <c r="G815" s="6"/>
-    </row>
-    <row r="816" ht="22.5" customHeight="1">
-      <c r="A816" s="4"/>
-      <c r="B816" s="5"/>
-      <c r="C816" s="6"/>
-      <c r="D816" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E816" s="6"/>
-      <c r="F816" s="6"/>
-      <c r="G816" s="6"/>
-    </row>
-    <row r="817" ht="22.5" customHeight="1">
-      <c r="A817" s="4"/>
-      <c r="B817" s="5"/>
-      <c r="C817" s="6"/>
-      <c r="D817" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E817" s="6"/>
-      <c r="F817" s="6"/>
-      <c r="G817" s="6"/>
-    </row>
-    <row r="818" ht="22.5" customHeight="1">
-      <c r="A818" s="4"/>
-      <c r="B818" s="5"/>
-      <c r="C818" s="6"/>
-      <c r="D818" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E818" s="6"/>
-      <c r="F818" s="6"/>
-      <c r="G818" s="6"/>
-    </row>
-    <row r="819" ht="22.5" customHeight="1">
-      <c r="A819" s="4"/>
-      <c r="B819" s="5"/>
-      <c r="C819" s="6"/>
-      <c r="D819" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E819" s="6"/>
-      <c r="F819" s="6"/>
-      <c r="G819" s="6"/>
-    </row>
-    <row r="820" ht="22.5" customHeight="1">
-      <c r="A820" s="4"/>
-      <c r="B820" s="5"/>
-      <c r="C820" s="6"/>
-      <c r="D820" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E820" s="6"/>
-      <c r="F820" s="6"/>
-      <c r="G820" s="6"/>
-    </row>
-    <row r="821" ht="22.5" customHeight="1">
-      <c r="A821" s="4"/>
-      <c r="B821" s="5"/>
-      <c r="C821" s="6"/>
-      <c r="D821" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E821" s="6"/>
-      <c r="F821" s="6"/>
-      <c r="G821" s="6"/>
-    </row>
-    <row r="822" ht="22.5" customHeight="1">
-      <c r="A822" s="4"/>
-      <c r="B822" s="5"/>
-      <c r="C822" s="6"/>
-      <c r="D822" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E822" s="6"/>
-      <c r="F822" s="6"/>
-      <c r="G822" s="6"/>
-    </row>
-    <row r="823" ht="22.5" customHeight="1">
-      <c r="A823" s="4"/>
-      <c r="B823" s="5"/>
-      <c r="C823" s="6"/>
-      <c r="D823" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E823" s="6"/>
-      <c r="F823" s="6"/>
-      <c r="G823" s="6"/>
-    </row>
-    <row r="824" ht="22.5" customHeight="1">
-      <c r="A824" s="4"/>
-      <c r="B824" s="5"/>
-      <c r="C824" s="6"/>
-      <c r="D824" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E824" s="6"/>
-      <c r="F824" s="6"/>
-      <c r="G824" s="6"/>
-    </row>
-    <row r="825" ht="22.5" customHeight="1">
-      <c r="A825" s="4"/>
-      <c r="B825" s="5"/>
-      <c r="C825" s="6"/>
-      <c r="D825" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E825" s="6"/>
-      <c r="F825" s="6"/>
-      <c r="G825" s="6"/>
-    </row>
-    <row r="826" ht="22.5" customHeight="1">
-      <c r="A826" s="4"/>
-      <c r="B826" s="5"/>
-      <c r="C826" s="6"/>
-      <c r="D826" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E826" s="6"/>
-      <c r="F826" s="6"/>
-      <c r="G826" s="6"/>
-    </row>
-    <row r="827" ht="22.5" customHeight="1">
-      <c r="A827" s="4"/>
-      <c r="B827" s="5"/>
-      <c r="C827" s="6"/>
-      <c r="D827" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E827" s="6"/>
-      <c r="F827" s="6"/>
-      <c r="G827" s="6"/>
-    </row>
-    <row r="828" ht="22.5" customHeight="1">
-      <c r="A828" s="4"/>
-      <c r="B828" s="5"/>
-      <c r="C828" s="6"/>
-      <c r="D828" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E828" s="6"/>
-      <c r="F828" s="6"/>
-      <c r="G828" s="6"/>
-    </row>
-    <row r="829" ht="22.5" customHeight="1">
-      <c r="A829" s="4"/>
-      <c r="B829" s="5"/>
-      <c r="C829" s="6"/>
-      <c r="D829" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E829" s="6"/>
-      <c r="F829" s="6"/>
-      <c r="G829" s="6"/>
-    </row>
-    <row r="830" ht="22.5" customHeight="1">
-      <c r="A830" s="4"/>
-      <c r="B830" s="5"/>
-      <c r="C830" s="6"/>
-      <c r="D830" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E830" s="6"/>
-      <c r="F830" s="6"/>
-      <c r="G830" s="6"/>
-    </row>
-    <row r="831" ht="22.5" customHeight="1">
-      <c r="A831" s="4"/>
-      <c r="B831" s="5"/>
-      <c r="C831" s="6"/>
-      <c r="D831" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E831" s="6"/>
-      <c r="F831" s="6"/>
-      <c r="G831" s="6"/>
-    </row>
-    <row r="832" ht="22.5" customHeight="1">
-      <c r="A832" s="4"/>
-      <c r="B832" s="5"/>
-      <c r="C832" s="6"/>
-      <c r="D832" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E832" s="6"/>
-      <c r="F832" s="6"/>
-      <c r="G832" s="6"/>
-    </row>
-    <row r="833" ht="22.5" customHeight="1">
-      <c r="A833" s="4"/>
-      <c r="B833" s="5"/>
-      <c r="C833" s="6"/>
-      <c r="D833" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E833" s="6"/>
-      <c r="F833" s="6"/>
-      <c r="G833" s="6"/>
+      <c r="E833" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F833" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G833" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="834" ht="22.5" customHeight="1">
-      <c r="A834" s="4"/>
-      <c r="B834" s="5"/>
-      <c r="C834" s="6"/>
-      <c r="D834" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E834" s="6"/>
-      <c r="F834" s="6"/>
-      <c r="G834" s="6"/>
+      <c r="A834" s="7">
+        <v>46041.77377436342</v>
+      </c>
+      <c r="B834" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C834" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D834" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E834" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F834" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G834" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="835" ht="22.5" customHeight="1">
-      <c r="A835" s="4"/>
-      <c r="B835" s="5"/>
-      <c r="C835" s="6"/>
-      <c r="D835" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E835" s="6"/>
-      <c r="F835" s="6"/>
-      <c r="G835" s="6"/>
+      <c r="A835" s="7">
+        <v>46041.77379037037</v>
+      </c>
+      <c r="B835" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C835" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D835" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E835" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F835" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G835" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="836" ht="22.5" customHeight="1">
-      <c r="A836" s="4"/>
-      <c r="B836" s="5"/>
-      <c r="C836" s="6"/>
-      <c r="D836" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E836" s="6"/>
-      <c r="F836" s="6"/>
-      <c r="G836" s="6"/>
+      <c r="A836" s="7">
+        <v>46041.77387535879</v>
+      </c>
+      <c r="B836" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C836" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D836" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E836" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F836" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G836" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="837" ht="22.5" customHeight="1">
-      <c r="A837" s="4"/>
-      <c r="B837" s="5"/>
-      <c r="C837" s="6"/>
-      <c r="D837" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E837" s="6"/>
-      <c r="F837" s="6"/>
-      <c r="G837" s="6"/>
+      <c r="A837" s="7">
+        <v>46041.77422853009</v>
+      </c>
+      <c r="B837" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C837" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D837" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E837" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F837" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G837" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="838" ht="22.5" customHeight="1">
-      <c r="A838" s="4"/>
-      <c r="B838" s="5"/>
-      <c r="C838" s="6"/>
-      <c r="D838" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E838" s="6"/>
-      <c r="F838" s="6"/>
-      <c r="G838" s="6"/>
+      <c r="A838" s="7">
+        <v>46041.774453923616</v>
+      </c>
+      <c r="B838" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C838" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D838" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E838" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F838" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G838" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="839" ht="22.5" customHeight="1">
-      <c r="A839" s="4"/>
-      <c r="B839" s="5"/>
-      <c r="C839" s="6"/>
-      <c r="D839" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E839" s="6"/>
-      <c r="F839" s="6"/>
-      <c r="G839" s="6"/>
+      <c r="A839" s="7">
+        <v>46041.77452023148</v>
+      </c>
+      <c r="B839" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C839" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D839" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E839" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F839" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G839" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="840" ht="22.5" customHeight="1">
-      <c r="A840" s="4"/>
-      <c r="B840" s="5"/>
-      <c r="C840" s="6"/>
-      <c r="D840" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E840" s="6"/>
-      <c r="F840" s="6"/>
-      <c r="G840" s="6"/>
+      <c r="A840" s="7">
+        <v>46041.77493297454</v>
+      </c>
+      <c r="B840" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C840" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D840" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E840" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F840" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G840" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="841" ht="22.5" customHeight="1">
-      <c r="A841" s="4"/>
-      <c r="B841" s="5"/>
-      <c r="C841" s="6"/>
-      <c r="D841" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E841" s="6"/>
-      <c r="F841" s="6"/>
-      <c r="G841" s="6"/>
+      <c r="A841" s="7">
+        <v>46041.77501888889</v>
+      </c>
+      <c r="B841" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C841" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D841" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E841" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F841" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G841" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="842" ht="22.5" customHeight="1">
-      <c r="A842" s="4"/>
-      <c r="B842" s="5"/>
-      <c r="C842" s="6"/>
-      <c r="D842" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E842" s="6"/>
-      <c r="F842" s="6"/>
-      <c r="G842" s="6"/>
+      <c r="A842" s="7">
+        <v>46041.77519372685</v>
+      </c>
+      <c r="B842" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C842" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D842" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E842" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F842" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G842" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="843" ht="22.5" customHeight="1">
-      <c r="A843" s="4"/>
-      <c r="B843" s="5"/>
-      <c r="C843" s="6"/>
-      <c r="D843" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E843" s="6"/>
-      <c r="F843" s="6"/>
-      <c r="G843" s="6"/>
+      <c r="A843" s="7">
+        <v>46041.775208252315</v>
+      </c>
+      <c r="B843" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C843" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D843" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E843" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F843" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G843" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="844" ht="22.5" customHeight="1">
-      <c r="A844" s="4"/>
-      <c r="B844" s="5"/>
-      <c r="C844" s="6"/>
-      <c r="D844" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E844" s="6"/>
-      <c r="F844" s="6"/>
-      <c r="G844" s="6"/>
+      <c r="A844" s="7">
+        <v>46041.77529361111</v>
+      </c>
+      <c r="B844" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C844" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D844" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E844" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F844" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G844" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="845" ht="22.5" customHeight="1">
-      <c r="A845" s="4"/>
-      <c r="B845" s="5"/>
-      <c r="C845" s="6"/>
-      <c r="D845" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E845" s="6"/>
-      <c r="F845" s="6"/>
-      <c r="G845" s="6"/>
+      <c r="A845" s="7">
+        <v>46041.7763109838</v>
+      </c>
+      <c r="B845" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C845" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D845" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E845" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F845" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G845" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="846" ht="22.5" customHeight="1">
-      <c r="A846" s="4"/>
-      <c r="B846" s="5"/>
-      <c r="C846" s="6"/>
-      <c r="D846" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E846" s="6"/>
-      <c r="F846" s="6"/>
-      <c r="G846" s="6"/>
+      <c r="A846" s="7">
+        <v>46041.77777141204</v>
+      </c>
+      <c r="B846" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C846" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D846" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E846" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F846" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G846" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="847" ht="22.5" customHeight="1">
-      <c r="A847" s="4"/>
-      <c r="B847" s="5"/>
-      <c r="C847" s="6"/>
-      <c r="D847" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E847" s="6"/>
-      <c r="F847" s="6"/>
-      <c r="G847" s="6"/>
+      <c r="A847" s="7">
+        <v>46041.779262592594</v>
+      </c>
+      <c r="B847" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C847" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D847" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E847" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F847" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G847" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="848" ht="22.5" customHeight="1">
-      <c r="A848" s="4"/>
-      <c r="B848" s="5"/>
-      <c r="C848" s="6"/>
-      <c r="D848" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E848" s="6"/>
-      <c r="F848" s="6"/>
-      <c r="G848" s="6"/>
+      <c r="A848" s="7">
+        <v>46041.78401640046</v>
+      </c>
+      <c r="B848" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C848" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D848" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E848" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F848" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G848" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="849" ht="22.5" customHeight="1">
-      <c r="A849" s="4"/>
-      <c r="B849" s="5"/>
-      <c r="C849" s="6"/>
-      <c r="D849" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E849" s="6"/>
-      <c r="F849" s="6"/>
-      <c r="G849" s="6"/>
+      <c r="A849" s="7">
+        <v>46041.788100289355</v>
+      </c>
+      <c r="B849" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C849" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D849" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E849" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F849" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G849" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="850" ht="22.5" customHeight="1">
-      <c r="A850" s="4"/>
-      <c r="B850" s="5"/>
-      <c r="C850" s="6"/>
-      <c r="D850" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E850" s="6"/>
-      <c r="F850" s="6"/>
-      <c r="G850" s="6"/>
+      <c r="A850" s="7">
+        <v>46041.8217497338</v>
+      </c>
+      <c r="B850" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="C850" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D850" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E850" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F850" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G850" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="851" ht="22.5" customHeight="1">
       <c r="A851" s="4"/>
       <c r="B851" s="5"/>
       <c r="C851" s="6"/>
       <c r="D851" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E851" s="6"/>
       <c r="F851" s="6"/>
@@ -19664,7 +20315,7 @@
       <c r="B852" s="5"/>
       <c r="C852" s="6"/>
       <c r="D852" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E852" s="6"/>
       <c r="F852" s="6"/>
@@ -19675,7 +20326,7 @@
       <c r="B853" s="5"/>
       <c r="C853" s="6"/>
       <c r="D853" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E853" s="6"/>
       <c r="F853" s="6"/>
@@ -19686,7 +20337,7 @@
       <c r="B854" s="5"/>
       <c r="C854" s="6"/>
       <c r="D854" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E854" s="6"/>
       <c r="F854" s="6"/>
@@ -19697,7 +20348,7 @@
       <c r="B855" s="5"/>
       <c r="C855" s="6"/>
       <c r="D855" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E855" s="6"/>
       <c r="F855" s="6"/>
@@ -19708,7 +20359,7 @@
       <c r="B856" s="5"/>
       <c r="C856" s="6"/>
       <c r="D856" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E856" s="6"/>
       <c r="F856" s="6"/>
@@ -19719,7 +20370,7 @@
       <c r="B857" s="5"/>
       <c r="C857" s="6"/>
       <c r="D857" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E857" s="6"/>
       <c r="F857" s="6"/>
@@ -19730,7 +20381,7 @@
       <c r="B858" s="5"/>
       <c r="C858" s="6"/>
       <c r="D858" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E858" s="6"/>
       <c r="F858" s="6"/>
@@ -19741,7 +20392,7 @@
       <c r="B859" s="5"/>
       <c r="C859" s="6"/>
       <c r="D859" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E859" s="6"/>
       <c r="F859" s="6"/>
@@ -19752,7 +20403,7 @@
       <c r="B860" s="5"/>
       <c r="C860" s="6"/>
       <c r="D860" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E860" s="6"/>
       <c r="F860" s="6"/>
@@ -19763,7 +20414,7 @@
       <c r="B861" s="5"/>
       <c r="C861" s="6"/>
       <c r="D861" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E861" s="6"/>
       <c r="F861" s="6"/>
@@ -19774,7 +20425,7 @@
       <c r="B862" s="5"/>
       <c r="C862" s="6"/>
       <c r="D862" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E862" s="6"/>
       <c r="F862" s="6"/>
@@ -19785,7 +20436,7 @@
       <c r="B863" s="5"/>
       <c r="C863" s="6"/>
       <c r="D863" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E863" s="6"/>
       <c r="F863" s="6"/>
@@ -19796,7 +20447,7 @@
       <c r="B864" s="5"/>
       <c r="C864" s="6"/>
       <c r="D864" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E864" s="6"/>
       <c r="F864" s="6"/>
@@ -19807,7 +20458,7 @@
       <c r="B865" s="5"/>
       <c r="C865" s="6"/>
       <c r="D865" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E865" s="6"/>
       <c r="F865" s="6"/>
@@ -19818,7 +20469,7 @@
       <c r="B866" s="5"/>
       <c r="C866" s="6"/>
       <c r="D866" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E866" s="6"/>
       <c r="F866" s="6"/>
@@ -19829,7 +20480,7 @@
       <c r="B867" s="5"/>
       <c r="C867" s="6"/>
       <c r="D867" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E867" s="6"/>
       <c r="F867" s="6"/>
@@ -19840,7 +20491,7 @@
       <c r="B868" s="5"/>
       <c r="C868" s="6"/>
       <c r="D868" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E868" s="6"/>
       <c r="F868" s="6"/>
@@ -19851,7 +20502,7 @@
       <c r="B869" s="5"/>
       <c r="C869" s="6"/>
       <c r="D869" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E869" s="6"/>
       <c r="F869" s="6"/>
@@ -19862,7 +20513,7 @@
       <c r="B870" s="5"/>
       <c r="C870" s="6"/>
       <c r="D870" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E870" s="6"/>
       <c r="F870" s="6"/>
@@ -19873,7 +20524,7 @@
       <c r="B871" s="5"/>
       <c r="C871" s="6"/>
       <c r="D871" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E871" s="6"/>
       <c r="F871" s="6"/>
@@ -19884,7 +20535,7 @@
       <c r="B872" s="5"/>
       <c r="C872" s="6"/>
       <c r="D872" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E872" s="6"/>
       <c r="F872" s="6"/>
@@ -19895,7 +20546,7 @@
       <c r="B873" s="5"/>
       <c r="C873" s="6"/>
       <c r="D873" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E873" s="6"/>
       <c r="F873" s="6"/>
@@ -19906,7 +20557,7 @@
       <c r="B874" s="5"/>
       <c r="C874" s="6"/>
       <c r="D874" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E874" s="6"/>
       <c r="F874" s="6"/>
@@ -19917,7 +20568,7 @@
       <c r="B875" s="5"/>
       <c r="C875" s="6"/>
       <c r="D875" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E875" s="6"/>
       <c r="F875" s="6"/>
@@ -19928,7 +20579,7 @@
       <c r="B876" s="5"/>
       <c r="C876" s="6"/>
       <c r="D876" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E876" s="6"/>
       <c r="F876" s="6"/>
@@ -19939,7 +20590,7 @@
       <c r="B877" s="5"/>
       <c r="C877" s="6"/>
       <c r="D877" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E877" s="6"/>
       <c r="F877" s="6"/>
@@ -19950,7 +20601,7 @@
       <c r="B878" s="5"/>
       <c r="C878" s="6"/>
       <c r="D878" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E878" s="6"/>
       <c r="F878" s="6"/>
@@ -19961,7 +20612,7 @@
       <c r="B879" s="5"/>
       <c r="C879" s="6"/>
       <c r="D879" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E879" s="6"/>
       <c r="F879" s="6"/>
@@ -19972,7 +20623,7 @@
       <c r="B880" s="5"/>
       <c r="C880" s="6"/>
       <c r="D880" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E880" s="6"/>
       <c r="F880" s="6"/>
@@ -19983,7 +20634,7 @@
       <c r="B881" s="5"/>
       <c r="C881" s="6"/>
       <c r="D881" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E881" s="6"/>
       <c r="F881" s="6"/>
@@ -19994,7 +20645,7 @@
       <c r="B882" s="5"/>
       <c r="C882" s="6"/>
       <c r="D882" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E882" s="6"/>
       <c r="F882" s="6"/>
@@ -20005,7 +20656,7 @@
       <c r="B883" s="5"/>
       <c r="C883" s="6"/>
       <c r="D883" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E883" s="6"/>
       <c r="F883" s="6"/>
@@ -20016,7 +20667,7 @@
       <c r="B884" s="5"/>
       <c r="C884" s="6"/>
       <c r="D884" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E884" s="6"/>
       <c r="F884" s="6"/>
@@ -20027,7 +20678,7 @@
       <c r="B885" s="5"/>
       <c r="C885" s="6"/>
       <c r="D885" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E885" s="6"/>
       <c r="F885" s="6"/>
@@ -20038,7 +20689,7 @@
       <c r="B886" s="5"/>
       <c r="C886" s="6"/>
       <c r="D886" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E886" s="6"/>
       <c r="F886" s="6"/>
@@ -20049,7 +20700,7 @@
       <c r="B887" s="5"/>
       <c r="C887" s="6"/>
       <c r="D887" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E887" s="6"/>
       <c r="F887" s="6"/>
@@ -20060,7 +20711,7 @@
       <c r="B888" s="5"/>
       <c r="C888" s="6"/>
       <c r="D888" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E888" s="6"/>
       <c r="F888" s="6"/>
@@ -20071,7 +20722,7 @@
       <c r="B889" s="5"/>
       <c r="C889" s="6"/>
       <c r="D889" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E889" s="6"/>
       <c r="F889" s="6"/>
@@ -20082,7 +20733,7 @@
       <c r="B890" s="5"/>
       <c r="C890" s="6"/>
       <c r="D890" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E890" s="6"/>
       <c r="F890" s="6"/>
@@ -20093,7 +20744,7 @@
       <c r="B891" s="5"/>
       <c r="C891" s="6"/>
       <c r="D891" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E891" s="6"/>
       <c r="F891" s="6"/>
@@ -20104,7 +20755,7 @@
       <c r="B892" s="5"/>
       <c r="C892" s="6"/>
       <c r="D892" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E892" s="6"/>
       <c r="F892" s="6"/>
@@ -20115,7 +20766,7 @@
       <c r="B893" s="5"/>
       <c r="C893" s="6"/>
       <c r="D893" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E893" s="6"/>
       <c r="F893" s="6"/>
@@ -20126,7 +20777,7 @@
       <c r="B894" s="5"/>
       <c r="C894" s="6"/>
       <c r="D894" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E894" s="6"/>
       <c r="F894" s="6"/>
@@ -20137,7 +20788,7 @@
       <c r="B895" s="5"/>
       <c r="C895" s="6"/>
       <c r="D895" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E895" s="6"/>
       <c r="F895" s="6"/>
@@ -20148,29 +20799,623 @@
       <c r="B896" s="5"/>
       <c r="C896" s="6"/>
       <c r="D896" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E896" s="6"/>
       <c r="F896" s="6"/>
       <c r="G896" s="6"/>
     </row>
+    <row r="897" ht="22.5" customHeight="1">
+      <c r="A897" s="4"/>
+      <c r="B897" s="5"/>
+      <c r="C897" s="6"/>
+      <c r="D897" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E897" s="6"/>
+      <c r="F897" s="6"/>
+      <c r="G897" s="6"/>
+    </row>
+    <row r="898" ht="22.5" customHeight="1">
+      <c r="A898" s="4"/>
+      <c r="B898" s="5"/>
+      <c r="C898" s="6"/>
+      <c r="D898" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E898" s="6"/>
+      <c r="F898" s="6"/>
+      <c r="G898" s="6"/>
+    </row>
+    <row r="899" ht="22.5" customHeight="1">
+      <c r="A899" s="4"/>
+      <c r="B899" s="5"/>
+      <c r="C899" s="6"/>
+      <c r="D899" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E899" s="6"/>
+      <c r="F899" s="6"/>
+      <c r="G899" s="6"/>
+    </row>
+    <row r="900" ht="22.5" customHeight="1">
+      <c r="A900" s="4"/>
+      <c r="B900" s="5"/>
+      <c r="C900" s="6"/>
+      <c r="D900" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E900" s="6"/>
+      <c r="F900" s="6"/>
+      <c r="G900" s="6"/>
+    </row>
+    <row r="901" ht="22.5" customHeight="1">
+      <c r="A901" s="4"/>
+      <c r="B901" s="5"/>
+      <c r="C901" s="6"/>
+      <c r="D901" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E901" s="6"/>
+      <c r="F901" s="6"/>
+      <c r="G901" s="6"/>
+    </row>
+    <row r="902" ht="22.5" customHeight="1">
+      <c r="A902" s="4"/>
+      <c r="B902" s="5"/>
+      <c r="C902" s="6"/>
+      <c r="D902" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E902" s="6"/>
+      <c r="F902" s="6"/>
+      <c r="G902" s="6"/>
+    </row>
+    <row r="903" ht="22.5" customHeight="1">
+      <c r="A903" s="4"/>
+      <c r="B903" s="5"/>
+      <c r="C903" s="6"/>
+      <c r="D903" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E903" s="6"/>
+      <c r="F903" s="6"/>
+      <c r="G903" s="6"/>
+    </row>
+    <row r="904" ht="22.5" customHeight="1">
